--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1225">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -2092,42 +2092,6 @@
   </si>
   <si>
     <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"jing_bi","jing_bi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>shop_gold_sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",</t>
-    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5418,6 +5382,94 @@
   </si>
   <si>
     <t>{12,20,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP2直通礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP4直通礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","20话费碎片","600～2万福卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7800万金币","200话费碎片","3500～8万福卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3000万金币","50话费碎片","1200～3万福卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>78000000,200,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"jing_bi","jing_bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shop_gold_sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{730,850,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1350,1550,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{3600,3800,100},</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6027,7 +6079,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -6054,10 +6106,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H2" s="12">
         <v>0</v>
@@ -6084,10 +6136,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H3" s="12">
         <v>1</v>
@@ -6114,10 +6166,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -6216,7 +6268,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6329,7 +6381,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>46</v>
@@ -6371,10 +6423,10 @@
         <v>50</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AC2" s="2">
         <v>1</v>
@@ -6409,7 +6461,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>46</v>
@@ -6451,7 +6503,7 @@
         <v>53</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>51</v>
@@ -6489,7 +6541,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>46</v>
@@ -6531,7 +6583,7 @@
         <v>55</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>51</v>
@@ -6569,7 +6621,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>46</v>
@@ -6611,7 +6663,7 @@
         <v>57</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>51</v>
@@ -6649,7 +6701,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>46</v>
@@ -6691,7 +6743,7 @@
         <v>59</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>51</v>
@@ -6729,7 +6781,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>46</v>
@@ -6771,7 +6823,7 @@
         <v>61</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>51</v>
@@ -6809,7 +6861,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>46</v>
@@ -6851,7 +6903,7 @@
         <v>63</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Z8" s="2" t="s">
         <v>51</v>
@@ -6889,7 +6941,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>46</v>
@@ -6931,7 +6983,7 @@
         <v>65</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>51</v>
@@ -6970,7 +7022,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>46</v>
@@ -7012,7 +7064,7 @@
         <v>67</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Z10" s="11" t="s">
         <v>51</v>
@@ -7053,7 +7105,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>46</v>
@@ -7095,7 +7147,7 @@
         <v>72</v>
       </c>
       <c r="Y11" s="34" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Z11" s="11" t="s">
         <v>51</v>
@@ -7133,7 +7185,7 @@
         <v>45</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>46</v>
@@ -7175,7 +7227,7 @@
         <v>75</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="Z12" s="11" t="s">
         <v>51</v>
@@ -7213,7 +7265,7 @@
         <v>45</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>46</v>
@@ -7255,7 +7307,7 @@
         <v>78</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Z13" s="11" t="s">
         <v>51</v>
@@ -7293,7 +7345,7 @@
         <v>45</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>46</v>
@@ -7335,7 +7387,7 @@
         <v>82</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Z14" s="11" t="s">
         <v>51</v>
@@ -7373,7 +7425,7 @@
         <v>45</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>46</v>
@@ -7415,7 +7467,7 @@
         <v>86</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Z15" s="11" t="s">
         <v>51</v>
@@ -7453,7 +7505,7 @@
         <v>45</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>46</v>
@@ -7495,7 +7547,7 @@
         <v>89</v>
       </c>
       <c r="Y16" s="34" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Z16" s="11" t="s">
         <v>51</v>
@@ -7525,7 +7577,7 @@
         <v>90</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>46</v>
@@ -7555,10 +7607,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="W17" s="11" t="s">
         <v>49</v>
@@ -7567,7 +7619,7 @@
         <v>50</v>
       </c>
       <c r="Y17" s="34" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Z17" s="11" t="s">
         <v>51</v>
@@ -7597,7 +7649,7 @@
         <v>90</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>46</v>
@@ -7627,10 +7679,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="W18" s="11" t="s">
         <v>49</v>
@@ -7639,7 +7691,7 @@
         <v>53</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Z18" s="11" t="s">
         <v>51</v>
@@ -7669,7 +7721,7 @@
         <v>90</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>46</v>
@@ -7699,10 +7751,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="W19" s="11" t="s">
         <v>49</v>
@@ -7711,7 +7763,7 @@
         <v>55</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="Z19" s="11" t="s">
         <v>51</v>
@@ -7741,7 +7793,7 @@
         <v>90</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>46</v>
@@ -7771,10 +7823,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="W20" s="11" t="s">
         <v>49</v>
@@ -7783,7 +7835,7 @@
         <v>57</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Z20" s="11" t="s">
         <v>51</v>
@@ -7813,7 +7865,7 @@
         <v>90</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>46</v>
@@ -7843,10 +7895,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="W21" s="11" t="s">
         <v>49</v>
@@ -7855,7 +7907,7 @@
         <v>59</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Z21" s="11" t="s">
         <v>51</v>
@@ -7885,7 +7937,7 @@
         <v>90</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>46</v>
@@ -7915,10 +7967,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="W22" s="11" t="s">
         <v>49</v>
@@ -7927,7 +7979,7 @@
         <v>91</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z22" s="11" t="s">
         <v>51</v>
@@ -7957,7 +8009,7 @@
         <v>90</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>46</v>
@@ -7987,10 +8039,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>49</v>
@@ -7999,7 +8051,7 @@
         <v>63</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Z23" s="11" t="s">
         <v>51</v>
@@ -8038,7 +8090,7 @@
         <v>45</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>46</v>
@@ -8068,19 +8120,19 @@
         <v>6</v>
       </c>
       <c r="T24" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="U24" s="34" t="s">
         <v>552</v>
-      </c>
-      <c r="U24" s="34" t="s">
-        <v>553</v>
       </c>
       <c r="W24" s="11" t="s">
         <v>49</v>
       </c>
       <c r="X24" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Z24" s="11" t="s">
         <v>51</v>
@@ -8102,13 +8154,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL337"/>
+  <dimension ref="A1:AL340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H316" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="I339" sqref="I339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -8169,7 +8221,7 @@
         <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>95</v>
@@ -8202,10 +8254,10 @@
         <v>97</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>98</v>
@@ -8305,7 +8357,7 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V2" s="7">
         <v>0</v>
@@ -8363,7 +8415,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V3" s="7">
         <v>0</v>
@@ -8421,7 +8473,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="V4" s="7">
         <v>0</v>
@@ -8456,7 +8508,7 @@
         <v>120</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="5">
@@ -8478,13 +8530,13 @@
         <v>90</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>121</v>
@@ -8499,7 +8551,7 @@
         <v>122</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AF5" s="5">
         <v>1</v>
@@ -8543,7 +8595,7 @@
         <v>125</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V6" s="7">
         <v>0</v>
@@ -8601,7 +8653,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V7" s="7">
         <v>1000</v>
@@ -8633,7 +8685,7 @@
         <v>123</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J8" s="5">
         <v>-6</v>
@@ -8654,10 +8706,10 @@
         <v>129</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V8" s="5">
         <v>9999999</v>
@@ -8710,7 +8762,7 @@
         <v>132</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V9" s="7">
         <v>999999</v>
@@ -8763,7 +8815,7 @@
         <v>134</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V10" s="7">
         <v>0</v>
@@ -8816,7 +8868,7 @@
         <v>137</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V11" s="5">
         <v>999999</v>
@@ -8869,7 +8921,7 @@
         <v>140</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V12" s="5">
         <v>999999</v>
@@ -8901,7 +8953,7 @@
         <v>141</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J13" s="5">
         <v>-8</v>
@@ -8922,10 +8974,10 @@
         <v>142</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V13" s="5">
         <v>99999</v>
@@ -8978,7 +9030,7 @@
         <v>143</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V14" s="5">
         <v>99999</v>
@@ -9010,7 +9062,7 @@
         <v>145</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J15" s="5">
         <v>-8</v>
@@ -9034,7 +9086,7 @@
         <v>147</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V15" s="5">
         <v>99999</v>
@@ -9066,7 +9118,7 @@
         <v>148</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J16" s="5">
         <v>-8</v>
@@ -9090,7 +9142,7 @@
         <v>147</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V16" s="5">
         <v>99999</v>
@@ -9143,7 +9195,7 @@
         <v>151</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V17" s="5">
         <v>99999</v>
@@ -9199,7 +9251,7 @@
         <v>155</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V18" s="5">
         <v>99999</v>
@@ -9258,7 +9310,7 @@
         <v>158</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V19" s="5">
         <v>99999</v>
@@ -9308,13 +9360,13 @@
         <v>600</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V20" s="5">
         <v>999999</v>
@@ -9343,10 +9395,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J21" s="5">
         <v>-11</v>
@@ -9367,10 +9419,10 @@
         <v>160</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V21" s="5">
         <v>999999</v>
@@ -9405,7 +9457,7 @@
         <v>161</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J22" s="5">
         <v>-10</v>
@@ -9426,10 +9478,10 @@
         <v>160</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V22" s="5">
         <v>999999</v>
@@ -9461,10 +9513,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>890</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>891</v>
       </c>
       <c r="J23" s="5">
         <v>-13</v>
@@ -9488,7 +9540,7 @@
         <v>162</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V23" s="5">
         <v>999999</v>
@@ -9544,7 +9596,7 @@
         <v>162</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V24" s="5">
         <v>999999</v>
@@ -9600,7 +9652,7 @@
         <v>158</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V25" s="5">
         <v>2000</v>
@@ -9650,10 +9702,10 @@
         <v>90</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V26" s="14" t="s">
         <v>121</v>
@@ -9703,10 +9755,10 @@
         <v>90</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V27" s="14" t="s">
         <v>170</v>
@@ -9756,10 +9808,10 @@
         <v>90</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V28" s="14" t="s">
         <v>172</v>
@@ -9809,10 +9861,10 @@
         <v>90</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V29" s="14" t="s">
         <v>174</v>
@@ -9862,10 +9914,10 @@
         <v>90</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V30" s="14" t="s">
         <v>176</v>
@@ -9915,10 +9967,10 @@
         <v>90</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V31" s="14" t="s">
         <v>178</v>
@@ -9968,10 +10020,10 @@
         <v>90</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="U32" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V32" s="14" t="s">
         <v>180</v>
@@ -10021,10 +10073,10 @@
         <v>90</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V33" s="14" t="s">
         <v>182</v>
@@ -10074,10 +10126,10 @@
         <v>90</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V34" s="14" t="s">
         <v>184</v>
@@ -10127,10 +10179,10 @@
         <v>90</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V35" s="14" t="s">
         <v>186</v>
@@ -10180,10 +10232,10 @@
         <v>90</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="U36" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V36" s="14" t="s">
         <v>188</v>
@@ -10233,10 +10285,10 @@
         <v>90</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V37" s="14" t="s">
         <v>190</v>
@@ -10286,10 +10338,10 @@
         <v>90</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V38" s="14" t="s">
         <v>192</v>
@@ -10339,10 +10391,10 @@
         <v>90</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V39" s="14" t="s">
         <v>194</v>
@@ -10392,10 +10444,10 @@
         <v>90</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V40" s="14" t="s">
         <v>196</v>
@@ -10445,10 +10497,10 @@
         <v>90</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V41" s="14" t="s">
         <v>198</v>
@@ -10498,10 +10550,10 @@
         <v>90</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V42" s="14" t="s">
         <v>200</v>
@@ -10551,10 +10603,10 @@
         <v>90</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U43" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V43" s="14" t="s">
         <v>202</v>
@@ -10604,10 +10656,10 @@
         <v>90</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V44" s="14" t="s">
         <v>204</v>
@@ -10657,10 +10709,10 @@
         <v>90</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U45" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V45" s="14" t="s">
         <v>206</v>
@@ -10710,10 +10762,10 @@
         <v>90</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U46" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V46" s="14" t="s">
         <v>208</v>
@@ -10763,10 +10815,10 @@
         <v>90</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V47" s="14" t="s">
         <v>210</v>
@@ -10816,10 +10868,10 @@
         <v>90</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V48" s="14" t="s">
         <v>212</v>
@@ -10869,10 +10921,10 @@
         <v>90</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U49" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V49" s="14" t="s">
         <v>214</v>
@@ -10922,10 +10974,10 @@
         <v>90</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U50" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V50" s="14" t="s">
         <v>216</v>
@@ -10977,13 +11029,13 @@
         <v>218</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Q51" s="7"/>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V51" s="5">
         <v>9999</v>
@@ -11035,13 +11087,13 @@
         <v>218</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Q52" s="7"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V52" s="5">
         <v>9999</v>
@@ -11093,13 +11145,13 @@
         <v>218</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Q53" s="7"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V53" s="5">
         <v>9999</v>
@@ -11131,7 +11183,7 @@
         <v>219</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="J54" s="5">
         <v>-13</v>
@@ -11152,10 +11204,10 @@
         <v>220</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="U54" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V54" s="5">
         <v>999999999</v>
@@ -11205,10 +11257,10 @@
         <v>222</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U55" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V55" s="5">
         <v>9999999</v>
@@ -11237,10 +11289,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J56" s="22">
         <v>-18</v>
@@ -11261,10 +11313,10 @@
         <v>223</v>
       </c>
       <c r="P56" s="22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="U56" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V56" s="22">
         <v>999999</v>
@@ -11296,7 +11348,7 @@
         <v>224</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J57" s="5">
         <v>-19</v>
@@ -11317,10 +11369,10 @@
         <v>225</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U57" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V57" s="5">
         <v>999999</v>
@@ -11370,10 +11422,10 @@
         <v>90</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="U58" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V58" s="14" t="s">
         <v>121</v>
@@ -11423,10 +11475,10 @@
         <v>90</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="U59" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V59" s="14" t="s">
         <v>121</v>
@@ -11476,10 +11528,10 @@
         <v>90</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V60" s="14" t="s">
         <v>121</v>
@@ -11529,10 +11581,10 @@
         <v>90</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="U61" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V61" s="14" t="s">
         <v>121</v>
@@ -11582,10 +11634,10 @@
         <v>90</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="U62" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V62" s="14" t="s">
         <v>121</v>
@@ -11635,10 +11687,10 @@
         <v>90</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V63" s="14" t="s">
         <v>121</v>
@@ -11688,10 +11740,10 @@
         <v>90</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U64" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V64" s="14" t="s">
         <v>194</v>
@@ -11741,10 +11793,10 @@
         <v>90</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V65" s="14" t="s">
         <v>194</v>
@@ -11776,10 +11828,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>1081</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>1082</v>
       </c>
       <c r="J66" s="5">
         <v>-4</v>
@@ -11797,7 +11849,7 @@
         <v>600</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V66" s="14" t="s">
         <v>121</v>
@@ -11812,10 +11864,10 @@
         <v>90</v>
       </c>
       <c r="AA66" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB66" s="10" t="s">
         <v>739</v>
-      </c>
-      <c r="AB66" s="10" t="s">
-        <v>740</v>
       </c>
       <c r="AF66" s="5">
         <v>1</v>
@@ -11859,10 +11911,10 @@
         <v>90</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V67" s="14" t="s">
         <v>121</v>
@@ -11915,10 +11967,10 @@
         <v>90</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V68" s="14" t="s">
         <v>121</v>
@@ -11971,10 +12023,10 @@
         <v>90</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V69" s="14" t="s">
         <v>121</v>
@@ -12027,10 +12079,10 @@
         <v>90</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V70" s="14" t="s">
         <v>121</v>
@@ -12083,10 +12135,10 @@
         <v>90</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U71" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V71" s="14" t="s">
         <v>121</v>
@@ -12121,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J72" s="5">
         <v>-4</v>
@@ -12139,7 +12191,7 @@
         <v>600</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V72" s="14" t="s">
         <v>121</v>
@@ -12207,7 +12259,7 @@
         <v>236</v>
       </c>
       <c r="U73" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V73" s="14" t="s">
         <v>121</v>
@@ -12266,7 +12318,7 @@
         <v>238</v>
       </c>
       <c r="U74" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V74" s="14" t="s">
         <v>121</v>
@@ -12325,7 +12377,7 @@
         <v>240</v>
       </c>
       <c r="U75" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V75" s="14" t="s">
         <v>121</v>
@@ -12384,7 +12436,7 @@
         <v>247</v>
       </c>
       <c r="U76" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V76" s="14" t="s">
         <v>121</v>
@@ -12416,7 +12468,7 @@
         <v>248</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="J77" s="19">
         <v>-20</v>
@@ -12434,13 +12486,13 @@
         <v>100</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="U77" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V77" s="38" t="s">
         <v>121</v>
@@ -12472,7 +12524,7 @@
         <v>249</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J78" s="19">
         <v>-20</v>
@@ -12490,13 +12542,13 @@
         <v>600</v>
       </c>
       <c r="O78" s="19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="U78" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V78" s="38" t="s">
         <v>121</v>
@@ -12511,10 +12563,10 @@
         <v>90</v>
       </c>
       <c r="AA78" s="19" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AB78" s="40" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AF78" s="19">
         <v>1</v>
@@ -12534,10 +12586,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J79" s="5">
         <v>-20</v>
@@ -12558,10 +12610,10 @@
         <v>250</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="U79" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V79" s="14" t="s">
         <v>121</v>
@@ -12576,10 +12628,10 @@
         <v>90</v>
       </c>
       <c r="AA79" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AB79" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AF79" s="5">
         <v>1</v>
@@ -12599,10 +12651,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J80" s="5">
         <v>-20</v>
@@ -12623,10 +12675,10 @@
         <v>250</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="U80" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V80" s="14" t="s">
         <v>121</v>
@@ -12641,13 +12693,13 @@
         <v>16</v>
       </c>
       <c r="Z80" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AA80" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AB80" s="10" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AF80" s="5">
         <v>1</v>
@@ -12670,7 +12722,7 @@
         <v>252</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J81" s="19">
         <v>-20</v>
@@ -12688,13 +12740,13 @@
         <v>4800</v>
       </c>
       <c r="O81" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="U81" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V81" s="38" t="s">
         <v>121</v>
@@ -12706,10 +12758,10 @@
         <v>2552233600</v>
       </c>
       <c r="Z81" s="19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF81" s="19">
         <v>1</v>
@@ -12732,7 +12784,7 @@
         <v>253</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J82" s="5">
         <v>-20</v>
@@ -12753,10 +12805,10 @@
         <v>254</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="U82" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V82" s="14" t="s">
         <v>121</v>
@@ -12788,7 +12840,7 @@
         <v>255</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J83" s="5">
         <v>-21</v>
@@ -12806,13 +12858,13 @@
         <v>4800</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="U83" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V83" s="5">
         <v>99999999</v>
@@ -12844,7 +12896,7 @@
         <v>256</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J84" s="5">
         <v>-22</v>
@@ -12862,13 +12914,13 @@
         <v>4800</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="U84" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V84" s="5">
         <v>99999999</v>
@@ -12897,10 +12949,10 @@
         <v>1</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J85" s="5">
         <v>-23</v>
@@ -12921,10 +12973,10 @@
         <v>250</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="U85" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V85" s="14" t="s">
         <v>170</v>
@@ -12953,10 +13005,10 @@
         <v>1</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J86" s="5">
         <v>-24</v>
@@ -12974,7 +13026,7 @@
         <v>4800</v>
       </c>
       <c r="U86" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V86" s="5">
         <v>99999999</v>
@@ -13003,10 +13055,10 @@
         <v>1</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J87" s="5">
         <v>-25</v>
@@ -13027,10 +13079,10 @@
         <v>250</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="U87" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V87" s="5">
         <v>99999999</v>
@@ -13062,7 +13114,7 @@
         <v>257</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J88" s="5">
         <v>-22</v>
@@ -13083,10 +13135,10 @@
         <v>258</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U88" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V88" s="5">
         <v>99999999</v>
@@ -13118,7 +13170,7 @@
         <v>259</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J89" s="5">
         <v>-22</v>
@@ -13139,10 +13191,10 @@
         <v>129</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U89" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V89" s="5">
         <v>9999999</v>
@@ -13174,7 +13226,7 @@
         <v>261</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J90" s="5">
         <v>-22</v>
@@ -13195,10 +13247,10 @@
         <v>222</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="U90" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V90" s="5">
         <v>9999999</v>
@@ -13230,7 +13282,7 @@
         <v>262</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J91" s="5">
         <v>-22</v>
@@ -13254,7 +13306,7 @@
         <v>226</v>
       </c>
       <c r="U91" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V91" s="5">
         <v>9999999</v>
@@ -13286,7 +13338,7 @@
         <v>263</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J92" s="5">
         <v>-22</v>
@@ -13304,13 +13356,13 @@
         <v>4800</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="U92" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V92" s="5">
         <v>9999999</v>
@@ -13342,7 +13394,7 @@
         <v>264</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J93" s="5">
         <v>-22</v>
@@ -13363,10 +13415,10 @@
         <v>265</v>
       </c>
       <c r="P93" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="U93" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V93" s="5">
         <v>9999999</v>
@@ -13416,10 +13468,10 @@
         <v>90</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="U94" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V94" s="14" t="s">
         <v>121</v>
@@ -13451,7 +13503,7 @@
         <v>267</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J95" s="5">
         <v>-23</v>
@@ -13472,13 +13524,13 @@
         <v>218</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="Q95" s="7"/>
       <c r="S95" s="7"/>
       <c r="T95" s="7"/>
       <c r="U95" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V95" s="5">
         <v>9999999</v>
@@ -13510,7 +13562,7 @@
         <v>268</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J96" s="5">
         <v>-23</v>
@@ -13534,7 +13586,7 @@
         <v>260</v>
       </c>
       <c r="U96" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="V96" s="5">
         <v>9999999</v>
@@ -13566,7 +13618,7 @@
         <v>269</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="J97" s="5">
         <v>-24</v>
@@ -13584,19 +13636,19 @@
         <v>4800</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="P97" s="5" t="s">
         <v>270</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>271</v>
       </c>
       <c r="U97" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V97" s="5">
         <v>9999999</v>
@@ -13628,7 +13680,7 @@
         <v>272</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="J98" s="5">
         <v>-24</v>
@@ -13646,19 +13698,19 @@
         <v>9800</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="P98" s="5" t="s">
         <v>273</v>
       </c>
       <c r="R98" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="S98" s="5" t="s">
         <v>274</v>
       </c>
       <c r="U98" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V98" s="5">
         <v>9999999</v>
@@ -13690,7 +13742,7 @@
         <v>275</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J99" s="5">
         <v>-24</v>
@@ -13708,19 +13760,19 @@
         <v>19800</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="P99" s="5" t="s">
         <v>276</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>277</v>
       </c>
       <c r="U99" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V99" s="5">
         <v>9999999</v>
@@ -13749,10 +13801,10 @@
         <v>1</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J100" s="19">
         <v>-25</v>
@@ -13770,13 +13822,13 @@
         <v>100</v>
       </c>
       <c r="O100" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="P100" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="U100" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V100" s="19">
         <v>50</v>
@@ -13812,10 +13864,10 @@
         <v>1</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J101" s="19">
         <v>-25</v>
@@ -13833,13 +13885,13 @@
         <v>1800</v>
       </c>
       <c r="O101" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="P101" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="U101" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V101" s="19">
         <v>20</v>
@@ -13878,7 +13930,7 @@
         <v>279</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J102" s="19">
         <v>-25</v>
@@ -13896,13 +13948,13 @@
         <v>4800</v>
       </c>
       <c r="O102" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="P102" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="U102" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V102" s="19">
         <v>10</v>
@@ -13938,10 +13990,10 @@
         <v>1</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J103" s="19">
         <v>-25</v>
@@ -13959,13 +14011,13 @@
         <v>100</v>
       </c>
       <c r="O103" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="P103" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="U103" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V103" s="19">
         <v>50</v>
@@ -14001,10 +14053,10 @@
         <v>1</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J104" s="19">
         <v>-25</v>
@@ -14022,13 +14074,13 @@
         <v>2800</v>
       </c>
       <c r="O104" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="P104" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="U104" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V104" s="19">
         <v>20</v>
@@ -14067,7 +14119,7 @@
         <v>78</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J105" s="19">
         <v>-25</v>
@@ -14085,13 +14137,13 @@
         <v>9800</v>
       </c>
       <c r="O105" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="P105" s="19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="U105" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V105" s="19">
         <v>10</v>
@@ -14127,10 +14179,10 @@
         <v>1</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J106" s="19">
         <v>-25</v>
@@ -14148,13 +14200,13 @@
         <v>100</v>
       </c>
       <c r="O106" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="P106" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="U106" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V106" s="19">
         <v>50</v>
@@ -14193,7 +14245,7 @@
         <v>279</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J107" s="19">
         <v>-25</v>
@@ -14211,13 +14263,13 @@
         <v>4800</v>
       </c>
       <c r="O107" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="P107" s="19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="U107" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V107" s="19">
         <v>20</v>
@@ -14256,7 +14308,7 @@
         <v>82</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J108" s="19">
         <v>-25</v>
@@ -14274,13 +14326,13 @@
         <v>19800</v>
       </c>
       <c r="O108" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="P108" s="19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="U108" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V108" s="19">
         <v>10</v>
@@ -14344,7 +14396,7 @@
       </c>
       <c r="Q109" s="7"/>
       <c r="U109" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V109" s="5">
         <v>99999999</v>
@@ -14376,7 +14428,7 @@
         <v>285</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J110" s="5">
         <v>-26</v>
@@ -14394,19 +14446,19 @@
         <v>3800</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="P110" s="5" t="s">
         <v>286</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="S110" s="5" t="s">
         <v>287</v>
       </c>
       <c r="U110" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V110" s="5">
         <v>9999999</v>
@@ -14438,7 +14490,7 @@
         <v>288</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="J111" s="5">
         <v>-26</v>
@@ -14456,19 +14508,19 @@
         <v>8800</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="P111" s="5" t="s">
         <v>289</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="S111" s="5" t="s">
         <v>290</v>
       </c>
       <c r="U111" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V111" s="5">
         <v>9999999</v>
@@ -14500,7 +14552,7 @@
         <v>291</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J112" s="5">
         <v>-26</v>
@@ -14518,19 +14570,19 @@
         <v>18800</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="P112" s="5" t="s">
         <v>292</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="S112" s="5" t="s">
         <v>293</v>
       </c>
       <c r="U112" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V112" s="5">
         <v>9999999</v>
@@ -14562,7 +14614,7 @@
         <v>294</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J113" s="5">
         <v>-26</v>
@@ -14586,7 +14638,7 @@
         <v>296</v>
       </c>
       <c r="U113" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V113" s="5">
         <v>9999999</v>
@@ -14618,7 +14670,7 @@
         <v>297</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J114" s="5">
         <v>-26</v>
@@ -14642,7 +14694,7 @@
         <v>298</v>
       </c>
       <c r="U114" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V114" s="5">
         <v>9999999</v>
@@ -14674,7 +14726,7 @@
         <v>299</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J115" s="5">
         <v>-26</v>
@@ -14692,13 +14744,13 @@
         <v>9800</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="P115" s="5" t="s">
         <v>300</v>
       </c>
       <c r="U115" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V115" s="5">
         <v>9999999</v>
@@ -14730,7 +14782,7 @@
         <v>301</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J116" s="5">
         <v>-27</v>
@@ -14748,19 +14800,19 @@
         <v>4800</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="P116" s="5" t="s">
         <v>302</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="S116" s="5" t="s">
         <v>303</v>
       </c>
       <c r="U116" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V116" s="5">
         <v>9999999</v>
@@ -14792,7 +14844,7 @@
         <v>304</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J117" s="5">
         <v>-27</v>
@@ -14810,19 +14862,19 @@
         <v>9800</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="P117" s="5" t="s">
         <v>273</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="S117" s="5" t="s">
         <v>274</v>
       </c>
       <c r="U117" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V117" s="5">
         <v>9999999</v>
@@ -14854,7 +14906,7 @@
         <v>305</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J118" s="5">
         <v>-28</v>
@@ -14878,7 +14930,7 @@
         <v>306</v>
       </c>
       <c r="U118" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V118" s="5">
         <v>9999999</v>
@@ -14910,7 +14962,7 @@
         <v>307</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J119" s="5">
         <v>-28</v>
@@ -14934,7 +14986,7 @@
         <v>309</v>
       </c>
       <c r="U119" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="V119" s="5">
         <v>9999999</v>
@@ -14966,7 +15018,7 @@
         <v>310</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J120" s="5">
         <v>-28</v>
@@ -14990,7 +15042,7 @@
         <v>312</v>
       </c>
       <c r="U120" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V120" s="5">
         <v>9999999</v>
@@ -15022,7 +15074,7 @@
         <v>313</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J121" s="5">
         <v>-28</v>
@@ -15049,7 +15101,7 @@
         <v>316</v>
       </c>
       <c r="U121" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V121" s="5">
         <v>9999999</v>
@@ -15081,7 +15133,7 @@
         <v>317</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J122" s="5">
         <v>-28</v>
@@ -15108,7 +15160,7 @@
         <v>319</v>
       </c>
       <c r="U122" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V122" s="5">
         <v>9999999</v>
@@ -15140,7 +15192,7 @@
         <v>320</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J123" s="5">
         <v>-28</v>
@@ -15167,7 +15219,7 @@
         <v>322</v>
       </c>
       <c r="U123" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V123" s="5">
         <v>9999999</v>
@@ -15199,7 +15251,7 @@
         <v>297</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="J124" s="5">
         <v>-28</v>
@@ -15223,7 +15275,7 @@
         <v>315</v>
       </c>
       <c r="U124" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V124" s="5">
         <v>9999999</v>
@@ -15255,7 +15307,7 @@
         <v>323</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J125" s="5">
         <v>-28</v>
@@ -15279,7 +15331,7 @@
         <v>324</v>
       </c>
       <c r="U125" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V125" s="5">
         <v>9999999</v>
@@ -15311,7 +15363,7 @@
         <v>325</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J126" s="5">
         <v>-28</v>
@@ -15335,7 +15387,7 @@
         <v>326</v>
       </c>
       <c r="U126" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V126" s="5">
         <v>9999999</v>
@@ -15367,7 +15419,7 @@
         <v>327</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J127" s="5">
         <v>-29</v>
@@ -15397,7 +15449,7 @@
         <v>331</v>
       </c>
       <c r="U127" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V127" s="5">
         <v>9999999</v>
@@ -15450,10 +15502,10 @@
         <v>90</v>
       </c>
       <c r="P128" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="U128" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V128" s="14" t="s">
         <v>121</v>
@@ -15485,7 +15537,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J129" s="5">
         <v>-11</v>
@@ -15506,10 +15558,10 @@
         <v>90</v>
       </c>
       <c r="P129" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="U129" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V129" s="14" t="s">
         <v>121</v>
@@ -15541,7 +15593,7 @@
         <v>333</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J130" s="5">
         <v>-28</v>
@@ -15565,7 +15617,7 @@
         <v>335</v>
       </c>
       <c r="U130" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V130" s="5">
         <v>9999999</v>
@@ -15603,7 +15655,7 @@
         <v>251</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J131" s="5">
         <v>-28</v>
@@ -15627,7 +15679,7 @@
         <v>336</v>
       </c>
       <c r="U131" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V131" s="5">
         <v>9999999</v>
@@ -15665,7 +15717,7 @@
         <v>337</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J132" s="5">
         <v>-28</v>
@@ -15689,7 +15741,7 @@
         <v>338</v>
       </c>
       <c r="U132" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V132" s="5">
         <v>9999999</v>
@@ -15727,7 +15779,7 @@
         <v>339</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J133" s="5">
         <v>-28</v>
@@ -15748,10 +15800,10 @@
         <v>295</v>
       </c>
       <c r="P133" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="U133" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V133" s="5">
         <v>9999999</v>
@@ -15789,7 +15841,7 @@
         <v>340</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J134" s="5">
         <v>-28</v>
@@ -15810,10 +15862,10 @@
         <v>308</v>
       </c>
       <c r="P134" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="U134" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V134" s="5">
         <v>9999999</v>
@@ -15851,7 +15903,7 @@
         <v>342</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J135" s="5">
         <v>-28</v>
@@ -15872,10 +15924,10 @@
         <v>311</v>
       </c>
       <c r="P135" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="U135" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V135" s="5">
         <v>9999999</v>
@@ -15913,7 +15965,7 @@
         <v>454</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J136" s="5">
         <v>-28</v>
@@ -15934,10 +15986,10 @@
         <v>160</v>
       </c>
       <c r="P136" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="U136" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V136" s="5">
         <v>9999999</v>
@@ -15972,7 +16024,7 @@
         <v>455</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J137" s="5">
         <v>-28</v>
@@ -15993,10 +16045,10 @@
         <v>160</v>
       </c>
       <c r="P137" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="U137" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V137" s="5">
         <v>9999999</v>
@@ -16031,7 +16083,7 @@
         <v>456</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J138" s="5">
         <v>-28</v>
@@ -16052,10 +16104,10 @@
         <v>160</v>
       </c>
       <c r="P138" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="U138" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V138" s="5">
         <v>9999999</v>
@@ -16090,7 +16142,7 @@
         <v>457</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J139" s="5">
         <v>-28</v>
@@ -16111,10 +16163,10 @@
         <v>160</v>
       </c>
       <c r="P139" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="U139" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V139" s="5">
         <v>9999999</v>
@@ -16149,7 +16201,7 @@
         <v>458</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J140" s="5">
         <v>-28</v>
@@ -16170,10 +16222,10 @@
         <v>160</v>
       </c>
       <c r="P140" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="U140" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V140" s="5">
         <v>9999999</v>
@@ -16208,7 +16260,7 @@
         <v>459</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J141" s="5">
         <v>-28</v>
@@ -16229,10 +16281,10 @@
         <v>160</v>
       </c>
       <c r="P141" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="U141" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V141" s="5">
         <v>9999999</v>
@@ -16267,7 +16319,7 @@
         <v>343</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J142" s="5">
         <v>-28</v>
@@ -16291,7 +16343,7 @@
         <v>335</v>
       </c>
       <c r="U142" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V142" s="5">
         <v>9999999</v>
@@ -16329,7 +16381,7 @@
         <v>344</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J143" s="5">
         <v>-28</v>
@@ -16353,7 +16405,7 @@
         <v>341</v>
       </c>
       <c r="U143" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V143" s="5">
         <v>9999999</v>
@@ -16391,7 +16443,7 @@
         <v>345</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J144" s="5">
         <v>-28</v>
@@ -16415,7 +16467,7 @@
         <v>346</v>
       </c>
       <c r="U144" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V144" s="5">
         <v>9999999</v>
@@ -16456,7 +16508,7 @@
         <v>347</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J145" s="5">
         <v>-28</v>
@@ -16477,16 +16529,16 @@
         <v>348</v>
       </c>
       <c r="P145" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="R145" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="U145" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V145" s="5">
         <v>9999999</v>
@@ -16521,7 +16573,7 @@
         <v>349</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J146" s="5">
         <v>-28</v>
@@ -16542,16 +16594,16 @@
         <v>278</v>
       </c>
       <c r="P146" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="R146" s="5" t="s">
         <v>160</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="U146" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V146" s="5">
         <v>9999999</v>
@@ -16586,7 +16638,7 @@
         <v>350</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J147" s="5">
         <v>-28</v>
@@ -16607,16 +16659,16 @@
         <v>278</v>
       </c>
       <c r="P147" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R147" s="5" t="s">
         <v>160</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="U147" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V147" s="5">
         <v>9999999</v>
@@ -16651,7 +16703,7 @@
         <v>351</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J148" s="5">
         <v>-28</v>
@@ -16672,16 +16724,16 @@
         <v>278</v>
       </c>
       <c r="P148" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="R148" s="5" t="s">
         <v>160</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="U148" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V148" s="5">
         <v>9999999</v>
@@ -16716,7 +16768,7 @@
         <v>352</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J149" s="5">
         <v>-28</v>
@@ -16737,16 +16789,16 @@
         <v>278</v>
       </c>
       <c r="P149" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="R149" s="5" t="s">
         <v>160</v>
       </c>
       <c r="S149" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="U149" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V149" s="5">
         <v>9999999</v>
@@ -16778,7 +16830,7 @@
         <v>353</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J150" s="5">
         <v>-28</v>
@@ -16802,7 +16854,7 @@
         <v>335</v>
       </c>
       <c r="U150" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V150" s="5">
         <v>9999999</v>
@@ -16840,7 +16892,7 @@
         <v>354</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J151" s="5">
         <v>-28</v>
@@ -16864,7 +16916,7 @@
         <v>341</v>
       </c>
       <c r="U151" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V151" s="5">
         <v>9999999</v>
@@ -16902,7 +16954,7 @@
         <v>355</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J152" s="5">
         <v>-28</v>
@@ -16926,7 +16978,7 @@
         <v>346</v>
       </c>
       <c r="U152" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V152" s="5">
         <v>9999999</v>
@@ -16961,10 +17013,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J153" s="5">
         <v>-28</v>
@@ -16985,16 +17037,16 @@
         <v>348</v>
       </c>
       <c r="P153" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R153" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S153" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="U153" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V153" s="5">
         <v>99999999</v>
@@ -17026,7 +17078,7 @@
         <v>356</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J154" s="5">
         <v>-28</v>
@@ -17047,16 +17099,16 @@
         <v>348</v>
       </c>
       <c r="P154" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="R154" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S154" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="U154" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V154" s="5">
         <v>99999999</v>
@@ -17088,7 +17140,7 @@
         <v>357</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J155" s="5">
         <v>-28</v>
@@ -17109,16 +17161,16 @@
         <v>348</v>
       </c>
       <c r="P155" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="R155" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S155" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="U155" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V155" s="5">
         <v>99999999</v>
@@ -17150,7 +17202,7 @@
         <v>358</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J156" s="5">
         <v>-28</v>
@@ -17171,16 +17223,16 @@
         <v>348</v>
       </c>
       <c r="P156" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="R156" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S156" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="U156" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V156" s="5">
         <v>99999999</v>
@@ -17212,7 +17264,7 @@
         <v>359</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J157" s="5">
         <v>-28</v>
@@ -17233,16 +17285,16 @@
         <v>348</v>
       </c>
       <c r="P157" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R157" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S157" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="U157" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V157" s="5">
         <v>99999999</v>
@@ -17274,7 +17326,7 @@
         <v>360</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J158" s="5">
         <v>-28</v>
@@ -17298,7 +17350,7 @@
         <v>361</v>
       </c>
       <c r="U158" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V158" s="5">
         <v>9999999</v>
@@ -17336,7 +17388,7 @@
         <v>362</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J159" s="5">
         <v>-28</v>
@@ -17360,7 +17412,7 @@
         <v>363</v>
       </c>
       <c r="U159" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V159" s="5">
         <v>9999999</v>
@@ -17398,7 +17450,7 @@
         <v>364</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J160" s="5">
         <v>-28</v>
@@ -17422,7 +17474,7 @@
         <v>365</v>
       </c>
       <c r="U160" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V160" s="5">
         <v>9999999</v>
@@ -17460,7 +17512,7 @@
         <v>366</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J161" s="5">
         <v>-28</v>
@@ -17484,7 +17536,7 @@
         <v>361</v>
       </c>
       <c r="U161" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V161" s="5">
         <v>9999999</v>
@@ -17522,7 +17574,7 @@
         <v>367</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J162" s="5">
         <v>-28</v>
@@ -17546,7 +17598,7 @@
         <v>363</v>
       </c>
       <c r="U162" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V162" s="5">
         <v>9999999</v>
@@ -17584,7 +17636,7 @@
         <v>368</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J163" s="5">
         <v>-28</v>
@@ -17608,7 +17660,7 @@
         <v>365</v>
       </c>
       <c r="U163" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V163" s="5">
         <v>9999999</v>
@@ -17643,10 +17695,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I164" s="5">
         <v>21032</v>
@@ -17670,10 +17722,10 @@
         <v>220</v>
       </c>
       <c r="P164" s="10" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="U164" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V164" s="5">
         <v>9999999</v>
@@ -17711,7 +17763,7 @@
         <v>369</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J165" s="5">
         <v>-28</v>
@@ -17735,7 +17787,7 @@
         <v>361</v>
       </c>
       <c r="U165" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V165" s="5">
         <v>9999999</v>
@@ -17773,7 +17825,7 @@
         <v>370</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J166" s="5">
         <v>-28</v>
@@ -17797,7 +17849,7 @@
         <v>363</v>
       </c>
       <c r="U166" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V166" s="5">
         <v>9999999</v>
@@ -17835,7 +17887,7 @@
         <v>371</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J167" s="5">
         <v>-28</v>
@@ -17859,7 +17911,7 @@
         <v>365</v>
       </c>
       <c r="U167" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V167" s="5">
         <v>9999999</v>
@@ -17897,7 +17949,7 @@
         <v>372</v>
       </c>
       <c r="H168" s="19" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="J168" s="19">
         <v>-28</v>
@@ -17915,13 +17967,13 @@
         <v>600</v>
       </c>
       <c r="O168" s="19" t="s">
+        <v>1201</v>
+      </c>
+      <c r="P168" s="19" t="s">
         <v>1202</v>
       </c>
-      <c r="P168" s="19" t="s">
-        <v>1203</v>
-      </c>
       <c r="U168" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V168" s="19">
         <v>9999999</v>
@@ -17962,7 +18014,7 @@
         <v>488</v>
       </c>
       <c r="H169" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="J169" s="19">
         <v>-28</v>
@@ -17980,13 +18032,13 @@
         <v>3000</v>
       </c>
       <c r="O169" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="U169" s="19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V169" s="19">
         <v>9999999</v>
@@ -18024,7 +18076,7 @@
         <v>373</v>
       </c>
       <c r="H170" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="J170" s="19">
         <v>-28</v>
@@ -18042,13 +18094,13 @@
         <v>19800</v>
       </c>
       <c r="O170" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="U170" s="19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V170" s="19">
         <v>9999999</v>
@@ -18083,10 +18135,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="J171" s="19">
         <v>-28</v>
@@ -18104,13 +18156,13 @@
         <v>100</v>
       </c>
       <c r="O171" s="19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="U171" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="V171" s="19">
         <v>9999999</v>
@@ -18148,10 +18200,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="J172" s="19">
         <v>-28</v>
@@ -18169,13 +18221,13 @@
         <v>300</v>
       </c>
       <c r="O172" s="19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="U172" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V172" s="19">
         <v>9999999</v>
@@ -18213,10 +18265,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="J173" s="19">
         <v>-28</v>
@@ -18234,13 +18286,13 @@
         <v>600</v>
       </c>
       <c r="O173" s="19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="U173" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V173" s="19">
         <v>9999999</v>
@@ -18278,10 +18330,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="J174" s="19">
         <v>-28</v>
@@ -18299,13 +18351,13 @@
         <v>600</v>
       </c>
       <c r="O174" s="19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="U174" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V174" s="19">
         <v>9999999</v>
@@ -18343,10 +18395,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J175" s="19">
         <v>-28</v>
@@ -18364,13 +18416,13 @@
         <v>1000</v>
       </c>
       <c r="O175" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="U175" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V175" s="19">
         <v>9999999</v>
@@ -18408,10 +18460,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J176" s="19">
         <v>-28</v>
@@ -18429,13 +18481,13 @@
         <v>1800</v>
       </c>
       <c r="O176" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="U176" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V176" s="19">
         <v>9999999</v>
@@ -18473,10 +18525,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J177" s="19">
         <v>-28</v>
@@ -18494,13 +18546,13 @@
         <v>1800</v>
       </c>
       <c r="O177" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="U177" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V177" s="19">
         <v>9999999</v>
@@ -18538,10 +18590,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J178" s="19">
         <v>-28</v>
@@ -18559,13 +18611,13 @@
         <v>4800</v>
       </c>
       <c r="O178" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="U178" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V178" s="19">
         <v>9999999</v>
@@ -18603,10 +18655,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="J179" s="19">
         <v>-28</v>
@@ -18624,13 +18676,13 @@
         <v>9800</v>
       </c>
       <c r="O179" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="U179" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V179" s="19">
         <v>9999999</v>
@@ -18668,10 +18720,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J180" s="19">
         <v>-28</v>
@@ -18689,13 +18741,13 @@
         <v>4800</v>
       </c>
       <c r="O180" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="U180" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V180" s="19">
         <v>9999999</v>
@@ -18733,10 +18785,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J181" s="19">
         <v>-28</v>
@@ -18754,13 +18806,13 @@
         <v>9800</v>
       </c>
       <c r="O181" s="19" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="U181" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V181" s="19">
         <v>9999999</v>
@@ -18798,10 +18850,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J182" s="19">
         <v>-28</v>
@@ -18819,13 +18871,13 @@
         <v>19800</v>
       </c>
       <c r="O182" s="19" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U182" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V182" s="19">
         <v>9999999</v>
@@ -18863,10 +18915,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J183" s="19">
         <v>-28</v>
@@ -18884,13 +18936,13 @@
         <v>9800</v>
       </c>
       <c r="O183" s="19" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="U183" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V183" s="19">
         <v>9999999</v>
@@ -18928,10 +18980,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J184" s="19">
         <v>-28</v>
@@ -18949,13 +19001,13 @@
         <v>19800</v>
       </c>
       <c r="O184" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="U184" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V184" s="19">
         <v>9999999</v>
@@ -18993,10 +19045,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J185" s="19">
         <v>-28</v>
@@ -19014,13 +19066,13 @@
         <v>49800</v>
       </c>
       <c r="O185" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="U185" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V185" s="19">
         <v>9999999</v>
@@ -19061,7 +19113,7 @@
         <v>327</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J186" s="5">
         <v>-29</v>
@@ -19082,16 +19134,16 @@
         <v>469</v>
       </c>
       <c r="P186" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="R186" s="5" t="s">
         <v>330</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="U186" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V186" s="5">
         <v>9999999</v>
@@ -19123,7 +19175,7 @@
         <v>374</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J187" s="5">
         <v>-28</v>
@@ -19147,7 +19199,7 @@
         <v>375</v>
       </c>
       <c r="U187" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V187" s="5">
         <v>9999999</v>
@@ -19188,7 +19240,7 @@
         <v>376</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J188" s="5">
         <v>-28</v>
@@ -19212,7 +19264,7 @@
         <v>377</v>
       </c>
       <c r="U188" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V188" s="5">
         <v>9999999</v>
@@ -19253,7 +19305,7 @@
         <v>378</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J189" s="5">
         <v>-28</v>
@@ -19277,7 +19329,7 @@
         <v>379</v>
       </c>
       <c r="U189" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V189" s="5">
         <v>9999999</v>
@@ -19318,7 +19370,7 @@
         <v>380</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J190" s="5">
         <v>-28</v>
@@ -19342,7 +19394,7 @@
         <v>381</v>
       </c>
       <c r="U190" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V190" s="5">
         <v>9999999</v>
@@ -19383,7 +19435,7 @@
         <v>382</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J191" s="5">
         <v>-28</v>
@@ -19407,7 +19459,7 @@
         <v>383</v>
       </c>
       <c r="U191" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V191" s="5">
         <v>9999999</v>
@@ -19448,7 +19500,7 @@
         <v>384</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J192" s="5">
         <v>-28</v>
@@ -19472,7 +19524,7 @@
         <v>385</v>
       </c>
       <c r="U192" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V192" s="5">
         <v>9999999</v>
@@ -19513,7 +19565,7 @@
         <v>386</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J193" s="5">
         <v>-28</v>
@@ -19537,7 +19589,7 @@
         <v>387</v>
       </c>
       <c r="U193" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V193" s="5">
         <v>9999999</v>
@@ -19578,7 +19630,7 @@
         <v>388</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J194" s="5">
         <v>-28</v>
@@ -19602,7 +19654,7 @@
         <v>389</v>
       </c>
       <c r="U194" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V194" s="5">
         <v>9999999</v>
@@ -19643,7 +19695,7 @@
         <v>390</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J195" s="5">
         <v>-28</v>
@@ -19667,7 +19719,7 @@
         <v>391</v>
       </c>
       <c r="U195" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V195" s="5">
         <v>9999999</v>
@@ -19708,7 +19760,7 @@
         <v>392</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J196" s="5">
         <v>-28</v>
@@ -19732,7 +19784,7 @@
         <v>393</v>
       </c>
       <c r="U196" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V196" s="5">
         <v>9999999</v>
@@ -19773,7 +19825,7 @@
         <v>394</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J197" s="5">
         <v>-28</v>
@@ -19797,7 +19849,7 @@
         <v>395</v>
       </c>
       <c r="U197" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V197" s="5">
         <v>9999999</v>
@@ -19838,7 +19890,7 @@
         <v>396</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J198" s="5">
         <v>-28</v>
@@ -19862,7 +19914,7 @@
         <v>397</v>
       </c>
       <c r="U198" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V198" s="5">
         <v>9999999</v>
@@ -19903,7 +19955,7 @@
         <v>398</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J199" s="5">
         <v>-28</v>
@@ -19927,7 +19979,7 @@
         <v>395</v>
       </c>
       <c r="U199" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V199" s="5">
         <v>9999999</v>
@@ -19968,7 +20020,7 @@
         <v>399</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J200" s="5">
         <v>-28</v>
@@ -19992,7 +20044,7 @@
         <v>397</v>
       </c>
       <c r="U200" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V200" s="5">
         <v>9999999</v>
@@ -20033,7 +20085,7 @@
         <v>400</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J201" s="5">
         <v>-28</v>
@@ -20057,7 +20109,7 @@
         <v>401</v>
       </c>
       <c r="U201" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V201" s="5">
         <v>9999999</v>
@@ -20098,7 +20150,7 @@
         <v>374</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J202" s="5">
         <v>-28</v>
@@ -20122,7 +20174,7 @@
         <v>375</v>
       </c>
       <c r="U202" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V202" s="5">
         <v>9999999</v>
@@ -20163,7 +20215,7 @@
         <v>376</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J203" s="5">
         <v>-28</v>
@@ -20187,7 +20239,7 @@
         <v>377</v>
       </c>
       <c r="U203" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V203" s="5">
         <v>9999999</v>
@@ -20228,7 +20280,7 @@
         <v>378</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J204" s="5">
         <v>-28</v>
@@ -20252,7 +20304,7 @@
         <v>379</v>
       </c>
       <c r="U204" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V204" s="5">
         <v>9999999</v>
@@ -20293,7 +20345,7 @@
         <v>380</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J205" s="5">
         <v>-28</v>
@@ -20317,7 +20369,7 @@
         <v>381</v>
       </c>
       <c r="U205" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V205" s="5">
         <v>9999999</v>
@@ -20358,7 +20410,7 @@
         <v>382</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J206" s="5">
         <v>-28</v>
@@ -20382,7 +20434,7 @@
         <v>383</v>
       </c>
       <c r="U206" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V206" s="5">
         <v>9999999</v>
@@ -20423,7 +20475,7 @@
         <v>384</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J207" s="5">
         <v>-28</v>
@@ -20447,7 +20499,7 @@
         <v>385</v>
       </c>
       <c r="U207" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V207" s="5">
         <v>9999999</v>
@@ -20488,7 +20540,7 @@
         <v>386</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J208" s="5">
         <v>-28</v>
@@ -20512,7 +20564,7 @@
         <v>387</v>
       </c>
       <c r="U208" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V208" s="5">
         <v>9999999</v>
@@ -20553,7 +20605,7 @@
         <v>388</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J209" s="5">
         <v>-28</v>
@@ -20577,7 +20629,7 @@
         <v>389</v>
       </c>
       <c r="U209" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V209" s="5">
         <v>9999999</v>
@@ -20618,7 +20670,7 @@
         <v>390</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J210" s="5">
         <v>-28</v>
@@ -20642,7 +20694,7 @@
         <v>391</v>
       </c>
       <c r="U210" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V210" s="5">
         <v>9999999</v>
@@ -20683,7 +20735,7 @@
         <v>392</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J211" s="5">
         <v>-28</v>
@@ -20707,7 +20759,7 @@
         <v>393</v>
       </c>
       <c r="U211" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V211" s="5">
         <v>9999999</v>
@@ -20748,7 +20800,7 @@
         <v>394</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J212" s="5">
         <v>-28</v>
@@ -20772,7 +20824,7 @@
         <v>395</v>
       </c>
       <c r="U212" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V212" s="5">
         <v>9999999</v>
@@ -20813,7 +20865,7 @@
         <v>396</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J213" s="5">
         <v>-28</v>
@@ -20837,7 +20889,7 @@
         <v>397</v>
       </c>
       <c r="U213" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V213" s="5">
         <v>9999999</v>
@@ -20878,7 +20930,7 @@
         <v>398</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J214" s="5">
         <v>-28</v>
@@ -20902,7 +20954,7 @@
         <v>395</v>
       </c>
       <c r="U214" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V214" s="5">
         <v>9999999</v>
@@ -20943,7 +20995,7 @@
         <v>399</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J215" s="5">
         <v>-28</v>
@@ -20967,7 +21019,7 @@
         <v>397</v>
       </c>
       <c r="U215" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V215" s="5">
         <v>9999999</v>
@@ -21008,7 +21060,7 @@
         <v>400</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J216" s="5">
         <v>-28</v>
@@ -21032,7 +21084,7 @@
         <v>401</v>
       </c>
       <c r="U216" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V216" s="5">
         <v>9999999</v>
@@ -21073,7 +21125,7 @@
         <v>374</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J217" s="5">
         <v>-28</v>
@@ -21091,13 +21143,13 @@
         <v>100</v>
       </c>
       <c r="O217" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P217" s="5" t="s">
         <v>375</v>
       </c>
       <c r="U217" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V217" s="5">
         <v>9999999</v>
@@ -21138,7 +21190,7 @@
         <v>376</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J218" s="5">
         <v>-28</v>
@@ -21162,7 +21214,7 @@
         <v>377</v>
       </c>
       <c r="U218" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V218" s="5">
         <v>9999999</v>
@@ -21203,7 +21255,7 @@
         <v>378</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J219" s="5">
         <v>-28</v>
@@ -21227,7 +21279,7 @@
         <v>379</v>
       </c>
       <c r="U219" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V219" s="5">
         <v>9999999</v>
@@ -21268,7 +21320,7 @@
         <v>380</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J220" s="5">
         <v>-28</v>
@@ -21292,7 +21344,7 @@
         <v>381</v>
       </c>
       <c r="U220" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V220" s="5">
         <v>9999999</v>
@@ -21333,7 +21385,7 @@
         <v>382</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J221" s="5">
         <v>-28</v>
@@ -21357,7 +21409,7 @@
         <v>383</v>
       </c>
       <c r="U221" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V221" s="5">
         <v>9999999</v>
@@ -21398,7 +21450,7 @@
         <v>384</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J222" s="5">
         <v>-28</v>
@@ -21422,7 +21474,7 @@
         <v>385</v>
       </c>
       <c r="U222" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V222" s="5">
         <v>9999999</v>
@@ -21463,7 +21515,7 @@
         <v>386</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J223" s="5">
         <v>-28</v>
@@ -21487,7 +21539,7 @@
         <v>387</v>
       </c>
       <c r="U223" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V223" s="5">
         <v>9999999</v>
@@ -21528,7 +21580,7 @@
         <v>388</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J224" s="5">
         <v>-28</v>
@@ -21552,7 +21604,7 @@
         <v>389</v>
       </c>
       <c r="U224" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V224" s="5">
         <v>9999999</v>
@@ -21593,7 +21645,7 @@
         <v>390</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J225" s="5">
         <v>-28</v>
@@ -21617,7 +21669,7 @@
         <v>391</v>
       </c>
       <c r="U225" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V225" s="5">
         <v>9999999</v>
@@ -21658,7 +21710,7 @@
         <v>392</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J226" s="5">
         <v>-28</v>
@@ -21682,7 +21734,7 @@
         <v>393</v>
       </c>
       <c r="U226" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V226" s="5">
         <v>9999999</v>
@@ -21723,7 +21775,7 @@
         <v>394</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J227" s="5">
         <v>-28</v>
@@ -21747,7 +21799,7 @@
         <v>395</v>
       </c>
       <c r="U227" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V227" s="5">
         <v>9999999</v>
@@ -21788,7 +21840,7 @@
         <v>396</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J228" s="5">
         <v>-28</v>
@@ -21812,7 +21864,7 @@
         <v>397</v>
       </c>
       <c r="U228" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V228" s="5">
         <v>9999999</v>
@@ -21853,7 +21905,7 @@
         <v>398</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J229" s="5">
         <v>-28</v>
@@ -21877,7 +21929,7 @@
         <v>395</v>
       </c>
       <c r="U229" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V229" s="5">
         <v>9999999</v>
@@ -21918,7 +21970,7 @@
         <v>399</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J230" s="5">
         <v>-28</v>
@@ -21942,7 +21994,7 @@
         <v>397</v>
       </c>
       <c r="U230" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V230" s="5">
         <v>9999999</v>
@@ -21983,7 +22035,7 @@
         <v>400</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J231" s="5">
         <v>-28</v>
@@ -22007,7 +22059,7 @@
         <v>401</v>
       </c>
       <c r="U231" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V231" s="5">
         <v>9999999</v>
@@ -22048,7 +22100,7 @@
         <v>374</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J232" s="5">
         <v>-28</v>
@@ -22072,7 +22124,7 @@
         <v>375</v>
       </c>
       <c r="U232" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V232" s="5">
         <v>9999999</v>
@@ -22113,7 +22165,7 @@
         <v>376</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J233" s="5">
         <v>-28</v>
@@ -22137,7 +22189,7 @@
         <v>377</v>
       </c>
       <c r="U233" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V233" s="5">
         <v>9999999</v>
@@ -22178,7 +22230,7 @@
         <v>378</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J234" s="5">
         <v>-28</v>
@@ -22202,7 +22254,7 @@
         <v>379</v>
       </c>
       <c r="U234" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V234" s="5">
         <v>9999999</v>
@@ -22243,7 +22295,7 @@
         <v>380</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J235" s="5">
         <v>-28</v>
@@ -22267,7 +22319,7 @@
         <v>381</v>
       </c>
       <c r="U235" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V235" s="5">
         <v>9999999</v>
@@ -22308,7 +22360,7 @@
         <v>382</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J236" s="5">
         <v>-28</v>
@@ -22332,7 +22384,7 @@
         <v>383</v>
       </c>
       <c r="U236" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V236" s="5">
         <v>9999999</v>
@@ -22373,7 +22425,7 @@
         <v>384</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J237" s="5">
         <v>-28</v>
@@ -22397,7 +22449,7 @@
         <v>385</v>
       </c>
       <c r="U237" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V237" s="5">
         <v>9999999</v>
@@ -22438,7 +22490,7 @@
         <v>386</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J238" s="5">
         <v>-28</v>
@@ -22462,7 +22514,7 @@
         <v>387</v>
       </c>
       <c r="U238" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V238" s="5">
         <v>9999999</v>
@@ -22503,7 +22555,7 @@
         <v>388</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J239" s="5">
         <v>-28</v>
@@ -22527,7 +22579,7 @@
         <v>389</v>
       </c>
       <c r="U239" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V239" s="5">
         <v>9999999</v>
@@ -22568,7 +22620,7 @@
         <v>390</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J240" s="5">
         <v>-28</v>
@@ -22592,7 +22644,7 @@
         <v>391</v>
       </c>
       <c r="U240" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V240" s="5">
         <v>9999999</v>
@@ -22633,7 +22685,7 @@
         <v>392</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J241" s="5">
         <v>-28</v>
@@ -22657,7 +22709,7 @@
         <v>393</v>
       </c>
       <c r="U241" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V241" s="5">
         <v>9999999</v>
@@ -22698,7 +22750,7 @@
         <v>394</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J242" s="5">
         <v>-28</v>
@@ -22722,7 +22774,7 @@
         <v>395</v>
       </c>
       <c r="U242" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V242" s="5">
         <v>9999999</v>
@@ -22763,7 +22815,7 @@
         <v>396</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J243" s="5">
         <v>-28</v>
@@ -22787,7 +22839,7 @@
         <v>397</v>
       </c>
       <c r="U243" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V243" s="5">
         <v>9999999</v>
@@ -22828,7 +22880,7 @@
         <v>398</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J244" s="5">
         <v>-28</v>
@@ -22852,7 +22904,7 @@
         <v>395</v>
       </c>
       <c r="U244" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V244" s="5">
         <v>9999999</v>
@@ -22893,7 +22945,7 @@
         <v>399</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J245" s="5">
         <v>-28</v>
@@ -22917,7 +22969,7 @@
         <v>397</v>
       </c>
       <c r="U245" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V245" s="5">
         <v>9999999</v>
@@ -22958,7 +23010,7 @@
         <v>400</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J246" s="5">
         <v>-28</v>
@@ -22982,7 +23034,7 @@
         <v>401</v>
       </c>
       <c r="U246" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V246" s="5">
         <v>9999999</v>
@@ -23020,10 +23072,10 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J247" s="5">
         <v>-28</v>
@@ -23044,10 +23096,10 @@
         <v>160</v>
       </c>
       <c r="P247" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="U247" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V247" s="5">
         <v>9999999</v>
@@ -23088,7 +23140,7 @@
         <v>452</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J248" s="5">
         <v>-28</v>
@@ -23109,10 +23161,10 @@
         <v>160</v>
       </c>
       <c r="P248" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="U248" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V248" s="5">
         <v>9999999</v>
@@ -23153,7 +23205,7 @@
         <v>453</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J249" s="5">
         <v>-28</v>
@@ -23174,10 +23226,10 @@
         <v>160</v>
       </c>
       <c r="P249" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="U249" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V249" s="5">
         <v>9999999</v>
@@ -23218,7 +23270,7 @@
         <v>467</v>
       </c>
       <c r="H250" s="19" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J250" s="19">
         <v>-28</v>
@@ -23239,10 +23291,10 @@
         <v>466</v>
       </c>
       <c r="P250" s="19" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="U250" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V250" s="19">
         <v>9999999</v>
@@ -23280,7 +23332,7 @@
         <v>327</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J251" s="5">
         <v>-29</v>
@@ -23298,19 +23350,19 @@
         <v>600</v>
       </c>
       <c r="O251" s="5" t="s">
-        <v>505</v>
+        <v>1221</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="R251" s="5" t="s">
         <v>330</v>
       </c>
       <c r="S251" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="U251" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V251" s="5">
         <v>9999999</v>
@@ -23348,7 +23400,7 @@
         <v>490</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J252" s="5">
         <v>-30</v>
@@ -23369,10 +23421,10 @@
         <v>466</v>
       </c>
       <c r="P252" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="U252" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V252" s="5">
         <v>9999999</v>
@@ -23410,7 +23462,7 @@
         <v>491</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J253" s="5">
         <v>-30</v>
@@ -23428,13 +23480,13 @@
         <v>100</v>
       </c>
       <c r="O253" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="U253" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V253" s="5">
         <v>9999999</v>
@@ -23469,10 +23521,10 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J254" s="5">
         <v>-31</v>
@@ -23484,19 +23536,19 @@
         <v>0</v>
       </c>
       <c r="M254" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N254" s="5">
         <v>600</v>
       </c>
       <c r="O254" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P254" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="U254" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V254" s="5">
         <v>9999999</v>
@@ -23537,7 +23589,7 @@
         <v>502</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J255" s="5">
         <v>-31</v>
@@ -23549,7 +23601,7 @@
         <v>0</v>
       </c>
       <c r="M255" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N255" s="5">
         <v>1800</v>
@@ -23558,10 +23610,10 @@
         <v>489</v>
       </c>
       <c r="P255" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="U255" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V255" s="5">
         <v>9999999</v>
@@ -23602,7 +23654,7 @@
         <v>503</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J256" s="5">
         <v>-31</v>
@@ -23614,19 +23666,19 @@
         <v>0</v>
       </c>
       <c r="M256" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N256" s="5">
         <v>3000</v>
       </c>
       <c r="O256" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P256" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U256" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V256" s="5">
         <v>9999999</v>
@@ -23664,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J257" s="5">
         <v>-31</v>
@@ -23685,19 +23737,19 @@
         <v>9800</v>
       </c>
       <c r="O257" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="P257" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="R257" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="S257" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="U257" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V257" s="5">
         <v>9999999</v>
@@ -23732,10 +23784,10 @@
         <v>0</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J258" s="5">
         <v>-31</v>
@@ -23747,19 +23799,19 @@
         <v>0</v>
       </c>
       <c r="M258" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N258" s="5">
         <v>100</v>
       </c>
       <c r="O258" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P258" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="U258" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V258" s="5">
         <v>9999999</v>
@@ -23800,7 +23852,7 @@
         <v>376</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J259" s="5">
         <v>-31</v>
@@ -23812,19 +23864,19 @@
         <v>0</v>
       </c>
       <c r="M259" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N259" s="5">
         <v>300</v>
       </c>
       <c r="O259" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P259" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="U259" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V259" s="5">
         <v>9999999</v>
@@ -23865,7 +23917,7 @@
         <v>378</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J260" s="5">
         <v>-31</v>
@@ -23877,19 +23929,19 @@
         <v>0</v>
       </c>
       <c r="M260" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N260" s="5">
         <v>600</v>
       </c>
       <c r="O260" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P260" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="U260" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V260" s="5">
         <v>9999999</v>
@@ -23930,7 +23982,7 @@
         <v>380</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J261" s="5">
         <v>-31</v>
@@ -23942,19 +23994,19 @@
         <v>0</v>
       </c>
       <c r="M261" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N261" s="5">
         <v>600</v>
       </c>
       <c r="O261" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P261" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="U261" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V261" s="5">
         <v>9999999</v>
@@ -23995,7 +24047,7 @@
         <v>382</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J262" s="5">
         <v>-31</v>
@@ -24007,19 +24059,19 @@
         <v>0</v>
       </c>
       <c r="M262" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N262" s="5">
         <v>1200</v>
       </c>
       <c r="O262" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P262" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="U262" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V262" s="5">
         <v>9999999</v>
@@ -24060,7 +24112,7 @@
         <v>384</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J263" s="5">
         <v>-31</v>
@@ -24072,19 +24124,19 @@
         <v>0</v>
       </c>
       <c r="M263" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N263" s="5">
         <v>1800</v>
       </c>
       <c r="O263" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P263" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="U263" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V263" s="5">
         <v>9999999</v>
@@ -24122,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J264" s="5">
         <v>-31</v>
@@ -24137,19 +24189,19 @@
         <v>0</v>
       </c>
       <c r="M264" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N264" s="5">
         <v>1800</v>
       </c>
       <c r="O264" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P264" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="U264" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V264" s="5">
         <v>9999999</v>
@@ -24187,10 +24239,10 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J265" s="5">
         <v>-31</v>
@@ -24202,19 +24254,19 @@
         <v>0</v>
       </c>
       <c r="M265" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N265" s="5">
         <v>4800</v>
       </c>
       <c r="O265" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P265" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="U265" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V265" s="5">
         <v>9999999</v>
@@ -24252,10 +24304,10 @@
         <v>0</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J266" s="5">
         <v>-31</v>
@@ -24267,19 +24319,19 @@
         <v>0</v>
       </c>
       <c r="M266" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N266" s="5">
         <v>9800</v>
       </c>
       <c r="O266" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P266" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U266" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V266" s="5">
         <v>9999999</v>
@@ -24317,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J267" s="5">
         <v>-31</v>
@@ -24332,19 +24384,19 @@
         <v>0</v>
       </c>
       <c r="M267" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N267" s="5">
         <v>4800</v>
       </c>
       <c r="O267" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P267" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="U267" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V267" s="5">
         <v>9999999</v>
@@ -24382,10 +24434,10 @@
         <v>0</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J268" s="5">
         <v>-31</v>
@@ -24397,19 +24449,19 @@
         <v>0</v>
       </c>
       <c r="M268" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N268" s="5">
         <v>9800</v>
       </c>
       <c r="O268" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P268" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U268" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V268" s="5">
         <v>9999999</v>
@@ -24447,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J269" s="5">
         <v>-31</v>
@@ -24462,19 +24514,19 @@
         <v>0</v>
       </c>
       <c r="M269" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N269" s="5">
         <v>19800</v>
       </c>
       <c r="O269" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P269" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U269" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V269" s="5">
         <v>9999999</v>
@@ -24515,7 +24567,7 @@
         <v>398</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J270" s="5">
         <v>-31</v>
@@ -24527,19 +24579,19 @@
         <v>0</v>
       </c>
       <c r="M270" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N270" s="5">
         <v>9800</v>
       </c>
       <c r="O270" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P270" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U270" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V270" s="5">
         <v>9999999</v>
@@ -24580,7 +24632,7 @@
         <v>399</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J271" s="5">
         <v>-31</v>
@@ -24592,19 +24644,19 @@
         <v>0</v>
       </c>
       <c r="M271" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N271" s="5">
         <v>19800</v>
       </c>
       <c r="O271" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P271" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U271" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V271" s="5">
         <v>9999999</v>
@@ -24645,7 +24697,7 @@
         <v>400</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J272" s="5">
         <v>-31</v>
@@ -24657,19 +24709,19 @@
         <v>0</v>
       </c>
       <c r="M272" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N272" s="5">
         <v>49800</v>
       </c>
       <c r="O272" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P272" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U272" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V272" s="5">
         <v>9999999</v>
@@ -24710,7 +24762,7 @@
         <v>1</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J273" s="5">
         <v>-10</v>
@@ -24731,10 +24783,10 @@
         <v>90</v>
       </c>
       <c r="P273" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="U273" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V273" s="14" t="s">
         <v>121</v>
@@ -24765,10 +24817,10 @@
         <v>0</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I274" s="5"/>
       <c r="J274" s="5">
@@ -24787,17 +24839,17 @@
         <v>600</v>
       </c>
       <c r="O274" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P274" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="Q274" s="5"/>
       <c r="R274" s="5"/>
       <c r="S274" s="5"/>
       <c r="T274" s="5"/>
       <c r="U274" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V274" s="19">
         <v>9999999</v>
@@ -24838,10 +24890,10 @@
         <v>0</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J275" s="5">
         <v>-31</v>
@@ -24853,19 +24905,19 @@
         <v>0</v>
       </c>
       <c r="M275" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N275" s="5">
         <v>0</v>
       </c>
       <c r="O275" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P275" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="U275" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V275" s="5">
         <v>9999999</v>
@@ -24903,10 +24955,10 @@
         <v>0</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J276" s="5">
         <v>-31</v>
@@ -24918,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="M276" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N276" s="5">
         <v>300</v>
       </c>
       <c r="O276" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P276" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="U276" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V276" s="5">
         <v>9999999</v>
@@ -24968,10 +25020,10 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J277" s="5">
         <v>-31</v>
@@ -24983,19 +25035,19 @@
         <v>0</v>
       </c>
       <c r="M277" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N277" s="5">
         <v>600</v>
       </c>
       <c r="O277" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P277" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="U277" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="V277" s="5">
         <v>9999999</v>
@@ -25033,10 +25085,10 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J278" s="5">
         <v>-31</v>
@@ -25048,19 +25100,19 @@
         <v>0</v>
       </c>
       <c r="M278" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N278" s="5">
         <v>1800</v>
       </c>
       <c r="O278" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P278" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="U278" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="V278" s="5">
         <v>9999999</v>
@@ -25098,10 +25150,10 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J279" s="5">
         <v>-31</v>
@@ -25113,19 +25165,19 @@
         <v>0</v>
       </c>
       <c r="M279" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N279" s="5">
         <v>4800</v>
       </c>
       <c r="O279" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P279" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U279" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="V279" s="5">
         <v>9999999</v>
@@ -25163,10 +25215,10 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J280" s="5">
         <v>-31</v>
@@ -25178,19 +25230,19 @@
         <v>0</v>
       </c>
       <c r="M280" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N280" s="5">
         <v>0</v>
       </c>
       <c r="O280" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P280" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="U280" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V280" s="5">
         <v>9999999</v>
@@ -25228,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J281" s="5">
         <v>-31</v>
@@ -25243,19 +25295,19 @@
         <v>0</v>
       </c>
       <c r="M281" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N281" s="5">
         <v>1800</v>
       </c>
       <c r="O281" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P281" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="U281" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V281" s="5">
         <v>9999999</v>
@@ -25293,10 +25345,10 @@
         <v>0</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J282" s="5">
         <v>-31</v>
@@ -25308,19 +25360,19 @@
         <v>0</v>
       </c>
       <c r="M282" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N282" s="5">
         <v>4800</v>
       </c>
       <c r="O282" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P282" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U282" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="V282" s="5">
         <v>9999999</v>
@@ -25358,10 +25410,10 @@
         <v>0</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J283" s="5">
         <v>-31</v>
@@ -25373,19 +25425,19 @@
         <v>0</v>
       </c>
       <c r="M283" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N283" s="5">
         <v>9800</v>
       </c>
       <c r="O283" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P283" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="U283" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="V283" s="5">
         <v>9999999</v>
@@ -25423,10 +25475,10 @@
         <v>0</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J284" s="5">
         <v>-31</v>
@@ -25438,19 +25490,19 @@
         <v>0</v>
       </c>
       <c r="M284" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N284" s="5">
         <v>19800</v>
       </c>
       <c r="O284" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P284" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="U284" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="V284" s="5">
         <v>9999999</v>
@@ -25488,10 +25540,10 @@
         <v>0</v>
       </c>
       <c r="G285" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="H285" s="5" t="s">
         <v>575</v>
-      </c>
-      <c r="H285" s="5" t="s">
-        <v>576</v>
       </c>
       <c r="J285" s="5">
         <v>-31</v>
@@ -25503,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="M285" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N285" s="5">
         <v>600</v>
       </c>
       <c r="O285" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P285" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U285" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V285" s="5">
         <v>9999999</v>
@@ -25550,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H286" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J286" s="5">
         <v>-31</v>
@@ -25565,19 +25617,19 @@
         <v>0</v>
       </c>
       <c r="M286" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N286" s="5">
         <v>1500</v>
       </c>
       <c r="O286" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P286" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="U286" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V286" s="5">
         <v>9999999</v>
@@ -25612,10 +25664,10 @@
         <v>0</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H287" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J287" s="5">
         <v>-31</v>
@@ -25627,19 +25679,19 @@
         <v>0</v>
       </c>
       <c r="M287" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N287" s="5">
         <v>3000</v>
       </c>
       <c r="O287" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P287" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="U287" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V287" s="5">
         <v>9999999</v>
@@ -25674,10 +25726,10 @@
         <v>0</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H288" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J288" s="5">
         <v>-31</v>
@@ -25689,19 +25741,19 @@
         <v>0</v>
       </c>
       <c r="M288" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N288" s="5">
         <v>5000</v>
       </c>
       <c r="O288" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P288" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U288" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V288" s="5">
         <v>9999999</v>
@@ -25736,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H289" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J289" s="5">
         <v>-31</v>
@@ -25751,19 +25803,19 @@
         <v>0</v>
       </c>
       <c r="M289" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N289" s="5">
         <v>9800</v>
       </c>
       <c r="O289" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P289" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U289" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V289" s="5">
         <v>9999999</v>
@@ -25798,10 +25850,10 @@
         <v>0</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H290" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J290" s="5">
         <v>-31</v>
@@ -25813,19 +25865,19 @@
         <v>0</v>
       </c>
       <c r="M290" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N290" s="5">
         <v>19800</v>
       </c>
       <c r="O290" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P290" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="U290" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V290" s="5">
         <v>9999999</v>
@@ -25860,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H291" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J291" s="5">
         <v>-31</v>
@@ -25875,19 +25927,19 @@
         <v>0</v>
       </c>
       <c r="M291" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N291" s="5">
         <v>49800</v>
       </c>
       <c r="O291" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P291" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="U291" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V291" s="5">
         <v>9999999</v>
@@ -25922,10 +25974,10 @@
         <v>0</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H292" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J292" s="5">
         <v>-31</v>
@@ -25937,19 +25989,19 @@
         <v>0</v>
       </c>
       <c r="M292" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N292" s="5">
         <v>99800</v>
       </c>
       <c r="O292" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P292" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U292" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V292" s="5">
         <v>9999999</v>
@@ -25984,10 +26036,10 @@
         <v>0</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H293" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J293" s="5">
         <v>-31</v>
@@ -25999,19 +26051,19 @@
         <v>0</v>
       </c>
       <c r="M293" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N293" s="5">
         <v>249800</v>
       </c>
       <c r="O293" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P293" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U293" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V293" s="5">
         <v>9999999</v>
@@ -26046,10 +26098,10 @@
         <v>0</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J294" s="5">
         <v>-31</v>
@@ -26067,13 +26119,13 @@
         <v>100</v>
       </c>
       <c r="O294" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P294" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="U294" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V294" s="5">
         <v>9999999</v>
@@ -26108,10 +26160,10 @@
         <v>0</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J295" s="5">
         <v>-31</v>
@@ -26129,13 +26181,13 @@
         <v>300</v>
       </c>
       <c r="O295" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P295" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="U295" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V295" s="5">
         <v>9999999</v>
@@ -26170,10 +26222,10 @@
         <v>0</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J296" s="5">
         <v>-31</v>
@@ -26191,13 +26243,13 @@
         <v>600</v>
       </c>
       <c r="O296" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P296" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="U296" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V296" s="5">
         <v>9999999</v>
@@ -26232,10 +26284,10 @@
         <v>0</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J297" s="5">
         <v>-31</v>
@@ -26253,13 +26305,13 @@
         <v>600</v>
       </c>
       <c r="O297" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P297" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U297" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V297" s="5">
         <v>9999999</v>
@@ -26294,10 +26346,10 @@
         <v>0</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J298" s="5">
         <v>-31</v>
@@ -26315,13 +26367,13 @@
         <v>1200</v>
       </c>
       <c r="O298" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P298" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="U298" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V298" s="5">
         <v>9999999</v>
@@ -26356,10 +26408,10 @@
         <v>0</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J299" s="5">
         <v>-31</v>
@@ -26377,13 +26429,13 @@
         <v>1800</v>
       </c>
       <c r="O299" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P299" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="U299" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V299" s="5">
         <v>9999999</v>
@@ -26418,10 +26470,10 @@
         <v>0</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J300" s="5">
         <v>-31</v>
@@ -26439,13 +26491,13 @@
         <v>1800</v>
       </c>
       <c r="O300" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P300" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="U300" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V300" s="5">
         <v>9999999</v>
@@ -26480,10 +26532,10 @@
         <v>0</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J301" s="5">
         <v>-31</v>
@@ -26501,13 +26553,13 @@
         <v>3000</v>
       </c>
       <c r="O301" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P301" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U301" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V301" s="5">
         <v>9999999</v>
@@ -26542,10 +26594,10 @@
         <v>0</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J302" s="5">
         <v>-31</v>
@@ -26563,13 +26615,13 @@
         <v>4800</v>
       </c>
       <c r="O302" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P302" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="U302" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V302" s="5">
         <v>9999999</v>
@@ -26604,10 +26656,10 @@
         <v>0</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J303" s="5">
         <v>-31</v>
@@ -26625,13 +26677,13 @@
         <v>4800</v>
       </c>
       <c r="O303" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P303" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="U303" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V303" s="5">
         <v>9999999</v>
@@ -26666,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J304" s="5">
         <v>-31</v>
@@ -26687,13 +26739,13 @@
         <v>9800</v>
       </c>
       <c r="O304" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P304" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="U304" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V304" s="5">
         <v>9999999</v>
@@ -26728,10 +26780,10 @@
         <v>0</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J305" s="5">
         <v>-31</v>
@@ -26749,13 +26801,13 @@
         <v>19800</v>
       </c>
       <c r="O305" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P305" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="U305" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V305" s="5">
         <v>9999999</v>
@@ -26790,10 +26842,10 @@
         <v>0</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J306" s="5">
         <v>-31</v>
@@ -26811,13 +26863,13 @@
         <v>9800</v>
       </c>
       <c r="O306" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P306" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="U306" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V306" s="5">
         <v>9999999</v>
@@ -26852,10 +26904,10 @@
         <v>0</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J307" s="5">
         <v>-31</v>
@@ -26873,13 +26925,13 @@
         <v>19800</v>
       </c>
       <c r="O307" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P307" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="U307" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V307" s="5">
         <v>9999999</v>
@@ -26914,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J308" s="5">
         <v>-31</v>
@@ -26935,13 +26987,13 @@
         <v>49800</v>
       </c>
       <c r="O308" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="P308" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="U308" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V308" s="5">
         <v>9999999</v>
@@ -26976,10 +27028,10 @@
         <v>0</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J309" s="5">
         <v>-31</v>
@@ -26997,13 +27049,13 @@
         <v>0</v>
       </c>
       <c r="O309" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P309" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="U309" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V309" s="5">
         <v>9999999</v>
@@ -27038,10 +27090,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="H310" s="5" t="s">
         <v>985</v>
-      </c>
-      <c r="H310" s="5" t="s">
-        <v>986</v>
       </c>
       <c r="J310" s="5">
         <v>-31</v>
@@ -27059,13 +27111,13 @@
         <v>0</v>
       </c>
       <c r="O310" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="P310" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="U310" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V310" s="5">
         <v>9999999</v>
@@ -27100,10 +27152,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J311" s="5">
         <v>-31</v>
@@ -27121,13 +27173,13 @@
         <v>600</v>
       </c>
       <c r="O311" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P311" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="U311" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V311" s="5">
         <v>9999999</v>
@@ -27162,10 +27214,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J312" s="5">
         <v>-31</v>
@@ -27183,13 +27235,13 @@
         <v>1800</v>
       </c>
       <c r="O312" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P312" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="U312" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="V312" s="5">
         <v>9999999</v>
@@ -27224,10 +27276,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J313" s="5">
         <v>-31</v>
@@ -27245,13 +27297,13 @@
         <v>4800</v>
       </c>
       <c r="O313" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P313" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U313" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="V313" s="5">
         <v>9999999</v>
@@ -27286,10 +27338,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J314" s="5">
         <v>-31</v>
@@ -27307,13 +27359,13 @@
         <v>9800</v>
       </c>
       <c r="O314" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="P314" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="U314" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="V314" s="5">
         <v>9999999</v>
@@ -27348,10 +27400,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J315" s="5">
         <v>-31</v>
@@ -27369,13 +27421,13 @@
         <v>19800</v>
       </c>
       <c r="O315" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P315" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="U315" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V315" s="5">
         <v>9999999</v>
@@ -27410,10 +27462,10 @@
         <v>0</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J316" s="5">
         <v>-31</v>
@@ -27431,13 +27483,13 @@
         <v>0</v>
       </c>
       <c r="O316" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P316" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U316" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V316" s="5">
         <v>20</v>
@@ -27472,10 +27524,10 @@
         <v>0</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H317" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J317" s="5">
         <v>-31</v>
@@ -27493,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="O317" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P317" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="U317" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V317" s="5">
         <v>20</v>
@@ -27534,10 +27586,10 @@
         <v>0</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H318" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J318" s="5">
         <v>-31</v>
@@ -27555,13 +27607,13 @@
         <v>0</v>
       </c>
       <c r="O318" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P318" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="U318" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V318" s="5">
         <v>9</v>
@@ -27596,10 +27648,10 @@
         <v>1</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J319" s="5">
         <v>-23</v>
@@ -27617,13 +27669,13 @@
         <v>4800</v>
       </c>
       <c r="O319" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="P319" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="U319" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V319" s="5">
         <v>99999999</v>
@@ -27652,10 +27704,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J320" s="5">
         <v>-25</v>
@@ -27673,13 +27725,13 @@
         <v>9600</v>
       </c>
       <c r="O320" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P320" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="U320" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V320" s="5">
         <v>99999999</v>
@@ -27708,10 +27760,10 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J321" s="5">
         <v>-23</v>
@@ -27723,19 +27775,19 @@
         <v>0</v>
       </c>
       <c r="M321" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N321" s="5">
         <v>9800</v>
       </c>
       <c r="O321" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P321" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="U321" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V321" s="5">
         <v>9999999</v>
@@ -27770,10 +27822,10 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="H322" s="5" t="s">
         <v>664</v>
-      </c>
-      <c r="H322" s="5" t="s">
-        <v>665</v>
       </c>
       <c r="J322" s="5">
         <v>-25</v>
@@ -27785,19 +27837,19 @@
         <v>0</v>
       </c>
       <c r="M322" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N322" s="5">
         <v>19800</v>
       </c>
       <c r="O322" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="P322" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U322" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V322" s="5">
         <v>9999999</v>
@@ -27835,10 +27887,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H323" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="I323" s="19"/>
       <c r="J323" s="19">
@@ -27857,17 +27909,17 @@
         <v>600</v>
       </c>
       <c r="O323" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q323" s="19"/>
       <c r="R323" s="19"/>
       <c r="S323" s="19"/>
       <c r="T323" s="19"/>
       <c r="U323" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V323" s="19">
         <v>9999999</v>
@@ -27917,10 +27969,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H324" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I324" s="19"/>
       <c r="J324" s="19">
@@ -27939,17 +27991,17 @@
         <v>4800</v>
       </c>
       <c r="O324" s="19" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q324" s="19"/>
       <c r="R324" s="19"/>
       <c r="S324" s="19"/>
       <c r="T324" s="19"/>
       <c r="U324" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V324" s="19">
         <v>9999999</v>
@@ -27999,10 +28051,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H325" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I325" s="19"/>
       <c r="J325" s="19">
@@ -28021,17 +28073,17 @@
         <v>9800</v>
       </c>
       <c r="O325" s="19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="Q325" s="19"/>
       <c r="R325" s="19"/>
       <c r="S325" s="19"/>
       <c r="T325" s="19"/>
       <c r="U325" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V325" s="19">
         <v>9999999</v>
@@ -28078,10 +28130,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H326" s="41" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J326" s="41">
         <v>-4</v>
@@ -28093,13 +28145,13 @@
         <v>0</v>
       </c>
       <c r="M326" s="41" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="N326" s="41">
         <v>100</v>
       </c>
       <c r="U326" s="41" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V326" s="41">
         <v>9999999</v>
@@ -28111,13 +28163,13 @@
         <v>2552233600</v>
       </c>
       <c r="Z326" s="41" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AA326" s="41" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AB326" s="42" t="s">
         <v>1153</v>
-      </c>
-      <c r="AB326" s="42" t="s">
-        <v>1154</v>
       </c>
       <c r="AF326" s="41">
         <v>1</v>
@@ -28137,10 +28189,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="44" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H327" s="44" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="J327" s="44">
         <v>-31</v>
@@ -28152,19 +28204,19 @@
         <v>0</v>
       </c>
       <c r="M327" s="44" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="N327" s="44">
         <v>9900</v>
       </c>
       <c r="O327" s="44" t="s">
+        <v>1159</v>
+      </c>
+      <c r="P327" s="44" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U327" s="44" t="s">
         <v>1160</v>
-      </c>
-      <c r="P327" s="44" t="s">
-        <v>1196</v>
-      </c>
-      <c r="U327" s="44" t="s">
-        <v>1161</v>
       </c>
       <c r="V327" s="44">
         <v>99999999</v>
@@ -28202,10 +28254,10 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H328" s="44" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I328" s="44"/>
       <c r="J328" s="44">
@@ -28218,23 +28270,23 @@
         <v>0</v>
       </c>
       <c r="M328" s="44" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="N328" s="44">
         <v>600</v>
       </c>
       <c r="O328" s="44" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P328" s="44" t="s">
         <v>1183</v>
-      </c>
-      <c r="P328" s="44" t="s">
-        <v>1184</v>
       </c>
       <c r="Q328" s="44"/>
       <c r="R328" s="44"/>
       <c r="S328" s="44"/>
       <c r="T328" s="44"/>
       <c r="U328" s="44" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V328" s="44">
         <v>99999999</v>
@@ -28283,10 +28335,10 @@
         <v>1</v>
       </c>
       <c r="G329" s="44" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H329" s="44" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I329" s="44"/>
       <c r="J329" s="44">
@@ -28299,23 +28351,23 @@
         <v>0</v>
       </c>
       <c r="M329" s="44" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="N329" s="44">
         <v>2800</v>
       </c>
       <c r="O329" s="44" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="Q329" s="44"/>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V329" s="44">
         <v>99999999</v>
@@ -28364,10 +28416,10 @@
         <v>1</v>
       </c>
       <c r="G330" s="44" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H330" s="44" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I330" s="44"/>
       <c r="J330" s="44">
@@ -28380,23 +28432,23 @@
         <v>0</v>
       </c>
       <c r="M330" s="44" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="N330" s="44">
         <v>4800</v>
       </c>
       <c r="O330" s="44" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="Q330" s="44"/>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V330" s="44">
         <v>99999999</v>
@@ -28445,10 +28497,10 @@
         <v>1</v>
       </c>
       <c r="G331" s="44" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H331" s="44" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I331" s="44"/>
       <c r="J331" s="44">
@@ -28461,23 +28513,23 @@
         <v>0</v>
       </c>
       <c r="M331" s="44" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="N331" s="44">
         <v>9900</v>
       </c>
       <c r="O331" s="44" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Q331" s="44"/>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V331" s="44">
         <v>99999999</v>
@@ -28526,10 +28578,10 @@
         <v>1</v>
       </c>
       <c r="G332" s="44" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H332" s="44" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I332" s="44"/>
       <c r="J332" s="44">
@@ -28542,23 +28594,23 @@
         <v>0</v>
       </c>
       <c r="M332" s="44" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="N332" s="44">
         <v>19800</v>
       </c>
       <c r="O332" s="44" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Q332" s="44"/>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V332" s="44">
         <v>99999999</v>
@@ -28607,10 +28659,10 @@
         <v>1</v>
       </c>
       <c r="G333" s="44" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H333" s="44" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I333" s="44"/>
       <c r="J333" s="44">
@@ -28623,23 +28675,23 @@
         <v>0</v>
       </c>
       <c r="M333" s="44" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="N333" s="44">
         <v>29800</v>
       </c>
       <c r="O333" s="44" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Q333" s="44"/>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V333" s="44">
         <v>99999999</v>
@@ -28688,10 +28740,10 @@
         <v>1</v>
       </c>
       <c r="G334" s="44" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H334" s="44" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I334" s="44"/>
       <c r="J334" s="44">
@@ -28704,23 +28756,23 @@
         <v>0</v>
       </c>
       <c r="M334" s="44" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="N334" s="44">
         <v>39800</v>
       </c>
       <c r="O334" s="44" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="Q334" s="44"/>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V334" s="44">
         <v>99999999</v>
@@ -28769,10 +28821,10 @@
         <v>1</v>
       </c>
       <c r="G335" s="44" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H335" s="44" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I335" s="44"/>
       <c r="J335" s="44">
@@ -28785,23 +28837,23 @@
         <v>0</v>
       </c>
       <c r="M335" s="44" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="N335" s="44">
         <v>49800</v>
       </c>
       <c r="O335" s="44" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="Q335" s="44"/>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V335" s="44">
         <v>99999999</v>
@@ -28850,10 +28902,10 @@
         <v>1</v>
       </c>
       <c r="G336" s="44" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H336" s="44" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I336" s="44"/>
       <c r="J336" s="44">
@@ -28866,23 +28918,23 @@
         <v>0</v>
       </c>
       <c r="M336" s="44" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="N336" s="44">
         <v>59800</v>
       </c>
       <c r="O336" s="44" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Q336" s="44"/>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V336" s="44">
         <v>99999999</v>
@@ -28931,10 +28983,10 @@
         <v>1</v>
       </c>
       <c r="G337" s="44" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H337" s="44" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I337" s="44"/>
       <c r="J337" s="44">
@@ -28947,23 +28999,23 @@
         <v>0</v>
       </c>
       <c r="M337" s="44" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="N337" s="44">
         <v>69800</v>
       </c>
       <c r="O337" s="44" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="Q337" s="44"/>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V337" s="44">
         <v>99999999</v>
@@ -28995,6 +29047,240 @@
         <v>1</v>
       </c>
       <c r="AK337" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="19">
+        <v>337</v>
+      </c>
+      <c r="B338" s="19">
+        <v>10254</v>
+      </c>
+      <c r="F338" s="19">
+        <v>1</v>
+      </c>
+      <c r="G338" s="19" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H338" s="19" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J338" s="19">
+        <v>-31</v>
+      </c>
+      <c r="K338" s="19">
+        <v>0</v>
+      </c>
+      <c r="L338" s="19">
+        <v>0</v>
+      </c>
+      <c r="M338" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="N338" s="19">
+        <v>19800</v>
+      </c>
+      <c r="O338" s="19" t="s">
+        <v>1211</v>
+      </c>
+      <c r="P338" s="19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U338" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="V338" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="W338" s="19">
+        <v>1585609200</v>
+      </c>
+      <c r="X338" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z338" s="19" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AA338" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AF338" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG338" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ338" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK338" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A339" s="19">
+        <v>338</v>
+      </c>
+      <c r="B339" s="19">
+        <v>10255</v>
+      </c>
+      <c r="C339" s="19"/>
+      <c r="D339" s="19"/>
+      <c r="E339" s="19"/>
+      <c r="F339" s="19">
+        <v>1</v>
+      </c>
+      <c r="G339" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="H339" s="19" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I339" s="19"/>
+      <c r="J339" s="19">
+        <v>-31</v>
+      </c>
+      <c r="K339" s="19">
+        <v>0</v>
+      </c>
+      <c r="L339" s="19">
+        <v>0</v>
+      </c>
+      <c r="M339" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="N339" s="19">
+        <v>30000</v>
+      </c>
+      <c r="O339" s="19" t="s">
+        <v>1211</v>
+      </c>
+      <c r="P339" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="Q339" s="19"/>
+      <c r="R339" s="19"/>
+      <c r="S339" s="19"/>
+      <c r="T339" s="19"/>
+      <c r="U339" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="V339" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="W339" s="19">
+        <v>1585609200</v>
+      </c>
+      <c r="X339" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Y339" s="19"/>
+      <c r="Z339" s="19" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AA339" s="19" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AB339" s="19"/>
+      <c r="AC339" s="19"/>
+      <c r="AD339" s="19"/>
+      <c r="AE339" s="19"/>
+      <c r="AF339" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG339" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH339" s="19"/>
+      <c r="AI339" s="19"/>
+      <c r="AJ339" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK339" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A340" s="19">
+        <v>339</v>
+      </c>
+      <c r="B340" s="19">
+        <v>10256</v>
+      </c>
+      <c r="C340" s="19"/>
+      <c r="D340" s="19"/>
+      <c r="E340" s="19"/>
+      <c r="F340" s="19">
+        <v>1</v>
+      </c>
+      <c r="G340" s="19" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H340" s="19" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I340" s="19"/>
+      <c r="J340" s="19">
+        <v>-31</v>
+      </c>
+      <c r="K340" s="19">
+        <v>0</v>
+      </c>
+      <c r="L340" s="19">
+        <v>0</v>
+      </c>
+      <c r="M340" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="N340" s="19">
+        <v>78000</v>
+      </c>
+      <c r="O340" s="19" t="s">
+        <v>1211</v>
+      </c>
+      <c r="P340" s="19" t="s">
+        <v>1218</v>
+      </c>
+      <c r="Q340" s="19"/>
+      <c r="R340" s="19"/>
+      <c r="S340" s="19"/>
+      <c r="T340" s="19"/>
+      <c r="U340" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="V340" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="W340" s="19">
+        <v>1585609200</v>
+      </c>
+      <c r="X340" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Y340" s="19"/>
+      <c r="Z340" s="19" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AA340" s="19" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AB340" s="19"/>
+      <c r="AC340" s="19"/>
+      <c r="AD340" s="19"/>
+      <c r="AE340" s="19"/>
+      <c r="AF340" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG340" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH340" s="19"/>
+      <c r="AI340" s="19"/>
+      <c r="AJ340" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK340" s="19">
         <v>1</v>
       </c>
     </row>
@@ -29026,7 +29312,7 @@
         <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>403</v>
@@ -29102,7 +29388,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -29214,7 +29500,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -29284,7 +29570,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -29298,7 +29584,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C20" s="20">
         <v>1</v>
@@ -29312,7 +29598,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C21" s="20">
         <v>1</v>
@@ -29326,7 +29612,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C22" s="20">
         <v>1</v>
@@ -29340,7 +29626,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C23" s="20">
         <v>1</v>
@@ -29354,7 +29640,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C24" s="20">
         <v>1</v>
@@ -29368,7 +29654,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C25" s="20">
         <v>1</v>
@@ -29382,7 +29668,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C26" s="20">
         <v>1</v>
@@ -29454,10 +29740,10 @@
         <v>418</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1031</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -29514,7 +29800,7 @@
         <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29558,16 +29844,16 @@
         <v>3</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>50</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>421</v>
@@ -29623,16 +29909,16 @@
         <v>4</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>53</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>421</v>
@@ -29688,16 +29974,16 @@
         <v>5</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="U4" s="11" t="s">
         <v>421</v>
@@ -29753,16 +30039,16 @@
         <v>6</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>57</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>421</v>
@@ -29818,16 +30104,16 @@
         <v>7</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>59</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="U6" s="11" t="s">
         <v>421</v>
@@ -29883,16 +30169,16 @@
         <v>9</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>61</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="U7" s="11" t="s">
         <v>421</v>
@@ -29945,16 +30231,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>50</v>
       </c>
       <c r="T8" s="34" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>421</v>
@@ -30007,13 +30293,13 @@
         <v>2</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="S9" s="11">
         <v>5000</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="U9" s="11" t="s">
         <v>421</v>
@@ -30025,7 +30311,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="34" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30069,13 +30355,13 @@
         <v>1</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="S10" s="11">
         <v>1000</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="U10" s="11" t="s">
         <v>421</v>
@@ -30087,7 +30373,7 @@
         <v>1</v>
       </c>
       <c r="AB10" s="34" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30131,16 +30417,16 @@
         <v>0</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>53</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="U11" s="11" t="s">
         <v>421</v>
@@ -30160,7 +30446,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -30196,16 +30482,16 @@
         <v>9</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>63</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U12" s="11" t="s">
         <v>421</v>
@@ -30261,16 +30547,16 @@
         <v>10</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>423</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U13" s="11" t="s">
         <v>421</v>
@@ -30326,16 +30612,16 @@
         <v>11</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>424</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="U14" s="11" t="s">
         <v>421</v>
@@ -30391,14 +30677,14 @@
         <v>0</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="11">
         <v>100</v>
       </c>
       <c r="T15" s="34" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="U15" s="11" t="s">
         <v>421</v>
@@ -30410,7 +30696,7 @@
         <v>1</v>
       </c>
       <c r="AB15" s="34" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30457,16 +30743,16 @@
         <v>3</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>72</v>
       </c>
       <c r="T16" s="34" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>421</v>
@@ -30519,16 +30805,16 @@
         <v>4</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>75</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="U17" s="11" t="s">
         <v>421</v>
@@ -30581,16 +30867,16 @@
         <v>5</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>78</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="U18" s="11" t="s">
         <v>421</v>
@@ -30643,16 +30929,16 @@
         <v>6</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>82</v>
       </c>
       <c r="T19" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U19" s="11" t="s">
         <v>421</v>
@@ -30705,16 +30991,16 @@
         <v>7</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>86</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>421</v>
@@ -30767,16 +31053,16 @@
         <v>0</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="S21" s="35" t="s">
         <v>89</v>
       </c>
       <c r="T21" s="36" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="U21" s="35" t="s">
         <v>421</v>
@@ -30829,14 +31115,14 @@
         <v>2</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="11">
         <v>5000</v>
       </c>
       <c r="T22" s="34" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>421</v>
@@ -30889,14 +31175,14 @@
         <v>1</v>
       </c>
       <c r="P23" s="34" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="11">
         <v>1000</v>
       </c>
       <c r="T23" s="34" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="U23" s="11" t="s">
         <v>421</v>
@@ -30952,14 +31238,14 @@
         <v>0</v>
       </c>
       <c r="P24" s="34" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="11">
         <v>100</v>
       </c>
       <c r="T24" s="34" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="U24" s="11" t="s">
         <v>421</v>
@@ -30971,7 +31257,7 @@
         <v>1</v>
       </c>
       <c r="AB24" s="34" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30991,7 +31277,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G25" s="11">
         <v>19800</v>
@@ -31018,16 +31304,16 @@
         <v>8</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="T25" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U25" s="11" t="s">
         <v>421</v>
@@ -31108,7 +31394,7 @@
         <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>427</v>
@@ -31480,7 +31766,7 @@
         <v>90</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="L8" s="12">
         <v>57</v>
@@ -31498,7 +31784,7 @@
         <v>450</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>435</v>
@@ -31673,7 +31959,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>493</v>
@@ -31720,7 +32006,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>493</v>
@@ -31767,7 +32053,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>497</v>
@@ -31797,10 +32083,10 @@
         <v>1500</v>
       </c>
       <c r="U15" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="V15" s="18" t="s">
         <v>610</v>
-      </c>
-      <c r="V15" s="18" t="s">
-        <v>611</v>
       </c>
       <c r="W15" s="12">
         <v>3</v>
@@ -31814,7 +32100,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>497</v>
@@ -31833,7 +32119,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T16" s="25">
         <v>200</v>
@@ -31850,7 +32136,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>497</v>
@@ -31869,7 +32155,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T17" s="25">
         <v>2000</v>
@@ -31886,7 +32172,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>493</v>
@@ -31905,7 +32191,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="28" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T18" s="25">
         <v>20000</v>
@@ -31922,7 +32208,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>493</v>
@@ -31941,7 +32227,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T19" s="25">
         <v>200000</v>
@@ -31958,7 +32244,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>492</v>
@@ -31976,16 +32262,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="T20" s="20">
         <v>300000</v>
       </c>
       <c r="U20" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="V20" s="21" t="s">
         <v>669</v>
-      </c>
-      <c r="V20" s="21" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -31996,7 +32282,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>492</v>
@@ -32014,13 +32300,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="T21" s="20">
         <v>300000</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="V21" s="21" t="s">
         <v>476</v>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8745,7 +8745,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H164" sqref="H164"/>
+      <selection pane="bottomRight" activeCell="I168" sqref="I168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -18605,7 +18605,7 @@
         <v>10084</v>
       </c>
       <c r="F168" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168" s="19" t="s">
         <v>372</v>
@@ -18670,7 +18670,7 @@
         <v>10085</v>
       </c>
       <c r="F169" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
         <v>483</v>
@@ -18732,7 +18732,7 @@
         <v>10086</v>
       </c>
       <c r="F170" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" s="19" t="s">
         <v>373</v>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="1372">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6018,7 +6018,27 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"3万金币","2万金币","记牌器*2",</t>
+    <t>免费福利券</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（免费，小额）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_mfcjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万鲸币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6803,7 +6823,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7027,6 +7047,9 @@
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -7107,6 +7130,9 @@
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -7187,6 +7213,9 @@
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -7267,6 +7296,9 @@
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -7347,6 +7379,9 @@
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -7510,6 +7545,9 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -7591,6 +7629,9 @@
         <v>43</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -8662,6 +8703,9 @@
         <v>43</v>
       </c>
       <c r="E24" s="23"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -8739,13 +8783,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM373"/>
+  <dimension ref="A1:AM374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H342" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I168" sqref="I168"/>
+      <selection pane="bottomRight" activeCell="I361" sqref="I361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -19947,7 +19991,7 @@
         <v>376</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>1366</v>
+        <v>931</v>
       </c>
       <c r="K188" s="5">
         <v>-28</v>
@@ -31699,576 +31743,644 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="45">
+    <row r="365" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="5">
         <v>364</v>
       </c>
-      <c r="B365" s="45">
+      <c r="B365" s="5">
         <v>10281</v>
       </c>
-      <c r="F365" s="45">
-        <v>1</v>
-      </c>
-      <c r="G365" s="45" t="s">
+      <c r="F365" s="5">
+        <v>1</v>
+      </c>
+      <c r="G365" s="5" t="s">
         <v>1333</v>
       </c>
-      <c r="I365" s="45" t="s">
+      <c r="I365" s="5" t="s">
         <v>1339</v>
       </c>
-      <c r="K365" s="45">
+      <c r="K365" s="5">
         <v>-31</v>
       </c>
-      <c r="L365" s="45">
-        <v>0</v>
-      </c>
-      <c r="M365" s="45">
-        <v>0</v>
-      </c>
-      <c r="N365" s="45" t="s">
+      <c r="L365" s="5">
+        <v>0</v>
+      </c>
+      <c r="M365" s="5">
+        <v>0</v>
+      </c>
+      <c r="N365" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O365" s="45">
+      <c r="O365" s="5">
         <v>131400</v>
       </c>
-      <c r="P365" s="45" t="s">
+      <c r="P365" s="5" t="s">
         <v>1344</v>
       </c>
-      <c r="Q365" s="50" t="s">
+      <c r="Q365" s="10" t="s">
         <v>1345</v>
       </c>
-      <c r="V365" s="45" t="s">
+      <c r="V365" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="W365" s="45">
+      <c r="W365" s="5">
         <v>9999999</v>
       </c>
-      <c r="X365" s="45">
+      <c r="X365" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y365" s="45">
+      <c r="Y365" s="5">
         <v>1598889599</v>
       </c>
-      <c r="Z365" s="45">
+      <c r="Z365" s="5">
         <v>41</v>
       </c>
-      <c r="AG365" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH365" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK365" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL365" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="45">
+      <c r="AG365" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH365" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK365" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL365" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="5">
         <v>365</v>
       </c>
-      <c r="B366" s="45">
+      <c r="B366" s="5">
         <v>10282</v>
       </c>
-      <c r="F366" s="45">
-        <v>1</v>
-      </c>
-      <c r="G366" s="45" t="s">
+      <c r="F366" s="5">
+        <v>1</v>
+      </c>
+      <c r="G366" s="5" t="s">
         <v>1335</v>
       </c>
-      <c r="I366" s="45" t="s">
+      <c r="I366" s="5" t="s">
         <v>1340</v>
       </c>
-      <c r="K366" s="45">
+      <c r="K366" s="5">
         <v>-31</v>
       </c>
-      <c r="L366" s="45">
-        <v>0</v>
-      </c>
-      <c r="M366" s="45">
-        <v>0</v>
-      </c>
-      <c r="N366" s="45" t="s">
+      <c r="L366" s="5">
+        <v>0</v>
+      </c>
+      <c r="M366" s="5">
+        <v>0</v>
+      </c>
+      <c r="N366" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O366" s="45">
+      <c r="O366" s="5">
         <v>52000</v>
       </c>
-      <c r="P366" s="45" t="s">
+      <c r="P366" s="5" t="s">
         <v>1344</v>
       </c>
-      <c r="Q366" s="50" t="s">
+      <c r="Q366" s="10" t="s">
         <v>1346</v>
       </c>
-      <c r="V366" s="45" t="s">
+      <c r="V366" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="W366" s="45">
+      <c r="W366" s="5">
         <v>9999999</v>
       </c>
-      <c r="X366" s="45">
+      <c r="X366" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y366" s="45">
+      <c r="Y366" s="5">
         <v>1598889599</v>
       </c>
-      <c r="Z366" s="45">
+      <c r="Z366" s="5">
         <v>41</v>
       </c>
-      <c r="AG366" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH366" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK366" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL366" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="45">
+      <c r="AG366" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH366" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK366" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL366" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="5">
         <v>366</v>
       </c>
-      <c r="B367" s="45">
+      <c r="B367" s="5">
         <v>10283</v>
       </c>
-      <c r="F367" s="45">
-        <v>1</v>
-      </c>
-      <c r="G367" s="45" t="s">
+      <c r="F367" s="5">
+        <v>1</v>
+      </c>
+      <c r="G367" s="5" t="s">
         <v>1334</v>
       </c>
-      <c r="I367" s="45" t="s">
+      <c r="I367" s="5" t="s">
         <v>1341</v>
       </c>
-      <c r="K367" s="45">
+      <c r="K367" s="5">
         <v>-31</v>
       </c>
-      <c r="L367" s="45">
-        <v>0</v>
-      </c>
-      <c r="M367" s="45">
-        <v>0</v>
-      </c>
-      <c r="N367" s="45" t="s">
+      <c r="L367" s="5">
+        <v>0</v>
+      </c>
+      <c r="M367" s="5">
+        <v>0</v>
+      </c>
+      <c r="N367" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O367" s="45">
+      <c r="O367" s="5">
         <v>25800</v>
       </c>
-      <c r="P367" s="45" t="s">
+      <c r="P367" s="5" t="s">
         <v>1344</v>
       </c>
-      <c r="Q367" s="50" t="s">
+      <c r="Q367" s="10" t="s">
         <v>1347</v>
       </c>
-      <c r="V367" s="45" t="s">
+      <c r="V367" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="W367" s="45">
+      <c r="W367" s="5">
         <v>9999999</v>
       </c>
-      <c r="X367" s="45">
+      <c r="X367" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y367" s="45">
+      <c r="Y367" s="5">
         <v>1598889599</v>
       </c>
-      <c r="Z367" s="45">
+      <c r="Z367" s="5">
         <v>41</v>
       </c>
-      <c r="AG367" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH367" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK367" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL367" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="45">
+      <c r="AG367" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH367" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK367" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL367" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="5">
         <v>367</v>
       </c>
-      <c r="B368" s="45">
+      <c r="B368" s="5">
         <v>10284</v>
       </c>
-      <c r="F368" s="45">
-        <v>1</v>
-      </c>
-      <c r="G368" s="45" t="s">
+      <c r="F368" s="5">
+        <v>1</v>
+      </c>
+      <c r="G368" s="5" t="s">
         <v>1336</v>
       </c>
-      <c r="I368" s="45" t="s">
+      <c r="I368" s="5" t="s">
         <v>1342</v>
       </c>
-      <c r="K368" s="45">
+      <c r="K368" s="5">
         <v>-31</v>
       </c>
-      <c r="L368" s="45">
-        <v>0</v>
-      </c>
-      <c r="M368" s="45">
-        <v>0</v>
-      </c>
-      <c r="N368" s="45" t="s">
+      <c r="L368" s="5">
+        <v>0</v>
+      </c>
+      <c r="M368" s="5">
+        <v>0</v>
+      </c>
+      <c r="N368" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O368" s="45">
+      <c r="O368" s="5">
         <v>14700</v>
       </c>
-      <c r="P368" s="45" t="s">
+      <c r="P368" s="5" t="s">
         <v>1344</v>
       </c>
-      <c r="Q368" s="50" t="s">
+      <c r="Q368" s="10" t="s">
         <v>1348</v>
       </c>
-      <c r="V368" s="45" t="s">
+      <c r="V368" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="W368" s="45">
+      <c r="W368" s="5">
         <v>9999999</v>
       </c>
-      <c r="X368" s="45">
+      <c r="X368" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y368" s="45">
+      <c r="Y368" s="5">
         <v>1598889599</v>
       </c>
-      <c r="Z368" s="45">
+      <c r="Z368" s="5">
         <v>41</v>
       </c>
-      <c r="AG368" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH368" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK368" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL368" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="45">
+      <c r="AG368" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH368" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK368" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL368" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="5">
         <v>368</v>
       </c>
-      <c r="B369" s="45">
+      <c r="B369" s="5">
         <v>10285</v>
       </c>
-      <c r="F369" s="45">
-        <v>1</v>
-      </c>
-      <c r="G369" s="45" t="s">
+      <c r="F369" s="5">
+        <v>1</v>
+      </c>
+      <c r="G369" s="5" t="s">
         <v>1337</v>
       </c>
-      <c r="I369" s="45" t="s">
+      <c r="I369" s="5" t="s">
         <v>1343</v>
       </c>
-      <c r="K369" s="45">
+      <c r="K369" s="5">
         <v>-31</v>
       </c>
-      <c r="L369" s="45">
-        <v>0</v>
-      </c>
-      <c r="M369" s="45">
-        <v>0</v>
-      </c>
-      <c r="N369" s="45" t="s">
+      <c r="L369" s="5">
+        <v>0</v>
+      </c>
+      <c r="M369" s="5">
+        <v>0</v>
+      </c>
+      <c r="N369" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O369" s="45">
+      <c r="O369" s="5">
         <v>5200</v>
       </c>
-      <c r="P369" s="45" t="s">
+      <c r="P369" s="5" t="s">
         <v>1344</v>
       </c>
-      <c r="Q369" s="50" t="s">
+      <c r="Q369" s="10" t="s">
         <v>1349</v>
       </c>
-      <c r="V369" s="45" t="s">
+      <c r="V369" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="W369" s="45">
+      <c r="W369" s="5">
         <v>9999999</v>
       </c>
-      <c r="X369" s="45">
+      <c r="X369" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y369" s="45">
+      <c r="Y369" s="5">
         <v>1598889599</v>
       </c>
-      <c r="Z369" s="45">
+      <c r="Z369" s="5">
         <v>41</v>
       </c>
-      <c r="AG369" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH369" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK369" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL369" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="45">
+      <c r="AG369" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH369" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK369" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL369" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="5">
         <v>369</v>
       </c>
-      <c r="B370" s="45">
+      <c r="B370" s="5">
         <v>10286</v>
       </c>
-      <c r="F370" s="45">
-        <v>1</v>
-      </c>
-      <c r="G370" s="45" t="s">
+      <c r="F370" s="5">
+        <v>1</v>
+      </c>
+      <c r="G370" s="5" t="s">
         <v>1350</v>
       </c>
-      <c r="I370" s="45" t="s">
+      <c r="I370" s="5" t="s">
         <v>1354</v>
       </c>
-      <c r="K370" s="45">
+      <c r="K370" s="5">
         <v>-31</v>
       </c>
-      <c r="L370" s="45">
-        <v>0</v>
-      </c>
-      <c r="M370" s="45">
-        <v>0</v>
-      </c>
-      <c r="N370" s="45" t="s">
+      <c r="L370" s="5">
+        <v>0</v>
+      </c>
+      <c r="M370" s="5">
+        <v>0</v>
+      </c>
+      <c r="N370" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O370" s="45">
+      <c r="O370" s="5">
         <v>1800</v>
       </c>
-      <c r="P370" s="45" t="s">
+      <c r="P370" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="Q370" s="50" t="s">
+      <c r="Q370" s="10" t="s">
         <v>1358</v>
       </c>
-      <c r="V370" s="45" t="s">
+      <c r="V370" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="W370" s="45">
+      <c r="W370" s="5">
         <v>9999999</v>
       </c>
-      <c r="X370" s="45">
+      <c r="X370" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y370" s="45">
+      <c r="Y370" s="5">
         <v>1598889599</v>
       </c>
-      <c r="AG370" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH370" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK370" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL370" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="45">
+      <c r="AG370" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH370" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK370" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL370" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="5">
         <v>370</v>
       </c>
-      <c r="B371" s="45">
+      <c r="B371" s="5">
         <v>10287</v>
       </c>
-      <c r="F371" s="45">
-        <v>1</v>
-      </c>
-      <c r="G371" s="45" t="s">
+      <c r="F371" s="5">
+        <v>1</v>
+      </c>
+      <c r="G371" s="5" t="s">
         <v>1351</v>
       </c>
-      <c r="I371" s="45" t="s">
+      <c r="I371" s="5" t="s">
         <v>1355</v>
       </c>
-      <c r="K371" s="45">
+      <c r="K371" s="5">
         <v>-31</v>
       </c>
-      <c r="L371" s="45">
-        <v>0</v>
-      </c>
-      <c r="M371" s="45">
-        <v>0</v>
-      </c>
-      <c r="N371" s="45" t="s">
+      <c r="L371" s="5">
+        <v>0</v>
+      </c>
+      <c r="M371" s="5">
+        <v>0</v>
+      </c>
+      <c r="N371" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O371" s="45">
+      <c r="O371" s="5">
         <v>4800</v>
       </c>
-      <c r="P371" s="45" t="s">
+      <c r="P371" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="Q371" s="50" t="s">
+      <c r="Q371" s="10" t="s">
         <v>1359</v>
       </c>
-      <c r="V371" s="45" t="s">
+      <c r="V371" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="W371" s="45">
+      <c r="W371" s="5">
         <v>9999999</v>
       </c>
-      <c r="X371" s="45">
+      <c r="X371" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y371" s="45">
+      <c r="Y371" s="5">
         <v>1598889599</v>
       </c>
-      <c r="AG371" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH371" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK371" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL371" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="45">
+      <c r="AG371" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH371" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK371" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL371" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="5">
         <v>371</v>
       </c>
-      <c r="B372" s="45">
+      <c r="B372" s="5">
         <v>10288</v>
       </c>
-      <c r="F372" s="45">
-        <v>1</v>
-      </c>
-      <c r="G372" s="45" t="s">
+      <c r="F372" s="5">
+        <v>1</v>
+      </c>
+      <c r="G372" s="5" t="s">
         <v>1352</v>
       </c>
-      <c r="I372" s="45" t="s">
+      <c r="I372" s="5" t="s">
         <v>1356</v>
       </c>
-      <c r="K372" s="45">
+      <c r="K372" s="5">
         <v>-31</v>
       </c>
-      <c r="L372" s="45">
-        <v>0</v>
-      </c>
-      <c r="M372" s="45">
-        <v>0</v>
-      </c>
-      <c r="N372" s="45" t="s">
+      <c r="L372" s="5">
+        <v>0</v>
+      </c>
+      <c r="M372" s="5">
+        <v>0</v>
+      </c>
+      <c r="N372" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O372" s="45">
+      <c r="O372" s="5">
         <v>9800</v>
       </c>
-      <c r="P372" s="45" t="s">
+      <c r="P372" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="Q372" s="50" t="s">
+      <c r="Q372" s="10" t="s">
         <v>1360</v>
       </c>
-      <c r="V372" s="45" t="s">
+      <c r="V372" s="5" t="s">
         <v>1362</v>
       </c>
-      <c r="W372" s="45">
+      <c r="W372" s="5">
         <v>9999999</v>
       </c>
-      <c r="X372" s="45">
+      <c r="X372" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y372" s="45">
+      <c r="Y372" s="5">
         <v>1598889599</v>
       </c>
-      <c r="AG372" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH372" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK372" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL372" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="45">
+      <c r="AG372" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH372" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK372" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL372" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="5">
         <v>372</v>
       </c>
-      <c r="B373" s="45">
+      <c r="B373" s="5">
         <v>10289</v>
       </c>
-      <c r="F373" s="45">
-        <v>1</v>
-      </c>
-      <c r="G373" s="45" t="s">
+      <c r="F373" s="5">
+        <v>1</v>
+      </c>
+      <c r="G373" s="5" t="s">
         <v>1353</v>
       </c>
-      <c r="I373" s="45" t="s">
+      <c r="I373" s="5" t="s">
         <v>1357</v>
       </c>
-      <c r="K373" s="45">
+      <c r="K373" s="5">
         <v>-31</v>
       </c>
-      <c r="L373" s="45">
-        <v>0</v>
-      </c>
-      <c r="M373" s="45">
-        <v>0</v>
-      </c>
-      <c r="N373" s="45" t="s">
+      <c r="L373" s="5">
+        <v>0</v>
+      </c>
+      <c r="M373" s="5">
+        <v>0</v>
+      </c>
+      <c r="N373" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O373" s="45">
+      <c r="O373" s="5">
         <v>19800</v>
       </c>
-      <c r="P373" s="45" t="s">
+      <c r="P373" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="Q373" s="50" t="s">
+      <c r="Q373" s="10" t="s">
         <v>1361</v>
       </c>
-      <c r="V373" s="45" t="s">
+      <c r="V373" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="W373" s="45">
+      <c r="W373" s="5">
         <v>9999999</v>
       </c>
-      <c r="X373" s="45">
+      <c r="X373" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y373" s="45">
+      <c r="Y373" s="5">
         <v>1598889599</v>
       </c>
-      <c r="AG373" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH373" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK373" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL373" s="45">
+      <c r="AG373" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH373" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK373" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL373" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="45">
+        <v>373</v>
+      </c>
+      <c r="B374" s="45">
+        <v>10290</v>
+      </c>
+      <c r="F374" s="45">
+        <v>1</v>
+      </c>
+      <c r="G374" s="45" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H374" s="45" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I374" s="45" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K374" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L374" s="45">
+        <v>0</v>
+      </c>
+      <c r="M374" s="45">
+        <v>0</v>
+      </c>
+      <c r="N374" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="O374" s="45">
+        <v>300</v>
+      </c>
+      <c r="P374" s="45" t="s">
+        <v>1368</v>
+      </c>
+      <c r="Q374" s="50" t="s">
+        <v>1370</v>
+      </c>
+      <c r="V374" s="45" t="s">
+        <v>1371</v>
+      </c>
+      <c r="W374" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X374" s="45">
+        <v>1598916600</v>
+      </c>
+      <c r="Y374" s="45">
+        <v>1599494399</v>
+      </c>
+      <c r="Z374" s="45">
+        <v>14</v>
+      </c>
+      <c r="AG374" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH374" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK374" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL374" s="45">
         <v>1</v>
       </c>
     </row>
@@ -32285,7 +32397,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32913,7 +33025,7 @@
   <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33102,6 +33214,9 @@
       <c r="C3" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="D3" s="11">
+        <v>85</v>
+      </c>
       <c r="E3" s="11">
         <v>85</v>
       </c>
@@ -33167,6 +33282,9 @@
       <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="D4" s="11">
+        <v>86</v>
+      </c>
       <c r="E4" s="11">
         <v>86</v>
       </c>
@@ -33232,6 +33350,9 @@
       <c r="C5" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="D5" s="11">
+        <v>87</v>
+      </c>
       <c r="E5" s="11">
         <v>87</v>
       </c>
@@ -33297,6 +33418,9 @@
       <c r="C6" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="D6" s="11">
+        <v>88</v>
+      </c>
       <c r="E6" s="11">
         <v>88</v>
       </c>
@@ -33362,6 +33486,9 @@
       <c r="C7" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="D7" s="11">
+        <v>89</v>
+      </c>
       <c r="E7" s="11">
         <v>89</v>
       </c>
@@ -33743,6 +33870,9 @@
       <c r="C13" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="D13" s="11">
+        <v>10044</v>
+      </c>
       <c r="E13" s="11">
         <v>10044</v>
       </c>
@@ -33808,6 +33938,9 @@
       <c r="C14" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="D14" s="11">
+        <v>10045</v>
+      </c>
       <c r="E14" s="11">
         <v>10045</v>
       </c>
@@ -34502,6 +34635,9 @@
       </c>
       <c r="C25" s="11" t="s">
         <v>43</v>
+      </c>
+      <c r="D25" s="11">
+        <v>10189</v>
       </c>
       <c r="E25" s="11">
         <v>10189</v>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="1398">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -3207,10 +3207,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>600000,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1200000,3,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3781,9 +3777,6 @@
   </si>
   <si>
     <t>随机金币活动</t>
-  </si>
-  <si>
-    <t>"60万金币","10万-120万随机金币","话费碎片*20"</t>
   </si>
   <si>
     <t>"120万金币","20万-240万随机金币","记牌器3天"</t>
@@ -6026,19 +6019,131 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>300000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（免费，小额）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_fish_drop_act_0","_common_rank_true_love_026_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi","prop_mfcjq",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"30万鲸币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000,1,</t>
+    <t>1000000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,8,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(V4-V10)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"280万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(V4-V10)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,5,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2580万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "xycd_028_xycd_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "xycd_028_xycd_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","10万-120万随机金币","话费碎片*20"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_xycd_sunshine",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,-80,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6202,7 +6307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6358,6 +6463,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6823,7 +6934,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="F3" sqref="F3:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6864,7 +6975,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6876,7 +6987,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
@@ -6980,7 +7091,7 @@
         <v>45</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>46</v>
@@ -7047,9 +7158,6 @@
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -7063,7 +7171,7 @@
         <v>45</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>46</v>
@@ -7130,9 +7238,6 @@
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -7146,7 +7251,7 @@
         <v>45</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>46</v>
@@ -7213,9 +7318,6 @@
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -7229,7 +7331,7 @@
         <v>45</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>46</v>
@@ -7296,9 +7398,6 @@
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -7312,7 +7411,7 @@
         <v>45</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>46</v>
@@ -7379,9 +7478,6 @@
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -7395,7 +7491,7 @@
         <v>45</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>46</v>
@@ -7462,9 +7558,6 @@
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -7478,7 +7571,7 @@
         <v>45</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>46</v>
@@ -7545,9 +7638,6 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -7561,7 +7651,7 @@
         <v>45</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>46</v>
@@ -7629,9 +7719,6 @@
         <v>43</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -7645,7 +7732,7 @@
         <v>45</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>46</v>
@@ -7715,9 +7802,6 @@
       <c r="E11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -7731,7 +7815,7 @@
         <v>45</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>46</v>
@@ -7811,7 +7895,7 @@
         <v>45</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>46</v>
@@ -7891,7 +7975,7 @@
         <v>45</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>46</v>
@@ -7971,7 +8055,7 @@
         <v>45</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>46</v>
@@ -8051,7 +8135,7 @@
         <v>45</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>46</v>
@@ -8131,7 +8215,7 @@
         <v>45</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>46</v>
@@ -8233,10 +8317,10 @@
         <v>1</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>49</v>
@@ -8305,10 +8389,10 @@
         <v>2</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="X18" s="11" t="s">
         <v>49</v>
@@ -8377,10 +8461,10 @@
         <v>3</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="X19" s="11" t="s">
         <v>49</v>
@@ -8449,10 +8533,10 @@
         <v>4</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="X20" s="11" t="s">
         <v>49</v>
@@ -8521,10 +8605,10 @@
         <v>5</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="X21" s="11" t="s">
         <v>49</v>
@@ -8593,10 +8677,10 @@
         <v>6</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="X22" s="11" t="s">
         <v>49</v>
@@ -8665,10 +8749,10 @@
         <v>7</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="X23" s="11" t="s">
         <v>49</v>
@@ -8703,9 +8787,6 @@
         <v>43</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -8719,7 +8800,7 @@
         <v>45</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>46</v>
@@ -8783,13 +8864,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM374"/>
+  <dimension ref="A1:AM385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H342" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q372" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I361" sqref="I361"/>
+      <selection pane="bottomRight" activeCell="Q391" sqref="Q391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -8854,7 +8935,7 @@
         <v>507</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>95</v>
@@ -9141,7 +9222,7 @@
         <v>120</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="5">
@@ -9184,7 +9265,7 @@
         <v>122</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -9320,7 +9401,7 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K8" s="5">
         <v>-6</v>
@@ -9593,7 +9674,7 @@
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K13" s="5">
         <v>-8</v>
@@ -9704,7 +9785,7 @@
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K15" s="5">
         <v>-8</v>
@@ -9761,7 +9842,7 @@
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K16" s="5">
         <v>-8</v>
@@ -10007,7 +10088,7 @@
         <v>600</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>711</v>
@@ -10042,11 +10123,11 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K21" s="5">
         <v>-11</v>
@@ -10106,7 +10187,7 @@
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K22" s="5">
         <v>-10</v>
@@ -10162,11 +10243,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="K23" s="5">
         <v>-13</v>
@@ -11864,7 +11945,7 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="5" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="K54" s="5">
         <v>-13</v>
@@ -11885,7 +11966,7 @@
         <v>220</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="V54" s="5" t="s">
         <v>552</v>
@@ -11971,11 +12052,11 @@
         <v>1</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="H56" s="37"/>
       <c r="I56" s="22" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K56" s="22">
         <v>-18</v>
@@ -12032,7 +12113,7 @@
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K57" s="5">
         <v>-19</v>
@@ -12520,10 +12601,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="K66" s="5">
         <v>-4</v>
@@ -12866,7 +12947,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K72" s="5">
         <v>-4</v>
@@ -13162,7 +13243,7 @@
         <v>248</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -13180,10 +13261,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="Q77" s="40" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>551</v>
@@ -13218,7 +13299,7 @@
         <v>249</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>886</v>
+        <v>1395</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -13233,13 +13314,13 @@
         <v>113</v>
       </c>
       <c r="O78" s="19">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="P78" s="19" t="s">
         <v>611</v>
       </c>
       <c r="Q78" s="40" t="s">
-        <v>740</v>
+        <v>1374</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>551</v>
@@ -13257,10 +13338,10 @@
         <v>90</v>
       </c>
       <c r="AB78" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AC78" s="40" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AG78" s="19">
         <v>1</v>
@@ -13280,10 +13361,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="K79" s="5">
         <v>-20</v>
@@ -13304,7 +13385,7 @@
         <v>250</v>
       </c>
       <c r="Q79" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="V79" s="5" t="s">
         <v>551</v>
@@ -13322,10 +13403,10 @@
         <v>90</v>
       </c>
       <c r="AB79" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AC79" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AG79" s="5">
         <v>1</v>
@@ -13345,10 +13426,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="K80" s="5">
         <v>-20</v>
@@ -13369,7 +13450,7 @@
         <v>250</v>
       </c>
       <c r="Q80" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="V80" s="5" t="s">
         <v>551</v>
@@ -13390,10 +13471,10 @@
         <v>612</v>
       </c>
       <c r="AB80" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AC80" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AG80" s="5">
         <v>1</v>
@@ -13416,7 +13497,7 @@
         <v>252</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="K81" s="19">
         <v>-20</v>
@@ -13437,7 +13518,7 @@
         <v>506</v>
       </c>
       <c r="Q81" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="V81" s="19" t="s">
         <v>551</v>
@@ -13455,7 +13536,7 @@
         <v>612</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AG81" s="19">
         <v>1</v>
@@ -13478,7 +13559,7 @@
         <v>253</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="K82" s="5">
         <v>-20</v>
@@ -13499,7 +13580,7 @@
         <v>254</v>
       </c>
       <c r="Q82" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="V82" s="5" t="s">
         <v>551</v>
@@ -13534,7 +13615,7 @@
         <v>255</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="K83" s="5">
         <v>-21</v>
@@ -13552,10 +13633,10 @@
         <v>4800</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="Q83" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="V83" s="5" t="s">
         <v>552</v>
@@ -13590,7 +13671,7 @@
         <v>256</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="K84" s="5">
         <v>-22</v>
@@ -13608,10 +13689,10 @@
         <v>4800</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="Q84" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="V84" s="5" t="s">
         <v>552</v>
@@ -13643,10 +13724,10 @@
         <v>0</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K85" s="5">
         <v>-23</v>
@@ -13664,10 +13745,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="Q85" s="10" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>553</v>
@@ -13699,10 +13780,10 @@
         <v>0</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K86" s="5">
         <v>-24</v>
@@ -13750,10 +13831,10 @@
         <v>0</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K87" s="5">
         <v>-25</v>
@@ -13771,10 +13852,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="Q87" s="10" t="s">
         <v>1207</v>
-      </c>
-      <c r="Q87" s="10" t="s">
-        <v>1209</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>553</v>
@@ -13809,7 +13890,7 @@
         <v>257</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="K88" s="5">
         <v>-22</v>
@@ -13830,7 +13911,7 @@
         <v>258</v>
       </c>
       <c r="Q88" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="V88" s="5" t="s">
         <v>552</v>
@@ -13865,7 +13946,7 @@
         <v>259</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="K89" s="5">
         <v>-22</v>
@@ -13886,7 +13967,7 @@
         <v>129</v>
       </c>
       <c r="Q89" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="V89" s="5" t="s">
         <v>552</v>
@@ -13921,7 +14002,7 @@
         <v>261</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="K90" s="5">
         <v>-22</v>
@@ -13942,7 +14023,7 @@
         <v>222</v>
       </c>
       <c r="Q90" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="V90" s="5" t="s">
         <v>552</v>
@@ -13977,7 +14058,7 @@
         <v>262</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="K91" s="5">
         <v>-22</v>
@@ -14033,7 +14114,7 @@
         <v>263</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="K92" s="5">
         <v>-22</v>
@@ -14051,10 +14132,10 @@
         <v>4800</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="Q92" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V92" s="5" t="s">
         <v>552</v>
@@ -14089,7 +14170,7 @@
         <v>264</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="K93" s="5">
         <v>-22</v>
@@ -14110,7 +14191,7 @@
         <v>265</v>
       </c>
       <c r="Q93" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="V93" s="5" t="s">
         <v>552</v>
@@ -14163,7 +14244,7 @@
         <v>90</v>
       </c>
       <c r="Q94" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="V94" s="5" t="s">
         <v>551</v>
@@ -14198,7 +14279,7 @@
         <v>267</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K95" s="5">
         <v>-23</v>
@@ -14219,7 +14300,7 @@
         <v>218</v>
       </c>
       <c r="Q95" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="R95" s="7"/>
       <c r="T95" s="7"/>
@@ -14257,7 +14338,7 @@
         <v>268</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K96" s="5">
         <v>-23</v>
@@ -14313,7 +14394,7 @@
         <v>269</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K97" s="5">
         <v>-24</v>
@@ -14331,13 +14412,13 @@
         <v>4800</v>
       </c>
       <c r="P97" s="5" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="Q97" s="10" t="s">
         <v>270</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="T97" s="5" t="s">
         <v>271</v>
@@ -14375,7 +14456,7 @@
         <v>272</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="K98" s="5">
         <v>-24</v>
@@ -14393,13 +14474,13 @@
         <v>9800</v>
       </c>
       <c r="P98" s="5" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="Q98" s="10" t="s">
         <v>273</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="T98" s="5" t="s">
         <v>274</v>
@@ -14437,7 +14518,7 @@
         <v>275</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="K99" s="5">
         <v>-24</v>
@@ -14455,13 +14536,13 @@
         <v>19800</v>
       </c>
       <c r="P99" s="5" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="Q99" s="10" t="s">
         <v>276</v>
       </c>
       <c r="S99" s="5" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="T99" s="5" t="s">
         <v>277</v>
@@ -14499,7 +14580,7 @@
         <v>591</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="K100" s="19">
         <v>-25</v>
@@ -14520,7 +14601,7 @@
         <v>592</v>
       </c>
       <c r="Q100" s="40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V100" s="19" t="s">
         <v>552</v>
@@ -14562,7 +14643,7 @@
         <v>542</v>
       </c>
       <c r="I101" s="19" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="K101" s="19">
         <v>-25</v>
@@ -14583,7 +14664,7 @@
         <v>593</v>
       </c>
       <c r="Q101" s="40" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V101" s="19" t="s">
         <v>552</v>
@@ -14625,7 +14706,7 @@
         <v>279</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K102" s="19">
         <v>-25</v>
@@ -14646,7 +14727,7 @@
         <v>593</v>
       </c>
       <c r="Q102" s="40" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V102" s="19" t="s">
         <v>552</v>
@@ -14688,7 +14769,7 @@
         <v>591</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="K103" s="19">
         <v>-25</v>
@@ -14709,7 +14790,7 @@
         <v>593</v>
       </c>
       <c r="Q103" s="40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V103" s="19" t="s">
         <v>552</v>
@@ -14751,7 +14832,7 @@
         <v>543</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="K104" s="19">
         <v>-25</v>
@@ -14772,7 +14853,7 @@
         <v>593</v>
       </c>
       <c r="Q104" s="40" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="V104" s="19" t="s">
         <v>552</v>
@@ -14814,7 +14895,7 @@
         <v>78</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="K105" s="19">
         <v>-25</v>
@@ -14835,7 +14916,7 @@
         <v>592</v>
       </c>
       <c r="Q105" s="40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="V105" s="19" t="s">
         <v>552</v>
@@ -14877,7 +14958,7 @@
         <v>590</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="K106" s="19">
         <v>-25</v>
@@ -14898,7 +14979,7 @@
         <v>593</v>
       </c>
       <c r="Q106" s="40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V106" s="19" t="s">
         <v>552</v>
@@ -14940,7 +15021,7 @@
         <v>279</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K107" s="19">
         <v>-25</v>
@@ -14961,7 +15042,7 @@
         <v>592</v>
       </c>
       <c r="Q107" s="40" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V107" s="19" t="s">
         <v>552</v>
@@ -15003,7 +15084,7 @@
         <v>82</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="K108" s="19">
         <v>-25</v>
@@ -15024,7 +15105,7 @@
         <v>593</v>
       </c>
       <c r="Q108" s="40" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="V108" s="19" t="s">
         <v>552</v>
@@ -15123,7 +15204,7 @@
         <v>285</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="K110" s="5">
         <v>-26</v>
@@ -15141,13 +15222,13 @@
         <v>3800</v>
       </c>
       <c r="P110" s="5" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="Q110" s="10" t="s">
         <v>286</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="T110" s="5" t="s">
         <v>287</v>
@@ -15185,7 +15266,7 @@
         <v>288</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="K111" s="5">
         <v>-26</v>
@@ -15203,13 +15284,13 @@
         <v>8800</v>
       </c>
       <c r="P111" s="5" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="Q111" s="10" t="s">
         <v>289</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="T111" s="5" t="s">
         <v>290</v>
@@ -15247,7 +15328,7 @@
         <v>291</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="K112" s="5">
         <v>-26</v>
@@ -15265,13 +15346,13 @@
         <v>18800</v>
       </c>
       <c r="P112" s="5" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="Q112" s="10" t="s">
         <v>292</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="T112" s="5" t="s">
         <v>293</v>
@@ -15309,7 +15390,7 @@
         <v>294</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="K113" s="5">
         <v>-26</v>
@@ -15365,7 +15446,7 @@
         <v>297</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="K114" s="5">
         <v>-26</v>
@@ -15421,7 +15502,7 @@
         <v>299</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="K115" s="5">
         <v>-26</v>
@@ -15439,7 +15520,7 @@
         <v>9800</v>
       </c>
       <c r="P115" s="5" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="Q115" s="10" t="s">
         <v>300</v>
@@ -15477,7 +15558,7 @@
         <v>301</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="K116" s="5">
         <v>-27</v>
@@ -15495,13 +15576,13 @@
         <v>4800</v>
       </c>
       <c r="P116" s="5" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="Q116" s="10" t="s">
         <v>302</v>
       </c>
       <c r="S116" s="5" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="T116" s="5" t="s">
         <v>303</v>
@@ -15539,7 +15620,7 @@
         <v>304</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="K117" s="5">
         <v>-27</v>
@@ -15557,13 +15638,13 @@
         <v>9800</v>
       </c>
       <c r="P117" s="5" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="Q117" s="10" t="s">
         <v>273</v>
       </c>
       <c r="S117" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="T117" s="5" t="s">
         <v>274</v>
@@ -15601,7 +15682,7 @@
         <v>305</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="K118" s="5">
         <v>-28</v>
@@ -15657,7 +15738,7 @@
         <v>307</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="K119" s="5">
         <v>-28</v>
@@ -15713,7 +15794,7 @@
         <v>310</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K120" s="5">
         <v>-28</v>
@@ -15769,7 +15850,7 @@
         <v>313</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="K121" s="5">
         <v>-28</v>
@@ -15828,7 +15909,7 @@
         <v>317</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="K122" s="5">
         <v>-28</v>
@@ -15887,7 +15968,7 @@
         <v>320</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="K123" s="5">
         <v>-28</v>
@@ -15946,7 +16027,7 @@
         <v>297</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="K124" s="5">
         <v>-28</v>
@@ -16002,7 +16083,7 @@
         <v>323</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="K125" s="5">
         <v>-28</v>
@@ -16058,7 +16139,7 @@
         <v>325</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="K126" s="5">
         <v>-28</v>
@@ -16114,7 +16195,7 @@
         <v>327</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="K127" s="5">
         <v>-29</v>
@@ -16197,7 +16278,7 @@
         <v>90</v>
       </c>
       <c r="Q128" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="V128" s="5" t="s">
         <v>551</v>
@@ -16253,7 +16334,7 @@
         <v>90</v>
       </c>
       <c r="Q129" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="V129" s="5" t="s">
         <v>551</v>
@@ -16288,7 +16369,7 @@
         <v>333</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="K130" s="5">
         <v>-28</v>
@@ -16350,7 +16431,7 @@
         <v>251</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="K131" s="5">
         <v>-28</v>
@@ -16412,7 +16493,7 @@
         <v>337</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="K132" s="5">
         <v>-28</v>
@@ -16474,7 +16555,7 @@
         <v>339</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="K133" s="5">
         <v>-28</v>
@@ -16495,7 +16576,7 @@
         <v>295</v>
       </c>
       <c r="Q133" s="10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="V133" s="5" t="s">
         <v>554</v>
@@ -16536,7 +16617,7 @@
         <v>340</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K134" s="5">
         <v>-28</v>
@@ -16557,7 +16638,7 @@
         <v>308</v>
       </c>
       <c r="Q134" s="10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="V134" s="5" t="s">
         <v>554</v>
@@ -16598,7 +16679,7 @@
         <v>342</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="K135" s="5">
         <v>-28</v>
@@ -16619,7 +16700,7 @@
         <v>311</v>
       </c>
       <c r="Q135" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="V135" s="5" t="s">
         <v>554</v>
@@ -16661,7 +16742,7 @@
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K136" s="5">
         <v>-28</v>
@@ -16682,7 +16763,7 @@
         <v>160</v>
       </c>
       <c r="Q136" s="10" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="V136" s="5" t="s">
         <v>554</v>
@@ -16721,7 +16802,7 @@
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K137" s="5">
         <v>-28</v>
@@ -16742,7 +16823,7 @@
         <v>160</v>
       </c>
       <c r="Q137" s="10" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="V137" s="5" t="s">
         <v>554</v>
@@ -16781,7 +16862,7 @@
       </c>
       <c r="H138" s="8"/>
       <c r="I138" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K138" s="5">
         <v>-28</v>
@@ -16802,7 +16883,7 @@
         <v>160</v>
       </c>
       <c r="Q138" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="V138" s="5" t="s">
         <v>554</v>
@@ -16841,7 +16922,7 @@
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K139" s="5">
         <v>-28</v>
@@ -16862,7 +16943,7 @@
         <v>160</v>
       </c>
       <c r="Q139" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="V139" s="5" t="s">
         <v>554</v>
@@ -16901,7 +16982,7 @@
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K140" s="5">
         <v>-28</v>
@@ -16922,7 +17003,7 @@
         <v>160</v>
       </c>
       <c r="Q140" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="V140" s="5" t="s">
         <v>554</v>
@@ -16961,7 +17042,7 @@
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K141" s="5">
         <v>-28</v>
@@ -16982,7 +17063,7 @@
         <v>160</v>
       </c>
       <c r="Q141" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="V141" s="5" t="s">
         <v>554</v>
@@ -17020,7 +17101,7 @@
         <v>343</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="K142" s="5">
         <v>-28</v>
@@ -17082,7 +17163,7 @@
         <v>344</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="K143" s="5">
         <v>-28</v>
@@ -17144,7 +17225,7 @@
         <v>345</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="K144" s="5">
         <v>-28</v>
@@ -17210,7 +17291,7 @@
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="K145" s="5">
         <v>-28</v>
@@ -17231,13 +17312,13 @@
         <v>348</v>
       </c>
       <c r="Q145" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="S145" s="5" t="s">
         <v>90</v>
       </c>
       <c r="T145" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="V145" s="5" t="s">
         <v>552</v>
@@ -17276,7 +17357,7 @@
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K146" s="5">
         <v>-28</v>
@@ -17297,13 +17378,13 @@
         <v>278</v>
       </c>
       <c r="Q146" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="S146" s="5" t="s">
         <v>160</v>
       </c>
       <c r="T146" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="V146" s="5" t="s">
         <v>552</v>
@@ -17342,7 +17423,7 @@
       </c>
       <c r="H147" s="22"/>
       <c r="I147" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="K147" s="5">
         <v>-28</v>
@@ -17363,13 +17444,13 @@
         <v>278</v>
       </c>
       <c r="Q147" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="S147" s="5" t="s">
         <v>160</v>
       </c>
       <c r="T147" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="V147" s="5" t="s">
         <v>552</v>
@@ -17408,7 +17489,7 @@
       </c>
       <c r="H148" s="22"/>
       <c r="I148" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="K148" s="5">
         <v>-28</v>
@@ -17429,13 +17510,13 @@
         <v>278</v>
       </c>
       <c r="Q148" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="S148" s="5" t="s">
         <v>160</v>
       </c>
       <c r="T148" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="V148" s="5" t="s">
         <v>552</v>
@@ -17474,7 +17555,7 @@
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="K149" s="5">
         <v>-28</v>
@@ -17495,13 +17576,13 @@
         <v>278</v>
       </c>
       <c r="Q149" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="S149" s="5" t="s">
         <v>160</v>
       </c>
       <c r="T149" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="V149" s="5" t="s">
         <v>552</v>
@@ -17536,7 +17617,7 @@
         <v>353</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="K150" s="5">
         <v>-28</v>
@@ -17598,7 +17679,7 @@
         <v>354</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="K151" s="5">
         <v>-28</v>
@@ -17660,7 +17741,7 @@
         <v>355</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="K152" s="5">
         <v>-28</v>
@@ -17719,10 +17800,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="K153" s="5">
         <v>-28</v>
@@ -17743,13 +17824,13 @@
         <v>348</v>
       </c>
       <c r="Q153" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="S153" s="5" t="s">
         <v>90</v>
       </c>
       <c r="T153" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="V153" s="5" t="s">
         <v>554</v>
@@ -17784,7 +17865,7 @@
         <v>356</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="K154" s="5">
         <v>-28</v>
@@ -17805,13 +17886,13 @@
         <v>348</v>
       </c>
       <c r="Q154" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="S154" s="5" t="s">
         <v>90</v>
       </c>
       <c r="T154" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="V154" s="5" t="s">
         <v>554</v>
@@ -17846,7 +17927,7 @@
         <v>357</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="K155" s="5">
         <v>-28</v>
@@ -17867,13 +17948,13 @@
         <v>348</v>
       </c>
       <c r="Q155" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="S155" s="5" t="s">
         <v>90</v>
       </c>
       <c r="T155" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="V155" s="5" t="s">
         <v>554</v>
@@ -17908,7 +17989,7 @@
         <v>358</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="K156" s="5">
         <v>-28</v>
@@ -17929,13 +18010,13 @@
         <v>348</v>
       </c>
       <c r="Q156" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="S156" s="5" t="s">
         <v>90</v>
       </c>
       <c r="T156" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="V156" s="5" t="s">
         <v>554</v>
@@ -17970,7 +18051,7 @@
         <v>359</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K157" s="5">
         <v>-28</v>
@@ -17991,13 +18072,13 @@
         <v>348</v>
       </c>
       <c r="Q157" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="S157" s="5" t="s">
         <v>90</v>
       </c>
       <c r="T157" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="V157" s="5" t="s">
         <v>554</v>
@@ -18032,7 +18113,7 @@
         <v>360</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="K158" s="5">
         <v>-28</v>
@@ -18094,7 +18175,7 @@
         <v>362</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="K159" s="5">
         <v>-28</v>
@@ -18156,7 +18237,7 @@
         <v>364</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="K160" s="5">
         <v>-28</v>
@@ -18218,7 +18299,7 @@
         <v>366</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="K161" s="5">
         <v>-28</v>
@@ -18280,7 +18361,7 @@
         <v>367</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="K162" s="5">
         <v>-28</v>
@@ -18342,7 +18423,7 @@
         <v>368</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="K163" s="5">
         <v>-28</v>
@@ -18401,10 +18482,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="J164" s="5">
         <v>21032</v>
@@ -18428,7 +18509,7 @@
         <v>220</v>
       </c>
       <c r="Q164" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="V164" s="5" t="s">
         <v>551</v>
@@ -18469,7 +18550,7 @@
         <v>369</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="K165" s="5">
         <v>-28</v>
@@ -18531,7 +18612,7 @@
         <v>370</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="K166" s="5">
         <v>-28</v>
@@ -18593,7 +18674,7 @@
         <v>371</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="K167" s="5">
         <v>-28</v>
@@ -18655,7 +18736,7 @@
         <v>372</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -18673,10 +18754,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="Q168" s="40" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>551</v>
@@ -18720,7 +18801,7 @@
         <v>483</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -18738,10 +18819,10 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
+        <v>1175</v>
+      </c>
+      <c r="Q169" s="40" t="s">
         <v>1177</v>
-      </c>
-      <c r="Q169" s="40" t="s">
-        <v>1179</v>
       </c>
       <c r="V169" s="19" t="s">
         <v>631</v>
@@ -18782,7 +18863,7 @@
         <v>373</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -18800,10 +18881,10 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="Q170" s="40" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="V170" s="19" t="s">
         <v>631</v>
@@ -18841,13 +18922,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I171" s="19" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K171" s="19">
         <v>-28</v>
@@ -18865,10 +18946,10 @@
         <v>100</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q171" s="40" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="V171" s="19" t="s">
         <v>598</v>
@@ -18909,13 +18990,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="I172" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="K172" s="19">
         <v>-28</v>
@@ -18933,10 +19014,10 @@
         <v>300</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="Q172" s="40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="V172" s="19" t="s">
         <v>554</v>
@@ -18977,13 +19058,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="I173" s="19" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="K173" s="19">
         <v>-28</v>
@@ -19001,10 +19082,10 @@
         <v>600</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q173" s="40" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="V173" s="19" t="s">
         <v>554</v>
@@ -19045,13 +19126,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="I174" s="19" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="K174" s="19">
         <v>-28</v>
@@ -19069,10 +19150,10 @@
         <v>600</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="Q174" s="40" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="V174" s="19" t="s">
         <v>554</v>
@@ -19113,13 +19194,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="I175" s="19" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="K175" s="19">
         <v>-28</v>
@@ -19137,10 +19218,10 @@
         <v>1000</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="Q175" s="40" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="V175" s="19" t="s">
         <v>554</v>
@@ -19181,13 +19262,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="I176" s="19" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="K176" s="19">
         <v>-28</v>
@@ -19205,10 +19286,10 @@
         <v>1800</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="Q176" s="40" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="V176" s="19" t="s">
         <v>554</v>
@@ -19249,13 +19330,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="I177" s="19" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="K177" s="19">
         <v>-28</v>
@@ -19273,10 +19354,10 @@
         <v>1800</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="Q177" s="40" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="V177" s="19" t="s">
         <v>554</v>
@@ -19317,13 +19398,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="I178" s="19" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="K178" s="19">
         <v>-28</v>
@@ -19341,10 +19422,10 @@
         <v>4800</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="Q178" s="40" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V178" s="19" t="s">
         <v>554</v>
@@ -19385,13 +19466,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="I179" s="19" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="K179" s="19">
         <v>-28</v>
@@ -19409,10 +19490,10 @@
         <v>9800</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="Q179" s="40" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="V179" s="19" t="s">
         <v>554</v>
@@ -19453,13 +19534,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="I180" s="19" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="K180" s="19">
         <v>-28</v>
@@ -19477,10 +19558,10 @@
         <v>4800</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="Q180" s="40" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V180" s="19" t="s">
         <v>554</v>
@@ -19521,13 +19602,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="I181" s="19" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K181" s="19">
         <v>-28</v>
@@ -19545,10 +19626,10 @@
         <v>9800</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Q181" s="40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="V181" s="19" t="s">
         <v>554</v>
@@ -19589,13 +19670,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I182" s="19" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="K182" s="19">
         <v>-28</v>
@@ -19613,10 +19694,10 @@
         <v>19800</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="Q182" s="40" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="V182" s="19" t="s">
         <v>554</v>
@@ -19657,13 +19738,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="I183" s="19" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="K183" s="19">
         <v>-28</v>
@@ -19681,10 +19762,10 @@
         <v>9800</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="Q183" s="40" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="V183" s="19" t="s">
         <v>554</v>
@@ -19725,13 +19806,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I184" s="19" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="K184" s="19">
         <v>-28</v>
@@ -19749,10 +19830,10 @@
         <v>19800</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="Q184" s="40" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="V184" s="19" t="s">
         <v>554</v>
@@ -19793,13 +19874,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I185" s="19" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="K185" s="19">
         <v>-28</v>
@@ -19817,10 +19898,10 @@
         <v>49800</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="Q185" s="40" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="V185" s="19" t="s">
         <v>554</v>
@@ -19864,7 +19945,7 @@
         <v>327</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="K186" s="5">
         <v>-29</v>
@@ -19885,13 +19966,13 @@
         <v>464</v>
       </c>
       <c r="Q186" s="10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="S186" s="5" t="s">
         <v>330</v>
       </c>
       <c r="T186" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="V186" s="5" t="s">
         <v>551</v>
@@ -19926,7 +20007,7 @@
         <v>374</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="K187" s="5">
         <v>-28</v>
@@ -19991,7 +20072,7 @@
         <v>376</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="K188" s="5">
         <v>-28</v>
@@ -20056,7 +20137,7 @@
         <v>378</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="K189" s="5">
         <v>-28</v>
@@ -20121,7 +20202,7 @@
         <v>380</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="K190" s="5">
         <v>-28</v>
@@ -20186,7 +20267,7 @@
         <v>382</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="K191" s="5">
         <v>-28</v>
@@ -20251,7 +20332,7 @@
         <v>384</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="K192" s="5">
         <v>-28</v>
@@ -20316,7 +20397,7 @@
         <v>386</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K193" s="5">
         <v>-28</v>
@@ -20381,7 +20462,7 @@
         <v>388</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="K194" s="5">
         <v>-28</v>
@@ -20446,7 +20527,7 @@
         <v>390</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="K195" s="5">
         <v>-28</v>
@@ -20511,7 +20592,7 @@
         <v>392</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="K196" s="5">
         <v>-28</v>
@@ -20576,7 +20657,7 @@
         <v>394</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="K197" s="5">
         <v>-28</v>
@@ -20641,7 +20722,7 @@
         <v>396</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="K198" s="5">
         <v>-28</v>
@@ -20706,7 +20787,7 @@
         <v>398</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="K199" s="5">
         <v>-28</v>
@@ -20771,7 +20852,7 @@
         <v>399</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="K200" s="5">
         <v>-28</v>
@@ -20836,7 +20917,7 @@
         <v>400</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="K201" s="5">
         <v>-28</v>
@@ -20901,7 +20982,7 @@
         <v>374</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="K202" s="5">
         <v>-28</v>
@@ -20966,7 +21047,7 @@
         <v>376</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="K203" s="5">
         <v>-28</v>
@@ -21031,7 +21112,7 @@
         <v>378</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="K204" s="5">
         <v>-28</v>
@@ -21096,7 +21177,7 @@
         <v>380</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="K205" s="5">
         <v>-28</v>
@@ -21161,7 +21242,7 @@
         <v>382</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="K206" s="5">
         <v>-28</v>
@@ -21226,7 +21307,7 @@
         <v>384</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="K207" s="5">
         <v>-28</v>
@@ -21291,7 +21372,7 @@
         <v>386</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K208" s="5">
         <v>-28</v>
@@ -21356,7 +21437,7 @@
         <v>388</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="K209" s="5">
         <v>-28</v>
@@ -21421,7 +21502,7 @@
         <v>390</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="K210" s="5">
         <v>-28</v>
@@ -21486,7 +21567,7 @@
         <v>392</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="K211" s="5">
         <v>-28</v>
@@ -21551,7 +21632,7 @@
         <v>394</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="K212" s="5">
         <v>-28</v>
@@ -21616,7 +21697,7 @@
         <v>396</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="K213" s="5">
         <v>-28</v>
@@ -21681,7 +21762,7 @@
         <v>398</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="K214" s="5">
         <v>-28</v>
@@ -21746,7 +21827,7 @@
         <v>399</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="K215" s="5">
         <v>-28</v>
@@ -21811,7 +21892,7 @@
         <v>400</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="K216" s="5">
         <v>-28</v>
@@ -21876,7 +21957,7 @@
         <v>374</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="K217" s="5">
         <v>-28</v>
@@ -21941,7 +22022,7 @@
         <v>376</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="K218" s="5">
         <v>-28</v>
@@ -22006,7 +22087,7 @@
         <v>378</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="K219" s="5">
         <v>-28</v>
@@ -22071,7 +22152,7 @@
         <v>380</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="K220" s="5">
         <v>-28</v>
@@ -22136,7 +22217,7 @@
         <v>382</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="K221" s="5">
         <v>-28</v>
@@ -22201,7 +22282,7 @@
         <v>384</v>
       </c>
       <c r="I222" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="K222" s="5">
         <v>-28</v>
@@ -22266,7 +22347,7 @@
         <v>386</v>
       </c>
       <c r="I223" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K223" s="5">
         <v>-28</v>
@@ -22331,7 +22412,7 @@
         <v>388</v>
       </c>
       <c r="I224" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="K224" s="5">
         <v>-28</v>
@@ -22396,7 +22477,7 @@
         <v>390</v>
       </c>
       <c r="I225" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="K225" s="5">
         <v>-28</v>
@@ -22461,7 +22542,7 @@
         <v>392</v>
       </c>
       <c r="I226" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="K226" s="5">
         <v>-28</v>
@@ -22526,7 +22607,7 @@
         <v>394</v>
       </c>
       <c r="I227" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="K227" s="5">
         <v>-28</v>
@@ -22591,7 +22672,7 @@
         <v>396</v>
       </c>
       <c r="I228" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="K228" s="5">
         <v>-28</v>
@@ -22656,7 +22737,7 @@
         <v>398</v>
       </c>
       <c r="I229" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="K229" s="5">
         <v>-28</v>
@@ -22721,7 +22802,7 @@
         <v>399</v>
       </c>
       <c r="I230" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="K230" s="5">
         <v>-28</v>
@@ -22786,7 +22867,7 @@
         <v>400</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="K231" s="5">
         <v>-28</v>
@@ -22851,7 +22932,7 @@
         <v>374</v>
       </c>
       <c r="I232" s="5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="K232" s="5">
         <v>-28</v>
@@ -22916,7 +22997,7 @@
         <v>376</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="K233" s="5">
         <v>-28</v>
@@ -22981,7 +23062,7 @@
         <v>378</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="K234" s="5">
         <v>-28</v>
@@ -23046,7 +23127,7 @@
         <v>380</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="K235" s="5">
         <v>-28</v>
@@ -23111,7 +23192,7 @@
         <v>382</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="K236" s="5">
         <v>-28</v>
@@ -23176,7 +23257,7 @@
         <v>384</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="K237" s="5">
         <v>-28</v>
@@ -23241,7 +23322,7 @@
         <v>386</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K238" s="5">
         <v>-28</v>
@@ -23306,7 +23387,7 @@
         <v>388</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="K239" s="5">
         <v>-28</v>
@@ -23371,7 +23452,7 @@
         <v>390</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="K240" s="5">
         <v>-28</v>
@@ -23436,7 +23517,7 @@
         <v>392</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="K241" s="5">
         <v>-28</v>
@@ -23501,7 +23582,7 @@
         <v>394</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="K242" s="5">
         <v>-28</v>
@@ -23566,7 +23647,7 @@
         <v>396</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="K243" s="5">
         <v>-28</v>
@@ -23631,7 +23712,7 @@
         <v>398</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="K244" s="5">
         <v>-28</v>
@@ -23696,7 +23777,7 @@
         <v>399</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="K245" s="5">
         <v>-28</v>
@@ -23761,7 +23842,7 @@
         <v>400</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="K246" s="5">
         <v>-28</v>
@@ -23823,11 +23904,11 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H247" s="8"/>
       <c r="I247" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K247" s="5">
         <v>-28</v>
@@ -23848,7 +23929,7 @@
         <v>160</v>
       </c>
       <c r="Q247" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="V247" s="5" t="s">
         <v>554</v>
@@ -23893,7 +23974,7 @@
       </c>
       <c r="H248" s="8"/>
       <c r="I248" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="K248" s="5">
         <v>-28</v>
@@ -23914,7 +23995,7 @@
         <v>160</v>
       </c>
       <c r="Q248" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="V248" s="5" t="s">
         <v>554</v>
@@ -23959,7 +24040,7 @@
       </c>
       <c r="H249" s="8"/>
       <c r="I249" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="K249" s="5">
         <v>-28</v>
@@ -23980,7 +24061,7 @@
         <v>160</v>
       </c>
       <c r="Q249" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="V249" s="5" t="s">
         <v>554</v>
@@ -24025,7 +24106,7 @@
       </c>
       <c r="H250" s="43"/>
       <c r="I250" s="19" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K250" s="19">
         <v>-28</v>
@@ -24046,7 +24127,7 @@
         <v>461</v>
       </c>
       <c r="Q250" s="40" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="V250" s="19" t="s">
         <v>551</v>
@@ -24087,7 +24168,7 @@
         <v>327</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="K251" s="5">
         <v>-29</v>
@@ -24105,16 +24186,16 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Q251" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="S251" s="5" t="s">
         <v>330</v>
       </c>
       <c r="T251" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="V251" s="5" t="s">
         <v>551</v>
@@ -24155,7 +24236,7 @@
         <v>485</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="K252" s="5">
         <v>-30</v>
@@ -24176,7 +24257,7 @@
         <v>461</v>
       </c>
       <c r="Q252" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="V252" s="5" t="s">
         <v>631</v>
@@ -24217,7 +24298,7 @@
         <v>486</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="K253" s="5">
         <v>-30</v>
@@ -24238,7 +24319,7 @@
         <v>504</v>
       </c>
       <c r="Q253" s="10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="V253" s="5" t="s">
         <v>554</v>
@@ -24279,7 +24360,7 @@
         <v>501</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="K254" s="5">
         <v>-31</v>
@@ -24300,7 +24381,7 @@
         <v>503</v>
       </c>
       <c r="Q254" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="V254" s="5" t="s">
         <v>554</v>
@@ -24344,7 +24425,7 @@
         <v>497</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="K255" s="5">
         <v>-31</v>
@@ -24365,7 +24446,7 @@
         <v>484</v>
       </c>
       <c r="Q255" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="V255" s="5" t="s">
         <v>554</v>
@@ -24409,7 +24490,7 @@
         <v>498</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="K256" s="5">
         <v>-31</v>
@@ -24430,7 +24511,7 @@
         <v>515</v>
       </c>
       <c r="Q256" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="V256" s="5" t="s">
         <v>554</v>
@@ -24474,7 +24555,7 @@
         <v>505</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="K257" s="5">
         <v>-31</v>
@@ -24495,13 +24576,13 @@
         <v>610</v>
       </c>
       <c r="Q257" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="S257" s="5" t="s">
         <v>506</v>
       </c>
       <c r="T257" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="V257" s="5" t="s">
         <v>551</v>
@@ -24542,7 +24623,7 @@
         <v>537</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="K258" s="5">
         <v>-31</v>
@@ -24607,7 +24688,7 @@
         <v>376</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="K259" s="5">
         <v>-31</v>
@@ -24672,7 +24753,7 @@
         <v>378</v>
       </c>
       <c r="I260" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="K260" s="5">
         <v>-31</v>
@@ -24737,7 +24818,7 @@
         <v>380</v>
       </c>
       <c r="I261" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="K261" s="5">
         <v>-31</v>
@@ -24802,7 +24883,7 @@
         <v>382</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="K262" s="5">
         <v>-31</v>
@@ -24867,7 +24948,7 @@
         <v>384</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="K263" s="5">
         <v>-31</v>
@@ -24932,7 +25013,7 @@
         <v>508</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="K264" s="5">
         <v>-31</v>
@@ -24997,7 +25078,7 @@
         <v>509</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="K265" s="5">
         <v>-31</v>
@@ -25062,7 +25143,7 @@
         <v>510</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="K266" s="5">
         <v>-31</v>
@@ -25127,7 +25208,7 @@
         <v>511</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="K267" s="5">
         <v>-31</v>
@@ -25192,7 +25273,7 @@
         <v>512</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="K268" s="5">
         <v>-31</v>
@@ -25257,7 +25338,7 @@
         <v>513</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="K269" s="5">
         <v>-31</v>
@@ -25322,7 +25403,7 @@
         <v>398</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="K270" s="5">
         <v>-31</v>
@@ -25387,7 +25468,7 @@
         <v>399</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="K271" s="5">
         <v>-31</v>
@@ -25452,7 +25533,7 @@
         <v>400</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="K272" s="5">
         <v>-31</v>
@@ -25538,7 +25619,7 @@
         <v>90</v>
       </c>
       <c r="Q273" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="V273" s="5" t="s">
         <v>551</v>
@@ -25576,7 +25657,7 @@
       </c>
       <c r="H274" s="5"/>
       <c r="I274" s="5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="J274" s="5"/>
       <c r="K274" s="5">
@@ -25598,7 +25679,7 @@
         <v>550</v>
       </c>
       <c r="Q274" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="R274" s="5"/>
       <c r="S274" s="5"/>
@@ -25649,7 +25730,7 @@
         <v>555</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="K275" s="5">
         <v>-31</v>
@@ -25670,7 +25751,7 @@
         <v>589</v>
       </c>
       <c r="Q275" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="V275" s="5" t="s">
         <v>551</v>
@@ -25714,7 +25795,7 @@
         <v>556</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="K276" s="5">
         <v>-31</v>
@@ -25735,7 +25816,7 @@
         <v>568</v>
       </c>
       <c r="Q276" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="V276" s="5" t="s">
         <v>554</v>
@@ -25779,7 +25860,7 @@
         <v>557</v>
       </c>
       <c r="I277" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="K277" s="5">
         <v>-31</v>
@@ -25800,7 +25881,7 @@
         <v>568</v>
       </c>
       <c r="Q277" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="V277" s="5" t="s">
         <v>565</v>
@@ -25844,7 +25925,7 @@
         <v>558</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="K278" s="5">
         <v>-31</v>
@@ -25865,7 +25946,7 @@
         <v>568</v>
       </c>
       <c r="Q278" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="V278" s="5" t="s">
         <v>566</v>
@@ -25909,7 +25990,7 @@
         <v>559</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="K279" s="5">
         <v>-31</v>
@@ -25930,7 +26011,7 @@
         <v>568</v>
       </c>
       <c r="Q279" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V279" s="5" t="s">
         <v>567</v>
@@ -25974,7 +26055,7 @@
         <v>560</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="K280" s="5">
         <v>-31</v>
@@ -25995,7 +26076,7 @@
         <v>568</v>
       </c>
       <c r="Q280" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="V280" s="5" t="s">
         <v>551</v>
@@ -26039,7 +26120,7 @@
         <v>561</v>
       </c>
       <c r="I281" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="K281" s="5">
         <v>-31</v>
@@ -26060,7 +26141,7 @@
         <v>568</v>
       </c>
       <c r="Q281" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="V281" s="5" t="s">
         <v>554</v>
@@ -26104,7 +26185,7 @@
         <v>562</v>
       </c>
       <c r="I282" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="K282" s="5">
         <v>-31</v>
@@ -26125,7 +26206,7 @@
         <v>568</v>
       </c>
       <c r="Q282" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="V282" s="5" t="s">
         <v>565</v>
@@ -26169,7 +26250,7 @@
         <v>563</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="K283" s="5">
         <v>-31</v>
@@ -26190,7 +26271,7 @@
         <v>568</v>
       </c>
       <c r="Q283" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="V283" s="5" t="s">
         <v>566</v>
@@ -26234,7 +26315,7 @@
         <v>564</v>
       </c>
       <c r="I284" s="5" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="K284" s="5">
         <v>-31</v>
@@ -26255,7 +26336,7 @@
         <v>568</v>
       </c>
       <c r="Q284" s="10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="V284" s="5" t="s">
         <v>567</v>
@@ -26320,7 +26401,7 @@
         <v>568</v>
       </c>
       <c r="Q285" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V285" s="5" t="s">
         <v>554</v>
@@ -26382,7 +26463,7 @@
         <v>568</v>
       </c>
       <c r="Q286" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="V286" s="5" t="s">
         <v>554</v>
@@ -26444,7 +26525,7 @@
         <v>568</v>
       </c>
       <c r="Q287" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="V287" s="5" t="s">
         <v>554</v>
@@ -26506,7 +26587,7 @@
         <v>568</v>
       </c>
       <c r="Q288" s="10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="V288" s="5" t="s">
         <v>554</v>
@@ -26568,7 +26649,7 @@
         <v>568</v>
       </c>
       <c r="Q289" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="V289" s="5" t="s">
         <v>554</v>
@@ -26630,7 +26711,7 @@
         <v>568</v>
       </c>
       <c r="Q290" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="V290" s="5" t="s">
         <v>554</v>
@@ -26692,7 +26773,7 @@
         <v>568</v>
       </c>
       <c r="Q291" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="V291" s="5" t="s">
         <v>554</v>
@@ -26754,7 +26835,7 @@
         <v>568</v>
       </c>
       <c r="Q292" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="V292" s="5" t="s">
         <v>554</v>
@@ -26816,7 +26897,7 @@
         <v>618</v>
       </c>
       <c r="Q293" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="V293" s="5" t="s">
         <v>554</v>
@@ -26857,7 +26938,7 @@
         <v>632</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="K294" s="5">
         <v>-31</v>
@@ -26878,7 +26959,7 @@
         <v>609</v>
       </c>
       <c r="Q294" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V294" s="5" t="s">
         <v>554</v>
@@ -26919,7 +27000,7 @@
         <v>633</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="K295" s="5">
         <v>-31</v>
@@ -26940,7 +27021,7 @@
         <v>609</v>
       </c>
       <c r="Q295" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="V295" s="5" t="s">
         <v>554</v>
@@ -26981,7 +27062,7 @@
         <v>634</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="K296" s="5">
         <v>-31</v>
@@ -27002,7 +27083,7 @@
         <v>609</v>
       </c>
       <c r="Q296" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="V296" s="5" t="s">
         <v>554</v>
@@ -27043,7 +27124,7 @@
         <v>635</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="K297" s="5">
         <v>-31</v>
@@ -27064,7 +27145,7 @@
         <v>609</v>
       </c>
       <c r="Q297" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="V297" s="5" t="s">
         <v>554</v>
@@ -27105,7 +27186,7 @@
         <v>636</v>
       </c>
       <c r="I298" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="K298" s="5">
         <v>-31</v>
@@ -27126,7 +27207,7 @@
         <v>608</v>
       </c>
       <c r="Q298" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="V298" s="5" t="s">
         <v>554</v>
@@ -27167,7 +27248,7 @@
         <v>637</v>
       </c>
       <c r="I299" s="5" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="K299" s="5">
         <v>-31</v>
@@ -27188,7 +27269,7 @@
         <v>607</v>
       </c>
       <c r="Q299" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V299" s="5" t="s">
         <v>554</v>
@@ -27229,7 +27310,7 @@
         <v>638</v>
       </c>
       <c r="I300" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="K300" s="5">
         <v>-31</v>
@@ -27250,7 +27331,7 @@
         <v>607</v>
       </c>
       <c r="Q300" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="V300" s="5" t="s">
         <v>554</v>
@@ -27291,7 +27372,7 @@
         <v>639</v>
       </c>
       <c r="I301" s="5" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="K301" s="5">
         <v>-31</v>
@@ -27312,7 +27393,7 @@
         <v>607</v>
       </c>
       <c r="Q301" s="10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="V301" s="5" t="s">
         <v>554</v>
@@ -27353,7 +27434,7 @@
         <v>640</v>
       </c>
       <c r="I302" s="5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="K302" s="5">
         <v>-31</v>
@@ -27374,7 +27455,7 @@
         <v>607</v>
       </c>
       <c r="Q302" s="10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="V302" s="5" t="s">
         <v>554</v>
@@ -27415,7 +27496,7 @@
         <v>641</v>
       </c>
       <c r="I303" s="5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="K303" s="5">
         <v>-31</v>
@@ -27436,7 +27517,7 @@
         <v>607</v>
       </c>
       <c r="Q303" s="10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="V303" s="5" t="s">
         <v>554</v>
@@ -27477,7 +27558,7 @@
         <v>642</v>
       </c>
       <c r="I304" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="K304" s="5">
         <v>-31</v>
@@ -27498,7 +27579,7 @@
         <v>607</v>
       </c>
       <c r="Q304" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="V304" s="5" t="s">
         <v>554</v>
@@ -27539,7 +27620,7 @@
         <v>643</v>
       </c>
       <c r="I305" s="5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="K305" s="5">
         <v>-31</v>
@@ -27560,7 +27641,7 @@
         <v>607</v>
       </c>
       <c r="Q305" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="V305" s="5" t="s">
         <v>554</v>
@@ -27601,7 +27682,7 @@
         <v>644</v>
       </c>
       <c r="I306" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="K306" s="5">
         <v>-31</v>
@@ -27622,7 +27703,7 @@
         <v>607</v>
       </c>
       <c r="Q306" s="10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="V306" s="5" t="s">
         <v>554</v>
@@ -27663,7 +27744,7 @@
         <v>645</v>
       </c>
       <c r="I307" s="5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="K307" s="5">
         <v>-31</v>
@@ -27684,7 +27765,7 @@
         <v>607</v>
       </c>
       <c r="Q307" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V307" s="5" t="s">
         <v>554</v>
@@ -27725,7 +27806,7 @@
         <v>646</v>
       </c>
       <c r="I308" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="K308" s="5">
         <v>-31</v>
@@ -27746,7 +27827,7 @@
         <v>614</v>
       </c>
       <c r="Q308" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="V308" s="5" t="s">
         <v>554</v>
@@ -27787,7 +27868,7 @@
         <v>647</v>
       </c>
       <c r="I309" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K309" s="5">
         <v>-31</v>
@@ -27808,7 +27889,7 @@
         <v>619</v>
       </c>
       <c r="Q309" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="V309" s="5" t="s">
         <v>554</v>
@@ -27846,10 +27927,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="I310" s="5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="K310" s="5">
         <v>-31</v>
@@ -27870,7 +27951,7 @@
         <v>620</v>
       </c>
       <c r="Q310" s="10" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="V310" s="5" t="s">
         <v>554</v>
@@ -27908,10 +27989,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I311" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="K311" s="5">
         <v>-31</v>
@@ -27932,7 +28013,7 @@
         <v>621</v>
       </c>
       <c r="Q311" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="V311" s="5" t="s">
         <v>554</v>
@@ -27970,10 +28051,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="I312" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="K312" s="5">
         <v>-31</v>
@@ -27994,7 +28075,7 @@
         <v>621</v>
       </c>
       <c r="Q312" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="V312" s="5" t="s">
         <v>628</v>
@@ -28032,10 +28113,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="K313" s="5">
         <v>-31</v>
@@ -28056,7 +28137,7 @@
         <v>621</v>
       </c>
       <c r="Q313" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="V313" s="5" t="s">
         <v>629</v>
@@ -28094,10 +28175,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="I314" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="K314" s="5">
         <v>-31</v>
@@ -28118,7 +28199,7 @@
         <v>620</v>
       </c>
       <c r="Q314" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="V314" s="5" t="s">
         <v>630</v>
@@ -28156,10 +28237,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="K315" s="5">
         <v>-31</v>
@@ -28180,7 +28261,7 @@
         <v>621</v>
       </c>
       <c r="Q315" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="V315" s="5" t="s">
         <v>631</v>
@@ -28407,7 +28488,7 @@
         <v>651</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="K319" s="5">
         <v>-23</v>
@@ -28428,7 +28509,7 @@
         <v>653</v>
       </c>
       <c r="Q319" s="10" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="V319" s="5" t="s">
         <v>553</v>
@@ -28463,7 +28544,7 @@
         <v>652</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -28484,7 +28565,7 @@
         <v>654</v>
       </c>
       <c r="Q320" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="V320" s="5" t="s">
         <v>553</v>
@@ -28519,7 +28600,7 @@
         <v>655</v>
       </c>
       <c r="I321" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="K321" s="5">
         <v>-23</v>
@@ -28540,7 +28621,7 @@
         <v>657</v>
       </c>
       <c r="Q321" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="V321" s="5" t="s">
         <v>551</v>
@@ -28643,11 +28724,11 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="J323" s="19"/>
       <c r="K323" s="19">
@@ -28666,17 +28747,17 @@
         <v>600</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="Q323" s="40" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="R323" s="19"/>
       <c r="S323" s="19"/>
       <c r="T323" s="19"/>
       <c r="U323" s="19"/>
       <c r="V323" s="19" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="W323" s="19">
         <v>9999999</v>
@@ -28726,11 +28807,11 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="J324" s="19"/>
       <c r="K324" s="19">
@@ -28749,10 +28830,10 @@
         <v>4800</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="Q324" s="40" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="R324" s="19"/>
       <c r="S324" s="19"/>
@@ -28809,11 +28890,11 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="J325" s="19"/>
       <c r="K325" s="19">
@@ -28832,10 +28913,10 @@
         <v>9800</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="Q325" s="40" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R325" s="19"/>
       <c r="S325" s="19"/>
@@ -28889,10 +28970,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="I326" s="41" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="K326" s="41">
         <v>-4</v>
@@ -28904,14 +28985,14 @@
         <v>0</v>
       </c>
       <c r="N326" s="41" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O326" s="41">
         <v>100</v>
       </c>
       <c r="Q326" s="42"/>
       <c r="V326" s="41" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="W326" s="41">
         <v>9999999</v>
@@ -28923,13 +29004,13 @@
         <v>2552233600</v>
       </c>
       <c r="AA326" s="41" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="AB326" s="41" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="AC326" s="42" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="AG326" s="41">
         <v>1</v>
@@ -28949,10 +29030,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="44" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="I327" s="44" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K327" s="44">
         <v>-31</v>
@@ -28964,19 +29045,19 @@
         <v>0</v>
       </c>
       <c r="N327" s="44" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="O327" s="44">
         <v>9900</v>
       </c>
       <c r="P327" s="44" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="Q327" s="49" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="V327" s="44" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="W327" s="44">
         <v>99999999</v>
@@ -29014,11 +29095,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="H328" s="44"/>
       <c r="I328" s="44" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="J328" s="44"/>
       <c r="K328" s="44">
@@ -29031,23 +29112,23 @@
         <v>0</v>
       </c>
       <c r="N328" s="44" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O328" s="44">
         <v>600</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="Q328" s="49" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="R328" s="44"/>
       <c r="S328" s="44"/>
       <c r="T328" s="44"/>
       <c r="U328" s="44"/>
       <c r="V328" s="44" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="W328" s="44">
         <v>99999999</v>
@@ -29096,11 +29177,11 @@
         <v>1</v>
       </c>
       <c r="G329" s="44" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="H329" s="44"/>
       <c r="I329" s="44" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="J329" s="44"/>
       <c r="K329" s="44">
@@ -29113,23 +29194,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="44" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O329" s="44">
         <v>2800</v>
       </c>
       <c r="P329" s="44" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Q329" s="49" t="s">
         <v>1158</v>
-      </c>
-      <c r="Q329" s="49" t="s">
-        <v>1160</v>
       </c>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44"/>
       <c r="V329" s="44" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="W329" s="44">
         <v>99999999</v>
@@ -29178,11 +29259,11 @@
         <v>1</v>
       </c>
       <c r="G330" s="44" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H330" s="44"/>
       <c r="I330" s="44" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="J330" s="44"/>
       <c r="K330" s="44">
@@ -29195,23 +29276,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="44" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O330" s="44">
         <v>4800</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="Q330" s="49" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44"/>
       <c r="V330" s="44" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="W330" s="44">
         <v>99999999</v>
@@ -29260,11 +29341,11 @@
         <v>1</v>
       </c>
       <c r="G331" s="44" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H331" s="44"/>
       <c r="I331" s="44" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="J331" s="44"/>
       <c r="K331" s="44">
@@ -29277,23 +29358,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="44" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O331" s="44">
         <v>9900</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="Q331" s="49" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44"/>
       <c r="V331" s="44" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="W331" s="44">
         <v>99999999</v>
@@ -29342,11 +29423,11 @@
         <v>1</v>
       </c>
       <c r="G332" s="44" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="H332" s="44"/>
       <c r="I332" s="44" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="J332" s="44"/>
       <c r="K332" s="44">
@@ -29359,23 +29440,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="44" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O332" s="44">
         <v>19800</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="Q332" s="49" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44"/>
       <c r="V332" s="44" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="W332" s="44">
         <v>99999999</v>
@@ -29424,11 +29505,11 @@
         <v>1</v>
       </c>
       <c r="G333" s="44" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="H333" s="44"/>
       <c r="I333" s="44" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="J333" s="44"/>
       <c r="K333" s="44">
@@ -29441,23 +29522,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="44" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O333" s="44">
         <v>29800</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="Q333" s="49" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44"/>
       <c r="V333" s="44" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="W333" s="44">
         <v>99999999</v>
@@ -29506,11 +29587,11 @@
         <v>1</v>
       </c>
       <c r="G334" s="44" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H334" s="44"/>
       <c r="I334" s="44" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="J334" s="44"/>
       <c r="K334" s="44">
@@ -29523,23 +29604,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="44" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O334" s="44">
         <v>39800</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="Q334" s="49" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44"/>
       <c r="V334" s="44" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="W334" s="44">
         <v>99999999</v>
@@ -29588,11 +29669,11 @@
         <v>1</v>
       </c>
       <c r="G335" s="44" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="H335" s="44"/>
       <c r="I335" s="44" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="J335" s="44"/>
       <c r="K335" s="44">
@@ -29605,23 +29686,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="44" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O335" s="44">
         <v>49800</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="Q335" s="49" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44"/>
       <c r="V335" s="44" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="W335" s="44">
         <v>99999999</v>
@@ -29670,11 +29751,11 @@
         <v>1</v>
       </c>
       <c r="G336" s="44" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="H336" s="44"/>
       <c r="I336" s="44" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="J336" s="44"/>
       <c r="K336" s="44">
@@ -29687,23 +29768,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="44" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O336" s="44">
         <v>59800</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="Q336" s="49" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44"/>
       <c r="V336" s="44" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="W336" s="44">
         <v>99999999</v>
@@ -29752,11 +29833,11 @@
         <v>1</v>
       </c>
       <c r="G337" s="44" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="H337" s="44"/>
       <c r="I337" s="44" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="J337" s="44"/>
       <c r="K337" s="44">
@@ -29769,23 +29850,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="44" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O337" s="44">
         <v>69800</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="Q337" s="49" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44"/>
       <c r="V337" s="44" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="W337" s="44">
         <v>99999999</v>
@@ -29831,10 +29912,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I338" s="19" t="s">
         <v>1189</v>
-      </c>
-      <c r="I338" s="19" t="s">
-        <v>1191</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -29852,10 +29933,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="Q338" s="40" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>551</v>
@@ -29870,10 +29951,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -29906,7 +29987,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -29925,10 +30006,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="Q339" s="40" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -29948,10 +30029,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="AB339" s="19" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -29986,11 +30067,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -30009,10 +30090,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="Q340" s="40" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -30032,10 +30113,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -30067,11 +30148,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -30089,13 +30170,13 @@
         <v>600</v>
       </c>
       <c r="P341" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="V341" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -30113,7 +30194,7 @@
         <v>461</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -30139,10 +30220,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -30160,13 +30241,13 @@
         <v>600</v>
       </c>
       <c r="P342" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -30184,7 +30265,7 @@
         <v>461</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -30210,10 +30291,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -30231,13 +30312,13 @@
         <v>600</v>
       </c>
       <c r="P343" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -30255,7 +30336,7 @@
         <v>461</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -30281,10 +30362,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -30302,13 +30383,13 @@
         <v>4800</v>
       </c>
       <c r="P344" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -30326,7 +30407,7 @@
         <v>461</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -30352,10 +30433,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -30373,13 +30454,13 @@
         <v>4800</v>
       </c>
       <c r="P345" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -30397,7 +30478,7 @@
         <v>461</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -30423,10 +30504,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -30444,13 +30525,13 @@
         <v>4800</v>
       </c>
       <c r="P346" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -30468,7 +30549,7 @@
         <v>461</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -30494,10 +30575,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -30515,13 +30596,13 @@
         <v>9800</v>
       </c>
       <c r="P347" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q347" s="10" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="V347" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -30539,7 +30620,7 @@
         <v>461</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -30565,10 +30646,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -30586,13 +30667,13 @@
         <v>9800</v>
       </c>
       <c r="P348" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -30610,7 +30691,7 @@
         <v>461</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -30636,10 +30717,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -30657,13 +30738,13 @@
         <v>9800</v>
       </c>
       <c r="P349" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -30681,7 +30762,7 @@
         <v>461</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -30707,10 +30788,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -30728,13 +30809,13 @@
         <v>19800</v>
       </c>
       <c r="P350" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -30752,7 +30833,7 @@
         <v>461</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -30778,10 +30859,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -30799,13 +30880,13 @@
         <v>19800</v>
       </c>
       <c r="P351" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q351" s="10" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="V351" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -30823,7 +30904,7 @@
         <v>461</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -30849,10 +30930,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -30870,13 +30951,13 @@
         <v>19800</v>
       </c>
       <c r="P352" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="V352" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="W352" s="5">
         <v>9999999</v>
@@ -30894,7 +30975,7 @@
         <v>461</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -30920,13 +31001,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -30938,16 +31019,16 @@
         <v>0</v>
       </c>
       <c r="N353" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O353" s="5">
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="V353" s="5" t="s">
         <v>565</v>
@@ -30988,13 +31069,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -31012,10 +31093,10 @@
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="V354" s="5" t="s">
         <v>565</v>
@@ -31056,13 +31137,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -31080,13 +31161,13 @@
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="V355" s="5" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="W355" s="5">
         <v>9999999</v>
@@ -31124,13 +31205,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -31148,13 +31229,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -31192,13 +31273,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -31216,13 +31297,13 @@
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -31260,13 +31341,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -31284,13 +31365,13 @@
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V358" s="5" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="W358" s="5">
         <v>9999999</v>
@@ -31328,13 +31409,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -31352,13 +31433,13 @@
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -31396,13 +31477,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -31420,13 +31501,13 @@
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -31464,13 +31545,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -31488,13 +31569,13 @@
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -31532,13 +31613,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -31556,13 +31637,13 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="V362" s="5" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="W362" s="5">
         <v>9999999</v>
@@ -31577,10 +31658,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -31606,13 +31687,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -31630,13 +31711,13 @@
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -31651,10 +31732,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AB363" s="5" t="s">
         <v>1292</v>
-      </c>
-      <c r="AB363" s="5" t="s">
-        <v>1294</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -31680,13 +31761,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -31704,13 +31785,13 @@
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -31725,10 +31806,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -31754,10 +31835,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -31775,10 +31856,10 @@
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="Q365" s="10" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>598</v>
@@ -31819,10 +31900,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -31840,10 +31921,10 @@
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="Q366" s="10" t="s">
         <v>1344</v>
-      </c>
-      <c r="Q366" s="10" t="s">
-        <v>1346</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>598</v>
@@ -31884,10 +31965,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -31905,10 +31986,10 @@
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="V367" s="5" t="s">
         <v>598</v>
@@ -31949,10 +32030,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -31970,10 +32051,10 @@
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>598</v>
@@ -32014,10 +32095,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -32035,10 +32116,10 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1344</v>
+        <v>1372</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="V369" s="5" t="s">
         <v>598</v>
@@ -32079,10 +32160,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -32100,10 +32181,10 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="Q370" s="10" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="V370" s="5" t="s">
         <v>598</v>
@@ -32141,10 +32222,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -32162,10 +32243,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>565</v>
@@ -32203,10 +32284,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -32224,13 +32305,13 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="Q372" s="10" t="s">
+        <v>1358</v>
+      </c>
+      <c r="V372" s="5" t="s">
         <v>1360</v>
-      </c>
-      <c r="V372" s="5" t="s">
-        <v>1362</v>
       </c>
       <c r="W372" s="5">
         <v>9999999</v>
@@ -32265,10 +32346,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -32286,10 +32367,10 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="Q373" s="10" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="V373" s="5" t="s">
         <v>567</v>
@@ -32316,71 +32397,819 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="45">
+    <row r="374" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="5">
         <v>373</v>
       </c>
-      <c r="B374" s="45">
+      <c r="B374" s="5">
         <v>10290</v>
       </c>
-      <c r="F374" s="45">
-        <v>1</v>
-      </c>
-      <c r="G374" s="45" t="s">
+      <c r="F374" s="5">
+        <v>1</v>
+      </c>
+      <c r="G374" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H374" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I374" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K374" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L374" s="5">
+        <v>0</v>
+      </c>
+      <c r="M374" s="5">
+        <v>0</v>
+      </c>
+      <c r="N374" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="O374" s="5">
+        <v>300</v>
+      </c>
+      <c r="P374" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="Q374" s="10" t="s">
         <v>1366</v>
       </c>
-      <c r="H374" s="45" t="s">
+      <c r="V374" s="5" t="s">
         <v>1367</v>
       </c>
-      <c r="I374" s="45" t="s">
+      <c r="W374" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X374" s="5">
+        <v>1598916600</v>
+      </c>
+      <c r="Y374" s="5">
+        <v>1599494399</v>
+      </c>
+      <c r="Z374" s="5">
+        <v>14</v>
+      </c>
+      <c r="AG374" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH374" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK374" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL374" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="45">
+        <v>374</v>
+      </c>
+      <c r="B375" s="45">
+        <v>10291</v>
+      </c>
+      <c r="F375" s="45">
+        <v>1</v>
+      </c>
+      <c r="G375" s="45" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H375" s="45" t="s">
         <v>1369</v>
       </c>
-      <c r="K374" s="45">
+      <c r="I375" s="45" t="s">
+        <v>1371</v>
+      </c>
+      <c r="K375" s="45">
         <v>-31</v>
       </c>
-      <c r="L374" s="45">
-        <v>0</v>
-      </c>
-      <c r="M374" s="45">
-        <v>0</v>
-      </c>
-      <c r="N374" s="45" t="s">
+      <c r="L375" s="45">
+        <v>0</v>
+      </c>
+      <c r="M375" s="45">
+        <v>0</v>
+      </c>
+      <c r="N375" s="45" t="s">
         <v>499</v>
       </c>
-      <c r="O374" s="45">
+      <c r="O375" s="45">
         <v>300</v>
       </c>
-      <c r="P374" s="45" t="s">
-        <v>1368</v>
-      </c>
-      <c r="Q374" s="50" t="s">
-        <v>1370</v>
-      </c>
-      <c r="V374" s="45" t="s">
-        <v>1371</v>
-      </c>
-      <c r="W374" s="45">
+      <c r="P375" s="45" t="s">
+        <v>1373</v>
+      </c>
+      <c r="Q375" s="50" t="s">
+        <v>1366</v>
+      </c>
+      <c r="V375" s="45" t="s">
+        <v>598</v>
+      </c>
+      <c r="W375" s="45">
         <v>9999999</v>
       </c>
-      <c r="X374" s="45">
-        <v>1598916600</v>
-      </c>
-      <c r="Y374" s="45">
-        <v>1599494399</v>
-      </c>
-      <c r="Z374" s="45">
+      <c r="X375" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y375" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z375" s="45">
         <v>14</v>
       </c>
-      <c r="AG374" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH374" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK374" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL374" s="45">
+      <c r="AG375" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH375" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK375" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL375" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="45">
+        <v>375</v>
+      </c>
+      <c r="B376" s="45">
+        <v>10292</v>
+      </c>
+      <c r="F376" s="45">
+        <v>1</v>
+      </c>
+      <c r="G376" s="45" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H376" s="45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I376" s="45" t="s">
+        <v>1378</v>
+      </c>
+      <c r="K376" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L376" s="45">
+        <v>0</v>
+      </c>
+      <c r="M376" s="45">
+        <v>0</v>
+      </c>
+      <c r="N376" s="45" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O376" s="45">
+        <v>0</v>
+      </c>
+      <c r="P376" s="45" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q376" s="50" t="s">
+        <v>801</v>
+      </c>
+      <c r="V376" s="45" t="s">
+        <v>1380</v>
+      </c>
+      <c r="W376" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X376" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y376" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z376" s="45">
+        <v>42</v>
+      </c>
+      <c r="AG376" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH376" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK376" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL376" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="45">
+        <v>376</v>
+      </c>
+      <c r="B377" s="45">
+        <v>10293</v>
+      </c>
+      <c r="F377" s="45">
+        <v>1</v>
+      </c>
+      <c r="G377" s="45" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H377" s="45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I377" s="45" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K377" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L377" s="45">
+        <v>0</v>
+      </c>
+      <c r="M377" s="45">
+        <v>0</v>
+      </c>
+      <c r="N377" s="45" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O377" s="45">
+        <v>300</v>
+      </c>
+      <c r="P377" s="45" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q377" s="50" t="s">
+        <v>802</v>
+      </c>
+      <c r="V377" s="45" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W377" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X377" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y377" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z377" s="45">
+        <v>42</v>
+      </c>
+      <c r="AG377" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH377" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK377" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL377" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="45">
+        <v>377</v>
+      </c>
+      <c r="B378" s="45">
+        <v>10294</v>
+      </c>
+      <c r="F378" s="45">
+        <v>1</v>
+      </c>
+      <c r="G378" s="45" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H378" s="45" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I378" s="45" t="s">
+        <v>1384</v>
+      </c>
+      <c r="K378" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L378" s="45">
+        <v>0</v>
+      </c>
+      <c r="M378" s="45">
+        <v>0</v>
+      </c>
+      <c r="N378" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="O378" s="45">
+        <v>600</v>
+      </c>
+      <c r="P378" s="45" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q378" s="50" t="s">
+        <v>1397</v>
+      </c>
+      <c r="V378" s="45" t="s">
+        <v>1385</v>
+      </c>
+      <c r="W378" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X378" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y378" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z378" s="45">
+        <v>42</v>
+      </c>
+      <c r="AG378" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH378" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK378" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL378" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="45">
+        <v>378</v>
+      </c>
+      <c r="B379" s="45">
+        <v>10295</v>
+      </c>
+      <c r="F379" s="45">
+        <v>1</v>
+      </c>
+      <c r="G379" s="45" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H379" s="45" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I379" s="45" t="s">
+        <v>957</v>
+      </c>
+      <c r="K379" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L379" s="45">
+        <v>0</v>
+      </c>
+      <c r="M379" s="45">
+        <v>0</v>
+      </c>
+      <c r="N379" s="45" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O379" s="45">
+        <v>1800</v>
+      </c>
+      <c r="P379" s="45" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q379" s="50" t="s">
+        <v>804</v>
+      </c>
+      <c r="V379" s="45" t="s">
+        <v>1360</v>
+      </c>
+      <c r="W379" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X379" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y379" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z379" s="45">
+        <v>42</v>
+      </c>
+      <c r="AG379" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH379" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK379" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL379" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="45">
+        <v>379</v>
+      </c>
+      <c r="B380" s="45">
+        <v>10296</v>
+      </c>
+      <c r="F380" s="45">
+        <v>1</v>
+      </c>
+      <c r="G380" s="45" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H380" s="45" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I380" s="45" t="s">
+        <v>958</v>
+      </c>
+      <c r="K380" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L380" s="45">
+        <v>0</v>
+      </c>
+      <c r="M380" s="45">
+        <v>0</v>
+      </c>
+      <c r="N380" s="45" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O380" s="45">
+        <v>4800</v>
+      </c>
+      <c r="P380" s="45" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q380" s="50" t="s">
+        <v>805</v>
+      </c>
+      <c r="V380" s="45" t="s">
+        <v>1386</v>
+      </c>
+      <c r="W380" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X380" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y380" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z380" s="45">
+        <v>42</v>
+      </c>
+      <c r="AG380" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH380" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK380" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL380" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="45">
+        <v>380</v>
+      </c>
+      <c r="B381" s="45">
+        <v>10297</v>
+      </c>
+      <c r="F381" s="45">
+        <v>1</v>
+      </c>
+      <c r="G381" s="45" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H381" s="45" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I381" s="45" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K381" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L381" s="45">
+        <v>0</v>
+      </c>
+      <c r="M381" s="45">
+        <v>0</v>
+      </c>
+      <c r="N381" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="O381" s="45">
+        <v>0</v>
+      </c>
+      <c r="P381" s="45" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q381" s="50" t="s">
+        <v>801</v>
+      </c>
+      <c r="V381" s="45" t="s">
+        <v>1380</v>
+      </c>
+      <c r="W381" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X381" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y381" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z381" s="45">
+        <v>43</v>
+      </c>
+      <c r="AG381" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH381" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK381" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL381" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="45">
+        <v>381</v>
+      </c>
+      <c r="B382" s="45">
+        <v>10298</v>
+      </c>
+      <c r="F382" s="45">
+        <v>1</v>
+      </c>
+      <c r="G382" s="45" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H382" s="45" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I382" s="45" t="s">
+        <v>1389</v>
+      </c>
+      <c r="K382" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L382" s="45">
+        <v>0</v>
+      </c>
+      <c r="M382" s="45">
+        <v>0</v>
+      </c>
+      <c r="N382" s="45" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O382" s="45">
+        <v>1800</v>
+      </c>
+      <c r="P382" s="45" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q382" s="50" t="s">
+        <v>804</v>
+      </c>
+      <c r="V382" s="45" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W382" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X382" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y382" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z382" s="45">
+        <v>43</v>
+      </c>
+      <c r="AG382" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH382" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK382" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL382" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="45">
+        <v>382</v>
+      </c>
+      <c r="B383" s="45">
+        <v>10299</v>
+      </c>
+      <c r="F383" s="45">
+        <v>1</v>
+      </c>
+      <c r="G383" s="45" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H383" s="45" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I383" s="45" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K383" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L383" s="45">
+        <v>0</v>
+      </c>
+      <c r="M383" s="45">
+        <v>0</v>
+      </c>
+      <c r="N383" s="45" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O383" s="45">
+        <v>4800</v>
+      </c>
+      <c r="P383" s="45" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q383" s="50" t="s">
+        <v>805</v>
+      </c>
+      <c r="V383" s="45" t="s">
+        <v>565</v>
+      </c>
+      <c r="W383" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X383" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y383" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z383" s="45">
+        <v>43</v>
+      </c>
+      <c r="AG383" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH383" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK383" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL383" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="45">
+        <v>383</v>
+      </c>
+      <c r="B384" s="45">
+        <v>10300</v>
+      </c>
+      <c r="F384" s="45">
+        <v>1</v>
+      </c>
+      <c r="G384" s="45" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H384" s="45" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I384" s="45" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K384" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L384" s="45">
+        <v>0</v>
+      </c>
+      <c r="M384" s="45">
+        <v>0</v>
+      </c>
+      <c r="N384" s="45" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O384" s="45">
+        <v>9800</v>
+      </c>
+      <c r="P384" s="45" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q384" s="50" t="s">
+        <v>808</v>
+      </c>
+      <c r="V384" s="45" t="s">
+        <v>1391</v>
+      </c>
+      <c r="W384" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X384" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y384" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z384" s="45">
+        <v>43</v>
+      </c>
+      <c r="AG384" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH384" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK384" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL384" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="45">
+        <v>384</v>
+      </c>
+      <c r="B385" s="45">
+        <v>10301</v>
+      </c>
+      <c r="F385" s="45">
+        <v>1</v>
+      </c>
+      <c r="G385" s="45" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H385" s="45" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I385" s="45" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K385" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L385" s="45">
+        <v>0</v>
+      </c>
+      <c r="M385" s="45">
+        <v>0</v>
+      </c>
+      <c r="N385" s="45" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O385" s="45">
+        <v>19800</v>
+      </c>
+      <c r="P385" s="45" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q385" s="50" t="s">
+        <v>809</v>
+      </c>
+      <c r="V385" s="45" t="s">
+        <v>1386</v>
+      </c>
+      <c r="W385" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X385" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y385" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z385" s="45">
+        <v>43</v>
+      </c>
+      <c r="AG385" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH385" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK385" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL385" s="45">
         <v>1</v>
       </c>
     </row>
@@ -32394,10 +33223,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32412,7 +33241,7 @@
         <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>403</v>
@@ -32429,7 +33258,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -32446,7 +33275,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -32460,7 +33289,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -32474,7 +33303,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -32600,7 +33429,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -32628,7 +33457,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -32782,7 +33611,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -32797,7 +33626,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -32812,7 +33641,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -32827,7 +33656,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -32842,7 +33671,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -32857,7 +33686,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -32872,7 +33701,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -32887,7 +33716,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -32902,7 +33731,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -32917,7 +33746,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -32932,7 +33761,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -32947,7 +33776,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -32962,7 +33791,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -32976,7 +33805,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -32990,7 +33819,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -33004,12 +33833,40 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
       </c>
       <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="52">
+        <v>42</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C43" s="52">
+        <v>1</v>
+      </c>
+      <c r="D43" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="52">
+        <v>43</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C44" s="52">
+        <v>1</v>
+      </c>
+      <c r="D44" s="52">
         <v>0</v>
       </c>
     </row>
@@ -33025,7 +33882,7 @@
   <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D3" sqref="D3:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33067,7 +33924,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>414</v>
@@ -33079,10 +33936,10 @@
         <v>416</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>22</v>
@@ -33139,7 +33996,7 @@
         <v>42</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -33183,10 +34040,10 @@
         <v>3</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>50</v>
@@ -33214,9 +34071,6 @@
       <c r="C3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="11">
-        <v>85</v>
-      </c>
       <c r="E3" s="11">
         <v>85</v>
       </c>
@@ -33251,10 +34105,10 @@
         <v>4</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="T3" s="11" t="s">
         <v>53</v>
@@ -33282,9 +34136,6 @@
       <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="11">
-        <v>86</v>
-      </c>
       <c r="E4" s="11">
         <v>86</v>
       </c>
@@ -33319,10 +34170,10 @@
         <v>5</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="S4" s="34" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="T4" s="11" t="s">
         <v>55</v>
@@ -33350,9 +34201,6 @@
       <c r="C5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="11">
-        <v>87</v>
-      </c>
       <c r="E5" s="11">
         <v>87</v>
       </c>
@@ -33387,10 +34235,10 @@
         <v>6</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="S5" s="34" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="T5" s="11" t="s">
         <v>57</v>
@@ -33418,9 +34266,6 @@
       <c r="C6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="11">
-        <v>88</v>
-      </c>
       <c r="E6" s="11">
         <v>88</v>
       </c>
@@ -33455,10 +34300,10 @@
         <v>7</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="S6" s="34" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="T6" s="11" t="s">
         <v>59</v>
@@ -33486,9 +34331,6 @@
       <c r="C7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="11">
-        <v>89</v>
-      </c>
       <c r="E7" s="11">
         <v>89</v>
       </c>
@@ -33523,10 +34365,10 @@
         <v>9</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="S7" s="34" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>61</v>
@@ -33585,10 +34427,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="S8" s="34" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>50</v>
@@ -33647,7 +34489,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="T9" s="11">
         <v>5000</v>
@@ -33665,7 +34507,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="34" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -33709,7 +34551,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="T10" s="11">
         <v>1000</v>
@@ -33727,7 +34569,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="34" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -33771,10 +34613,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="S11" s="34" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="T11" s="23" t="s">
         <v>53</v>
@@ -33802,9 +34644,6 @@
       <c r="C12" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="D12" s="11">
-        <v>109</v>
-      </c>
       <c r="E12" s="11">
         <v>109</v>
       </c>
@@ -33839,10 +34678,10 @@
         <v>9</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="S12" s="34" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="T12" s="11" t="s">
         <v>63</v>
@@ -33870,9 +34709,6 @@
       <c r="C13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="11">
-        <v>10044</v>
-      </c>
       <c r="E13" s="11">
         <v>10044</v>
       </c>
@@ -33907,10 +34743,10 @@
         <v>10</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="S13" s="34" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="T13" s="11" t="s">
         <v>421</v>
@@ -33938,9 +34774,6 @@
       <c r="C14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11">
-        <v>10045</v>
-      </c>
       <c r="E14" s="11">
         <v>10045</v>
       </c>
@@ -33975,10 +34808,10 @@
         <v>11</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="S14" s="34" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="T14" s="11" t="s">
         <v>422</v>
@@ -34040,7 +34873,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="S15" s="34"/>
       <c r="T15" s="11">
@@ -34059,7 +34892,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="34" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -34072,9 +34905,6 @@
       <c r="C16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="11">
-        <v>90</v>
-      </c>
       <c r="E16" s="11">
         <v>90</v>
       </c>
@@ -34109,10 +34939,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="S16" s="34" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="T16" s="11" t="s">
         <v>72</v>
@@ -34171,10 +35001,10 @@
         <v>4</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="S17" s="34" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="T17" s="11" t="s">
         <v>75</v>
@@ -34233,10 +35063,10 @@
         <v>5</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="S18" s="34" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="T18" s="11" t="s">
         <v>78</v>
@@ -34295,10 +35125,10 @@
         <v>6</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="S19" s="34" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="T19" s="11" t="s">
         <v>82</v>
@@ -34357,10 +35187,10 @@
         <v>7</v>
       </c>
       <c r="Q20" s="34" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="S20" s="34" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>86</v>
@@ -34419,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="T21" s="35" t="s">
         <v>89</v>
@@ -34481,7 +35311,7 @@
         <v>2</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="S22" s="34"/>
       <c r="T22" s="11">
@@ -34541,7 +35371,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="S23" s="34"/>
       <c r="T23" s="11">
@@ -34604,7 +35434,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="S24" s="34"/>
       <c r="T24" s="11">
@@ -34623,7 +35453,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="34" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -34636,9 +35466,6 @@
       <c r="C25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="11">
-        <v>10189</v>
-      </c>
       <c r="E25" s="11">
         <v>10189</v>
       </c>
@@ -34646,7 +35473,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H25" s="11">
         <v>19800</v>
@@ -34673,10 +35500,10 @@
         <v>8</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="T25" s="34" t="s">
         <v>548</v>
@@ -35135,7 +35962,7 @@
         <v>90</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="L8" s="12">
         <v>57</v>
@@ -35153,7 +35980,7 @@
         <v>448</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>433</v>
@@ -35328,7 +36155,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>488</v>
@@ -35375,7 +36202,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>488</v>
@@ -35422,7 +36249,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>492</v>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="1438">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6144,6 +6144,166 @@
   </si>
   <si>
     <t>1000000,-80,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v8" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8864,13 +9024,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM385"/>
+  <dimension ref="A1:AM394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q372" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H373" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q391" sqref="Q391"/>
+      <selection pane="bottomRight" activeCell="H399" sqref="H399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -32465,751 +32625,1363 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="45">
+    <row r="375" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="5">
         <v>374</v>
       </c>
-      <c r="B375" s="45">
+      <c r="B375" s="5">
         <v>10291</v>
       </c>
-      <c r="F375" s="45">
-        <v>1</v>
-      </c>
-      <c r="G375" s="45" t="s">
+      <c r="F375" s="5">
+        <v>1</v>
+      </c>
+      <c r="G375" s="5" t="s">
         <v>1368</v>
       </c>
-      <c r="H375" s="45" t="s">
+      <c r="H375" s="5" t="s">
         <v>1369</v>
       </c>
-      <c r="I375" s="45" t="s">
+      <c r="I375" s="5" t="s">
         <v>1371</v>
       </c>
-      <c r="K375" s="45">
+      <c r="K375" s="5">
         <v>-31</v>
       </c>
-      <c r="L375" s="45">
-        <v>0</v>
-      </c>
-      <c r="M375" s="45">
-        <v>0</v>
-      </c>
-      <c r="N375" s="45" t="s">
+      <c r="L375" s="5">
+        <v>0</v>
+      </c>
+      <c r="M375" s="5">
+        <v>0</v>
+      </c>
+      <c r="N375" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O375" s="45">
+      <c r="O375" s="5">
         <v>300</v>
       </c>
-      <c r="P375" s="45" t="s">
+      <c r="P375" s="5" t="s">
         <v>1373</v>
       </c>
-      <c r="Q375" s="50" t="s">
+      <c r="Q375" s="10" t="s">
         <v>1366</v>
       </c>
-      <c r="V375" s="45" t="s">
+      <c r="V375" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="W375" s="45">
+      <c r="W375" s="5">
         <v>9999999</v>
       </c>
-      <c r="X375" s="45">
+      <c r="X375" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y375" s="45">
+      <c r="Y375" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z375" s="45">
+      <c r="Z375" s="5">
         <v>14</v>
       </c>
-      <c r="AG375" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH375" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK375" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL375" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="45">
+      <c r="AG375" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH375" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK375" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL375" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="5">
         <v>375</v>
       </c>
-      <c r="B376" s="45">
+      <c r="B376" s="5">
         <v>10292</v>
       </c>
-      <c r="F376" s="45">
-        <v>1</v>
-      </c>
-      <c r="G376" s="45" t="s">
+      <c r="F376" s="5">
+        <v>1</v>
+      </c>
+      <c r="G376" s="5" t="s">
         <v>1376</v>
       </c>
-      <c r="H376" s="45" t="s">
+      <c r="H376" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I376" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="K376" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L376" s="5">
+        <v>0</v>
+      </c>
+      <c r="M376" s="5">
+        <v>0</v>
+      </c>
+      <c r="N376" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O376" s="5">
+        <v>0</v>
+      </c>
+      <c r="P376" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q376" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="V376" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="W376" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X376" s="5">
+        <v>1599523200</v>
+      </c>
+      <c r="Y376" s="5">
+        <v>1600099199</v>
+      </c>
+      <c r="Z376" s="5">
+        <v>42</v>
+      </c>
+      <c r="AG376" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH376" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK376" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL376" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="5">
+        <v>376</v>
+      </c>
+      <c r="B377" s="5">
+        <v>10293</v>
+      </c>
+      <c r="F377" s="5">
+        <v>1</v>
+      </c>
+      <c r="G377" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H377" s="5" t="s">
         <v>1377</v>
       </c>
-      <c r="I376" s="45" t="s">
-        <v>1378</v>
-      </c>
-      <c r="K376" s="45">
+      <c r="I377" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K377" s="5">
         <v>-31</v>
       </c>
-      <c r="L376" s="45">
-        <v>0</v>
-      </c>
-      <c r="M376" s="45">
-        <v>0</v>
-      </c>
-      <c r="N376" s="45" t="s">
+      <c r="L377" s="5">
+        <v>0</v>
+      </c>
+      <c r="M377" s="5">
+        <v>0</v>
+      </c>
+      <c r="N377" s="5" t="s">
         <v>1379</v>
       </c>
-      <c r="O376" s="45">
-        <v>0</v>
-      </c>
-      <c r="P376" s="45" t="s">
+      <c r="O377" s="5">
+        <v>300</v>
+      </c>
+      <c r="P377" s="5" t="s">
         <v>1396</v>
       </c>
-      <c r="Q376" s="50" t="s">
+      <c r="Q377" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="V377" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W377" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X377" s="5">
+        <v>1599523200</v>
+      </c>
+      <c r="Y377" s="5">
+        <v>1600099199</v>
+      </c>
+      <c r="Z377" s="5">
+        <v>42</v>
+      </c>
+      <c r="AG377" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH377" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK377" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL377" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="5">
+        <v>377</v>
+      </c>
+      <c r="B378" s="5">
+        <v>10294</v>
+      </c>
+      <c r="F378" s="5">
+        <v>1</v>
+      </c>
+      <c r="G378" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H378" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I378" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="K378" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L378" s="5">
+        <v>0</v>
+      </c>
+      <c r="M378" s="5">
+        <v>0</v>
+      </c>
+      <c r="N378" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="O378" s="5">
+        <v>600</v>
+      </c>
+      <c r="P378" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q378" s="10" t="s">
+        <v>1397</v>
+      </c>
+      <c r="V378" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="W378" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X378" s="5">
+        <v>1599523200</v>
+      </c>
+      <c r="Y378" s="5">
+        <v>1600099199</v>
+      </c>
+      <c r="Z378" s="5">
+        <v>42</v>
+      </c>
+      <c r="AG378" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH378" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK378" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL378" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="5">
+        <v>378</v>
+      </c>
+      <c r="B379" s="5">
+        <v>10295</v>
+      </c>
+      <c r="F379" s="5">
+        <v>1</v>
+      </c>
+      <c r="G379" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H379" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I379" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="K379" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L379" s="5">
+        <v>0</v>
+      </c>
+      <c r="M379" s="5">
+        <v>0</v>
+      </c>
+      <c r="N379" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O379" s="5">
+        <v>1800</v>
+      </c>
+      <c r="P379" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q379" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="V379" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="W379" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X379" s="5">
+        <v>1599523200</v>
+      </c>
+      <c r="Y379" s="5">
+        <v>1600099199</v>
+      </c>
+      <c r="Z379" s="5">
+        <v>42</v>
+      </c>
+      <c r="AG379" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH379" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK379" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL379" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="5">
+        <v>379</v>
+      </c>
+      <c r="B380" s="5">
+        <v>10296</v>
+      </c>
+      <c r="F380" s="5">
+        <v>1</v>
+      </c>
+      <c r="G380" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H380" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I380" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="K380" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L380" s="5">
+        <v>0</v>
+      </c>
+      <c r="M380" s="5">
+        <v>0</v>
+      </c>
+      <c r="N380" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O380" s="5">
+        <v>4800</v>
+      </c>
+      <c r="P380" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q380" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="V380" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="W380" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X380" s="5">
+        <v>1599523200</v>
+      </c>
+      <c r="Y380" s="5">
+        <v>1600099199</v>
+      </c>
+      <c r="Z380" s="5">
+        <v>42</v>
+      </c>
+      <c r="AG380" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH380" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK380" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL380" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="5">
+        <v>380</v>
+      </c>
+      <c r="B381" s="5">
+        <v>10297</v>
+      </c>
+      <c r="F381" s="5">
+        <v>1</v>
+      </c>
+      <c r="G381" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H381" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I381" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K381" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L381" s="5">
+        <v>0</v>
+      </c>
+      <c r="M381" s="5">
+        <v>0</v>
+      </c>
+      <c r="N381" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="O381" s="5">
+        <v>0</v>
+      </c>
+      <c r="P381" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q381" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="V376" s="45" t="s">
+      <c r="V381" s="5" t="s">
         <v>1380</v>
       </c>
-      <c r="W376" s="45">
+      <c r="W381" s="5">
         <v>9999999</v>
       </c>
-      <c r="X376" s="45">
+      <c r="X381" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y376" s="45">
+      <c r="Y381" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z376" s="45">
-        <v>42</v>
-      </c>
-      <c r="AG376" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH376" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK376" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL376" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="45">
-        <v>376</v>
-      </c>
-      <c r="B377" s="45">
-        <v>10293</v>
-      </c>
-      <c r="F377" s="45">
-        <v>1</v>
-      </c>
-      <c r="G377" s="45" t="s">
+      <c r="Z381" s="5">
+        <v>43</v>
+      </c>
+      <c r="AG381" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH381" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK381" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL381" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="5">
+        <v>381</v>
+      </c>
+      <c r="B382" s="5">
+        <v>10298</v>
+      </c>
+      <c r="F382" s="5">
+        <v>1</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H382" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I382" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="K382" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L382" s="5">
+        <v>0</v>
+      </c>
+      <c r="M382" s="5">
+        <v>0</v>
+      </c>
+      <c r="N382" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O382" s="5">
+        <v>1800</v>
+      </c>
+      <c r="P382" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q382" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="V382" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W382" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X382" s="5">
+        <v>1599523200</v>
+      </c>
+      <c r="Y382" s="5">
+        <v>1600099199</v>
+      </c>
+      <c r="Z382" s="5">
+        <v>43</v>
+      </c>
+      <c r="AG382" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH382" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK382" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL382" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="5">
+        <v>382</v>
+      </c>
+      <c r="B383" s="5">
+        <v>10299</v>
+      </c>
+      <c r="F383" s="5">
+        <v>1</v>
+      </c>
+      <c r="G383" s="5" t="s">
         <v>1376</v>
       </c>
-      <c r="H377" s="45" t="s">
-        <v>1377</v>
-      </c>
-      <c r="I377" s="45" t="s">
-        <v>1381</v>
-      </c>
-      <c r="K377" s="45">
+      <c r="H383" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I383" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K383" s="5">
         <v>-31</v>
       </c>
-      <c r="L377" s="45">
-        <v>0</v>
-      </c>
-      <c r="M377" s="45">
-        <v>0</v>
-      </c>
-      <c r="N377" s="45" t="s">
+      <c r="L383" s="5">
+        <v>0</v>
+      </c>
+      <c r="M383" s="5">
+        <v>0</v>
+      </c>
+      <c r="N383" s="5" t="s">
         <v>1379</v>
       </c>
-      <c r="O377" s="45">
-        <v>300</v>
-      </c>
-      <c r="P377" s="45" t="s">
+      <c r="O383" s="5">
+        <v>4800</v>
+      </c>
+      <c r="P383" s="5" t="s">
         <v>1396</v>
       </c>
-      <c r="Q377" s="50" t="s">
-        <v>802</v>
-      </c>
-      <c r="V377" s="45" t="s">
-        <v>1382</v>
-      </c>
-      <c r="W377" s="45">
+      <c r="Q383" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="V383" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="W383" s="5">
         <v>9999999</v>
       </c>
-      <c r="X377" s="45">
+      <c r="X383" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y377" s="45">
+      <c r="Y383" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z377" s="45">
-        <v>42</v>
-      </c>
-      <c r="AG377" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH377" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK377" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL377" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="45">
-        <v>377</v>
-      </c>
-      <c r="B378" s="45">
-        <v>10294</v>
-      </c>
-      <c r="F378" s="45">
-        <v>1</v>
-      </c>
-      <c r="G378" s="45" t="s">
-        <v>1376</v>
-      </c>
-      <c r="H378" s="45" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I378" s="45" t="s">
-        <v>1384</v>
-      </c>
-      <c r="K378" s="45">
+      <c r="Z383" s="5">
+        <v>43</v>
+      </c>
+      <c r="AG383" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH383" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK383" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL383" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="5">
+        <v>383</v>
+      </c>
+      <c r="B384" s="5">
+        <v>10300</v>
+      </c>
+      <c r="F384" s="5">
+        <v>1</v>
+      </c>
+      <c r="G384" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H384" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I384" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K384" s="5">
         <v>-31</v>
       </c>
-      <c r="L378" s="45">
-        <v>0</v>
-      </c>
-      <c r="M378" s="45">
-        <v>0</v>
-      </c>
-      <c r="N378" s="45" t="s">
-        <v>499</v>
-      </c>
-      <c r="O378" s="45">
-        <v>600</v>
-      </c>
-      <c r="P378" s="45" t="s">
+      <c r="L384" s="5">
+        <v>0</v>
+      </c>
+      <c r="M384" s="5">
+        <v>0</v>
+      </c>
+      <c r="N384" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O384" s="5">
+        <v>9800</v>
+      </c>
+      <c r="P384" s="5" t="s">
         <v>1396</v>
       </c>
-      <c r="Q378" s="50" t="s">
-        <v>1397</v>
-      </c>
-      <c r="V378" s="45" t="s">
-        <v>1385</v>
-      </c>
-      <c r="W378" s="45">
+      <c r="Q384" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="V384" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="W384" s="5">
         <v>9999999</v>
       </c>
-      <c r="X378" s="45">
+      <c r="X384" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y378" s="45">
+      <c r="Y384" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z378" s="45">
-        <v>42</v>
-      </c>
-      <c r="AG378" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH378" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK378" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL378" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="45">
-        <v>378</v>
-      </c>
-      <c r="B379" s="45">
-        <v>10295</v>
-      </c>
-      <c r="F379" s="45">
-        <v>1</v>
-      </c>
-      <c r="G379" s="45" t="s">
+      <c r="Z384" s="5">
+        <v>43</v>
+      </c>
+      <c r="AG384" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH384" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK384" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL384" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="5">
+        <v>384</v>
+      </c>
+      <c r="B385" s="5">
+        <v>10301</v>
+      </c>
+      <c r="F385" s="5">
+        <v>1</v>
+      </c>
+      <c r="G385" s="5" t="s">
         <v>1375</v>
       </c>
-      <c r="H379" s="45" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I379" s="45" t="s">
-        <v>957</v>
-      </c>
-      <c r="K379" s="45">
+      <c r="H385" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I385" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K385" s="5">
         <v>-31</v>
       </c>
-      <c r="L379" s="45">
-        <v>0</v>
-      </c>
-      <c r="M379" s="45">
-        <v>0</v>
-      </c>
-      <c r="N379" s="45" t="s">
+      <c r="L385" s="5">
+        <v>0</v>
+      </c>
+      <c r="M385" s="5">
+        <v>0</v>
+      </c>
+      <c r="N385" s="5" t="s">
         <v>1379</v>
       </c>
-      <c r="O379" s="45">
+      <c r="O385" s="5">
+        <v>19800</v>
+      </c>
+      <c r="P385" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q385" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="V385" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="W385" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X385" s="5">
+        <v>1599523200</v>
+      </c>
+      <c r="Y385" s="5">
+        <v>1600099199</v>
+      </c>
+      <c r="Z385" s="5">
+        <v>43</v>
+      </c>
+      <c r="AG385" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH385" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK385" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL385" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="45">
+        <v>385</v>
+      </c>
+      <c r="B386" s="45">
+        <v>10302</v>
+      </c>
+      <c r="F386" s="45">
+        <v>1</v>
+      </c>
+      <c r="G386" s="45" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H386" s="45" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I386" s="45" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K386" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L386" s="45">
+        <v>0</v>
+      </c>
+      <c r="M386" s="45">
+        <v>0</v>
+      </c>
+      <c r="N386" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O386" s="45">
         <v>1800</v>
       </c>
-      <c r="P379" s="45" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Q379" s="50" t="s">
-        <v>804</v>
-      </c>
-      <c r="V379" s="45" t="s">
-        <v>1360</v>
-      </c>
-      <c r="W379" s="45">
+      <c r="P386" s="45" t="s">
+        <v>1415</v>
+      </c>
+      <c r="Q386" s="50" t="s">
+        <v>1424</v>
+      </c>
+      <c r="V386" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W386" s="45">
         <v>9999999</v>
       </c>
-      <c r="X379" s="45">
-        <v>1599523200</v>
-      </c>
-      <c r="Y379" s="45">
-        <v>1600099199</v>
-      </c>
-      <c r="Z379" s="45">
-        <v>42</v>
-      </c>
-      <c r="AG379" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH379" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK379" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL379" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="45">
-        <v>379</v>
-      </c>
-      <c r="B380" s="45">
-        <v>10296</v>
-      </c>
-      <c r="F380" s="45">
-        <v>1</v>
-      </c>
-      <c r="G380" s="45" t="s">
-        <v>1376</v>
-      </c>
-      <c r="H380" s="45" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I380" s="45" t="s">
-        <v>958</v>
-      </c>
-      <c r="K380" s="45">
+      <c r="X386" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y386" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z386" s="45">
+        <v>44</v>
+      </c>
+      <c r="AG386" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH386" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK386" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="45">
+        <v>386</v>
+      </c>
+      <c r="B387" s="45">
+        <v>10303</v>
+      </c>
+      <c r="F387" s="45">
+        <v>1</v>
+      </c>
+      <c r="G387" s="45" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H387" s="45" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I387" s="45" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K387" s="45">
         <v>-31</v>
       </c>
-      <c r="L380" s="45">
-        <v>0</v>
-      </c>
-      <c r="M380" s="45">
-        <v>0</v>
-      </c>
-      <c r="N380" s="45" t="s">
-        <v>1379</v>
-      </c>
-      <c r="O380" s="45">
+      <c r="L387" s="45">
+        <v>0</v>
+      </c>
+      <c r="M387" s="45">
+        <v>0</v>
+      </c>
+      <c r="N387" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O387" s="45">
+        <v>3000</v>
+      </c>
+      <c r="P387" s="45" t="s">
+        <v>1417</v>
+      </c>
+      <c r="Q387" s="50" t="s">
+        <v>1425</v>
+      </c>
+      <c r="V387" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W387" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X387" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y387" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z387" s="45">
+        <v>44</v>
+      </c>
+      <c r="AG387" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH387" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK387" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="45">
+        <v>387</v>
+      </c>
+      <c r="B388" s="45">
+        <v>10304</v>
+      </c>
+      <c r="F388" s="45">
+        <v>1</v>
+      </c>
+      <c r="G388" s="45" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H388" s="45" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I388" s="45" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K388" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L388" s="45">
+        <v>0</v>
+      </c>
+      <c r="M388" s="45">
+        <v>0</v>
+      </c>
+      <c r="N388" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O388" s="45">
         <v>4800</v>
       </c>
-      <c r="P380" s="45" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Q380" s="50" t="s">
-        <v>805</v>
-      </c>
-      <c r="V380" s="45" t="s">
-        <v>1386</v>
-      </c>
-      <c r="W380" s="45">
+      <c r="P388" s="45" t="s">
+        <v>1418</v>
+      </c>
+      <c r="Q388" s="50" t="s">
+        <v>1426</v>
+      </c>
+      <c r="V388" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W388" s="45">
         <v>9999999</v>
       </c>
-      <c r="X380" s="45">
-        <v>1599523200</v>
-      </c>
-      <c r="Y380" s="45">
-        <v>1600099199</v>
-      </c>
-      <c r="Z380" s="45">
-        <v>42</v>
-      </c>
-      <c r="AG380" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH380" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK380" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL380" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="45">
-        <v>380</v>
-      </c>
-      <c r="B381" s="45">
-        <v>10297</v>
-      </c>
-      <c r="F381" s="45">
-        <v>1</v>
-      </c>
-      <c r="G381" s="45" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H381" s="45" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I381" s="45" t="s">
-        <v>1388</v>
-      </c>
-      <c r="K381" s="45">
+      <c r="X388" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y388" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z388" s="45">
+        <v>44</v>
+      </c>
+      <c r="AG388" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH388" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK388" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="45">
+        <v>388</v>
+      </c>
+      <c r="B389" s="45">
+        <v>10305</v>
+      </c>
+      <c r="F389" s="45">
+        <v>1</v>
+      </c>
+      <c r="G389" s="45" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H389" s="45" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I389" s="45" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K389" s="45">
         <v>-31</v>
       </c>
-      <c r="L381" s="45">
-        <v>0</v>
-      </c>
-      <c r="M381" s="45">
-        <v>0</v>
-      </c>
-      <c r="N381" s="45" t="s">
-        <v>499</v>
-      </c>
-      <c r="O381" s="45">
-        <v>0</v>
-      </c>
-      <c r="P381" s="45" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Q381" s="50" t="s">
-        <v>801</v>
-      </c>
-      <c r="V381" s="45" t="s">
-        <v>1380</v>
-      </c>
-      <c r="W381" s="45">
+      <c r="L389" s="45">
+        <v>0</v>
+      </c>
+      <c r="M389" s="45">
+        <v>0</v>
+      </c>
+      <c r="N389" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O389" s="45">
+        <v>4800</v>
+      </c>
+      <c r="P389" s="45" t="s">
+        <v>1419</v>
+      </c>
+      <c r="Q389" s="50" t="s">
+        <v>1427</v>
+      </c>
+      <c r="V389" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W389" s="45">
         <v>9999999</v>
       </c>
-      <c r="X381" s="45">
-        <v>1599523200</v>
-      </c>
-      <c r="Y381" s="45">
-        <v>1600099199</v>
-      </c>
-      <c r="Z381" s="45">
-        <v>43</v>
-      </c>
-      <c r="AG381" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH381" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK381" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL381" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="45">
-        <v>381</v>
-      </c>
-      <c r="B382" s="45">
-        <v>10298</v>
-      </c>
-      <c r="F382" s="45">
-        <v>1</v>
-      </c>
-      <c r="G382" s="45" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H382" s="45" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I382" s="45" t="s">
-        <v>1389</v>
-      </c>
-      <c r="K382" s="45">
+      <c r="X389" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y389" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z389" s="45">
+        <v>45</v>
+      </c>
+      <c r="AG389" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH389" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK389" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="45">
+        <v>389</v>
+      </c>
+      <c r="B390" s="45">
+        <v>10306</v>
+      </c>
+      <c r="F390" s="45">
+        <v>1</v>
+      </c>
+      <c r="G390" s="45" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H390" s="45" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I390" s="45" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K390" s="45">
         <v>-31</v>
       </c>
-      <c r="L382" s="45">
-        <v>0</v>
-      </c>
-      <c r="M382" s="45">
-        <v>0</v>
-      </c>
-      <c r="N382" s="45" t="s">
-        <v>1379</v>
-      </c>
-      <c r="O382" s="45">
-        <v>1800</v>
-      </c>
-      <c r="P382" s="45" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Q382" s="50" t="s">
-        <v>804</v>
-      </c>
-      <c r="V382" s="45" t="s">
-        <v>1382</v>
-      </c>
-      <c r="W382" s="45">
+      <c r="L390" s="45">
+        <v>0</v>
+      </c>
+      <c r="M390" s="45">
+        <v>0</v>
+      </c>
+      <c r="N390" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O390" s="45">
+        <v>9800</v>
+      </c>
+      <c r="P390" s="45" t="s">
+        <v>1420</v>
+      </c>
+      <c r="Q390" s="50" t="s">
+        <v>1428</v>
+      </c>
+      <c r="V390" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W390" s="45">
         <v>9999999</v>
       </c>
-      <c r="X382" s="45">
-        <v>1599523200</v>
-      </c>
-      <c r="Y382" s="45">
-        <v>1600099199</v>
-      </c>
-      <c r="Z382" s="45">
-        <v>43</v>
-      </c>
-      <c r="AG382" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH382" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK382" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL382" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="45">
-        <v>382</v>
-      </c>
-      <c r="B383" s="45">
-        <v>10299</v>
-      </c>
-      <c r="F383" s="45">
-        <v>1</v>
-      </c>
-      <c r="G383" s="45" t="s">
-        <v>1376</v>
-      </c>
-      <c r="H383" s="45" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I383" s="45" t="s">
-        <v>1353</v>
-      </c>
-      <c r="K383" s="45">
+      <c r="X390" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y390" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z390" s="45">
+        <v>45</v>
+      </c>
+      <c r="AG390" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH390" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK390" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="45">
+        <v>390</v>
+      </c>
+      <c r="B391" s="45">
+        <v>10307</v>
+      </c>
+      <c r="F391" s="45">
+        <v>1</v>
+      </c>
+      <c r="G391" s="45" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H391" s="45" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I391" s="45" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K391" s="45">
         <v>-31</v>
       </c>
-      <c r="L383" s="45">
-        <v>0</v>
-      </c>
-      <c r="M383" s="45">
-        <v>0</v>
-      </c>
-      <c r="N383" s="45" t="s">
-        <v>1379</v>
-      </c>
-      <c r="O383" s="45">
-        <v>4800</v>
-      </c>
-      <c r="P383" s="45" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Q383" s="50" t="s">
-        <v>805</v>
-      </c>
-      <c r="V383" s="45" t="s">
-        <v>565</v>
-      </c>
-      <c r="W383" s="45">
+      <c r="L391" s="45">
+        <v>0</v>
+      </c>
+      <c r="M391" s="45">
+        <v>0</v>
+      </c>
+      <c r="N391" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O391" s="45">
+        <v>19800</v>
+      </c>
+      <c r="P391" s="45" t="s">
+        <v>1421</v>
+      </c>
+      <c r="Q391" s="50" t="s">
+        <v>1429</v>
+      </c>
+      <c r="V391" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W391" s="45">
         <v>9999999</v>
       </c>
-      <c r="X383" s="45">
-        <v>1599523200</v>
-      </c>
-      <c r="Y383" s="45">
-        <v>1600099199</v>
-      </c>
-      <c r="Z383" s="45">
-        <v>43</v>
-      </c>
-      <c r="AG383" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH383" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK383" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL383" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="45">
-        <v>383</v>
-      </c>
-      <c r="B384" s="45">
-        <v>10300</v>
-      </c>
-      <c r="F384" s="45">
-        <v>1</v>
-      </c>
-      <c r="G384" s="45" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H384" s="45" t="s">
-        <v>1390</v>
-      </c>
-      <c r="I384" s="45" t="s">
-        <v>1354</v>
-      </c>
-      <c r="K384" s="45">
+      <c r="X391" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y391" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z391" s="45">
+        <v>45</v>
+      </c>
+      <c r="AG391" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH391" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK391" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="45">
+        <v>391</v>
+      </c>
+      <c r="B392" s="45">
+        <v>10308</v>
+      </c>
+      <c r="F392" s="45">
+        <v>1</v>
+      </c>
+      <c r="G392" s="45" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H392" s="45" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I392" s="45" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K392" s="45">
         <v>-31</v>
       </c>
-      <c r="L384" s="45">
-        <v>0</v>
-      </c>
-      <c r="M384" s="45">
-        <v>0</v>
-      </c>
-      <c r="N384" s="45" t="s">
-        <v>1379</v>
-      </c>
-      <c r="O384" s="45">
+      <c r="L392" s="45">
+        <v>0</v>
+      </c>
+      <c r="M392" s="45">
+        <v>0</v>
+      </c>
+      <c r="N392" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O392" s="45">
         <v>9800</v>
       </c>
-      <c r="P384" s="45" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Q384" s="50" t="s">
-        <v>808</v>
-      </c>
-      <c r="V384" s="45" t="s">
-        <v>1391</v>
-      </c>
-      <c r="W384" s="45">
+      <c r="P392" s="45" t="s">
+        <v>1416</v>
+      </c>
+      <c r="Q392" s="50" t="s">
+        <v>1430</v>
+      </c>
+      <c r="V392" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W392" s="45">
         <v>9999999</v>
       </c>
-      <c r="X384" s="45">
-        <v>1599523200</v>
-      </c>
-      <c r="Y384" s="45">
-        <v>1600099199</v>
-      </c>
-      <c r="Z384" s="45">
-        <v>43</v>
-      </c>
-      <c r="AG384" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH384" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK384" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL384" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="45">
-        <v>384</v>
-      </c>
-      <c r="B385" s="45">
-        <v>10301</v>
-      </c>
-      <c r="F385" s="45">
-        <v>1</v>
-      </c>
-      <c r="G385" s="45" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H385" s="45" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I385" s="45" t="s">
-        <v>1392</v>
-      </c>
-      <c r="K385" s="45">
+      <c r="X392" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y392" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z392" s="45">
+        <v>46</v>
+      </c>
+      <c r="AG392" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH392" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK392" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="45">
+        <v>392</v>
+      </c>
+      <c r="B393" s="45">
+        <v>10309</v>
+      </c>
+      <c r="F393" s="45">
+        <v>1</v>
+      </c>
+      <c r="G393" s="45" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H393" s="45" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I393" s="45" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K393" s="45">
         <v>-31</v>
       </c>
-      <c r="L385" s="45">
-        <v>0</v>
-      </c>
-      <c r="M385" s="45">
-        <v>0</v>
-      </c>
-      <c r="N385" s="45" t="s">
-        <v>1379</v>
-      </c>
-      <c r="O385" s="45">
+      <c r="L393" s="45">
+        <v>0</v>
+      </c>
+      <c r="M393" s="45">
+        <v>0</v>
+      </c>
+      <c r="N393" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O393" s="45">
         <v>19800</v>
       </c>
-      <c r="P385" s="45" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Q385" s="50" t="s">
-        <v>809</v>
-      </c>
-      <c r="V385" s="45" t="s">
-        <v>1386</v>
-      </c>
-      <c r="W385" s="45">
+      <c r="P393" s="45" t="s">
+        <v>1422</v>
+      </c>
+      <c r="Q393" s="50" t="s">
+        <v>1432</v>
+      </c>
+      <c r="V393" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W393" s="45">
         <v>9999999</v>
       </c>
-      <c r="X385" s="45">
-        <v>1599523200</v>
-      </c>
-      <c r="Y385" s="45">
-        <v>1600099199</v>
-      </c>
-      <c r="Z385" s="45">
-        <v>43</v>
-      </c>
-      <c r="AG385" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH385" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK385" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL385" s="45">
+      <c r="X393" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y393" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z393" s="45">
+        <v>46</v>
+      </c>
+      <c r="AG393" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH393" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK393" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="45">
+        <v>393</v>
+      </c>
+      <c r="B394" s="45">
+        <v>10310</v>
+      </c>
+      <c r="F394" s="45">
+        <v>1</v>
+      </c>
+      <c r="G394" s="45" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H394" s="45" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I394" s="45" t="s">
+        <v>1413</v>
+      </c>
+      <c r="K394" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L394" s="45">
+        <v>0</v>
+      </c>
+      <c r="M394" s="45">
+        <v>0</v>
+      </c>
+      <c r="N394" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O394" s="45">
+        <v>49800</v>
+      </c>
+      <c r="P394" s="45" t="s">
+        <v>1423</v>
+      </c>
+      <c r="Q394" s="50" t="s">
+        <v>1431</v>
+      </c>
+      <c r="V394" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W394" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X394" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y394" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z394" s="45">
+        <v>46</v>
+      </c>
+      <c r="AG394" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH394" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK394" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="45">
         <v>1</v>
       </c>
     </row>
@@ -33223,10 +33995,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33842,31 +34614,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="52">
+    <row r="43" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="18" t="s">
         <v>1393</v>
       </c>
-      <c r="C43" s="52">
-        <v>1</v>
-      </c>
-      <c r="D43" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="52">
+      <c r="C43" s="12">
+        <v>1</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="18" t="s">
         <v>1394</v>
       </c>
-      <c r="C44" s="52">
-        <v>1</v>
-      </c>
-      <c r="D44" s="52">
+      <c r="C44" s="12">
+        <v>1</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="52">
+        <v>44</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C45" s="52">
+        <v>1</v>
+      </c>
+      <c r="D45" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="52">
+        <v>45</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C46" s="52">
+        <v>1</v>
+      </c>
+      <c r="D46" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="52">
+        <v>46</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C47" s="52">
+        <v>1</v>
+      </c>
+      <c r="D47" s="52">
         <v>0</v>
       </c>
     </row>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_9.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="1493">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6376,6 +6376,150 @@
   </si>
   <si>
     <t>"jing_bi","shop_gold_sum","prop_web_chip_huafei"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帆风顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_1"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二龙飞腾</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阳开泰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_2"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季发财</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_2"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五福临门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_3"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星高照</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_3"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万金币","水滴*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万金币","水滴*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万金币","阳光*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","60万金币","阳光*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2980万金币","90万金币","阳光*12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万金币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万金币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,600000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,3000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "031_gqfd_gift" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,100000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>29800000,900000,12,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_asset_count|赠送财富数量</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6447,7 +6591,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6502,6 +6646,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -6545,7 +6695,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6706,6 +6856,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7171,8 +7336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F24"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7185,7 +7350,7 @@
     <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="30.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="30.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="30.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30.125" style="57" customWidth="1"/>
     <col min="14" max="14" width="11.625" style="2" customWidth="1"/>
     <col min="15" max="15" width="30.125" style="2" customWidth="1"/>
     <col min="16" max="18" width="14.875" style="2" customWidth="1"/>
@@ -7242,8 +7407,8 @@
       <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
+      <c r="M1" s="45" t="s">
+        <v>1492</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>24</v>
@@ -7334,8 +7499,8 @@
       <c r="L2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>47</v>
+      <c r="M2" s="58" t="s">
+        <v>1487</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>9</v>
@@ -7414,8 +7579,8 @@
       <c r="L3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>47</v>
+      <c r="M3" s="58" t="s">
+        <v>1488</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>9</v>
@@ -7494,8 +7659,8 @@
       <c r="L4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>47</v>
+      <c r="M4" s="58" t="s">
+        <v>1488</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>9</v>
@@ -7574,7 +7739,7 @@
       <c r="L5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -7654,7 +7819,7 @@
       <c r="L6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -7734,7 +7899,7 @@
       <c r="L7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -7814,7 +7979,7 @@
       <c r="L8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -7894,7 +8059,7 @@
       <c r="L9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -7975,8 +8140,8 @@
       <c r="L10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>47</v>
+      <c r="M10" s="58" t="s">
+        <v>1489</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>9</v>
@@ -8058,8 +8223,8 @@
       <c r="L11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="11">
-        <v>100200300</v>
+      <c r="M11" s="57" t="s">
+        <v>47</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>9</v>
@@ -8138,8 +8303,8 @@
       <c r="L12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="11">
-        <v>100200300</v>
+      <c r="M12" s="57" t="s">
+        <v>47</v>
       </c>
       <c r="N12" s="11" t="s">
         <v>9</v>
@@ -8218,8 +8383,8 @@
       <c r="L13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="11">
-        <v>100200300</v>
+      <c r="M13" s="57" t="s">
+        <v>47</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>9</v>
@@ -8298,8 +8463,8 @@
       <c r="L14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="11">
-        <v>100200300</v>
+      <c r="M14" s="58" t="s">
+        <v>1489</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>9</v>
@@ -8378,8 +8543,8 @@
       <c r="L15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="11">
-        <v>100200300</v>
+      <c r="M15" s="57" t="s">
+        <v>47</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>9</v>
@@ -8458,8 +8623,8 @@
       <c r="L16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>47</v>
+      <c r="M16" s="58" t="s">
+        <v>1490</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>9</v>
@@ -8530,7 +8695,7 @@
       <c r="L17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N17" s="11" t="s">
@@ -8602,7 +8767,7 @@
       <c r="L18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N18" s="11" t="s">
@@ -8674,8 +8839,8 @@
       <c r="L19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="11" t="s">
-        <v>47</v>
+      <c r="M19" s="58" t="s">
+        <v>1489</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>11</v>
@@ -8746,7 +8911,7 @@
       <c r="L20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N20" s="11" t="s">
@@ -8818,8 +8983,8 @@
       <c r="L21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="11" t="s">
-        <v>47</v>
+      <c r="M21" s="58" t="s">
+        <v>1491</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>11</v>
@@ -8890,7 +9055,7 @@
       <c r="L22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N22" s="11" t="s">
@@ -8962,8 +9127,8 @@
       <c r="L23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="11" t="s">
-        <v>47</v>
+      <c r="M23" s="58" t="s">
+        <v>1489</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>11</v>
@@ -9043,8 +9208,8 @@
       <c r="L24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M24" s="11" t="s">
-        <v>47</v>
+      <c r="M24" s="58" t="s">
+        <v>1489</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>9</v>
@@ -9102,13 +9267,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM400"/>
+  <dimension ref="A1:AM407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N226" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P362" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P253" sqref="P253"/>
+      <selection pane="bottomRight" activeCell="F374" sqref="F374:F375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -32070,7 +32235,7 @@
         <v>10281</v>
       </c>
       <c r="F365" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G365" s="5" t="s">
         <v>1330</v>
@@ -32135,7 +32300,7 @@
         <v>10282</v>
       </c>
       <c r="F366" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G366" s="5" t="s">
         <v>1332</v>
@@ -32200,7 +32365,7 @@
         <v>10283</v>
       </c>
       <c r="F367" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G367" s="5" t="s">
         <v>1331</v>
@@ -32265,7 +32430,7 @@
         <v>10284</v>
       </c>
       <c r="F368" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G368" s="5" t="s">
         <v>1333</v>
@@ -32330,7 +32495,7 @@
         <v>10285</v>
       </c>
       <c r="F369" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G369" s="5" t="s">
         <v>1334</v>
@@ -32395,7 +32560,7 @@
         <v>10286</v>
       </c>
       <c r="F370" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G370" s="5" t="s">
         <v>1347</v>
@@ -32457,7 +32622,7 @@
         <v>10287</v>
       </c>
       <c r="F371" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G371" s="5" t="s">
         <v>1348</v>
@@ -32519,7 +32684,7 @@
         <v>10288</v>
       </c>
       <c r="F372" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>1349</v>
@@ -32581,7 +32746,7 @@
         <v>10289</v>
       </c>
       <c r="F373" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G373" s="5" t="s">
         <v>1350</v>
@@ -32847,7 +33012,7 @@
         <v>10293</v>
       </c>
       <c r="F377" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G377" s="5" t="s">
         <v>1375</v>
@@ -32915,7 +33080,7 @@
         <v>10294</v>
       </c>
       <c r="F378" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G378" s="5" t="s">
         <v>1375</v>
@@ -32983,7 +33148,7 @@
         <v>10295</v>
       </c>
       <c r="F379" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G379" s="5" t="s">
         <v>1374</v>
@@ -33051,7 +33216,7 @@
         <v>10296</v>
       </c>
       <c r="F380" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G380" s="5" t="s">
         <v>1375</v>
@@ -33119,7 +33284,7 @@
         <v>10297</v>
       </c>
       <c r="F381" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G381" s="5" t="s">
         <v>1374</v>
@@ -33187,7 +33352,7 @@
         <v>10298</v>
       </c>
       <c r="F382" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>1374</v>
@@ -33255,7 +33420,7 @@
         <v>10299</v>
       </c>
       <c r="F383" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G383" s="5" t="s">
         <v>1375</v>
@@ -33323,7 +33488,7 @@
         <v>10300</v>
       </c>
       <c r="F384" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G384" s="5" t="s">
         <v>1374</v>
@@ -33391,7 +33556,7 @@
         <v>10301</v>
       </c>
       <c r="F385" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G385" s="5" t="s">
         <v>1374</v>
@@ -34432,6 +34597,461 @@
         <v>1</v>
       </c>
       <c r="AL400" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="54">
+        <v>400</v>
+      </c>
+      <c r="B401" s="54">
+        <v>10317</v>
+      </c>
+      <c r="F401" s="54">
+        <v>1</v>
+      </c>
+      <c r="G401" s="54" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I401" s="54" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K401" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L401" s="54">
+        <v>0</v>
+      </c>
+      <c r="M401" s="54">
+        <v>0</v>
+      </c>
+      <c r="N401" s="54" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O401" s="54">
+        <v>1800</v>
+      </c>
+      <c r="P401" s="54" t="s">
+        <v>1459</v>
+      </c>
+      <c r="Q401" s="54" t="s">
+        <v>1484</v>
+      </c>
+      <c r="V401" s="54" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W401" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X401" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y401" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z401" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG401" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH401" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK401" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL401" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="54">
+        <v>401</v>
+      </c>
+      <c r="B402" s="54">
+        <v>10318</v>
+      </c>
+      <c r="F402" s="54">
+        <v>1</v>
+      </c>
+      <c r="G402" s="54" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I402" s="54" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K402" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L402" s="54">
+        <v>0</v>
+      </c>
+      <c r="M402" s="54">
+        <v>0</v>
+      </c>
+      <c r="N402" s="54" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O402" s="54">
+        <v>4800</v>
+      </c>
+      <c r="P402" s="54" t="s">
+        <v>1459</v>
+      </c>
+      <c r="Q402" s="54" t="s">
+        <v>1480</v>
+      </c>
+      <c r="V402" s="54" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W402" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X402" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y402" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z402" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG402" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH402" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK402" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL402" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="54">
+        <v>402</v>
+      </c>
+      <c r="B403" s="54">
+        <v>10319</v>
+      </c>
+      <c r="F403" s="54">
+        <v>1</v>
+      </c>
+      <c r="G403" s="54" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I403" s="54" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K403" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L403" s="54">
+        <v>0</v>
+      </c>
+      <c r="M403" s="54">
+        <v>0</v>
+      </c>
+      <c r="N403" s="54" t="s">
+        <v>1463</v>
+      </c>
+      <c r="O403" s="54">
+        <v>9800</v>
+      </c>
+      <c r="P403" s="54" t="s">
+        <v>1464</v>
+      </c>
+      <c r="Q403" s="54" t="s">
+        <v>1485</v>
+      </c>
+      <c r="V403" s="54" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W403" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X403" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y403" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z403" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG403" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH403" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK403" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL403" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="54">
+        <v>403</v>
+      </c>
+      <c r="B404" s="54">
+        <v>10320</v>
+      </c>
+      <c r="F404" s="54">
+        <v>1</v>
+      </c>
+      <c r="G404" s="54" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I404" s="54" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K404" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L404" s="54">
+        <v>0</v>
+      </c>
+      <c r="M404" s="54">
+        <v>0</v>
+      </c>
+      <c r="N404" s="54" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O404" s="54">
+        <v>19800</v>
+      </c>
+      <c r="P404" s="54" t="s">
+        <v>1466</v>
+      </c>
+      <c r="Q404" s="54" t="s">
+        <v>1479</v>
+      </c>
+      <c r="V404" s="54" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W404" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X404" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y404" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z404" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG404" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH404" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK404" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL404" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A405" s="54">
+        <v>404</v>
+      </c>
+      <c r="B405" s="54">
+        <v>10321</v>
+      </c>
+      <c r="F405" s="54">
+        <v>1</v>
+      </c>
+      <c r="G405" s="54" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I405" s="54" t="s">
+        <v>1476</v>
+      </c>
+      <c r="K405" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L405" s="54">
+        <v>0</v>
+      </c>
+      <c r="M405" s="54">
+        <v>0</v>
+      </c>
+      <c r="N405" s="54" t="s">
+        <v>1463</v>
+      </c>
+      <c r="O405" s="54">
+        <v>29800</v>
+      </c>
+      <c r="P405" s="54" t="s">
+        <v>1466</v>
+      </c>
+      <c r="Q405" s="54" t="s">
+        <v>1486</v>
+      </c>
+      <c r="V405" s="54" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W405" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X405" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y405" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z405" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG405" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH405" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK405" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL405" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="54">
+        <v>405</v>
+      </c>
+      <c r="B406" s="54">
+        <v>10322</v>
+      </c>
+      <c r="F406" s="54">
+        <v>1</v>
+      </c>
+      <c r="G406" s="54" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I406" s="54" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K406" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L406" s="54">
+        <v>0</v>
+      </c>
+      <c r="M406" s="54">
+        <v>0</v>
+      </c>
+      <c r="N406" s="54" t="s">
+        <v>1463</v>
+      </c>
+      <c r="O406" s="54">
+        <v>49800</v>
+      </c>
+      <c r="P406" s="54" t="s">
+        <v>1469</v>
+      </c>
+      <c r="Q406" s="54" t="s">
+        <v>1481</v>
+      </c>
+      <c r="V406" s="54" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W406" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X406" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y406" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z406" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG406" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH406" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK406" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL406" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="54">
+        <v>406</v>
+      </c>
+      <c r="B407" s="54">
+        <v>10323</v>
+      </c>
+      <c r="F407" s="54">
+        <v>1</v>
+      </c>
+      <c r="G407" s="54" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I407" s="54" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K407" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L407" s="54">
+        <v>0</v>
+      </c>
+      <c r="M407" s="54">
+        <v>0</v>
+      </c>
+      <c r="N407" s="54" t="s">
+        <v>1463</v>
+      </c>
+      <c r="O407" s="54">
+        <v>99800</v>
+      </c>
+      <c r="P407" s="54" t="s">
+        <v>1471</v>
+      </c>
+      <c r="Q407" s="54" t="s">
+        <v>1482</v>
+      </c>
+      <c r="V407" s="54" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W407" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X407" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y407" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z407" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG407" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH407" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK407" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL407" s="54">
         <v>1</v>
       </c>
     </row>
@@ -34445,10 +35065,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35131,6 +35751,20 @@
         <v>1</v>
       </c>
       <c r="D47" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="55">
+        <v>47</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C48" s="55">
+        <v>1</v>
+      </c>
+      <c r="D48" s="55">
         <v>0</v>
       </c>
     </row>
@@ -36800,8 +37434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6039" uniqueCount="1494">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6520,6 +6520,10 @@
   </si>
   <si>
     <t>gift_asset_count|赠送财富数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9270,10 +9274,10 @@
   <dimension ref="A1:AM407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P362" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F374" sqref="F374:F375"/>
+      <selection pane="bottomRight" activeCell="I374" sqref="I374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -32817,7 +32821,7 @@
         <v>1364</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1369</v>
+        <v>1493</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
@@ -32832,13 +32836,13 @@
         <v>499</v>
       </c>
       <c r="O374" s="5">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="P374" s="5" t="s">
         <v>1372</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1365</v>
+        <v>1234</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>1366</v>
@@ -32847,10 +32851,10 @@
         <v>9999999</v>
       </c>
       <c r="X374" s="5">
-        <v>1598916600</v>
+        <v>1602547200</v>
       </c>
       <c r="Y374" s="5">
-        <v>1599494399</v>
+        <v>1603123199</v>
       </c>
       <c r="Z374" s="5">
         <v>14</v>
@@ -33663,10 +33667,10 @@
         <v>9999999</v>
       </c>
       <c r="X386" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y386" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z386" s="5">
         <v>44</v>
@@ -33731,10 +33735,10 @@
         <v>9999999</v>
       </c>
       <c r="X387" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y387" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z387" s="5">
         <v>44</v>
@@ -33799,10 +33803,10 @@
         <v>9999999</v>
       </c>
       <c r="X388" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y388" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z388" s="5">
         <v>44</v>
@@ -33867,10 +33871,10 @@
         <v>9999999</v>
       </c>
       <c r="X389" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y389" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z389" s="5">
         <v>45</v>
@@ -33935,10 +33939,10 @@
         <v>9999999</v>
       </c>
       <c r="X390" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y390" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z390" s="5">
         <v>45</v>
@@ -34003,10 +34007,10 @@
         <v>9999999</v>
       </c>
       <c r="X391" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y391" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z391" s="5">
         <v>45</v>
@@ -34071,10 +34075,10 @@
         <v>9999999</v>
       </c>
       <c r="X392" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y392" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z392" s="5">
         <v>46</v>
@@ -34139,10 +34143,10 @@
         <v>9999999</v>
       </c>
       <c r="X393" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y393" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z393" s="5">
         <v>46</v>
@@ -34207,10 +34211,10 @@
         <v>9999999</v>
       </c>
       <c r="X394" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y394" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z394" s="5">
         <v>46</v>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="1580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="1607">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6661,22 +6661,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>新手宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪华宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人专享</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>600000,3000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6719,10 +6703,6 @@
   </si>
   <si>
     <t>{40,50,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6893,6 +6873,119 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>一帆风顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阳开泰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二龙腾飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季发财</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五福临门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星高照</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_cwlb_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万小游戏币","水滴*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","60万小游戏币","阳光*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,100000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,3000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,600000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>29800000,900000,12,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手宝箱</t>
+  </si>
+  <si>
+    <t>新人专享</t>
+  </si>
+  <si>
+    <t>2000000,5,5,1,</t>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+  </si>
+  <si>
+    <t>5800000,10,10,1,</t>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+  </si>
+  <si>
+    <t>12800000,15,15,1,</t>
+  </si>
+  <si>
     <t>"200万金币","冰冻*5","锁定*5","新人宝箱",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6905,18 +6998,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2000000,5,5,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5800000,10,10,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>12800000,15,15,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_10",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6927,6 +7008,24 @@
   <si>
     <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_12",</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
   </si>
 </sst>
 </file>
@@ -7054,7 +7153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7667,16 +7766,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -9707,13 +9806,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM433"/>
+  <dimension ref="A1:AM484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N403" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="L419" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P424" sqref="P424"/>
+      <selection pane="bottomRight" activeCell="P438" sqref="P438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -34886,7 +34985,7 @@
         <v>9800</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>1438</v>
+        <v>1573</v>
       </c>
       <c r="Q398" s="10" t="s">
         <v>1442</v>
@@ -35530,7 +35629,7 @@
         <v>1495</v>
       </c>
       <c r="Q408" s="10" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="V408" s="5" t="s">
         <v>1496</v>
@@ -35923,7 +36022,7 @@
         <v>1505</v>
       </c>
       <c r="V414" s="5" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="W414" s="14" t="s">
         <v>119</v>
@@ -36053,7 +36152,7 @@
         <v>1272</v>
       </c>
       <c r="Q416" s="48" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="V416" s="6" t="s">
         <v>1512</v>
@@ -36189,7 +36288,7 @@
         <v>1274</v>
       </c>
       <c r="Q418" s="48" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="V418" s="6" t="s">
         <v>1280</v>
@@ -36257,7 +36356,7 @@
         <v>1275</v>
       </c>
       <c r="Q419" s="48" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="V419" s="6" t="s">
         <v>1280</v>
@@ -36325,7 +36424,7 @@
         <v>1276</v>
       </c>
       <c r="Q420" s="48" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="V420" s="6" t="s">
         <v>1280</v>
@@ -36387,13 +36486,13 @@
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="Q421" s="39" t="s">
         <v>1520</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -36408,7 +36507,7 @@
         <v>1177</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -36423,207 +36522,207 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="54">
+    <row r="422" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A422" s="6">
         <v>421</v>
       </c>
-      <c r="B422" s="54">
+      <c r="B422" s="5">
         <v>10338</v>
       </c>
-      <c r="F422" s="54">
-        <v>1</v>
-      </c>
-      <c r="G422" s="54" t="s">
-        <v>1521</v>
-      </c>
-      <c r="H422" s="54" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I422" s="54" t="s">
-        <v>1571</v>
-      </c>
-      <c r="K422" s="54">
+      <c r="F422" s="6">
+        <v>1</v>
+      </c>
+      <c r="G422" s="6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="H422" s="6" t="s">
+        <v>1590</v>
+      </c>
+      <c r="I422" s="6" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K422" s="6">
         <v>-31</v>
       </c>
-      <c r="L422" s="54">
-        <v>0</v>
-      </c>
-      <c r="M422" s="54">
-        <v>0</v>
-      </c>
-      <c r="N422" s="54" t="s">
+      <c r="L422" s="6">
+        <v>0</v>
+      </c>
+      <c r="M422" s="6">
+        <v>0</v>
+      </c>
+      <c r="N422" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O422" s="54">
+      <c r="O422" s="6">
         <v>2000</v>
       </c>
-      <c r="P422" s="54" t="s">
-        <v>1577</v>
-      </c>
-      <c r="Q422" s="55" t="s">
-        <v>1574</v>
-      </c>
-      <c r="V422" s="54" t="s">
-        <v>1534</v>
-      </c>
-      <c r="W422" s="54">
+      <c r="P422" s="6" t="s">
+        <v>1599</v>
+      </c>
+      <c r="Q422" s="48" t="s">
+        <v>1591</v>
+      </c>
+      <c r="V422" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="W422" s="6">
         <v>99999999</v>
       </c>
-      <c r="X422" s="54">
+      <c r="X422" s="6">
         <v>1603756800</v>
       </c>
-      <c r="Y422" s="54">
+      <c r="Y422" s="6">
         <v>2552233600</v>
       </c>
-      <c r="Z422" s="54">
+      <c r="Z422" s="6">
         <v>51</v>
       </c>
-      <c r="AG422" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH422" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK422" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="54">
+      <c r="AG422" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH422" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK422" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A423" s="6">
         <v>422</v>
       </c>
-      <c r="B423" s="54">
+      <c r="B423" s="5">
         <v>10339</v>
       </c>
-      <c r="F423" s="54">
-        <v>1</v>
-      </c>
-      <c r="G423" s="54" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H423" s="54" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I423" s="54" t="s">
-        <v>1572</v>
-      </c>
-      <c r="K423" s="54">
+      <c r="F423" s="6">
+        <v>1</v>
+      </c>
+      <c r="G423" s="6" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H423" s="6" t="s">
+        <v>1590</v>
+      </c>
+      <c r="I423" s="6" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K423" s="6">
         <v>-31</v>
       </c>
-      <c r="L423" s="54">
-        <v>0</v>
-      </c>
-      <c r="M423" s="54">
-        <v>0</v>
-      </c>
-      <c r="N423" s="54" t="s">
+      <c r="L423" s="6">
+        <v>0</v>
+      </c>
+      <c r="M423" s="6">
+        <v>0</v>
+      </c>
+      <c r="N423" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O423" s="54">
+      <c r="O423" s="6">
         <v>5800</v>
       </c>
-      <c r="P423" s="54" t="s">
-        <v>1578</v>
-      </c>
-      <c r="Q423" s="55" t="s">
-        <v>1575</v>
-      </c>
-      <c r="V423" s="54" t="s">
-        <v>1529</v>
-      </c>
-      <c r="W423" s="54">
+      <c r="P423" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="Q423" s="48" t="s">
+        <v>1593</v>
+      </c>
+      <c r="V423" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="W423" s="6">
         <v>99999999</v>
       </c>
-      <c r="X423" s="54">
+      <c r="X423" s="6">
         <v>1603756800</v>
       </c>
-      <c r="Y423" s="54">
+      <c r="Y423" s="6">
         <v>2552233600</v>
       </c>
-      <c r="Z423" s="54">
+      <c r="Z423" s="6">
         <v>51</v>
       </c>
-      <c r="AG423" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH423" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK423" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="54">
+      <c r="AG423" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH423" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK423" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A424" s="6">
         <v>423</v>
       </c>
-      <c r="B424" s="54">
+      <c r="B424" s="5">
         <v>10340</v>
       </c>
-      <c r="F424" s="54">
-        <v>1</v>
-      </c>
-      <c r="G424" s="54" t="s">
-        <v>1523</v>
-      </c>
-      <c r="H424" s="54" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I424" s="54" t="s">
-        <v>1573</v>
-      </c>
-      <c r="K424" s="54">
+      <c r="F424" s="6">
+        <v>1</v>
+      </c>
+      <c r="G424" s="6" t="s">
+        <v>1594</v>
+      </c>
+      <c r="H424" s="6" t="s">
+        <v>1590</v>
+      </c>
+      <c r="I424" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K424" s="6">
         <v>-31</v>
       </c>
-      <c r="L424" s="54">
-        <v>0</v>
-      </c>
-      <c r="M424" s="54">
-        <v>0</v>
-      </c>
-      <c r="N424" s="54" t="s">
+      <c r="L424" s="6">
+        <v>0</v>
+      </c>
+      <c r="M424" s="6">
+        <v>0</v>
+      </c>
+      <c r="N424" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O424" s="54">
+      <c r="O424" s="6">
         <v>12800</v>
       </c>
-      <c r="P424" s="54" t="s">
-        <v>1579</v>
-      </c>
-      <c r="Q424" s="55" t="s">
-        <v>1576</v>
-      </c>
-      <c r="V424" s="54" t="s">
-        <v>1529</v>
-      </c>
-      <c r="W424" s="54">
+      <c r="P424" s="6" t="s">
+        <v>1601</v>
+      </c>
+      <c r="Q424" s="48" t="s">
+        <v>1595</v>
+      </c>
+      <c r="V424" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="W424" s="6">
         <v>99999999</v>
       </c>
-      <c r="X424" s="54">
+      <c r="X424" s="6">
         <v>1603756800</v>
       </c>
-      <c r="Y424" s="54">
+      <c r="Y424" s="6">
         <v>2552233600</v>
       </c>
-      <c r="Z424" s="54">
+      <c r="Z424" s="6">
         <v>51</v>
       </c>
-      <c r="AG424" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH424" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK424" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="54">
+      <c r="AG424" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH424" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK424" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="6">
         <v>1</v>
       </c>
     </row>
@@ -36638,10 +36737,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -36659,10 +36758,10 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="Q425" s="48" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="V425" s="6" t="s">
         <v>597</v>
@@ -36694,10 +36793,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -36715,10 +36814,10 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="Q426" s="48" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="V426" s="6" t="s">
         <v>597</v>
@@ -36750,10 +36849,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -36771,10 +36870,10 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="Q427" s="48" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="V427" s="6" t="s">
         <v>597</v>
@@ -36806,10 +36905,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -36827,10 +36926,10 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="Q428" s="48" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="V428" s="6" t="s">
         <v>597</v>
@@ -36862,10 +36961,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -36883,10 +36982,10 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="Q429" s="48" t="s">
         <v>1549</v>
-      </c>
-      <c r="Q429" s="48" t="s">
-        <v>1554</v>
       </c>
       <c r="V429" s="6" t="s">
         <v>597</v>
@@ -36918,13 +37017,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -36942,13 +37041,13 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="Q430" s="39" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="V430" s="19" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="W430" s="19">
         <v>9999999</v>
@@ -36986,13 +37085,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -37010,10 +37109,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>551</v>
@@ -37054,13 +37153,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
+        <v>1556</v>
+      </c>
+      <c r="H432" s="19" t="s">
+        <v>1560</v>
+      </c>
+      <c r="I432" s="19" t="s">
         <v>1561</v>
-      </c>
-      <c r="H432" s="19" t="s">
-        <v>1565</v>
-      </c>
-      <c r="I432" s="19" t="s">
-        <v>1566</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -37078,10 +37177,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>551</v>
@@ -37122,13 +37221,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -37146,10 +37245,10 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="Q433" s="39" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>551</v>
@@ -37176,6 +37275,466 @@
         <v>1</v>
       </c>
       <c r="AL433" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="54">
+        <v>433</v>
+      </c>
+      <c r="B434" s="54">
+        <v>10350</v>
+      </c>
+      <c r="F434" s="54">
+        <v>1</v>
+      </c>
+      <c r="G434" s="54" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H434" s="54" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I434" s="54" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K434" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L434" s="54">
+        <v>0</v>
+      </c>
+      <c r="M434" s="54">
+        <v>0</v>
+      </c>
+      <c r="N434" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O434" s="54">
+        <v>1800</v>
+      </c>
+      <c r="P434" s="54" t="s">
+        <v>1605</v>
+      </c>
+      <c r="Q434" s="55" t="s">
+        <v>1581</v>
+      </c>
+      <c r="V434" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="W434" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X434" s="54">
+        <v>1604359800</v>
+      </c>
+      <c r="Y434" s="54">
+        <v>1604937599</v>
+      </c>
+      <c r="AG434" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH434" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK434" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL434" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="54">
+        <v>434</v>
+      </c>
+      <c r="B435" s="54">
+        <v>10351</v>
+      </c>
+      <c r="F435" s="54">
+        <v>1</v>
+      </c>
+      <c r="G435" s="54" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H435" s="54" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I435" s="54" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K435" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L435" s="54">
+        <v>0</v>
+      </c>
+      <c r="M435" s="54">
+        <v>0</v>
+      </c>
+      <c r="N435" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O435" s="54">
+        <v>4800</v>
+      </c>
+      <c r="P435" s="54" t="s">
+        <v>1605</v>
+      </c>
+      <c r="Q435" s="55" t="s">
+        <v>1584</v>
+      </c>
+      <c r="V435" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="W435" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X435" s="54">
+        <v>1604359800</v>
+      </c>
+      <c r="Y435" s="54">
+        <v>1604937599</v>
+      </c>
+      <c r="AG435" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH435" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK435" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL435" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="54">
+        <v>435</v>
+      </c>
+      <c r="B436" s="54">
+        <v>10352</v>
+      </c>
+      <c r="F436" s="54">
+        <v>1</v>
+      </c>
+      <c r="G436" s="54" t="s">
+        <v>1567</v>
+      </c>
+      <c r="H436" s="54" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I436" s="54" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K436" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L436" s="54">
+        <v>0</v>
+      </c>
+      <c r="M436" s="54">
+        <v>0</v>
+      </c>
+      <c r="N436" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O436" s="54">
+        <v>9800</v>
+      </c>
+      <c r="P436" s="54" t="s">
+        <v>1602</v>
+      </c>
+      <c r="Q436" s="55" t="s">
+        <v>1582</v>
+      </c>
+      <c r="V436" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="W436" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X436" s="54">
+        <v>1604359800</v>
+      </c>
+      <c r="Y436" s="54">
+        <v>1604937599</v>
+      </c>
+      <c r="AG436" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH436" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK436" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL436" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="54">
+        <v>436</v>
+      </c>
+      <c r="B437" s="54">
+        <v>10353</v>
+      </c>
+      <c r="F437" s="54">
+        <v>1</v>
+      </c>
+      <c r="G437" s="54" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H437" s="54" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I437" s="54" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K437" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L437" s="54">
+        <v>0</v>
+      </c>
+      <c r="M437" s="54">
+        <v>0</v>
+      </c>
+      <c r="N437" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O437" s="54">
+        <v>19800</v>
+      </c>
+      <c r="P437" s="54" t="s">
+        <v>1603</v>
+      </c>
+      <c r="Q437" s="55" t="s">
+        <v>1585</v>
+      </c>
+      <c r="V437" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="W437" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X437" s="54">
+        <v>1604359800</v>
+      </c>
+      <c r="Y437" s="54">
+        <v>1604937599</v>
+      </c>
+      <c r="AG437" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH437" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK437" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL437" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="54">
+        <v>437</v>
+      </c>
+      <c r="B438" s="54">
+        <v>10354</v>
+      </c>
+      <c r="F438" s="54">
+        <v>1</v>
+      </c>
+      <c r="G438" s="54" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H438" s="54" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I438" s="54" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K438" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L438" s="54">
+        <v>0</v>
+      </c>
+      <c r="M438" s="54">
+        <v>0</v>
+      </c>
+      <c r="N438" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O438" s="54">
+        <v>29800</v>
+      </c>
+      <c r="P438" s="54" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q438" s="55" t="s">
+        <v>1586</v>
+      </c>
+      <c r="V438" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="W438" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X438" s="54">
+        <v>1604359800</v>
+      </c>
+      <c r="Y438" s="54">
+        <v>1604937599</v>
+      </c>
+      <c r="AG438" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH438" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK438" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL438" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="54">
+        <v>438</v>
+      </c>
+      <c r="B439" s="54">
+        <v>10355</v>
+      </c>
+      <c r="F439" s="54">
+        <v>1</v>
+      </c>
+      <c r="G439" s="54" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H439" s="54" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I439" s="54" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K439" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L439" s="54">
+        <v>0</v>
+      </c>
+      <c r="M439" s="54">
+        <v>0</v>
+      </c>
+      <c r="N439" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O439" s="54">
+        <v>49800</v>
+      </c>
+      <c r="P439" s="54" t="s">
+        <v>1606</v>
+      </c>
+      <c r="Q439" s="55" t="s">
+        <v>1587</v>
+      </c>
+      <c r="V439" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="W439" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X439" s="54">
+        <v>1604359800</v>
+      </c>
+      <c r="Y439" s="54">
+        <v>1604937599</v>
+      </c>
+      <c r="AG439" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH439" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK439" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL439" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="54">
+        <v>439</v>
+      </c>
+      <c r="B440" s="54">
+        <v>10356</v>
+      </c>
+      <c r="F440" s="54">
+        <v>1</v>
+      </c>
+      <c r="G440" s="54" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H440" s="54" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I440" s="54" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K440" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L440" s="54">
+        <v>0</v>
+      </c>
+      <c r="M440" s="54">
+        <v>0</v>
+      </c>
+      <c r="N440" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O440" s="54">
+        <v>99800</v>
+      </c>
+      <c r="P440" s="54" t="s">
+        <v>1606</v>
+      </c>
+      <c r="Q440" s="55" t="s">
+        <v>1583</v>
+      </c>
+      <c r="V440" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="W440" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X440" s="54">
+        <v>1604359800</v>
+      </c>
+      <c r="Y440" s="54">
+        <v>1604937599</v>
+      </c>
+      <c r="AG440" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH440" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK440" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL440" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I484" s="6">
         <v>1</v>
       </c>
     </row>
@@ -37192,7 +37751,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37939,7 +38498,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="1633">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6496,10 +6496,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"60万","3000鱼币","抽奖券*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"200万","1万鱼币","抽奖券*4",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6509,10 +6505,6 @@
   </si>
   <si>
     <t>"980万","10万鱼币","抽奖券*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万","200万鱼币","抽奖券*50",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6661,10 +6653,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>600000,3000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7014,15 +7002,131 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>双十一498元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一198元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一98元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一48元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一20元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一6元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万鱼币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000鱼币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万小游戏币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000小游戏币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_11.11_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
   </si>
   <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
@@ -7096,7 +7200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7157,6 +7261,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7200,7 +7310,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7367,6 +7477,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7766,16 +7882,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -9809,10 +9925,10 @@
   <dimension ref="A1:AM484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="L419" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="L421" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P438" sqref="P438"/>
+      <selection pane="bottomRight" activeCell="P424" sqref="P424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14185,7 +14301,7 @@
         <v>246</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -14206,7 +14322,7 @@
         <v>1446</v>
       </c>
       <c r="Q77" s="39" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>548</v>
@@ -14241,7 +14357,7 @@
         <v>247</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -29206,7 +29322,7 @@
         <v>831</v>
       </c>
       <c r="V315" s="5" t="s">
-        <v>627</v>
+        <v>1628</v>
       </c>
       <c r="W315" s="5">
         <v>9999999</v>
@@ -32221,7 +32337,7 @@
         <v>1295</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -33377,7 +33493,7 @@
         <v>1363</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>1358</v>
@@ -34985,7 +35101,7 @@
         <v>9800</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="Q398" s="10" t="s">
         <v>1442</v>
@@ -35608,7 +35724,7 @@
         <v>1483</v>
       </c>
       <c r="I408" s="5" t="s">
-        <v>1489</v>
+        <v>1607</v>
       </c>
       <c r="K408" s="5">
         <v>-31</v>
@@ -35626,13 +35742,13 @@
         <v>600</v>
       </c>
       <c r="P408" s="5" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="Q408" s="10" t="s">
-        <v>1521</v>
+        <v>1625</v>
       </c>
       <c r="V408" s="5" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="W408" s="5">
         <v>99999999</v>
@@ -35673,7 +35789,7 @@
         <v>1484</v>
       </c>
       <c r="I409" s="5" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="K409" s="5">
         <v>-31</v>
@@ -35691,13 +35807,13 @@
         <v>2000</v>
       </c>
       <c r="P409" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="Q409" s="10" t="s">
+        <v>1623</v>
+      </c>
+      <c r="V409" s="5" t="s">
         <v>1495</v>
-      </c>
-      <c r="Q409" s="10" t="s">
-        <v>1444</v>
-      </c>
-      <c r="V409" s="5" t="s">
-        <v>1497</v>
       </c>
       <c r="W409" s="5">
         <v>99999999</v>
@@ -35738,7 +35854,7 @@
         <v>1485</v>
       </c>
       <c r="I410" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="K410" s="5">
         <v>-31</v>
@@ -35756,13 +35872,13 @@
         <v>4800</v>
       </c>
       <c r="P410" s="5" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="Q410" s="10" t="s">
         <v>1443</v>
       </c>
       <c r="V410" s="5" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="W410" s="5">
         <v>99999999</v>
@@ -35803,7 +35919,7 @@
         <v>1486</v>
       </c>
       <c r="I411" s="5" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="K411" s="5">
         <v>-31</v>
@@ -35821,13 +35937,13 @@
         <v>9800</v>
       </c>
       <c r="P411" s="5" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="Q411" s="10" t="s">
-        <v>1442</v>
+        <v>1620</v>
       </c>
       <c r="V411" s="5" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="W411" s="5">
         <v>99999999</v>
@@ -35868,7 +35984,7 @@
         <v>1487</v>
       </c>
       <c r="I412" s="5" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="K412" s="5">
         <v>-31</v>
@@ -35886,13 +36002,13 @@
         <v>19800</v>
       </c>
       <c r="P412" s="5" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="Q412" s="10" t="s">
-        <v>1441</v>
+        <v>1618</v>
       </c>
       <c r="V412" s="5" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="W412" s="5">
         <v>99999999</v>
@@ -35933,7 +36049,7 @@
         <v>1488</v>
       </c>
       <c r="I413" s="5" t="s">
-        <v>1493</v>
+        <v>1606</v>
       </c>
       <c r="K413" s="5">
         <v>-31</v>
@@ -35951,13 +36067,13 @@
         <v>49800</v>
       </c>
       <c r="P413" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="Q413" s="10" t="s">
+        <v>1616</v>
+      </c>
+      <c r="V413" s="5" t="s">
         <v>1495</v>
-      </c>
-      <c r="Q413" s="10" t="s">
-        <v>1440</v>
-      </c>
-      <c r="V413" s="5" t="s">
-        <v>1497</v>
       </c>
       <c r="W413" s="5">
         <v>99999999</v>
@@ -35998,7 +36114,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -36019,10 +36135,10 @@
         <v>459</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="V414" s="5" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="W414" s="14" t="s">
         <v>119</v>
@@ -36057,13 +36173,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="H415" s="6" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -36087,7 +36203,7 @@
         <v>1264</v>
       </c>
       <c r="V415" s="6" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="W415" s="14" t="s">
         <v>119</v>
@@ -36125,13 +36241,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="H416" s="6" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -36152,10 +36268,10 @@
         <v>1272</v>
       </c>
       <c r="Q416" s="48" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="V416" s="6" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>119</v>
@@ -36193,13 +36309,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H417" s="6" t="s">
         <v>1508</v>
       </c>
-      <c r="H417" s="6" t="s">
-        <v>1510</v>
-      </c>
       <c r="I417" s="6" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -36261,13 +36377,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -36288,7 +36404,7 @@
         <v>1274</v>
       </c>
       <c r="Q418" s="48" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="V418" s="6" t="s">
         <v>1280</v>
@@ -36329,13 +36445,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="H419" s="6" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -36356,7 +36472,7 @@
         <v>1275</v>
       </c>
       <c r="Q419" s="48" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="V419" s="6" t="s">
         <v>1280</v>
@@ -36397,13 +36513,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="H420" s="6" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -36424,7 +36540,7 @@
         <v>1276</v>
       </c>
       <c r="Q420" s="48" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="V420" s="6" t="s">
         <v>1280</v>
@@ -36465,10 +36581,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="I421" s="19" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="K421" s="19">
         <v>-31</v>
@@ -36486,13 +36602,13 @@
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="Q421" s="39" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -36507,7 +36623,7 @@
         <v>1177</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -36533,13 +36649,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="H422" s="6" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="I422" s="6" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="K422" s="6">
         <v>-31</v>
@@ -36557,10 +36673,10 @@
         <v>2000</v>
       </c>
       <c r="P422" s="6" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="Q422" s="48" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="V422" s="6" t="s">
         <v>548</v>
@@ -36601,13 +36717,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="H423" s="6" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="I423" s="6" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="K423" s="6">
         <v>-31</v>
@@ -36625,10 +36741,10 @@
         <v>5800</v>
       </c>
       <c r="P423" s="6" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="Q423" s="48" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="V423" s="6" t="s">
         <v>548</v>
@@ -36669,13 +36785,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="H424" s="6" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="K424" s="6">
         <v>-31</v>
@@ -36693,10 +36809,10 @@
         <v>12800</v>
       </c>
       <c r="P424" s="6" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="Q424" s="48" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="V424" s="6" t="s">
         <v>548</v>
@@ -36737,10 +36853,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -36758,10 +36874,10 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="Q425" s="48" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="V425" s="6" t="s">
         <v>597</v>
@@ -36793,10 +36909,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -36814,10 +36930,10 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="Q426" s="48" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="V426" s="6" t="s">
         <v>597</v>
@@ -36849,10 +36965,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -36870,10 +36986,10 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="Q427" s="48" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="V427" s="6" t="s">
         <v>597</v>
@@ -36905,10 +37021,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -36926,10 +37042,10 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="Q428" s="48" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="V428" s="6" t="s">
         <v>597</v>
@@ -36961,10 +37077,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -36982,10 +37098,10 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="Q429" s="48" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="V429" s="6" t="s">
         <v>597</v>
@@ -37017,13 +37133,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -37041,13 +37157,13 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="Q430" s="39" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="V430" s="19" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="W430" s="19">
         <v>9999999</v>
@@ -37085,13 +37201,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -37109,10 +37225,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>551</v>
@@ -37153,13 +37269,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="H432" s="19" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="I432" s="19" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -37177,10 +37293,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>551</v>
@@ -37221,13 +37337,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -37245,10 +37361,10 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="Q433" s="39" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>551</v>
@@ -37289,13 +37405,13 @@
         <v>1</v>
       </c>
       <c r="G434" s="54" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="H434" s="54" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="I434" s="54" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="K434" s="54">
         <v>-31</v>
@@ -37313,10 +37429,10 @@
         <v>1800</v>
       </c>
       <c r="P434" s="54" t="s">
-        <v>1605</v>
+        <v>1630</v>
       </c>
       <c r="Q434" s="55" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="V434" s="54" t="s">
         <v>551</v>
@@ -37354,13 +37470,13 @@
         <v>1</v>
       </c>
       <c r="G435" s="54" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="H435" s="54" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="I435" s="54" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="K435" s="54">
         <v>-31</v>
@@ -37378,10 +37494,10 @@
         <v>4800</v>
       </c>
       <c r="P435" s="54" t="s">
-        <v>1605</v>
+        <v>1630</v>
       </c>
       <c r="Q435" s="55" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="V435" s="54" t="s">
         <v>551</v>
@@ -37419,13 +37535,13 @@
         <v>1</v>
       </c>
       <c r="G436" s="54" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="H436" s="54" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="I436" s="54" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="K436" s="54">
         <v>-31</v>
@@ -37443,10 +37559,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="54" t="s">
-        <v>1602</v>
+        <v>1631</v>
       </c>
       <c r="Q436" s="55" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="V436" s="54" t="s">
         <v>551</v>
@@ -37484,13 +37600,13 @@
         <v>1</v>
       </c>
       <c r="G437" s="54" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="H437" s="54" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="I437" s="54" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="K437" s="54">
         <v>-31</v>
@@ -37508,10 +37624,10 @@
         <v>19800</v>
       </c>
       <c r="P437" s="54" t="s">
-        <v>1603</v>
+        <v>1631</v>
       </c>
       <c r="Q437" s="55" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="V437" s="54" t="s">
         <v>551</v>
@@ -37549,13 +37665,13 @@
         <v>1</v>
       </c>
       <c r="G438" s="54" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="H438" s="54" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="I438" s="54" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="K438" s="54">
         <v>-31</v>
@@ -37573,10 +37689,10 @@
         <v>29800</v>
       </c>
       <c r="P438" s="54" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="Q438" s="55" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="V438" s="54" t="s">
         <v>551</v>
@@ -37614,13 +37730,13 @@
         <v>1</v>
       </c>
       <c r="G439" s="54" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="H439" s="54" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="I439" s="54" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K439" s="54">
         <v>-31</v>
@@ -37638,10 +37754,10 @@
         <v>49800</v>
       </c>
       <c r="P439" s="54" t="s">
-        <v>1606</v>
+        <v>1632</v>
       </c>
       <c r="Q439" s="55" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="V439" s="54" t="s">
         <v>551</v>
@@ -37679,13 +37795,13 @@
         <v>1</v>
       </c>
       <c r="G440" s="54" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="H440" s="54" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="I440" s="54" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K440" s="54">
         <v>-31</v>
@@ -37697,19 +37813,19 @@
         <v>0</v>
       </c>
       <c r="N440" s="54" t="s">
-        <v>111</v>
+        <v>1614</v>
       </c>
       <c r="O440" s="54">
         <v>99800</v>
       </c>
       <c r="P440" s="54" t="s">
-        <v>1606</v>
+        <v>1632</v>
       </c>
       <c r="Q440" s="55" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="V440" s="54" t="s">
-        <v>551</v>
+        <v>1627</v>
       </c>
       <c r="W440" s="54">
         <v>9999999</v>
@@ -37730,6 +37846,378 @@
         <v>1</v>
       </c>
       <c r="AL440" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="56">
+        <v>440</v>
+      </c>
+      <c r="B441" s="56">
+        <v>10357</v>
+      </c>
+      <c r="F441" s="56">
+        <v>1</v>
+      </c>
+      <c r="G441" s="56" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I441" s="56" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K441" s="56">
+        <v>-31</v>
+      </c>
+      <c r="L441" s="56">
+        <v>0</v>
+      </c>
+      <c r="M441" s="56">
+        <v>0</v>
+      </c>
+      <c r="N441" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="O441" s="56">
+        <v>49800</v>
+      </c>
+      <c r="P441" s="56" t="s">
+        <v>1615</v>
+      </c>
+      <c r="Q441" s="57" t="s">
+        <v>1617</v>
+      </c>
+      <c r="V441" s="56" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W441" s="56">
+        <v>9999999</v>
+      </c>
+      <c r="X441" s="56">
+        <v>1604966400</v>
+      </c>
+      <c r="Y441" s="56">
+        <v>1605542399</v>
+      </c>
+      <c r="AG441" s="56">
+        <v>1</v>
+      </c>
+      <c r="AH441" s="56">
+        <v>1</v>
+      </c>
+      <c r="AK441" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL441" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="56">
+        <v>441</v>
+      </c>
+      <c r="B442" s="56">
+        <v>10358</v>
+      </c>
+      <c r="F442" s="56">
+        <v>1</v>
+      </c>
+      <c r="G442" s="56" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I442" s="56" t="s">
+        <v>1609</v>
+      </c>
+      <c r="K442" s="56">
+        <v>-31</v>
+      </c>
+      <c r="L442" s="56">
+        <v>0</v>
+      </c>
+      <c r="M442" s="56">
+        <v>0</v>
+      </c>
+      <c r="N442" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="O442" s="56">
+        <v>19800</v>
+      </c>
+      <c r="P442" s="56" t="s">
+        <v>1615</v>
+      </c>
+      <c r="Q442" s="57" t="s">
+        <v>1619</v>
+      </c>
+      <c r="V442" s="56" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W442" s="56">
+        <v>9999999</v>
+      </c>
+      <c r="X442" s="56">
+        <v>1604966400</v>
+      </c>
+      <c r="Y442" s="56">
+        <v>1605542399</v>
+      </c>
+      <c r="AG442" s="56">
+        <v>1</v>
+      </c>
+      <c r="AH442" s="56">
+        <v>1</v>
+      </c>
+      <c r="AK442" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL442" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="56">
+        <v>442</v>
+      </c>
+      <c r="B443" s="56">
+        <v>10359</v>
+      </c>
+      <c r="F443" s="56">
+        <v>1</v>
+      </c>
+      <c r="G443" s="56" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I443" s="56" t="s">
+        <v>1610</v>
+      </c>
+      <c r="K443" s="56">
+        <v>-31</v>
+      </c>
+      <c r="L443" s="56">
+        <v>0</v>
+      </c>
+      <c r="M443" s="56">
+        <v>0</v>
+      </c>
+      <c r="N443" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="O443" s="56">
+        <v>9800</v>
+      </c>
+      <c r="P443" s="56" t="s">
+        <v>1615</v>
+      </c>
+      <c r="Q443" s="57" t="s">
+        <v>1621</v>
+      </c>
+      <c r="V443" s="56" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W443" s="56">
+        <v>9999999</v>
+      </c>
+      <c r="X443" s="56">
+        <v>1604966400</v>
+      </c>
+      <c r="Y443" s="56">
+        <v>1605542399</v>
+      </c>
+      <c r="AG443" s="56">
+        <v>1</v>
+      </c>
+      <c r="AH443" s="56">
+        <v>1</v>
+      </c>
+      <c r="AK443" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL443" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="56">
+        <v>443</v>
+      </c>
+      <c r="B444" s="56">
+        <v>10360</v>
+      </c>
+      <c r="F444" s="56">
+        <v>1</v>
+      </c>
+      <c r="G444" s="56" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I444" s="56" t="s">
+        <v>1611</v>
+      </c>
+      <c r="K444" s="56">
+        <v>-31</v>
+      </c>
+      <c r="L444" s="56">
+        <v>0</v>
+      </c>
+      <c r="M444" s="56">
+        <v>0</v>
+      </c>
+      <c r="N444" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="O444" s="56">
+        <v>4800</v>
+      </c>
+      <c r="P444" s="56" t="s">
+        <v>1615</v>
+      </c>
+      <c r="Q444" s="57" t="s">
+        <v>1622</v>
+      </c>
+      <c r="V444" s="56" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W444" s="56">
+        <v>9999999</v>
+      </c>
+      <c r="X444" s="56">
+        <v>1604966400</v>
+      </c>
+      <c r="Y444" s="56">
+        <v>1605542399</v>
+      </c>
+      <c r="AG444" s="56">
+        <v>1</v>
+      </c>
+      <c r="AH444" s="56">
+        <v>1</v>
+      </c>
+      <c r="AK444" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL444" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="56">
+        <v>444</v>
+      </c>
+      <c r="B445" s="56">
+        <v>10361</v>
+      </c>
+      <c r="F445" s="56">
+        <v>1</v>
+      </c>
+      <c r="G445" s="56" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I445" s="56" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K445" s="56">
+        <v>-31</v>
+      </c>
+      <c r="L445" s="56">
+        <v>0</v>
+      </c>
+      <c r="M445" s="56">
+        <v>0</v>
+      </c>
+      <c r="N445" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="O445" s="56">
+        <v>2000</v>
+      </c>
+      <c r="P445" s="56" t="s">
+        <v>1615</v>
+      </c>
+      <c r="Q445" s="57" t="s">
+        <v>1624</v>
+      </c>
+      <c r="V445" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="W445" s="56">
+        <v>9999999</v>
+      </c>
+      <c r="X445" s="56">
+        <v>1604966400</v>
+      </c>
+      <c r="Y445" s="56">
+        <v>1605542399</v>
+      </c>
+      <c r="AG445" s="56">
+        <v>1</v>
+      </c>
+      <c r="AH445" s="56">
+        <v>1</v>
+      </c>
+      <c r="AK445" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL445" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="56">
+        <v>445</v>
+      </c>
+      <c r="B446" s="56">
+        <v>10362</v>
+      </c>
+      <c r="F446" s="56">
+        <v>1</v>
+      </c>
+      <c r="G446" s="56" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I446" s="56" t="s">
+        <v>1613</v>
+      </c>
+      <c r="K446" s="56">
+        <v>-31</v>
+      </c>
+      <c r="L446" s="56">
+        <v>0</v>
+      </c>
+      <c r="M446" s="56">
+        <v>0</v>
+      </c>
+      <c r="N446" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="O446" s="56">
+        <v>600</v>
+      </c>
+      <c r="P446" s="56" t="s">
+        <v>1615</v>
+      </c>
+      <c r="Q446" s="57" t="s">
+        <v>1626</v>
+      </c>
+      <c r="V446" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="W446" s="56">
+        <v>9999999</v>
+      </c>
+      <c r="X446" s="56">
+        <v>1604966400</v>
+      </c>
+      <c r="Y446" s="56">
+        <v>1605542399</v>
+      </c>
+      <c r="AG446" s="56">
+        <v>1</v>
+      </c>
+      <c r="AH446" s="56">
+        <v>1</v>
+      </c>
+      <c r="AK446" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL446" s="56">
         <v>1</v>
       </c>
     </row>
@@ -38456,7 +38944,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
@@ -38470,7 +38958,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
@@ -38484,7 +38972,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>
@@ -38498,7 +38986,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1763">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5558,10 +5558,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{next=10259,last=10258,delay_permit_type="next_day",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{next=10262,last=10260,delay_permit_type="next_day",reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6237,18 +6233,6 @@
   </si>
   <si>
     <t>86400,3,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v4" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v8" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7002,6 +6986,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>双十一498元礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7122,14 +7114,502 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>聚划算98元-1</t>
+  </si>
+  <si>
+    <t>聚划算98元-2</t>
+  </si>
+  <si>
+    <t>聚划算98元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算198元-1</t>
+  </si>
+  <si>
+    <t>聚划算198元-2</t>
+  </si>
+  <si>
+    <t>聚划算198元-2(10min)</t>
+  </si>
+  <si>
+    <t>{next=10259,last=10258,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-1</t>
+  </si>
+  <si>
+    <t>聚划算8元-2</t>
+  </si>
+  <si>
+    <t>聚划算8元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算38元-1</t>
+  </si>
+  <si>
+    <t>聚划算38元-2</t>
+  </si>
+  <si>
+    <t>聚划算38元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算498元-1</t>
+  </si>
+  <si>
+    <t>聚划算498元-2</t>
+  </si>
+  <si>
+    <t>聚划算498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算998元-1</t>
+  </si>
+  <si>
+    <t>聚划算998元-2</t>
+  </si>
+  <si>
+    <t>聚划算998元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算2498元-1</t>
+  </si>
+  <si>
+    <t>聚划算2498元-2</t>
+  </si>
+  <si>
+    <t>聚划算2498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算38元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>星耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"680万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币",</t>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币","0.8万",</t>
+  </si>
+  <si>
+    <t>"380万金币","11万金币",</t>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币",</t>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币","3.8万",</t>
+  </si>
+  <si>
+    <t>"980万金币","29万金币",</t>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币",</t>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币","9.8万",</t>
+  </si>
+  <si>
+    <t>"1980万金币","59万金币",</t>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币",</t>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币","19.8万",</t>
+  </si>
+  <si>
+    <t>"4980万金币","149万金币",</t>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币",</t>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币","49.8万",</t>
+  </si>
+  <si>
+    <t>"9980万金币","299万金币",</t>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币",</t>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币","99.8万",</t>
+  </si>
+  <si>
+    <t>"24980万金币","749万金币",</t>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币",</t>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币","249.8万",</t>
+  </si>
+  <si>
+    <t>"80万金币","2.4万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>824000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>848000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>856000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3910000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4028000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4066000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10090000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10388000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20390000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20988000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>21186000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>53286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>102790000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>105788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>106786000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>257290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>264788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>267286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10366,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10363,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10372,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10375,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10378,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10381,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10369,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10368,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10371,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10374,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10377,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10380,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10383,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+  </si>
+  <si>
+    <t>5,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v8" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10486000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7200,7 +7680,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7257,13 +7737,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7310,7 +7808,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7479,11 +7977,47 @@
     <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7882,16 +8416,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -8003,7 +8537,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
@@ -8021,7 +8555,7 @@
         <v>20</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>22</v>
@@ -8113,7 +8647,7 @@
         <v>44</v>
       </c>
       <c r="M2" s="50" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>9</v>
@@ -8196,7 +8730,7 @@
         <v>44</v>
       </c>
       <c r="M3" s="50" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>9</v>
@@ -8279,7 +8813,7 @@
         <v>44</v>
       </c>
       <c r="M4" s="50" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>9</v>
@@ -8778,7 +9312,7 @@
         <v>44</v>
       </c>
       <c r="M10" s="50" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>9</v>
@@ -9107,7 +9641,7 @@
         <v>44</v>
       </c>
       <c r="M14" s="50" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>9</v>
@@ -9269,7 +9803,7 @@
         <v>44</v>
       </c>
       <c r="M16" s="50" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>9</v>
@@ -9488,7 +10022,7 @@
         <v>44</v>
       </c>
       <c r="M19" s="50" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>11</v>
@@ -9634,7 +10168,7 @@
         <v>44</v>
       </c>
       <c r="M21" s="50" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>11</v>
@@ -9780,7 +10314,7 @@
         <v>44</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>11</v>
@@ -9864,7 +10398,7 @@
         <v>44</v>
       </c>
       <c r="M24" s="50" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>9</v>
@@ -9922,13 +10456,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM484"/>
+  <dimension ref="A1:AM476"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="L421" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="P425" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P424" sqref="P424"/>
+      <selection pane="bottomRight" activeCell="P440" sqref="P440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -9940,7 +10474,7 @@
     <col min="5" max="5" width="6.875" style="5" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="6" customWidth="1"/>
     <col min="7" max="7" width="29" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="6" customWidth="1"/>
     <col min="9" max="9" width="63.125" style="6" customWidth="1"/>
     <col min="10" max="10" width="17.75" style="6" customWidth="1"/>
     <col min="11" max="11" width="22" style="6" customWidth="1"/>
@@ -9993,7 +10527,7 @@
         <v>504</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>93</v>
@@ -14301,7 +14835,7 @@
         <v>246</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -14319,10 +14853,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="Q77" s="39" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>548</v>
@@ -14357,7 +14891,7 @@
         <v>247</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -14378,7 +14912,7 @@
         <v>503</v>
       </c>
       <c r="Q78" s="39" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>548</v>
@@ -19980,10 +20514,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H171" s="19" t="s">
         <v>1302</v>
-      </c>
-      <c r="H171" s="19" t="s">
-        <v>1303</v>
       </c>
       <c r="I171" s="19" t="s">
         <v>1089</v>
@@ -20048,10 +20582,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H172" s="19" t="s">
         <v>1304</v>
-      </c>
-      <c r="H172" s="19" t="s">
-        <v>1305</v>
       </c>
       <c r="I172" s="19" t="s">
         <v>1090</v>
@@ -20116,10 +20650,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I173" s="19" t="s">
         <v>1091</v>
@@ -20184,10 +20718,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H174" s="19" t="s">
         <v>1307</v>
-      </c>
-      <c r="H174" s="19" t="s">
-        <v>1308</v>
       </c>
       <c r="I174" s="19" t="s">
         <v>1092</v>
@@ -20252,10 +20786,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I175" s="19" t="s">
         <v>1103</v>
@@ -20320,10 +20854,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I176" s="19" t="s">
         <v>1104</v>
@@ -20388,10 +20922,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I177" s="19" t="s">
         <v>1105</v>
@@ -20412,7 +20946,7 @@
         <v>1800</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="Q177" s="39" t="s">
         <v>779</v>
@@ -20456,10 +20990,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I178" s="19" t="s">
         <v>1106</v>
@@ -20524,10 +21058,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I179" s="19" t="s">
         <v>1107</v>
@@ -20592,10 +21126,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H180" s="19" t="s">
         <v>1314</v>
-      </c>
-      <c r="H180" s="19" t="s">
-        <v>1315</v>
       </c>
       <c r="I180" s="19" t="s">
         <v>1097</v>
@@ -20660,10 +21194,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I181" s="19" t="s">
         <v>1108</v>
@@ -20728,10 +21262,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I182" s="19" t="s">
         <v>1109</v>
@@ -20796,10 +21330,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I183" s="19" t="s">
         <v>1110</v>
@@ -20864,10 +21398,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I184" s="19" t="s">
         <v>1109</v>
@@ -20932,10 +21466,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H185" s="19" t="s">
         <v>1320</v>
-      </c>
-      <c r="H185" s="19" t="s">
-        <v>1321</v>
       </c>
       <c r="I185" s="19" t="s">
         <v>1111</v>
@@ -25374,7 +25908,7 @@
         <v>100</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="Q253" s="10" t="s">
         <v>837</v>
@@ -29322,7 +29856,7 @@
         <v>831</v>
       </c>
       <c r="V315" s="5" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="W315" s="5">
         <v>9999999</v>
@@ -29815,7 +30349,7 @@
       <c r="T323" s="19"/>
       <c r="U323" s="19"/>
       <c r="V323" s="19" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W323" s="19">
         <v>9999999</v>
@@ -31234,7 +31768,7 @@
         <v>1226</v>
       </c>
       <c r="V341" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -31305,7 +31839,7 @@
         <v>1227</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -31376,7 +31910,7 @@
         <v>1228</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -31447,7 +31981,7 @@
         <v>1229</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -31518,7 +32052,7 @@
         <v>1230</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -31589,7 +32123,7 @@
         <v>1231</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -31660,7 +32194,7 @@
         <v>1233</v>
       </c>
       <c r="V347" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -31731,7 +32265,7 @@
         <v>1234</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -31802,7 +32336,7 @@
         <v>1232</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -31873,7 +32407,7 @@
         <v>1235</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -31944,7 +32478,7 @@
         <v>1236</v>
       </c>
       <c r="V351" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -32015,7 +32549,7 @@
         <v>1237</v>
       </c>
       <c r="V352" s="5" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="W352" s="5">
         <v>9999999</v>
@@ -32059,13 +32593,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H353" s="5" t="s">
         <v>1291</v>
       </c>
-      <c r="H353" s="5" t="s">
-        <v>1292</v>
-      </c>
       <c r="I353" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -32077,16 +32611,16 @@
         <v>0</v>
       </c>
       <c r="N353" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="O353" s="5">
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="V353" s="5" t="s">
         <v>562</v>
@@ -32127,13 +32661,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H354" s="5" t="s">
         <v>1293</v>
       </c>
-      <c r="H354" s="5" t="s">
-        <v>1294</v>
-      </c>
       <c r="I354" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -32151,10 +32685,10 @@
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="V354" s="5" t="s">
         <v>562</v>
@@ -32195,13 +32729,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -32219,13 +32753,13 @@
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="V355" s="5" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W355" s="5">
         <v>9999999</v>
@@ -32263,13 +32797,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -32287,13 +32821,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>282</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -32331,13 +32865,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -32355,13 +32889,13 @@
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>282</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -32399,13 +32933,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -32423,13 +32957,13 @@
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>282</v>
       </c>
       <c r="V358" s="5" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W358" s="5">
         <v>9999999</v>
@@ -32467,13 +33001,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -32491,13 +33025,13 @@
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>282</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -32535,13 +33069,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -32559,13 +33093,13 @@
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>282</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -32603,13 +33137,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -32627,13 +33161,13 @@
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>282</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -32671,13 +33205,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -32695,13 +33229,13 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="V362" s="5" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="W362" s="5">
         <v>9999999</v>
@@ -32716,10 +33250,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -32745,13 +33279,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -32769,13 +33303,13 @@
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>282</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -32790,10 +33324,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -32819,13 +33353,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -32843,13 +33377,13 @@
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>282</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -32864,10 +33398,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -32893,10 +33427,10 @@
         <v>0</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -32914,10 +33448,10 @@
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="Q365" s="10" t="s">
         <v>1333</v>
-      </c>
-      <c r="Q365" s="10" t="s">
-        <v>1334</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>595</v>
@@ -32958,10 +33492,10 @@
         <v>0</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -32979,10 +33513,10 @@
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>595</v>
@@ -33023,10 +33557,10 @@
         <v>0</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -33044,10 +33578,10 @@
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="V367" s="5" t="s">
         <v>595</v>
@@ -33088,10 +33622,10 @@
         <v>0</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -33109,10 +33643,10 @@
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>595</v>
@@ -33153,10 +33687,10 @@
         <v>0</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -33174,10 +33708,10 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="V369" s="5" t="s">
         <v>595</v>
@@ -33218,10 +33752,10 @@
         <v>0</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -33239,10 +33773,10 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="Q370" s="10" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V370" s="5" t="s">
         <v>595</v>
@@ -33280,10 +33814,10 @@
         <v>0</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -33301,10 +33835,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>562</v>
@@ -33342,10 +33876,10 @@
         <v>0</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -33363,13 +33897,13 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="Q372" s="10" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="V372" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="W372" s="5">
         <v>9999999</v>
@@ -33404,10 +33938,10 @@
         <v>0</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -33425,10 +33959,10 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="Q373" s="10" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="V373" s="5" t="s">
         <v>564</v>
@@ -33466,10 +34000,10 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H374" s="5" t="s">
         <v>1355</v>
-      </c>
-      <c r="H374" s="5" t="s">
-        <v>1356</v>
       </c>
       <c r="I374" s="5" t="s">
         <v>1121</v>
@@ -33490,13 +34024,13 @@
         <v>600</v>
       </c>
       <c r="P374" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="V374" s="5" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="W374" s="5">
         <v>9999999</v>
@@ -33534,13 +34068,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H375" s="5" t="s">
         <v>1359</v>
       </c>
-      <c r="H375" s="5" t="s">
+      <c r="I375" s="5" t="s">
         <v>1360</v>
-      </c>
-      <c r="I375" s="5" t="s">
-        <v>1361</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -33558,10 +34092,10 @@
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="Q375" s="10" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="V375" s="5" t="s">
         <v>595</v>
@@ -33602,13 +34136,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -33620,19 +34154,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Q376" s="10" t="s">
         <v>795</v>
       </c>
       <c r="V376" s="5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -33670,13 +34204,13 @@
         <v>0</v>
       </c>
       <c r="G377" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H377" s="5" t="s">
         <v>1366</v>
       </c>
-      <c r="H377" s="5" t="s">
-        <v>1367</v>
-      </c>
       <c r="I377" s="5" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="K377" s="5">
         <v>-31</v>
@@ -33688,19 +34222,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Q377" s="10" t="s">
         <v>796</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -33738,13 +34272,13 @@
         <v>0</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H378" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="I378" s="5" t="s">
         <v>1373</v>
-      </c>
-      <c r="I378" s="5" t="s">
-        <v>1374</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -33762,13 +34296,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Q378" s="10" t="s">
         <v>1385</v>
       </c>
-      <c r="Q378" s="10" t="s">
-        <v>1386</v>
-      </c>
       <c r="V378" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -33806,10 +34340,10 @@
         <v>0</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I379" s="5" t="s">
         <v>951</v>
@@ -33824,19 +34358,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Q379" s="10" t="s">
         <v>798</v>
       </c>
       <c r="V379" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="W379" s="5">
         <v>9999999</v>
@@ -33874,10 +34408,10 @@
         <v>0</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I380" s="5" t="s">
         <v>952</v>
@@ -33892,19 +34426,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Q380" s="10" t="s">
         <v>799</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -33942,13 +34476,13 @@
         <v>0</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H381" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I381" s="5" t="s">
         <v>1377</v>
-      </c>
-      <c r="I381" s="5" t="s">
-        <v>1378</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -33966,13 +34500,13 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Q381" s="10" t="s">
         <v>795</v>
       </c>
       <c r="V381" s="5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="W381" s="5">
         <v>9999999</v>
@@ -34010,13 +34544,13 @@
         <v>0</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -34028,19 +34562,19 @@
         <v>0</v>
       </c>
       <c r="N382" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="O382" s="5">
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Q382" s="10" t="s">
         <v>798</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -34078,13 +34612,13 @@
         <v>0</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="K383" s="5">
         <v>-31</v>
@@ -34096,19 +34630,19 @@
         <v>0</v>
       </c>
       <c r="N383" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="O383" s="5">
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Q383" s="10" t="s">
         <v>799</v>
       </c>
       <c r="V383" s="5" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="W383" s="5">
         <v>9999999</v>
@@ -34146,13 +34680,13 @@
         <v>0</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="K384" s="5">
         <v>-31</v>
@@ -34164,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Q384" s="10" t="s">
         <v>802</v>
       </c>
       <c r="V384" s="5" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="W384" s="5">
         <v>9999999</v>
@@ -34214,13 +34748,13 @@
         <v>0</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -34232,19 +34766,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="Q385" s="10" t="s">
         <v>803</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -34271,615 +34805,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="5">
+    <row r="386" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="64">
         <v>385</v>
       </c>
-      <c r="B386" s="5">
+      <c r="B386" s="64">
         <v>10302</v>
       </c>
-      <c r="F386" s="5">
-        <v>1</v>
-      </c>
-      <c r="G386" s="5" t="s">
+      <c r="F386" s="64">
+        <v>1</v>
+      </c>
+      <c r="G386" s="64" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H386" s="64" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I386" s="64" t="s">
+        <v>1393</v>
+      </c>
+      <c r="K386" s="64">
+        <v>-31</v>
+      </c>
+      <c r="L386" s="64">
+        <v>0</v>
+      </c>
+      <c r="M386" s="64">
+        <v>0</v>
+      </c>
+      <c r="N386" s="64" t="s">
+        <v>1402</v>
+      </c>
+      <c r="O386" s="64">
+        <v>1800</v>
+      </c>
+      <c r="P386" s="64" t="s">
+        <v>1403</v>
+      </c>
+      <c r="Q386" s="65" t="s">
+        <v>1412</v>
+      </c>
+      <c r="V386" s="64" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W386" s="64">
+        <v>9999999</v>
+      </c>
+      <c r="X386" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y386" s="64">
+        <v>1606147199</v>
+      </c>
+      <c r="Z386" s="64">
+        <v>44</v>
+      </c>
+      <c r="AG386" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH386" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK386" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="64">
+        <v>386</v>
+      </c>
+      <c r="B387" s="64">
+        <v>10303</v>
+      </c>
+      <c r="F387" s="64">
+        <v>1</v>
+      </c>
+      <c r="G387" s="64" t="s">
         <v>1387</v>
       </c>
-      <c r="H386" s="5" t="s">
+      <c r="H387" s="64" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I387" s="64" t="s">
+        <v>1394</v>
+      </c>
+      <c r="K387" s="64">
+        <v>-31</v>
+      </c>
+      <c r="L387" s="64">
+        <v>0</v>
+      </c>
+      <c r="M387" s="64">
+        <v>0</v>
+      </c>
+      <c r="N387" s="64" t="s">
+        <v>1402</v>
+      </c>
+      <c r="O387" s="64">
+        <v>3000</v>
+      </c>
+      <c r="P387" s="64" t="s">
+        <v>1405</v>
+      </c>
+      <c r="Q387" s="65" t="s">
+        <v>1413</v>
+      </c>
+      <c r="V387" s="64" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W387" s="64">
+        <v>9999999</v>
+      </c>
+      <c r="X387" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y387" s="64">
+        <v>1606147199</v>
+      </c>
+      <c r="Z387" s="64">
+        <v>44</v>
+      </c>
+      <c r="AG387" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH387" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK387" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="64">
+        <v>387</v>
+      </c>
+      <c r="B388" s="64">
+        <v>10304</v>
+      </c>
+      <c r="F388" s="64">
+        <v>1</v>
+      </c>
+      <c r="G388" s="64" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H388" s="64" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I388" s="64" t="s">
+        <v>1395</v>
+      </c>
+      <c r="K388" s="64">
+        <v>-31</v>
+      </c>
+      <c r="L388" s="64">
+        <v>0</v>
+      </c>
+      <c r="M388" s="64">
+        <v>0</v>
+      </c>
+      <c r="N388" s="64" t="s">
+        <v>1402</v>
+      </c>
+      <c r="O388" s="64">
+        <v>4800</v>
+      </c>
+      <c r="P388" s="64" t="s">
+        <v>1406</v>
+      </c>
+      <c r="Q388" s="65" t="s">
+        <v>1414</v>
+      </c>
+      <c r="V388" s="64" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W388" s="64">
+        <v>9999999</v>
+      </c>
+      <c r="X388" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y388" s="64">
+        <v>1606147199</v>
+      </c>
+      <c r="Z388" s="64">
+        <v>44</v>
+      </c>
+      <c r="AG388" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH388" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK388" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="62">
+        <v>388</v>
+      </c>
+      <c r="B389" s="62">
+        <v>10305</v>
+      </c>
+      <c r="F389" s="62">
+        <v>1</v>
+      </c>
+      <c r="G389" s="62" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H389" s="62" t="s">
         <v>1391</v>
       </c>
-      <c r="I386" s="5" t="s">
-        <v>1394</v>
-      </c>
-      <c r="K386" s="5">
+      <c r="I389" s="62" t="s">
+        <v>1396</v>
+      </c>
+      <c r="K389" s="62">
         <v>-31</v>
       </c>
-      <c r="L386" s="5">
-        <v>0</v>
-      </c>
-      <c r="M386" s="5">
-        <v>0</v>
-      </c>
-      <c r="N386" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="O386" s="5">
-        <v>1800</v>
-      </c>
-      <c r="P386" s="5" t="s">
+      <c r="L389" s="62">
+        <v>0</v>
+      </c>
+      <c r="M389" s="62">
+        <v>0</v>
+      </c>
+      <c r="N389" s="62" t="s">
+        <v>1402</v>
+      </c>
+      <c r="O389" s="62">
+        <v>4800</v>
+      </c>
+      <c r="P389" s="62" t="s">
+        <v>1407</v>
+      </c>
+      <c r="Q389" s="63" t="s">
+        <v>1415</v>
+      </c>
+      <c r="V389" s="62" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W389" s="62">
+        <v>9999999</v>
+      </c>
+      <c r="X389" s="62">
+        <v>1605571200</v>
+      </c>
+      <c r="Y389" s="62">
+        <v>1606147199</v>
+      </c>
+      <c r="Z389" s="62">
+        <v>45</v>
+      </c>
+      <c r="AG389" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH389" s="62">
+        <v>1</v>
+      </c>
+      <c r="AK389" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="62">
+        <v>389</v>
+      </c>
+      <c r="B390" s="62">
+        <v>10306</v>
+      </c>
+      <c r="F390" s="62">
+        <v>1</v>
+      </c>
+      <c r="G390" s="62" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H390" s="62" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I390" s="62" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K390" s="62">
+        <v>-31</v>
+      </c>
+      <c r="L390" s="62">
+        <v>0</v>
+      </c>
+      <c r="M390" s="62">
+        <v>0</v>
+      </c>
+      <c r="N390" s="62" t="s">
+        <v>1402</v>
+      </c>
+      <c r="O390" s="62">
+        <v>9800</v>
+      </c>
+      <c r="P390" s="62" t="s">
+        <v>1408</v>
+      </c>
+      <c r="Q390" s="63" t="s">
+        <v>1416</v>
+      </c>
+      <c r="V390" s="62" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W390" s="62">
+        <v>9999999</v>
+      </c>
+      <c r="X390" s="62">
+        <v>1605571200</v>
+      </c>
+      <c r="Y390" s="62">
+        <v>1606147199</v>
+      </c>
+      <c r="Z390" s="62">
+        <v>45</v>
+      </c>
+      <c r="AG390" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH390" s="62">
+        <v>1</v>
+      </c>
+      <c r="AK390" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="62">
+        <v>390</v>
+      </c>
+      <c r="B391" s="62">
+        <v>10307</v>
+      </c>
+      <c r="F391" s="62">
+        <v>1</v>
+      </c>
+      <c r="G391" s="62" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H391" s="62" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I391" s="62" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K391" s="62">
+        <v>-31</v>
+      </c>
+      <c r="L391" s="62">
+        <v>0</v>
+      </c>
+      <c r="M391" s="62">
+        <v>0</v>
+      </c>
+      <c r="N391" s="62" t="s">
+        <v>1402</v>
+      </c>
+      <c r="O391" s="62">
+        <v>19800</v>
+      </c>
+      <c r="P391" s="62" t="s">
+        <v>1409</v>
+      </c>
+      <c r="Q391" s="63" t="s">
+        <v>1417</v>
+      </c>
+      <c r="V391" s="62" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W391" s="62">
+        <v>9999999</v>
+      </c>
+      <c r="X391" s="62">
+        <v>1605571200</v>
+      </c>
+      <c r="Y391" s="62">
+        <v>1606147199</v>
+      </c>
+      <c r="Z391" s="62">
+        <v>45</v>
+      </c>
+      <c r="AG391" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH391" s="62">
+        <v>1</v>
+      </c>
+      <c r="AK391" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="64">
+        <v>391</v>
+      </c>
+      <c r="B392" s="64">
+        <v>10308</v>
+      </c>
+      <c r="F392" s="64">
+        <v>1</v>
+      </c>
+      <c r="G392" s="64" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H392" s="64" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I392" s="64" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K392" s="64">
+        <v>-31</v>
+      </c>
+      <c r="L392" s="64">
+        <v>0</v>
+      </c>
+      <c r="M392" s="64">
+        <v>0</v>
+      </c>
+      <c r="N392" s="64" t="s">
+        <v>1402</v>
+      </c>
+      <c r="O392" s="64">
+        <v>9800</v>
+      </c>
+      <c r="P392" s="64" t="s">
         <v>1404</v>
       </c>
-      <c r="Q386" s="10" t="s">
-        <v>1413</v>
-      </c>
-      <c r="V386" s="5" t="s">
-        <v>1423</v>
-      </c>
-      <c r="W386" s="5">
+      <c r="Q392" s="65" t="s">
+        <v>1418</v>
+      </c>
+      <c r="V392" s="64" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W392" s="64">
         <v>9999999</v>
       </c>
-      <c r="X386" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y386" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z386" s="5">
-        <v>44</v>
-      </c>
-      <c r="AG386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL386" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="5">
-        <v>386</v>
-      </c>
-      <c r="B387" s="5">
-        <v>10303</v>
-      </c>
-      <c r="F387" s="5">
-        <v>1</v>
-      </c>
-      <c r="G387" s="5" t="s">
+      <c r="X392" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y392" s="64">
+        <v>1606147199</v>
+      </c>
+      <c r="Z392" s="64">
+        <v>46</v>
+      </c>
+      <c r="AG392" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH392" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK392" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="64">
+        <v>392</v>
+      </c>
+      <c r="B393" s="64">
+        <v>10309</v>
+      </c>
+      <c r="F393" s="64">
+        <v>1</v>
+      </c>
+      <c r="G393" s="64" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H393" s="64" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I393" s="64" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K393" s="64">
+        <v>-31</v>
+      </c>
+      <c r="L393" s="64">
+        <v>0</v>
+      </c>
+      <c r="M393" s="64">
+        <v>0</v>
+      </c>
+      <c r="N393" s="64" t="s">
+        <v>1402</v>
+      </c>
+      <c r="O393" s="64">
+        <v>19800</v>
+      </c>
+      <c r="P393" s="64" t="s">
+        <v>1410</v>
+      </c>
+      <c r="Q393" s="65" t="s">
+        <v>1420</v>
+      </c>
+      <c r="V393" s="64" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W393" s="64">
+        <v>9999999</v>
+      </c>
+      <c r="X393" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y393" s="64">
+        <v>1606147199</v>
+      </c>
+      <c r="Z393" s="64">
+        <v>46</v>
+      </c>
+      <c r="AG393" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH393" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK393" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="64">
+        <v>393</v>
+      </c>
+      <c r="B394" s="64">
+        <v>10310</v>
+      </c>
+      <c r="F394" s="64">
+        <v>1</v>
+      </c>
+      <c r="G394" s="64" t="s">
         <v>1388</v>
       </c>
-      <c r="H387" s="5" t="s">
-        <v>1391</v>
-      </c>
-      <c r="I387" s="5" t="s">
-        <v>1395</v>
-      </c>
-      <c r="K387" s="5">
+      <c r="H394" s="64" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I394" s="64" t="s">
+        <v>1401</v>
+      </c>
+      <c r="K394" s="64">
         <v>-31</v>
       </c>
-      <c r="L387" s="5">
-        <v>0</v>
-      </c>
-      <c r="M387" s="5">
-        <v>0</v>
-      </c>
-      <c r="N387" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="O387" s="5">
-        <v>3000</v>
-      </c>
-      <c r="P387" s="5" t="s">
-        <v>1406</v>
-      </c>
-      <c r="Q387" s="10" t="s">
-        <v>1414</v>
-      </c>
-      <c r="V387" s="5" t="s">
-        <v>1423</v>
-      </c>
-      <c r="W387" s="5">
+      <c r="L394" s="64">
+        <v>0</v>
+      </c>
+      <c r="M394" s="64">
+        <v>0</v>
+      </c>
+      <c r="N394" s="64" t="s">
+        <v>1402</v>
+      </c>
+      <c r="O394" s="64">
+        <v>49800</v>
+      </c>
+      <c r="P394" s="64" t="s">
+        <v>1411</v>
+      </c>
+      <c r="Q394" s="65" t="s">
+        <v>1419</v>
+      </c>
+      <c r="V394" s="64" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W394" s="64">
         <v>9999999</v>
       </c>
-      <c r="X387" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y387" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z387" s="5">
-        <v>44</v>
-      </c>
-      <c r="AG387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL387" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="5">
-        <v>387</v>
-      </c>
-      <c r="B388" s="5">
-        <v>10304</v>
-      </c>
-      <c r="F388" s="5">
-        <v>1</v>
-      </c>
-      <c r="G388" s="5" t="s">
-        <v>1389</v>
-      </c>
-      <c r="H388" s="5" t="s">
-        <v>1391</v>
-      </c>
-      <c r="I388" s="5" t="s">
-        <v>1396</v>
-      </c>
-      <c r="K388" s="5">
-        <v>-31</v>
-      </c>
-      <c r="L388" s="5">
-        <v>0</v>
-      </c>
-      <c r="M388" s="5">
-        <v>0</v>
-      </c>
-      <c r="N388" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="O388" s="5">
-        <v>4800</v>
-      </c>
-      <c r="P388" s="5" t="s">
-        <v>1407</v>
-      </c>
-      <c r="Q388" s="10" t="s">
-        <v>1415</v>
-      </c>
-      <c r="V388" s="5" t="s">
-        <v>1423</v>
-      </c>
-      <c r="W388" s="5">
-        <v>9999999</v>
-      </c>
-      <c r="X388" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y388" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z388" s="5">
-        <v>44</v>
-      </c>
-      <c r="AG388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL388" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="5">
-        <v>388</v>
-      </c>
-      <c r="B389" s="5">
-        <v>10305</v>
-      </c>
-      <c r="F389" s="5">
-        <v>1</v>
-      </c>
-      <c r="G389" s="5" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H389" s="5" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I389" s="5" t="s">
-        <v>1397</v>
-      </c>
-      <c r="K389" s="5">
-        <v>-31</v>
-      </c>
-      <c r="L389" s="5">
-        <v>0</v>
-      </c>
-      <c r="M389" s="5">
-        <v>0</v>
-      </c>
-      <c r="N389" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="O389" s="5">
-        <v>4800</v>
-      </c>
-      <c r="P389" s="5" t="s">
-        <v>1408</v>
-      </c>
-      <c r="Q389" s="10" t="s">
-        <v>1416</v>
-      </c>
-      <c r="V389" s="5" t="s">
-        <v>1423</v>
-      </c>
-      <c r="W389" s="5">
-        <v>9999999</v>
-      </c>
-      <c r="X389" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y389" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z389" s="5">
-        <v>45</v>
-      </c>
-      <c r="AG389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL389" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="5">
-        <v>389</v>
-      </c>
-      <c r="B390" s="5">
-        <v>10306</v>
-      </c>
-      <c r="F390" s="5">
-        <v>1</v>
-      </c>
-      <c r="G390" s="5" t="s">
-        <v>1388</v>
-      </c>
-      <c r="H390" s="5" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I390" s="5" t="s">
-        <v>1398</v>
-      </c>
-      <c r="K390" s="5">
-        <v>-31</v>
-      </c>
-      <c r="L390" s="5">
-        <v>0</v>
-      </c>
-      <c r="M390" s="5">
-        <v>0</v>
-      </c>
-      <c r="N390" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="O390" s="5">
-        <v>9800</v>
-      </c>
-      <c r="P390" s="5" t="s">
-        <v>1409</v>
-      </c>
-      <c r="Q390" s="10" t="s">
-        <v>1417</v>
-      </c>
-      <c r="V390" s="5" t="s">
-        <v>1423</v>
-      </c>
-      <c r="W390" s="5">
-        <v>9999999</v>
-      </c>
-      <c r="X390" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y390" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z390" s="5">
-        <v>45</v>
-      </c>
-      <c r="AG390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL390" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="5">
-        <v>390</v>
-      </c>
-      <c r="B391" s="5">
-        <v>10307</v>
-      </c>
-      <c r="F391" s="5">
-        <v>1</v>
-      </c>
-      <c r="G391" s="5" t="s">
-        <v>1389</v>
-      </c>
-      <c r="H391" s="5" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I391" s="5" t="s">
-        <v>1399</v>
-      </c>
-      <c r="K391" s="5">
-        <v>-31</v>
-      </c>
-      <c r="L391" s="5">
-        <v>0</v>
-      </c>
-      <c r="M391" s="5">
-        <v>0</v>
-      </c>
-      <c r="N391" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="O391" s="5">
-        <v>19800</v>
-      </c>
-      <c r="P391" s="5" t="s">
-        <v>1410</v>
-      </c>
-      <c r="Q391" s="10" t="s">
-        <v>1418</v>
-      </c>
-      <c r="V391" s="5" t="s">
-        <v>1423</v>
-      </c>
-      <c r="W391" s="5">
-        <v>9999999</v>
-      </c>
-      <c r="X391" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y391" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z391" s="5">
-        <v>45</v>
-      </c>
-      <c r="AG391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL391" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="5">
-        <v>391</v>
-      </c>
-      <c r="B392" s="5">
-        <v>10308</v>
-      </c>
-      <c r="F392" s="5">
-        <v>1</v>
-      </c>
-      <c r="G392" s="5" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H392" s="5" t="s">
-        <v>1393</v>
-      </c>
-      <c r="I392" s="5" t="s">
-        <v>1400</v>
-      </c>
-      <c r="K392" s="5">
-        <v>-31</v>
-      </c>
-      <c r="L392" s="5">
-        <v>0</v>
-      </c>
-      <c r="M392" s="5">
-        <v>0</v>
-      </c>
-      <c r="N392" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="O392" s="5">
-        <v>9800</v>
-      </c>
-      <c r="P392" s="5" t="s">
-        <v>1405</v>
-      </c>
-      <c r="Q392" s="10" t="s">
-        <v>1419</v>
-      </c>
-      <c r="V392" s="5" t="s">
-        <v>1423</v>
-      </c>
-      <c r="W392" s="5">
-        <v>9999999</v>
-      </c>
-      <c r="X392" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y392" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z392" s="5">
+      <c r="X394" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y394" s="64">
+        <v>1606147199</v>
+      </c>
+      <c r="Z394" s="64">
         <v>46</v>
       </c>
-      <c r="AG392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL392" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="5">
-        <v>392</v>
-      </c>
-      <c r="B393" s="5">
-        <v>10309</v>
-      </c>
-      <c r="F393" s="5">
-        <v>1</v>
-      </c>
-      <c r="G393" s="5" t="s">
-        <v>1388</v>
-      </c>
-      <c r="H393" s="5" t="s">
-        <v>1393</v>
-      </c>
-      <c r="I393" s="5" t="s">
-        <v>1401</v>
-      </c>
-      <c r="K393" s="5">
-        <v>-31</v>
-      </c>
-      <c r="L393" s="5">
-        <v>0</v>
-      </c>
-      <c r="M393" s="5">
-        <v>0</v>
-      </c>
-      <c r="N393" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="O393" s="5">
-        <v>19800</v>
-      </c>
-      <c r="P393" s="5" t="s">
-        <v>1411</v>
-      </c>
-      <c r="Q393" s="10" t="s">
-        <v>1421</v>
-      </c>
-      <c r="V393" s="5" t="s">
-        <v>1423</v>
-      </c>
-      <c r="W393" s="5">
-        <v>9999999</v>
-      </c>
-      <c r="X393" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y393" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z393" s="5">
-        <v>46</v>
-      </c>
-      <c r="AG393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL393" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="5">
-        <v>393</v>
-      </c>
-      <c r="B394" s="5">
-        <v>10310</v>
-      </c>
-      <c r="F394" s="5">
-        <v>1</v>
-      </c>
-      <c r="G394" s="5" t="s">
-        <v>1389</v>
-      </c>
-      <c r="H394" s="5" t="s">
-        <v>1393</v>
-      </c>
-      <c r="I394" s="5" t="s">
-        <v>1402</v>
-      </c>
-      <c r="K394" s="5">
-        <v>-31</v>
-      </c>
-      <c r="L394" s="5">
-        <v>0</v>
-      </c>
-      <c r="M394" s="5">
-        <v>0</v>
-      </c>
-      <c r="N394" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="O394" s="5">
-        <v>49800</v>
-      </c>
-      <c r="P394" s="5" t="s">
-        <v>1412</v>
-      </c>
-      <c r="Q394" s="10" t="s">
-        <v>1420</v>
-      </c>
-      <c r="V394" s="5" t="s">
-        <v>1423</v>
-      </c>
-      <c r="W394" s="5">
-        <v>9999999</v>
-      </c>
-      <c r="X394" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y394" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z394" s="5">
-        <v>46</v>
-      </c>
-      <c r="AG394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL394" s="5">
+      <c r="AG394" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH394" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK394" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="64">
         <v>1</v>
       </c>
     </row>
@@ -34894,10 +35428,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I395" s="5" t="s">
         <v>1427</v>
-      </c>
-      <c r="I395" s="5" t="s">
-        <v>1431</v>
       </c>
       <c r="K395" s="5">
         <v>-31</v>
@@ -34915,10 +35449,10 @@
         <v>600</v>
       </c>
       <c r="P395" s="5" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="Q395" s="10" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="V395" s="5" t="s">
         <v>551</v>
@@ -34956,10 +35490,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I396" s="5" t="s">
         <v>1428</v>
-      </c>
-      <c r="I396" s="5" t="s">
-        <v>1432</v>
       </c>
       <c r="K396" s="5">
         <v>-31</v>
@@ -34977,10 +35511,10 @@
         <v>2000</v>
       </c>
       <c r="P396" s="5" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="Q396" s="10" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="V396" s="5" t="s">
         <v>551</v>
@@ -35021,7 +35555,7 @@
         <v>299</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="K397" s="5">
         <v>-31</v>
@@ -35039,10 +35573,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="5" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="Q397" s="10" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="V397" s="5" t="s">
         <v>551</v>
@@ -35083,7 +35617,7 @@
         <v>302</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="K398" s="5">
         <v>-31</v>
@@ -35101,10 +35635,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="Q398" s="10" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="V398" s="5" t="s">
         <v>551</v>
@@ -35142,10 +35676,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="K399" s="5">
         <v>-31</v>
@@ -35163,10 +35697,10 @@
         <v>19800</v>
       </c>
       <c r="P399" s="5" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="Q399" s="10" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="V399" s="5" t="s">
         <v>551</v>
@@ -35204,10 +35738,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="I400" s="5" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="K400" s="5">
         <v>-31</v>
@@ -35225,10 +35759,10 @@
         <v>49800</v>
       </c>
       <c r="P400" s="5" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="Q400" s="10" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="V400" s="5" t="s">
         <v>551</v>
@@ -35266,10 +35800,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="K401" s="5">
         <v>-31</v>
@@ -35281,19 +35815,19 @@
         <v>0</v>
       </c>
       <c r="N401" s="5" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="O401" s="5">
         <v>1800</v>
       </c>
       <c r="P401" s="5" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="Q401" s="5" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="V401" s="5" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="W401" s="5">
         <v>99999999</v>
@@ -35331,10 +35865,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="K402" s="5">
         <v>-31</v>
@@ -35346,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="5" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="O402" s="5">
         <v>4800</v>
       </c>
       <c r="P402" s="5" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="V402" s="5" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="W402" s="5">
         <v>99999999</v>
@@ -35396,10 +35930,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="I403" s="5" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="K403" s="5">
         <v>-31</v>
@@ -35411,19 +35945,19 @@
         <v>0</v>
       </c>
       <c r="N403" s="5" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="O403" s="5">
         <v>9800</v>
       </c>
       <c r="P403" s="5" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="V403" s="5" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="W403" s="5">
         <v>99999999</v>
@@ -35461,10 +35995,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="I404" s="5" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="K404" s="5">
         <v>-31</v>
@@ -35476,19 +36010,19 @@
         <v>0</v>
       </c>
       <c r="N404" s="5" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="O404" s="5">
         <v>19800</v>
       </c>
       <c r="P404" s="5" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="V404" s="5" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="W404" s="5">
         <v>99999999</v>
@@ -35526,10 +36060,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="K405" s="5">
         <v>-31</v>
@@ -35541,19 +36075,19 @@
         <v>0</v>
       </c>
       <c r="N405" s="5" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="O405" s="5">
         <v>29800</v>
       </c>
       <c r="P405" s="5" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="V405" s="5" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="W405" s="5">
         <v>99999999</v>
@@ -35591,10 +36125,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="I406" s="5" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="K406" s="5">
         <v>-31</v>
@@ -35606,19 +36140,19 @@
         <v>0</v>
       </c>
       <c r="N406" s="5" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="O406" s="5">
         <v>49800</v>
       </c>
       <c r="P406" s="5" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="Q406" s="5" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="V406" s="5" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="W406" s="5">
         <v>99999999</v>
@@ -35656,10 +36190,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="I407" s="5" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K407" s="5">
         <v>-31</v>
@@ -35671,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="5" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="O407" s="5">
         <v>99800</v>
       </c>
       <c r="P407" s="5" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="V407" s="5" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="W407" s="5">
         <v>99999999</v>
@@ -35721,10 +36255,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="5" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="I408" s="5" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K408" s="5">
         <v>-31</v>
@@ -35742,13 +36276,13 @@
         <v>600</v>
       </c>
       <c r="P408" s="5" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="Q408" s="10" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="V408" s="5" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="W408" s="5">
         <v>99999999</v>
@@ -35786,10 +36320,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="5" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="I409" s="5" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="K409" s="5">
         <v>-31</v>
@@ -35807,13 +36341,13 @@
         <v>2000</v>
       </c>
       <c r="P409" s="5" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="Q409" s="10" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="V409" s="5" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="W409" s="5">
         <v>99999999</v>
@@ -35851,10 +36385,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="5" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="I410" s="5" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="K410" s="5">
         <v>-31</v>
@@ -35872,13 +36406,13 @@
         <v>4800</v>
       </c>
       <c r="P410" s="5" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="Q410" s="10" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="V410" s="5" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="W410" s="5">
         <v>99999999</v>
@@ -35916,10 +36450,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="5" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="I411" s="5" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="K411" s="5">
         <v>-31</v>
@@ -35937,13 +36471,13 @@
         <v>9800</v>
       </c>
       <c r="P411" s="5" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="Q411" s="10" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="V411" s="5" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="W411" s="5">
         <v>99999999</v>
@@ -35981,10 +36515,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="5" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="I412" s="5" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="K412" s="5">
         <v>-31</v>
@@ -36002,13 +36536,13 @@
         <v>19800</v>
       </c>
       <c r="P412" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="Q412" s="10" t="s">
+        <v>1616</v>
+      </c>
+      <c r="V412" s="5" t="s">
         <v>1493</v>
-      </c>
-      <c r="Q412" s="10" t="s">
-        <v>1618</v>
-      </c>
-      <c r="V412" s="5" t="s">
-        <v>1497</v>
       </c>
       <c r="W412" s="5">
         <v>99999999</v>
@@ -36046,10 +36580,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="5" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="I413" s="5" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K413" s="5">
         <v>-31</v>
@@ -36067,13 +36601,13 @@
         <v>49800</v>
       </c>
       <c r="P413" s="5" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="Q413" s="10" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="V413" s="5" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="W413" s="5">
         <v>99999999</v>
@@ -36114,7 +36648,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -36135,10 +36669,10 @@
         <v>459</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="V414" s="5" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="W414" s="14" t="s">
         <v>119</v>
@@ -36173,13 +36707,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="H415" s="6" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -36197,13 +36731,13 @@
         <v>600</v>
       </c>
       <c r="P415" s="5" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q415" s="48" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="V415" s="6" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="W415" s="14" t="s">
         <v>119</v>
@@ -36241,13 +36775,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="H416" s="6" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -36265,13 +36799,13 @@
         <v>1800</v>
       </c>
       <c r="P416" s="5" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q416" s="48" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="V416" s="6" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>119</v>
@@ -36309,13 +36843,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="H417" s="6" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -36333,13 +36867,13 @@
         <v>4800</v>
       </c>
       <c r="P417" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q417" s="48" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="V417" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="W417" s="14" t="s">
         <v>119</v>
@@ -36377,13 +36911,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -36401,13 +36935,13 @@
         <v>9800</v>
       </c>
       <c r="P418" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Q418" s="48" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="V418" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="W418" s="14" t="s">
         <v>119</v>
@@ -36445,13 +36979,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H419" s="6" t="s">
         <v>1505</v>
       </c>
-      <c r="H419" s="6" t="s">
-        <v>1509</v>
-      </c>
       <c r="I419" s="6" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -36469,13 +37003,13 @@
         <v>19800</v>
       </c>
       <c r="P419" s="5" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Q419" s="48" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="V419" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="W419" s="14" t="s">
         <v>119</v>
@@ -36513,13 +37047,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="H420" s="6" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -36537,13 +37071,13 @@
         <v>49800</v>
       </c>
       <c r="P420" s="5" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q420" s="48" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="V420" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="W420" s="14" t="s">
         <v>119</v>
@@ -36581,10 +37115,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="I421" s="19" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="K421" s="19">
         <v>-31</v>
@@ -36602,13 +37136,13 @@
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="Q421" s="39" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -36623,7 +37157,7 @@
         <v>1177</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -36649,13 +37183,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="6" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="H422" s="6" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="I422" s="6" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="K422" s="6">
         <v>-31</v>
@@ -36673,10 +37207,10 @@
         <v>2000</v>
       </c>
       <c r="P422" s="6" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="Q422" s="48" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="V422" s="6" t="s">
         <v>548</v>
@@ -36717,13 +37251,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="6" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="H423" s="6" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="I423" s="6" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="K423" s="6">
         <v>-31</v>
@@ -36741,10 +37275,10 @@
         <v>5800</v>
       </c>
       <c r="P423" s="6" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="Q423" s="48" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="V423" s="6" t="s">
         <v>548</v>
@@ -36785,13 +37319,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="6" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H424" s="6" t="s">
+        <v>1583</v>
+      </c>
+      <c r="I424" s="6" t="s">
         <v>1591</v>
-      </c>
-      <c r="H424" s="6" t="s">
-        <v>1587</v>
-      </c>
-      <c r="I424" s="6" t="s">
-        <v>1595</v>
       </c>
       <c r="K424" s="6">
         <v>-31</v>
@@ -36809,10 +37343,10 @@
         <v>12800</v>
       </c>
       <c r="P424" s="6" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="Q424" s="48" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="V424" s="6" t="s">
         <v>548</v>
@@ -36853,10 +37387,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -36874,10 +37408,10 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="Q425" s="48" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="V425" s="6" t="s">
         <v>597</v>
@@ -36909,10 +37443,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -36930,10 +37464,10 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="Q426" s="48" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="V426" s="6" t="s">
         <v>597</v>
@@ -36965,10 +37499,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -36986,10 +37520,10 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="Q427" s="48" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="V427" s="6" t="s">
         <v>597</v>
@@ -37021,10 +37555,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -37042,10 +37576,10 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="Q428" s="48" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="V428" s="6" t="s">
         <v>597</v>
@@ -37077,10 +37611,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -37098,10 +37632,10 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="Q429" s="48" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="V429" s="6" t="s">
         <v>597</v>
@@ -37133,13 +37667,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -37157,13 +37691,13 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="Q430" s="39" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="V430" s="19" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="W430" s="19">
         <v>9999999</v>
@@ -37201,13 +37735,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -37225,10 +37759,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>551</v>
@@ -37269,13 +37803,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H432" s="19" t="s">
         <v>1553</v>
       </c>
-      <c r="H432" s="19" t="s">
-        <v>1557</v>
-      </c>
       <c r="I432" s="19" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -37293,10 +37827,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>551</v>
@@ -37337,13 +37871,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -37361,10 +37895,10 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1550</v>
+        <v>1671</v>
       </c>
       <c r="Q433" s="39" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>551</v>
@@ -37394,837 +37928,2762 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A434" s="54">
+    <row r="434" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
         <v>433</v>
       </c>
-      <c r="B434" s="54">
+      <c r="B434" s="5">
         <v>10350</v>
       </c>
-      <c r="F434" s="54">
-        <v>1</v>
-      </c>
-      <c r="G434" s="54" t="s">
+      <c r="F434" s="5">
+        <v>1</v>
+      </c>
+      <c r="G434" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="H434" s="5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I434" s="5" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K434" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L434" s="5">
+        <v>0</v>
+      </c>
+      <c r="M434" s="5">
+        <v>0</v>
+      </c>
+      <c r="N434" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O434" s="5">
+        <v>1800</v>
+      </c>
+      <c r="P434" s="5" t="s">
+        <v>1761</v>
+      </c>
+      <c r="Q434" s="10" t="s">
+        <v>1574</v>
+      </c>
+      <c r="V434" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W434" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X434" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y434" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG434" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH434" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK434" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL434" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>434</v>
+      </c>
+      <c r="B435" s="5">
+        <v>10351</v>
+      </c>
+      <c r="F435" s="5">
+        <v>1</v>
+      </c>
+      <c r="G435" s="5" t="s">
+        <v>1561</v>
+      </c>
+      <c r="H435" s="5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I435" s="5" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K435" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L435" s="5">
+        <v>0</v>
+      </c>
+      <c r="M435" s="5">
+        <v>0</v>
+      </c>
+      <c r="N435" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O435" s="5">
+        <v>4800</v>
+      </c>
+      <c r="P435" s="5" t="s">
+        <v>1761</v>
+      </c>
+      <c r="Q435" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="V435" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W435" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X435" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y435" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG435" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH435" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK435" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL435" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>435</v>
+      </c>
+      <c r="B436" s="5">
+        <v>10352</v>
+      </c>
+      <c r="F436" s="5">
+        <v>1</v>
+      </c>
+      <c r="G436" s="5" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H436" s="5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I436" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K436" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L436" s="5">
+        <v>0</v>
+      </c>
+      <c r="M436" s="5">
+        <v>0</v>
+      </c>
+      <c r="N436" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O436" s="5">
+        <v>9800</v>
+      </c>
+      <c r="P436" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="Q436" s="10" t="s">
+        <v>1575</v>
+      </c>
+      <c r="V436" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W436" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X436" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y436" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG436" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH436" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK436" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL436" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>436</v>
+      </c>
+      <c r="B437" s="5">
+        <v>10353</v>
+      </c>
+      <c r="F437" s="5">
+        <v>1</v>
+      </c>
+      <c r="G437" s="5" t="s">
+        <v>1562</v>
+      </c>
+      <c r="H437" s="5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I437" s="5" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K437" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L437" s="5">
+        <v>0</v>
+      </c>
+      <c r="M437" s="5">
+        <v>0</v>
+      </c>
+      <c r="N437" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O437" s="5">
+        <v>19800</v>
+      </c>
+      <c r="P437" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="Q437" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="V437" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W437" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X437" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y437" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG437" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH437" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK437" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL437" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>437</v>
+      </c>
+      <c r="B438" s="5">
+        <v>10354</v>
+      </c>
+      <c r="F438" s="5">
+        <v>1</v>
+      </c>
+      <c r="G438" s="5" t="s">
         <v>1563</v>
       </c>
-      <c r="H434" s="54" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I434" s="54" t="s">
+      <c r="H438" s="5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I438" s="5" t="s">
         <v>1571</v>
       </c>
-      <c r="K434" s="54">
+      <c r="K438" s="5">
         <v>-31</v>
       </c>
-      <c r="L434" s="54">
-        <v>0</v>
-      </c>
-      <c r="M434" s="54">
-        <v>0</v>
-      </c>
-      <c r="N434" s="54" t="s">
+      <c r="L438" s="5">
+        <v>0</v>
+      </c>
+      <c r="M438" s="5">
+        <v>0</v>
+      </c>
+      <c r="N438" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O434" s="54">
-        <v>1800</v>
-      </c>
-      <c r="P434" s="54" t="s">
+      <c r="O438" s="5">
+        <v>29800</v>
+      </c>
+      <c r="P438" s="5" t="s">
+        <v>1597</v>
+      </c>
+      <c r="Q438" s="10" t="s">
+        <v>1579</v>
+      </c>
+      <c r="V438" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W438" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X438" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y438" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG438" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH438" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK438" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL438" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>438</v>
+      </c>
+      <c r="B439" s="5">
+        <v>10355</v>
+      </c>
+      <c r="F439" s="5">
+        <v>1</v>
+      </c>
+      <c r="G439" s="5" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H439" s="5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I439" s="5" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K439" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L439" s="5">
+        <v>0</v>
+      </c>
+      <c r="M439" s="5">
+        <v>0</v>
+      </c>
+      <c r="N439" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O439" s="5">
+        <v>49800</v>
+      </c>
+      <c r="P439" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="Q439" s="10" t="s">
+        <v>1580</v>
+      </c>
+      <c r="V439" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W439" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X439" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y439" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG439" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH439" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK439" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL439" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>439</v>
+      </c>
+      <c r="B440" s="5">
+        <v>10356</v>
+      </c>
+      <c r="F440" s="5">
+        <v>1</v>
+      </c>
+      <c r="G440" s="5" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H440" s="5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I440" s="5" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K440" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L440" s="5">
+        <v>0</v>
+      </c>
+      <c r="M440" s="5">
+        <v>0</v>
+      </c>
+      <c r="N440" s="5" t="s">
+        <v>1612</v>
+      </c>
+      <c r="O440" s="5">
+        <v>99800</v>
+      </c>
+      <c r="P440" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="Q440" s="10" t="s">
+        <v>1576</v>
+      </c>
+      <c r="V440" s="5" t="s">
+        <v>1692</v>
+      </c>
+      <c r="W440" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X440" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y440" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG440" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH440" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK440" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL440" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>440</v>
+      </c>
+      <c r="B441" s="5">
+        <v>10357</v>
+      </c>
+      <c r="F441" s="5">
+        <v>1</v>
+      </c>
+      <c r="G441" s="5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="I441" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="K441" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L441" s="5">
+        <v>0</v>
+      </c>
+      <c r="M441" s="5">
+        <v>0</v>
+      </c>
+      <c r="N441" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O441" s="5">
+        <v>49800</v>
+      </c>
+      <c r="P441" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="Q441" s="10" t="s">
+        <v>1615</v>
+      </c>
+      <c r="V441" s="5" t="s">
+        <v>1627</v>
+      </c>
+      <c r="W441" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X441" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y441" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG441" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH441" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK441" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL441" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>441</v>
+      </c>
+      <c r="B442" s="5">
+        <v>10358</v>
+      </c>
+      <c r="F442" s="5">
+        <v>1</v>
+      </c>
+      <c r="G442" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I442" s="5" t="s">
+        <v>1607</v>
+      </c>
+      <c r="K442" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L442" s="5">
+        <v>0</v>
+      </c>
+      <c r="M442" s="5">
+        <v>0</v>
+      </c>
+      <c r="N442" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O442" s="5">
+        <v>19800</v>
+      </c>
+      <c r="P442" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="Q442" s="10" t="s">
+        <v>1617</v>
+      </c>
+      <c r="V442" s="5" t="s">
+        <v>1627</v>
+      </c>
+      <c r="W442" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X442" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y442" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG442" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH442" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK442" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL442" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>442</v>
+      </c>
+      <c r="B443" s="5">
+        <v>10359</v>
+      </c>
+      <c r="F443" s="5">
+        <v>1</v>
+      </c>
+      <c r="G443" s="5" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I443" s="5" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K443" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L443" s="5">
+        <v>0</v>
+      </c>
+      <c r="M443" s="5">
+        <v>0</v>
+      </c>
+      <c r="N443" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O443" s="5">
+        <v>9800</v>
+      </c>
+      <c r="P443" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="Q443" s="10" t="s">
+        <v>1619</v>
+      </c>
+      <c r="V443" s="5" t="s">
+        <v>1627</v>
+      </c>
+      <c r="W443" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X443" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y443" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG443" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH443" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK443" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL443" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>443</v>
+      </c>
+      <c r="B444" s="5">
+        <v>10360</v>
+      </c>
+      <c r="F444" s="5">
+        <v>1</v>
+      </c>
+      <c r="G444" s="5" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I444" s="5" t="s">
+        <v>1609</v>
+      </c>
+      <c r="K444" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L444" s="5">
+        <v>0</v>
+      </c>
+      <c r="M444" s="5">
+        <v>0</v>
+      </c>
+      <c r="N444" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O444" s="5">
+        <v>4800</v>
+      </c>
+      <c r="P444" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="Q444" s="10" t="s">
+        <v>1620</v>
+      </c>
+      <c r="V444" s="5" t="s">
+        <v>1627</v>
+      </c>
+      <c r="W444" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X444" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y444" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG444" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH444" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK444" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL444" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>444</v>
+      </c>
+      <c r="B445" s="5">
+        <v>10361</v>
+      </c>
+      <c r="F445" s="5">
+        <v>1</v>
+      </c>
+      <c r="G445" s="5" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I445" s="5" t="s">
+        <v>1610</v>
+      </c>
+      <c r="K445" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L445" s="5">
+        <v>0</v>
+      </c>
+      <c r="M445" s="5">
+        <v>0</v>
+      </c>
+      <c r="N445" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O445" s="5">
+        <v>2000</v>
+      </c>
+      <c r="P445" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="Q445" s="10" t="s">
+        <v>1622</v>
+      </c>
+      <c r="V445" s="5" t="s">
+        <v>1625</v>
+      </c>
+      <c r="W445" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X445" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y445" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG445" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH445" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK445" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL445" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>445</v>
+      </c>
+      <c r="B446" s="5">
+        <v>10362</v>
+      </c>
+      <c r="F446" s="5">
+        <v>1</v>
+      </c>
+      <c r="G446" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I446" s="5" t="s">
+        <v>1611</v>
+      </c>
+      <c r="K446" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L446" s="5">
+        <v>0</v>
+      </c>
+      <c r="M446" s="5">
+        <v>0</v>
+      </c>
+      <c r="N446" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O446" s="5">
+        <v>600</v>
+      </c>
+      <c r="P446" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="Q446" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="V446" s="5" t="s">
+        <v>1625</v>
+      </c>
+      <c r="W446" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X446" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y446" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG446" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH446" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK446" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL446" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="54">
+        <v>446</v>
+      </c>
+      <c r="B447" s="54">
+        <v>10363</v>
+      </c>
+      <c r="F447" s="54">
+        <v>1</v>
+      </c>
+      <c r="G447" s="54" t="s">
+        <v>1635</v>
+      </c>
+      <c r="H447" s="54" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I447" s="54" t="s">
+        <v>1713</v>
+      </c>
+      <c r="K447" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L447" s="54">
+        <v>0</v>
+      </c>
+      <c r="M447" s="54">
+        <v>0</v>
+      </c>
+      <c r="N447" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O447" s="54">
+        <v>800</v>
+      </c>
+      <c r="P447" s="54" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q447" s="55" t="s">
+        <v>1714</v>
+      </c>
+      <c r="V447" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="W447" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X447" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y447" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="Z447" s="54">
+        <v>52</v>
+      </c>
+      <c r="AG447" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH447" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK447" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="54">
+        <v>447</v>
+      </c>
+      <c r="B448" s="54">
+        <v>10364</v>
+      </c>
+      <c r="F448" s="54">
+        <v>1</v>
+      </c>
+      <c r="G448" s="54" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H448" s="54" t="s">
+        <v>1669</v>
+      </c>
+      <c r="I448" s="54" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K448" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L448" s="54">
+        <v>0</v>
+      </c>
+      <c r="M448" s="54">
+        <v>0</v>
+      </c>
+      <c r="N448" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O448" s="54">
+        <v>800</v>
+      </c>
+      <c r="P448" s="54" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q448" s="55" t="s">
+        <v>1715</v>
+      </c>
+      <c r="V448" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="W448" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X448" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y448" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="AG448" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH448" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK448" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="54">
+        <v>448</v>
+      </c>
+      <c r="B449" s="54">
+        <v>10365</v>
+      </c>
+      <c r="F449" s="54">
+        <v>1</v>
+      </c>
+      <c r="G449" s="54" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H449" s="54" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I449" s="54" t="s">
+        <v>1694</v>
+      </c>
+      <c r="K449" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L449" s="54">
+        <v>0</v>
+      </c>
+      <c r="M449" s="54">
+        <v>0</v>
+      </c>
+      <c r="N449" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O449" s="54">
+        <v>800</v>
+      </c>
+      <c r="P449" s="54" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q449" s="55" t="s">
+        <v>1716</v>
+      </c>
+      <c r="V449" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W449" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X449" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y449" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="Z449" s="54">
+        <v>53</v>
+      </c>
+      <c r="AG449" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH449" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK449" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="66">
+        <v>449</v>
+      </c>
+      <c r="B450" s="66">
+        <v>10366</v>
+      </c>
+      <c r="F450" s="66">
+        <v>1</v>
+      </c>
+      <c r="G450" s="66" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H450" s="66" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I450" s="66" t="s">
+        <v>1695</v>
+      </c>
+      <c r="K450" s="66">
+        <v>-31</v>
+      </c>
+      <c r="L450" s="66">
+        <v>0</v>
+      </c>
+      <c r="M450" s="66">
+        <v>0</v>
+      </c>
+      <c r="N450" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="O450" s="66">
+        <v>3800</v>
+      </c>
+      <c r="P450" s="66" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q450" s="67" t="s">
+        <v>1717</v>
+      </c>
+      <c r="V450" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W450" s="66">
+        <v>9999999</v>
+      </c>
+      <c r="X450" s="66">
+        <v>1605571200</v>
+      </c>
+      <c r="Y450" s="66">
+        <v>2552233600</v>
+      </c>
+      <c r="Z450" s="66">
+        <v>54</v>
+      </c>
+      <c r="AG450" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH450" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK450" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="66">
+        <v>450</v>
+      </c>
+      <c r="B451" s="66">
+        <v>10367</v>
+      </c>
+      <c r="F451" s="66">
+        <v>1</v>
+      </c>
+      <c r="G451" s="66" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H451" s="66" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I451" s="66" t="s">
+        <v>1696</v>
+      </c>
+      <c r="K451" s="66">
+        <v>-31</v>
+      </c>
+      <c r="L451" s="66">
+        <v>0</v>
+      </c>
+      <c r="M451" s="66">
+        <v>0</v>
+      </c>
+      <c r="N451" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="O451" s="66">
+        <v>3800</v>
+      </c>
+      <c r="P451" s="66" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q451" s="67" t="s">
+        <v>1718</v>
+      </c>
+      <c r="V451" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W451" s="66">
+        <v>9999999</v>
+      </c>
+      <c r="X451" s="66">
+        <v>1605571200</v>
+      </c>
+      <c r="Y451" s="66">
+        <v>2552233600</v>
+      </c>
+      <c r="AG451" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH451" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK451" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:38" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="66">
+        <v>451</v>
+      </c>
+      <c r="B452" s="66">
+        <v>10368</v>
+      </c>
+      <c r="F452" s="66">
+        <v>1</v>
+      </c>
+      <c r="G452" s="66" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H452" s="66" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I452" s="66" t="s">
+        <v>1697</v>
+      </c>
+      <c r="K452" s="66">
+        <v>-31</v>
+      </c>
+      <c r="L452" s="66">
+        <v>0</v>
+      </c>
+      <c r="M452" s="66">
+        <v>0</v>
+      </c>
+      <c r="N452" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="O452" s="66">
+        <v>3800</v>
+      </c>
+      <c r="P452" s="66" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q452" s="67" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V452" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W452" s="66">
+        <v>9999999</v>
+      </c>
+      <c r="X452" s="66">
+        <v>1605571200</v>
+      </c>
+      <c r="Y452" s="66">
+        <v>2552233600</v>
+      </c>
+      <c r="Z452" s="66">
+        <v>55</v>
+      </c>
+      <c r="AG452" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH452" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK452" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="54">
+        <v>452</v>
+      </c>
+      <c r="B453" s="54">
+        <v>10369</v>
+      </c>
+      <c r="F453" s="54">
+        <v>1</v>
+      </c>
+      <c r="G453" s="54" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H453" s="54" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I453" s="54" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K453" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L453" s="54">
+        <v>0</v>
+      </c>
+      <c r="M453" s="54">
+        <v>0</v>
+      </c>
+      <c r="N453" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O453" s="54">
+        <v>9800</v>
+      </c>
+      <c r="P453" s="54" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q453" s="55" t="s">
+        <v>1720</v>
+      </c>
+      <c r="V453" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W453" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X453" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y453" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="Z453" s="54">
+        <v>56</v>
+      </c>
+      <c r="AG453" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH453" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK453" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="54">
+        <v>453</v>
+      </c>
+      <c r="B454" s="54">
+        <v>10370</v>
+      </c>
+      <c r="F454" s="54">
+        <v>1</v>
+      </c>
+      <c r="G454" s="54" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H454" s="54" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I454" s="54" t="s">
+        <v>1699</v>
+      </c>
+      <c r="K454" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L454" s="54">
+        <v>0</v>
+      </c>
+      <c r="M454" s="54">
+        <v>0</v>
+      </c>
+      <c r="N454" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O454" s="54">
+        <v>9800</v>
+      </c>
+      <c r="P454" s="54" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q454" s="55" t="s">
+        <v>1721</v>
+      </c>
+      <c r="V454" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W454" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X454" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y454" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="AG454" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH454" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK454" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="54">
+        <v>454</v>
+      </c>
+      <c r="B455" s="54">
+        <v>10371</v>
+      </c>
+      <c r="F455" s="54">
+        <v>1</v>
+      </c>
+      <c r="G455" s="54" t="s">
         <v>1630</v>
       </c>
-      <c r="Q434" s="55" t="s">
-        <v>1578</v>
-      </c>
-      <c r="V434" s="54" t="s">
+      <c r="H455" s="54" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I455" s="54" t="s">
+        <v>1700</v>
+      </c>
+      <c r="K455" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L455" s="54">
+        <v>0</v>
+      </c>
+      <c r="M455" s="54">
+        <v>0</v>
+      </c>
+      <c r="N455" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O455" s="54">
+        <v>9800</v>
+      </c>
+      <c r="P455" s="54" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q455" s="55" t="s">
+        <v>1760</v>
+      </c>
+      <c r="V455" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="W434" s="54">
+      <c r="W455" s="54">
         <v>9999999</v>
       </c>
-      <c r="X434" s="54">
-        <v>1604359800</v>
-      </c>
-      <c r="Y434" s="54">
-        <v>1604937599</v>
-      </c>
-      <c r="AG434" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH434" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK434" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL434" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A435" s="54">
-        <v>434</v>
-      </c>
-      <c r="B435" s="54">
-        <v>10351</v>
-      </c>
-      <c r="F435" s="54">
-        <v>1</v>
-      </c>
-      <c r="G435" s="54" t="s">
-        <v>1565</v>
-      </c>
-      <c r="H435" s="54" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I435" s="54" t="s">
-        <v>1572</v>
-      </c>
-      <c r="K435" s="54">
+      <c r="X455" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y455" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="Z455" s="54">
+        <v>57</v>
+      </c>
+      <c r="AG455" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH455" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK455" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="66">
+        <v>455</v>
+      </c>
+      <c r="B456" s="66">
+        <v>10372</v>
+      </c>
+      <c r="F456" s="66">
+        <v>1</v>
+      </c>
+      <c r="G456" s="66" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H456" s="66" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I456" s="66" t="s">
+        <v>1701</v>
+      </c>
+      <c r="K456" s="66">
         <v>-31</v>
       </c>
-      <c r="L435" s="54">
-        <v>0</v>
-      </c>
-      <c r="M435" s="54">
-        <v>0</v>
-      </c>
-      <c r="N435" s="54" t="s">
+      <c r="L456" s="66">
+        <v>0</v>
+      </c>
+      <c r="M456" s="66">
+        <v>0</v>
+      </c>
+      <c r="N456" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="O435" s="54">
-        <v>4800</v>
-      </c>
-      <c r="P435" s="54" t="s">
-        <v>1630</v>
-      </c>
-      <c r="Q435" s="55" t="s">
-        <v>1581</v>
-      </c>
-      <c r="V435" s="54" t="s">
+      <c r="O456" s="66">
+        <v>19800</v>
+      </c>
+      <c r="P456" s="66" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q456" s="67" t="s">
+        <v>1722</v>
+      </c>
+      <c r="V456" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="W435" s="54">
+      <c r="W456" s="66">
         <v>9999999</v>
       </c>
-      <c r="X435" s="54">
-        <v>1604359800</v>
-      </c>
-      <c r="Y435" s="54">
-        <v>1604937599</v>
-      </c>
-      <c r="AG435" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH435" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK435" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL435" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="54">
-        <v>435</v>
-      </c>
-      <c r="B436" s="54">
-        <v>10352</v>
-      </c>
-      <c r="F436" s="54">
-        <v>1</v>
-      </c>
-      <c r="G436" s="54" t="s">
-        <v>1564</v>
-      </c>
-      <c r="H436" s="54" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I436" s="54" t="s">
-        <v>1573</v>
-      </c>
-      <c r="K436" s="54">
+      <c r="X456" s="66">
+        <v>1605571200</v>
+      </c>
+      <c r="Y456" s="66">
+        <v>2552233600</v>
+      </c>
+      <c r="Z456" s="66">
+        <v>58</v>
+      </c>
+      <c r="AG456" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH456" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK456" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="66">
+        <v>456</v>
+      </c>
+      <c r="B457" s="66">
+        <v>10373</v>
+      </c>
+      <c r="F457" s="66">
+        <v>1</v>
+      </c>
+      <c r="G457" s="66" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H457" s="66" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I457" s="66" t="s">
+        <v>1702</v>
+      </c>
+      <c r="K457" s="66">
         <v>-31</v>
       </c>
-      <c r="L436" s="54">
-        <v>0</v>
-      </c>
-      <c r="M436" s="54">
-        <v>0</v>
-      </c>
-      <c r="N436" s="54" t="s">
+      <c r="L457" s="66">
+        <v>0</v>
+      </c>
+      <c r="M457" s="66">
+        <v>0</v>
+      </c>
+      <c r="N457" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="O436" s="54">
+      <c r="O457" s="66">
+        <v>19800</v>
+      </c>
+      <c r="P457" s="66" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q457" s="67" t="s">
+        <v>1723</v>
+      </c>
+      <c r="V457" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W457" s="66">
+        <v>9999999</v>
+      </c>
+      <c r="X457" s="66">
+        <v>1605571200</v>
+      </c>
+      <c r="Y457" s="66">
+        <v>2552233600</v>
+      </c>
+      <c r="AG457" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH457" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK457" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="66">
+        <v>457</v>
+      </c>
+      <c r="B458" s="66">
+        <v>10374</v>
+      </c>
+      <c r="F458" s="66">
+        <v>1</v>
+      </c>
+      <c r="G458" s="66" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H458" s="66" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I458" s="66" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K458" s="66">
+        <v>-31</v>
+      </c>
+      <c r="L458" s="66">
+        <v>0</v>
+      </c>
+      <c r="M458" s="66">
+        <v>0</v>
+      </c>
+      <c r="N458" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="O458" s="66">
+        <v>19800</v>
+      </c>
+      <c r="P458" s="66" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q458" s="67" t="s">
+        <v>1724</v>
+      </c>
+      <c r="V458" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W458" s="66">
+        <v>9999999</v>
+      </c>
+      <c r="X458" s="66">
+        <v>1605571200</v>
+      </c>
+      <c r="Y458" s="66">
+        <v>2552233600</v>
+      </c>
+      <c r="Z458" s="66">
+        <v>59</v>
+      </c>
+      <c r="AG458" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH458" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK458" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="54">
+        <v>458</v>
+      </c>
+      <c r="B459" s="54">
+        <v>10375</v>
+      </c>
+      <c r="F459" s="54">
+        <v>1</v>
+      </c>
+      <c r="G459" s="54" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H459" s="54" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I459" s="54" t="s">
+        <v>1704</v>
+      </c>
+      <c r="K459" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L459" s="54">
+        <v>0</v>
+      </c>
+      <c r="M459" s="54">
+        <v>0</v>
+      </c>
+      <c r="N459" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O459" s="54">
+        <v>49800</v>
+      </c>
+      <c r="P459" s="54" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q459" s="55" t="s">
+        <v>1725</v>
+      </c>
+      <c r="V459" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W459" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X459" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y459" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="Z459" s="54">
+        <v>60</v>
+      </c>
+      <c r="AG459" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH459" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK459" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="54">
+        <v>459</v>
+      </c>
+      <c r="B460" s="54">
+        <v>10376</v>
+      </c>
+      <c r="F460" s="54">
+        <v>1</v>
+      </c>
+      <c r="G460" s="54" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H460" s="54" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I460" s="54" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K460" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L460" s="54">
+        <v>0</v>
+      </c>
+      <c r="M460" s="54">
+        <v>0</v>
+      </c>
+      <c r="N460" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O460" s="54">
+        <v>49800</v>
+      </c>
+      <c r="P460" s="54" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q460" s="55" t="s">
+        <v>1726</v>
+      </c>
+      <c r="V460" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W460" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X460" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y460" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="AG460" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH460" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK460" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="54">
+        <v>460</v>
+      </c>
+      <c r="B461" s="54">
+        <v>10377</v>
+      </c>
+      <c r="F461" s="54">
+        <v>1</v>
+      </c>
+      <c r="G461" s="54" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H461" s="54" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I461" s="54" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K461" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L461" s="54">
+        <v>0</v>
+      </c>
+      <c r="M461" s="54">
+        <v>0</v>
+      </c>
+      <c r="N461" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O461" s="54">
+        <v>49800</v>
+      </c>
+      <c r="P461" s="54" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q461" s="55" t="s">
+        <v>1727</v>
+      </c>
+      <c r="V461" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W461" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X461" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y461" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="Z461" s="54">
+        <v>61</v>
+      </c>
+      <c r="AG461" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH461" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK461" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="66">
+        <v>461</v>
+      </c>
+      <c r="B462" s="66">
+        <v>10378</v>
+      </c>
+      <c r="F462" s="66">
+        <v>1</v>
+      </c>
+      <c r="G462" s="66" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H462" s="66" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I462" s="66" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K462" s="66">
+        <v>-31</v>
+      </c>
+      <c r="L462" s="66">
+        <v>0</v>
+      </c>
+      <c r="M462" s="66">
+        <v>0</v>
+      </c>
+      <c r="N462" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="O462" s="66">
+        <v>99800</v>
+      </c>
+      <c r="P462" s="66" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q462" s="67" t="s">
+        <v>1728</v>
+      </c>
+      <c r="V462" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W462" s="66">
+        <v>9999999</v>
+      </c>
+      <c r="X462" s="66">
+        <v>1605571200</v>
+      </c>
+      <c r="Y462" s="66">
+        <v>2552233600</v>
+      </c>
+      <c r="Z462" s="66">
+        <v>62</v>
+      </c>
+      <c r="AG462" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH462" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK462" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="66">
+        <v>462</v>
+      </c>
+      <c r="B463" s="66">
+        <v>10379</v>
+      </c>
+      <c r="F463" s="66">
+        <v>1</v>
+      </c>
+      <c r="G463" s="66" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H463" s="66" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I463" s="66" t="s">
+        <v>1708</v>
+      </c>
+      <c r="K463" s="66">
+        <v>-31</v>
+      </c>
+      <c r="L463" s="66">
+        <v>0</v>
+      </c>
+      <c r="M463" s="66">
+        <v>0</v>
+      </c>
+      <c r="N463" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="O463" s="66">
+        <v>99800</v>
+      </c>
+      <c r="P463" s="66" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q463" s="67" t="s">
+        <v>1729</v>
+      </c>
+      <c r="V463" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W463" s="66">
+        <v>9999999</v>
+      </c>
+      <c r="X463" s="66">
+        <v>1605571200</v>
+      </c>
+      <c r="Y463" s="66">
+        <v>2552233600</v>
+      </c>
+      <c r="AG463" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH463" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK463" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="66">
+        <v>463</v>
+      </c>
+      <c r="B464" s="66">
+        <v>10380</v>
+      </c>
+      <c r="F464" s="66">
+        <v>1</v>
+      </c>
+      <c r="G464" s="66" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H464" s="66" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I464" s="66" t="s">
+        <v>1709</v>
+      </c>
+      <c r="K464" s="66">
+        <v>-31</v>
+      </c>
+      <c r="L464" s="66">
+        <v>0</v>
+      </c>
+      <c r="M464" s="66">
+        <v>0</v>
+      </c>
+      <c r="N464" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="O464" s="66">
+        <v>99800</v>
+      </c>
+      <c r="P464" s="66" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q464" s="67" t="s">
+        <v>1730</v>
+      </c>
+      <c r="V464" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W464" s="66">
+        <v>9999999</v>
+      </c>
+      <c r="X464" s="66">
+        <v>1605571200</v>
+      </c>
+      <c r="Y464" s="66">
+        <v>2552233600</v>
+      </c>
+      <c r="Z464" s="66">
+        <v>63</v>
+      </c>
+      <c r="AG464" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH464" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK464" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="54">
+        <v>464</v>
+      </c>
+      <c r="B465" s="54">
+        <v>10381</v>
+      </c>
+      <c r="F465" s="54">
+        <v>1</v>
+      </c>
+      <c r="G465" s="54" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H465" s="54" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I465" s="54" t="s">
+        <v>1710</v>
+      </c>
+      <c r="K465" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L465" s="54">
+        <v>0</v>
+      </c>
+      <c r="M465" s="54">
+        <v>0</v>
+      </c>
+      <c r="N465" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O465" s="54">
+        <v>249800</v>
+      </c>
+      <c r="P465" s="54" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q465" s="55" t="s">
+        <v>1731</v>
+      </c>
+      <c r="V465" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W465" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X465" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y465" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="Z465" s="54">
+        <v>64</v>
+      </c>
+      <c r="AG465" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH465" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK465" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="54">
+        <v>465</v>
+      </c>
+      <c r="B466" s="54">
+        <v>10382</v>
+      </c>
+      <c r="F466" s="54">
+        <v>1</v>
+      </c>
+      <c r="G466" s="54" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H466" s="54" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I466" s="54" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K466" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L466" s="54">
+        <v>0</v>
+      </c>
+      <c r="M466" s="54">
+        <v>0</v>
+      </c>
+      <c r="N466" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O466" s="54">
+        <v>249800</v>
+      </c>
+      <c r="P466" s="54" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q466" s="55" t="s">
+        <v>1732</v>
+      </c>
+      <c r="V466" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W466" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X466" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y466" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="AG466" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH466" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK466" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="54">
+        <v>466</v>
+      </c>
+      <c r="B467" s="54">
+        <v>10383</v>
+      </c>
+      <c r="F467" s="54">
+        <v>1</v>
+      </c>
+      <c r="G467" s="54" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H467" s="54" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I467" s="54" t="s">
+        <v>1712</v>
+      </c>
+      <c r="K467" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L467" s="54">
+        <v>0</v>
+      </c>
+      <c r="M467" s="54">
+        <v>0</v>
+      </c>
+      <c r="N467" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O467" s="54">
+        <v>249800</v>
+      </c>
+      <c r="P467" s="54" t="s">
+        <v>1690</v>
+      </c>
+      <c r="Q467" s="55" t="s">
+        <v>1733</v>
+      </c>
+      <c r="V467" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="W467" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X467" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y467" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="Z467" s="54">
+        <v>65</v>
+      </c>
+      <c r="AG467" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH467" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK467" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="60">
+        <v>467</v>
+      </c>
+      <c r="B468" s="60">
+        <v>10384</v>
+      </c>
+      <c r="F468" s="60">
+        <v>1</v>
+      </c>
+      <c r="G468" s="60" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H468" s="60" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I468" s="60" t="s">
+        <v>1683</v>
+      </c>
+      <c r="K468" s="60">
+        <v>-31</v>
+      </c>
+      <c r="L468" s="60">
+        <v>0</v>
+      </c>
+      <c r="M468" s="60">
+        <v>0</v>
+      </c>
+      <c r="N468" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="O468" s="60">
+        <v>600</v>
+      </c>
+      <c r="P468" s="60" t="s">
+        <v>1691</v>
+      </c>
+      <c r="Q468" s="61" t="s">
+        <v>1734</v>
+      </c>
+      <c r="V468" s="60" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W468" s="60">
+        <v>9999999</v>
+      </c>
+      <c r="X468" s="60">
+        <v>1605571200</v>
+      </c>
+      <c r="Y468" s="60">
+        <v>2552233600</v>
+      </c>
+      <c r="AG468" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH468" s="60">
+        <v>1</v>
+      </c>
+      <c r="AK468" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="60">
+        <v>468</v>
+      </c>
+      <c r="B469" s="60">
+        <v>10385</v>
+      </c>
+      <c r="F469" s="60">
+        <v>1</v>
+      </c>
+      <c r="G469" s="60" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H469" s="60" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I469" s="60" t="s">
+        <v>1684</v>
+      </c>
+      <c r="K469" s="60">
+        <v>-31</v>
+      </c>
+      <c r="L469" s="60">
+        <v>0</v>
+      </c>
+      <c r="M469" s="60">
+        <v>0</v>
+      </c>
+      <c r="N469" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="O469" s="60">
+        <v>3000</v>
+      </c>
+      <c r="P469" s="60" t="s">
+        <v>1691</v>
+      </c>
+      <c r="Q469" s="61" t="s">
+        <v>1735</v>
+      </c>
+      <c r="V469" s="60" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W469" s="60">
+        <v>9999999</v>
+      </c>
+      <c r="X469" s="60">
+        <v>1605571200</v>
+      </c>
+      <c r="Y469" s="60">
+        <v>2552233600</v>
+      </c>
+      <c r="AG469" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH469" s="60">
+        <v>1</v>
+      </c>
+      <c r="AK469" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="60">
+        <v>469</v>
+      </c>
+      <c r="B470" s="60">
+        <v>10386</v>
+      </c>
+      <c r="F470" s="60">
+        <v>1</v>
+      </c>
+      <c r="G470" s="60" t="s">
+        <v>1675</v>
+      </c>
+      <c r="H470" s="60" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I470" s="60" t="s">
+        <v>1685</v>
+      </c>
+      <c r="K470" s="60">
+        <v>-31</v>
+      </c>
+      <c r="L470" s="60">
+        <v>0</v>
+      </c>
+      <c r="M470" s="60">
+        <v>0</v>
+      </c>
+      <c r="N470" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="O470" s="60">
+        <v>6800</v>
+      </c>
+      <c r="P470" s="60" t="s">
+        <v>1691</v>
+      </c>
+      <c r="Q470" s="61" t="s">
+        <v>861</v>
+      </c>
+      <c r="V470" s="60" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W470" s="60">
+        <v>9999999</v>
+      </c>
+      <c r="X470" s="60">
+        <v>1605571200</v>
+      </c>
+      <c r="Y470" s="60">
+        <v>2552233600</v>
+      </c>
+      <c r="AG470" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH470" s="60">
+        <v>1</v>
+      </c>
+      <c r="AK470" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="60">
+        <v>470</v>
+      </c>
+      <c r="B471" s="60">
+        <v>10387</v>
+      </c>
+      <c r="F471" s="60">
+        <v>1</v>
+      </c>
+      <c r="G471" s="60" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H471" s="60" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I471" s="60" t="s">
+        <v>1686</v>
+      </c>
+      <c r="K471" s="60">
+        <v>-31</v>
+      </c>
+      <c r="L471" s="60">
+        <v>0</v>
+      </c>
+      <c r="M471" s="60">
+        <v>0</v>
+      </c>
+      <c r="N471" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="O471" s="60">
         <v>9800</v>
       </c>
-      <c r="P436" s="54" t="s">
-        <v>1631</v>
-      </c>
-      <c r="Q436" s="55" t="s">
-        <v>1579</v>
-      </c>
-      <c r="V436" s="54" t="s">
-        <v>551</v>
-      </c>
-      <c r="W436" s="54">
+      <c r="P471" s="60" t="s">
+        <v>1691</v>
+      </c>
+      <c r="Q471" s="61" t="s">
+        <v>1736</v>
+      </c>
+      <c r="V471" s="60" t="s">
+        <v>1753</v>
+      </c>
+      <c r="W471" s="60">
         <v>9999999</v>
       </c>
-      <c r="X436" s="54">
-        <v>1604359800</v>
-      </c>
-      <c r="Y436" s="54">
-        <v>1604937599</v>
-      </c>
-      <c r="AG436" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH436" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK436" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL436" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="54">
-        <v>436</v>
-      </c>
-      <c r="B437" s="54">
-        <v>10353</v>
-      </c>
-      <c r="F437" s="54">
-        <v>1</v>
-      </c>
-      <c r="G437" s="54" t="s">
-        <v>1566</v>
-      </c>
-      <c r="H437" s="54" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I437" s="54" t="s">
-        <v>1574</v>
-      </c>
-      <c r="K437" s="54">
+      <c r="X471" s="60">
+        <v>1605571200</v>
+      </c>
+      <c r="Y471" s="60">
+        <v>2552233600</v>
+      </c>
+      <c r="AG471" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH471" s="60">
+        <v>1</v>
+      </c>
+      <c r="AK471" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="60">
+        <v>471</v>
+      </c>
+      <c r="B472" s="60">
+        <v>10388</v>
+      </c>
+      <c r="F472" s="60">
+        <v>1</v>
+      </c>
+      <c r="G472" s="60" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H472" s="60" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I472" s="60" t="s">
+        <v>1687</v>
+      </c>
+      <c r="K472" s="60">
         <v>-31</v>
       </c>
-      <c r="L437" s="54">
-        <v>0</v>
-      </c>
-      <c r="M437" s="54">
-        <v>0</v>
-      </c>
-      <c r="N437" s="54" t="s">
+      <c r="L472" s="60">
+        <v>0</v>
+      </c>
+      <c r="M472" s="60">
+        <v>0</v>
+      </c>
+      <c r="N472" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="O437" s="54">
+      <c r="O472" s="60">
         <v>19800</v>
       </c>
-      <c r="P437" s="54" t="s">
-        <v>1631</v>
-      </c>
-      <c r="Q437" s="55" t="s">
-        <v>1582</v>
-      </c>
-      <c r="V437" s="54" t="s">
-        <v>551</v>
-      </c>
-      <c r="W437" s="54">
+      <c r="P472" s="60" t="s">
+        <v>1691</v>
+      </c>
+      <c r="Q472" s="61" t="s">
+        <v>862</v>
+      </c>
+      <c r="V472" s="60" t="s">
+        <v>1753</v>
+      </c>
+      <c r="W472" s="60">
         <v>9999999</v>
       </c>
-      <c r="X437" s="54">
-        <v>1604359800</v>
-      </c>
-      <c r="Y437" s="54">
-        <v>1604937599</v>
-      </c>
-      <c r="AG437" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH437" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK437" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL437" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="54">
-        <v>437</v>
-      </c>
-      <c r="B438" s="54">
-        <v>10354</v>
-      </c>
-      <c r="F438" s="54">
-        <v>1</v>
-      </c>
-      <c r="G438" s="54" t="s">
-        <v>1567</v>
-      </c>
-      <c r="H438" s="54" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I438" s="54" t="s">
-        <v>1575</v>
-      </c>
-      <c r="K438" s="54">
+      <c r="X472" s="60">
+        <v>1605571200</v>
+      </c>
+      <c r="Y472" s="60">
+        <v>2552233600</v>
+      </c>
+      <c r="AG472" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH472" s="60">
+        <v>1</v>
+      </c>
+      <c r="AK472" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="60">
+        <v>472</v>
+      </c>
+      <c r="B473" s="60">
+        <v>10389</v>
+      </c>
+      <c r="F473" s="60">
+        <v>1</v>
+      </c>
+      <c r="G473" s="60" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H473" s="60" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I473" s="60" t="s">
+        <v>1688</v>
+      </c>
+      <c r="K473" s="60">
         <v>-31</v>
       </c>
-      <c r="L438" s="54">
-        <v>0</v>
-      </c>
-      <c r="M438" s="54">
-        <v>0</v>
-      </c>
-      <c r="N438" s="54" t="s">
+      <c r="L473" s="60">
+        <v>0</v>
+      </c>
+      <c r="M473" s="60">
+        <v>0</v>
+      </c>
+      <c r="N473" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="O438" s="54">
-        <v>29800</v>
-      </c>
-      <c r="P438" s="54" t="s">
-        <v>1599</v>
-      </c>
-      <c r="Q438" s="55" t="s">
-        <v>1583</v>
-      </c>
-      <c r="V438" s="54" t="s">
-        <v>551</v>
-      </c>
-      <c r="W438" s="54">
+      <c r="O473" s="60">
+        <v>49800</v>
+      </c>
+      <c r="P473" s="60" t="s">
+        <v>1691</v>
+      </c>
+      <c r="Q473" s="61" t="s">
+        <v>1737</v>
+      </c>
+      <c r="V473" s="60" t="s">
+        <v>1753</v>
+      </c>
+      <c r="W473" s="60">
         <v>9999999</v>
       </c>
-      <c r="X438" s="54">
-        <v>1604359800</v>
-      </c>
-      <c r="Y438" s="54">
-        <v>1604937599</v>
-      </c>
-      <c r="AG438" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH438" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK438" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL438" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="54">
-        <v>438</v>
-      </c>
-      <c r="B439" s="54">
-        <v>10355</v>
-      </c>
-      <c r="F439" s="54">
-        <v>1</v>
-      </c>
-      <c r="G439" s="54" t="s">
-        <v>1568</v>
-      </c>
-      <c r="H439" s="54" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I439" s="54" t="s">
-        <v>1576</v>
-      </c>
-      <c r="K439" s="54">
+      <c r="X473" s="60">
+        <v>1605571200</v>
+      </c>
+      <c r="Y473" s="60">
+        <v>2552233600</v>
+      </c>
+      <c r="AG473" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH473" s="60">
+        <v>1</v>
+      </c>
+      <c r="AK473" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="54">
+        <v>473</v>
+      </c>
+      <c r="B474" s="54">
+        <v>10390</v>
+      </c>
+      <c r="F474" s="58">
+        <v>1</v>
+      </c>
+      <c r="G474" s="58" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H474" s="58" t="s">
+        <v>1682</v>
+      </c>
+      <c r="I474" s="58" t="s">
+        <v>1689</v>
+      </c>
+      <c r="K474" s="58">
         <v>-31</v>
       </c>
-      <c r="L439" s="54">
-        <v>0</v>
-      </c>
-      <c r="M439" s="54">
-        <v>0</v>
-      </c>
-      <c r="N439" s="54" t="s">
+      <c r="L474" s="58">
+        <v>0</v>
+      </c>
+      <c r="M474" s="58">
+        <v>0</v>
+      </c>
+      <c r="N474" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="O439" s="54">
-        <v>49800</v>
-      </c>
-      <c r="P439" s="54" t="s">
-        <v>1632</v>
-      </c>
-      <c r="Q439" s="55" t="s">
-        <v>1584</v>
-      </c>
-      <c r="V439" s="54" t="s">
-        <v>551</v>
-      </c>
-      <c r="W439" s="54">
+      <c r="O474" s="58">
+        <v>99800</v>
+      </c>
+      <c r="P474" s="58" t="s">
+        <v>1691</v>
+      </c>
+      <c r="Q474" s="59" t="s">
+        <v>1738</v>
+      </c>
+      <c r="V474" s="60" t="s">
+        <v>1753</v>
+      </c>
+      <c r="W474" s="58">
         <v>9999999</v>
       </c>
-      <c r="X439" s="54">
-        <v>1604359800</v>
-      </c>
-      <c r="Y439" s="54">
-        <v>1604937599</v>
-      </c>
-      <c r="AG439" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH439" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK439" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL439" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="54">
-        <v>439</v>
-      </c>
-      <c r="B440" s="54">
-        <v>10356</v>
-      </c>
-      <c r="F440" s="54">
-        <v>1</v>
-      </c>
-      <c r="G440" s="54" t="s">
-        <v>1569</v>
-      </c>
-      <c r="H440" s="54" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I440" s="54" t="s">
-        <v>1577</v>
-      </c>
-      <c r="K440" s="54">
+      <c r="X474" s="58">
+        <v>1605571200</v>
+      </c>
+      <c r="Y474" s="58">
+        <v>2552233600</v>
+      </c>
+      <c r="AG474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AK474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="54">
+        <v>474</v>
+      </c>
+      <c r="B475" s="54">
+        <v>10391</v>
+      </c>
+      <c r="F475" s="58">
+        <v>1</v>
+      </c>
+      <c r="G475" s="58" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H475" s="58" t="s">
+        <v>1682</v>
+      </c>
+      <c r="I475" s="58" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K475" s="58">
         <v>-31</v>
       </c>
-      <c r="L440" s="54">
-        <v>0</v>
-      </c>
-      <c r="M440" s="54">
-        <v>0</v>
-      </c>
-      <c r="N440" s="54" t="s">
-        <v>1614</v>
-      </c>
-      <c r="O440" s="54">
-        <v>99800</v>
-      </c>
-      <c r="P440" s="54" t="s">
-        <v>1632</v>
-      </c>
-      <c r="Q440" s="55" t="s">
-        <v>1580</v>
-      </c>
-      <c r="V440" s="54" t="s">
-        <v>1627</v>
-      </c>
-      <c r="W440" s="54">
+      <c r="L475" s="58">
+        <v>0</v>
+      </c>
+      <c r="M475" s="58">
+        <v>0</v>
+      </c>
+      <c r="N475" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="O475" s="58">
+        <v>249800</v>
+      </c>
+      <c r="P475" s="58" t="s">
+        <v>1691</v>
+      </c>
+      <c r="Q475" s="59" t="s">
+        <v>1759</v>
+      </c>
+      <c r="V475" s="60" t="s">
+        <v>1753</v>
+      </c>
+      <c r="W475" s="58">
         <v>9999999</v>
       </c>
-      <c r="X440" s="54">
-        <v>1604359800</v>
-      </c>
-      <c r="Y440" s="54">
-        <v>1604937599</v>
-      </c>
-      <c r="AG440" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH440" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK440" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL440" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="56">
-        <v>440</v>
-      </c>
-      <c r="B441" s="56">
-        <v>10357</v>
-      </c>
-      <c r="F441" s="56">
-        <v>1</v>
-      </c>
-      <c r="G441" s="56" t="s">
-        <v>1600</v>
-      </c>
-      <c r="I441" s="56" t="s">
-        <v>1608</v>
-      </c>
-      <c r="K441" s="56">
-        <v>-31</v>
-      </c>
-      <c r="L441" s="56">
-        <v>0</v>
-      </c>
-      <c r="M441" s="56">
-        <v>0</v>
-      </c>
-      <c r="N441" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="O441" s="56">
-        <v>49800</v>
-      </c>
-      <c r="P441" s="56" t="s">
-        <v>1615</v>
-      </c>
-      <c r="Q441" s="57" t="s">
-        <v>1617</v>
-      </c>
-      <c r="V441" s="56" t="s">
-        <v>1629</v>
-      </c>
-      <c r="W441" s="56">
-        <v>9999999</v>
-      </c>
-      <c r="X441" s="56">
-        <v>1604966400</v>
-      </c>
-      <c r="Y441" s="56">
-        <v>1605542399</v>
-      </c>
-      <c r="AG441" s="56">
-        <v>1</v>
-      </c>
-      <c r="AH441" s="56">
-        <v>1</v>
-      </c>
-      <c r="AK441" s="56">
-        <v>1</v>
-      </c>
-      <c r="AL441" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A442" s="56">
-        <v>441</v>
-      </c>
-      <c r="B442" s="56">
-        <v>10358</v>
-      </c>
-      <c r="F442" s="56">
-        <v>1</v>
-      </c>
-      <c r="G442" s="56" t="s">
-        <v>1601</v>
-      </c>
-      <c r="I442" s="56" t="s">
-        <v>1609</v>
-      </c>
-      <c r="K442" s="56">
-        <v>-31</v>
-      </c>
-      <c r="L442" s="56">
-        <v>0</v>
-      </c>
-      <c r="M442" s="56">
-        <v>0</v>
-      </c>
-      <c r="N442" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="O442" s="56">
-        <v>19800</v>
-      </c>
-      <c r="P442" s="56" t="s">
-        <v>1615</v>
-      </c>
-      <c r="Q442" s="57" t="s">
-        <v>1619</v>
-      </c>
-      <c r="V442" s="56" t="s">
-        <v>1629</v>
-      </c>
-      <c r="W442" s="56">
-        <v>9999999</v>
-      </c>
-      <c r="X442" s="56">
-        <v>1604966400</v>
-      </c>
-      <c r="Y442" s="56">
-        <v>1605542399</v>
-      </c>
-      <c r="AG442" s="56">
-        <v>1</v>
-      </c>
-      <c r="AH442" s="56">
-        <v>1</v>
-      </c>
-      <c r="AK442" s="56">
-        <v>1</v>
-      </c>
-      <c r="AL442" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="56">
-        <v>442</v>
-      </c>
-      <c r="B443" s="56">
-        <v>10359</v>
-      </c>
-      <c r="F443" s="56">
-        <v>1</v>
-      </c>
-      <c r="G443" s="56" t="s">
-        <v>1602</v>
-      </c>
-      <c r="I443" s="56" t="s">
-        <v>1610</v>
-      </c>
-      <c r="K443" s="56">
-        <v>-31</v>
-      </c>
-      <c r="L443" s="56">
-        <v>0</v>
-      </c>
-      <c r="M443" s="56">
-        <v>0</v>
-      </c>
-      <c r="N443" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="O443" s="56">
-        <v>9800</v>
-      </c>
-      <c r="P443" s="56" t="s">
-        <v>1615</v>
-      </c>
-      <c r="Q443" s="57" t="s">
-        <v>1621</v>
-      </c>
-      <c r="V443" s="56" t="s">
-        <v>1629</v>
-      </c>
-      <c r="W443" s="56">
-        <v>9999999</v>
-      </c>
-      <c r="X443" s="56">
-        <v>1604966400</v>
-      </c>
-      <c r="Y443" s="56">
-        <v>1605542399</v>
-      </c>
-      <c r="AG443" s="56">
-        <v>1</v>
-      </c>
-      <c r="AH443" s="56">
-        <v>1</v>
-      </c>
-      <c r="AK443" s="56">
-        <v>1</v>
-      </c>
-      <c r="AL443" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="56">
-        <v>443</v>
-      </c>
-      <c r="B444" s="56">
-        <v>10360</v>
-      </c>
-      <c r="F444" s="56">
-        <v>1</v>
-      </c>
-      <c r="G444" s="56" t="s">
-        <v>1603</v>
-      </c>
-      <c r="I444" s="56" t="s">
-        <v>1611</v>
-      </c>
-      <c r="K444" s="56">
-        <v>-31</v>
-      </c>
-      <c r="L444" s="56">
-        <v>0</v>
-      </c>
-      <c r="M444" s="56">
-        <v>0</v>
-      </c>
-      <c r="N444" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="O444" s="56">
-        <v>4800</v>
-      </c>
-      <c r="P444" s="56" t="s">
-        <v>1615</v>
-      </c>
-      <c r="Q444" s="57" t="s">
-        <v>1622</v>
-      </c>
-      <c r="V444" s="56" t="s">
-        <v>1629</v>
-      </c>
-      <c r="W444" s="56">
-        <v>9999999</v>
-      </c>
-      <c r="X444" s="56">
-        <v>1604966400</v>
-      </c>
-      <c r="Y444" s="56">
-        <v>1605542399</v>
-      </c>
-      <c r="AG444" s="56">
-        <v>1</v>
-      </c>
-      <c r="AH444" s="56">
-        <v>1</v>
-      </c>
-      <c r="AK444" s="56">
-        <v>1</v>
-      </c>
-      <c r="AL444" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="56">
-        <v>444</v>
-      </c>
-      <c r="B445" s="56">
-        <v>10361</v>
-      </c>
-      <c r="F445" s="56">
-        <v>1</v>
-      </c>
-      <c r="G445" s="56" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I445" s="56" t="s">
-        <v>1612</v>
-      </c>
-      <c r="K445" s="56">
-        <v>-31</v>
-      </c>
-      <c r="L445" s="56">
-        <v>0</v>
-      </c>
-      <c r="M445" s="56">
-        <v>0</v>
-      </c>
-      <c r="N445" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="O445" s="56">
-        <v>2000</v>
-      </c>
-      <c r="P445" s="56" t="s">
-        <v>1615</v>
-      </c>
-      <c r="Q445" s="57" t="s">
-        <v>1624</v>
-      </c>
-      <c r="V445" s="56" t="s">
-        <v>1627</v>
-      </c>
-      <c r="W445" s="56">
-        <v>9999999</v>
-      </c>
-      <c r="X445" s="56">
-        <v>1604966400</v>
-      </c>
-      <c r="Y445" s="56">
-        <v>1605542399</v>
-      </c>
-      <c r="AG445" s="56">
-        <v>1</v>
-      </c>
-      <c r="AH445" s="56">
-        <v>1</v>
-      </c>
-      <c r="AK445" s="56">
-        <v>1</v>
-      </c>
-      <c r="AL445" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="56">
-        <v>445</v>
-      </c>
-      <c r="B446" s="56">
-        <v>10362</v>
-      </c>
-      <c r="F446" s="56">
-        <v>1</v>
-      </c>
-      <c r="G446" s="56" t="s">
-        <v>1605</v>
-      </c>
-      <c r="I446" s="56" t="s">
-        <v>1613</v>
-      </c>
-      <c r="K446" s="56">
-        <v>-31</v>
-      </c>
-      <c r="L446" s="56">
-        <v>0</v>
-      </c>
-      <c r="M446" s="56">
-        <v>0</v>
-      </c>
-      <c r="N446" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="O446" s="56">
-        <v>600</v>
-      </c>
-      <c r="P446" s="56" t="s">
-        <v>1615</v>
-      </c>
-      <c r="Q446" s="57" t="s">
-        <v>1626</v>
-      </c>
-      <c r="V446" s="56" t="s">
-        <v>1627</v>
-      </c>
-      <c r="W446" s="56">
-        <v>9999999</v>
-      </c>
-      <c r="X446" s="56">
-        <v>1604966400</v>
-      </c>
-      <c r="Y446" s="56">
-        <v>1605542399</v>
-      </c>
-      <c r="AG446" s="56">
-        <v>1</v>
-      </c>
-      <c r="AH446" s="56">
-        <v>1</v>
-      </c>
-      <c r="AK446" s="56">
-        <v>1</v>
-      </c>
-      <c r="AL446" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I484" s="6">
-        <v>1</v>
-      </c>
+      <c r="X475" s="58">
+        <v>1605571200</v>
+      </c>
+      <c r="Y475" s="58">
+        <v>2552233600</v>
+      </c>
+      <c r="AG475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AK475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q476" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -38236,10 +40695,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38624,7 +41083,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -38654,7 +41113,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1251</v>
+        <v>1634</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -38669,7 +41128,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -38684,7 +41143,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -38699,7 +41158,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -38714,7 +41173,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -38729,7 +41188,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -38744,7 +41203,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -38759,7 +41218,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -38774,7 +41233,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -38789,7 +41248,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -38804,7 +41263,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -38818,7 +41277,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -38832,7 +41291,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -38846,7 +41305,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -38860,7 +41319,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -38874,7 +41333,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -38884,11 +41343,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
+      <c r="A45" s="68">
         <v>44</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>1424</v>
+      <c r="B45" s="69" t="s">
+        <v>1755</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -38898,11 +41357,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
+      <c r="A46" s="68">
         <v>45</v>
       </c>
-      <c r="B46" s="18" t="s">
-        <v>1425</v>
+      <c r="B46" s="69" t="s">
+        <v>1756</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -38912,11 +41371,11 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
+      <c r="A47" s="68">
         <v>46</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>1426</v>
+      <c r="B47" s="69" t="s">
+        <v>1757</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -38930,7 +41389,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="C48" s="12">
         <v>1</v>
@@ -38944,7 +41403,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
@@ -38958,7 +41417,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
@@ -38972,7 +41431,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>
@@ -38986,13 +41445,209 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
       </c>
       <c r="D52">
         <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="56">
+        <v>52</v>
+      </c>
+      <c r="B53" s="57" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C53" s="56">
+        <v>1</v>
+      </c>
+      <c r="D53" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="56">
+        <v>53</v>
+      </c>
+      <c r="B54" s="57" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C54" s="56">
+        <v>1</v>
+      </c>
+      <c r="D54" s="56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="56">
+        <v>54</v>
+      </c>
+      <c r="B55" s="57" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C55" s="56">
+        <v>1</v>
+      </c>
+      <c r="D55" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="57" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C56" s="56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="56">
+        <v>56</v>
+      </c>
+      <c r="B57" s="57" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C57" s="56">
+        <v>1</v>
+      </c>
+      <c r="D57" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="56">
+        <v>57</v>
+      </c>
+      <c r="B58" s="57" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C58" s="56">
+        <v>1</v>
+      </c>
+      <c r="D58" s="56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="56">
+        <v>58</v>
+      </c>
+      <c r="B59" s="57" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C59" s="56">
+        <v>1</v>
+      </c>
+      <c r="D59" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="56">
+        <v>59</v>
+      </c>
+      <c r="B60" s="57" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C60" s="56">
+        <v>1</v>
+      </c>
+      <c r="D60" s="56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="56">
+        <v>60</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C61" s="56">
+        <v>1</v>
+      </c>
+      <c r="D61" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="56">
+        <v>61</v>
+      </c>
+      <c r="B62" s="57" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C62" s="56">
+        <v>1</v>
+      </c>
+      <c r="D62" s="56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="56">
+        <v>62</v>
+      </c>
+      <c r="B63" s="57" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C63" s="56">
+        <v>1</v>
+      </c>
+      <c r="D63" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="56">
+        <v>63</v>
+      </c>
+      <c r="B64" s="57" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C64" s="56">
+        <v>1</v>
+      </c>
+      <c r="D64" s="56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="56">
+        <v>64</v>
+      </c>
+      <c r="B65" s="57" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C65" s="56">
+        <v>1</v>
+      </c>
+      <c r="D65" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="56">
+        <v>65</v>
+      </c>
+      <c r="B66" s="57" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C66" s="56">
+        <v>1</v>
+      </c>
+      <c r="D66" s="56">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -39051,7 +41706,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>412</v>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="1784">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6900,6 +6900,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>双十一498元礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7682,10 +7686,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7695,6 +7695,10 @@
   </si>
   <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag|标签</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8620,8 +8624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -8769,6 +8773,7 @@
       <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>42</v>
       </c>
@@ -8846,6 +8851,9 @@
       <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -8926,6 +8934,9 @@
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -9006,6 +9017,9 @@
       <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -9086,6 +9100,9 @@
       <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9166,6 +9183,9 @@
       <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9246,6 +9266,9 @@
       <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9326,6 +9349,9 @@
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -9407,7 +9433,9 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="52"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -9491,7 +9519,9 @@
       <c r="E11" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="52"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -9575,7 +9605,6 @@
       <c r="E12" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="52"/>
       <c r="H12" s="11" t="s">
         <v>42</v>
       </c>
@@ -9656,7 +9685,6 @@
       <c r="E13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="52"/>
       <c r="H13" s="11" t="s">
         <v>42</v>
       </c>
@@ -9737,7 +9765,6 @@
       <c r="E14" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="52"/>
       <c r="H14" s="11" t="s">
         <v>42</v>
       </c>
@@ -9818,7 +9845,6 @@
       <c r="E15" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="52"/>
       <c r="H15" s="11" t="s">
         <v>42</v>
       </c>
@@ -9899,7 +9925,6 @@
       <c r="E16" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="52"/>
       <c r="H16" s="11" t="s">
         <v>42</v>
       </c>
@@ -9972,7 +9997,6 @@
         <v>22</v>
       </c>
       <c r="E17" s="23"/>
-      <c r="F17" s="52"/>
       <c r="H17" s="11" t="s">
         <v>42</v>
       </c>
@@ -10045,7 +10069,6 @@
         <v>23</v>
       </c>
       <c r="E18" s="23"/>
-      <c r="F18" s="52"/>
       <c r="H18" s="11" t="s">
         <v>42</v>
       </c>
@@ -10118,7 +10141,6 @@
         <v>24</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="52"/>
       <c r="H19" s="11" t="s">
         <v>42</v>
       </c>
@@ -10191,7 +10213,6 @@
         <v>25</v>
       </c>
       <c r="E20" s="23"/>
-      <c r="F20" s="52"/>
       <c r="H20" s="11" t="s">
         <v>42</v>
       </c>
@@ -10264,7 +10285,6 @@
         <v>26</v>
       </c>
       <c r="E21" s="23"/>
-      <c r="F21" s="52"/>
       <c r="H21" s="11" t="s">
         <v>42</v>
       </c>
@@ -10337,7 +10357,6 @@
         <v>27</v>
       </c>
       <c r="E22" s="23"/>
-      <c r="F22" s="52"/>
       <c r="H22" s="11" t="s">
         <v>42</v>
       </c>
@@ -10410,7 +10429,6 @@
         <v>34</v>
       </c>
       <c r="E23" s="23"/>
-      <c r="F23" s="52"/>
       <c r="H23" s="11" t="s">
         <v>42</v>
       </c>
@@ -10489,7 +10507,9 @@
         <v>41</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="52"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -10570,10 +10590,10 @@
   <dimension ref="A1:AM488"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N429" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P434" sqref="P434:P440"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -14364,7 +14384,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="72" t="s">
         <v>233</v>
@@ -14420,7 +14440,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="72" t="s">
         <v>235</v>
@@ -14476,7 +14496,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="72" t="s">
         <v>237</v>
@@ -14532,7 +14552,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="72" t="s">
         <v>239</v>
@@ -14588,7 +14608,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="72" t="s">
         <v>240</v>
@@ -15923,7 +15943,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="72" t="s">
         <v>264</v>
@@ -17957,7 +17977,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="72" t="s">
         <v>330</v>
@@ -18013,7 +18033,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="72" t="s">
         <v>538</v>
@@ -27298,7 +27318,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="76" t="s">
         <v>541</v>
@@ -29967,7 +29987,7 @@
         <v>831</v>
       </c>
       <c r="V315" s="5" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="W315" s="5">
         <v>9999999</v>
@@ -30802,7 +30822,7 @@
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -30821,7 +30841,7 @@
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="Q328" s="47" t="s">
         <v>1139</v>
@@ -30884,7 +30904,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -30903,10 +30923,10 @@
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="Q329" s="47" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
@@ -30966,7 +30986,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -30985,10 +31005,10 @@
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="Q330" s="47" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
@@ -31048,7 +31068,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31067,10 +31087,10 @@
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="Q331" s="47" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
@@ -31130,7 +31150,7 @@
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31149,10 +31169,10 @@
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="Q332" s="47" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
@@ -31212,7 +31232,7 @@
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31231,10 +31251,10 @@
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="Q333" s="47" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
@@ -31294,7 +31314,7 @@
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31313,10 +31333,10 @@
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="Q334" s="47" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
@@ -31376,7 +31396,7 @@
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31395,10 +31415,10 @@
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="Q335" s="47" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
@@ -31458,7 +31478,7 @@
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31477,10 +31497,10 @@
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="Q336" s="47" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
@@ -31540,7 +31560,7 @@
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31559,10 +31579,10 @@
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="Q337" s="47" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
@@ -33819,7 +33839,7 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="Q369" s="10" t="s">
         <v>1316</v>
@@ -36369,7 +36389,7 @@
         <v>1457</v>
       </c>
       <c r="I408" s="5" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="K408" s="5">
         <v>-31</v>
@@ -36390,7 +36410,7 @@
         <v>1467</v>
       </c>
       <c r="Q408" s="10" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="V408" s="5" t="s">
         <v>1468</v>
@@ -36455,7 +36475,7 @@
         <v>1467</v>
       </c>
       <c r="Q409" s="10" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="V409" s="5" t="s">
         <v>1469</v>
@@ -36585,7 +36605,7 @@
         <v>1467</v>
       </c>
       <c r="Q411" s="10" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="V411" s="5" t="s">
         <v>1470</v>
@@ -36650,7 +36670,7 @@
         <v>1467</v>
       </c>
       <c r="Q412" s="10" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="V412" s="5" t="s">
         <v>1471</v>
@@ -36694,7 +36714,7 @@
         <v>1462</v>
       </c>
       <c r="I413" s="5" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="K413" s="5">
         <v>-31</v>
@@ -36715,7 +36735,7 @@
         <v>1467</v>
       </c>
       <c r="Q413" s="10" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="V413" s="5" t="s">
         <v>1469</v>
@@ -38006,7 +38026,7 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="Q433" s="39" t="s">
         <v>1536</v>
@@ -38074,7 +38094,7 @@
         <v>1800</v>
       </c>
       <c r="P434" s="5" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="Q434" s="10" t="s">
         <v>1552</v>
@@ -38334,7 +38354,7 @@
         <v>29800</v>
       </c>
       <c r="P438" s="5" t="s">
-        <v>1780</v>
+        <v>1573</v>
       </c>
       <c r="Q438" s="10" t="s">
         <v>1557</v>
@@ -38399,7 +38419,7 @@
         <v>49800</v>
       </c>
       <c r="P439" s="5" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="Q439" s="10" t="s">
         <v>1558</v>
@@ -38458,19 +38478,19 @@
         <v>0</v>
       </c>
       <c r="N440" s="5" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="O440" s="5">
         <v>99800</v>
       </c>
       <c r="P440" s="5" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="Q440" s="10" t="s">
         <v>1554</v>
       </c>
       <c r="V440" s="5" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="W440" s="5">
         <v>9999999</v>
@@ -38505,10 +38525,10 @@
         <v>1</v>
       </c>
       <c r="G441" s="5" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="I441" s="5" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="K441" s="5">
         <v>-31</v>
@@ -38526,13 +38546,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="5" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="Q441" s="10" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="V441" s="5" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="W441" s="5">
         <v>9999999</v>
@@ -38567,10 +38587,10 @@
         <v>1</v>
       </c>
       <c r="G442" s="5" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="I442" s="5" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="K442" s="5">
         <v>-31</v>
@@ -38588,13 +38608,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="5" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="Q442" s="10" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="V442" s="5" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="W442" s="5">
         <v>9999999</v>
@@ -38629,10 +38649,10 @@
         <v>1</v>
       </c>
       <c r="G443" s="5" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="I443" s="5" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="K443" s="5">
         <v>-31</v>
@@ -38650,13 +38670,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="5" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="Q443" s="10" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="V443" s="5" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="W443" s="5">
         <v>9999999</v>
@@ -38691,10 +38711,10 @@
         <v>1</v>
       </c>
       <c r="G444" s="5" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="I444" s="5" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="K444" s="5">
         <v>-31</v>
@@ -38712,13 +38732,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="5" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="Q444" s="10" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="V444" s="5" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="W444" s="5">
         <v>9999999</v>
@@ -38753,10 +38773,10 @@
         <v>1</v>
       </c>
       <c r="G445" s="5" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="I445" s="5" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="K445" s="5">
         <v>-31</v>
@@ -38774,13 +38794,13 @@
         <v>2000</v>
       </c>
       <c r="P445" s="5" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="Q445" s="10" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="V445" s="5" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="W445" s="5">
         <v>9999999</v>
@@ -38815,10 +38835,10 @@
         <v>1</v>
       </c>
       <c r="G446" s="5" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="I446" s="5" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="K446" s="5">
         <v>-31</v>
@@ -38836,13 +38856,13 @@
         <v>600</v>
       </c>
       <c r="P446" s="5" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="Q446" s="10" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="V446" s="5" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="W446" s="5">
         <v>9999999</v>
@@ -38877,13 +38897,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="54" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H447" s="54" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="I447" s="54" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="K447" s="54">
         <v>-31</v>
@@ -38901,10 +38921,10 @@
         <v>800</v>
       </c>
       <c r="P447" s="54" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q447" s="55" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="V447" s="5" t="s">
         <v>595</v>
@@ -38945,13 +38965,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="54" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="H448" s="54" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="I448" s="54" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="K448" s="54">
         <v>-31</v>
@@ -38969,10 +38989,10 @@
         <v>800</v>
       </c>
       <c r="P448" s="54" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q448" s="55" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="V448" s="5" t="s">
         <v>595</v>
@@ -39010,13 +39030,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="54" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H449" s="54" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="I449" s="54" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="K449" s="54">
         <v>-31</v>
@@ -39034,10 +39054,10 @@
         <v>800</v>
       </c>
       <c r="P449" s="54" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q449" s="55" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>551</v>
@@ -39078,13 +39098,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="64" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="H450" s="64" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="I450" s="64" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="K450" s="64">
         <v>-31</v>
@@ -39102,10 +39122,10 @@
         <v>3800</v>
       </c>
       <c r="P450" s="64" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q450" s="65" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>551</v>
@@ -39146,13 +39166,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="64" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="H451" s="64" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="I451" s="64" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="K451" s="64">
         <v>-31</v>
@@ -39170,10 +39190,10 @@
         <v>3800</v>
       </c>
       <c r="P451" s="64" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q451" s="65" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>551</v>
@@ -39211,13 +39231,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="64" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="H452" s="64" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="I452" s="64" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="K452" s="64">
         <v>-31</v>
@@ -39235,10 +39255,10 @@
         <v>3800</v>
       </c>
       <c r="P452" s="64" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q452" s="65" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>551</v>
@@ -39279,13 +39299,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="54" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H453" s="54" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="I453" s="54" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="K453" s="54">
         <v>-31</v>
@@ -39303,10 +39323,10 @@
         <v>9800</v>
       </c>
       <c r="P453" s="54" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q453" s="55" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>551</v>
@@ -39347,13 +39367,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="54" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H454" s="54" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="I454" s="54" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="K454" s="54">
         <v>-31</v>
@@ -39371,10 +39391,10 @@
         <v>9800</v>
       </c>
       <c r="P454" s="54" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q454" s="55" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>551</v>
@@ -39412,13 +39432,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="54" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H455" s="54" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="I455" s="54" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="K455" s="54">
         <v>-31</v>
@@ -39436,10 +39456,10 @@
         <v>9800</v>
       </c>
       <c r="P455" s="54" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q455" s="55" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>551</v>
@@ -39480,13 +39500,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="64" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H456" s="64" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="I456" s="64" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="K456" s="64">
         <v>-31</v>
@@ -39504,10 +39524,10 @@
         <v>19800</v>
       </c>
       <c r="P456" s="64" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q456" s="65" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>551</v>
@@ -39548,13 +39568,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="64" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="H457" s="64" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="I457" s="64" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="K457" s="64">
         <v>-31</v>
@@ -39572,10 +39592,10 @@
         <v>19800</v>
       </c>
       <c r="P457" s="64" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q457" s="65" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>551</v>
@@ -39613,13 +39633,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="64" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H458" s="64" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="I458" s="64" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="K458" s="64">
         <v>-31</v>
@@ -39637,10 +39657,10 @@
         <v>19800</v>
       </c>
       <c r="P458" s="64" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q458" s="65" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>551</v>
@@ -39681,13 +39701,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="54" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="H459" s="54" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="I459" s="54" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="K459" s="54">
         <v>-31</v>
@@ -39705,10 +39725,10 @@
         <v>49800</v>
       </c>
       <c r="P459" s="54" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q459" s="55" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>551</v>
@@ -39749,13 +39769,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="54" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="H460" s="54" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="I460" s="54" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="K460" s="54">
         <v>-31</v>
@@ -39773,10 +39793,10 @@
         <v>49800</v>
       </c>
       <c r="P460" s="54" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q460" s="55" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>551</v>
@@ -39814,13 +39834,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="54" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H461" s="54" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="I461" s="54" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="K461" s="54">
         <v>-31</v>
@@ -39838,10 +39858,10 @@
         <v>49800</v>
       </c>
       <c r="P461" s="54" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q461" s="55" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>551</v>
@@ -39882,13 +39902,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="64" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="H462" s="64" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="I462" s="64" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="K462" s="64">
         <v>-31</v>
@@ -39906,10 +39926,10 @@
         <v>99800</v>
       </c>
       <c r="P462" s="64" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q462" s="65" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>551</v>
@@ -39950,13 +39970,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="64" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H463" s="64" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="I463" s="64" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="K463" s="64">
         <v>-31</v>
@@ -39974,13 +39994,13 @@
         <v>99800</v>
       </c>
       <c r="P463" s="64" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q463" s="65" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="V463" s="5" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="W463" s="64">
         <v>9999999</v>
@@ -40015,13 +40035,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="64" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="H464" s="64" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="I464" s="64" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="K464" s="64">
         <v>-31</v>
@@ -40039,10 +40059,10 @@
         <v>99800</v>
       </c>
       <c r="P464" s="64" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q464" s="65" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>551</v>
@@ -40083,13 +40103,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="54" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H465" s="54" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="I465" s="54" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="K465" s="54">
         <v>-31</v>
@@ -40107,10 +40127,10 @@
         <v>249800</v>
       </c>
       <c r="P465" s="54" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q465" s="55" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>551</v>
@@ -40151,13 +40171,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="54" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H466" s="54" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="I466" s="54" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="K466" s="54">
         <v>-31</v>
@@ -40175,10 +40195,10 @@
         <v>249800</v>
       </c>
       <c r="P466" s="54" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="Q466" s="55" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>551</v>
@@ -40216,13 +40236,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="54" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H467" s="54" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="I467" s="54" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="K467" s="54">
         <v>-31</v>
@@ -40240,10 +40260,10 @@
         <v>249800</v>
       </c>
       <c r="P467" s="54" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="Q467" s="55" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>551</v>
@@ -40284,13 +40304,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="58" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="H468" s="58" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="I468" s="58" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="K468" s="58">
         <v>-31</v>
@@ -40308,13 +40328,13 @@
         <v>600</v>
       </c>
       <c r="P468" s="58" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="Q468" s="59" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="V468" s="58" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="W468" s="58">
         <v>9999999</v>
@@ -40349,13 +40369,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="58" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="H469" s="58" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="I469" s="58" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="K469" s="58">
         <v>-31</v>
@@ -40373,13 +40393,13 @@
         <v>3000</v>
       </c>
       <c r="P469" s="58" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="Q469" s="59" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="V469" s="58" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="W469" s="58">
         <v>9999999</v>
@@ -40414,13 +40434,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="58" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="H470" s="58" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="I470" s="58" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="K470" s="58">
         <v>-31</v>
@@ -40438,13 +40458,13 @@
         <v>6800</v>
       </c>
       <c r="P470" s="58" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="Q470" s="59" t="s">
         <v>861</v>
       </c>
       <c r="V470" s="58" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="W470" s="58">
         <v>9999999</v>
@@ -40479,13 +40499,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="58" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="H471" s="58" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="I471" s="58" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="K471" s="58">
         <v>-31</v>
@@ -40503,13 +40523,13 @@
         <v>9800</v>
       </c>
       <c r="P471" s="58" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="Q471" s="59" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="V471" s="58" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="W471" s="58">
         <v>9999999</v>
@@ -40544,13 +40564,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="58" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="H472" s="58" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="I472" s="58" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="K472" s="58">
         <v>-31</v>
@@ -40568,13 +40588,13 @@
         <v>19800</v>
       </c>
       <c r="P472" s="58" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="Q472" s="59" t="s">
         <v>862</v>
       </c>
       <c r="V472" s="58" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="W472" s="58">
         <v>9999999</v>
@@ -40609,13 +40629,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="58" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H473" s="58" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="I473" s="58" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="K473" s="58">
         <v>-31</v>
@@ -40633,13 +40653,13 @@
         <v>49800</v>
       </c>
       <c r="P473" s="58" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="Q473" s="59" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="V473" s="58" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="W473" s="58">
         <v>9999999</v>
@@ -40674,13 +40694,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="68" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="H474" s="68" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="I474" s="68" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="K474" s="68">
         <v>-31</v>
@@ -40698,13 +40718,13 @@
         <v>99800</v>
       </c>
       <c r="P474" s="68" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="Q474" s="69" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="V474" s="68" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="W474" s="68">
         <v>9999999</v>
@@ -40739,13 +40759,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="68" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H475" s="68" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="I475" s="68" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="K475" s="68">
         <v>-31</v>
@@ -40757,19 +40777,19 @@
         <v>0</v>
       </c>
       <c r="N475" s="68" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="O475" s="68">
         <v>249800</v>
       </c>
       <c r="P475" s="68" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="Q475" s="69" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="V475" s="68" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="W475" s="68">
         <v>9999999</v>
@@ -40804,13 +40824,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="70" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H476" s="70" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="I476" s="70" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="K476" s="70">
         <v>-31</v>
@@ -40822,19 +40842,19 @@
         <v>0</v>
       </c>
       <c r="N476" s="70" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="O476" s="70">
         <v>49800</v>
       </c>
       <c r="P476" s="70" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="Q476" s="71" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="V476" s="70" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="W476" s="70">
         <v>9999999</v>
@@ -40869,13 +40889,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="70" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H477" s="70" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="I477" s="70" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="K477" s="70">
         <v>-31</v>
@@ -40887,19 +40907,19 @@
         <v>0</v>
       </c>
       <c r="N477" s="70" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="O477" s="70">
         <v>19800</v>
       </c>
       <c r="P477" s="70" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="Q477" s="71" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="V477" s="70" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="W477" s="70">
         <v>9999999</v>
@@ -40934,13 +40954,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="70" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H478" s="70" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="I478" s="70" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="K478" s="70">
         <v>-31</v>
@@ -40952,16 +40972,16 @@
         <v>0</v>
       </c>
       <c r="N478" s="70" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="O478" s="70">
         <v>9800</v>
       </c>
       <c r="P478" s="70" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="Q478" s="71" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="V478" s="70" t="s">
         <v>551</v>
@@ -40999,13 +41019,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="70" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H479" s="70" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="I479" s="70" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="K479" s="70">
         <v>-31</v>
@@ -41023,13 +41043,13 @@
         <v>4800</v>
       </c>
       <c r="P479" s="70" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="Q479" s="71" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="V479" s="70" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="W479" s="70">
         <v>9999999</v>
@@ -41492,7 +41512,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -41726,7 +41746,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="67" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -41740,7 +41760,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="67" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -41754,7 +41774,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -41838,7 +41858,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C53" s="56">
         <v>1</v>
@@ -41852,7 +41872,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C54" s="56">
         <v>1</v>
@@ -41866,7 +41886,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C55" s="56">
         <v>1</v>
@@ -41880,7 +41900,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C56" s="56">
         <v>1</v>
@@ -41894,7 +41914,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C57" s="56">
         <v>1</v>
@@ -41908,7 +41928,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C58" s="56">
         <v>1</v>
@@ -41922,7 +41942,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C59" s="56">
         <v>1</v>
@@ -41936,7 +41956,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C60" s="56">
         <v>1</v>
@@ -41950,7 +41970,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C61" s="56">
         <v>1</v>
@@ -41964,7 +41984,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C62" s="56">
         <v>1</v>
@@ -41978,7 +41998,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C63" s="56">
         <v>1</v>
@@ -41992,7 +42012,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C64" s="56">
         <v>1</v>
@@ -42006,7 +42026,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C65" s="56">
         <v>1</v>
@@ -42020,7 +42040,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C66" s="56">
         <v>1</v>
@@ -43743,10 +43763,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -43770,7 +43790,7 @@
     <col min="24" max="24" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="90" customHeight="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -43843,8 +43863,11 @@
       <c r="X1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="12" customFormat="1">
+      <c r="Y1" s="1" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="12" customFormat="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -43900,7 +43923,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="12" customFormat="1">
+    <row r="3" spans="1:25" s="12" customFormat="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -43959,7 +43982,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="12" customFormat="1">
+    <row r="4" spans="1:25" s="12" customFormat="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -44007,7 +44030,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="12" customFormat="1">
+    <row r="5" spans="1:25" s="12" customFormat="1">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -44048,7 +44071,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="12" customFormat="1">
+    <row r="6" spans="1:25" s="12" customFormat="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -44089,7 +44112,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="12" customFormat="1">
+    <row r="7" spans="1:25" s="12" customFormat="1">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -44148,7 +44171,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="12" customFormat="1">
+    <row r="8" spans="1:25" s="12" customFormat="1">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -44204,7 +44227,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="12" customFormat="1">
+    <row r="9" spans="1:25" s="12" customFormat="1">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -44242,7 +44265,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="12" customFormat="1">
+    <row r="10" spans="1:25" s="12" customFormat="1">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -44280,7 +44303,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="12" customFormat="1">
+    <row r="11" spans="1:25" s="12" customFormat="1">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -44318,7 +44341,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="12" customFormat="1">
+    <row r="12" spans="1:25" s="12" customFormat="1">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -44356,7 +44379,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="12" customFormat="1">
+    <row r="13" spans="1:25" s="12" customFormat="1">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -44403,7 +44426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="12" customFormat="1">
+    <row r="14" spans="1:25" s="12" customFormat="1">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -44450,7 +44473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="12" customFormat="1">
+    <row r="15" spans="1:25" s="12" customFormat="1">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -44497,7 +44520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="25" customFormat="1">
+    <row r="16" spans="1:25" s="25" customFormat="1">
       <c r="A16" s="25">
         <v>15</v>
       </c>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="1784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="1787">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7698,8 +7698,16 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>tag|标签</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>双十二498元礼包</t>
+  </si>
+  <si>
+    <t>双十二20元礼包</t>
+  </si>
+  <si>
+    <t>双十二6元礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_12_12_cjq",</t>
   </si>
 </sst>
 </file>
@@ -7777,7 +7785,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7874,6 +7882,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7917,7 +7931,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8159,6 +8173,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8625,7 +8648,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F24"/>
+      <selection activeCell="F2" sqref="F2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -8851,9 +8874,7 @@
       <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -8934,9 +8955,7 @@
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -9017,9 +9036,7 @@
       <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -9100,9 +9117,7 @@
       <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9183,9 +9198,7 @@
       <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9266,9 +9279,7 @@
       <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9349,9 +9360,7 @@
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -9433,9 +9442,6 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -9519,9 +9525,6 @@
       <c r="E11" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -10507,9 +10510,6 @@
         <v>41</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -10590,7 +10590,7 @@
   <dimension ref="A1:AM488"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
@@ -14384,7 +14384,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="72" t="s">
         <v>233</v>
@@ -14440,7 +14440,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="72" t="s">
         <v>235</v>
@@ -14496,7 +14496,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="72" t="s">
         <v>237</v>
@@ -14552,7 +14552,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="72" t="s">
         <v>239</v>
@@ -14608,7 +14608,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="72" t="s">
         <v>240</v>
@@ -15943,7 +15943,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="72" t="s">
         <v>264</v>
@@ -17977,7 +17977,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="72" t="s">
         <v>330</v>
@@ -18033,7 +18033,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="72" t="s">
         <v>538</v>
@@ -27318,7 +27318,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="76" t="s">
         <v>541</v>
@@ -41073,15 +41073,381 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:38" s="5" customFormat="1"/>
-    <row r="481" spans="17:17" s="5" customFormat="1"/>
-    <row r="482" spans="17:17" s="5" customFormat="1"/>
-    <row r="483" spans="17:17" s="5" customFormat="1"/>
-    <row r="484" spans="17:17" s="5" customFormat="1"/>
-    <row r="485" spans="17:17" s="5" customFormat="1"/>
-    <row r="486" spans="17:17" s="5" customFormat="1"/>
-    <row r="487" spans="17:17" s="5" customFormat="1"/>
-    <row r="488" spans="17:17" s="5" customFormat="1">
+    <row r="480" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="A480" s="81">
+        <v>479</v>
+      </c>
+      <c r="B480" s="81">
+        <v>10396</v>
+      </c>
+      <c r="F480" s="81">
+        <v>1</v>
+      </c>
+      <c r="G480" s="81" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I480" s="81" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K480" s="81">
+        <v>-31</v>
+      </c>
+      <c r="L480" s="81">
+        <v>0</v>
+      </c>
+      <c r="M480" s="81">
+        <v>0</v>
+      </c>
+      <c r="N480" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="O480" s="81">
+        <v>49800</v>
+      </c>
+      <c r="P480" s="81" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q480" s="82" t="s">
+        <v>1590</v>
+      </c>
+      <c r="V480" s="81" t="s">
+        <v>1603</v>
+      </c>
+      <c r="W480" s="81">
+        <v>9999999</v>
+      </c>
+      <c r="X480" s="83">
+        <v>1607385600</v>
+      </c>
+      <c r="Y480" s="83">
+        <v>1607961599</v>
+      </c>
+      <c r="AG480" s="81">
+        <v>1</v>
+      </c>
+      <c r="AH480" s="81">
+        <v>1</v>
+      </c>
+      <c r="AK480" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL480" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="A481" s="81">
+        <v>480</v>
+      </c>
+      <c r="B481" s="81">
+        <v>10397</v>
+      </c>
+      <c r="F481" s="81">
+        <v>1</v>
+      </c>
+      <c r="G481" s="81" t="s">
+        <v>366</v>
+      </c>
+      <c r="I481" s="81" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K481" s="81">
+        <v>-31</v>
+      </c>
+      <c r="L481" s="81">
+        <v>0</v>
+      </c>
+      <c r="M481" s="81">
+        <v>0</v>
+      </c>
+      <c r="N481" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="O481" s="81">
+        <v>19800</v>
+      </c>
+      <c r="P481" s="81" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q481" s="82" t="s">
+        <v>1592</v>
+      </c>
+      <c r="V481" s="81" t="s">
+        <v>1603</v>
+      </c>
+      <c r="W481" s="81">
+        <v>9999999</v>
+      </c>
+      <c r="X481" s="83">
+        <v>1607385600</v>
+      </c>
+      <c r="Y481" s="83">
+        <v>1607961599</v>
+      </c>
+      <c r="AG481" s="81">
+        <v>1</v>
+      </c>
+      <c r="AH481" s="81">
+        <v>1</v>
+      </c>
+      <c r="AK481" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL481" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="A482" s="81">
+        <v>481</v>
+      </c>
+      <c r="B482" s="81">
+        <v>10398</v>
+      </c>
+      <c r="F482" s="81">
+        <v>1</v>
+      </c>
+      <c r="G482" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="I482" s="81" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K482" s="81">
+        <v>-31</v>
+      </c>
+      <c r="L482" s="81">
+        <v>0</v>
+      </c>
+      <c r="M482" s="81">
+        <v>0</v>
+      </c>
+      <c r="N482" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="O482" s="81">
+        <v>9800</v>
+      </c>
+      <c r="P482" s="81" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q482" s="82" t="s">
+        <v>1416</v>
+      </c>
+      <c r="V482" s="81" t="s">
+        <v>1603</v>
+      </c>
+      <c r="W482" s="81">
+        <v>9999999</v>
+      </c>
+      <c r="X482" s="83">
+        <v>1607385600</v>
+      </c>
+      <c r="Y482" s="83">
+        <v>1607961599</v>
+      </c>
+      <c r="AG482" s="81">
+        <v>1</v>
+      </c>
+      <c r="AH482" s="81">
+        <v>1</v>
+      </c>
+      <c r="AK482" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL482" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="A483" s="81">
+        <v>482</v>
+      </c>
+      <c r="B483" s="81">
+        <v>10399</v>
+      </c>
+      <c r="F483" s="81">
+        <v>1</v>
+      </c>
+      <c r="G483" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="I483" s="81" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K483" s="81">
+        <v>-31</v>
+      </c>
+      <c r="L483" s="81">
+        <v>0</v>
+      </c>
+      <c r="M483" s="81">
+        <v>0</v>
+      </c>
+      <c r="N483" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="O483" s="81">
+        <v>4800</v>
+      </c>
+      <c r="P483" s="81" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q483" s="82" t="s">
+        <v>1596</v>
+      </c>
+      <c r="V483" s="81" t="s">
+        <v>1603</v>
+      </c>
+      <c r="W483" s="81">
+        <v>9999999</v>
+      </c>
+      <c r="X483" s="83">
+        <v>1607385600</v>
+      </c>
+      <c r="Y483" s="83">
+        <v>1607961599</v>
+      </c>
+      <c r="AG483" s="81">
+        <v>1</v>
+      </c>
+      <c r="AH483" s="81">
+        <v>1</v>
+      </c>
+      <c r="AK483" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL483" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="A484" s="81">
+        <v>483</v>
+      </c>
+      <c r="B484" s="81">
+        <v>10400</v>
+      </c>
+      <c r="F484" s="81">
+        <v>1</v>
+      </c>
+      <c r="G484" s="81" t="s">
+        <v>1784</v>
+      </c>
+      <c r="I484" s="81" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K484" s="81">
+        <v>-31</v>
+      </c>
+      <c r="L484" s="81">
+        <v>0</v>
+      </c>
+      <c r="M484" s="81">
+        <v>0</v>
+      </c>
+      <c r="N484" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="O484" s="81">
+        <v>2000</v>
+      </c>
+      <c r="P484" s="81" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q484" s="82" t="s">
+        <v>1597</v>
+      </c>
+      <c r="V484" s="81" t="s">
+        <v>595</v>
+      </c>
+      <c r="W484" s="81">
+        <v>9999999</v>
+      </c>
+      <c r="X484" s="83">
+        <v>1607385600</v>
+      </c>
+      <c r="Y484" s="83">
+        <v>1607961599</v>
+      </c>
+      <c r="AG484" s="81">
+        <v>1</v>
+      </c>
+      <c r="AH484" s="81">
+        <v>1</v>
+      </c>
+      <c r="AK484" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL484" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="A485" s="81">
+        <v>484</v>
+      </c>
+      <c r="B485" s="81">
+        <v>10401</v>
+      </c>
+      <c r="F485" s="81">
+        <v>1</v>
+      </c>
+      <c r="G485" s="81" t="s">
+        <v>1785</v>
+      </c>
+      <c r="I485" s="81" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K485" s="81">
+        <v>-31</v>
+      </c>
+      <c r="L485" s="81">
+        <v>0</v>
+      </c>
+      <c r="M485" s="81">
+        <v>0</v>
+      </c>
+      <c r="N485" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="O485" s="81">
+        <v>600</v>
+      </c>
+      <c r="P485" s="81" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q485" s="82" t="s">
+        <v>1599</v>
+      </c>
+      <c r="V485" s="81" t="s">
+        <v>595</v>
+      </c>
+      <c r="W485" s="81">
+        <v>9999999</v>
+      </c>
+      <c r="X485" s="83">
+        <v>1607385600</v>
+      </c>
+      <c r="Y485" s="83">
+        <v>1607961599</v>
+      </c>
+      <c r="AG485" s="81">
+        <v>1</v>
+      </c>
+      <c r="AH485" s="81">
+        <v>1</v>
+      </c>
+      <c r="AK485" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL485" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:38" s="5" customFormat="1"/>
+    <row r="487" spans="1:38" s="5" customFormat="1"/>
+    <row r="488" spans="1:38" s="5" customFormat="1">
       <c r="Q488" s="10"/>
     </row>
   </sheetData>
@@ -43763,10 +44129,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -43790,7 +44156,7 @@
     <col min="24" max="24" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="90" customHeight="1">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -43863,11 +44229,8 @@
       <c r="X1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="12" customFormat="1">
+    </row>
+    <row r="2" spans="1:24" s="12" customFormat="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -43923,7 +44286,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="12" customFormat="1">
+    <row r="3" spans="1:24" s="12" customFormat="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -43982,7 +44345,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="12" customFormat="1">
+    <row r="4" spans="1:24" s="12" customFormat="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -44030,7 +44393,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="12" customFormat="1">
+    <row r="5" spans="1:24" s="12" customFormat="1">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -44071,7 +44434,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="12" customFormat="1">
+    <row r="6" spans="1:24" s="12" customFormat="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -44112,7 +44475,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="12" customFormat="1">
+    <row r="7" spans="1:24" s="12" customFormat="1">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -44171,7 +44534,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="12" customFormat="1">
+    <row r="8" spans="1:24" s="12" customFormat="1">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -44227,7 +44590,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="12" customFormat="1">
+    <row r="9" spans="1:24" s="12" customFormat="1">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -44265,7 +44628,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="12" customFormat="1">
+    <row r="10" spans="1:24" s="12" customFormat="1">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -44303,7 +44666,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="12" customFormat="1">
+    <row r="11" spans="1:24" s="12" customFormat="1">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -44341,7 +44704,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="12" customFormat="1">
+    <row r="12" spans="1:24" s="12" customFormat="1">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -44379,7 +44742,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="12" customFormat="1">
+    <row r="13" spans="1:24" s="12" customFormat="1">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -44426,7 +44789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="12" customFormat="1">
+    <row r="14" spans="1:24" s="12" customFormat="1">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -44473,7 +44836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="12" customFormat="1">
+    <row r="15" spans="1:24" s="12" customFormat="1">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -44520,7 +44883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="25" customFormat="1">
+    <row r="16" spans="1:24" s="25" customFormat="1">
       <c r="A16" s="25">
         <v>15</v>
       </c>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1826">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7881,10 +7881,6 @@
   </si>
   <si>
     <t>20400000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_web_chip_huafei"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -10775,7 +10771,7 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
@@ -14874,7 +14870,7 @@
         <v>239</v>
       </c>
       <c r="H71" s="72" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="L71" s="72">
         <v>-4</v>
@@ -15247,7 +15243,7 @@
         <v>100</v>
       </c>
       <c r="Q77" s="19" t="s">
-        <v>1825</v>
+        <v>502</v>
       </c>
       <c r="R77" s="39" t="s">
         <v>1733</v>
@@ -35242,10 +35238,10 @@
         <v>9999999</v>
       </c>
       <c r="Y386" s="62">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z386" s="62">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA386" s="62">
         <v>44</v>
@@ -35310,10 +35306,10 @@
         <v>9999999</v>
       </c>
       <c r="Y387" s="62">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z387" s="62">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA387" s="62">
         <v>44</v>
@@ -35378,10 +35374,10 @@
         <v>9999999</v>
       </c>
       <c r="Y388" s="62">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z388" s="62">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA388" s="62">
         <v>44</v>
@@ -35445,11 +35441,11 @@
       <c r="X389" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="60">
-        <v>1605571200</v>
-      </c>
-      <c r="Z389" s="60">
-        <v>1606147199</v>
+      <c r="Y389" s="62">
+        <v>1608595200</v>
+      </c>
+      <c r="Z389" s="62">
+        <v>1609171199</v>
       </c>
       <c r="AA389" s="60">
         <v>45</v>
@@ -35513,11 +35509,11 @@
       <c r="X390" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="60">
-        <v>1605571200</v>
-      </c>
-      <c r="Z390" s="60">
-        <v>1606147199</v>
+      <c r="Y390" s="62">
+        <v>1608595200</v>
+      </c>
+      <c r="Z390" s="62">
+        <v>1609171199</v>
       </c>
       <c r="AA390" s="60">
         <v>45</v>
@@ -35581,11 +35577,11 @@
       <c r="X391" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="60">
-        <v>1605571200</v>
-      </c>
-      <c r="Z391" s="60">
-        <v>1606147199</v>
+      <c r="Y391" s="62">
+        <v>1608595200</v>
+      </c>
+      <c r="Z391" s="62">
+        <v>1609171199</v>
       </c>
       <c r="AA391" s="60">
         <v>45</v>
@@ -35650,10 +35646,10 @@
         <v>9999999</v>
       </c>
       <c r="Y392" s="62">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z392" s="62">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA392" s="62">
         <v>46</v>
@@ -35718,10 +35714,10 @@
         <v>9999999</v>
       </c>
       <c r="Y393" s="62">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z393" s="62">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA393" s="62">
         <v>46</v>
@@ -35786,10 +35782,10 @@
         <v>9999999</v>
       </c>
       <c r="Y394" s="62">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z394" s="62">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA394" s="62">
         <v>46</v>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081" uniqueCount="1836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="1870">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7920,6 +7920,130 @@
   </si>
   <si>
     <t>（v1-v3）及小额、免费、新玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","双倍奖励*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","双倍奖励*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","双倍奖励*5",</t>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","双倍奖励*3",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","双倍奖励*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+  </si>
+  <si>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8150,7 +8274,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8410,6 +8534,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8875,8 +9005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -9024,9 +9154,7 @@
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2">
-        <v>10330</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2">
         <v>10330</v>
       </c>
@@ -9107,9 +9235,7 @@
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -9190,9 +9316,7 @@
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -9273,9 +9397,7 @@
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -9356,9 +9478,7 @@
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9439,9 +9559,7 @@
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9522,9 +9640,7 @@
       <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9605,9 +9721,7 @@
       <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -9689,9 +9803,6 @@
         <v>40</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -9775,9 +9886,6 @@
       <c r="E11" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -10763,9 +10871,6 @@
         <v>40</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -10843,18 +10948,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN496"/>
+  <dimension ref="A1:AN508"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="I518" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q480" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F273" sqref="F273"/>
+      <selection pane="bottomRight" activeCell="R497" sqref="R497:R508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="6"/>
+    <col min="1" max="1" width="8.75" style="5"/>
     <col min="2" max="2" width="19.375" style="6" customWidth="1"/>
     <col min="3" max="3" width="8.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="6" customWidth="1"/>
@@ -10893,7 +10998,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -14074,7 +14179,7 @@
       </c>
     </row>
     <row r="56" spans="1:35" s="22" customFormat="1">
-      <c r="A56" s="22">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="22">
@@ -14693,7 +14798,7 @@
       </c>
     </row>
     <row r="67" spans="1:35" s="72" customFormat="1">
-      <c r="A67" s="72">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="72">
@@ -14703,7 +14808,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="72" t="s">
         <v>1760</v>
@@ -14752,7 +14857,7 @@
       </c>
     </row>
     <row r="68" spans="1:35" s="72" customFormat="1">
-      <c r="A68" s="72">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="72">
@@ -14762,7 +14867,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="72" t="s">
         <v>233</v>
@@ -14811,7 +14916,7 @@
       </c>
     </row>
     <row r="69" spans="1:35" s="72" customFormat="1">
-      <c r="A69" s="72">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="72">
@@ -14821,7 +14926,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="72" t="s">
         <v>235</v>
@@ -14870,7 +14975,7 @@
       </c>
     </row>
     <row r="70" spans="1:35" s="72" customFormat="1">
-      <c r="A70" s="72">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="72">
@@ -14880,7 +14985,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="72" t="s">
         <v>237</v>
@@ -14929,7 +15034,7 @@
       </c>
     </row>
     <row r="71" spans="1:35" s="72" customFormat="1">
-      <c r="A71" s="72">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="72">
@@ -14939,7 +15044,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="72" t="s">
         <v>238</v>
@@ -15287,7 +15392,7 @@
       </c>
     </row>
     <row r="77" spans="1:35" s="19" customFormat="1">
-      <c r="A77" s="19">
+      <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77" s="19">
@@ -15352,7 +15457,7 @@
       </c>
     </row>
     <row r="78" spans="1:35" s="19" customFormat="1">
-      <c r="A78" s="19">
+      <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="19">
@@ -15550,7 +15655,7 @@
       </c>
     </row>
     <row r="81" spans="1:35" s="19" customFormat="1">
-      <c r="A81" s="19">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="19">
@@ -16282,14 +16387,14 @@
       </c>
     </row>
     <row r="94" spans="1:35" s="72" customFormat="1">
-      <c r="A94" s="72">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
       <c r="B94" s="72">
         <v>109</v>
       </c>
       <c r="F94" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="72" t="s">
         <v>262</v>
@@ -16636,7 +16741,7 @@
       </c>
     </row>
     <row r="100" spans="1:35" s="19" customFormat="1">
-      <c r="A100" s="19">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
       <c r="B100" s="19">
@@ -16699,7 +16804,7 @@
       </c>
     </row>
     <row r="101" spans="1:35" s="19" customFormat="1">
-      <c r="A101" s="19">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
       <c r="B101" s="19">
@@ -16762,7 +16867,7 @@
       </c>
     </row>
     <row r="102" spans="1:35" s="19" customFormat="1">
-      <c r="A102" s="19">
+      <c r="A102" s="5">
         <v>101</v>
       </c>
       <c r="B102" s="19">
@@ -16825,7 +16930,7 @@
       </c>
     </row>
     <row r="103" spans="1:35" s="19" customFormat="1">
-      <c r="A103" s="19">
+      <c r="A103" s="5">
         <v>102</v>
       </c>
       <c r="B103" s="19">
@@ -16888,7 +16993,7 @@
       </c>
     </row>
     <row r="104" spans="1:35" s="19" customFormat="1">
-      <c r="A104" s="19">
+      <c r="A104" s="5">
         <v>103</v>
       </c>
       <c r="B104" s="19">
@@ -16951,7 +17056,7 @@
       </c>
     </row>
     <row r="105" spans="1:35" s="19" customFormat="1">
-      <c r="A105" s="19">
+      <c r="A105" s="5">
         <v>104</v>
       </c>
       <c r="B105" s="19">
@@ -17014,7 +17119,7 @@
       </c>
     </row>
     <row r="106" spans="1:35" s="19" customFormat="1">
-      <c r="A106" s="19">
+      <c r="A106" s="5">
         <v>105</v>
       </c>
       <c r="B106" s="19">
@@ -17077,7 +17182,7 @@
       </c>
     </row>
     <row r="107" spans="1:35" s="19" customFormat="1">
-      <c r="A107" s="19">
+      <c r="A107" s="5">
         <v>106</v>
       </c>
       <c r="B107" s="19">
@@ -17140,7 +17245,7 @@
       </c>
     </row>
     <row r="108" spans="1:35" s="19" customFormat="1">
-      <c r="A108" s="19">
+      <c r="A108" s="5">
         <v>107</v>
       </c>
       <c r="B108" s="19">
@@ -18313,7 +18418,7 @@
       </c>
     </row>
     <row r="128" spans="1:35" s="72" customFormat="1">
-      <c r="A128" s="72">
+      <c r="A128" s="5">
         <v>127</v>
       </c>
       <c r="B128" s="72">
@@ -18323,7 +18428,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="72" t="s">
         <v>328</v>
@@ -18372,7 +18477,7 @@
       </c>
     </row>
     <row r="129" spans="1:39" s="72" customFormat="1">
-      <c r="A129" s="72">
+      <c r="A129" s="5">
         <v>128</v>
       </c>
       <c r="B129" s="72">
@@ -18382,7 +18487,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="72" t="s">
         <v>536</v>
@@ -20809,7 +20914,7 @@
       </c>
     </row>
     <row r="168" spans="1:39" s="19" customFormat="1">
-      <c r="A168" s="19">
+      <c r="A168" s="5">
         <v>167</v>
       </c>
       <c r="B168" s="19">
@@ -20874,7 +20979,7 @@
       </c>
     </row>
     <row r="169" spans="1:39" s="19" customFormat="1">
-      <c r="A169" s="19">
+      <c r="A169" s="5">
         <v>168</v>
       </c>
       <c r="B169" s="19">
@@ -20936,7 +21041,7 @@
       </c>
     </row>
     <row r="170" spans="1:39" s="19" customFormat="1">
-      <c r="A170" s="19">
+      <c r="A170" s="5">
         <v>169</v>
       </c>
       <c r="B170" s="19">
@@ -20998,7 +21103,7 @@
       </c>
     </row>
     <row r="171" spans="1:39" s="43" customFormat="1">
-      <c r="A171" s="43">
+      <c r="A171" s="5">
         <v>170</v>
       </c>
       <c r="B171" s="43">
@@ -21066,7 +21171,7 @@
       </c>
     </row>
     <row r="172" spans="1:39" s="43" customFormat="1">
-      <c r="A172" s="43">
+      <c r="A172" s="5">
         <v>171</v>
       </c>
       <c r="B172" s="43">
@@ -21134,7 +21239,7 @@
       </c>
     </row>
     <row r="173" spans="1:39" s="43" customFormat="1">
-      <c r="A173" s="43">
+      <c r="A173" s="5">
         <v>172</v>
       </c>
       <c r="B173" s="43">
@@ -21202,7 +21307,7 @@
       </c>
     </row>
     <row r="174" spans="1:39" s="43" customFormat="1">
-      <c r="A174" s="43">
+      <c r="A174" s="5">
         <v>173</v>
       </c>
       <c r="B174" s="43">
@@ -21270,7 +21375,7 @@
       </c>
     </row>
     <row r="175" spans="1:39" s="43" customFormat="1">
-      <c r="A175" s="43">
+      <c r="A175" s="5">
         <v>174</v>
       </c>
       <c r="B175" s="43">
@@ -21338,7 +21443,7 @@
       </c>
     </row>
     <row r="176" spans="1:39" s="43" customFormat="1">
-      <c r="A176" s="43">
+      <c r="A176" s="5">
         <v>175</v>
       </c>
       <c r="B176" s="43">
@@ -21406,7 +21511,7 @@
       </c>
     </row>
     <row r="177" spans="1:39" s="43" customFormat="1">
-      <c r="A177" s="43">
+      <c r="A177" s="5">
         <v>176</v>
       </c>
       <c r="B177" s="43">
@@ -21474,7 +21579,7 @@
       </c>
     </row>
     <row r="178" spans="1:39" s="43" customFormat="1">
-      <c r="A178" s="43">
+      <c r="A178" s="5">
         <v>177</v>
       </c>
       <c r="B178" s="43">
@@ -21542,7 +21647,7 @@
       </c>
     </row>
     <row r="179" spans="1:39" s="43" customFormat="1">
-      <c r="A179" s="43">
+      <c r="A179" s="5">
         <v>178</v>
       </c>
       <c r="B179" s="43">
@@ -21610,7 +21715,7 @@
       </c>
     </row>
     <row r="180" spans="1:39" s="43" customFormat="1">
-      <c r="A180" s="43">
+      <c r="A180" s="5">
         <v>179</v>
       </c>
       <c r="B180" s="43">
@@ -21678,7 +21783,7 @@
       </c>
     </row>
     <row r="181" spans="1:39" s="43" customFormat="1">
-      <c r="A181" s="43">
+      <c r="A181" s="5">
         <v>180</v>
       </c>
       <c r="B181" s="43">
@@ -21746,7 +21851,7 @@
       </c>
     </row>
     <row r="182" spans="1:39" s="43" customFormat="1">
-      <c r="A182" s="43">
+      <c r="A182" s="5">
         <v>181</v>
       </c>
       <c r="B182" s="43">
@@ -21814,7 +21919,7 @@
       </c>
     </row>
     <row r="183" spans="1:39" s="43" customFormat="1">
-      <c r="A183" s="43">
+      <c r="A183" s="5">
         <v>182</v>
       </c>
       <c r="B183" s="43">
@@ -21882,7 +21987,7 @@
       </c>
     </row>
     <row r="184" spans="1:39" s="43" customFormat="1">
-      <c r="A184" s="43">
+      <c r="A184" s="5">
         <v>183</v>
       </c>
       <c r="B184" s="43">
@@ -21950,7 +22055,7 @@
       </c>
     </row>
     <row r="185" spans="1:39" s="43" customFormat="1">
-      <c r="A185" s="43">
+      <c r="A185" s="5">
         <v>184</v>
       </c>
       <c r="B185" s="43">
@@ -26181,7 +26286,7 @@
       </c>
     </row>
     <row r="250" spans="1:39" s="19" customFormat="1">
-      <c r="A250" s="19">
+      <c r="A250" s="5">
         <v>249</v>
       </c>
       <c r="B250" s="19">
@@ -27675,7 +27780,7 @@
       </c>
     </row>
     <row r="273" spans="1:40" s="76" customFormat="1" ht="14.25">
-      <c r="A273" s="76">
+      <c r="A273" s="88">
         <v>272</v>
       </c>
       <c r="B273" s="76">
@@ -27685,7 +27790,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="76" t="s">
         <v>539</v>
@@ -27734,7 +27839,7 @@
       </c>
     </row>
     <row r="274" spans="1:40" ht="14.25">
-      <c r="A274" s="6">
+      <c r="A274" s="5">
         <v>273</v>
       </c>
       <c r="B274" s="5">
@@ -30805,7 +30910,7 @@
       </c>
     </row>
     <row r="323" spans="1:39" s="43" customFormat="1">
-      <c r="A323" s="43">
+      <c r="A323" s="5">
         <v>322</v>
       </c>
       <c r="B323" s="43">
@@ -30870,7 +30975,7 @@
       </c>
     </row>
     <row r="324" spans="1:39" s="43" customFormat="1">
-      <c r="A324" s="43">
+      <c r="A324" s="5">
         <v>323</v>
       </c>
       <c r="B324" s="43">
@@ -30935,7 +31040,7 @@
       </c>
     </row>
     <row r="325" spans="1:39" s="43" customFormat="1">
-      <c r="A325" s="43">
+      <c r="A325" s="5">
         <v>324</v>
       </c>
       <c r="B325" s="43">
@@ -31000,7 +31105,7 @@
       </c>
     </row>
     <row r="326" spans="1:39" s="40" customFormat="1">
-      <c r="A326" s="40">
+      <c r="A326" s="5">
         <v>325</v>
       </c>
       <c r="B326" s="40">
@@ -31060,7 +31165,7 @@
       </c>
     </row>
     <row r="327" spans="1:39" s="43" customFormat="1">
-      <c r="A327" s="43">
+      <c r="A327" s="5">
         <v>326</v>
       </c>
       <c r="B327" s="43">
@@ -31122,7 +31227,7 @@
       </c>
     </row>
     <row r="328" spans="1:39">
-      <c r="A328" s="43">
+      <c r="A328" s="5">
         <v>327</v>
       </c>
       <c r="B328" s="43">
@@ -31205,7 +31310,7 @@
       </c>
     </row>
     <row r="329" spans="1:39">
-      <c r="A329" s="43">
+      <c r="A329" s="5">
         <v>328</v>
       </c>
       <c r="B329" s="43">
@@ -31288,7 +31393,7 @@
       </c>
     </row>
     <row r="330" spans="1:39">
-      <c r="A330" s="43">
+      <c r="A330" s="5">
         <v>329</v>
       </c>
       <c r="B330" s="43">
@@ -31371,7 +31476,7 @@
       </c>
     </row>
     <row r="331" spans="1:39">
-      <c r="A331" s="43">
+      <c r="A331" s="5">
         <v>330</v>
       </c>
       <c r="B331" s="43">
@@ -31454,7 +31559,7 @@
       </c>
     </row>
     <row r="332" spans="1:39">
-      <c r="A332" s="43">
+      <c r="A332" s="5">
         <v>331</v>
       </c>
       <c r="B332" s="43">
@@ -31537,7 +31642,7 @@
       </c>
     </row>
     <row r="333" spans="1:39">
-      <c r="A333" s="43">
+      <c r="A333" s="5">
         <v>332</v>
       </c>
       <c r="B333" s="43">
@@ -31620,7 +31725,7 @@
       </c>
     </row>
     <row r="334" spans="1:39">
-      <c r="A334" s="43">
+      <c r="A334" s="5">
         <v>333</v>
       </c>
       <c r="B334" s="43">
@@ -31703,7 +31808,7 @@
       </c>
     </row>
     <row r="335" spans="1:39">
-      <c r="A335" s="43">
+      <c r="A335" s="5">
         <v>334</v>
       </c>
       <c r="B335" s="43">
@@ -31786,7 +31891,7 @@
       </c>
     </row>
     <row r="336" spans="1:39">
-      <c r="A336" s="43">
+      <c r="A336" s="5">
         <v>335</v>
       </c>
       <c r="B336" s="43">
@@ -31869,7 +31974,7 @@
       </c>
     </row>
     <row r="337" spans="1:39">
-      <c r="A337" s="43">
+      <c r="A337" s="5">
         <v>336</v>
       </c>
       <c r="B337" s="43">
@@ -31952,7 +32057,7 @@
       </c>
     </row>
     <row r="338" spans="1:39" s="19" customFormat="1">
-      <c r="A338" s="19">
+      <c r="A338" s="5">
         <v>337</v>
       </c>
       <c r="B338" s="19">
@@ -32020,7 +32125,7 @@
       </c>
     </row>
     <row r="339" spans="1:39">
-      <c r="A339" s="19">
+      <c r="A339" s="5">
         <v>338</v>
       </c>
       <c r="B339" s="19">
@@ -32105,7 +32210,7 @@
       </c>
     </row>
     <row r="340" spans="1:39">
-      <c r="A340" s="19">
+      <c r="A340" s="5">
         <v>339</v>
       </c>
       <c r="B340" s="19">
@@ -32263,7 +32368,7 @@
       </c>
     </row>
     <row r="342" spans="1:39">
-      <c r="A342" s="6">
+      <c r="A342" s="5">
         <v>341</v>
       </c>
       <c r="B342" s="5">
@@ -32334,7 +32439,7 @@
       </c>
     </row>
     <row r="343" spans="1:39">
-      <c r="A343" s="6">
+      <c r="A343" s="5">
         <v>342</v>
       </c>
       <c r="B343" s="5">
@@ -32405,7 +32510,7 @@
       </c>
     </row>
     <row r="344" spans="1:39">
-      <c r="A344" s="6">
+      <c r="A344" s="5">
         <v>343</v>
       </c>
       <c r="B344" s="5">
@@ -32476,7 +32581,7 @@
       </c>
     </row>
     <row r="345" spans="1:39">
-      <c r="A345" s="6">
+      <c r="A345" s="5">
         <v>344</v>
       </c>
       <c r="B345" s="5">
@@ -32547,7 +32652,7 @@
       </c>
     </row>
     <row r="346" spans="1:39">
-      <c r="A346" s="6">
+      <c r="A346" s="5">
         <v>345</v>
       </c>
       <c r="B346" s="5">
@@ -32618,7 +32723,7 @@
       </c>
     </row>
     <row r="347" spans="1:39">
-      <c r="A347" s="6">
+      <c r="A347" s="5">
         <v>346</v>
       </c>
       <c r="B347" s="5">
@@ -32689,7 +32794,7 @@
       </c>
     </row>
     <row r="348" spans="1:39">
-      <c r="A348" s="6">
+      <c r="A348" s="5">
         <v>347</v>
       </c>
       <c r="B348" s="5">
@@ -32760,7 +32865,7 @@
       </c>
     </row>
     <row r="349" spans="1:39">
-      <c r="A349" s="6">
+      <c r="A349" s="5">
         <v>348</v>
       </c>
       <c r="B349" s="5">
@@ -32831,7 +32936,7 @@
       </c>
     </row>
     <row r="350" spans="1:39">
-      <c r="A350" s="6">
+      <c r="A350" s="5">
         <v>349</v>
       </c>
       <c r="B350" s="5">
@@ -32902,7 +33007,7 @@
       </c>
     </row>
     <row r="351" spans="1:39">
-      <c r="A351" s="6">
+      <c r="A351" s="5">
         <v>350</v>
       </c>
       <c r="B351" s="5">
@@ -32973,7 +33078,7 @@
       </c>
     </row>
     <row r="352" spans="1:39">
-      <c r="A352" s="6">
+      <c r="A352" s="5">
         <v>351</v>
       </c>
       <c r="B352" s="5">
@@ -35267,7 +35372,7 @@
       </c>
     </row>
     <row r="386" spans="1:39" s="62" customFormat="1">
-      <c r="A386" s="62">
+      <c r="A386" s="5">
         <v>385</v>
       </c>
       <c r="B386" s="62">
@@ -35335,7 +35440,7 @@
       </c>
     </row>
     <row r="387" spans="1:39" s="62" customFormat="1">
-      <c r="A387" s="62">
+      <c r="A387" s="5">
         <v>386</v>
       </c>
       <c r="B387" s="62">
@@ -35403,7 +35508,7 @@
       </c>
     </row>
     <row r="388" spans="1:39" s="62" customFormat="1">
-      <c r="A388" s="62">
+      <c r="A388" s="5">
         <v>387</v>
       </c>
       <c r="B388" s="62">
@@ -35471,7 +35576,7 @@
       </c>
     </row>
     <row r="389" spans="1:39" s="60" customFormat="1">
-      <c r="A389" s="60">
+      <c r="A389" s="5">
         <v>388</v>
       </c>
       <c r="B389" s="60">
@@ -35539,7 +35644,7 @@
       </c>
     </row>
     <row r="390" spans="1:39" s="60" customFormat="1">
-      <c r="A390" s="60">
+      <c r="A390" s="5">
         <v>389</v>
       </c>
       <c r="B390" s="60">
@@ -35607,7 +35712,7 @@
       </c>
     </row>
     <row r="391" spans="1:39" s="60" customFormat="1">
-      <c r="A391" s="60">
+      <c r="A391" s="5">
         <v>390</v>
       </c>
       <c r="B391" s="60">
@@ -35675,7 +35780,7 @@
       </c>
     </row>
     <row r="392" spans="1:39" s="62" customFormat="1">
-      <c r="A392" s="62">
+      <c r="A392" s="5">
         <v>391</v>
       </c>
       <c r="B392" s="62">
@@ -35743,7 +35848,7 @@
       </c>
     </row>
     <row r="393" spans="1:39" s="62" customFormat="1">
-      <c r="A393" s="62">
+      <c r="A393" s="5">
         <v>392</v>
       </c>
       <c r="B393" s="62">
@@ -35811,7 +35916,7 @@
       </c>
     </row>
     <row r="394" spans="1:39" s="62" customFormat="1">
-      <c r="A394" s="62">
+      <c r="A394" s="5">
         <v>393</v>
       </c>
       <c r="B394" s="62">
@@ -37096,7 +37201,7 @@
       </c>
     </row>
     <row r="414" spans="1:39" s="72" customFormat="1">
-      <c r="A414" s="72">
+      <c r="A414" s="5">
         <v>413</v>
       </c>
       <c r="B414" s="72">
@@ -37161,7 +37266,7 @@
       </c>
     </row>
     <row r="415" spans="1:39" s="40" customFormat="1">
-      <c r="A415" s="40">
+      <c r="A415" s="5">
         <v>414</v>
       </c>
       <c r="B415" s="40">
@@ -37229,7 +37334,7 @@
       </c>
     </row>
     <row r="416" spans="1:39" s="40" customFormat="1">
-      <c r="A416" s="40">
+      <c r="A416" s="5">
         <v>415</v>
       </c>
       <c r="B416" s="40">
@@ -37297,7 +37402,7 @@
       </c>
     </row>
     <row r="417" spans="1:39" s="40" customFormat="1">
-      <c r="A417" s="40">
+      <c r="A417" s="5">
         <v>416</v>
       </c>
       <c r="B417" s="40">
@@ -37365,7 +37470,7 @@
       </c>
     </row>
     <row r="418" spans="1:39" s="40" customFormat="1">
-      <c r="A418" s="40">
+      <c r="A418" s="5">
         <v>417</v>
       </c>
       <c r="B418" s="40">
@@ -37433,7 +37538,7 @@
       </c>
     </row>
     <row r="419" spans="1:39" s="40" customFormat="1">
-      <c r="A419" s="40">
+      <c r="A419" s="5">
         <v>418</v>
       </c>
       <c r="B419" s="40">
@@ -37501,7 +37606,7 @@
       </c>
     </row>
     <row r="420" spans="1:39" s="40" customFormat="1">
-      <c r="A420" s="40">
+      <c r="A420" s="5">
         <v>419</v>
       </c>
       <c r="B420" s="40">
@@ -37569,7 +37674,7 @@
       </c>
     </row>
     <row r="421" spans="1:39" s="19" customFormat="1">
-      <c r="A421" s="19">
+      <c r="A421" s="5">
         <v>420</v>
       </c>
       <c r="B421" s="19">
@@ -37637,7 +37742,7 @@
       </c>
     </row>
     <row r="422" spans="1:39">
-      <c r="A422" s="6">
+      <c r="A422" s="5">
         <v>421</v>
       </c>
       <c r="B422" s="5">
@@ -37705,7 +37810,7 @@
       </c>
     </row>
     <row r="423" spans="1:39">
-      <c r="A423" s="6">
+      <c r="A423" s="5">
         <v>422</v>
       </c>
       <c r="B423" s="5">
@@ -37773,7 +37878,7 @@
       </c>
     </row>
     <row r="424" spans="1:39">
-      <c r="A424" s="6">
+      <c r="A424" s="5">
         <v>423</v>
       </c>
       <c r="B424" s="5">
@@ -37841,7 +37946,7 @@
       </c>
     </row>
     <row r="425" spans="1:39">
-      <c r="A425" s="6">
+      <c r="A425" s="5">
         <v>424</v>
       </c>
       <c r="B425" s="5">
@@ -37897,7 +38002,7 @@
       </c>
     </row>
     <row r="426" spans="1:39">
-      <c r="A426" s="6">
+      <c r="A426" s="5">
         <v>425</v>
       </c>
       <c r="B426" s="5">
@@ -37953,7 +38058,7 @@
       </c>
     </row>
     <row r="427" spans="1:39">
-      <c r="A427" s="6">
+      <c r="A427" s="5">
         <v>426</v>
       </c>
       <c r="B427" s="5">
@@ -38009,7 +38114,7 @@
       </c>
     </row>
     <row r="428" spans="1:39">
-      <c r="A428" s="6">
+      <c r="A428" s="5">
         <v>427</v>
       </c>
       <c r="B428" s="5">
@@ -38065,7 +38170,7 @@
       </c>
     </row>
     <row r="429" spans="1:39">
-      <c r="A429" s="6">
+      <c r="A429" s="5">
         <v>428</v>
       </c>
       <c r="B429" s="5">
@@ -38121,7 +38226,7 @@
       </c>
     </row>
     <row r="430" spans="1:39" s="43" customFormat="1">
-      <c r="A430" s="43">
+      <c r="A430" s="5">
         <v>429</v>
       </c>
       <c r="B430" s="43">
@@ -38189,7 +38294,7 @@
       </c>
     </row>
     <row r="431" spans="1:39" s="43" customFormat="1">
-      <c r="A431" s="43">
+      <c r="A431" s="5">
         <v>430</v>
       </c>
       <c r="B431" s="43">
@@ -38257,7 +38362,7 @@
       </c>
     </row>
     <row r="432" spans="1:39" s="43" customFormat="1">
-      <c r="A432" s="43">
+      <c r="A432" s="5">
         <v>431</v>
       </c>
       <c r="B432" s="43">
@@ -38325,7 +38430,7 @@
       </c>
     </row>
     <row r="433" spans="1:39" s="43" customFormat="1">
-      <c r="A433" s="43">
+      <c r="A433" s="5">
         <v>432</v>
       </c>
       <c r="B433" s="43">
@@ -39220,7 +39325,7 @@
       </c>
     </row>
     <row r="447" spans="1:39" s="54" customFormat="1">
-      <c r="A447" s="54">
+      <c r="A447" s="5">
         <v>446</v>
       </c>
       <c r="B447" s="54">
@@ -39288,7 +39393,7 @@
       </c>
     </row>
     <row r="448" spans="1:39" s="54" customFormat="1">
-      <c r="A448" s="54">
+      <c r="A448" s="5">
         <v>447</v>
       </c>
       <c r="B448" s="54">
@@ -39353,7 +39458,7 @@
       </c>
     </row>
     <row r="449" spans="1:39" s="54" customFormat="1">
-      <c r="A449" s="54">
+      <c r="A449" s="5">
         <v>448</v>
       </c>
       <c r="B449" s="54">
@@ -39421,7 +39526,7 @@
       </c>
     </row>
     <row r="450" spans="1:39" s="64" customFormat="1">
-      <c r="A450" s="64">
+      <c r="A450" s="5">
         <v>449</v>
       </c>
       <c r="B450" s="64">
@@ -39489,7 +39594,7 @@
       </c>
     </row>
     <row r="451" spans="1:39" s="64" customFormat="1">
-      <c r="A451" s="64">
+      <c r="A451" s="5">
         <v>450</v>
       </c>
       <c r="B451" s="64">
@@ -39554,7 +39659,7 @@
       </c>
     </row>
     <row r="452" spans="1:39" s="64" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A452" s="64">
+      <c r="A452" s="5">
         <v>451</v>
       </c>
       <c r="B452" s="64">
@@ -39622,7 +39727,7 @@
       </c>
     </row>
     <row r="453" spans="1:39" s="54" customFormat="1">
-      <c r="A453" s="54">
+      <c r="A453" s="5">
         <v>452</v>
       </c>
       <c r="B453" s="54">
@@ -39690,7 +39795,7 @@
       </c>
     </row>
     <row r="454" spans="1:39" s="54" customFormat="1">
-      <c r="A454" s="54">
+      <c r="A454" s="5">
         <v>453</v>
       </c>
       <c r="B454" s="54">
@@ -39755,7 +39860,7 @@
       </c>
     </row>
     <row r="455" spans="1:39" s="54" customFormat="1">
-      <c r="A455" s="54">
+      <c r="A455" s="5">
         <v>454</v>
       </c>
       <c r="B455" s="54">
@@ -39823,7 +39928,7 @@
       </c>
     </row>
     <row r="456" spans="1:39" s="64" customFormat="1">
-      <c r="A456" s="64">
+      <c r="A456" s="5">
         <v>455</v>
       </c>
       <c r="B456" s="64">
@@ -39891,7 +39996,7 @@
       </c>
     </row>
     <row r="457" spans="1:39" s="64" customFormat="1">
-      <c r="A457" s="64">
+      <c r="A457" s="5">
         <v>456</v>
       </c>
       <c r="B457" s="64">
@@ -39956,7 +40061,7 @@
       </c>
     </row>
     <row r="458" spans="1:39" s="64" customFormat="1">
-      <c r="A458" s="64">
+      <c r="A458" s="5">
         <v>457</v>
       </c>
       <c r="B458" s="64">
@@ -40024,7 +40129,7 @@
       </c>
     </row>
     <row r="459" spans="1:39" s="54" customFormat="1">
-      <c r="A459" s="54">
+      <c r="A459" s="5">
         <v>458</v>
       </c>
       <c r="B459" s="54">
@@ -40092,7 +40197,7 @@
       </c>
     </row>
     <row r="460" spans="1:39" s="54" customFormat="1">
-      <c r="A460" s="54">
+      <c r="A460" s="5">
         <v>459</v>
       </c>
       <c r="B460" s="54">
@@ -40157,7 +40262,7 @@
       </c>
     </row>
     <row r="461" spans="1:39" s="54" customFormat="1">
-      <c r="A461" s="54">
+      <c r="A461" s="5">
         <v>460</v>
       </c>
       <c r="B461" s="54">
@@ -40225,7 +40330,7 @@
       </c>
     </row>
     <row r="462" spans="1:39" s="64" customFormat="1">
-      <c r="A462" s="64">
+      <c r="A462" s="5">
         <v>461</v>
       </c>
       <c r="B462" s="64">
@@ -40293,7 +40398,7 @@
       </c>
     </row>
     <row r="463" spans="1:39" s="64" customFormat="1">
-      <c r="A463" s="64">
+      <c r="A463" s="5">
         <v>462</v>
       </c>
       <c r="B463" s="64">
@@ -40358,7 +40463,7 @@
       </c>
     </row>
     <row r="464" spans="1:39" s="64" customFormat="1">
-      <c r="A464" s="64">
+      <c r="A464" s="5">
         <v>463</v>
       </c>
       <c r="B464" s="64">
@@ -40426,7 +40531,7 @@
       </c>
     </row>
     <row r="465" spans="1:39" s="54" customFormat="1">
-      <c r="A465" s="54">
+      <c r="A465" s="5">
         <v>464</v>
       </c>
       <c r="B465" s="54">
@@ -40494,7 +40599,7 @@
       </c>
     </row>
     <row r="466" spans="1:39" s="54" customFormat="1">
-      <c r="A466" s="54">
+      <c r="A466" s="5">
         <v>465</v>
       </c>
       <c r="B466" s="54">
@@ -40559,7 +40664,7 @@
       </c>
     </row>
     <row r="467" spans="1:39" s="54" customFormat="1">
-      <c r="A467" s="54">
+      <c r="A467" s="5">
         <v>466</v>
       </c>
       <c r="B467" s="54">
@@ -40627,7 +40732,7 @@
       </c>
     </row>
     <row r="468" spans="1:39" s="58" customFormat="1">
-      <c r="A468" s="58">
+      <c r="A468" s="5">
         <v>467</v>
       </c>
       <c r="B468" s="58">
@@ -40692,7 +40797,7 @@
       </c>
     </row>
     <row r="469" spans="1:39" s="58" customFormat="1">
-      <c r="A469" s="58">
+      <c r="A469" s="5">
         <v>468</v>
       </c>
       <c r="B469" s="58">
@@ -40757,7 +40862,7 @@
       </c>
     </row>
     <row r="470" spans="1:39" s="58" customFormat="1">
-      <c r="A470" s="58">
+      <c r="A470" s="5">
         <v>469</v>
       </c>
       <c r="B470" s="58">
@@ -40822,7 +40927,7 @@
       </c>
     </row>
     <row r="471" spans="1:39" s="58" customFormat="1">
-      <c r="A471" s="58">
+      <c r="A471" s="5">
         <v>470</v>
       </c>
       <c r="B471" s="58">
@@ -40887,7 +40992,7 @@
       </c>
     </row>
     <row r="472" spans="1:39" s="58" customFormat="1">
-      <c r="A472" s="58">
+      <c r="A472" s="5">
         <v>471</v>
       </c>
       <c r="B472" s="58">
@@ -40952,7 +41057,7 @@
       </c>
     </row>
     <row r="473" spans="1:39" s="58" customFormat="1">
-      <c r="A473" s="58">
+      <c r="A473" s="5">
         <v>472</v>
       </c>
       <c r="B473" s="58">
@@ -41017,7 +41122,7 @@
       </c>
     </row>
     <row r="474" spans="1:39" s="68" customFormat="1">
-      <c r="A474" s="68">
+      <c r="A474" s="5">
         <v>473</v>
       </c>
       <c r="B474" s="68">
@@ -41082,7 +41187,7 @@
       </c>
     </row>
     <row r="475" spans="1:39" s="68" customFormat="1">
-      <c r="A475" s="68">
+      <c r="A475" s="5">
         <v>474</v>
       </c>
       <c r="B475" s="68">
@@ -41147,7 +41252,7 @@
       </c>
     </row>
     <row r="476" spans="1:39" s="70" customFormat="1">
-      <c r="A476" s="70">
+      <c r="A476" s="5">
         <v>475</v>
       </c>
       <c r="B476" s="70">
@@ -41212,7 +41317,7 @@
       </c>
     </row>
     <row r="477" spans="1:39" s="70" customFormat="1">
-      <c r="A477" s="70">
+      <c r="A477" s="5">
         <v>476</v>
       </c>
       <c r="B477" s="70">
@@ -41277,7 +41382,7 @@
       </c>
     </row>
     <row r="478" spans="1:39" s="70" customFormat="1">
-      <c r="A478" s="70">
+      <c r="A478" s="5">
         <v>477</v>
       </c>
       <c r="B478" s="70">
@@ -41342,7 +41447,7 @@
       </c>
     </row>
     <row r="479" spans="1:39" s="70" customFormat="1">
-      <c r="A479" s="70">
+      <c r="A479" s="5">
         <v>478</v>
       </c>
       <c r="B479" s="70">
@@ -41407,7 +41512,7 @@
       </c>
     </row>
     <row r="480" spans="1:39" s="81" customFormat="1" ht="14.25">
-      <c r="A480" s="81">
+      <c r="A480" s="5">
         <v>479</v>
       </c>
       <c r="B480" s="81">
@@ -41469,7 +41574,7 @@
       </c>
     </row>
     <row r="481" spans="1:39" s="81" customFormat="1" ht="14.25">
-      <c r="A481" s="81">
+      <c r="A481" s="5">
         <v>480</v>
       </c>
       <c r="B481" s="81">
@@ -41531,7 +41636,7 @@
       </c>
     </row>
     <row r="482" spans="1:39" s="81" customFormat="1" ht="14.25">
-      <c r="A482" s="81">
+      <c r="A482" s="5">
         <v>481</v>
       </c>
       <c r="B482" s="81">
@@ -41593,7 +41698,7 @@
       </c>
     </row>
     <row r="483" spans="1:39" s="81" customFormat="1" ht="14.25">
-      <c r="A483" s="81">
+      <c r="A483" s="5">
         <v>482</v>
       </c>
       <c r="B483" s="81">
@@ -41655,7 +41760,7 @@
       </c>
     </row>
     <row r="484" spans="1:39" s="81" customFormat="1" ht="14.25">
-      <c r="A484" s="81">
+      <c r="A484" s="5">
         <v>483</v>
       </c>
       <c r="B484" s="81">
@@ -41717,7 +41822,7 @@
       </c>
     </row>
     <row r="485" spans="1:39" s="81" customFormat="1" ht="14.25">
-      <c r="A485" s="81">
+      <c r="A485" s="5">
         <v>484</v>
       </c>
       <c r="B485" s="81">
@@ -41779,7 +41884,7 @@
       </c>
     </row>
     <row r="486" spans="1:39" s="19" customFormat="1" ht="14.25">
-      <c r="A486" s="19">
+      <c r="A486" s="5">
         <v>485</v>
       </c>
       <c r="B486" s="19">
@@ -41819,7 +41924,7 @@
         <v>1392</v>
       </c>
       <c r="W486" s="19" t="s">
-        <v>549</v>
+        <v>1858</v>
       </c>
       <c r="X486" s="19">
         <v>9999999</v>
@@ -41844,7 +41949,7 @@
       </c>
     </row>
     <row r="487" spans="1:39" s="19" customFormat="1" ht="14.25">
-      <c r="A487" s="19">
+      <c r="A487" s="5">
         <v>486</v>
       </c>
       <c r="B487" s="19">
@@ -41909,7 +42014,7 @@
       </c>
     </row>
     <row r="488" spans="1:39" s="19" customFormat="1" ht="14.25">
-      <c r="A488" s="19">
+      <c r="A488" s="5">
         <v>487</v>
       </c>
       <c r="B488" s="19">
@@ -41974,7 +42079,7 @@
       </c>
     </row>
     <row r="489" spans="1:39" s="19" customFormat="1" ht="14.25">
-      <c r="A489" s="19">
+      <c r="A489" s="5">
         <v>488</v>
       </c>
       <c r="B489" s="19">
@@ -42039,7 +42144,7 @@
       </c>
     </row>
     <row r="490" spans="1:39" s="19" customFormat="1" ht="14.25">
-      <c r="A490" s="19">
+      <c r="A490" s="5">
         <v>489</v>
       </c>
       <c r="B490" s="19">
@@ -42104,7 +42209,7 @@
       </c>
     </row>
     <row r="491" spans="1:39" s="19" customFormat="1" ht="14.25">
-      <c r="A491" s="19">
+      <c r="A491" s="5">
         <v>490</v>
       </c>
       <c r="B491" s="19">
@@ -42169,7 +42274,7 @@
       </c>
     </row>
     <row r="492" spans="1:39" s="19" customFormat="1" ht="14.25">
-      <c r="A492" s="19">
+      <c r="A492" s="5">
         <v>491</v>
       </c>
       <c r="B492" s="19">
@@ -42234,7 +42339,7 @@
       </c>
     </row>
     <row r="493" spans="1:39">
-      <c r="A493" s="19">
+      <c r="A493" s="5">
         <v>492</v>
       </c>
       <c r="B493" s="85">
@@ -42315,7 +42420,7 @@
       </c>
     </row>
     <row r="494" spans="1:39">
-      <c r="A494" s="19">
+      <c r="A494" s="5">
         <v>493</v>
       </c>
       <c r="B494" s="85">
@@ -42396,7 +42501,7 @@
       </c>
     </row>
     <row r="495" spans="1:39">
-      <c r="A495" s="43">
+      <c r="A495" s="5">
         <v>494</v>
       </c>
       <c r="B495" s="43">
@@ -42479,7 +42584,7 @@
       </c>
     </row>
     <row r="496" spans="1:39">
-      <c r="A496" s="43">
+      <c r="A496" s="5">
         <v>495</v>
       </c>
       <c r="B496" s="43">
@@ -42558,6 +42663,930 @@
         <v>1</v>
       </c>
       <c r="AM496" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:39">
+      <c r="A497" s="5">
+        <v>496</v>
+      </c>
+      <c r="B497" s="62">
+        <v>10413</v>
+      </c>
+      <c r="C497" s="62"/>
+      <c r="D497" s="62"/>
+      <c r="E497" s="62"/>
+      <c r="F497" s="62">
+        <v>1</v>
+      </c>
+      <c r="G497" s="62" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H497" s="62"/>
+      <c r="I497" s="62" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J497" s="62" t="s">
+        <v>1838</v>
+      </c>
+      <c r="K497" s="62"/>
+      <c r="L497" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M497" s="62">
+        <v>0</v>
+      </c>
+      <c r="N497" s="62">
+        <v>0</v>
+      </c>
+      <c r="O497" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="P497" s="62">
+        <v>49800</v>
+      </c>
+      <c r="Q497" s="62" t="s">
+        <v>1852</v>
+      </c>
+      <c r="R497" s="63" t="s">
+        <v>1860</v>
+      </c>
+      <c r="S497" s="62"/>
+      <c r="T497" s="62"/>
+      <c r="U497" s="62"/>
+      <c r="V497" s="62"/>
+      <c r="W497" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X497" s="62">
+        <v>99999999</v>
+      </c>
+      <c r="Y497" s="62">
+        <v>1609804800</v>
+      </c>
+      <c r="Z497" s="62">
+        <v>1610380799</v>
+      </c>
+      <c r="AA497" s="62">
+        <v>66</v>
+      </c>
+      <c r="AH497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM497" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:39">
+      <c r="A498" s="5">
+        <v>497</v>
+      </c>
+      <c r="B498" s="62">
+        <v>10414</v>
+      </c>
+      <c r="C498" s="62"/>
+      <c r="D498" s="62"/>
+      <c r="E498" s="62"/>
+      <c r="F498" s="62">
+        <v>1</v>
+      </c>
+      <c r="G498" s="62" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H498" s="62"/>
+      <c r="I498" s="62" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J498" s="62" t="s">
+        <v>1839</v>
+      </c>
+      <c r="K498" s="62"/>
+      <c r="L498" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M498" s="62">
+        <v>0</v>
+      </c>
+      <c r="N498" s="62">
+        <v>0</v>
+      </c>
+      <c r="O498" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="P498" s="62">
+        <v>19800</v>
+      </c>
+      <c r="Q498" s="62" t="s">
+        <v>1852</v>
+      </c>
+      <c r="R498" s="63" t="s">
+        <v>1861</v>
+      </c>
+      <c r="S498" s="62"/>
+      <c r="T498" s="62"/>
+      <c r="U498" s="62"/>
+      <c r="V498" s="62"/>
+      <c r="W498" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X498" s="62">
+        <v>99999999</v>
+      </c>
+      <c r="Y498" s="62">
+        <v>1609804800</v>
+      </c>
+      <c r="Z498" s="62">
+        <v>1610380799</v>
+      </c>
+      <c r="AA498" s="62">
+        <v>66</v>
+      </c>
+      <c r="AH498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM498" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:39">
+      <c r="A499" s="5">
+        <v>498</v>
+      </c>
+      <c r="B499" s="62">
+        <v>10415</v>
+      </c>
+      <c r="C499" s="62"/>
+      <c r="D499" s="62"/>
+      <c r="E499" s="62"/>
+      <c r="F499" s="62">
+        <v>1</v>
+      </c>
+      <c r="G499" s="62" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H499" s="62"/>
+      <c r="I499" s="62" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J499" s="62" t="s">
+        <v>1840</v>
+      </c>
+      <c r="K499" s="62"/>
+      <c r="L499" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M499" s="62">
+        <v>0</v>
+      </c>
+      <c r="N499" s="62">
+        <v>0</v>
+      </c>
+      <c r="O499" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="P499" s="62">
+        <v>9800</v>
+      </c>
+      <c r="Q499" s="62" t="s">
+        <v>1852</v>
+      </c>
+      <c r="R499" s="63" t="s">
+        <v>1862</v>
+      </c>
+      <c r="S499" s="62"/>
+      <c r="T499" s="62"/>
+      <c r="U499" s="62"/>
+      <c r="V499" s="62"/>
+      <c r="W499" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X499" s="62">
+        <v>99999999</v>
+      </c>
+      <c r="Y499" s="62">
+        <v>1609804800</v>
+      </c>
+      <c r="Z499" s="62">
+        <v>1610380799</v>
+      </c>
+      <c r="AA499" s="62">
+        <v>66</v>
+      </c>
+      <c r="AH499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM499" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:39">
+      <c r="A500" s="5">
+        <v>499</v>
+      </c>
+      <c r="B500" s="62">
+        <v>10416</v>
+      </c>
+      <c r="C500" s="62"/>
+      <c r="D500" s="62"/>
+      <c r="E500" s="62"/>
+      <c r="F500" s="62">
+        <v>1</v>
+      </c>
+      <c r="G500" s="62" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H500" s="62"/>
+      <c r="I500" s="62" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J500" s="62" t="s">
+        <v>1841</v>
+      </c>
+      <c r="K500" s="62"/>
+      <c r="L500" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M500" s="62">
+        <v>0</v>
+      </c>
+      <c r="N500" s="62">
+        <v>0</v>
+      </c>
+      <c r="O500" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="P500" s="62">
+        <v>4800</v>
+      </c>
+      <c r="Q500" s="62" t="s">
+        <v>1852</v>
+      </c>
+      <c r="R500" s="63" t="s">
+        <v>1863</v>
+      </c>
+      <c r="S500" s="62"/>
+      <c r="T500" s="62"/>
+      <c r="U500" s="62"/>
+      <c r="V500" s="62"/>
+      <c r="W500" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X500" s="62">
+        <v>99999999</v>
+      </c>
+      <c r="Y500" s="62">
+        <v>1609804800</v>
+      </c>
+      <c r="Z500" s="62">
+        <v>1610380799</v>
+      </c>
+      <c r="AA500" s="62">
+        <v>66</v>
+      </c>
+      <c r="AH500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM500" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:39">
+      <c r="A501" s="5">
+        <v>500</v>
+      </c>
+      <c r="B501" s="62">
+        <v>10417</v>
+      </c>
+      <c r="C501" s="62"/>
+      <c r="D501" s="62"/>
+      <c r="E501" s="62"/>
+      <c r="F501" s="62">
+        <v>1</v>
+      </c>
+      <c r="G501" s="62" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H501" s="62"/>
+      <c r="I501" s="62" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J501" s="62" t="s">
+        <v>1842</v>
+      </c>
+      <c r="K501" s="62"/>
+      <c r="L501" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M501" s="62">
+        <v>0</v>
+      </c>
+      <c r="N501" s="62">
+        <v>0</v>
+      </c>
+      <c r="O501" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="P501" s="62">
+        <v>2000</v>
+      </c>
+      <c r="Q501" s="62" t="s">
+        <v>1852</v>
+      </c>
+      <c r="R501" s="63" t="s">
+        <v>1844</v>
+      </c>
+      <c r="S501" s="62"/>
+      <c r="T501" s="62"/>
+      <c r="U501" s="62"/>
+      <c r="V501" s="62"/>
+      <c r="W501" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X501" s="62">
+        <v>99999999</v>
+      </c>
+      <c r="Y501" s="62">
+        <v>1609804800</v>
+      </c>
+      <c r="Z501" s="62">
+        <v>1610380799</v>
+      </c>
+      <c r="AA501" s="62">
+        <v>66</v>
+      </c>
+      <c r="AH501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM501" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:39">
+      <c r="A502" s="5">
+        <v>501</v>
+      </c>
+      <c r="B502" s="62">
+        <v>10418</v>
+      </c>
+      <c r="C502" s="62"/>
+      <c r="D502" s="62"/>
+      <c r="E502" s="62"/>
+      <c r="F502" s="62">
+        <v>1</v>
+      </c>
+      <c r="G502" s="62" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H502" s="62"/>
+      <c r="I502" s="62" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J502" s="62" t="s">
+        <v>1843</v>
+      </c>
+      <c r="K502" s="62"/>
+      <c r="L502" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M502" s="62">
+        <v>0</v>
+      </c>
+      <c r="N502" s="62">
+        <v>0</v>
+      </c>
+      <c r="O502" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="P502" s="62">
+        <v>600</v>
+      </c>
+      <c r="Q502" s="62" t="s">
+        <v>1852</v>
+      </c>
+      <c r="R502" s="63" t="s">
+        <v>1845</v>
+      </c>
+      <c r="S502" s="62"/>
+      <c r="T502" s="62"/>
+      <c r="U502" s="62"/>
+      <c r="V502" s="62"/>
+      <c r="W502" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X502" s="62">
+        <v>99999999</v>
+      </c>
+      <c r="Y502" s="62">
+        <v>1609804800</v>
+      </c>
+      <c r="Z502" s="62">
+        <v>1610380799</v>
+      </c>
+      <c r="AA502" s="62">
+        <v>66</v>
+      </c>
+      <c r="AH502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM502" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:39">
+      <c r="A503" s="5">
+        <v>502</v>
+      </c>
+      <c r="B503" s="60">
+        <v>10419</v>
+      </c>
+      <c r="C503" s="60"/>
+      <c r="D503" s="60"/>
+      <c r="E503" s="60"/>
+      <c r="F503" s="60">
+        <v>1</v>
+      </c>
+      <c r="G503" s="60" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H503" s="60"/>
+      <c r="I503" s="60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J503" s="60" t="s">
+        <v>1855</v>
+      </c>
+      <c r="K503" s="60"/>
+      <c r="L503" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M503" s="60">
+        <v>0</v>
+      </c>
+      <c r="N503" s="60">
+        <v>0</v>
+      </c>
+      <c r="O503" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="P503" s="60">
+        <v>49800</v>
+      </c>
+      <c r="Q503" s="60" t="s">
+        <v>1853</v>
+      </c>
+      <c r="R503" s="61" t="s">
+        <v>1866</v>
+      </c>
+      <c r="S503" s="60"/>
+      <c r="T503" s="60"/>
+      <c r="U503" s="60"/>
+      <c r="V503" s="60"/>
+      <c r="W503" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X503" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y503" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z503" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA503" s="60">
+        <v>67</v>
+      </c>
+      <c r="AH503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM503" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:39">
+      <c r="A504" s="5">
+        <v>503</v>
+      </c>
+      <c r="B504" s="60">
+        <v>10420</v>
+      </c>
+      <c r="C504" s="60"/>
+      <c r="D504" s="60"/>
+      <c r="E504" s="60"/>
+      <c r="F504" s="60">
+        <v>1</v>
+      </c>
+      <c r="G504" s="60" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H504" s="60"/>
+      <c r="I504" s="60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J504" s="60" t="s">
+        <v>1849</v>
+      </c>
+      <c r="K504" s="60"/>
+      <c r="L504" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M504" s="60">
+        <v>0</v>
+      </c>
+      <c r="N504" s="60">
+        <v>0</v>
+      </c>
+      <c r="O504" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="P504" s="60">
+        <v>19800</v>
+      </c>
+      <c r="Q504" s="60" t="s">
+        <v>1853</v>
+      </c>
+      <c r="R504" s="61" t="s">
+        <v>1867</v>
+      </c>
+      <c r="S504" s="60"/>
+      <c r="T504" s="60"/>
+      <c r="U504" s="60"/>
+      <c r="V504" s="60"/>
+      <c r="W504" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X504" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y504" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z504" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA504" s="60">
+        <v>67</v>
+      </c>
+      <c r="AH504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM504" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:39">
+      <c r="A505" s="5">
+        <v>504</v>
+      </c>
+      <c r="B505" s="60">
+        <v>10421</v>
+      </c>
+      <c r="C505" s="60"/>
+      <c r="D505" s="60"/>
+      <c r="E505" s="60"/>
+      <c r="F505" s="60">
+        <v>1</v>
+      </c>
+      <c r="G505" s="60" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H505" s="60"/>
+      <c r="I505" s="60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J505" s="60" t="s">
+        <v>1856</v>
+      </c>
+      <c r="K505" s="60"/>
+      <c r="L505" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M505" s="60">
+        <v>0</v>
+      </c>
+      <c r="N505" s="60">
+        <v>0</v>
+      </c>
+      <c r="O505" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="P505" s="60">
+        <v>9800</v>
+      </c>
+      <c r="Q505" s="60" t="s">
+        <v>1853</v>
+      </c>
+      <c r="R505" s="61" t="s">
+        <v>1868</v>
+      </c>
+      <c r="S505" s="60"/>
+      <c r="T505" s="60"/>
+      <c r="U505" s="60"/>
+      <c r="V505" s="60"/>
+      <c r="W505" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X505" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y505" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z505" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA505" s="60">
+        <v>67</v>
+      </c>
+      <c r="AH505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM505" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:39">
+      <c r="A506" s="5">
+        <v>505</v>
+      </c>
+      <c r="B506" s="60">
+        <v>10422</v>
+      </c>
+      <c r="C506" s="60"/>
+      <c r="D506" s="60"/>
+      <c r="E506" s="60"/>
+      <c r="F506" s="60">
+        <v>1</v>
+      </c>
+      <c r="G506" s="60" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H506" s="60"/>
+      <c r="I506" s="60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J506" s="60" t="s">
+        <v>1857</v>
+      </c>
+      <c r="K506" s="60"/>
+      <c r="L506" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M506" s="60">
+        <v>0</v>
+      </c>
+      <c r="N506" s="60">
+        <v>0</v>
+      </c>
+      <c r="O506" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="P506" s="60">
+        <v>4800</v>
+      </c>
+      <c r="Q506" s="60" t="s">
+        <v>1854</v>
+      </c>
+      <c r="R506" s="61" t="s">
+        <v>1869</v>
+      </c>
+      <c r="S506" s="60"/>
+      <c r="T506" s="60"/>
+      <c r="U506" s="60"/>
+      <c r="V506" s="60"/>
+      <c r="W506" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X506" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y506" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z506" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA506" s="60">
+        <v>67</v>
+      </c>
+      <c r="AH506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM506" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:39">
+      <c r="A507" s="5">
+        <v>506</v>
+      </c>
+      <c r="B507" s="60">
+        <v>10423</v>
+      </c>
+      <c r="C507" s="60"/>
+      <c r="D507" s="60"/>
+      <c r="E507" s="60"/>
+      <c r="F507" s="60">
+        <v>1</v>
+      </c>
+      <c r="G507" s="60" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H507" s="60"/>
+      <c r="I507" s="60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J507" s="60" t="s">
+        <v>1850</v>
+      </c>
+      <c r="K507" s="60"/>
+      <c r="L507" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M507" s="60">
+        <v>0</v>
+      </c>
+      <c r="N507" s="60">
+        <v>0</v>
+      </c>
+      <c r="O507" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="P507" s="60">
+        <v>2000</v>
+      </c>
+      <c r="Q507" s="60" t="s">
+        <v>1854</v>
+      </c>
+      <c r="R507" s="61" t="s">
+        <v>1864</v>
+      </c>
+      <c r="S507" s="60"/>
+      <c r="T507" s="60"/>
+      <c r="U507" s="60"/>
+      <c r="V507" s="60"/>
+      <c r="W507" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X507" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y507" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z507" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA507" s="60">
+        <v>67</v>
+      </c>
+      <c r="AH507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM507" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:39">
+      <c r="A508" s="5">
+        <v>507</v>
+      </c>
+      <c r="B508" s="60">
+        <v>10424</v>
+      </c>
+      <c r="C508" s="60"/>
+      <c r="D508" s="60"/>
+      <c r="E508" s="60"/>
+      <c r="F508" s="60">
+        <v>1</v>
+      </c>
+      <c r="G508" s="60" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H508" s="60"/>
+      <c r="I508" s="60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J508" s="60" t="s">
+        <v>1851</v>
+      </c>
+      <c r="K508" s="60"/>
+      <c r="L508" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M508" s="60">
+        <v>0</v>
+      </c>
+      <c r="N508" s="60">
+        <v>0</v>
+      </c>
+      <c r="O508" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="P508" s="60">
+        <v>600</v>
+      </c>
+      <c r="Q508" s="60" t="s">
+        <v>1854</v>
+      </c>
+      <c r="R508" s="61" t="s">
+        <v>1865</v>
+      </c>
+      <c r="S508" s="60"/>
+      <c r="T508" s="60"/>
+      <c r="U508" s="60"/>
+      <c r="V508" s="60"/>
+      <c r="W508" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X508" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y508" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z508" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA508" s="60">
+        <v>67</v>
+      </c>
+      <c r="AH508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM508" s="6">
         <v>1</v>
       </c>
     </row>
@@ -42571,10 +43600,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -43524,6 +44553,34 @@
       </c>
       <c r="D66" s="56">
         <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="25">
+        <v>66</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C67" s="25">
+        <v>1</v>
+      </c>
+      <c r="D67" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="25">
+        <v>67</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C68" s="25">
+        <v>1</v>
+      </c>
+      <c r="D68" s="25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4410" uniqueCount="1977">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8315,22 +8315,47 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>1000000,38000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>1800000,50000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>4800000,100000,1,</t>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>19800000,400000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,400000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,800000,1,</t>
   </si>
   <si>
     <t>9800000,200000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>1800000,50000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>86400,3,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8339,6 +8364,85 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋铜锤</t>
+  </si>
+  <si>
+    <t>疯狂敲金蛋银锤</t>
+  </si>
+  <si>
+    <t>疯狂敲金蛋金锤</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V12）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V12）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{type="permission_class",class_value = "fclb_free_001" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8351,85 +8455,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>51800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>51800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,20000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,38000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,50000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,400000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,800000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,200000,1,</t>
+    <t>{type="permission_class",class_value = "golden_egg_1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_2" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_3" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8508,7 +8542,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8583,18 +8617,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8642,7 +8664,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8853,12 +8875,6 @@
     <xf numFmtId="3" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8868,22 +8884,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11317,13 +11333,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN532"/>
+  <dimension ref="A1:AN541"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N509" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W509" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R521" sqref="R521"/>
+      <selection pane="bottomRight" activeCell="AA541" sqref="AA541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -11367,7 +11383,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -28149,7 +28165,7 @@
       </c>
     </row>
     <row r="273" spans="1:40" s="65" customFormat="1" ht="14.25">
-      <c r="A273" s="74">
+      <c r="A273" s="72">
         <v>272</v>
       </c>
       <c r="B273" s="65">
@@ -37677,7 +37693,7 @@
       <c r="W415" s="40" t="s">
         <v>1420</v>
       </c>
-      <c r="X415" s="72" t="s">
+      <c r="X415" s="70" t="s">
         <v>117</v>
       </c>
       <c r="Y415" s="40">
@@ -37745,7 +37761,7 @@
       <c r="W416" s="40" t="s">
         <v>1420</v>
       </c>
-      <c r="X416" s="72" t="s">
+      <c r="X416" s="70" t="s">
         <v>117</v>
       </c>
       <c r="Y416" s="40">
@@ -37813,7 +37829,7 @@
       <c r="W417" s="40" t="s">
         <v>1200</v>
       </c>
-      <c r="X417" s="72" t="s">
+      <c r="X417" s="70" t="s">
         <v>117</v>
       </c>
       <c r="Y417" s="40">
@@ -37881,7 +37897,7 @@
       <c r="W418" s="40" t="s">
         <v>1200</v>
       </c>
-      <c r="X418" s="72" t="s">
+      <c r="X418" s="70" t="s">
         <v>117</v>
       </c>
       <c r="Y418" s="40">
@@ -37949,7 +37965,7 @@
       <c r="W419" s="40" t="s">
         <v>1200</v>
       </c>
-      <c r="X419" s="72" t="s">
+      <c r="X419" s="70" t="s">
         <v>117</v>
       </c>
       <c r="Y419" s="40">
@@ -38017,7 +38033,7 @@
       <c r="W420" s="40" t="s">
         <v>1200</v>
       </c>
-      <c r="X420" s="72" t="s">
+      <c r="X420" s="70" t="s">
         <v>117</v>
       </c>
       <c r="Y420" s="40">
@@ -38110,759 +38126,759 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:39" s="79" customFormat="1">
-      <c r="A422" s="79">
+    <row r="422" spans="1:39" s="75" customFormat="1">
+      <c r="A422" s="75">
         <v>421</v>
       </c>
-      <c r="B422" s="79">
+      <c r="B422" s="75">
         <v>10338</v>
       </c>
-      <c r="F422" s="79">
-        <v>1</v>
-      </c>
-      <c r="G422" s="79" t="s">
+      <c r="F422" s="75">
+        <v>1</v>
+      </c>
+      <c r="G422" s="75" t="s">
         <v>1486</v>
       </c>
-      <c r="I422" s="79" t="s">
+      <c r="I422" s="75" t="s">
         <v>1487</v>
       </c>
-      <c r="J422" s="79" t="s">
+      <c r="J422" s="75" t="s">
         <v>1493</v>
       </c>
-      <c r="L422" s="79">
+      <c r="L422" s="75">
         <v>-31</v>
       </c>
-      <c r="M422" s="79">
-        <v>0</v>
-      </c>
-      <c r="N422" s="79">
-        <v>0</v>
-      </c>
-      <c r="O422" s="79" t="s">
+      <c r="M422" s="75">
+        <v>0</v>
+      </c>
+      <c r="N422" s="75">
+        <v>0</v>
+      </c>
+      <c r="O422" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P422" s="79">
+      <c r="P422" s="75">
         <v>2000</v>
       </c>
-      <c r="Q422" s="79" t="s">
+      <c r="Q422" s="75" t="s">
         <v>1496</v>
       </c>
-      <c r="R422" s="80" t="s">
+      <c r="R422" s="76" t="s">
         <v>1488</v>
       </c>
-      <c r="W422" s="79" t="s">
+      <c r="W422" s="75" t="s">
         <v>545</v>
       </c>
-      <c r="X422" s="79">
+      <c r="X422" s="75">
         <v>99999999</v>
       </c>
-      <c r="Y422" s="79">
+      <c r="Y422" s="75">
         <v>1603756800</v>
       </c>
-      <c r="Z422" s="79">
+      <c r="Z422" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA422" s="79">
+      <c r="AA422" s="75">
         <v>51</v>
       </c>
-      <c r="AH422" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI422" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM422" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:39" s="79" customFormat="1">
-      <c r="A423" s="79">
+      <c r="AH422" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI422" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM422" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:39" s="75" customFormat="1">
+      <c r="A423" s="75">
         <v>422</v>
       </c>
-      <c r="B423" s="79">
+      <c r="B423" s="75">
         <v>10339</v>
       </c>
-      <c r="F423" s="79">
-        <v>1</v>
-      </c>
-      <c r="G423" s="79" t="s">
+      <c r="F423" s="75">
+        <v>1</v>
+      </c>
+      <c r="G423" s="75" t="s">
         <v>1489</v>
       </c>
-      <c r="I423" s="79" t="s">
+      <c r="I423" s="75" t="s">
         <v>1487</v>
       </c>
-      <c r="J423" s="79" t="s">
+      <c r="J423" s="75" t="s">
         <v>1494</v>
       </c>
-      <c r="L423" s="79">
+      <c r="L423" s="75">
         <v>-31</v>
       </c>
-      <c r="M423" s="79">
-        <v>0</v>
-      </c>
-      <c r="N423" s="79">
-        <v>0</v>
-      </c>
-      <c r="O423" s="79" t="s">
+      <c r="M423" s="75">
+        <v>0</v>
+      </c>
+      <c r="N423" s="75">
+        <v>0</v>
+      </c>
+      <c r="O423" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P423" s="79">
+      <c r="P423" s="75">
         <v>5800</v>
       </c>
-      <c r="Q423" s="79" t="s">
+      <c r="Q423" s="75" t="s">
         <v>1497</v>
       </c>
-      <c r="R423" s="80" t="s">
+      <c r="R423" s="76" t="s">
         <v>1490</v>
       </c>
-      <c r="W423" s="79" t="s">
+      <c r="W423" s="75" t="s">
         <v>545</v>
       </c>
-      <c r="X423" s="79">
+      <c r="X423" s="75">
         <v>99999999</v>
       </c>
-      <c r="Y423" s="79">
+      <c r="Y423" s="75">
         <v>1603756800</v>
       </c>
-      <c r="Z423" s="79">
+      <c r="Z423" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA423" s="79">
+      <c r="AA423" s="75">
         <v>51</v>
       </c>
-      <c r="AH423" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI423" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM423" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:39" s="79" customFormat="1">
-      <c r="A424" s="79">
+      <c r="AH423" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI423" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM423" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:39" s="75" customFormat="1">
+      <c r="A424" s="75">
         <v>423</v>
       </c>
-      <c r="B424" s="79">
+      <c r="B424" s="75">
         <v>10340</v>
       </c>
-      <c r="F424" s="79">
-        <v>1</v>
-      </c>
-      <c r="G424" s="79" t="s">
+      <c r="F424" s="75">
+        <v>1</v>
+      </c>
+      <c r="G424" s="75" t="s">
         <v>1491</v>
       </c>
-      <c r="I424" s="79" t="s">
+      <c r="I424" s="75" t="s">
         <v>1487</v>
       </c>
-      <c r="J424" s="79" t="s">
+      <c r="J424" s="75" t="s">
         <v>1495</v>
       </c>
-      <c r="L424" s="79">
+      <c r="L424" s="75">
         <v>-31</v>
       </c>
-      <c r="M424" s="79">
-        <v>0</v>
-      </c>
-      <c r="N424" s="79">
-        <v>0</v>
-      </c>
-      <c r="O424" s="79" t="s">
+      <c r="M424" s="75">
+        <v>0</v>
+      </c>
+      <c r="N424" s="75">
+        <v>0</v>
+      </c>
+      <c r="O424" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P424" s="79">
+      <c r="P424" s="75">
         <v>12800</v>
       </c>
-      <c r="Q424" s="79" t="s">
+      <c r="Q424" s="75" t="s">
         <v>1498</v>
       </c>
-      <c r="R424" s="80" t="s">
+      <c r="R424" s="76" t="s">
         <v>1492</v>
       </c>
-      <c r="W424" s="79" t="s">
+      <c r="W424" s="75" t="s">
         <v>545</v>
       </c>
-      <c r="X424" s="79">
+      <c r="X424" s="75">
         <v>99999999</v>
       </c>
-      <c r="Y424" s="79">
+      <c r="Y424" s="75">
         <v>1603756800</v>
       </c>
-      <c r="Z424" s="79">
+      <c r="Z424" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA424" s="79">
+      <c r="AA424" s="75">
         <v>51</v>
       </c>
-      <c r="AH424" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI424" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM424" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:39" s="79" customFormat="1">
-      <c r="A425" s="79">
+      <c r="AH424" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI424" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM424" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:39" s="75" customFormat="1">
+      <c r="A425" s="75">
         <v>424</v>
       </c>
-      <c r="B425" s="79">
+      <c r="B425" s="75">
         <v>10341</v>
       </c>
-      <c r="F425" s="79">
-        <v>1</v>
-      </c>
-      <c r="G425" s="79" t="s">
+      <c r="F425" s="75">
+        <v>1</v>
+      </c>
+      <c r="G425" s="75" t="s">
         <v>1432</v>
       </c>
-      <c r="J425" s="79" t="s">
+      <c r="J425" s="75" t="s">
         <v>1433</v>
       </c>
-      <c r="L425" s="79">
+      <c r="L425" s="75">
         <v>-31</v>
       </c>
-      <c r="M425" s="79">
-        <v>0</v>
-      </c>
-      <c r="N425" s="79">
-        <v>0</v>
-      </c>
-      <c r="O425" s="79" t="s">
+      <c r="M425" s="75">
+        <v>0</v>
+      </c>
+      <c r="N425" s="75">
+        <v>0</v>
+      </c>
+      <c r="O425" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P425" s="79">
+      <c r="P425" s="75">
         <v>49800</v>
       </c>
-      <c r="Q425" s="79" t="s">
+      <c r="Q425" s="75" t="s">
         <v>1442</v>
       </c>
-      <c r="R425" s="80" t="s">
+      <c r="R425" s="76" t="s">
         <v>1451</v>
       </c>
-      <c r="W425" s="79" t="s">
+      <c r="W425" s="75" t="s">
         <v>594</v>
       </c>
-      <c r="X425" s="79">
+      <c r="X425" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y425" s="79">
+      <c r="Y425" s="75">
         <v>1585609200</v>
       </c>
-      <c r="Z425" s="79">
+      <c r="Z425" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH425" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI425" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:39" s="79" customFormat="1">
-      <c r="A426" s="79">
+      <c r="AH425" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI425" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:39" s="75" customFormat="1">
+      <c r="A426" s="75">
         <v>425</v>
       </c>
-      <c r="B426" s="79">
+      <c r="B426" s="75">
         <v>10342</v>
       </c>
-      <c r="F426" s="79">
-        <v>1</v>
-      </c>
-      <c r="G426" s="79" t="s">
+      <c r="F426" s="75">
+        <v>1</v>
+      </c>
+      <c r="G426" s="75" t="s">
         <v>1434</v>
       </c>
-      <c r="J426" s="79" t="s">
+      <c r="J426" s="75" t="s">
         <v>1435</v>
       </c>
-      <c r="L426" s="79">
+      <c r="L426" s="75">
         <v>-31</v>
       </c>
-      <c r="M426" s="79">
-        <v>0</v>
-      </c>
-      <c r="N426" s="79">
-        <v>0</v>
-      </c>
-      <c r="O426" s="79" t="s">
+      <c r="M426" s="75">
+        <v>0</v>
+      </c>
+      <c r="N426" s="75">
+        <v>0</v>
+      </c>
+      <c r="O426" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P426" s="79">
+      <c r="P426" s="75">
         <v>19800</v>
       </c>
-      <c r="Q426" s="79" t="s">
+      <c r="Q426" s="75" t="s">
         <v>1443</v>
       </c>
-      <c r="R426" s="80" t="s">
+      <c r="R426" s="76" t="s">
         <v>1451</v>
       </c>
-      <c r="W426" s="79" t="s">
+      <c r="W426" s="75" t="s">
         <v>594</v>
       </c>
-      <c r="X426" s="79">
+      <c r="X426" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y426" s="79">
+      <c r="Y426" s="75">
         <v>1585609200</v>
       </c>
-      <c r="Z426" s="79">
+      <c r="Z426" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH426" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI426" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:39" s="79" customFormat="1">
-      <c r="A427" s="79">
+      <c r="AH426" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI426" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:39" s="75" customFormat="1">
+      <c r="A427" s="75">
         <v>426</v>
       </c>
-      <c r="B427" s="79">
+      <c r="B427" s="75">
         <v>10343</v>
       </c>
-      <c r="F427" s="79">
-        <v>1</v>
-      </c>
-      <c r="G427" s="79" t="s">
+      <c r="F427" s="75">
+        <v>1</v>
+      </c>
+      <c r="G427" s="75" t="s">
         <v>1436</v>
       </c>
-      <c r="J427" s="79" t="s">
+      <c r="J427" s="75" t="s">
         <v>1437</v>
       </c>
-      <c r="L427" s="79">
+      <c r="L427" s="75">
         <v>-31</v>
       </c>
-      <c r="M427" s="79">
-        <v>0</v>
-      </c>
-      <c r="N427" s="79">
-        <v>0</v>
-      </c>
-      <c r="O427" s="79" t="s">
+      <c r="M427" s="75">
+        <v>0</v>
+      </c>
+      <c r="N427" s="75">
+        <v>0</v>
+      </c>
+      <c r="O427" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P427" s="79">
+      <c r="P427" s="75">
         <v>9800</v>
       </c>
-      <c r="Q427" s="79" t="s">
+      <c r="Q427" s="75" t="s">
         <v>1444</v>
       </c>
-      <c r="R427" s="80" t="s">
+      <c r="R427" s="76" t="s">
         <v>1451</v>
       </c>
-      <c r="W427" s="79" t="s">
+      <c r="W427" s="75" t="s">
         <v>594</v>
       </c>
-      <c r="X427" s="79">
+      <c r="X427" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y427" s="79">
+      <c r="Y427" s="75">
         <v>1585609200</v>
       </c>
-      <c r="Z427" s="79">
+      <c r="Z427" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH427" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI427" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:39" s="79" customFormat="1">
-      <c r="A428" s="79">
+      <c r="AH427" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI427" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:39" s="75" customFormat="1">
+      <c r="A428" s="75">
         <v>427</v>
       </c>
-      <c r="B428" s="79">
+      <c r="B428" s="75">
         <v>10344</v>
       </c>
-      <c r="F428" s="79">
-        <v>1</v>
-      </c>
-      <c r="G428" s="79" t="s">
+      <c r="F428" s="75">
+        <v>1</v>
+      </c>
+      <c r="G428" s="75" t="s">
         <v>1438</v>
       </c>
-      <c r="J428" s="79" t="s">
+      <c r="J428" s="75" t="s">
         <v>1439</v>
       </c>
-      <c r="L428" s="79">
+      <c r="L428" s="75">
         <v>-31</v>
       </c>
-      <c r="M428" s="79">
-        <v>0</v>
-      </c>
-      <c r="N428" s="79">
-        <v>0</v>
-      </c>
-      <c r="O428" s="79" t="s">
+      <c r="M428" s="75">
+        <v>0</v>
+      </c>
+      <c r="N428" s="75">
+        <v>0</v>
+      </c>
+      <c r="O428" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P428" s="79">
+      <c r="P428" s="75">
         <v>9800</v>
       </c>
-      <c r="Q428" s="79" t="s">
+      <c r="Q428" s="75" t="s">
         <v>1445</v>
       </c>
-      <c r="R428" s="80" t="s">
+      <c r="R428" s="76" t="s">
         <v>1451</v>
       </c>
-      <c r="W428" s="79" t="s">
+      <c r="W428" s="75" t="s">
         <v>594</v>
       </c>
-      <c r="X428" s="79">
+      <c r="X428" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y428" s="79">
+      <c r="Y428" s="75">
         <v>1585609200</v>
       </c>
-      <c r="Z428" s="79">
+      <c r="Z428" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH428" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI428" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:39" s="79" customFormat="1">
-      <c r="A429" s="79">
+      <c r="AH428" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI428" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:39" s="75" customFormat="1">
+      <c r="A429" s="75">
         <v>428</v>
       </c>
-      <c r="B429" s="79">
+      <c r="B429" s="75">
         <v>10345</v>
       </c>
-      <c r="F429" s="79">
-        <v>1</v>
-      </c>
-      <c r="G429" s="79" t="s">
+      <c r="F429" s="75">
+        <v>1</v>
+      </c>
+      <c r="G429" s="75" t="s">
         <v>1440</v>
       </c>
-      <c r="J429" s="79" t="s">
+      <c r="J429" s="75" t="s">
         <v>1441</v>
       </c>
-      <c r="L429" s="79">
+      <c r="L429" s="75">
         <v>-31</v>
       </c>
-      <c r="M429" s="79">
-        <v>0</v>
-      </c>
-      <c r="N429" s="79">
-        <v>0</v>
-      </c>
-      <c r="O429" s="79" t="s">
+      <c r="M429" s="75">
+        <v>0</v>
+      </c>
+      <c r="N429" s="75">
+        <v>0</v>
+      </c>
+      <c r="O429" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P429" s="79">
+      <c r="P429" s="75">
         <v>4800</v>
       </c>
-      <c r="Q429" s="79" t="s">
+      <c r="Q429" s="75" t="s">
         <v>1446</v>
       </c>
-      <c r="R429" s="80" t="s">
+      <c r="R429" s="76" t="s">
         <v>1451</v>
       </c>
-      <c r="W429" s="79" t="s">
+      <c r="W429" s="75" t="s">
         <v>594</v>
       </c>
-      <c r="X429" s="79">
+      <c r="X429" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y429" s="79">
+      <c r="Y429" s="75">
         <v>1585609200</v>
       </c>
-      <c r="Z429" s="79">
+      <c r="Z429" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH429" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:39" s="79" customFormat="1">
-      <c r="A430" s="79">
+      <c r="AH429" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI429" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:39" s="75" customFormat="1">
+      <c r="A430" s="75">
         <v>429</v>
       </c>
-      <c r="B430" s="79">
+      <c r="B430" s="75">
         <v>10346</v>
       </c>
-      <c r="F430" s="79">
-        <v>1</v>
-      </c>
-      <c r="G430" s="79" t="s">
+      <c r="F430" s="75">
+        <v>1</v>
+      </c>
+      <c r="G430" s="75" t="s">
         <v>1729</v>
       </c>
-      <c r="I430" s="79" t="s">
+      <c r="I430" s="75" t="s">
         <v>1452</v>
       </c>
-      <c r="J430" s="79" t="s">
+      <c r="J430" s="75" t="s">
         <v>1725</v>
       </c>
-      <c r="L430" s="79">
+      <c r="L430" s="75">
         <v>-28</v>
       </c>
-      <c r="M430" s="79">
-        <v>0</v>
-      </c>
-      <c r="N430" s="79">
-        <v>0</v>
-      </c>
-      <c r="O430" s="79" t="s">
+      <c r="M430" s="75">
+        <v>0</v>
+      </c>
+      <c r="N430" s="75">
+        <v>0</v>
+      </c>
+      <c r="O430" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P430" s="79">
+      <c r="P430" s="75">
         <v>100</v>
       </c>
-      <c r="Q430" s="79" t="s">
+      <c r="Q430" s="75" t="s">
         <v>1453</v>
       </c>
-      <c r="R430" s="80" t="s">
+      <c r="R430" s="76" t="s">
         <v>1454</v>
       </c>
-      <c r="W430" s="79" t="s">
+      <c r="W430" s="75" t="s">
         <v>1455</v>
       </c>
-      <c r="X430" s="79">
+      <c r="X430" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y430" s="79">
+      <c r="Y430" s="75">
         <v>1581377400</v>
       </c>
-      <c r="Z430" s="79">
+      <c r="Z430" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA430" s="79">
+      <c r="AA430" s="75">
         <v>14</v>
       </c>
-      <c r="AH430" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI430" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL430" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM430" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:39" s="79" customFormat="1">
-      <c r="A431" s="79">
+      <c r="AH430" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI430" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM430" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:39" s="75" customFormat="1">
+      <c r="A431" s="75">
         <v>430</v>
       </c>
-      <c r="B431" s="79">
+      <c r="B431" s="75">
         <v>10347</v>
       </c>
-      <c r="F431" s="79">
-        <v>1</v>
-      </c>
-      <c r="G431" s="79" t="s">
+      <c r="F431" s="75">
+        <v>1</v>
+      </c>
+      <c r="G431" s="75" t="s">
         <v>1456</v>
       </c>
-      <c r="I431" s="79" t="s">
+      <c r="I431" s="75" t="s">
         <v>1457</v>
       </c>
-      <c r="J431" s="79" t="s">
+      <c r="J431" s="75" t="s">
         <v>1726</v>
       </c>
-      <c r="L431" s="79">
+      <c r="L431" s="75">
         <v>-28</v>
       </c>
-      <c r="M431" s="79">
-        <v>0</v>
-      </c>
-      <c r="N431" s="79">
-        <v>0</v>
-      </c>
-      <c r="O431" s="79" t="s">
+      <c r="M431" s="75">
+        <v>0</v>
+      </c>
+      <c r="N431" s="75">
+        <v>0</v>
+      </c>
+      <c r="O431" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P431" s="79">
+      <c r="P431" s="75">
         <v>300</v>
       </c>
-      <c r="Q431" s="79" t="s">
+      <c r="Q431" s="75" t="s">
         <v>1453</v>
       </c>
-      <c r="R431" s="80" t="s">
+      <c r="R431" s="76" t="s">
         <v>1458</v>
       </c>
-      <c r="W431" s="79" t="s">
+      <c r="W431" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X431" s="79">
+      <c r="X431" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y431" s="79">
+      <c r="Y431" s="75">
         <v>1581377400</v>
       </c>
-      <c r="Z431" s="79">
+      <c r="Z431" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA431" s="79">
+      <c r="AA431" s="75">
         <v>14</v>
       </c>
-      <c r="AH431" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI431" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL431" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM431" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:39" s="79" customFormat="1">
-      <c r="A432" s="79">
+      <c r="AH431" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI431" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM431" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:39" s="75" customFormat="1">
+      <c r="A432" s="75">
         <v>431</v>
       </c>
-      <c r="B432" s="79">
+      <c r="B432" s="75">
         <v>10348</v>
       </c>
-      <c r="F432" s="79">
-        <v>1</v>
-      </c>
-      <c r="G432" s="79" t="s">
+      <c r="F432" s="75">
+        <v>1</v>
+      </c>
+      <c r="G432" s="75" t="s">
         <v>1456</v>
       </c>
-      <c r="I432" s="79" t="s">
+      <c r="I432" s="75" t="s">
         <v>1459</v>
       </c>
-      <c r="J432" s="79" t="s">
+      <c r="J432" s="75" t="s">
         <v>1727</v>
       </c>
-      <c r="L432" s="79">
+      <c r="L432" s="75">
         <v>-28</v>
       </c>
-      <c r="M432" s="79">
-        <v>0</v>
-      </c>
-      <c r="N432" s="79">
-        <v>0</v>
-      </c>
-      <c r="O432" s="79" t="s">
+      <c r="M432" s="75">
+        <v>0</v>
+      </c>
+      <c r="N432" s="75">
+        <v>0</v>
+      </c>
+      <c r="O432" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P432" s="79">
+      <c r="P432" s="75">
         <v>600</v>
       </c>
-      <c r="Q432" s="79" t="s">
+      <c r="Q432" s="75" t="s">
         <v>1453</v>
       </c>
-      <c r="R432" s="80" t="s">
+      <c r="R432" s="76" t="s">
         <v>1460</v>
       </c>
-      <c r="W432" s="79" t="s">
+      <c r="W432" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X432" s="79">
+      <c r="X432" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y432" s="79">
+      <c r="Y432" s="75">
         <v>1581377400</v>
       </c>
-      <c r="Z432" s="79">
+      <c r="Z432" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA432" s="79">
+      <c r="AA432" s="75">
         <v>14</v>
       </c>
-      <c r="AH432" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI432" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL432" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM432" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:39" s="79" customFormat="1">
-      <c r="A433" s="79">
+      <c r="AH432" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI432" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM432" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:39" s="75" customFormat="1">
+      <c r="A433" s="75">
         <v>432</v>
       </c>
-      <c r="B433" s="79">
+      <c r="B433" s="75">
         <v>10349</v>
       </c>
-      <c r="F433" s="79">
-        <v>1</v>
-      </c>
-      <c r="G433" s="79" t="s">
+      <c r="F433" s="75">
+        <v>1</v>
+      </c>
+      <c r="G433" s="75" t="s">
         <v>1456</v>
       </c>
-      <c r="I433" s="79" t="s">
+      <c r="I433" s="75" t="s">
         <v>1461</v>
       </c>
-      <c r="J433" s="79" t="s">
+      <c r="J433" s="75" t="s">
         <v>1728</v>
       </c>
-      <c r="L433" s="79">
+      <c r="L433" s="75">
         <v>-28</v>
       </c>
-      <c r="M433" s="79">
-        <v>0</v>
-      </c>
-      <c r="N433" s="79">
-        <v>0</v>
-      </c>
-      <c r="O433" s="79" t="s">
+      <c r="M433" s="75">
+        <v>0</v>
+      </c>
+      <c r="N433" s="75">
+        <v>0</v>
+      </c>
+      <c r="O433" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P433" s="79">
+      <c r="P433" s="75">
         <v>600</v>
       </c>
-      <c r="Q433" s="79" t="s">
+      <c r="Q433" s="75" t="s">
         <v>1573</v>
       </c>
-      <c r="R433" s="80" t="s">
+      <c r="R433" s="76" t="s">
         <v>1462</v>
       </c>
-      <c r="W433" s="79" t="s">
+      <c r="W433" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X433" s="79">
+      <c r="X433" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y433" s="79">
+      <c r="Y433" s="75">
         <v>1581377400</v>
       </c>
-      <c r="Z433" s="79">
+      <c r="Z433" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA433" s="79">
+      <c r="AA433" s="75">
         <v>14</v>
       </c>
-      <c r="AH433" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI433" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL433" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM433" s="79">
+      <c r="AH433" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI433" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM433" s="75">
         <v>1</v>
       </c>
     </row>
@@ -39693,2190 +39709,2190 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="79" customFormat="1">
-      <c r="A447" s="79">
+    <row r="447" spans="1:39" s="75" customFormat="1">
+      <c r="A447" s="75">
         <v>446</v>
       </c>
-      <c r="B447" s="79">
+      <c r="B447" s="75">
         <v>10363</v>
       </c>
-      <c r="F447" s="79">
-        <v>1</v>
-      </c>
-      <c r="G447" s="79" t="s">
+      <c r="F447" s="75">
+        <v>1</v>
+      </c>
+      <c r="G447" s="75" t="s">
         <v>1537</v>
       </c>
-      <c r="I447" s="79" t="s">
+      <c r="I447" s="75" t="s">
         <v>1570</v>
       </c>
-      <c r="J447" s="79" t="s">
+      <c r="J447" s="75" t="s">
         <v>1615</v>
       </c>
-      <c r="L447" s="79">
+      <c r="L447" s="75">
         <v>-31</v>
       </c>
-      <c r="M447" s="79">
-        <v>0</v>
-      </c>
-      <c r="N447" s="79">
-        <v>0</v>
-      </c>
-      <c r="O447" s="79" t="s">
+      <c r="M447" s="75">
+        <v>0</v>
+      </c>
+      <c r="N447" s="75">
+        <v>0</v>
+      </c>
+      <c r="O447" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P447" s="79">
+      <c r="P447" s="75">
         <v>800</v>
       </c>
-      <c r="Q447" s="79" t="s">
+      <c r="Q447" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R447" s="80" t="s">
+      <c r="R447" s="76" t="s">
         <v>1616</v>
       </c>
-      <c r="W447" s="79" t="s">
+      <c r="W447" s="75" t="s">
         <v>592</v>
       </c>
-      <c r="X447" s="79">
+      <c r="X447" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y447" s="79">
+      <c r="Y447" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z447" s="79">
+      <c r="Z447" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA447" s="79">
+      <c r="AA447" s="75">
         <v>52</v>
       </c>
-      <c r="AH447" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI447" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL447" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM447" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:39" s="79" customFormat="1">
-      <c r="A448" s="79">
+      <c r="AH447" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI447" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM447" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:39" s="75" customFormat="1">
+      <c r="A448" s="75">
         <v>447</v>
       </c>
-      <c r="B448" s="79">
+      <c r="B448" s="75">
         <v>10364</v>
       </c>
-      <c r="F448" s="79">
-        <v>1</v>
-      </c>
-      <c r="G448" s="79" t="s">
+      <c r="F448" s="75">
+        <v>1</v>
+      </c>
+      <c r="G448" s="75" t="s">
         <v>1538</v>
       </c>
-      <c r="I448" s="79" t="s">
+      <c r="I448" s="75" t="s">
         <v>1571</v>
       </c>
-      <c r="J448" s="79" t="s">
+      <c r="J448" s="75" t="s">
         <v>1595</v>
       </c>
-      <c r="L448" s="79">
+      <c r="L448" s="75">
         <v>-31</v>
       </c>
-      <c r="M448" s="79">
-        <v>0</v>
-      </c>
-      <c r="N448" s="79">
-        <v>0</v>
-      </c>
-      <c r="O448" s="79" t="s">
+      <c r="M448" s="75">
+        <v>0</v>
+      </c>
+      <c r="N448" s="75">
+        <v>0</v>
+      </c>
+      <c r="O448" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P448" s="79">
+      <c r="P448" s="75">
         <v>800</v>
       </c>
-      <c r="Q448" s="79" t="s">
+      <c r="Q448" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R448" s="80" t="s">
+      <c r="R448" s="76" t="s">
         <v>1617</v>
       </c>
-      <c r="W448" s="79" t="s">
+      <c r="W448" s="75" t="s">
         <v>592</v>
       </c>
-      <c r="X448" s="79">
+      <c r="X448" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y448" s="79">
+      <c r="Y448" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z448" s="79">
+      <c r="Z448" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH448" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI448" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL448" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM448" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:39" s="79" customFormat="1">
-      <c r="A449" s="79">
+      <c r="AH448" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI448" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM448" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:39" s="75" customFormat="1">
+      <c r="A449" s="75">
         <v>448</v>
       </c>
-      <c r="B449" s="79">
+      <c r="B449" s="75">
         <v>10365</v>
       </c>
-      <c r="F449" s="79">
-        <v>1</v>
-      </c>
-      <c r="G449" s="79" t="s">
+      <c r="F449" s="75">
+        <v>1</v>
+      </c>
+      <c r="G449" s="75" t="s">
         <v>1539</v>
       </c>
-      <c r="I449" s="79" t="s">
+      <c r="I449" s="75" t="s">
         <v>1572</v>
       </c>
-      <c r="J449" s="79" t="s">
+      <c r="J449" s="75" t="s">
         <v>1596</v>
       </c>
-      <c r="L449" s="79">
+      <c r="L449" s="75">
         <v>-31</v>
       </c>
-      <c r="M449" s="79">
-        <v>0</v>
-      </c>
-      <c r="N449" s="79">
-        <v>0</v>
-      </c>
-      <c r="O449" s="79" t="s">
+      <c r="M449" s="75">
+        <v>0</v>
+      </c>
+      <c r="N449" s="75">
+        <v>0</v>
+      </c>
+      <c r="O449" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P449" s="79">
+      <c r="P449" s="75">
         <v>800</v>
       </c>
-      <c r="Q449" s="79" t="s">
+      <c r="Q449" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R449" s="80" t="s">
+      <c r="R449" s="76" t="s">
         <v>1618</v>
       </c>
-      <c r="W449" s="79" t="s">
+      <c r="W449" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X449" s="79">
+      <c r="X449" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y449" s="79">
+      <c r="Y449" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z449" s="79">
+      <c r="Z449" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA449" s="79">
+      <c r="AA449" s="75">
         <v>53</v>
       </c>
-      <c r="AH449" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI449" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL449" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM449" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:39" s="79" customFormat="1">
-      <c r="A450" s="79">
+      <c r="AH449" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI449" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM449" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:39" s="75" customFormat="1">
+      <c r="A450" s="75">
         <v>449</v>
       </c>
-      <c r="B450" s="79">
+      <c r="B450" s="75">
         <v>10366</v>
       </c>
-      <c r="F450" s="79">
-        <v>1</v>
-      </c>
-      <c r="G450" s="79" t="s">
+      <c r="F450" s="75">
+        <v>1</v>
+      </c>
+      <c r="G450" s="75" t="s">
         <v>1540</v>
       </c>
-      <c r="I450" s="79" t="s">
+      <c r="I450" s="75" t="s">
         <v>1552</v>
       </c>
-      <c r="J450" s="79" t="s">
+      <c r="J450" s="75" t="s">
         <v>1597</v>
       </c>
-      <c r="L450" s="79">
+      <c r="L450" s="75">
         <v>-31</v>
       </c>
-      <c r="M450" s="79">
-        <v>0</v>
-      </c>
-      <c r="N450" s="79">
-        <v>0</v>
-      </c>
-      <c r="O450" s="79" t="s">
+      <c r="M450" s="75">
+        <v>0</v>
+      </c>
+      <c r="N450" s="75">
+        <v>0</v>
+      </c>
+      <c r="O450" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P450" s="79">
+      <c r="P450" s="75">
         <v>3800</v>
       </c>
-      <c r="Q450" s="79" t="s">
+      <c r="Q450" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R450" s="80" t="s">
+      <c r="R450" s="76" t="s">
         <v>1619</v>
       </c>
-      <c r="W450" s="79" t="s">
+      <c r="W450" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X450" s="79">
+      <c r="X450" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y450" s="79">
+      <c r="Y450" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z450" s="79">
+      <c r="Z450" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA450" s="79">
+      <c r="AA450" s="75">
         <v>54</v>
       </c>
-      <c r="AH450" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI450" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM450" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:39" s="79" customFormat="1">
-      <c r="A451" s="79">
+      <c r="AH450" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI450" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM450" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:39" s="75" customFormat="1">
+      <c r="A451" s="75">
         <v>450</v>
       </c>
-      <c r="B451" s="79">
+      <c r="B451" s="75">
         <v>10367</v>
       </c>
-      <c r="F451" s="79">
-        <v>1</v>
-      </c>
-      <c r="G451" s="79" t="s">
+      <c r="F451" s="75">
+        <v>1</v>
+      </c>
+      <c r="G451" s="75" t="s">
         <v>1541</v>
       </c>
-      <c r="I451" s="79" t="s">
+      <c r="I451" s="75" t="s">
         <v>1553</v>
       </c>
-      <c r="J451" s="79" t="s">
+      <c r="J451" s="75" t="s">
         <v>1598</v>
       </c>
-      <c r="L451" s="79">
+      <c r="L451" s="75">
         <v>-31</v>
       </c>
-      <c r="M451" s="79">
-        <v>0</v>
-      </c>
-      <c r="N451" s="79">
-        <v>0</v>
-      </c>
-      <c r="O451" s="79" t="s">
+      <c r="M451" s="75">
+        <v>0</v>
+      </c>
+      <c r="N451" s="75">
+        <v>0</v>
+      </c>
+      <c r="O451" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P451" s="79">
+      <c r="P451" s="75">
         <v>3800</v>
       </c>
-      <c r="Q451" s="79" t="s">
+      <c r="Q451" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R451" s="80" t="s">
+      <c r="R451" s="76" t="s">
         <v>1620</v>
       </c>
-      <c r="W451" s="79" t="s">
+      <c r="W451" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X451" s="79">
+      <c r="X451" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y451" s="79">
+      <c r="Y451" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z451" s="79">
+      <c r="Z451" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH451" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI451" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM451" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:39" s="79" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A452" s="79">
+      <c r="AH451" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI451" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM451" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:39" s="75" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A452" s="75">
         <v>451</v>
       </c>
-      <c r="B452" s="79">
+      <c r="B452" s="75">
         <v>10368</v>
       </c>
-      <c r="F452" s="79">
-        <v>1</v>
-      </c>
-      <c r="G452" s="79" t="s">
+      <c r="F452" s="75">
+        <v>1</v>
+      </c>
+      <c r="G452" s="75" t="s">
         <v>1542</v>
       </c>
-      <c r="I452" s="79" t="s">
+      <c r="I452" s="75" t="s">
         <v>1554</v>
       </c>
-      <c r="J452" s="79" t="s">
+      <c r="J452" s="75" t="s">
         <v>1599</v>
       </c>
-      <c r="L452" s="79">
+      <c r="L452" s="75">
         <v>-31</v>
       </c>
-      <c r="M452" s="79">
-        <v>0</v>
-      </c>
-      <c r="N452" s="79">
-        <v>0</v>
-      </c>
-      <c r="O452" s="79" t="s">
+      <c r="M452" s="75">
+        <v>0</v>
+      </c>
+      <c r="N452" s="75">
+        <v>0</v>
+      </c>
+      <c r="O452" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P452" s="79">
+      <c r="P452" s="75">
         <v>3800</v>
       </c>
-      <c r="Q452" s="79" t="s">
+      <c r="Q452" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R452" s="80" t="s">
+      <c r="R452" s="76" t="s">
         <v>1621</v>
       </c>
-      <c r="W452" s="79" t="s">
+      <c r="W452" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X452" s="79">
+      <c r="X452" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y452" s="79">
+      <c r="Y452" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z452" s="79">
+      <c r="Z452" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA452" s="79">
+      <c r="AA452" s="75">
         <v>55</v>
       </c>
-      <c r="AH452" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI452" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM452" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:39" s="79" customFormat="1">
-      <c r="A453" s="79">
+      <c r="AH452" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI452" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM452" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:39" s="75" customFormat="1">
+      <c r="A453" s="75">
         <v>452</v>
       </c>
-      <c r="B453" s="79">
+      <c r="B453" s="75">
         <v>10369</v>
       </c>
-      <c r="F453" s="79">
-        <v>1</v>
-      </c>
-      <c r="G453" s="79" t="s">
+      <c r="F453" s="75">
+        <v>1</v>
+      </c>
+      <c r="G453" s="75" t="s">
         <v>1530</v>
       </c>
-      <c r="I453" s="79" t="s">
+      <c r="I453" s="75" t="s">
         <v>1555</v>
       </c>
-      <c r="J453" s="79" t="s">
+      <c r="J453" s="75" t="s">
         <v>1600</v>
       </c>
-      <c r="L453" s="79">
+      <c r="L453" s="75">
         <v>-31</v>
       </c>
-      <c r="M453" s="79">
-        <v>0</v>
-      </c>
-      <c r="N453" s="79">
-        <v>0</v>
-      </c>
-      <c r="O453" s="79" t="s">
+      <c r="M453" s="75">
+        <v>0</v>
+      </c>
+      <c r="N453" s="75">
+        <v>0</v>
+      </c>
+      <c r="O453" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P453" s="79">
+      <c r="P453" s="75">
         <v>9800</v>
       </c>
-      <c r="Q453" s="79" t="s">
+      <c r="Q453" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R453" s="80" t="s">
+      <c r="R453" s="76" t="s">
         <v>1622</v>
       </c>
-      <c r="W453" s="79" t="s">
+      <c r="W453" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X453" s="79">
+      <c r="X453" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y453" s="79">
+      <c r="Y453" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z453" s="79">
+      <c r="Z453" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA453" s="79">
+      <c r="AA453" s="75">
         <v>56</v>
       </c>
-      <c r="AH453" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI453" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL453" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM453" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:39" s="79" customFormat="1">
-      <c r="A454" s="79">
+      <c r="AH453" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI453" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM453" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:39" s="75" customFormat="1">
+      <c r="A454" s="75">
         <v>453</v>
       </c>
-      <c r="B454" s="79">
+      <c r="B454" s="75">
         <v>10370</v>
       </c>
-      <c r="F454" s="79">
-        <v>1</v>
-      </c>
-      <c r="G454" s="79" t="s">
+      <c r="F454" s="75">
+        <v>1</v>
+      </c>
+      <c r="G454" s="75" t="s">
         <v>1531</v>
       </c>
-      <c r="I454" s="79" t="s">
+      <c r="I454" s="75" t="s">
         <v>1556</v>
       </c>
-      <c r="J454" s="79" t="s">
+      <c r="J454" s="75" t="s">
         <v>1601</v>
       </c>
-      <c r="L454" s="79">
+      <c r="L454" s="75">
         <v>-31</v>
       </c>
-      <c r="M454" s="79">
-        <v>0</v>
-      </c>
-      <c r="N454" s="79">
-        <v>0</v>
-      </c>
-      <c r="O454" s="79" t="s">
+      <c r="M454" s="75">
+        <v>0</v>
+      </c>
+      <c r="N454" s="75">
+        <v>0</v>
+      </c>
+      <c r="O454" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P454" s="79">
+      <c r="P454" s="75">
         <v>9800</v>
       </c>
-      <c r="Q454" s="79" t="s">
+      <c r="Q454" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R454" s="80" t="s">
+      <c r="R454" s="76" t="s">
         <v>1623</v>
       </c>
-      <c r="W454" s="79" t="s">
+      <c r="W454" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X454" s="79">
+      <c r="X454" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y454" s="79">
+      <c r="Y454" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z454" s="79">
+      <c r="Z454" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH454" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI454" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL454" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM454" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:39" s="79" customFormat="1">
-      <c r="A455" s="79">
+      <c r="AH454" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM454" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:39" s="75" customFormat="1">
+      <c r="A455" s="75">
         <v>454</v>
       </c>
-      <c r="B455" s="79">
+      <c r="B455" s="75">
         <v>10371</v>
       </c>
-      <c r="F455" s="79">
-        <v>1</v>
-      </c>
-      <c r="G455" s="79" t="s">
+      <c r="F455" s="75">
+        <v>1</v>
+      </c>
+      <c r="G455" s="75" t="s">
         <v>1532</v>
       </c>
-      <c r="I455" s="79" t="s">
+      <c r="I455" s="75" t="s">
         <v>1557</v>
       </c>
-      <c r="J455" s="79" t="s">
+      <c r="J455" s="75" t="s">
         <v>1602</v>
       </c>
-      <c r="L455" s="79">
+      <c r="L455" s="75">
         <v>-31</v>
       </c>
-      <c r="M455" s="79">
-        <v>0</v>
-      </c>
-      <c r="N455" s="79">
-        <v>0</v>
-      </c>
-      <c r="O455" s="79" t="s">
+      <c r="M455" s="75">
+        <v>0</v>
+      </c>
+      <c r="N455" s="75">
+        <v>0</v>
+      </c>
+      <c r="O455" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P455" s="79">
+      <c r="P455" s="75">
         <v>9800</v>
       </c>
-      <c r="Q455" s="79" t="s">
+      <c r="Q455" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R455" s="80" t="s">
+      <c r="R455" s="76" t="s">
         <v>1704</v>
       </c>
-      <c r="W455" s="79" t="s">
+      <c r="W455" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X455" s="79">
+      <c r="X455" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y455" s="79">
+      <c r="Y455" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z455" s="79">
+      <c r="Z455" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA455" s="79">
+      <c r="AA455" s="75">
         <v>57</v>
       </c>
-      <c r="AH455" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI455" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL455" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM455" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:39" s="79" customFormat="1">
-      <c r="A456" s="79">
+      <c r="AH455" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM455" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:39" s="75" customFormat="1">
+      <c r="A456" s="75">
         <v>455</v>
       </c>
-      <c r="B456" s="79">
+      <c r="B456" s="75">
         <v>10372</v>
       </c>
-      <c r="F456" s="79">
-        <v>1</v>
-      </c>
-      <c r="G456" s="79" t="s">
+      <c r="F456" s="75">
+        <v>1</v>
+      </c>
+      <c r="G456" s="75" t="s">
         <v>1533</v>
       </c>
-      <c r="I456" s="79" t="s">
+      <c r="I456" s="75" t="s">
         <v>1558</v>
       </c>
-      <c r="J456" s="79" t="s">
+      <c r="J456" s="75" t="s">
         <v>1603</v>
       </c>
-      <c r="L456" s="79">
+      <c r="L456" s="75">
         <v>-31</v>
       </c>
-      <c r="M456" s="79">
-        <v>0</v>
-      </c>
-      <c r="N456" s="79">
-        <v>0</v>
-      </c>
-      <c r="O456" s="79" t="s">
+      <c r="M456" s="75">
+        <v>0</v>
+      </c>
+      <c r="N456" s="75">
+        <v>0</v>
+      </c>
+      <c r="O456" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P456" s="79">
+      <c r="P456" s="75">
         <v>19800</v>
       </c>
-      <c r="Q456" s="79" t="s">
+      <c r="Q456" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R456" s="80" t="s">
+      <c r="R456" s="76" t="s">
         <v>1624</v>
       </c>
-      <c r="W456" s="79" t="s">
+      <c r="W456" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X456" s="79">
+      <c r="X456" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y456" s="79">
+      <c r="Y456" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z456" s="79">
+      <c r="Z456" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA456" s="79">
+      <c r="AA456" s="75">
         <v>58</v>
       </c>
-      <c r="AH456" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI456" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM456" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:39" s="79" customFormat="1">
-      <c r="A457" s="79">
+      <c r="AH456" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI456" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM456" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:39" s="75" customFormat="1">
+      <c r="A457" s="75">
         <v>456</v>
       </c>
-      <c r="B457" s="79">
+      <c r="B457" s="75">
         <v>10373</v>
       </c>
-      <c r="F457" s="79">
-        <v>1</v>
-      </c>
-      <c r="G457" s="79" t="s">
+      <c r="F457" s="75">
+        <v>1</v>
+      </c>
+      <c r="G457" s="75" t="s">
         <v>1534</v>
       </c>
-      <c r="I457" s="79" t="s">
+      <c r="I457" s="75" t="s">
         <v>1559</v>
       </c>
-      <c r="J457" s="79" t="s">
+      <c r="J457" s="75" t="s">
         <v>1604</v>
       </c>
-      <c r="L457" s="79">
+      <c r="L457" s="75">
         <v>-31</v>
       </c>
-      <c r="M457" s="79">
-        <v>0</v>
-      </c>
-      <c r="N457" s="79">
-        <v>0</v>
-      </c>
-      <c r="O457" s="79" t="s">
+      <c r="M457" s="75">
+        <v>0</v>
+      </c>
+      <c r="N457" s="75">
+        <v>0</v>
+      </c>
+      <c r="O457" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P457" s="79">
+      <c r="P457" s="75">
         <v>19800</v>
       </c>
-      <c r="Q457" s="79" t="s">
+      <c r="Q457" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R457" s="80" t="s">
+      <c r="R457" s="76" t="s">
         <v>1625</v>
       </c>
-      <c r="W457" s="79" t="s">
+      <c r="W457" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X457" s="79">
+      <c r="X457" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y457" s="79">
+      <c r="Y457" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z457" s="79">
+      <c r="Z457" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH457" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI457" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM457" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:39" s="79" customFormat="1">
-      <c r="A458" s="79">
+      <c r="AH457" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM457" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:39" s="75" customFormat="1">
+      <c r="A458" s="75">
         <v>457</v>
       </c>
-      <c r="B458" s="79">
+      <c r="B458" s="75">
         <v>10374</v>
       </c>
-      <c r="F458" s="79">
-        <v>1</v>
-      </c>
-      <c r="G458" s="79" t="s">
+      <c r="F458" s="75">
+        <v>1</v>
+      </c>
+      <c r="G458" s="75" t="s">
         <v>1535</v>
       </c>
-      <c r="I458" s="79" t="s">
+      <c r="I458" s="75" t="s">
         <v>1560</v>
       </c>
-      <c r="J458" s="79" t="s">
+      <c r="J458" s="75" t="s">
         <v>1605</v>
       </c>
-      <c r="L458" s="79">
+      <c r="L458" s="75">
         <v>-31</v>
       </c>
-      <c r="M458" s="79">
-        <v>0</v>
-      </c>
-      <c r="N458" s="79">
-        <v>0</v>
-      </c>
-      <c r="O458" s="79" t="s">
+      <c r="M458" s="75">
+        <v>0</v>
+      </c>
+      <c r="N458" s="75">
+        <v>0</v>
+      </c>
+      <c r="O458" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P458" s="79">
+      <c r="P458" s="75">
         <v>19800</v>
       </c>
-      <c r="Q458" s="79" t="s">
+      <c r="Q458" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R458" s="80" t="s">
+      <c r="R458" s="76" t="s">
         <v>1626</v>
       </c>
-      <c r="W458" s="79" t="s">
+      <c r="W458" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X458" s="79">
+      <c r="X458" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y458" s="79">
+      <c r="Y458" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z458" s="79">
+      <c r="Z458" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA458" s="79">
+      <c r="AA458" s="75">
         <v>59</v>
       </c>
-      <c r="AH458" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI458" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM458" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:39" s="79" customFormat="1">
-      <c r="A459" s="79">
+      <c r="AH458" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI458" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM458" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:39" s="75" customFormat="1">
+      <c r="A459" s="75">
         <v>458</v>
       </c>
-      <c r="B459" s="79">
+      <c r="B459" s="75">
         <v>10375</v>
       </c>
-      <c r="F459" s="79">
-        <v>1</v>
-      </c>
-      <c r="G459" s="79" t="s">
+      <c r="F459" s="75">
+        <v>1</v>
+      </c>
+      <c r="G459" s="75" t="s">
         <v>1543</v>
       </c>
-      <c r="I459" s="79" t="s">
+      <c r="I459" s="75" t="s">
         <v>1561</v>
       </c>
-      <c r="J459" s="79" t="s">
+      <c r="J459" s="75" t="s">
         <v>1606</v>
       </c>
-      <c r="L459" s="79">
+      <c r="L459" s="75">
         <v>-31</v>
       </c>
-      <c r="M459" s="79">
-        <v>0</v>
-      </c>
-      <c r="N459" s="79">
-        <v>0</v>
-      </c>
-      <c r="O459" s="79" t="s">
+      <c r="M459" s="75">
+        <v>0</v>
+      </c>
+      <c r="N459" s="75">
+        <v>0</v>
+      </c>
+      <c r="O459" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P459" s="79">
+      <c r="P459" s="75">
         <v>49800</v>
       </c>
-      <c r="Q459" s="79" t="s">
+      <c r="Q459" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R459" s="80" t="s">
+      <c r="R459" s="76" t="s">
         <v>1627</v>
       </c>
-      <c r="W459" s="79" t="s">
+      <c r="W459" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X459" s="79">
+      <c r="X459" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y459" s="79">
+      <c r="Y459" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z459" s="79">
+      <c r="Z459" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA459" s="79">
+      <c r="AA459" s="75">
         <v>60</v>
       </c>
-      <c r="AH459" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI459" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL459" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM459" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:39" s="79" customFormat="1">
-      <c r="A460" s="79">
+      <c r="AH459" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI459" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM459" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:39" s="75" customFormat="1">
+      <c r="A460" s="75">
         <v>459</v>
       </c>
-      <c r="B460" s="79">
+      <c r="B460" s="75">
         <v>10376</v>
       </c>
-      <c r="F460" s="79">
-        <v>1</v>
-      </c>
-      <c r="G460" s="79" t="s">
+      <c r="F460" s="75">
+        <v>1</v>
+      </c>
+      <c r="G460" s="75" t="s">
         <v>1544</v>
       </c>
-      <c r="I460" s="79" t="s">
+      <c r="I460" s="75" t="s">
         <v>1562</v>
       </c>
-      <c r="J460" s="79" t="s">
+      <c r="J460" s="75" t="s">
         <v>1607</v>
       </c>
-      <c r="L460" s="79">
+      <c r="L460" s="75">
         <v>-31</v>
       </c>
-      <c r="M460" s="79">
-        <v>0</v>
-      </c>
-      <c r="N460" s="79">
-        <v>0</v>
-      </c>
-      <c r="O460" s="79" t="s">
+      <c r="M460" s="75">
+        <v>0</v>
+      </c>
+      <c r="N460" s="75">
+        <v>0</v>
+      </c>
+      <c r="O460" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P460" s="79">
+      <c r="P460" s="75">
         <v>49800</v>
       </c>
-      <c r="Q460" s="79" t="s">
+      <c r="Q460" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R460" s="80" t="s">
+      <c r="R460" s="76" t="s">
         <v>1628</v>
       </c>
-      <c r="W460" s="79" t="s">
+      <c r="W460" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X460" s="79">
+      <c r="X460" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y460" s="79">
+      <c r="Y460" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z460" s="79">
+      <c r="Z460" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH460" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI460" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL460" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM460" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:39" s="79" customFormat="1">
-      <c r="A461" s="79">
+      <c r="AH460" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI460" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM460" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:39" s="75" customFormat="1">
+      <c r="A461" s="75">
         <v>460</v>
       </c>
-      <c r="B461" s="79">
+      <c r="B461" s="75">
         <v>10377</v>
       </c>
-      <c r="F461" s="79">
-        <v>1</v>
-      </c>
-      <c r="G461" s="79" t="s">
+      <c r="F461" s="75">
+        <v>1</v>
+      </c>
+      <c r="G461" s="75" t="s">
         <v>1545</v>
       </c>
-      <c r="I461" s="79" t="s">
+      <c r="I461" s="75" t="s">
         <v>1563</v>
       </c>
-      <c r="J461" s="79" t="s">
+      <c r="J461" s="75" t="s">
         <v>1608</v>
       </c>
-      <c r="L461" s="79">
+      <c r="L461" s="75">
         <v>-31</v>
       </c>
-      <c r="M461" s="79">
-        <v>0</v>
-      </c>
-      <c r="N461" s="79">
-        <v>0</v>
-      </c>
-      <c r="O461" s="79" t="s">
+      <c r="M461" s="75">
+        <v>0</v>
+      </c>
+      <c r="N461" s="75">
+        <v>0</v>
+      </c>
+      <c r="O461" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P461" s="79">
+      <c r="P461" s="75">
         <v>49800</v>
       </c>
-      <c r="Q461" s="79" t="s">
+      <c r="Q461" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R461" s="80" t="s">
+      <c r="R461" s="76" t="s">
         <v>1629</v>
       </c>
-      <c r="W461" s="79" t="s">
+      <c r="W461" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X461" s="79">
+      <c r="X461" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y461" s="79">
+      <c r="Y461" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z461" s="79">
+      <c r="Z461" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA461" s="79">
+      <c r="AA461" s="75">
         <v>61</v>
       </c>
-      <c r="AH461" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI461" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL461" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM461" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:39" s="79" customFormat="1">
-      <c r="A462" s="79">
+      <c r="AH461" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM461" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:39" s="75" customFormat="1">
+      <c r="A462" s="75">
         <v>461</v>
       </c>
-      <c r="B462" s="79">
+      <c r="B462" s="75">
         <v>10378</v>
       </c>
-      <c r="F462" s="79">
-        <v>1</v>
-      </c>
-      <c r="G462" s="79" t="s">
+      <c r="F462" s="75">
+        <v>1</v>
+      </c>
+      <c r="G462" s="75" t="s">
         <v>1546</v>
       </c>
-      <c r="I462" s="79" t="s">
+      <c r="I462" s="75" t="s">
         <v>1564</v>
       </c>
-      <c r="J462" s="79" t="s">
+      <c r="J462" s="75" t="s">
         <v>1609</v>
       </c>
-      <c r="L462" s="79">
+      <c r="L462" s="75">
         <v>-31</v>
       </c>
-      <c r="M462" s="79">
-        <v>0</v>
-      </c>
-      <c r="N462" s="79">
-        <v>0</v>
-      </c>
-      <c r="O462" s="79" t="s">
+      <c r="M462" s="75">
+        <v>0</v>
+      </c>
+      <c r="N462" s="75">
+        <v>0</v>
+      </c>
+      <c r="O462" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P462" s="79">
+      <c r="P462" s="75">
         <v>99800</v>
       </c>
-      <c r="Q462" s="79" t="s">
+      <c r="Q462" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R462" s="80" t="s">
+      <c r="R462" s="76" t="s">
         <v>1630</v>
       </c>
-      <c r="W462" s="79" t="s">
+      <c r="W462" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X462" s="79">
+      <c r="X462" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y462" s="79">
+      <c r="Y462" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z462" s="79">
+      <c r="Z462" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA462" s="79">
+      <c r="AA462" s="75">
         <v>62</v>
       </c>
-      <c r="AH462" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI462" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM462" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:39" s="79" customFormat="1">
-      <c r="A463" s="79">
+      <c r="AH462" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM462" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:39" s="75" customFormat="1">
+      <c r="A463" s="75">
         <v>462</v>
       </c>
-      <c r="B463" s="79">
+      <c r="B463" s="75">
         <v>10379</v>
       </c>
-      <c r="F463" s="79">
-        <v>1</v>
-      </c>
-      <c r="G463" s="79" t="s">
+      <c r="F463" s="75">
+        <v>1</v>
+      </c>
+      <c r="G463" s="75" t="s">
         <v>1547</v>
       </c>
-      <c r="I463" s="79" t="s">
+      <c r="I463" s="75" t="s">
         <v>1565</v>
       </c>
-      <c r="J463" s="79" t="s">
+      <c r="J463" s="75" t="s">
         <v>1610</v>
       </c>
-      <c r="L463" s="79">
+      <c r="L463" s="75">
         <v>-31</v>
       </c>
-      <c r="M463" s="79">
-        <v>0</v>
-      </c>
-      <c r="N463" s="79">
-        <v>0</v>
-      </c>
-      <c r="O463" s="79" t="s">
+      <c r="M463" s="75">
+        <v>0</v>
+      </c>
+      <c r="N463" s="75">
+        <v>0</v>
+      </c>
+      <c r="O463" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P463" s="79">
+      <c r="P463" s="75">
         <v>99800</v>
       </c>
-      <c r="Q463" s="79" t="s">
+      <c r="Q463" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R463" s="80" t="s">
+      <c r="R463" s="76" t="s">
         <v>1631</v>
       </c>
-      <c r="W463" s="79" t="s">
+      <c r="W463" s="75" t="s">
         <v>1679</v>
       </c>
-      <c r="X463" s="79">
+      <c r="X463" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y463" s="79">
+      <c r="Y463" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z463" s="79">
+      <c r="Z463" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH463" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI463" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM463" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:39" s="79" customFormat="1">
-      <c r="A464" s="79">
+      <c r="AH463" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM463" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:39" s="75" customFormat="1">
+      <c r="A464" s="75">
         <v>463</v>
       </c>
-      <c r="B464" s="79">
+      <c r="B464" s="75">
         <v>10380</v>
       </c>
-      <c r="F464" s="79">
-        <v>1</v>
-      </c>
-      <c r="G464" s="79" t="s">
+      <c r="F464" s="75">
+        <v>1</v>
+      </c>
+      <c r="G464" s="75" t="s">
         <v>1548</v>
       </c>
-      <c r="I464" s="79" t="s">
+      <c r="I464" s="75" t="s">
         <v>1566</v>
       </c>
-      <c r="J464" s="79" t="s">
+      <c r="J464" s="75" t="s">
         <v>1611</v>
       </c>
-      <c r="L464" s="79">
+      <c r="L464" s="75">
         <v>-31</v>
       </c>
-      <c r="M464" s="79">
-        <v>0</v>
-      </c>
-      <c r="N464" s="79">
-        <v>0</v>
-      </c>
-      <c r="O464" s="79" t="s">
+      <c r="M464" s="75">
+        <v>0</v>
+      </c>
+      <c r="N464" s="75">
+        <v>0</v>
+      </c>
+      <c r="O464" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P464" s="79">
+      <c r="P464" s="75">
         <v>99800</v>
       </c>
-      <c r="Q464" s="79" t="s">
+      <c r="Q464" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R464" s="80" t="s">
+      <c r="R464" s="76" t="s">
         <v>1632</v>
       </c>
-      <c r="W464" s="79" t="s">
+      <c r="W464" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X464" s="79">
+      <c r="X464" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y464" s="79">
+      <c r="Y464" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z464" s="79">
+      <c r="Z464" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA464" s="79">
+      <c r="AA464" s="75">
         <v>63</v>
       </c>
-      <c r="AH464" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI464" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM464" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:39" s="79" customFormat="1">
-      <c r="A465" s="79">
+      <c r="AH464" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM464" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:39" s="75" customFormat="1">
+      <c r="A465" s="75">
         <v>464</v>
       </c>
-      <c r="B465" s="79">
+      <c r="B465" s="75">
         <v>10381</v>
       </c>
-      <c r="F465" s="79">
-        <v>1</v>
-      </c>
-      <c r="G465" s="79" t="s">
+      <c r="F465" s="75">
+        <v>1</v>
+      </c>
+      <c r="G465" s="75" t="s">
         <v>1549</v>
       </c>
-      <c r="I465" s="79" t="s">
+      <c r="I465" s="75" t="s">
         <v>1567</v>
       </c>
-      <c r="J465" s="79" t="s">
+      <c r="J465" s="75" t="s">
         <v>1612</v>
       </c>
-      <c r="L465" s="79">
+      <c r="L465" s="75">
         <v>-31</v>
       </c>
-      <c r="M465" s="79">
-        <v>0</v>
-      </c>
-      <c r="N465" s="79">
-        <v>0</v>
-      </c>
-      <c r="O465" s="79" t="s">
+      <c r="M465" s="75">
+        <v>0</v>
+      </c>
+      <c r="N465" s="75">
+        <v>0</v>
+      </c>
+      <c r="O465" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P465" s="79">
+      <c r="P465" s="75">
         <v>249800</v>
       </c>
-      <c r="Q465" s="79" t="s">
+      <c r="Q465" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R465" s="80" t="s">
+      <c r="R465" s="76" t="s">
         <v>1633</v>
       </c>
-      <c r="W465" s="79" t="s">
+      <c r="W465" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X465" s="79">
+      <c r="X465" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y465" s="79">
+      <c r="Y465" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z465" s="79">
+      <c r="Z465" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA465" s="79">
+      <c r="AA465" s="75">
         <v>64</v>
       </c>
-      <c r="AH465" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI465" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL465" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM465" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:39" s="79" customFormat="1">
-      <c r="A466" s="79">
+      <c r="AH465" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM465" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:39" s="75" customFormat="1">
+      <c r="A466" s="75">
         <v>465</v>
       </c>
-      <c r="B466" s="79">
+      <c r="B466" s="75">
         <v>10382</v>
       </c>
-      <c r="F466" s="79">
-        <v>1</v>
-      </c>
-      <c r="G466" s="79" t="s">
+      <c r="F466" s="75">
+        <v>1</v>
+      </c>
+      <c r="G466" s="75" t="s">
         <v>1550</v>
       </c>
-      <c r="I466" s="79" t="s">
+      <c r="I466" s="75" t="s">
         <v>1568</v>
       </c>
-      <c r="J466" s="79" t="s">
+      <c r="J466" s="75" t="s">
         <v>1613</v>
       </c>
-      <c r="L466" s="79">
+      <c r="L466" s="75">
         <v>-31</v>
       </c>
-      <c r="M466" s="79">
-        <v>0</v>
-      </c>
-      <c r="N466" s="79">
-        <v>0</v>
-      </c>
-      <c r="O466" s="79" t="s">
+      <c r="M466" s="75">
+        <v>0</v>
+      </c>
+      <c r="N466" s="75">
+        <v>0</v>
+      </c>
+      <c r="O466" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P466" s="79">
+      <c r="P466" s="75">
         <v>249800</v>
       </c>
-      <c r="Q466" s="79" t="s">
+      <c r="Q466" s="75" t="s">
         <v>1574</v>
       </c>
-      <c r="R466" s="80" t="s">
+      <c r="R466" s="76" t="s">
         <v>1634</v>
       </c>
-      <c r="W466" s="79" t="s">
+      <c r="W466" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X466" s="79">
+      <c r="X466" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y466" s="79">
+      <c r="Y466" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z466" s="79">
+      <c r="Z466" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH466" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI466" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL466" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM466" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:39" s="79" customFormat="1">
-      <c r="A467" s="79">
+      <c r="AH466" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM466" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:39" s="75" customFormat="1">
+      <c r="A467" s="75">
         <v>466</v>
       </c>
-      <c r="B467" s="79">
+      <c r="B467" s="75">
         <v>10383</v>
       </c>
-      <c r="F467" s="79">
-        <v>1</v>
-      </c>
-      <c r="G467" s="79" t="s">
+      <c r="F467" s="75">
+        <v>1</v>
+      </c>
+      <c r="G467" s="75" t="s">
         <v>1551</v>
       </c>
-      <c r="I467" s="79" t="s">
+      <c r="I467" s="75" t="s">
         <v>1569</v>
       </c>
-      <c r="J467" s="79" t="s">
+      <c r="J467" s="75" t="s">
         <v>1614</v>
       </c>
-      <c r="L467" s="79">
+      <c r="L467" s="75">
         <v>-31</v>
       </c>
-      <c r="M467" s="79">
-        <v>0</v>
-      </c>
-      <c r="N467" s="79">
-        <v>0</v>
-      </c>
-      <c r="O467" s="79" t="s">
+      <c r="M467" s="75">
+        <v>0</v>
+      </c>
+      <c r="N467" s="75">
+        <v>0</v>
+      </c>
+      <c r="O467" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P467" s="79">
+      <c r="P467" s="75">
         <v>249800</v>
       </c>
-      <c r="Q467" s="79" t="s">
+      <c r="Q467" s="75" t="s">
         <v>1592</v>
       </c>
-      <c r="R467" s="80" t="s">
+      <c r="R467" s="76" t="s">
         <v>1635</v>
       </c>
-      <c r="W467" s="79" t="s">
+      <c r="W467" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X467" s="79">
+      <c r="X467" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y467" s="79">
+      <c r="Y467" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z467" s="79">
+      <c r="Z467" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA467" s="79">
+      <c r="AA467" s="75">
         <v>65</v>
       </c>
-      <c r="AH467" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI467" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL467" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM467" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:39" s="79" customFormat="1">
-      <c r="A468" s="79">
+      <c r="AH467" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:39" s="75" customFormat="1">
+      <c r="A468" s="75">
         <v>467</v>
       </c>
-      <c r="B468" s="79">
+      <c r="B468" s="75">
         <v>10384</v>
       </c>
-      <c r="F468" s="79">
-        <v>1</v>
-      </c>
-      <c r="G468" s="79" t="s">
+      <c r="F468" s="75">
+        <v>1</v>
+      </c>
+      <c r="G468" s="75" t="s">
         <v>1575</v>
       </c>
-      <c r="I468" s="79" t="s">
+      <c r="I468" s="75" t="s">
         <v>1583</v>
       </c>
-      <c r="J468" s="79" t="s">
+      <c r="J468" s="75" t="s">
         <v>1585</v>
       </c>
-      <c r="L468" s="79">
+      <c r="L468" s="75">
         <v>-31</v>
       </c>
-      <c r="M468" s="79">
-        <v>0</v>
-      </c>
-      <c r="N468" s="79">
-        <v>0</v>
-      </c>
-      <c r="O468" s="79" t="s">
+      <c r="M468" s="75">
+        <v>0</v>
+      </c>
+      <c r="N468" s="75">
+        <v>0</v>
+      </c>
+      <c r="O468" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P468" s="79">
+      <c r="P468" s="75">
         <v>600</v>
       </c>
-      <c r="Q468" s="79" t="s">
+      <c r="Q468" s="75" t="s">
         <v>1593</v>
       </c>
-      <c r="R468" s="80" t="s">
+      <c r="R468" s="76" t="s">
         <v>1636</v>
       </c>
-      <c r="W468" s="79" t="s">
+      <c r="W468" s="75" t="s">
         <v>1656</v>
       </c>
-      <c r="X468" s="79">
+      <c r="X468" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y468" s="79">
+      <c r="Y468" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z468" s="79">
+      <c r="Z468" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH468" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI468" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM468" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:39" s="79" customFormat="1">
-      <c r="A469" s="79">
+      <c r="AH468" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM468" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:39" s="75" customFormat="1">
+      <c r="A469" s="75">
         <v>468</v>
       </c>
-      <c r="B469" s="79">
+      <c r="B469" s="75">
         <v>10385</v>
       </c>
-      <c r="F469" s="79">
-        <v>1</v>
-      </c>
-      <c r="G469" s="79" t="s">
+      <c r="F469" s="75">
+        <v>1</v>
+      </c>
+      <c r="G469" s="75" t="s">
         <v>1576</v>
       </c>
-      <c r="I469" s="79" t="s">
+      <c r="I469" s="75" t="s">
         <v>1583</v>
       </c>
-      <c r="J469" s="79" t="s">
+      <c r="J469" s="75" t="s">
         <v>1586</v>
       </c>
-      <c r="L469" s="79">
+      <c r="L469" s="75">
         <v>-31</v>
       </c>
-      <c r="M469" s="79">
-        <v>0</v>
-      </c>
-      <c r="N469" s="79">
-        <v>0</v>
-      </c>
-      <c r="O469" s="79" t="s">
+      <c r="M469" s="75">
+        <v>0</v>
+      </c>
+      <c r="N469" s="75">
+        <v>0</v>
+      </c>
+      <c r="O469" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P469" s="79">
+      <c r="P469" s="75">
         <v>3000</v>
       </c>
-      <c r="Q469" s="79" t="s">
+      <c r="Q469" s="75" t="s">
         <v>1593</v>
       </c>
-      <c r="R469" s="80" t="s">
+      <c r="R469" s="76" t="s">
         <v>1637</v>
       </c>
-      <c r="W469" s="79" t="s">
+      <c r="W469" s="75" t="s">
         <v>1656</v>
       </c>
-      <c r="X469" s="79">
+      <c r="X469" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y469" s="79">
+      <c r="Y469" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z469" s="79">
+      <c r="Z469" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH469" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI469" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM469" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:39" s="79" customFormat="1">
-      <c r="A470" s="79">
+      <c r="AH469" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM469" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:39" s="75" customFormat="1">
+      <c r="A470" s="75">
         <v>469</v>
       </c>
-      <c r="B470" s="79">
+      <c r="B470" s="75">
         <v>10386</v>
       </c>
-      <c r="F470" s="79">
-        <v>1</v>
-      </c>
-      <c r="G470" s="79" t="s">
+      <c r="F470" s="75">
+        <v>1</v>
+      </c>
+      <c r="G470" s="75" t="s">
         <v>1577</v>
       </c>
-      <c r="I470" s="79" t="s">
+      <c r="I470" s="75" t="s">
         <v>1583</v>
       </c>
-      <c r="J470" s="79" t="s">
+      <c r="J470" s="75" t="s">
         <v>1587</v>
       </c>
-      <c r="L470" s="79">
+      <c r="L470" s="75">
         <v>-31</v>
       </c>
-      <c r="M470" s="79">
-        <v>0</v>
-      </c>
-      <c r="N470" s="79">
-        <v>0</v>
-      </c>
-      <c r="O470" s="79" t="s">
+      <c r="M470" s="75">
+        <v>0</v>
+      </c>
+      <c r="N470" s="75">
+        <v>0</v>
+      </c>
+      <c r="O470" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P470" s="79">
+      <c r="P470" s="75">
         <v>6800</v>
       </c>
-      <c r="Q470" s="79" t="s">
+      <c r="Q470" s="75" t="s">
         <v>1593</v>
       </c>
-      <c r="R470" s="80" t="s">
+      <c r="R470" s="76" t="s">
         <v>839</v>
       </c>
-      <c r="W470" s="79" t="s">
+      <c r="W470" s="75" t="s">
         <v>1656</v>
       </c>
-      <c r="X470" s="79">
+      <c r="X470" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y470" s="79">
+      <c r="Y470" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z470" s="79">
+      <c r="Z470" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH470" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI470" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM470" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:39" s="79" customFormat="1">
-      <c r="A471" s="79">
+      <c r="AH470" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM470" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:39" s="75" customFormat="1">
+      <c r="A471" s="75">
         <v>470</v>
       </c>
-      <c r="B471" s="79">
+      <c r="B471" s="75">
         <v>10387</v>
       </c>
-      <c r="F471" s="79">
-        <v>1</v>
-      </c>
-      <c r="G471" s="79" t="s">
+      <c r="F471" s="75">
+        <v>1</v>
+      </c>
+      <c r="G471" s="75" t="s">
         <v>1578</v>
       </c>
-      <c r="I471" s="79" t="s">
+      <c r="I471" s="75" t="s">
         <v>1583</v>
       </c>
-      <c r="J471" s="79" t="s">
+      <c r="J471" s="75" t="s">
         <v>1588</v>
       </c>
-      <c r="L471" s="79">
+      <c r="L471" s="75">
         <v>-31</v>
       </c>
-      <c r="M471" s="79">
-        <v>0</v>
-      </c>
-      <c r="N471" s="79">
-        <v>0</v>
-      </c>
-      <c r="O471" s="79" t="s">
+      <c r="M471" s="75">
+        <v>0</v>
+      </c>
+      <c r="N471" s="75">
+        <v>0</v>
+      </c>
+      <c r="O471" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P471" s="79">
+      <c r="P471" s="75">
         <v>9800</v>
       </c>
-      <c r="Q471" s="79" t="s">
+      <c r="Q471" s="75" t="s">
         <v>1593</v>
       </c>
-      <c r="R471" s="80" t="s">
+      <c r="R471" s="76" t="s">
         <v>1638</v>
       </c>
-      <c r="W471" s="79" t="s">
+      <c r="W471" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="X471" s="79">
+      <c r="X471" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y471" s="79">
+      <c r="Y471" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z471" s="79">
+      <c r="Z471" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH471" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI471" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM471" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:39" s="79" customFormat="1">
-      <c r="A472" s="79">
+      <c r="AH471" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM471" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:39" s="75" customFormat="1">
+      <c r="A472" s="75">
         <v>471</v>
       </c>
-      <c r="B472" s="79">
+      <c r="B472" s="75">
         <v>10388</v>
       </c>
-      <c r="F472" s="79">
-        <v>1</v>
-      </c>
-      <c r="G472" s="79" t="s">
+      <c r="F472" s="75">
+        <v>1</v>
+      </c>
+      <c r="G472" s="75" t="s">
         <v>1579</v>
       </c>
-      <c r="I472" s="79" t="s">
+      <c r="I472" s="75" t="s">
         <v>1583</v>
       </c>
-      <c r="J472" s="79" t="s">
+      <c r="J472" s="75" t="s">
         <v>1589</v>
       </c>
-      <c r="L472" s="79">
+      <c r="L472" s="75">
         <v>-31</v>
       </c>
-      <c r="M472" s="79">
-        <v>0</v>
-      </c>
-      <c r="N472" s="79">
-        <v>0</v>
-      </c>
-      <c r="O472" s="79" t="s">
+      <c r="M472" s="75">
+        <v>0</v>
+      </c>
+      <c r="N472" s="75">
+        <v>0</v>
+      </c>
+      <c r="O472" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P472" s="79">
+      <c r="P472" s="75">
         <v>19800</v>
       </c>
-      <c r="Q472" s="79" t="s">
+      <c r="Q472" s="75" t="s">
         <v>1593</v>
       </c>
-      <c r="R472" s="80" t="s">
+      <c r="R472" s="76" t="s">
         <v>840</v>
       </c>
-      <c r="W472" s="79" t="s">
+      <c r="W472" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="X472" s="79">
+      <c r="X472" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y472" s="79">
+      <c r="Y472" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z472" s="79">
+      <c r="Z472" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH472" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI472" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM472" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:39" s="79" customFormat="1">
-      <c r="A473" s="79">
+      <c r="AH472" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM472" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:39" s="75" customFormat="1">
+      <c r="A473" s="75">
         <v>472</v>
       </c>
-      <c r="B473" s="79">
+      <c r="B473" s="75">
         <v>10389</v>
       </c>
-      <c r="F473" s="79">
-        <v>1</v>
-      </c>
-      <c r="G473" s="79" t="s">
+      <c r="F473" s="75">
+        <v>1</v>
+      </c>
+      <c r="G473" s="75" t="s">
         <v>1580</v>
       </c>
-      <c r="I473" s="79" t="s">
+      <c r="I473" s="75" t="s">
         <v>1583</v>
       </c>
-      <c r="J473" s="79" t="s">
+      <c r="J473" s="75" t="s">
         <v>1590</v>
       </c>
-      <c r="L473" s="79">
+      <c r="L473" s="75">
         <v>-31</v>
       </c>
-      <c r="M473" s="79">
-        <v>0</v>
-      </c>
-      <c r="N473" s="79">
-        <v>0</v>
-      </c>
-      <c r="O473" s="79" t="s">
+      <c r="M473" s="75">
+        <v>0</v>
+      </c>
+      <c r="N473" s="75">
+        <v>0</v>
+      </c>
+      <c r="O473" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P473" s="79">
+      <c r="P473" s="75">
         <v>49800</v>
       </c>
-      <c r="Q473" s="79" t="s">
+      <c r="Q473" s="75" t="s">
         <v>1593</v>
       </c>
-      <c r="R473" s="80" t="s">
+      <c r="R473" s="76" t="s">
         <v>1639</v>
       </c>
-      <c r="W473" s="79" t="s">
+      <c r="W473" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="X473" s="79">
+      <c r="X473" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y473" s="79">
+      <c r="Y473" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z473" s="79">
+      <c r="Z473" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH473" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI473" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM473" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:39" s="79" customFormat="1">
-      <c r="A474" s="79">
+      <c r="AH473" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM473" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:39" s="75" customFormat="1">
+      <c r="A474" s="75">
         <v>473</v>
       </c>
-      <c r="B474" s="79">
+      <c r="B474" s="75">
         <v>10390</v>
       </c>
-      <c r="F474" s="79">
-        <v>1</v>
-      </c>
-      <c r="G474" s="79" t="s">
+      <c r="F474" s="75">
+        <v>1</v>
+      </c>
+      <c r="G474" s="75" t="s">
         <v>1581</v>
       </c>
-      <c r="I474" s="79" t="s">
+      <c r="I474" s="75" t="s">
         <v>1584</v>
       </c>
-      <c r="J474" s="79" t="s">
+      <c r="J474" s="75" t="s">
         <v>1591</v>
       </c>
-      <c r="L474" s="79">
+      <c r="L474" s="75">
         <v>-31</v>
       </c>
-      <c r="M474" s="79">
-        <v>0</v>
-      </c>
-      <c r="N474" s="79">
-        <v>0</v>
-      </c>
-      <c r="O474" s="79" t="s">
+      <c r="M474" s="75">
+        <v>0</v>
+      </c>
+      <c r="N474" s="75">
+        <v>0</v>
+      </c>
+      <c r="O474" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P474" s="79">
+      <c r="P474" s="75">
         <v>99800</v>
       </c>
-      <c r="Q474" s="79" t="s">
+      <c r="Q474" s="75" t="s">
         <v>1593</v>
       </c>
-      <c r="R474" s="80" t="s">
+      <c r="R474" s="76" t="s">
         <v>1640</v>
       </c>
-      <c r="W474" s="79" t="s">
+      <c r="W474" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="X474" s="79">
+      <c r="X474" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y474" s="79">
+      <c r="Y474" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z474" s="79">
+      <c r="Z474" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH474" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI474" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM474" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:39" s="79" customFormat="1">
-      <c r="A475" s="79">
+      <c r="AH474" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM474" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:39" s="75" customFormat="1">
+      <c r="A475" s="75">
         <v>474</v>
       </c>
-      <c r="B475" s="79">
+      <c r="B475" s="75">
         <v>10391</v>
       </c>
-      <c r="F475" s="79">
-        <v>1</v>
-      </c>
-      <c r="G475" s="79" t="s">
+      <c r="F475" s="75">
+        <v>1</v>
+      </c>
+      <c r="G475" s="75" t="s">
         <v>1582</v>
       </c>
-      <c r="I475" s="79" t="s">
+      <c r="I475" s="75" t="s">
         <v>1584</v>
       </c>
-      <c r="J475" s="79" t="s">
+      <c r="J475" s="75" t="s">
         <v>1682</v>
       </c>
-      <c r="L475" s="79">
+      <c r="L475" s="75">
         <v>-31</v>
       </c>
-      <c r="M475" s="79">
-        <v>0</v>
-      </c>
-      <c r="N475" s="79">
-        <v>0</v>
-      </c>
-      <c r="O475" s="79" t="s">
+      <c r="M475" s="75">
+        <v>0</v>
+      </c>
+      <c r="N475" s="75">
+        <v>0</v>
+      </c>
+      <c r="O475" s="75" t="s">
         <v>1667</v>
       </c>
-      <c r="P475" s="79">
+      <c r="P475" s="75">
         <v>249800</v>
       </c>
-      <c r="Q475" s="79" t="s">
+      <c r="Q475" s="75" t="s">
         <v>1668</v>
       </c>
-      <c r="R475" s="80" t="s">
+      <c r="R475" s="76" t="s">
         <v>1683</v>
       </c>
-      <c r="W475" s="79" t="s">
+      <c r="W475" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="X475" s="79">
+      <c r="X475" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y475" s="79">
+      <c r="Y475" s="75">
         <v>1605571200</v>
       </c>
-      <c r="Z475" s="79">
+      <c r="Z475" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AH475" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI475" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM475" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="476" spans="1:39" s="79" customFormat="1">
-      <c r="A476" s="79">
+      <c r="AH475" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM475" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:39" s="75" customFormat="1">
+      <c r="A476" s="75">
         <v>475</v>
       </c>
-      <c r="B476" s="79">
+      <c r="B476" s="75">
         <v>10392</v>
       </c>
-      <c r="F476" s="79">
-        <v>1</v>
-      </c>
-      <c r="G476" s="79" t="s">
+      <c r="F476" s="75">
+        <v>1</v>
+      </c>
+      <c r="G476" s="75" t="s">
         <v>1660</v>
       </c>
-      <c r="I476" s="79" t="s">
+      <c r="I476" s="75" t="s">
         <v>1661</v>
       </c>
-      <c r="J476" s="79" t="s">
+      <c r="J476" s="75" t="s">
         <v>1665</v>
       </c>
-      <c r="L476" s="79">
+      <c r="L476" s="75">
         <v>-31</v>
       </c>
-      <c r="M476" s="79">
-        <v>0</v>
-      </c>
-      <c r="N476" s="79">
-        <v>0</v>
-      </c>
-      <c r="O476" s="79" t="s">
+      <c r="M476" s="75">
+        <v>0</v>
+      </c>
+      <c r="N476" s="75">
+        <v>0</v>
+      </c>
+      <c r="O476" s="75" t="s">
         <v>1667</v>
       </c>
-      <c r="P476" s="79">
+      <c r="P476" s="75">
         <v>49800</v>
       </c>
-      <c r="Q476" s="79" t="s">
+      <c r="Q476" s="75" t="s">
         <v>1670</v>
       </c>
-      <c r="R476" s="80" t="s">
+      <c r="R476" s="76" t="s">
         <v>1674</v>
       </c>
-      <c r="W476" s="79" t="s">
+      <c r="W476" s="75" t="s">
         <v>1678</v>
       </c>
-      <c r="X476" s="79">
+      <c r="X476" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y476" s="79">
+      <c r="Y476" s="75">
         <v>1606176000</v>
       </c>
-      <c r="Z476" s="79">
+      <c r="Z476" s="75">
         <v>1606751999</v>
       </c>
-      <c r="AH476" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI476" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL476" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM476" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477" spans="1:39" s="79" customFormat="1">
-      <c r="A477" s="79">
+      <c r="AH476" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI476" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL476" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM476" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:39" s="75" customFormat="1">
+      <c r="A477" s="75">
         <v>476</v>
       </c>
-      <c r="B477" s="79">
+      <c r="B477" s="75">
         <v>10393</v>
       </c>
-      <c r="F477" s="79">
-        <v>1</v>
-      </c>
-      <c r="G477" s="79" t="s">
+      <c r="F477" s="75">
+        <v>1</v>
+      </c>
+      <c r="G477" s="75" t="s">
         <v>1660</v>
       </c>
-      <c r="I477" s="79" t="s">
+      <c r="I477" s="75" t="s">
         <v>1662</v>
       </c>
-      <c r="J477" s="79" t="s">
+      <c r="J477" s="75" t="s">
         <v>1666</v>
       </c>
-      <c r="L477" s="79">
+      <c r="L477" s="75">
         <v>-31</v>
       </c>
-      <c r="M477" s="79">
-        <v>0</v>
-      </c>
-      <c r="N477" s="79">
-        <v>0</v>
-      </c>
-      <c r="O477" s="79" t="s">
+      <c r="M477" s="75">
+        <v>0</v>
+      </c>
+      <c r="N477" s="75">
+        <v>0</v>
+      </c>
+      <c r="O477" s="75" t="s">
         <v>1667</v>
       </c>
-      <c r="P477" s="79">
+      <c r="P477" s="75">
         <v>19800</v>
       </c>
-      <c r="Q477" s="79" t="s">
+      <c r="Q477" s="75" t="s">
         <v>1670</v>
       </c>
-      <c r="R477" s="80" t="s">
+      <c r="R477" s="76" t="s">
         <v>1675</v>
       </c>
-      <c r="W477" s="79" t="s">
+      <c r="W477" s="75" t="s">
         <v>1678</v>
       </c>
-      <c r="X477" s="79">
+      <c r="X477" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y477" s="79">
+      <c r="Y477" s="75">
         <v>1606176000</v>
       </c>
-      <c r="Z477" s="79">
+      <c r="Z477" s="75">
         <v>1606751999</v>
       </c>
-      <c r="AH477" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI477" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL477" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM477" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:39" s="79" customFormat="1">
-      <c r="A478" s="79">
+      <c r="AH477" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI477" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL477" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM477" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:39" s="75" customFormat="1">
+      <c r="A478" s="75">
         <v>477</v>
       </c>
-      <c r="B478" s="79">
+      <c r="B478" s="75">
         <v>10394</v>
       </c>
-      <c r="F478" s="79">
-        <v>1</v>
-      </c>
-      <c r="G478" s="79" t="s">
+      <c r="F478" s="75">
+        <v>1</v>
+      </c>
+      <c r="G478" s="75" t="s">
         <v>1660</v>
       </c>
-      <c r="I478" s="79" t="s">
+      <c r="I478" s="75" t="s">
         <v>1663</v>
       </c>
-      <c r="J478" s="79" t="s">
+      <c r="J478" s="75" t="s">
         <v>1672</v>
       </c>
-      <c r="L478" s="79">
+      <c r="L478" s="75">
         <v>-31</v>
       </c>
-      <c r="M478" s="79">
-        <v>0</v>
-      </c>
-      <c r="N478" s="79">
-        <v>0</v>
-      </c>
-      <c r="O478" s="79" t="s">
+      <c r="M478" s="75">
+        <v>0</v>
+      </c>
+      <c r="N478" s="75">
+        <v>0</v>
+      </c>
+      <c r="O478" s="75" t="s">
         <v>1667</v>
       </c>
-      <c r="P478" s="79">
+      <c r="P478" s="75">
         <v>9800</v>
       </c>
-      <c r="Q478" s="79" t="s">
+      <c r="Q478" s="75" t="s">
         <v>1671</v>
       </c>
-      <c r="R478" s="80" t="s">
+      <c r="R478" s="76" t="s">
         <v>1676</v>
       </c>
-      <c r="W478" s="79" t="s">
+      <c r="W478" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="X478" s="79">
+      <c r="X478" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y478" s="79">
+      <c r="Y478" s="75">
         <v>1606176000</v>
       </c>
-      <c r="Z478" s="79">
+      <c r="Z478" s="75">
         <v>1606751999</v>
       </c>
-      <c r="AH478" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI478" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL478" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM478" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:39" s="79" customFormat="1">
-      <c r="A479" s="79">
+      <c r="AH478" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI478" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL478" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM478" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:39" s="75" customFormat="1">
+      <c r="A479" s="75">
         <v>478</v>
       </c>
-      <c r="B479" s="79">
+      <c r="B479" s="75">
         <v>10395</v>
       </c>
-      <c r="F479" s="79">
-        <v>1</v>
-      </c>
-      <c r="G479" s="79" t="s">
+      <c r="F479" s="75">
+        <v>1</v>
+      </c>
+      <c r="G479" s="75" t="s">
         <v>1660</v>
       </c>
-      <c r="I479" s="79" t="s">
+      <c r="I479" s="75" t="s">
         <v>1664</v>
       </c>
-      <c r="J479" s="79" t="s">
+      <c r="J479" s="75" t="s">
         <v>1673</v>
       </c>
-      <c r="L479" s="79">
+      <c r="L479" s="75">
         <v>-31</v>
       </c>
-      <c r="M479" s="79">
-        <v>0</v>
-      </c>
-      <c r="N479" s="79">
-        <v>0</v>
-      </c>
-      <c r="O479" s="79" t="s">
+      <c r="M479" s="75">
+        <v>0</v>
+      </c>
+      <c r="N479" s="75">
+        <v>0</v>
+      </c>
+      <c r="O479" s="75" t="s">
         <v>494</v>
       </c>
-      <c r="P479" s="79">
+      <c r="P479" s="75">
         <v>4800</v>
       </c>
-      <c r="Q479" s="79" t="s">
+      <c r="Q479" s="75" t="s">
         <v>1680</v>
       </c>
-      <c r="R479" s="80" t="s">
+      <c r="R479" s="76" t="s">
         <v>1677</v>
       </c>
-      <c r="W479" s="79" t="s">
+      <c r="W479" s="75" t="s">
         <v>1681</v>
       </c>
-      <c r="X479" s="79">
+      <c r="X479" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y479" s="79">
+      <c r="Y479" s="75">
         <v>1606176000</v>
       </c>
-      <c r="Z479" s="79">
+      <c r="Z479" s="75">
         <v>1606751999</v>
       </c>
-      <c r="AH479" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI479" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL479" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM479" s="79">
+      <c r="AH479" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI479" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL479" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM479" s="75">
         <v>1</v>
       </c>
     </row>
@@ -42707,263 +42723,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39" s="79" customFormat="1">
-      <c r="A493" s="79">
+    <row r="493" spans="1:39" s="75" customFormat="1">
+      <c r="A493" s="75">
         <v>492</v>
       </c>
-      <c r="B493" s="79">
+      <c r="B493" s="75">
         <v>10409</v>
       </c>
-      <c r="F493" s="79">
-        <v>1</v>
-      </c>
-      <c r="G493" s="79" t="s">
+      <c r="F493" s="75">
+        <v>1</v>
+      </c>
+      <c r="G493" s="75" t="s">
         <v>1811</v>
       </c>
-      <c r="I493" s="79" t="s">
+      <c r="I493" s="75" t="s">
         <v>1813</v>
       </c>
-      <c r="J493" s="79" t="s">
+      <c r="J493" s="75" t="s">
         <v>1815</v>
       </c>
-      <c r="L493" s="79">
+      <c r="L493" s="75">
         <v>-31</v>
       </c>
-      <c r="M493" s="79">
-        <v>0</v>
-      </c>
-      <c r="N493" s="79">
-        <v>0</v>
-      </c>
-      <c r="O493" s="79" t="s">
+      <c r="M493" s="75">
+        <v>0</v>
+      </c>
+      <c r="N493" s="75">
+        <v>0</v>
+      </c>
+      <c r="O493" s="75" t="s">
         <v>494</v>
       </c>
-      <c r="P493" s="79">
+      <c r="P493" s="75">
         <v>49800</v>
       </c>
-      <c r="Q493" s="79" t="s">
+      <c r="Q493" s="75" t="s">
         <v>1816</v>
       </c>
-      <c r="R493" s="80" t="s">
+      <c r="R493" s="76" t="s">
         <v>1817</v>
       </c>
-      <c r="W493" s="79" t="s">
+      <c r="W493" s="75" t="s">
         <v>545</v>
       </c>
-      <c r="X493" s="79">
+      <c r="X493" s="75">
         <v>200</v>
       </c>
-      <c r="Y493" s="79">
+      <c r="Y493" s="75">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="79">
+      <c r="Z493" s="75">
         <v>1609775999</v>
       </c>
-      <c r="AH493" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL493" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM493" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:39" s="79" customFormat="1">
-      <c r="A494" s="79">
+      <c r="AH493" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" s="75" customFormat="1">
+      <c r="A494" s="75">
         <v>493</v>
       </c>
-      <c r="B494" s="79">
+      <c r="B494" s="75">
         <v>10410</v>
       </c>
-      <c r="F494" s="79">
-        <v>1</v>
-      </c>
-      <c r="G494" s="79" t="s">
+      <c r="F494" s="75">
+        <v>1</v>
+      </c>
+      <c r="G494" s="75" t="s">
         <v>1812</v>
       </c>
-      <c r="I494" s="79" t="s">
+      <c r="I494" s="75" t="s">
         <v>1814</v>
       </c>
-      <c r="J494" s="79" t="s">
+      <c r="J494" s="75" t="s">
         <v>1815</v>
       </c>
-      <c r="L494" s="79">
+      <c r="L494" s="75">
         <v>-31</v>
       </c>
-      <c r="M494" s="79">
-        <v>0</v>
-      </c>
-      <c r="N494" s="79">
-        <v>0</v>
-      </c>
-      <c r="O494" s="79" t="s">
+      <c r="M494" s="75">
+        <v>0</v>
+      </c>
+      <c r="N494" s="75">
+        <v>0</v>
+      </c>
+      <c r="O494" s="75" t="s">
         <v>494</v>
       </c>
-      <c r="P494" s="79">
+      <c r="P494" s="75">
         <v>99800</v>
       </c>
-      <c r="Q494" s="79" t="s">
+      <c r="Q494" s="75" t="s">
         <v>1816</v>
       </c>
-      <c r="R494" s="80" t="s">
+      <c r="R494" s="76" t="s">
         <v>1818</v>
       </c>
-      <c r="W494" s="79" t="s">
+      <c r="W494" s="75" t="s">
         <v>545</v>
       </c>
-      <c r="X494" s="79">
+      <c r="X494" s="75">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="79">
+      <c r="Y494" s="75">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="79">
+      <c r="Z494" s="75">
         <v>1609775999</v>
       </c>
-      <c r="AH494" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL494" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM494" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:39" s="79" customFormat="1">
-      <c r="A495" s="79">
+      <c r="AH494" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" s="75" customFormat="1">
+      <c r="A495" s="75">
         <v>494</v>
       </c>
-      <c r="B495" s="79">
+      <c r="B495" s="75">
         <v>10411</v>
       </c>
-      <c r="F495" s="79">
-        <v>1</v>
-      </c>
-      <c r="G495" s="79" t="s">
+      <c r="F495" s="75">
+        <v>1</v>
+      </c>
+      <c r="G495" s="75" t="s">
         <v>1826</v>
       </c>
-      <c r="J495" s="79" t="s">
+      <c r="J495" s="75" t="s">
         <v>1827</v>
       </c>
-      <c r="L495" s="79">
+      <c r="L495" s="75">
         <v>-31</v>
       </c>
-      <c r="M495" s="79">
-        <v>0</v>
-      </c>
-      <c r="N495" s="79">
-        <v>0</v>
-      </c>
-      <c r="O495" s="79" t="s">
+      <c r="M495" s="75">
+        <v>0</v>
+      </c>
+      <c r="N495" s="75">
+        <v>0</v>
+      </c>
+      <c r="O495" s="75" t="s">
         <v>494</v>
       </c>
-      <c r="P495" s="79">
+      <c r="P495" s="75">
         <v>79800</v>
       </c>
-      <c r="Q495" s="79" t="s">
+      <c r="Q495" s="75" t="s">
         <v>1684</v>
       </c>
-      <c r="R495" s="80" t="s">
+      <c r="R495" s="76" t="s">
         <v>1828</v>
       </c>
-      <c r="W495" s="79" t="s">
+      <c r="W495" s="75" t="s">
         <v>594</v>
       </c>
-      <c r="X495" s="79">
+      <c r="X495" s="75">
         <v>99999999</v>
       </c>
-      <c r="Y495" s="79">
+      <c r="Y495" s="75">
         <v>1592263800</v>
       </c>
-      <c r="Z495" s="79">
+      <c r="Z495" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA495" s="79">
+      <c r="AA495" s="75">
         <v>14</v>
       </c>
-      <c r="AH495" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI495" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL495" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM495" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:39" s="79" customFormat="1">
-      <c r="A496" s="79">
+      <c r="AH495" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL495" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" s="75" customFormat="1">
+      <c r="A496" s="75">
         <v>495</v>
       </c>
-      <c r="B496" s="79">
+      <c r="B496" s="75">
         <v>10412</v>
       </c>
-      <c r="F496" s="79">
-        <v>1</v>
-      </c>
-      <c r="G496" s="79" t="s">
+      <c r="F496" s="75">
+        <v>1</v>
+      </c>
+      <c r="G496" s="75" t="s">
         <v>1829</v>
       </c>
-      <c r="J496" s="79" t="s">
+      <c r="J496" s="75" t="s">
         <v>1830</v>
       </c>
-      <c r="L496" s="79">
+      <c r="L496" s="75">
         <v>-31</v>
       </c>
-      <c r="M496" s="79">
-        <v>0</v>
-      </c>
-      <c r="N496" s="79">
-        <v>0</v>
-      </c>
-      <c r="O496" s="79" t="s">
+      <c r="M496" s="75">
+        <v>0</v>
+      </c>
+      <c r="N496" s="75">
+        <v>0</v>
+      </c>
+      <c r="O496" s="75" t="s">
         <v>494</v>
       </c>
-      <c r="P496" s="79">
+      <c r="P496" s="75">
         <v>89800</v>
       </c>
-      <c r="Q496" s="79" t="s">
+      <c r="Q496" s="75" t="s">
         <v>1684</v>
       </c>
-      <c r="R496" s="80" t="s">
+      <c r="R496" s="76" t="s">
         <v>1831</v>
       </c>
-      <c r="W496" s="79" t="s">
+      <c r="W496" s="75" t="s">
         <v>594</v>
       </c>
-      <c r="X496" s="79">
+      <c r="X496" s="75">
         <v>99999999</v>
       </c>
-      <c r="Y496" s="79">
+      <c r="Y496" s="75">
         <v>1592263800</v>
       </c>
-      <c r="Z496" s="79">
+      <c r="Z496" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AA496" s="79">
+      <c r="AA496" s="75">
         <v>14</v>
       </c>
-      <c r="AH496" s="79">
-        <v>1</v>
-      </c>
-      <c r="AI496" s="79">
-        <v>1</v>
-      </c>
-      <c r="AL496" s="79">
-        <v>1</v>
-      </c>
-      <c r="AM496" s="79">
+      <c r="AH496" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL496" s="75">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="75">
         <v>1</v>
       </c>
     </row>
@@ -43005,10 +43021,10 @@
         <v>1847</v>
       </c>
       <c r="R497" s="58" t="s">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="W497" s="57" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -43073,10 +43089,10 @@
         <v>1847</v>
       </c>
       <c r="R498" s="58" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="W498" s="57" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -43141,10 +43157,10 @@
         <v>1872</v>
       </c>
       <c r="R499" s="58" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="W499" s="57" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -43209,10 +43225,10 @@
         <v>1847</v>
       </c>
       <c r="R500" s="58" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="W500" s="57" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43277,10 +43293,10 @@
         <v>1847</v>
       </c>
       <c r="R501" s="58" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="W501" s="57" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43345,10 +43361,10 @@
         <v>1847</v>
       </c>
       <c r="R502" s="58" t="s">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="W502" s="57" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43413,10 +43429,10 @@
         <v>1848</v>
       </c>
       <c r="R503" s="56" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="W503" s="57" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43481,10 +43497,10 @@
         <v>1848</v>
       </c>
       <c r="R504" s="56" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="W504" s="57" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43549,10 +43565,10 @@
         <v>1880</v>
       </c>
       <c r="R505" s="56" t="s">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="W505" s="57" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43617,10 +43633,10 @@
         <v>1849</v>
       </c>
       <c r="R506" s="56" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="W506" s="57" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43685,10 +43701,10 @@
         <v>1849</v>
       </c>
       <c r="R507" s="56" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="W507" s="57" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -43753,10 +43769,10 @@
         <v>1849</v>
       </c>
       <c r="R508" s="56" t="s">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="W508" s="57" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -43783,183 +43799,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:39" s="5" customFormat="1">
-      <c r="A509" s="5">
+    <row r="509" spans="1:39" s="75" customFormat="1">
+      <c r="A509" s="75">
         <v>508</v>
       </c>
-      <c r="B509" s="5">
+      <c r="B509" s="75">
         <v>10425</v>
       </c>
-      <c r="F509" s="5">
-        <v>1</v>
-      </c>
-      <c r="G509" s="5" t="s">
+      <c r="F509" s="75">
+        <v>1</v>
+      </c>
+      <c r="G509" s="75" t="s">
         <v>1855</v>
       </c>
-      <c r="J509" s="5" t="s">
+      <c r="J509" s="75" t="s">
         <v>1858</v>
       </c>
-      <c r="L509" s="5">
+      <c r="L509" s="75">
         <v>-4</v>
       </c>
-      <c r="M509" s="5">
-        <v>1</v>
-      </c>
-      <c r="N509" s="5">
-        <v>0</v>
-      </c>
-      <c r="O509" s="5" t="s">
+      <c r="M509" s="75">
+        <v>1</v>
+      </c>
+      <c r="N509" s="75">
+        <v>0</v>
+      </c>
+      <c r="O509" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P509" s="5">
+      <c r="P509" s="75">
         <v>1800</v>
       </c>
-      <c r="R509" s="10"/>
-      <c r="W509" s="5" t="s">
+      <c r="R509" s="76"/>
+      <c r="W509" s="75" t="s">
         <v>546</v>
       </c>
-      <c r="X509" s="14" t="s">
-        <v>1942</v>
-      </c>
-      <c r="Y509" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z509" s="5">
+      <c r="X509" s="77" t="s">
+        <v>1949</v>
+      </c>
+      <c r="Y509" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AB509" s="5" t="s">
+      <c r="AB509" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="AC509" s="5" t="s">
+      <c r="AC509" s="75" t="s">
         <v>1861</v>
       </c>
-      <c r="AD509" s="10" t="s">
+      <c r="AD509" s="76" t="s">
         <v>1864</v>
       </c>
-      <c r="AH509" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI509" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:39" s="5" customFormat="1">
-      <c r="A510" s="5">
+      <c r="AH509" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="75" customFormat="1">
+      <c r="A510" s="75">
         <v>509</v>
       </c>
-      <c r="B510" s="5">
+      <c r="B510" s="75">
         <v>10426</v>
       </c>
-      <c r="F510" s="5">
-        <v>1</v>
-      </c>
-      <c r="G510" s="5" t="s">
+      <c r="F510" s="75">
+        <v>1</v>
+      </c>
+      <c r="G510" s="75" t="s">
         <v>1856</v>
       </c>
-      <c r="J510" s="5" t="s">
+      <c r="J510" s="75" t="s">
         <v>1859</v>
       </c>
-      <c r="L510" s="5">
+      <c r="L510" s="75">
         <v>-4</v>
       </c>
-      <c r="M510" s="5">
-        <v>1</v>
-      </c>
-      <c r="N510" s="5">
-        <v>0</v>
-      </c>
-      <c r="O510" s="5" t="s">
+      <c r="M510" s="75">
+        <v>1</v>
+      </c>
+      <c r="N510" s="75">
+        <v>0</v>
+      </c>
+      <c r="O510" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P510" s="5">
+      <c r="P510" s="75">
         <v>4800</v>
       </c>
-      <c r="R510" s="10"/>
-      <c r="W510" s="5" t="s">
+      <c r="R510" s="76"/>
+      <c r="W510" s="75" t="s">
         <v>546</v>
       </c>
-      <c r="X510" s="14" t="s">
+      <c r="X510" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="Y510" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z510" s="5">
+      <c r="Y510" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AB510" s="5" t="s">
+      <c r="AB510" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="AC510" s="5" t="s">
+      <c r="AC510" s="75" t="s">
         <v>1862</v>
       </c>
-      <c r="AD510" s="10" t="s">
+      <c r="AD510" s="76" t="s">
         <v>1865</v>
       </c>
-      <c r="AH510" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI510" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:39" s="5" customFormat="1">
-      <c r="A511" s="5">
+      <c r="AH510" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="75" customFormat="1">
+      <c r="A511" s="75">
         <v>510</v>
       </c>
-      <c r="B511" s="5">
+      <c r="B511" s="75">
         <v>10427</v>
       </c>
-      <c r="F511" s="5">
-        <v>1</v>
-      </c>
-      <c r="G511" s="5" t="s">
+      <c r="F511" s="75">
+        <v>1</v>
+      </c>
+      <c r="G511" s="75" t="s">
         <v>1857</v>
       </c>
-      <c r="J511" s="5" t="s">
+      <c r="J511" s="75" t="s">
         <v>1860</v>
       </c>
-      <c r="L511" s="5">
+      <c r="L511" s="75">
         <v>-4</v>
       </c>
-      <c r="M511" s="5">
-        <v>1</v>
-      </c>
-      <c r="N511" s="5">
-        <v>0</v>
-      </c>
-      <c r="O511" s="5" t="s">
+      <c r="M511" s="75">
+        <v>1</v>
+      </c>
+      <c r="N511" s="75">
+        <v>0</v>
+      </c>
+      <c r="O511" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P511" s="5">
+      <c r="P511" s="75">
         <v>9800</v>
       </c>
-      <c r="R511" s="10"/>
-      <c r="W511" s="5" t="s">
+      <c r="R511" s="76"/>
+      <c r="W511" s="75" t="s">
         <v>1879</v>
       </c>
-      <c r="X511" s="14" t="s">
+      <c r="X511" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="Y511" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z511" s="5">
+      <c r="Y511" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="75">
         <v>2552233600</v>
       </c>
-      <c r="AB511" s="5" t="s">
+      <c r="AB511" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="AC511" s="5" t="s">
+      <c r="AC511" s="75" t="s">
         <v>1863</v>
       </c>
-      <c r="AD511" s="10" t="s">
+      <c r="AD511" s="76" t="s">
         <v>1866</v>
       </c>
-      <c r="AH511" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI511" s="5">
+      <c r="AH511" s="75">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="75">
         <v>1</v>
       </c>
     </row>
@@ -44569,819 +44585,1431 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:39" s="75" customFormat="1">
+    <row r="521" spans="1:39" s="5" customFormat="1">
       <c r="A521" s="5">
         <v>520</v>
       </c>
       <c r="B521" s="5">
         <v>10437</v>
       </c>
-      <c r="F521" s="75">
-        <v>1</v>
-      </c>
-      <c r="G521" s="75" t="s">
+      <c r="F521" s="5">
+        <v>1</v>
+      </c>
+      <c r="G521" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="I521" s="75" t="s">
+      <c r="I521" s="5" t="s">
         <v>1916</v>
       </c>
-      <c r="J521" s="75" t="s">
+      <c r="J521" s="5" t="s">
         <v>1919</v>
       </c>
-      <c r="L521" s="75">
+      <c r="L521" s="5">
         <v>-33</v>
       </c>
-      <c r="M521" s="75">
-        <v>0</v>
-      </c>
-      <c r="N521" s="75">
-        <v>0</v>
-      </c>
-      <c r="O521" s="75" t="s">
+      <c r="M521" s="5">
+        <v>0</v>
+      </c>
+      <c r="N521" s="5">
+        <v>0</v>
+      </c>
+      <c r="O521" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P521" s="75">
+      <c r="P521" s="5">
         <v>600</v>
       </c>
-      <c r="Q521" s="75" t="s">
+      <c r="Q521" s="5" t="s">
         <v>1933</v>
       </c>
-      <c r="R521" s="76" t="s">
-        <v>1959</v>
-      </c>
-      <c r="W521" s="75" t="s">
-        <v>1941</v>
-      </c>
-      <c r="X521" s="75">
+      <c r="R521" s="10" t="s">
+        <v>1970</v>
+      </c>
+      <c r="W521" s="5" t="s">
+        <v>1948</v>
+      </c>
+      <c r="X521" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="75">
+      <c r="Y521" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z521" s="75">
+      <c r="Z521" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA521" s="75">
+      <c r="AA521" s="5">
         <v>70</v>
       </c>
-      <c r="AH521" s="75">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="75">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="75">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="75" customFormat="1">
+      <c r="AH521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="5" customFormat="1">
       <c r="A522" s="5">
         <v>521</v>
       </c>
       <c r="B522" s="5">
         <v>10438</v>
       </c>
-      <c r="F522" s="75">
-        <v>1</v>
-      </c>
-      <c r="G522" s="75" t="s">
+      <c r="F522" s="5">
+        <v>1</v>
+      </c>
+      <c r="G522" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="I522" s="75" t="s">
+      <c r="I522" s="5" t="s">
         <v>1916</v>
       </c>
-      <c r="J522" s="75" t="s">
+      <c r="J522" s="5" t="s">
         <v>1921</v>
       </c>
-      <c r="L522" s="75">
+      <c r="L522" s="5">
         <v>-33</v>
       </c>
-      <c r="M522" s="75">
-        <v>0</v>
-      </c>
-      <c r="N522" s="75">
-        <v>0</v>
-      </c>
-      <c r="O522" s="75" t="s">
+      <c r="M522" s="5">
+        <v>0</v>
+      </c>
+      <c r="N522" s="5">
+        <v>0</v>
+      </c>
+      <c r="O522" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P522" s="75">
+      <c r="P522" s="5">
         <v>1000</v>
       </c>
-      <c r="Q522" s="75" t="s">
+      <c r="Q522" s="5" t="s">
         <v>1934</v>
       </c>
-      <c r="R522" s="76" t="s">
-        <v>1960</v>
-      </c>
-      <c r="W522" s="75" t="s">
+      <c r="R522" s="10" t="s">
+        <v>1937</v>
+      </c>
+      <c r="W522" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X522" s="75">
+      <c r="X522" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="75">
+      <c r="Y522" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z522" s="75">
+      <c r="Z522" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA522" s="75">
+      <c r="AA522" s="5">
         <v>70</v>
       </c>
-      <c r="AH522" s="75">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="75">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="75">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="75" customFormat="1">
+      <c r="AH522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="5" customFormat="1">
       <c r="A523" s="5">
         <v>522</v>
       </c>
       <c r="B523" s="5">
         <v>10439</v>
       </c>
-      <c r="F523" s="75">
-        <v>1</v>
-      </c>
-      <c r="G523" s="75" t="s">
+      <c r="F523" s="5">
+        <v>1</v>
+      </c>
+      <c r="G523" s="5" t="s">
         <v>1914</v>
       </c>
-      <c r="I523" s="75" t="s">
+      <c r="I523" s="5" t="s">
         <v>1916</v>
       </c>
-      <c r="J523" s="75" t="s">
+      <c r="J523" s="5" t="s">
         <v>1922</v>
       </c>
-      <c r="L523" s="75">
+      <c r="L523" s="5">
         <v>-33</v>
       </c>
-      <c r="M523" s="75">
-        <v>0</v>
-      </c>
-      <c r="N523" s="75">
-        <v>0</v>
-      </c>
-      <c r="O523" s="75" t="s">
+      <c r="M523" s="5">
+        <v>0</v>
+      </c>
+      <c r="N523" s="5">
+        <v>0</v>
+      </c>
+      <c r="O523" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P523" s="75">
+      <c r="P523" s="5">
         <v>1800</v>
       </c>
-      <c r="Q523" s="75" t="s">
+      <c r="Q523" s="5" t="s">
         <v>1935</v>
       </c>
-      <c r="R523" s="76" t="s">
-        <v>1937</v>
-      </c>
-      <c r="W523" s="75" t="s">
+      <c r="R523" s="10" t="s">
+        <v>1938</v>
+      </c>
+      <c r="W523" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X523" s="75">
+      <c r="X523" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="75">
+      <c r="Y523" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z523" s="75">
+      <c r="Z523" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA523" s="75">
+      <c r="AA523" s="5">
         <v>70</v>
       </c>
-      <c r="AH523" s="75">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="75">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="75">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="75" customFormat="1">
+      <c r="AH523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="5" customFormat="1">
       <c r="A524" s="5">
         <v>523</v>
       </c>
       <c r="B524" s="5">
         <v>10440</v>
       </c>
-      <c r="F524" s="75">
-        <v>1</v>
-      </c>
-      <c r="G524" s="75" t="s">
+      <c r="F524" s="5">
+        <v>1</v>
+      </c>
+      <c r="G524" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="I524" s="75" t="s">
+      <c r="I524" s="5" t="s">
         <v>1916</v>
       </c>
-      <c r="J524" s="75" t="s">
+      <c r="J524" s="5" t="s">
         <v>1923</v>
       </c>
-      <c r="L524" s="75">
+      <c r="L524" s="5">
         <v>-33</v>
       </c>
-      <c r="M524" s="75">
-        <v>0</v>
-      </c>
-      <c r="N524" s="75">
-        <v>0</v>
-      </c>
-      <c r="O524" s="75" t="s">
+      <c r="M524" s="5">
+        <v>0</v>
+      </c>
+      <c r="N524" s="5">
+        <v>0</v>
+      </c>
+      <c r="O524" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P524" s="75">
+      <c r="P524" s="5">
         <v>4800</v>
       </c>
-      <c r="Q524" s="75" t="s">
+      <c r="Q524" s="5" t="s">
         <v>1936</v>
       </c>
-      <c r="R524" s="76" t="s">
-        <v>1961</v>
-      </c>
-      <c r="W524" s="75" t="s">
+      <c r="R524" s="10" t="s">
+        <v>1939</v>
+      </c>
+      <c r="W524" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X524" s="75">
+      <c r="X524" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="75">
+      <c r="Y524" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z524" s="75">
+      <c r="Z524" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA524" s="75">
+      <c r="AA524" s="5">
         <v>70</v>
       </c>
-      <c r="AH524" s="75">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="75">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="75">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="70" customFormat="1">
+      <c r="AH524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="5" customFormat="1">
       <c r="A525" s="5">
         <v>524</v>
       </c>
       <c r="B525" s="5">
         <v>10441</v>
       </c>
-      <c r="F525" s="70">
-        <v>1</v>
-      </c>
-      <c r="G525" s="70" t="s">
+      <c r="F525" s="5">
+        <v>1</v>
+      </c>
+      <c r="G525" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="I525" s="70" t="s">
+      <c r="I525" s="5" t="s">
         <v>1917</v>
       </c>
-      <c r="J525" s="70" t="s">
+      <c r="J525" s="5" t="s">
         <v>1920</v>
       </c>
-      <c r="L525" s="70">
+      <c r="L525" s="5">
         <v>-33</v>
       </c>
-      <c r="M525" s="70">
-        <v>0</v>
-      </c>
-      <c r="N525" s="70">
-        <v>0</v>
-      </c>
-      <c r="O525" s="70" t="s">
+      <c r="M525" s="5">
+        <v>0</v>
+      </c>
+      <c r="N525" s="5">
+        <v>0</v>
+      </c>
+      <c r="O525" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P525" s="70">
+      <c r="P525" s="5">
         <v>1800</v>
       </c>
-      <c r="Q525" s="70" t="s">
+      <c r="Q525" s="5" t="s">
         <v>1933</v>
       </c>
-      <c r="R525" s="71" t="s">
-        <v>1962</v>
-      </c>
-      <c r="W525" s="70" t="s">
+      <c r="R525" s="10" t="s">
+        <v>1945</v>
+      </c>
+      <c r="W525" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X525" s="70">
+      <c r="X525" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="70">
+      <c r="Y525" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z525" s="70">
+      <c r="Z525" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA525" s="70">
+      <c r="AA525" s="5">
         <v>71</v>
       </c>
-      <c r="AH525" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="70" customFormat="1">
+      <c r="AH525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="5" customFormat="1">
       <c r="A526" s="5">
         <v>525</v>
       </c>
       <c r="B526" s="5">
         <v>10442</v>
       </c>
-      <c r="F526" s="70">
-        <v>1</v>
-      </c>
-      <c r="G526" s="70" t="s">
+      <c r="F526" s="5">
+        <v>1</v>
+      </c>
+      <c r="G526" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="I526" s="70" t="s">
+      <c r="I526" s="5" t="s">
         <v>1917</v>
       </c>
-      <c r="J526" s="70" t="s">
+      <c r="J526" s="5" t="s">
         <v>1924</v>
       </c>
-      <c r="L526" s="70">
+      <c r="L526" s="5">
         <v>-33</v>
       </c>
-      <c r="M526" s="70">
-        <v>0</v>
-      </c>
-      <c r="N526" s="70">
-        <v>0</v>
-      </c>
-      <c r="O526" s="70" t="s">
+      <c r="M526" s="5">
+        <v>0</v>
+      </c>
+      <c r="N526" s="5">
+        <v>0</v>
+      </c>
+      <c r="O526" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P526" s="70">
+      <c r="P526" s="5">
         <v>4800</v>
       </c>
-      <c r="Q526" s="70" t="s">
+      <c r="Q526" s="5" t="s">
         <v>1934</v>
       </c>
-      <c r="R526" s="71" t="s">
-        <v>1963</v>
-      </c>
-      <c r="W526" s="70" t="s">
+      <c r="R526" s="10" t="s">
+        <v>1946</v>
+      </c>
+      <c r="W526" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X526" s="70">
+      <c r="X526" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="70">
+      <c r="Y526" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z526" s="70">
+      <c r="Z526" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA526" s="70">
+      <c r="AA526" s="5">
         <v>71</v>
       </c>
-      <c r="AH526" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="70" customFormat="1">
+      <c r="AH526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="5" customFormat="1">
       <c r="A527" s="5">
         <v>526</v>
       </c>
       <c r="B527" s="5">
         <v>10443</v>
       </c>
-      <c r="F527" s="70">
-        <v>1</v>
-      </c>
-      <c r="G527" s="70" t="s">
+      <c r="F527" s="5">
+        <v>1</v>
+      </c>
+      <c r="G527" s="5" t="s">
         <v>1914</v>
       </c>
-      <c r="I527" s="70" t="s">
+      <c r="I527" s="5" t="s">
         <v>1917</v>
       </c>
-      <c r="J527" s="70" t="s">
+      <c r="J527" s="5" t="s">
         <v>1925</v>
       </c>
-      <c r="L527" s="70">
+      <c r="L527" s="5">
         <v>-33</v>
       </c>
-      <c r="M527" s="70">
-        <v>0</v>
-      </c>
-      <c r="N527" s="70">
-        <v>0</v>
-      </c>
-      <c r="O527" s="70" t="s">
+      <c r="M527" s="5">
+        <v>0</v>
+      </c>
+      <c r="N527" s="5">
+        <v>0</v>
+      </c>
+      <c r="O527" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P527" s="70">
+      <c r="P527" s="5">
         <v>9800</v>
       </c>
-      <c r="Q527" s="70" t="s">
+      <c r="Q527" s="5" t="s">
         <v>1935</v>
       </c>
-      <c r="R527" s="71" t="s">
-        <v>1940</v>
-      </c>
-      <c r="W527" s="70" t="s">
+      <c r="R527" s="10" t="s">
+        <v>1947</v>
+      </c>
+      <c r="W527" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X527" s="70">
+      <c r="X527" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="70">
+      <c r="Y527" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z527" s="70">
+      <c r="Z527" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA527" s="70">
+      <c r="AA527" s="5">
         <v>71</v>
       </c>
-      <c r="AH527" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="70" customFormat="1">
+      <c r="AH527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="5" customFormat="1">
       <c r="A528" s="5">
         <v>527</v>
       </c>
       <c r="B528" s="5">
         <v>10444</v>
       </c>
-      <c r="F528" s="70">
-        <v>1</v>
-      </c>
-      <c r="G528" s="70" t="s">
+      <c r="F528" s="5">
+        <v>1</v>
+      </c>
+      <c r="G528" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="I528" s="70" t="s">
+      <c r="I528" s="5" t="s">
         <v>1917</v>
       </c>
-      <c r="J528" s="70" t="s">
+      <c r="J528" s="5" t="s">
         <v>1926</v>
       </c>
-      <c r="L528" s="70">
+      <c r="L528" s="5">
         <v>-33</v>
       </c>
-      <c r="M528" s="70">
-        <v>0</v>
-      </c>
-      <c r="N528" s="70">
-        <v>0</v>
-      </c>
-      <c r="O528" s="70" t="s">
+      <c r="M528" s="5">
+        <v>0</v>
+      </c>
+      <c r="N528" s="5">
+        <v>0</v>
+      </c>
+      <c r="O528" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P528" s="70">
+      <c r="P528" s="5">
         <v>19800</v>
       </c>
-      <c r="Q528" s="70" t="s">
+      <c r="Q528" s="5" t="s">
         <v>1936</v>
       </c>
-      <c r="R528" s="71" t="s">
-        <v>1939</v>
-      </c>
-      <c r="W528" s="70" t="s">
+      <c r="R528" s="10" t="s">
+        <v>1942</v>
+      </c>
+      <c r="W528" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X528" s="70">
+      <c r="X528" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="70">
+      <c r="Y528" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z528" s="70">
+      <c r="Z528" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA528" s="70">
+      <c r="AA528" s="5">
         <v>71</v>
       </c>
-      <c r="AH528" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="75" customFormat="1">
+      <c r="AH528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="5" customFormat="1">
       <c r="A529" s="5">
         <v>528</v>
       </c>
       <c r="B529" s="5">
         <v>10445</v>
       </c>
-      <c r="F529" s="75">
-        <v>1</v>
-      </c>
-      <c r="G529" s="75" t="s">
+      <c r="F529" s="5">
+        <v>1</v>
+      </c>
+      <c r="G529" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="I529" s="75" t="s">
+      <c r="I529" s="5" t="s">
         <v>1918</v>
       </c>
-      <c r="J529" s="75" t="s">
+      <c r="J529" s="5" t="s">
         <v>1927</v>
       </c>
-      <c r="L529" s="75">
+      <c r="L529" s="5">
         <v>-33</v>
       </c>
-      <c r="M529" s="75">
-        <v>0</v>
-      </c>
-      <c r="N529" s="75">
-        <v>0</v>
-      </c>
-      <c r="O529" s="75" t="s">
+      <c r="M529" s="5">
+        <v>0</v>
+      </c>
+      <c r="N529" s="5">
+        <v>0</v>
+      </c>
+      <c r="O529" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P529" s="75">
+      <c r="P529" s="5">
         <v>4800</v>
       </c>
-      <c r="Q529" s="75" t="s">
+      <c r="Q529" s="5" t="s">
         <v>1933</v>
       </c>
-      <c r="R529" s="76" t="s">
-        <v>1938</v>
-      </c>
-      <c r="W529" s="75" t="s">
+      <c r="R529" s="10" t="s">
+        <v>1940</v>
+      </c>
+      <c r="W529" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X529" s="75">
+      <c r="X529" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="75">
+      <c r="Y529" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z529" s="75">
+      <c r="Z529" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA529" s="75">
+      <c r="AA529" s="5">
         <v>72</v>
       </c>
-      <c r="AH529" s="75">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="75">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="75">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="75" customFormat="1">
+      <c r="AH529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="5" customFormat="1">
       <c r="A530" s="5">
         <v>529</v>
       </c>
       <c r="B530" s="5">
         <v>10446</v>
       </c>
-      <c r="F530" s="75">
-        <v>1</v>
-      </c>
-      <c r="G530" s="75" t="s">
+      <c r="F530" s="5">
+        <v>1</v>
+      </c>
+      <c r="G530" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="I530" s="75" t="s">
+      <c r="I530" s="5" t="s">
         <v>1918</v>
       </c>
-      <c r="J530" s="75" t="s">
+      <c r="J530" s="5" t="s">
         <v>1928</v>
       </c>
-      <c r="L530" s="75">
+      <c r="L530" s="5">
         <v>-33</v>
       </c>
-      <c r="M530" s="75">
-        <v>0</v>
-      </c>
-      <c r="N530" s="75">
-        <v>0</v>
-      </c>
-      <c r="O530" s="75" t="s">
+      <c r="M530" s="5">
+        <v>0</v>
+      </c>
+      <c r="N530" s="5">
+        <v>0</v>
+      </c>
+      <c r="O530" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P530" s="75">
+      <c r="P530" s="5">
         <v>9800</v>
       </c>
-      <c r="Q530" s="75" t="s">
+      <c r="Q530" s="5" t="s">
         <v>1934</v>
       </c>
-      <c r="R530" s="76" t="s">
-        <v>1966</v>
-      </c>
-      <c r="W530" s="75" t="s">
+      <c r="R530" s="10" t="s">
+        <v>1944</v>
+      </c>
+      <c r="W530" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X530" s="75">
+      <c r="X530" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="75">
+      <c r="Y530" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z530" s="75">
+      <c r="Z530" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA530" s="75">
+      <c r="AA530" s="5">
         <v>72</v>
       </c>
-      <c r="AH530" s="75">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="75">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="75">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="75" customFormat="1">
+      <c r="AH530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="5" customFormat="1">
       <c r="A531" s="5">
         <v>530</v>
       </c>
       <c r="B531" s="5">
         <v>10447</v>
       </c>
-      <c r="F531" s="75">
-        <v>1</v>
-      </c>
-      <c r="G531" s="75" t="s">
+      <c r="F531" s="5">
+        <v>1</v>
+      </c>
+      <c r="G531" s="5" t="s">
         <v>1914</v>
       </c>
-      <c r="I531" s="75" t="s">
+      <c r="I531" s="5" t="s">
         <v>1918</v>
       </c>
-      <c r="J531" s="75" t="s">
+      <c r="J531" s="5" t="s">
         <v>1929</v>
       </c>
-      <c r="L531" s="75">
+      <c r="L531" s="5">
         <v>-33</v>
       </c>
-      <c r="M531" s="75">
-        <v>0</v>
-      </c>
-      <c r="N531" s="75">
-        <v>0</v>
-      </c>
-      <c r="O531" s="75" t="s">
+      <c r="M531" s="5">
+        <v>0</v>
+      </c>
+      <c r="N531" s="5">
+        <v>0</v>
+      </c>
+      <c r="O531" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P531" s="75">
+      <c r="P531" s="5">
         <v>19800</v>
       </c>
-      <c r="Q531" s="75" t="s">
+      <c r="Q531" s="5" t="s">
         <v>1935</v>
       </c>
-      <c r="R531" s="76" t="s">
-        <v>1964</v>
-      </c>
-      <c r="W531" s="75" t="s">
+      <c r="R531" s="10" t="s">
+        <v>1941</v>
+      </c>
+      <c r="W531" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="X531" s="75">
+      <c r="X531" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="75">
+      <c r="Y531" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z531" s="75">
+      <c r="Z531" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA531" s="75">
+      <c r="AA531" s="5">
         <v>72</v>
       </c>
-      <c r="AH531" s="75">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="75">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="75">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="75" customFormat="1">
+      <c r="AH531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="5" customFormat="1">
       <c r="A532" s="5">
         <v>531</v>
       </c>
       <c r="B532" s="5">
         <v>10448</v>
       </c>
-      <c r="F532" s="75">
-        <v>1</v>
-      </c>
-      <c r="G532" s="75" t="s">
+      <c r="F532" s="5">
+        <v>1</v>
+      </c>
+      <c r="G532" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="I532" s="75" t="s">
+      <c r="I532" s="5" t="s">
         <v>1918</v>
       </c>
-      <c r="J532" s="75" t="s">
+      <c r="J532" s="5" t="s">
         <v>1930</v>
       </c>
-      <c r="L532" s="75">
+      <c r="L532" s="5">
         <v>-33</v>
       </c>
-      <c r="M532" s="75">
-        <v>0</v>
-      </c>
-      <c r="N532" s="75">
-        <v>0</v>
-      </c>
-      <c r="O532" s="75" t="s">
+      <c r="M532" s="5">
+        <v>0</v>
+      </c>
+      <c r="N532" s="5">
+        <v>0</v>
+      </c>
+      <c r="O532" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P532" s="75">
+      <c r="P532" s="5">
         <v>49800</v>
       </c>
-      <c r="Q532" s="75" t="s">
+      <c r="Q532" s="5" t="s">
         <v>1936</v>
       </c>
-      <c r="R532" s="76" t="s">
+      <c r="R532" s="10" t="s">
+        <v>1943</v>
+      </c>
+      <c r="W532" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X532" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="Y532" s="5">
+        <v>1611014400</v>
+      </c>
+      <c r="Z532" s="5">
+        <v>1611590399</v>
+      </c>
+      <c r="AA532" s="5">
+        <v>72</v>
+      </c>
+      <c r="AH532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:39" s="57" customFormat="1">
+      <c r="A533" s="5">
+        <v>532</v>
+      </c>
+      <c r="B533" s="57">
+        <v>10449</v>
+      </c>
+      <c r="F533" s="57">
+        <v>1</v>
+      </c>
+      <c r="G533" s="57" t="s">
+        <v>1963</v>
+      </c>
+      <c r="I533" s="57" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J533" s="57" t="s">
+        <v>1312</v>
+      </c>
+      <c r="L533" s="57">
+        <v>-31</v>
+      </c>
+      <c r="M533" s="57">
+        <v>0</v>
+      </c>
+      <c r="N533" s="57">
+        <v>0</v>
+      </c>
+      <c r="O533" s="57" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P533" s="57">
+        <v>1800</v>
+      </c>
+      <c r="Q533" s="57" t="s">
+        <v>1969</v>
+      </c>
+      <c r="R533" s="58" t="s">
+        <v>1331</v>
+      </c>
+      <c r="W533" s="57" t="s">
+        <v>1961</v>
+      </c>
+      <c r="X533" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="Y533" s="57">
+        <v>1611619200</v>
+      </c>
+      <c r="Z533" s="57">
+        <v>1612195199</v>
+      </c>
+      <c r="AA533" s="57">
+        <v>73</v>
+      </c>
+      <c r="AH533" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI533" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL533" s="57">
+        <v>1</v>
+      </c>
+      <c r="AM533" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:39" s="57" customFormat="1">
+      <c r="A534" s="5">
+        <v>533</v>
+      </c>
+      <c r="B534" s="57">
+        <v>10450</v>
+      </c>
+      <c r="F534" s="57">
+        <v>1</v>
+      </c>
+      <c r="G534" s="57" t="s">
+        <v>1964</v>
+      </c>
+      <c r="I534" s="57" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J534" s="57" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L534" s="57">
+        <v>-31</v>
+      </c>
+      <c r="M534" s="57">
+        <v>0</v>
+      </c>
+      <c r="N534" s="57">
+        <v>0</v>
+      </c>
+      <c r="O534" s="57" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P534" s="57">
+        <v>3000</v>
+      </c>
+      <c r="Q534" s="57" t="s">
+        <v>1324</v>
+      </c>
+      <c r="R534" s="58" t="s">
+        <v>1332</v>
+      </c>
+      <c r="W534" s="57" t="s">
+        <v>1966</v>
+      </c>
+      <c r="X534" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="Y534" s="57">
+        <v>1611619200</v>
+      </c>
+      <c r="Z534" s="57">
+        <v>1612195199</v>
+      </c>
+      <c r="AA534" s="57">
+        <v>73</v>
+      </c>
+      <c r="AH534" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI534" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL534" s="57">
+        <v>1</v>
+      </c>
+      <c r="AM534" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:39" s="57" customFormat="1">
+      <c r="A535" s="5">
+        <v>534</v>
+      </c>
+      <c r="B535" s="57">
+        <v>10451</v>
+      </c>
+      <c r="F535" s="57">
+        <v>1</v>
+      </c>
+      <c r="G535" s="57" t="s">
         <v>1965</v>
       </c>
-      <c r="W532" s="75" t="s">
-        <v>1200</v>
-      </c>
-      <c r="X532" s="75">
-        <v>99999999</v>
-      </c>
-      <c r="Y532" s="75">
-        <v>1611014400</v>
-      </c>
-      <c r="Z532" s="75">
-        <v>1611590399</v>
-      </c>
-      <c r="AA532" s="75">
-        <v>72</v>
-      </c>
-      <c r="AH532" s="75">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="75">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="75">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="75">
+      <c r="I535" s="57" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J535" s="57" t="s">
+        <v>1314</v>
+      </c>
+      <c r="L535" s="57">
+        <v>-31</v>
+      </c>
+      <c r="M535" s="57">
+        <v>0</v>
+      </c>
+      <c r="N535" s="57">
+        <v>0</v>
+      </c>
+      <c r="O535" s="57" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P535" s="57">
+        <v>4800</v>
+      </c>
+      <c r="Q535" s="57" t="s">
+        <v>1325</v>
+      </c>
+      <c r="R535" s="58" t="s">
+        <v>1333</v>
+      </c>
+      <c r="W535" s="57" t="s">
+        <v>1961</v>
+      </c>
+      <c r="X535" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="Y535" s="57">
+        <v>1611619200</v>
+      </c>
+      <c r="Z535" s="57">
+        <v>1612195199</v>
+      </c>
+      <c r="AA535" s="57">
+        <v>73</v>
+      </c>
+      <c r="AH535" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI535" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL535" s="57">
+        <v>1</v>
+      </c>
+      <c r="AM535" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:39" s="55" customFormat="1">
+      <c r="A536" s="5">
+        <v>535</v>
+      </c>
+      <c r="B536" s="55">
+        <v>10452</v>
+      </c>
+      <c r="F536" s="55">
+        <v>1</v>
+      </c>
+      <c r="G536" s="55" t="s">
+        <v>1963</v>
+      </c>
+      <c r="I536" s="55" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J536" s="55" t="s">
+        <v>1315</v>
+      </c>
+      <c r="L536" s="55">
+        <v>-31</v>
+      </c>
+      <c r="M536" s="55">
+        <v>0</v>
+      </c>
+      <c r="N536" s="55">
+        <v>0</v>
+      </c>
+      <c r="O536" s="55" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P536" s="55">
+        <v>4800</v>
+      </c>
+      <c r="Q536" s="55" t="s">
+        <v>1326</v>
+      </c>
+      <c r="R536" s="56" t="s">
+        <v>1333</v>
+      </c>
+      <c r="W536" s="55" t="s">
+        <v>1961</v>
+      </c>
+      <c r="X536" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="Y536" s="55">
+        <v>1611619200</v>
+      </c>
+      <c r="Z536" s="55">
+        <v>1612195199</v>
+      </c>
+      <c r="AA536" s="55">
+        <v>74</v>
+      </c>
+      <c r="AH536" s="55">
+        <v>1</v>
+      </c>
+      <c r="AI536" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL536" s="55">
+        <v>1</v>
+      </c>
+      <c r="AM536" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:39" s="55" customFormat="1">
+      <c r="A537" s="5">
+        <v>536</v>
+      </c>
+      <c r="B537" s="55">
+        <v>10453</v>
+      </c>
+      <c r="F537" s="55">
+        <v>1</v>
+      </c>
+      <c r="G537" s="55" t="s">
+        <v>1964</v>
+      </c>
+      <c r="I537" s="55" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J537" s="55" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L537" s="55">
+        <v>-31</v>
+      </c>
+      <c r="M537" s="55">
+        <v>0</v>
+      </c>
+      <c r="N537" s="55">
+        <v>0</v>
+      </c>
+      <c r="O537" s="55" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P537" s="55">
+        <v>9800</v>
+      </c>
+      <c r="Q537" s="55" t="s">
+        <v>1327</v>
+      </c>
+      <c r="R537" s="56" t="s">
+        <v>1335</v>
+      </c>
+      <c r="W537" s="55" t="s">
+        <v>1961</v>
+      </c>
+      <c r="X537" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="Y537" s="55">
+        <v>1611619200</v>
+      </c>
+      <c r="Z537" s="55">
+        <v>1612195199</v>
+      </c>
+      <c r="AA537" s="55">
+        <v>74</v>
+      </c>
+      <c r="AH537" s="55">
+        <v>1</v>
+      </c>
+      <c r="AI537" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL537" s="55">
+        <v>1</v>
+      </c>
+      <c r="AM537" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:39" s="55" customFormat="1">
+      <c r="A538" s="5">
+        <v>537</v>
+      </c>
+      <c r="B538" s="55">
+        <v>10454</v>
+      </c>
+      <c r="F538" s="55">
+        <v>1</v>
+      </c>
+      <c r="G538" s="55" t="s">
+        <v>1965</v>
+      </c>
+      <c r="I538" s="55" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J538" s="55" t="s">
+        <v>1317</v>
+      </c>
+      <c r="L538" s="55">
+        <v>-31</v>
+      </c>
+      <c r="M538" s="55">
+        <v>0</v>
+      </c>
+      <c r="N538" s="55">
+        <v>0</v>
+      </c>
+      <c r="O538" s="55" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P538" s="55">
+        <v>19800</v>
+      </c>
+      <c r="Q538" s="55" t="s">
+        <v>1328</v>
+      </c>
+      <c r="R538" s="56" t="s">
+        <v>1336</v>
+      </c>
+      <c r="W538" s="55" t="s">
+        <v>1961</v>
+      </c>
+      <c r="X538" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="Y538" s="55">
+        <v>1611619200</v>
+      </c>
+      <c r="Z538" s="55">
+        <v>1612195199</v>
+      </c>
+      <c r="AA538" s="55">
+        <v>74</v>
+      </c>
+      <c r="AH538" s="55">
+        <v>1</v>
+      </c>
+      <c r="AI538" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL538" s="55">
+        <v>1</v>
+      </c>
+      <c r="AM538" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:39" s="57" customFormat="1">
+      <c r="A539" s="5">
+        <v>538</v>
+      </c>
+      <c r="B539" s="57">
+        <v>10455</v>
+      </c>
+      <c r="F539" s="57">
+        <v>1</v>
+      </c>
+      <c r="G539" s="57" t="s">
+        <v>1963</v>
+      </c>
+      <c r="I539" s="57" t="s">
+        <v>1967</v>
+      </c>
+      <c r="J539" s="57" t="s">
+        <v>1318</v>
+      </c>
+      <c r="L539" s="57">
+        <v>-31</v>
+      </c>
+      <c r="M539" s="57">
+        <v>0</v>
+      </c>
+      <c r="N539" s="57">
+        <v>0</v>
+      </c>
+      <c r="O539" s="57" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P539" s="57">
+        <v>9800</v>
+      </c>
+      <c r="Q539" s="57" t="s">
+        <v>1323</v>
+      </c>
+      <c r="R539" s="58" t="s">
+        <v>1337</v>
+      </c>
+      <c r="W539" s="57" t="s">
+        <v>1961</v>
+      </c>
+      <c r="X539" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="Y539" s="57">
+        <v>1611619200</v>
+      </c>
+      <c r="Z539" s="57">
+        <v>1612195199</v>
+      </c>
+      <c r="AA539" s="57">
+        <v>75</v>
+      </c>
+      <c r="AH539" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI539" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL539" s="57">
+        <v>1</v>
+      </c>
+      <c r="AM539" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:39" s="57" customFormat="1">
+      <c r="A540" s="5">
+        <v>539</v>
+      </c>
+      <c r="B540" s="57">
+        <v>10456</v>
+      </c>
+      <c r="F540" s="57">
+        <v>1</v>
+      </c>
+      <c r="G540" s="57" t="s">
+        <v>1964</v>
+      </c>
+      <c r="I540" s="57" t="s">
+        <v>1968</v>
+      </c>
+      <c r="J540" s="57" t="s">
+        <v>1319</v>
+      </c>
+      <c r="L540" s="57">
+        <v>-31</v>
+      </c>
+      <c r="M540" s="57">
+        <v>0</v>
+      </c>
+      <c r="N540" s="57">
+        <v>0</v>
+      </c>
+      <c r="O540" s="57" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P540" s="57">
+        <v>19800</v>
+      </c>
+      <c r="Q540" s="57" t="s">
+        <v>1329</v>
+      </c>
+      <c r="R540" s="58" t="s">
+        <v>1336</v>
+      </c>
+      <c r="W540" s="57" t="s">
+        <v>1961</v>
+      </c>
+      <c r="X540" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="Y540" s="57">
+        <v>1611619200</v>
+      </c>
+      <c r="Z540" s="57">
+        <v>1612195199</v>
+      </c>
+      <c r="AA540" s="57">
+        <v>75</v>
+      </c>
+      <c r="AH540" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI540" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL540" s="57">
+        <v>1</v>
+      </c>
+      <c r="AM540" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:39" s="57" customFormat="1">
+      <c r="A541" s="5">
+        <v>540</v>
+      </c>
+      <c r="B541" s="57">
+        <v>10457</v>
+      </c>
+      <c r="F541" s="57">
+        <v>1</v>
+      </c>
+      <c r="G541" s="57" t="s">
+        <v>1965</v>
+      </c>
+      <c r="I541" s="57" t="s">
+        <v>1968</v>
+      </c>
+      <c r="J541" s="57" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L541" s="57">
+        <v>-31</v>
+      </c>
+      <c r="M541" s="57">
+        <v>0</v>
+      </c>
+      <c r="N541" s="57">
+        <v>0</v>
+      </c>
+      <c r="O541" s="57" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P541" s="57">
+        <v>49800</v>
+      </c>
+      <c r="Q541" s="57" t="s">
+        <v>1330</v>
+      </c>
+      <c r="R541" s="58" t="s">
+        <v>1338</v>
+      </c>
+      <c r="W541" s="57" t="s">
+        <v>1961</v>
+      </c>
+      <c r="X541" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="Y541" s="57">
+        <v>1611619200</v>
+      </c>
+      <c r="Z541" s="57">
+        <v>1612195199</v>
+      </c>
+      <c r="AA541" s="57">
+        <v>75</v>
+      </c>
+      <c r="AH541" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI541" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL541" s="57">
+        <v>1</v>
+      </c>
+      <c r="AM541" s="57">
         <v>1</v>
       </c>
     </row>
@@ -45395,10 +46023,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -46410,13 +47038,13 @@
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="78" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C71" s="77">
-        <v>1</v>
-      </c>
-      <c r="D71" s="77">
+      <c r="B71" s="74" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C71" s="73">
+        <v>1</v>
+      </c>
+      <c r="D71" s="73">
         <v>0</v>
       </c>
     </row>
@@ -46424,13 +47052,13 @@
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="78" t="s">
-        <v>1944</v>
-      </c>
-      <c r="C72" s="77">
-        <v>1</v>
-      </c>
-      <c r="D72" s="77">
+      <c r="B72" s="74" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C72" s="73">
+        <v>1</v>
+      </c>
+      <c r="D72" s="73">
         <v>0</v>
       </c>
     </row>
@@ -46438,13 +47066,55 @@
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="78" t="s">
-        <v>1945</v>
-      </c>
-      <c r="C73" s="77">
-        <v>1</v>
-      </c>
-      <c r="D73" s="77">
+      <c r="B73" s="74" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C73" s="73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="12">
+        <v>73</v>
+      </c>
+      <c r="B74" s="74" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C74" s="73">
+        <v>1</v>
+      </c>
+      <c r="D74" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="12">
+        <v>74</v>
+      </c>
+      <c r="B75" s="74" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C75" s="73">
+        <v>1</v>
+      </c>
+      <c r="D75" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="12">
+        <v>75</v>
+      </c>
+      <c r="B76" s="74" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C76" s="73">
+        <v>1</v>
+      </c>
+      <c r="D76" s="73">
         <v>0</v>
       </c>
     </row>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4410" uniqueCount="1977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="1978">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8439,10 +8439,22 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>{type="permission_class",class_value = "golden_egg_1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_2" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>600000,20000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{type="permission_class",class_value = "fclb_free_001" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8452,14 +8464,6 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "golden_egg_1" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "golden_egg_2" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -8542,7 +8546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8621,6 +8625,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8664,7 +8674,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8900,6 +8910,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11333,13 +11352,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN541"/>
+  <dimension ref="A1:AN548"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W509" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W524" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA541" sqref="AA541"/>
+      <selection pane="bottomRight" activeCell="AA543" sqref="AA543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -44623,7 +44642,7 @@
         <v>1933</v>
       </c>
       <c r="R521" s="10" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="W521" s="5" t="s">
         <v>1948</v>
@@ -45401,619 +45420,1140 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:39" s="57" customFormat="1">
+    <row r="533" spans="1:39" s="5" customFormat="1">
       <c r="A533" s="5">
         <v>532</v>
       </c>
-      <c r="B533" s="57">
+      <c r="B533" s="5">
         <v>10449</v>
       </c>
-      <c r="F533" s="57">
-        <v>1</v>
-      </c>
-      <c r="G533" s="57" t="s">
+      <c r="F533" s="5">
+        <v>1</v>
+      </c>
+      <c r="G533" s="5" t="s">
         <v>1963</v>
       </c>
-      <c r="I533" s="57" t="s">
+      <c r="I533" s="5" t="s">
         <v>1285</v>
       </c>
-      <c r="J533" s="57" t="s">
+      <c r="J533" s="5" t="s">
         <v>1312</v>
       </c>
-      <c r="L533" s="57">
+      <c r="L533" s="5">
         <v>-31</v>
       </c>
-      <c r="M533" s="57">
-        <v>0</v>
-      </c>
-      <c r="N533" s="57">
-        <v>0</v>
-      </c>
-      <c r="O533" s="57" t="s">
+      <c r="M533" s="5">
+        <v>0</v>
+      </c>
+      <c r="N533" s="5">
+        <v>0</v>
+      </c>
+      <c r="O533" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P533" s="57">
+      <c r="P533" s="5">
         <v>1800</v>
       </c>
-      <c r="Q533" s="57" t="s">
+      <c r="Q533" s="5" t="s">
         <v>1969</v>
       </c>
-      <c r="R533" s="58" t="s">
+      <c r="R533" s="10" t="s">
         <v>1331</v>
       </c>
-      <c r="W533" s="57" t="s">
+      <c r="W533" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="X533" s="57">
+      <c r="X533" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y533" s="57">
+      <c r="Y533" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z533" s="57">
+      <c r="Z533" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA533" s="57">
         <v>73</v>
       </c>
-      <c r="AH533" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI533" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL533" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM533" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="1:39" s="57" customFormat="1">
+      <c r="AH533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM533" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:39" s="5" customFormat="1">
       <c r="A534" s="5">
         <v>533</v>
       </c>
-      <c r="B534" s="57">
+      <c r="B534" s="5">
         <v>10450</v>
       </c>
-      <c r="F534" s="57">
-        <v>1</v>
-      </c>
-      <c r="G534" s="57" t="s">
+      <c r="F534" s="5">
+        <v>1</v>
+      </c>
+      <c r="G534" s="5" t="s">
         <v>1964</v>
       </c>
-      <c r="I534" s="57" t="s">
+      <c r="I534" s="5" t="s">
         <v>1285</v>
       </c>
-      <c r="J534" s="57" t="s">
+      <c r="J534" s="5" t="s">
         <v>1313</v>
       </c>
-      <c r="L534" s="57">
+      <c r="L534" s="5">
         <v>-31</v>
       </c>
-      <c r="M534" s="57">
-        <v>0</v>
-      </c>
-      <c r="N534" s="57">
-        <v>0</v>
-      </c>
-      <c r="O534" s="57" t="s">
+      <c r="M534" s="5">
+        <v>0</v>
+      </c>
+      <c r="N534" s="5">
+        <v>0</v>
+      </c>
+      <c r="O534" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P534" s="57">
+      <c r="P534" s="5">
         <v>3000</v>
       </c>
-      <c r="Q534" s="57" t="s">
+      <c r="Q534" s="5" t="s">
         <v>1324</v>
       </c>
-      <c r="R534" s="58" t="s">
+      <c r="R534" s="10" t="s">
         <v>1332</v>
       </c>
-      <c r="W534" s="57" t="s">
+      <c r="W534" s="5" t="s">
         <v>1966</v>
       </c>
-      <c r="X534" s="57">
+      <c r="X534" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y534" s="57">
+      <c r="Y534" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z534" s="57">
+      <c r="Z534" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA534" s="57">
         <v>73</v>
       </c>
-      <c r="AH534" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI534" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL534" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM534" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:39" s="57" customFormat="1">
+      <c r="AH534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM534" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:39" s="5" customFormat="1">
       <c r="A535" s="5">
         <v>534</v>
       </c>
-      <c r="B535" s="57">
+      <c r="B535" s="5">
         <v>10451</v>
       </c>
-      <c r="F535" s="57">
-        <v>1</v>
-      </c>
-      <c r="G535" s="57" t="s">
+      <c r="F535" s="5">
+        <v>1</v>
+      </c>
+      <c r="G535" s="5" t="s">
         <v>1965</v>
       </c>
-      <c r="I535" s="57" t="s">
+      <c r="I535" s="5" t="s">
         <v>1285</v>
       </c>
-      <c r="J535" s="57" t="s">
+      <c r="J535" s="5" t="s">
         <v>1314</v>
       </c>
-      <c r="L535" s="57">
+      <c r="L535" s="5">
         <v>-31</v>
       </c>
-      <c r="M535" s="57">
-        <v>0</v>
-      </c>
-      <c r="N535" s="57">
-        <v>0</v>
-      </c>
-      <c r="O535" s="57" t="s">
+      <c r="M535" s="5">
+        <v>0</v>
+      </c>
+      <c r="N535" s="5">
+        <v>0</v>
+      </c>
+      <c r="O535" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P535" s="57">
+      <c r="P535" s="5">
         <v>4800</v>
       </c>
-      <c r="Q535" s="57" t="s">
+      <c r="Q535" s="5" t="s">
         <v>1325</v>
       </c>
-      <c r="R535" s="58" t="s">
+      <c r="R535" s="10" t="s">
         <v>1333</v>
       </c>
-      <c r="W535" s="57" t="s">
+      <c r="W535" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="X535" s="57">
+      <c r="X535" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y535" s="57">
+      <c r="Y535" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z535" s="57">
+      <c r="Z535" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA535" s="57">
         <v>73</v>
       </c>
-      <c r="AH535" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI535" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL535" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM535" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536" spans="1:39" s="55" customFormat="1">
+      <c r="AH535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM535" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:39" s="5" customFormat="1">
       <c r="A536" s="5">
         <v>535</v>
       </c>
-      <c r="B536" s="55">
+      <c r="B536" s="5">
         <v>10452</v>
       </c>
-      <c r="F536" s="55">
-        <v>1</v>
-      </c>
-      <c r="G536" s="55" t="s">
+      <c r="F536" s="5">
+        <v>1</v>
+      </c>
+      <c r="G536" s="5" t="s">
         <v>1963</v>
       </c>
-      <c r="I536" s="55" t="s">
+      <c r="I536" s="5" t="s">
         <v>1217</v>
       </c>
-      <c r="J536" s="55" t="s">
+      <c r="J536" s="5" t="s">
         <v>1315</v>
       </c>
-      <c r="L536" s="55">
+      <c r="L536" s="5">
         <v>-31</v>
       </c>
-      <c r="M536" s="55">
-        <v>0</v>
-      </c>
-      <c r="N536" s="55">
-        <v>0</v>
-      </c>
-      <c r="O536" s="55" t="s">
+      <c r="M536" s="5">
+        <v>0</v>
+      </c>
+      <c r="N536" s="5">
+        <v>0</v>
+      </c>
+      <c r="O536" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P536" s="55">
+      <c r="P536" s="5">
         <v>4800</v>
       </c>
-      <c r="Q536" s="55" t="s">
+      <c r="Q536" s="5" t="s">
         <v>1326</v>
       </c>
-      <c r="R536" s="56" t="s">
+      <c r="R536" s="10" t="s">
         <v>1333</v>
       </c>
-      <c r="W536" s="55" t="s">
+      <c r="W536" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="X536" s="55">
+      <c r="X536" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y536" s="55">
+      <c r="Y536" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z536" s="55">
+      <c r="Z536" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA536" s="55">
         <v>74</v>
       </c>
-      <c r="AH536" s="55">
-        <v>1</v>
-      </c>
-      <c r="AI536" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL536" s="55">
-        <v>1</v>
-      </c>
-      <c r="AM536" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="1:39" s="55" customFormat="1">
+      <c r="AH536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM536" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:39" s="5" customFormat="1">
       <c r="A537" s="5">
         <v>536</v>
       </c>
-      <c r="B537" s="55">
+      <c r="B537" s="5">
         <v>10453</v>
       </c>
-      <c r="F537" s="55">
-        <v>1</v>
-      </c>
-      <c r="G537" s="55" t="s">
+      <c r="F537" s="5">
+        <v>1</v>
+      </c>
+      <c r="G537" s="5" t="s">
         <v>1964</v>
       </c>
-      <c r="I537" s="55" t="s">
+      <c r="I537" s="5" t="s">
         <v>1217</v>
       </c>
-      <c r="J537" s="55" t="s">
+      <c r="J537" s="5" t="s">
         <v>1316</v>
       </c>
-      <c r="L537" s="55">
+      <c r="L537" s="5">
         <v>-31</v>
       </c>
-      <c r="M537" s="55">
-        <v>0</v>
-      </c>
-      <c r="N537" s="55">
-        <v>0</v>
-      </c>
-      <c r="O537" s="55" t="s">
+      <c r="M537" s="5">
+        <v>0</v>
+      </c>
+      <c r="N537" s="5">
+        <v>0</v>
+      </c>
+      <c r="O537" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P537" s="55">
+      <c r="P537" s="5">
         <v>9800</v>
       </c>
-      <c r="Q537" s="55" t="s">
+      <c r="Q537" s="5" t="s">
         <v>1327</v>
       </c>
-      <c r="R537" s="56" t="s">
+      <c r="R537" s="10" t="s">
         <v>1335</v>
       </c>
-      <c r="W537" s="55" t="s">
+      <c r="W537" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="X537" s="55">
+      <c r="X537" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y537" s="55">
+      <c r="Y537" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z537" s="55">
+      <c r="Z537" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA537" s="55">
         <v>74</v>
       </c>
-      <c r="AH537" s="55">
-        <v>1</v>
-      </c>
-      <c r="AI537" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL537" s="55">
-        <v>1</v>
-      </c>
-      <c r="AM537" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538" spans="1:39" s="55" customFormat="1">
+      <c r="AH537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM537" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:39" s="5" customFormat="1">
       <c r="A538" s="5">
         <v>537</v>
       </c>
-      <c r="B538" s="55">
+      <c r="B538" s="5">
         <v>10454</v>
       </c>
-      <c r="F538" s="55">
-        <v>1</v>
-      </c>
-      <c r="G538" s="55" t="s">
+      <c r="F538" s="5">
+        <v>1</v>
+      </c>
+      <c r="G538" s="5" t="s">
         <v>1965</v>
       </c>
-      <c r="I538" s="55" t="s">
+      <c r="I538" s="5" t="s">
         <v>1217</v>
       </c>
-      <c r="J538" s="55" t="s">
+      <c r="J538" s="5" t="s">
         <v>1317</v>
       </c>
-      <c r="L538" s="55">
+      <c r="L538" s="5">
         <v>-31</v>
       </c>
-      <c r="M538" s="55">
-        <v>0</v>
-      </c>
-      <c r="N538" s="55">
-        <v>0</v>
-      </c>
-      <c r="O538" s="55" t="s">
+      <c r="M538" s="5">
+        <v>0</v>
+      </c>
+      <c r="N538" s="5">
+        <v>0</v>
+      </c>
+      <c r="O538" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P538" s="55">
+      <c r="P538" s="5">
         <v>19800</v>
       </c>
-      <c r="Q538" s="55" t="s">
+      <c r="Q538" s="5" t="s">
         <v>1328</v>
       </c>
-      <c r="R538" s="56" t="s">
+      <c r="R538" s="10" t="s">
         <v>1336</v>
       </c>
-      <c r="W538" s="55" t="s">
+      <c r="W538" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="X538" s="55">
+      <c r="X538" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y538" s="55">
+      <c r="Y538" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z538" s="55">
+      <c r="Z538" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA538" s="55">
         <v>74</v>
       </c>
-      <c r="AH538" s="55">
-        <v>1</v>
-      </c>
-      <c r="AI538" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL538" s="55">
-        <v>1</v>
-      </c>
-      <c r="AM538" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539" spans="1:39" s="57" customFormat="1">
+      <c r="AH538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM538" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:39" s="5" customFormat="1">
       <c r="A539" s="5">
         <v>538</v>
       </c>
-      <c r="B539" s="57">
+      <c r="B539" s="5">
         <v>10455</v>
       </c>
-      <c r="F539" s="57">
-        <v>1</v>
-      </c>
-      <c r="G539" s="57" t="s">
+      <c r="F539" s="5">
+        <v>1</v>
+      </c>
+      <c r="G539" s="5" t="s">
         <v>1963</v>
       </c>
-      <c r="I539" s="57" t="s">
+      <c r="I539" s="5" t="s">
         <v>1967</v>
       </c>
-      <c r="J539" s="57" t="s">
+      <c r="J539" s="5" t="s">
         <v>1318</v>
       </c>
-      <c r="L539" s="57">
+      <c r="L539" s="5">
         <v>-31</v>
       </c>
-      <c r="M539" s="57">
-        <v>0</v>
-      </c>
-      <c r="N539" s="57">
-        <v>0</v>
-      </c>
-      <c r="O539" s="57" t="s">
+      <c r="M539" s="5">
+        <v>0</v>
+      </c>
+      <c r="N539" s="5">
+        <v>0</v>
+      </c>
+      <c r="O539" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P539" s="57">
+      <c r="P539" s="5">
         <v>9800</v>
       </c>
-      <c r="Q539" s="57" t="s">
+      <c r="Q539" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="R539" s="58" t="s">
+      <c r="R539" s="10" t="s">
         <v>1337</v>
       </c>
-      <c r="W539" s="57" t="s">
+      <c r="W539" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="X539" s="57">
+      <c r="X539" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y539" s="57">
+      <c r="Y539" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z539" s="57">
+      <c r="Z539" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA539" s="57">
         <v>75</v>
       </c>
-      <c r="AH539" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI539" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL539" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM539" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540" spans="1:39" s="57" customFormat="1">
+      <c r="AH539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM539" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:39" s="5" customFormat="1">
       <c r="A540" s="5">
         <v>539</v>
       </c>
-      <c r="B540" s="57">
+      <c r="B540" s="5">
         <v>10456</v>
       </c>
-      <c r="F540" s="57">
-        <v>1</v>
-      </c>
-      <c r="G540" s="57" t="s">
+      <c r="F540" s="5">
+        <v>1</v>
+      </c>
+      <c r="G540" s="5" t="s">
         <v>1964</v>
       </c>
-      <c r="I540" s="57" t="s">
+      <c r="I540" s="5" t="s">
         <v>1968</v>
       </c>
-      <c r="J540" s="57" t="s">
+      <c r="J540" s="5" t="s">
         <v>1319</v>
       </c>
-      <c r="L540" s="57">
+      <c r="L540" s="5">
         <v>-31</v>
       </c>
-      <c r="M540" s="57">
-        <v>0</v>
-      </c>
-      <c r="N540" s="57">
-        <v>0</v>
-      </c>
-      <c r="O540" s="57" t="s">
+      <c r="M540" s="5">
+        <v>0</v>
+      </c>
+      <c r="N540" s="5">
+        <v>0</v>
+      </c>
+      <c r="O540" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P540" s="57">
+      <c r="P540" s="5">
         <v>19800</v>
       </c>
-      <c r="Q540" s="57" t="s">
+      <c r="Q540" s="5" t="s">
         <v>1329</v>
       </c>
-      <c r="R540" s="58" t="s">
+      <c r="R540" s="10" t="s">
         <v>1336</v>
       </c>
-      <c r="W540" s="57" t="s">
+      <c r="W540" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="X540" s="57">
+      <c r="X540" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y540" s="57">
+      <c r="Y540" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z540" s="57">
+      <c r="Z540" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA540" s="57">
         <v>75</v>
       </c>
-      <c r="AH540" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI540" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL540" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM540" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541" spans="1:39" s="57" customFormat="1">
+      <c r="AH540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM540" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:39" s="5" customFormat="1">
       <c r="A541" s="5">
         <v>540</v>
       </c>
-      <c r="B541" s="57">
+      <c r="B541" s="5">
         <v>10457</v>
       </c>
-      <c r="F541" s="57">
-        <v>1</v>
-      </c>
-      <c r="G541" s="57" t="s">
+      <c r="F541" s="5">
+        <v>1</v>
+      </c>
+      <c r="G541" s="5" t="s">
         <v>1965</v>
       </c>
-      <c r="I541" s="57" t="s">
+      <c r="I541" s="5" t="s">
         <v>1968</v>
       </c>
-      <c r="J541" s="57" t="s">
+      <c r="J541" s="5" t="s">
         <v>1320</v>
       </c>
-      <c r="L541" s="57">
+      <c r="L541" s="5">
         <v>-31</v>
       </c>
-      <c r="M541" s="57">
-        <v>0</v>
-      </c>
-      <c r="N541" s="57">
-        <v>0</v>
-      </c>
-      <c r="O541" s="57" t="s">
+      <c r="M541" s="5">
+        <v>0</v>
+      </c>
+      <c r="N541" s="5">
+        <v>0</v>
+      </c>
+      <c r="O541" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P541" s="57">
+      <c r="P541" s="5">
         <v>49800</v>
       </c>
-      <c r="Q541" s="57" t="s">
+      <c r="Q541" s="5" t="s">
         <v>1330</v>
       </c>
-      <c r="R541" s="58" t="s">
+      <c r="R541" s="10" t="s">
         <v>1338</v>
       </c>
-      <c r="W541" s="57" t="s">
+      <c r="W541" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="X541" s="57">
+      <c r="X541" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y541" s="57">
+      <c r="Y541" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z541" s="57">
+      <c r="Z541" s="5">
         <v>1612195199</v>
       </c>
       <c r="AA541" s="57">
         <v>75</v>
       </c>
-      <c r="AH541" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI541" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL541" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM541" s="57">
+      <c r="AH541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM541" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25">
+      <c r="A542" s="5">
+        <v>541</v>
+      </c>
+      <c r="B542" s="79">
+        <v>10458</v>
+      </c>
+      <c r="C542" s="79"/>
+      <c r="D542" s="79"/>
+      <c r="E542" s="79"/>
+      <c r="F542" s="79">
+        <v>1</v>
+      </c>
+      <c r="G542" s="79" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H542" s="79"/>
+      <c r="I542" s="79" t="s">
+        <v>1973</v>
+      </c>
+      <c r="J542" s="79" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K542" s="79"/>
+      <c r="L542" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M542" s="79">
+        <v>0</v>
+      </c>
+      <c r="N542" s="79">
+        <v>0</v>
+      </c>
+      <c r="O542" s="79" t="s">
+        <v>494</v>
+      </c>
+      <c r="P542" s="79">
+        <v>99800</v>
+      </c>
+      <c r="Q542" s="79" t="s">
+        <v>1707</v>
+      </c>
+      <c r="R542" s="80" t="s">
+        <v>1387</v>
+      </c>
+      <c r="S542" s="79"/>
+      <c r="T542" s="79"/>
+      <c r="U542" s="79"/>
+      <c r="V542" s="79"/>
+      <c r="W542" s="79" t="s">
+        <v>592</v>
+      </c>
+      <c r="X542" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y542" s="81">
+        <v>1612224000</v>
+      </c>
+      <c r="Z542" s="81">
+        <v>1612799999</v>
+      </c>
+      <c r="AH542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25">
+      <c r="A543" s="5">
+        <v>542</v>
+      </c>
+      <c r="B543" s="79">
+        <v>10459</v>
+      </c>
+      <c r="C543" s="79"/>
+      <c r="D543" s="79"/>
+      <c r="E543" s="79"/>
+      <c r="F543" s="79">
+        <v>1</v>
+      </c>
+      <c r="G543" s="79" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H543" s="79"/>
+      <c r="I543" s="79" t="s">
+        <v>1973</v>
+      </c>
+      <c r="J543" s="79" t="s">
+        <v>1476</v>
+      </c>
+      <c r="K543" s="79"/>
+      <c r="L543" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M543" s="79">
+        <v>0</v>
+      </c>
+      <c r="N543" s="79">
+        <v>0</v>
+      </c>
+      <c r="O543" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P543" s="79">
+        <v>49800</v>
+      </c>
+      <c r="Q543" s="79" t="s">
+        <v>1707</v>
+      </c>
+      <c r="R543" s="80" t="s">
+        <v>1386</v>
+      </c>
+      <c r="S543" s="79"/>
+      <c r="T543" s="79"/>
+      <c r="U543" s="79"/>
+      <c r="V543" s="79"/>
+      <c r="W543" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="X543" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y543" s="81">
+        <v>1612224000</v>
+      </c>
+      <c r="Z543" s="81">
+        <v>1612799999</v>
+      </c>
+      <c r="AH543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25">
+      <c r="A544" s="5">
+        <v>543</v>
+      </c>
+      <c r="B544" s="79">
+        <v>10460</v>
+      </c>
+      <c r="C544" s="79"/>
+      <c r="D544" s="79"/>
+      <c r="E544" s="79"/>
+      <c r="F544" s="79">
+        <v>1</v>
+      </c>
+      <c r="G544" s="79" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H544" s="79"/>
+      <c r="I544" s="79" t="s">
+        <v>1973</v>
+      </c>
+      <c r="J544" s="79" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K544" s="79"/>
+      <c r="L544" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M544" s="79">
+        <v>0</v>
+      </c>
+      <c r="N544" s="79">
+        <v>0</v>
+      </c>
+      <c r="O544" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P544" s="79">
+        <v>29800</v>
+      </c>
+      <c r="Q544" s="79" t="s">
+        <v>1499</v>
+      </c>
+      <c r="R544" s="80" t="s">
+        <v>1391</v>
+      </c>
+      <c r="S544" s="79"/>
+      <c r="T544" s="79"/>
+      <c r="U544" s="79"/>
+      <c r="V544" s="79"/>
+      <c r="W544" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="X544" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y544" s="81">
+        <v>1612224000</v>
+      </c>
+      <c r="Z544" s="81">
+        <v>1612799999</v>
+      </c>
+      <c r="AH544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25">
+      <c r="A545" s="5">
+        <v>544</v>
+      </c>
+      <c r="B545" s="79">
+        <v>10461</v>
+      </c>
+      <c r="C545" s="79"/>
+      <c r="D545" s="79"/>
+      <c r="E545" s="79"/>
+      <c r="F545" s="79">
+        <v>1</v>
+      </c>
+      <c r="G545" s="79" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H545" s="79"/>
+      <c r="I545" s="79" t="s">
+        <v>1973</v>
+      </c>
+      <c r="J545" s="79" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K545" s="79"/>
+      <c r="L545" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M545" s="79">
+        <v>0</v>
+      </c>
+      <c r="N545" s="79">
+        <v>0</v>
+      </c>
+      <c r="O545" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P545" s="79">
+        <v>19800</v>
+      </c>
+      <c r="Q545" s="79" t="s">
+        <v>1499</v>
+      </c>
+      <c r="R545" s="80" t="s">
+        <v>1384</v>
+      </c>
+      <c r="S545" s="79"/>
+      <c r="T545" s="79"/>
+      <c r="U545" s="79"/>
+      <c r="V545" s="79"/>
+      <c r="W545" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="X545" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y545" s="81">
+        <v>1612224000</v>
+      </c>
+      <c r="Z545" s="81">
+        <v>1612799999</v>
+      </c>
+      <c r="AH545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25">
+      <c r="A546" s="5">
+        <v>545</v>
+      </c>
+      <c r="B546" s="79">
+        <v>10462</v>
+      </c>
+      <c r="C546" s="79"/>
+      <c r="D546" s="79"/>
+      <c r="E546" s="79"/>
+      <c r="F546" s="79">
+        <v>1</v>
+      </c>
+      <c r="G546" s="79" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H546" s="79"/>
+      <c r="I546" s="79" t="s">
+        <v>1973</v>
+      </c>
+      <c r="J546" s="79" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K546" s="79"/>
+      <c r="L546" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M546" s="79">
+        <v>0</v>
+      </c>
+      <c r="N546" s="79">
+        <v>0</v>
+      </c>
+      <c r="O546" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P546" s="79">
+        <v>9800</v>
+      </c>
+      <c r="Q546" s="79" t="s">
+        <v>1499</v>
+      </c>
+      <c r="R546" s="80" t="s">
+        <v>1390</v>
+      </c>
+      <c r="S546" s="79"/>
+      <c r="T546" s="79"/>
+      <c r="U546" s="79"/>
+      <c r="V546" s="79"/>
+      <c r="W546" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="X546" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y546" s="81">
+        <v>1612224000</v>
+      </c>
+      <c r="Z546" s="81">
+        <v>1612799999</v>
+      </c>
+      <c r="AH546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25">
+      <c r="A547" s="5">
+        <v>546</v>
+      </c>
+      <c r="B547" s="79">
+        <v>10463</v>
+      </c>
+      <c r="C547" s="79"/>
+      <c r="D547" s="79"/>
+      <c r="E547" s="79"/>
+      <c r="F547" s="79">
+        <v>1</v>
+      </c>
+      <c r="G547" s="79" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H547" s="79"/>
+      <c r="I547" s="79" t="s">
+        <v>1973</v>
+      </c>
+      <c r="J547" s="79" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K547" s="79"/>
+      <c r="L547" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M547" s="79">
+        <v>0</v>
+      </c>
+      <c r="N547" s="79">
+        <v>0</v>
+      </c>
+      <c r="O547" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P547" s="79">
+        <v>4800</v>
+      </c>
+      <c r="Q547" s="79" t="s">
+        <v>1705</v>
+      </c>
+      <c r="R547" s="80" t="s">
+        <v>1385</v>
+      </c>
+      <c r="S547" s="79"/>
+      <c r="T547" s="79"/>
+      <c r="U547" s="79"/>
+      <c r="V547" s="79"/>
+      <c r="W547" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="X547" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y547" s="81">
+        <v>1612224000</v>
+      </c>
+      <c r="Z547" s="81">
+        <v>1612799999</v>
+      </c>
+      <c r="AH547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25">
+      <c r="A548" s="5">
+        <v>547</v>
+      </c>
+      <c r="B548" s="79">
+        <v>10464</v>
+      </c>
+      <c r="C548" s="79"/>
+      <c r="D548" s="79"/>
+      <c r="E548" s="79"/>
+      <c r="F548" s="79">
+        <v>1</v>
+      </c>
+      <c r="G548" s="79" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H548" s="79"/>
+      <c r="I548" s="79" t="s">
+        <v>1973</v>
+      </c>
+      <c r="J548" s="79" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K548" s="79"/>
+      <c r="L548" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M548" s="79">
+        <v>0</v>
+      </c>
+      <c r="N548" s="79">
+        <v>0</v>
+      </c>
+      <c r="O548" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P548" s="79">
+        <v>1800</v>
+      </c>
+      <c r="Q548" s="79" t="s">
+        <v>1705</v>
+      </c>
+      <c r="R548" s="80" t="s">
+        <v>1389</v>
+      </c>
+      <c r="S548" s="79"/>
+      <c r="T548" s="79"/>
+      <c r="U548" s="79"/>
+      <c r="V548" s="79"/>
+      <c r="W548" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="X548" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y548" s="81">
+        <v>1612224000</v>
+      </c>
+      <c r="Z548" s="81">
+        <v>1612799999</v>
+      </c>
+      <c r="AH548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A542:AN548">
+    <sortCondition descending="1" ref="A542"/>
+  </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46026,7 +46566,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -47039,7 +47579,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="74" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="C71" s="73">
         <v>1</v>
@@ -47053,7 +47593,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="74" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="C72" s="73">
         <v>1</v>
@@ -47067,7 +47607,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="74" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="C73" s="73">
         <v>1</v>
@@ -47081,7 +47621,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="74" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="C74" s="73">
         <v>1</v>
@@ -47095,7 +47635,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="74" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="C75" s="73">
         <v>1</v>
@@ -47109,7 +47649,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="74" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="C76" s="73">
         <v>1</v>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4678" uniqueCount="2060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4720" uniqueCount="2083">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8661,121 +8661,212 @@
     <t>商城内充值满98抵扣10元</t>
   </si>
   <si>
+    <t>商城内充值满198抵扣20元</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_20_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满498抵扣50元</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_50_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满998抵扣100元</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_100_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满2498抵扣200元</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_200_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币",</t>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+  </si>
+  <si>
+    <t>"24980万金币",</t>
+  </si>
+  <si>
+    <t>5000000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>249800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_jbzk_special_item",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2090万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>春暖花开·桃花礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>春暖花开·桃花礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","抽奖券*30","桃花*300",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万金币","抽奖券*15","桃花*150",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"485万金币","抽奖券*8","桃花*80",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币","抽奖券*4","桃花*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","抽奖券*1","桃花*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi","obj_10_coupon",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>商城内充值满198抵扣20元</t>
-  </si>
-  <si>
-    <t>"jing_bi","obj_20_coupon",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城内充值满498抵扣50元</t>
-  </si>
-  <si>
-    <t>"jing_bi","obj_50_coupon",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城内充值满998抵扣100元</t>
-  </si>
-  <si>
-    <t>"jing_bi","obj_100_coupon",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城内充值满2498抵扣200元</t>
-  </si>
-  <si>
-    <t>"jing_bi","obj_200_coupon",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"500万金币",</t>
-  </si>
-  <si>
-    <t>"980万金币",</t>
-  </si>
-  <si>
-    <t>"1980万金币",</t>
-  </si>
-  <si>
-    <t>"4980万金币",</t>
-  </si>
-  <si>
-    <t>"9980万金币",</t>
-  </si>
-  <si>
-    <t>"24980万金币",</t>
-  </si>
-  <si>
-    <t>5000000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>99800000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_free_002" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_002" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币周卡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币周卡"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_jbzk_special_item",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2090万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币周卡",</t>
+    <t>5,100,0</t>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包20元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5080万金币","抽奖券*50","桃花*800",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_fish_drop_act_0","_common_rank_cnhk_009_thphb_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50800000,50,800,800</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,30,300,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,15,150,150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4850000,8,80,80</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,30,30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,20,20</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -15124,13 +15215,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN580"/>
+  <dimension ref="A1:AN586"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H557" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P566" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J580" sqref="J580"/>
+      <selection pane="bottomRight" activeCell="R589" sqref="R589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -15150,7 +15241,7 @@
     <col min="13" max="14" width="14.75" style="6" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="6" customWidth="1"/>
     <col min="16" max="16" width="13.5" style="6" customWidth="1"/>
-    <col min="17" max="17" width="82.875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="92.625" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30.125" style="81" customWidth="1"/>
     <col min="19" max="19" width="40.5" style="6" customWidth="1"/>
     <col min="20" max="20" width="46" style="6" customWidth="1"/>
@@ -41958,7 +42049,7 @@
         <v>1488</v>
       </c>
       <c r="W422" s="66" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="X422" s="66">
         <v>99999999</v>
@@ -50300,7 +50391,7 @@
         <v>1983</v>
       </c>
       <c r="W549" s="5" t="s">
-        <v>1529</v>
+        <v>2068</v>
       </c>
       <c r="X549" s="5">
         <v>9999999</v>
@@ -51349,7 +51440,7 @@
         <v>1999</v>
       </c>
       <c r="J565" s="5" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="L565" s="5">
         <v>-25</v>
@@ -51398,547 +51489,547 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:39" s="22" customFormat="1">
+    <row r="566" spans="1:39" s="5" customFormat="1">
       <c r="A566" s="5">
         <v>565</v>
       </c>
       <c r="B566" s="5">
         <v>10482</v>
       </c>
-      <c r="F566" s="22">
-        <v>1</v>
-      </c>
-      <c r="G566" s="22" t="s">
+      <c r="F566" s="5">
+        <v>0</v>
+      </c>
+      <c r="G566" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I566" s="22" t="s">
+      <c r="I566" s="5" t="s">
         <v>2017</v>
       </c>
-      <c r="J566" s="22" t="s">
+      <c r="J566" s="5" t="s">
         <v>1886</v>
       </c>
-      <c r="L566" s="22">
+      <c r="L566" s="5">
         <v>-33</v>
       </c>
-      <c r="M566" s="22">
-        <v>0</v>
-      </c>
-      <c r="N566" s="22">
-        <v>0</v>
-      </c>
-      <c r="O566" s="22" t="s">
+      <c r="M566" s="5">
+        <v>0</v>
+      </c>
+      <c r="N566" s="5">
+        <v>0</v>
+      </c>
+      <c r="O566" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P566" s="22">
+      <c r="P566" s="5">
         <v>49800</v>
       </c>
-      <c r="Q566" s="22" t="s">
+      <c r="Q566" s="5" t="s">
         <v>2018</v>
       </c>
-      <c r="R566" s="71" t="s">
+      <c r="R566" s="70" t="s">
         <v>1874</v>
       </c>
-      <c r="W566" s="22" t="s">
+      <c r="W566" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X566" s="22">
+      <c r="X566" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y566" s="22">
+      <c r="Y566" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z566" s="22">
+      <c r="Z566" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA566" s="22">
+      <c r="AA566" s="5">
         <v>68</v>
       </c>
-      <c r="AH566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM566" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567" spans="1:39" s="22" customFormat="1">
+      <c r="AH566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM566" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:39" s="5" customFormat="1">
       <c r="A567" s="5">
         <v>566</v>
       </c>
       <c r="B567" s="5">
         <v>10483</v>
       </c>
-      <c r="F567" s="22">
-        <v>1</v>
-      </c>
-      <c r="G567" s="22" t="s">
+      <c r="F567" s="5">
+        <v>0</v>
+      </c>
+      <c r="G567" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I567" s="22" t="s">
+      <c r="I567" s="5" t="s">
         <v>2017</v>
       </c>
-      <c r="J567" s="22" t="s">
+      <c r="J567" s="5" t="s">
         <v>1888</v>
       </c>
-      <c r="L567" s="22">
+      <c r="L567" s="5">
         <v>-33</v>
       </c>
-      <c r="M567" s="22">
-        <v>0</v>
-      </c>
-      <c r="N567" s="22">
-        <v>0</v>
-      </c>
-      <c r="O567" s="22" t="s">
+      <c r="M567" s="5">
+        <v>0</v>
+      </c>
+      <c r="N567" s="5">
+        <v>0</v>
+      </c>
+      <c r="O567" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P567" s="22">
+      <c r="P567" s="5">
         <v>19800</v>
       </c>
-      <c r="Q567" s="22" t="s">
+      <c r="Q567" s="5" t="s">
         <v>2018</v>
       </c>
-      <c r="R567" s="71" t="s">
+      <c r="R567" s="70" t="s">
         <v>1875</v>
       </c>
-      <c r="W567" s="22" t="s">
+      <c r="W567" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X567" s="22">
+      <c r="X567" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y567" s="22">
+      <c r="Y567" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z567" s="22">
+      <c r="Z567" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA567" s="22">
+      <c r="AA567" s="5">
         <v>68</v>
       </c>
-      <c r="AH567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM567" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="568" spans="1:39" s="22" customFormat="1">
+      <c r="AH567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM567" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:39" s="5" customFormat="1">
       <c r="A568" s="5">
         <v>567</v>
       </c>
       <c r="B568" s="5">
         <v>10484</v>
       </c>
-      <c r="F568" s="22">
-        <v>1</v>
-      </c>
-      <c r="G568" s="22" t="s">
+      <c r="F568" s="5">
+        <v>0</v>
+      </c>
+      <c r="G568" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I568" s="22" t="s">
+      <c r="I568" s="5" t="s">
         <v>2017</v>
       </c>
-      <c r="J568" s="22" t="s">
+      <c r="J568" s="5" t="s">
         <v>1869</v>
       </c>
-      <c r="L568" s="22">
+      <c r="L568" s="5">
         <v>-33</v>
       </c>
-      <c r="M568" s="22">
-        <v>0</v>
-      </c>
-      <c r="N568" s="22">
-        <v>0</v>
-      </c>
-      <c r="O568" s="22" t="s">
+      <c r="M568" s="5">
+        <v>0</v>
+      </c>
+      <c r="N568" s="5">
+        <v>0</v>
+      </c>
+      <c r="O568" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P568" s="22">
+      <c r="P568" s="5">
         <v>9800</v>
       </c>
-      <c r="Q568" s="22" t="s">
+      <c r="Q568" s="5" t="s">
         <v>2019</v>
       </c>
-      <c r="R568" s="71" t="s">
+      <c r="R568" s="70" t="s">
         <v>1876</v>
       </c>
-      <c r="W568" s="22" t="s">
+      <c r="W568" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X568" s="22">
+      <c r="X568" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y568" s="22">
+      <c r="Y568" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z568" s="22">
+      <c r="Z568" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA568" s="22">
+      <c r="AA568" s="5">
         <v>68</v>
       </c>
-      <c r="AH568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM568" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="569" spans="1:39" s="22" customFormat="1">
+      <c r="AH568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM568" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:39" s="5" customFormat="1">
       <c r="A569" s="5">
         <v>568</v>
       </c>
       <c r="B569" s="5">
         <v>10485</v>
       </c>
-      <c r="F569" s="22">
-        <v>1</v>
-      </c>
-      <c r="G569" s="22" t="s">
+      <c r="F569" s="5">
+        <v>0</v>
+      </c>
+      <c r="G569" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I569" s="22" t="s">
+      <c r="I569" s="5" t="s">
         <v>2017</v>
       </c>
-      <c r="J569" s="22" t="s">
+      <c r="J569" s="5" t="s">
         <v>1868</v>
       </c>
-      <c r="L569" s="22">
+      <c r="L569" s="5">
         <v>-33</v>
       </c>
-      <c r="M569" s="22">
-        <v>0</v>
-      </c>
-      <c r="N569" s="22">
-        <v>0</v>
-      </c>
-      <c r="O569" s="22" t="s">
+      <c r="M569" s="5">
+        <v>0</v>
+      </c>
+      <c r="N569" s="5">
+        <v>0</v>
+      </c>
+      <c r="O569" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P569" s="22">
+      <c r="P569" s="5">
         <v>4800</v>
       </c>
-      <c r="Q569" s="22" t="s">
+      <c r="Q569" s="5" t="s">
         <v>2020</v>
       </c>
-      <c r="R569" s="71" t="s">
+      <c r="R569" s="70" t="s">
         <v>1877</v>
       </c>
-      <c r="W569" s="22" t="s">
+      <c r="W569" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X569" s="22">
+      <c r="X569" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y569" s="22">
+      <c r="Y569" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z569" s="22">
+      <c r="Z569" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA569" s="22">
+      <c r="AA569" s="5">
         <v>68</v>
       </c>
-      <c r="AH569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM569" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="570" spans="1:39" s="22" customFormat="1">
+      <c r="AH569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM569" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:39" s="5" customFormat="1">
       <c r="A570" s="5">
         <v>569</v>
       </c>
       <c r="B570" s="5">
         <v>10486</v>
       </c>
-      <c r="F570" s="22">
-        <v>1</v>
-      </c>
-      <c r="G570" s="22" t="s">
+      <c r="F570" s="5">
+        <v>0</v>
+      </c>
+      <c r="G570" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I570" s="22" t="s">
+      <c r="I570" s="5" t="s">
         <v>2016</v>
       </c>
-      <c r="J570" s="22" t="s">
+      <c r="J570" s="5" t="s">
         <v>1892</v>
       </c>
-      <c r="L570" s="22">
+      <c r="L570" s="5">
         <v>-33</v>
       </c>
-      <c r="M570" s="22">
-        <v>0</v>
-      </c>
-      <c r="N570" s="22">
-        <v>0</v>
-      </c>
-      <c r="O570" s="22" t="s">
+      <c r="M570" s="5">
+        <v>0</v>
+      </c>
+      <c r="N570" s="5">
+        <v>0</v>
+      </c>
+      <c r="O570" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P570" s="22">
+      <c r="P570" s="5">
         <v>49800</v>
       </c>
-      <c r="Q570" s="22" t="s">
+      <c r="Q570" s="5" t="s">
         <v>2021</v>
       </c>
-      <c r="R570" s="71" t="s">
+      <c r="R570" s="70" t="s">
         <v>1895</v>
       </c>
-      <c r="W570" s="22" t="s">
+      <c r="W570" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X570" s="22">
+      <c r="X570" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y570" s="22">
+      <c r="Y570" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z570" s="22">
+      <c r="Z570" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA570" s="22">
+      <c r="AA570" s="5">
         <v>69</v>
       </c>
-      <c r="AH570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM570" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="571" spans="1:39" s="22" customFormat="1">
+      <c r="AH570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM570" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:39" s="5" customFormat="1">
       <c r="A571" s="5">
         <v>570</v>
       </c>
       <c r="B571" s="5">
         <v>10487</v>
       </c>
-      <c r="F571" s="22">
-        <v>1</v>
-      </c>
-      <c r="G571" s="22" t="s">
+      <c r="F571" s="5">
+        <v>0</v>
+      </c>
+      <c r="G571" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I571" s="22" t="s">
+      <c r="I571" s="5" t="s">
         <v>2016</v>
       </c>
-      <c r="J571" s="22" t="s">
+      <c r="J571" s="5" t="s">
         <v>1896</v>
       </c>
-      <c r="L571" s="22">
+      <c r="L571" s="5">
         <v>-33</v>
       </c>
-      <c r="M571" s="22">
-        <v>0</v>
-      </c>
-      <c r="N571" s="22">
-        <v>0</v>
-      </c>
-      <c r="O571" s="22" t="s">
+      <c r="M571" s="5">
+        <v>0</v>
+      </c>
+      <c r="N571" s="5">
+        <v>0</v>
+      </c>
+      <c r="O571" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P571" s="22">
+      <c r="P571" s="5">
         <v>19800</v>
       </c>
-      <c r="Q571" s="22" t="s">
+      <c r="Q571" s="5" t="s">
         <v>2021</v>
       </c>
-      <c r="R571" s="71" t="s">
+      <c r="R571" s="70" t="s">
         <v>1897</v>
       </c>
-      <c r="W571" s="22" t="s">
+      <c r="W571" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X571" s="22">
+      <c r="X571" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y571" s="22">
+      <c r="Y571" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z571" s="22">
+      <c r="Z571" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA571" s="22">
+      <c r="AA571" s="5">
         <v>69</v>
       </c>
-      <c r="AH571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM571" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="572" spans="1:39" s="22" customFormat="1">
+      <c r="AH571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM571" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:39" s="5" customFormat="1">
       <c r="A572" s="5">
         <v>571</v>
       </c>
       <c r="B572" s="5">
         <v>10488</v>
       </c>
-      <c r="F572" s="22">
-        <v>1</v>
-      </c>
-      <c r="G572" s="22" t="s">
+      <c r="F572" s="5">
+        <v>0</v>
+      </c>
+      <c r="G572" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I572" s="22" t="s">
+      <c r="I572" s="5" t="s">
         <v>2016</v>
       </c>
-      <c r="J572" s="22" t="s">
+      <c r="J572" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="L572" s="22">
+      <c r="L572" s="5">
         <v>-33</v>
       </c>
-      <c r="M572" s="22">
-        <v>0</v>
-      </c>
-      <c r="N572" s="22">
-        <v>0</v>
-      </c>
-      <c r="O572" s="22" t="s">
+      <c r="M572" s="5">
+        <v>0</v>
+      </c>
+      <c r="N572" s="5">
+        <v>0</v>
+      </c>
+      <c r="O572" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P572" s="22">
+      <c r="P572" s="5">
         <v>9800</v>
       </c>
-      <c r="Q572" s="22" t="s">
+      <c r="Q572" s="5" t="s">
         <v>2022</v>
       </c>
-      <c r="R572" s="71" t="s">
+      <c r="R572" s="70" t="s">
         <v>1881</v>
       </c>
-      <c r="W572" s="22" t="s">
+      <c r="W572" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X572" s="22">
+      <c r="X572" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y572" s="22">
+      <c r="Y572" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z572" s="22">
+      <c r="Z572" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA572" s="22">
+      <c r="AA572" s="5">
         <v>69</v>
       </c>
-      <c r="AH572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM572" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="573" spans="1:39" s="22" customFormat="1">
+      <c r="AH572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM572" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:39" s="5" customFormat="1">
       <c r="A573" s="5">
         <v>572</v>
       </c>
       <c r="B573" s="5">
         <v>10489</v>
       </c>
-      <c r="F573" s="22">
-        <v>1</v>
-      </c>
-      <c r="G573" s="22" t="s">
+      <c r="F573" s="5">
+        <v>0</v>
+      </c>
+      <c r="G573" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I573" s="22" t="s">
+      <c r="I573" s="5" t="s">
         <v>2016</v>
       </c>
-      <c r="J573" s="22" t="s">
+      <c r="J573" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="L573" s="22">
+      <c r="L573" s="5">
         <v>-33</v>
       </c>
-      <c r="M573" s="22">
-        <v>0</v>
-      </c>
-      <c r="N573" s="22">
-        <v>0</v>
-      </c>
-      <c r="O573" s="22" t="s">
+      <c r="M573" s="5">
+        <v>0</v>
+      </c>
+      <c r="N573" s="5">
+        <v>0</v>
+      </c>
+      <c r="O573" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P573" s="22">
+      <c r="P573" s="5">
         <v>4800</v>
       </c>
-      <c r="Q573" s="22" t="s">
+      <c r="Q573" s="5" t="s">
         <v>2023</v>
       </c>
-      <c r="R573" s="71" t="s">
+      <c r="R573" s="70" t="s">
         <v>1901</v>
       </c>
-      <c r="W573" s="22" t="s">
+      <c r="W573" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="X573" s="22">
+      <c r="X573" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y573" s="22">
+      <c r="Y573" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z573" s="22">
+      <c r="Z573" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA573" s="22">
+      <c r="AA573" s="5">
         <v>69</v>
       </c>
-      <c r="AH573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM573" s="22">
+      <c r="AH573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM573" s="5">
         <v>1</v>
       </c>
     </row>
@@ -51960,7 +52051,7 @@
       </c>
       <c r="H574" s="22"/>
       <c r="I574" s="22" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="J574" s="22"/>
       <c r="K574" s="22"/>
@@ -51983,7 +52074,7 @@
         <v>2026</v>
       </c>
       <c r="R574" s="82" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="S574" s="22"/>
       <c r="T574" s="22"/>
@@ -52032,7 +52123,7 @@
       </c>
       <c r="H575" s="22"/>
       <c r="I575" s="22" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="J575" s="22"/>
       <c r="K575" s="22"/>
@@ -52052,10 +52143,10 @@
         <v>8800</v>
       </c>
       <c r="Q575" s="22" t="s">
-        <v>2028</v>
+        <v>2066</v>
       </c>
       <c r="R575" s="82" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="S575" s="22"/>
       <c r="T575" s="22"/>
@@ -52100,11 +52191,11 @@
         <v>1</v>
       </c>
       <c r="G576" s="22" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="H576" s="22"/>
       <c r="I576" s="22" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="J576" s="22"/>
       <c r="K576" s="22"/>
@@ -52124,10 +52215,10 @@
         <v>17800</v>
       </c>
       <c r="Q576" s="22" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="R576" s="82" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="S576" s="22"/>
       <c r="T576" s="22"/>
@@ -52172,11 +52263,11 @@
         <v>1</v>
       </c>
       <c r="G577" s="22" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="H577" s="22"/>
       <c r="I577" s="22" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="J577" s="22"/>
       <c r="K577" s="22"/>
@@ -52196,10 +52287,10 @@
         <v>44800</v>
       </c>
       <c r="Q577" s="22" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="R577" s="82" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="S577" s="22"/>
       <c r="T577" s="22"/>
@@ -52244,11 +52335,11 @@
         <v>1</v>
       </c>
       <c r="G578" s="22" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="H578" s="22"/>
       <c r="I578" s="22" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="J578" s="22"/>
       <c r="K578" s="22"/>
@@ -52268,10 +52359,10 @@
         <v>89800</v>
       </c>
       <c r="Q578" s="22" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="R578" s="82" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="S578" s="22"/>
       <c r="T578" s="22"/>
@@ -52316,11 +52407,11 @@
         <v>1</v>
       </c>
       <c r="G579" s="22" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="H579" s="22"/>
       <c r="I579" s="22" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="J579" s="22"/>
       <c r="K579" s="22"/>
@@ -52340,10 +52431,10 @@
         <v>229800</v>
       </c>
       <c r="Q579" s="22" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="R579" s="82" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="S579" s="22"/>
       <c r="T579" s="22"/>
@@ -52385,13 +52476,13 @@
         <v>1</v>
       </c>
       <c r="G580" s="6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="I580" s="6" t="s">
         <v>2053</v>
       </c>
-      <c r="I580" s="6" t="s">
-        <v>2054</v>
-      </c>
       <c r="J580" s="6" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="L580" s="6">
         <v>-31</v>
@@ -52409,13 +52500,13 @@
         <v>1</v>
       </c>
       <c r="Q580" s="5" t="s">
+        <v>2054</v>
+      </c>
+      <c r="R580" s="81" t="s">
         <v>2055</v>
       </c>
-      <c r="R580" s="81" t="s">
+      <c r="W580" s="6" t="s">
         <v>2056</v>
-      </c>
-      <c r="W580" s="6" t="s">
-        <v>2057</v>
       </c>
       <c r="X580" s="6">
         <v>99999999</v>
@@ -52430,6 +52521,396 @@
         <v>1</v>
       </c>
       <c r="AI580" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:39" s="22" customFormat="1">
+      <c r="A581" s="22">
+        <v>580</v>
+      </c>
+      <c r="B581" s="22">
+        <v>10497</v>
+      </c>
+      <c r="F581" s="22">
+        <v>1</v>
+      </c>
+      <c r="G581" s="22" t="s">
+        <v>2060</v>
+      </c>
+      <c r="I581" s="22" t="s">
+        <v>2069</v>
+      </c>
+      <c r="J581" s="22" t="s">
+        <v>2075</v>
+      </c>
+      <c r="L581" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M581" s="22">
+        <v>0</v>
+      </c>
+      <c r="N581" s="22">
+        <v>0</v>
+      </c>
+      <c r="O581" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P581" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q581" s="22" t="s">
+        <v>2076</v>
+      </c>
+      <c r="R581" s="71" t="s">
+        <v>2077</v>
+      </c>
+      <c r="W581" s="22" t="s">
+        <v>2067</v>
+      </c>
+      <c r="X581" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y581" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z581" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM581" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:39" s="22" customFormat="1">
+      <c r="A582" s="22">
+        <v>581</v>
+      </c>
+      <c r="B582" s="22">
+        <v>10498</v>
+      </c>
+      <c r="F582" s="22">
+        <v>1</v>
+      </c>
+      <c r="G582" s="22" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I582" s="22" t="s">
+        <v>2070</v>
+      </c>
+      <c r="J582" s="22" t="s">
+        <v>2061</v>
+      </c>
+      <c r="L582" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M582" s="22">
+        <v>0</v>
+      </c>
+      <c r="N582" s="22">
+        <v>0</v>
+      </c>
+      <c r="O582" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P582" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q582" s="22" t="s">
+        <v>2076</v>
+      </c>
+      <c r="R582" s="71" t="s">
+        <v>2078</v>
+      </c>
+      <c r="W582" s="22" t="s">
+        <v>2067</v>
+      </c>
+      <c r="X582" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y582" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z582" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH582" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI582" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL582" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM582" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:39" s="22" customFormat="1">
+      <c r="A583" s="22">
+        <v>582</v>
+      </c>
+      <c r="B583" s="22">
+        <v>10499</v>
+      </c>
+      <c r="F583" s="22">
+        <v>1</v>
+      </c>
+      <c r="G583" s="22" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I583" s="22" t="s">
+        <v>2071</v>
+      </c>
+      <c r="J583" s="22" t="s">
+        <v>2062</v>
+      </c>
+      <c r="L583" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M583" s="22">
+        <v>0</v>
+      </c>
+      <c r="N583" s="22">
+        <v>0</v>
+      </c>
+      <c r="O583" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P583" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q583" s="22" t="s">
+        <v>2076</v>
+      </c>
+      <c r="R583" s="71" t="s">
+        <v>2079</v>
+      </c>
+      <c r="W583" s="22" t="s">
+        <v>2067</v>
+      </c>
+      <c r="X583" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y583" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z583" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH583" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI583" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL583" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM583" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:39" s="22" customFormat="1">
+      <c r="A584" s="22">
+        <v>583</v>
+      </c>
+      <c r="B584" s="22">
+        <v>10500</v>
+      </c>
+      <c r="F584" s="22">
+        <v>1</v>
+      </c>
+      <c r="G584" s="22" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I584" s="22" t="s">
+        <v>2072</v>
+      </c>
+      <c r="J584" s="22" t="s">
+        <v>2063</v>
+      </c>
+      <c r="L584" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M584" s="22">
+        <v>0</v>
+      </c>
+      <c r="N584" s="22">
+        <v>0</v>
+      </c>
+      <c r="O584" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P584" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q584" s="22" t="s">
+        <v>2076</v>
+      </c>
+      <c r="R584" s="71" t="s">
+        <v>2080</v>
+      </c>
+      <c r="W584" s="22" t="s">
+        <v>2067</v>
+      </c>
+      <c r="X584" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y584" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z584" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH584" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI584" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL584" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM584" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:39" s="22" customFormat="1">
+      <c r="A585" s="22">
+        <v>584</v>
+      </c>
+      <c r="B585" s="22">
+        <v>10501</v>
+      </c>
+      <c r="F585" s="22">
+        <v>1</v>
+      </c>
+      <c r="G585" s="22" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I585" s="22" t="s">
+        <v>2073</v>
+      </c>
+      <c r="J585" s="22" t="s">
+        <v>2064</v>
+      </c>
+      <c r="L585" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M585" s="22">
+        <v>0</v>
+      </c>
+      <c r="N585" s="22">
+        <v>0</v>
+      </c>
+      <c r="O585" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P585" s="22">
+        <v>2000</v>
+      </c>
+      <c r="Q585" s="22" t="s">
+        <v>2076</v>
+      </c>
+      <c r="R585" s="71" t="s">
+        <v>2081</v>
+      </c>
+      <c r="W585" s="22" t="s">
+        <v>2067</v>
+      </c>
+      <c r="X585" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y585" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z585" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH585" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI585" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL585" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM585" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:39" s="22" customFormat="1">
+      <c r="A586" s="22">
+        <v>585</v>
+      </c>
+      <c r="B586" s="22">
+        <v>10502</v>
+      </c>
+      <c r="F586" s="22">
+        <v>1</v>
+      </c>
+      <c r="G586" s="22" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I586" s="22" t="s">
+        <v>2074</v>
+      </c>
+      <c r="J586" s="22" t="s">
+        <v>2065</v>
+      </c>
+      <c r="L586" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M586" s="22">
+        <v>0</v>
+      </c>
+      <c r="N586" s="22">
+        <v>0</v>
+      </c>
+      <c r="O586" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P586" s="22">
+        <v>600</v>
+      </c>
+      <c r="Q586" s="22" t="s">
+        <v>2076</v>
+      </c>
+      <c r="R586" s="71" t="s">
+        <v>2082</v>
+      </c>
+      <c r="W586" s="22" t="s">
+        <v>2067</v>
+      </c>
+      <c r="X586" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y586" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z586" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH586" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI586" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL586" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM586" s="22">
         <v>1</v>
       </c>
     </row>
@@ -53098,7 +53579,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -53462,7 +53943,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="65" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C71" s="64">
         <v>1</v>
@@ -53476,7 +53957,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="65" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C72" s="64">
         <v>1</v>
@@ -53490,7 +53971,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="65" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C73" s="64">
         <v>1</v>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8583,9 +8583,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>元宵福袋</t>
-  </si>
-  <si>
     <t>5,100,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8868,6 +8865,9 @@
   <si>
     <t>600000,1,20,20</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运福袋</t>
   </si>
 </sst>
 </file>
@@ -9320,8 +9320,8 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9841,7 +9841,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1272</v>
@@ -15218,10 +15218,10 @@
   <dimension ref="A1:AN586"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P566" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W530" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R589" sqref="R589"/>
+      <selection pane="bottomRight" activeCell="AA545" sqref="AA545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -42049,7 +42049,7 @@
         <v>1488</v>
       </c>
       <c r="W422" s="66" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="X422" s="66">
         <v>99999999</v>
@@ -49895,458 +49895,458 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A542" s="5">
+    <row r="542" spans="1:39" s="22" customFormat="1" ht="14.25">
+      <c r="A542" s="22">
         <v>541</v>
       </c>
-      <c r="B542" s="5">
+      <c r="B542" s="22">
         <v>10458</v>
       </c>
-      <c r="F542" s="5">
-        <v>0</v>
-      </c>
-      <c r="G542" s="5" t="s">
+      <c r="F542" s="22">
+        <v>1</v>
+      </c>
+      <c r="G542" s="22" t="s">
         <v>1362</v>
       </c>
-      <c r="I542" s="5" t="s">
-        <v>2006</v>
-      </c>
-      <c r="J542" s="5" t="s">
+      <c r="I542" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J542" s="22" t="s">
         <v>1477</v>
       </c>
-      <c r="L542" s="5">
+      <c r="L542" s="22">
         <v>-31</v>
       </c>
-      <c r="M542" s="5">
-        <v>0</v>
-      </c>
-      <c r="N542" s="5">
-        <v>0</v>
-      </c>
-      <c r="O542" s="5" t="s">
+      <c r="M542" s="22">
+        <v>0</v>
+      </c>
+      <c r="N542" s="22">
+        <v>0</v>
+      </c>
+      <c r="O542" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="P542" s="5">
+      <c r="P542" s="22">
         <v>99800</v>
       </c>
-      <c r="Q542" s="5" t="s">
+      <c r="Q542" s="22" t="s">
         <v>1706</v>
       </c>
-      <c r="R542" s="70" t="s">
+      <c r="R542" s="71" t="s">
         <v>1387</v>
       </c>
-      <c r="W542" s="5" t="s">
+      <c r="W542" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="X542" s="5">
+      <c r="X542" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z542" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A543" s="5">
+      <c r="Y542" s="82">
+        <v>1616457600</v>
+      </c>
+      <c r="Z542" s="82">
+        <v>1617033599</v>
+      </c>
+      <c r="AH542" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="22" customFormat="1" ht="14.25">
+      <c r="A543" s="22">
         <v>542</v>
       </c>
-      <c r="B543" s="5">
+      <c r="B543" s="22">
         <v>10459</v>
       </c>
-      <c r="F543" s="5">
-        <v>0</v>
-      </c>
-      <c r="G543" s="5" t="s">
+      <c r="F543" s="22">
+        <v>1</v>
+      </c>
+      <c r="G543" s="22" t="s">
         <v>1465</v>
       </c>
-      <c r="I543" s="5" t="s">
-        <v>2006</v>
-      </c>
-      <c r="J543" s="5" t="s">
+      <c r="I543" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J543" s="22" t="s">
         <v>1476</v>
       </c>
-      <c r="L543" s="5">
+      <c r="L543" s="22">
         <v>-31</v>
       </c>
-      <c r="M543" s="5">
-        <v>0</v>
-      </c>
-      <c r="N543" s="5">
-        <v>0</v>
-      </c>
-      <c r="O543" s="5" t="s">
+      <c r="M543" s="22">
+        <v>0</v>
+      </c>
+      <c r="N543" s="22">
+        <v>0</v>
+      </c>
+      <c r="O543" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P543" s="5">
+      <c r="P543" s="22">
         <v>49800</v>
       </c>
-      <c r="Q543" s="5" t="s">
+      <c r="Q543" s="22" t="s">
         <v>1706</v>
       </c>
-      <c r="R543" s="70" t="s">
+      <c r="R543" s="71" t="s">
         <v>1386</v>
       </c>
-      <c r="W543" s="5" t="s">
+      <c r="W543" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="X543" s="5">
+      <c r="X543" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z543" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A544" s="5">
+      <c r="Y543" s="82">
+        <v>1616457600</v>
+      </c>
+      <c r="Z543" s="82">
+        <v>1617033599</v>
+      </c>
+      <c r="AH543" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="22" customFormat="1" ht="14.25">
+      <c r="A544" s="22">
         <v>543</v>
       </c>
-      <c r="B544" s="5">
+      <c r="B544" s="22">
         <v>10460</v>
       </c>
-      <c r="F544" s="5">
-        <v>0</v>
-      </c>
-      <c r="G544" s="5" t="s">
+      <c r="F544" s="22">
+        <v>1</v>
+      </c>
+      <c r="G544" s="22" t="s">
         <v>1367</v>
       </c>
-      <c r="I544" s="5" t="s">
-        <v>2006</v>
-      </c>
-      <c r="J544" s="5" t="s">
+      <c r="I544" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J544" s="22" t="s">
         <v>1475</v>
       </c>
-      <c r="L544" s="5">
+      <c r="L544" s="22">
         <v>-31</v>
       </c>
-      <c r="M544" s="5">
-        <v>0</v>
-      </c>
-      <c r="N544" s="5">
-        <v>0</v>
-      </c>
-      <c r="O544" s="5" t="s">
+      <c r="M544" s="22">
+        <v>0</v>
+      </c>
+      <c r="N544" s="22">
+        <v>0</v>
+      </c>
+      <c r="O544" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P544" s="5">
+      <c r="P544" s="22">
         <v>29800</v>
       </c>
-      <c r="Q544" s="5" t="s">
+      <c r="Q544" s="22" t="s">
         <v>1499</v>
       </c>
-      <c r="R544" s="70" t="s">
+      <c r="R544" s="71" t="s">
         <v>1391</v>
       </c>
-      <c r="W544" s="5" t="s">
+      <c r="W544" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="X544" s="5">
+      <c r="X544" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z544" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A545" s="5">
+      <c r="Y544" s="82">
+        <v>1616457600</v>
+      </c>
+      <c r="Z544" s="82">
+        <v>1617033599</v>
+      </c>
+      <c r="AH544" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="22" customFormat="1" ht="14.25">
+      <c r="A545" s="22">
         <v>544</v>
       </c>
-      <c r="B545" s="5">
+      <c r="B545" s="22">
         <v>10461</v>
       </c>
-      <c r="F545" s="5">
-        <v>0</v>
-      </c>
-      <c r="G545" s="5" t="s">
+      <c r="F545" s="22">
+        <v>1</v>
+      </c>
+      <c r="G545" s="22" t="s">
         <v>1370</v>
       </c>
-      <c r="I545" s="5" t="s">
-        <v>2006</v>
-      </c>
-      <c r="J545" s="5" t="s">
+      <c r="I545" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J545" s="22" t="s">
         <v>1474</v>
       </c>
-      <c r="L545" s="5">
+      <c r="L545" s="22">
         <v>-31</v>
       </c>
-      <c r="M545" s="5">
-        <v>0</v>
-      </c>
-      <c r="N545" s="5">
-        <v>0</v>
-      </c>
-      <c r="O545" s="5" t="s">
+      <c r="M545" s="22">
+        <v>0</v>
+      </c>
+      <c r="N545" s="22">
+        <v>0</v>
+      </c>
+      <c r="O545" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P545" s="5">
+      <c r="P545" s="22">
         <v>19800</v>
       </c>
-      <c r="Q545" s="5" t="s">
+      <c r="Q545" s="22" t="s">
         <v>1499</v>
       </c>
-      <c r="R545" s="70" t="s">
+      <c r="R545" s="71" t="s">
         <v>1384</v>
       </c>
-      <c r="W545" s="5" t="s">
+      <c r="W545" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="X545" s="5">
+      <c r="X545" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z545" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A546" s="5">
+      <c r="Y545" s="82">
+        <v>1616457600</v>
+      </c>
+      <c r="Z545" s="82">
+        <v>1617033599</v>
+      </c>
+      <c r="AH545" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="22" customFormat="1" ht="14.25">
+      <c r="A546" s="22">
         <v>545</v>
       </c>
-      <c r="B546" s="5">
+      <c r="B546" s="22">
         <v>10462</v>
       </c>
-      <c r="F546" s="5">
-        <v>0</v>
-      </c>
-      <c r="G546" s="5" t="s">
+      <c r="F546" s="22">
+        <v>1</v>
+      </c>
+      <c r="G546" s="22" t="s">
         <v>1372</v>
       </c>
-      <c r="I546" s="5" t="s">
-        <v>2006</v>
-      </c>
-      <c r="J546" s="5" t="s">
+      <c r="I546" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J546" s="22" t="s">
         <v>1473</v>
       </c>
-      <c r="L546" s="5">
+      <c r="L546" s="22">
         <v>-31</v>
       </c>
-      <c r="M546" s="5">
-        <v>0</v>
-      </c>
-      <c r="N546" s="5">
-        <v>0</v>
-      </c>
-      <c r="O546" s="5" t="s">
+      <c r="M546" s="22">
+        <v>0</v>
+      </c>
+      <c r="N546" s="22">
+        <v>0</v>
+      </c>
+      <c r="O546" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P546" s="5">
+      <c r="P546" s="22">
         <v>9800</v>
       </c>
-      <c r="Q546" s="5" t="s">
+      <c r="Q546" s="22" t="s">
         <v>1499</v>
       </c>
-      <c r="R546" s="70" t="s">
+      <c r="R546" s="71" t="s">
         <v>1390</v>
       </c>
-      <c r="W546" s="5" t="s">
+      <c r="W546" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="X546" s="5">
+      <c r="X546" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z546" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A547" s="5">
+      <c r="Y546" s="82">
+        <v>1616457600</v>
+      </c>
+      <c r="Z546" s="82">
+        <v>1617033599</v>
+      </c>
+      <c r="AH546" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="22" customFormat="1" ht="14.25">
+      <c r="A547" s="22">
         <v>546</v>
       </c>
-      <c r="B547" s="5">
+      <c r="B547" s="22">
         <v>10463</v>
       </c>
-      <c r="F547" s="5">
-        <v>0</v>
-      </c>
-      <c r="G547" s="5" t="s">
+      <c r="F547" s="22">
+        <v>1</v>
+      </c>
+      <c r="G547" s="22" t="s">
         <v>1373</v>
       </c>
-      <c r="I547" s="5" t="s">
-        <v>2006</v>
-      </c>
-      <c r="J547" s="5" t="s">
+      <c r="I547" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J547" s="22" t="s">
         <v>1472</v>
       </c>
-      <c r="L547" s="5">
+      <c r="L547" s="22">
         <v>-31</v>
       </c>
-      <c r="M547" s="5">
-        <v>0</v>
-      </c>
-      <c r="N547" s="5">
-        <v>0</v>
-      </c>
-      <c r="O547" s="5" t="s">
+      <c r="M547" s="22">
+        <v>0</v>
+      </c>
+      <c r="N547" s="22">
+        <v>0</v>
+      </c>
+      <c r="O547" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P547" s="5">
+      <c r="P547" s="22">
         <v>4800</v>
       </c>
-      <c r="Q547" s="5" t="s">
+      <c r="Q547" s="22" t="s">
         <v>1704</v>
       </c>
-      <c r="R547" s="70" t="s">
+      <c r="R547" s="71" t="s">
         <v>1385</v>
       </c>
-      <c r="W547" s="5" t="s">
+      <c r="W547" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="X547" s="5">
+      <c r="X547" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z547" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A548" s="5">
+      <c r="Y547" s="82">
+        <v>1616457600</v>
+      </c>
+      <c r="Z547" s="82">
+        <v>1617033599</v>
+      </c>
+      <c r="AH547" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="22" customFormat="1" ht="14.25">
+      <c r="A548" s="22">
         <v>547</v>
       </c>
-      <c r="B548" s="5">
+      <c r="B548" s="22">
         <v>10464</v>
       </c>
-      <c r="F548" s="5">
-        <v>0</v>
-      </c>
-      <c r="G548" s="5" t="s">
+      <c r="F548" s="22">
+        <v>1</v>
+      </c>
+      <c r="G548" s="22" t="s">
         <v>1375</v>
       </c>
-      <c r="I548" s="5" t="s">
-        <v>2006</v>
-      </c>
-      <c r="J548" s="5" t="s">
+      <c r="I548" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J548" s="22" t="s">
         <v>1471</v>
       </c>
-      <c r="L548" s="5">
+      <c r="L548" s="22">
         <v>-31</v>
       </c>
-      <c r="M548" s="5">
-        <v>0</v>
-      </c>
-      <c r="N548" s="5">
-        <v>0</v>
-      </c>
-      <c r="O548" s="5" t="s">
+      <c r="M548" s="22">
+        <v>0</v>
+      </c>
+      <c r="N548" s="22">
+        <v>0</v>
+      </c>
+      <c r="O548" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P548" s="5">
+      <c r="P548" s="22">
         <v>1800</v>
       </c>
-      <c r="Q548" s="5" t="s">
+      <c r="Q548" s="22" t="s">
         <v>1704</v>
       </c>
-      <c r="R548" s="70" t="s">
+      <c r="R548" s="71" t="s">
         <v>1389</v>
       </c>
-      <c r="W548" s="5" t="s">
+      <c r="W548" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="X548" s="5">
+      <c r="X548" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z548" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="5">
+      <c r="Y548" s="82">
+        <v>1616457600</v>
+      </c>
+      <c r="Z548" s="82">
+        <v>1617033599</v>
+      </c>
+      <c r="AH548" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="22">
         <v>1</v>
       </c>
     </row>
@@ -50391,7 +50391,7 @@
         <v>1983</v>
       </c>
       <c r="W549" s="5" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="X549" s="5">
         <v>9999999</v>
@@ -50459,7 +50459,7 @@
         <v>1986</v>
       </c>
       <c r="W550" s="5" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="X550" s="5">
         <v>9999999</v>
@@ -50527,7 +50527,7 @@
         <v>1985</v>
       </c>
       <c r="W551" s="5" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="X551" s="5">
         <v>9999999</v>
@@ -50595,7 +50595,7 @@
         <v>1984</v>
       </c>
       <c r="W552" s="5" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="X552" s="5">
         <v>9999999</v>
@@ -50663,7 +50663,7 @@
         <v>1995</v>
       </c>
       <c r="W553" s="5" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="X553" s="5">
         <v>9999999</v>
@@ -50731,7 +50731,7 @@
         <v>1996</v>
       </c>
       <c r="W554" s="5" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="X554" s="5">
         <v>9999999</v>
@@ -50799,7 +50799,7 @@
         <v>1997</v>
       </c>
       <c r="W555" s="5" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="X555" s="5">
         <v>9999999</v>
@@ -50867,7 +50867,7 @@
         <v>1998</v>
       </c>
       <c r="W556" s="5" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="X556" s="5">
         <v>9999999</v>
@@ -50911,7 +50911,7 @@
         <v>1999</v>
       </c>
       <c r="J557" s="5" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L557" s="5">
         <v>-25</v>
@@ -51109,7 +51109,7 @@
         <v>1999</v>
       </c>
       <c r="J560" s="5" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L560" s="5">
         <f>J55-25</f>
@@ -51131,7 +51131,7 @@
         <v>87</v>
       </c>
       <c r="R560" s="70" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="W560" s="5" t="s">
         <v>546</v>
@@ -51242,7 +51242,7 @@
         <v>1999</v>
       </c>
       <c r="J562" s="5" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="L562" s="5">
         <v>-25</v>
@@ -51263,7 +51263,7 @@
         <v>87</v>
       </c>
       <c r="R562" s="70" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="W562" s="5" t="s">
         <v>546</v>
@@ -51308,7 +51308,7 @@
         <v>1999</v>
       </c>
       <c r="J563" s="5" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="L563" s="5">
         <v>-25</v>
@@ -51329,7 +51329,7 @@
         <v>87</v>
       </c>
       <c r="R563" s="70" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="W563" s="5" t="s">
         <v>546</v>
@@ -51440,7 +51440,7 @@
         <v>1999</v>
       </c>
       <c r="J565" s="5" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="L565" s="5">
         <v>-25</v>
@@ -51461,7 +51461,7 @@
         <v>87</v>
       </c>
       <c r="R565" s="70" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="W565" s="5" t="s">
         <v>546</v>
@@ -51503,7 +51503,7 @@
         <v>131</v>
       </c>
       <c r="I566" s="5" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J566" s="5" t="s">
         <v>1886</v>
@@ -51524,7 +51524,7 @@
         <v>49800</v>
       </c>
       <c r="Q566" s="5" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="R566" s="70" t="s">
         <v>1874</v>
@@ -51571,7 +51571,7 @@
         <v>131</v>
       </c>
       <c r="I567" s="5" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J567" s="5" t="s">
         <v>1888</v>
@@ -51592,7 +51592,7 @@
         <v>19800</v>
       </c>
       <c r="Q567" s="5" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="R567" s="70" t="s">
         <v>1875</v>
@@ -51639,7 +51639,7 @@
         <v>131</v>
       </c>
       <c r="I568" s="5" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J568" s="5" t="s">
         <v>1869</v>
@@ -51660,7 +51660,7 @@
         <v>9800</v>
       </c>
       <c r="Q568" s="5" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="R568" s="70" t="s">
         <v>1876</v>
@@ -51707,7 +51707,7 @@
         <v>131</v>
       </c>
       <c r="I569" s="5" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J569" s="5" t="s">
         <v>1868</v>
@@ -51728,7 +51728,7 @@
         <v>4800</v>
       </c>
       <c r="Q569" s="5" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="R569" s="70" t="s">
         <v>1877</v>
@@ -51775,7 +51775,7 @@
         <v>131</v>
       </c>
       <c r="I570" s="5" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J570" s="5" t="s">
         <v>1892</v>
@@ -51796,7 +51796,7 @@
         <v>49800</v>
       </c>
       <c r="Q570" s="5" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="R570" s="70" t="s">
         <v>1895</v>
@@ -51843,7 +51843,7 @@
         <v>131</v>
       </c>
       <c r="I571" s="5" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J571" s="5" t="s">
         <v>1896</v>
@@ -51864,7 +51864,7 @@
         <v>19800</v>
       </c>
       <c r="Q571" s="5" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="R571" s="70" t="s">
         <v>1897</v>
@@ -51911,7 +51911,7 @@
         <v>131</v>
       </c>
       <c r="I572" s="5" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J572" s="5" t="s">
         <v>1898</v>
@@ -51932,7 +51932,7 @@
         <v>9800</v>
       </c>
       <c r="Q572" s="5" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="R572" s="70" t="s">
         <v>1881</v>
@@ -51979,7 +51979,7 @@
         <v>131</v>
       </c>
       <c r="I573" s="5" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J573" s="5" t="s">
         <v>1899</v>
@@ -52000,7 +52000,7 @@
         <v>4800</v>
       </c>
       <c r="Q573" s="5" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="R573" s="70" t="s">
         <v>1901</v>
@@ -52037,59 +52037,49 @@
       <c r="A574" s="5">
         <v>573</v>
       </c>
-      <c r="B574" s="22">
+      <c r="B574" s="5">
         <v>10490</v>
       </c>
-      <c r="C574" s="22"/>
-      <c r="D574" s="22"/>
-      <c r="E574" s="22"/>
-      <c r="F574" s="22">
-        <v>1</v>
-      </c>
-      <c r="G574" s="22" t="s">
+      <c r="F574" s="5">
+        <v>1</v>
+      </c>
+      <c r="G574" s="5" t="s">
+        <v>2024</v>
+      </c>
+      <c r="I574" s="5" t="s">
+        <v>2035</v>
+      </c>
+      <c r="L574" s="5">
+        <v>-31</v>
+      </c>
+      <c r="M574" s="5">
+        <v>0</v>
+      </c>
+      <c r="N574" s="5">
+        <v>0</v>
+      </c>
+      <c r="O574" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P574" s="5">
+        <v>4500</v>
+      </c>
+      <c r="Q574" s="5" t="s">
         <v>2025</v>
       </c>
-      <c r="H574" s="22"/>
-      <c r="I574" s="22" t="s">
-        <v>2036</v>
-      </c>
-      <c r="J574" s="22"/>
-      <c r="K574" s="22"/>
-      <c r="L574" s="22">
-        <v>-31</v>
-      </c>
-      <c r="M574" s="22">
-        <v>0</v>
-      </c>
-      <c r="N574" s="22">
-        <v>0</v>
-      </c>
-      <c r="O574" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="P574" s="22">
-        <v>4500</v>
-      </c>
-      <c r="Q574" s="22" t="s">
-        <v>2026</v>
-      </c>
-      <c r="R574" s="82" t="s">
-        <v>2042</v>
-      </c>
-      <c r="S574" s="22"/>
-      <c r="T574" s="22"/>
-      <c r="U574" s="22"/>
-      <c r="V574" s="22"/>
-      <c r="W574" s="22" t="s">
+      <c r="R574" s="79" t="s">
+        <v>2041</v>
+      </c>
+      <c r="W574" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="X574" s="22">
+      <c r="X574" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y574" s="22">
+      <c r="Y574" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z574" s="22">
+      <c r="Z574" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH574" s="5">
@@ -52109,59 +52099,49 @@
       <c r="A575" s="5">
         <v>574</v>
       </c>
-      <c r="B575" s="22">
+      <c r="B575" s="5">
         <v>10491</v>
       </c>
-      <c r="C575" s="22"/>
-      <c r="D575" s="22"/>
-      <c r="E575" s="22"/>
-      <c r="F575" s="22">
-        <v>1</v>
-      </c>
-      <c r="G575" s="22" t="s">
-        <v>2027</v>
-      </c>
-      <c r="H575" s="22"/>
-      <c r="I575" s="22" t="s">
-        <v>2037</v>
-      </c>
-      <c r="J575" s="22"/>
-      <c r="K575" s="22"/>
-      <c r="L575" s="22">
+      <c r="F575" s="5">
+        <v>1</v>
+      </c>
+      <c r="G575" s="5" t="s">
+        <v>2026</v>
+      </c>
+      <c r="I575" s="5" t="s">
+        <v>2036</v>
+      </c>
+      <c r="L575" s="5">
         <v>-31</v>
       </c>
-      <c r="M575" s="22">
-        <v>0</v>
-      </c>
-      <c r="N575" s="22">
-        <v>0</v>
-      </c>
-      <c r="O575" s="22" t="s">
+      <c r="M575" s="5">
+        <v>0</v>
+      </c>
+      <c r="N575" s="5">
+        <v>0</v>
+      </c>
+      <c r="O575" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="P575" s="22">
+      <c r="P575" s="5">
         <v>8800</v>
       </c>
-      <c r="Q575" s="22" t="s">
-        <v>2066</v>
-      </c>
-      <c r="R575" s="82" t="s">
-        <v>2043</v>
-      </c>
-      <c r="S575" s="22"/>
-      <c r="T575" s="22"/>
-      <c r="U575" s="22"/>
-      <c r="V575" s="22"/>
-      <c r="W575" s="22" t="s">
+      <c r="Q575" s="5" t="s">
+        <v>2065</v>
+      </c>
+      <c r="R575" s="79" t="s">
+        <v>2042</v>
+      </c>
+      <c r="W575" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="X575" s="22">
+      <c r="X575" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y575" s="22">
+      <c r="Y575" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z575" s="22">
+      <c r="Z575" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH575" s="5">
@@ -52181,59 +52161,49 @@
       <c r="A576" s="5">
         <v>575</v>
       </c>
-      <c r="B576" s="22">
+      <c r="B576" s="5">
         <v>10492</v>
       </c>
-      <c r="C576" s="22"/>
-      <c r="D576" s="22"/>
-      <c r="E576" s="22"/>
-      <c r="F576" s="22">
-        <v>1</v>
-      </c>
-      <c r="G576" s="22" t="s">
+      <c r="F576" s="5">
+        <v>1</v>
+      </c>
+      <c r="G576" s="5" t="s">
+        <v>2027</v>
+      </c>
+      <c r="I576" s="5" t="s">
+        <v>2037</v>
+      </c>
+      <c r="L576" s="5">
+        <v>-31</v>
+      </c>
+      <c r="M576" s="5">
+        <v>0</v>
+      </c>
+      <c r="N576" s="5">
+        <v>0</v>
+      </c>
+      <c r="O576" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P576" s="5">
+        <v>17800</v>
+      </c>
+      <c r="Q576" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="H576" s="22"/>
-      <c r="I576" s="22" t="s">
-        <v>2038</v>
-      </c>
-      <c r="J576" s="22"/>
-      <c r="K576" s="22"/>
-      <c r="L576" s="22">
-        <v>-31</v>
-      </c>
-      <c r="M576" s="22">
-        <v>0</v>
-      </c>
-      <c r="N576" s="22">
-        <v>0</v>
-      </c>
-      <c r="O576" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="P576" s="22">
-        <v>17800</v>
-      </c>
-      <c r="Q576" s="22" t="s">
-        <v>2029</v>
-      </c>
-      <c r="R576" s="82" t="s">
-        <v>2044</v>
-      </c>
-      <c r="S576" s="22"/>
-      <c r="T576" s="22"/>
-      <c r="U576" s="22"/>
-      <c r="V576" s="22"/>
-      <c r="W576" s="22" t="s">
+      <c r="R576" s="79" t="s">
+        <v>2043</v>
+      </c>
+      <c r="W576" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="X576" s="22">
+      <c r="X576" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y576" s="22">
+      <c r="Y576" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z576" s="22">
+      <c r="Z576" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH576" s="5">
@@ -52253,59 +52223,49 @@
       <c r="A577" s="5">
         <v>576</v>
       </c>
-      <c r="B577" s="22">
+      <c r="B577" s="5">
         <v>10493</v>
       </c>
-      <c r="C577" s="22"/>
-      <c r="D577" s="22"/>
-      <c r="E577" s="22"/>
-      <c r="F577" s="22">
-        <v>1</v>
-      </c>
-      <c r="G577" s="22" t="s">
+      <c r="F577" s="5">
+        <v>1</v>
+      </c>
+      <c r="G577" s="5" t="s">
+        <v>2029</v>
+      </c>
+      <c r="I577" s="5" t="s">
+        <v>2038</v>
+      </c>
+      <c r="L577" s="5">
+        <v>-31</v>
+      </c>
+      <c r="M577" s="5">
+        <v>0</v>
+      </c>
+      <c r="N577" s="5">
+        <v>0</v>
+      </c>
+      <c r="O577" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P577" s="5">
+        <v>44800</v>
+      </c>
+      <c r="Q577" s="5" t="s">
         <v>2030</v>
       </c>
-      <c r="H577" s="22"/>
-      <c r="I577" s="22" t="s">
-        <v>2039</v>
-      </c>
-      <c r="J577" s="22"/>
-      <c r="K577" s="22"/>
-      <c r="L577" s="22">
-        <v>-31</v>
-      </c>
-      <c r="M577" s="22">
-        <v>0</v>
-      </c>
-      <c r="N577" s="22">
-        <v>0</v>
-      </c>
-      <c r="O577" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="P577" s="22">
-        <v>44800</v>
-      </c>
-      <c r="Q577" s="22" t="s">
-        <v>2031</v>
-      </c>
-      <c r="R577" s="82" t="s">
-        <v>2045</v>
-      </c>
-      <c r="S577" s="22"/>
-      <c r="T577" s="22"/>
-      <c r="U577" s="22"/>
-      <c r="V577" s="22"/>
-      <c r="W577" s="22" t="s">
+      <c r="R577" s="79" t="s">
+        <v>2044</v>
+      </c>
+      <c r="W577" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="X577" s="22">
+      <c r="X577" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y577" s="22">
+      <c r="Y577" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z577" s="22">
+      <c r="Z577" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH577" s="5">
@@ -52325,59 +52285,49 @@
       <c r="A578" s="5">
         <v>577</v>
       </c>
-      <c r="B578" s="22">
+      <c r="B578" s="5">
         <v>10494</v>
       </c>
-      <c r="C578" s="22"/>
-      <c r="D578" s="22"/>
-      <c r="E578" s="22"/>
-      <c r="F578" s="22">
-        <v>1</v>
-      </c>
-      <c r="G578" s="22" t="s">
+      <c r="F578" s="5">
+        <v>1</v>
+      </c>
+      <c r="G578" s="5" t="s">
+        <v>2031</v>
+      </c>
+      <c r="I578" s="5" t="s">
+        <v>2039</v>
+      </c>
+      <c r="L578" s="5">
+        <v>-31</v>
+      </c>
+      <c r="M578" s="5">
+        <v>0</v>
+      </c>
+      <c r="N578" s="5">
+        <v>0</v>
+      </c>
+      <c r="O578" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P578" s="5">
+        <v>89800</v>
+      </c>
+      <c r="Q578" s="5" t="s">
         <v>2032</v>
       </c>
-      <c r="H578" s="22"/>
-      <c r="I578" s="22" t="s">
-        <v>2040</v>
-      </c>
-      <c r="J578" s="22"/>
-      <c r="K578" s="22"/>
-      <c r="L578" s="22">
-        <v>-31</v>
-      </c>
-      <c r="M578" s="22">
-        <v>0</v>
-      </c>
-      <c r="N578" s="22">
-        <v>0</v>
-      </c>
-      <c r="O578" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="P578" s="22">
-        <v>89800</v>
-      </c>
-      <c r="Q578" s="22" t="s">
-        <v>2033</v>
-      </c>
-      <c r="R578" s="82" t="s">
-        <v>2046</v>
-      </c>
-      <c r="S578" s="22"/>
-      <c r="T578" s="22"/>
-      <c r="U578" s="22"/>
-      <c r="V578" s="22"/>
-      <c r="W578" s="22" t="s">
+      <c r="R578" s="79" t="s">
+        <v>2045</v>
+      </c>
+      <c r="W578" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="X578" s="22">
+      <c r="X578" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y578" s="22">
+      <c r="Y578" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z578" s="22">
+      <c r="Z578" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH578" s="5">
@@ -52397,59 +52347,49 @@
       <c r="A579" s="5">
         <v>578</v>
       </c>
-      <c r="B579" s="22">
+      <c r="B579" s="5">
         <v>10495</v>
       </c>
-      <c r="C579" s="22"/>
-      <c r="D579" s="22"/>
-      <c r="E579" s="22"/>
-      <c r="F579" s="22">
-        <v>1</v>
-      </c>
-      <c r="G579" s="22" t="s">
+      <c r="F579" s="5">
+        <v>1</v>
+      </c>
+      <c r="G579" s="5" t="s">
+        <v>2033</v>
+      </c>
+      <c r="I579" s="5" t="s">
+        <v>2040</v>
+      </c>
+      <c r="L579" s="5">
+        <v>-31</v>
+      </c>
+      <c r="M579" s="5">
+        <v>0</v>
+      </c>
+      <c r="N579" s="5">
+        <v>0</v>
+      </c>
+      <c r="O579" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P579" s="5">
+        <v>229800</v>
+      </c>
+      <c r="Q579" s="5" t="s">
         <v>2034</v>
       </c>
-      <c r="H579" s="22"/>
-      <c r="I579" s="22" t="s">
-        <v>2041</v>
-      </c>
-      <c r="J579" s="22"/>
-      <c r="K579" s="22"/>
-      <c r="L579" s="22">
-        <v>-31</v>
-      </c>
-      <c r="M579" s="22">
-        <v>0</v>
-      </c>
-      <c r="N579" s="22">
-        <v>0</v>
-      </c>
-      <c r="O579" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="P579" s="22">
-        <v>229800</v>
-      </c>
-      <c r="Q579" s="22" t="s">
-        <v>2035</v>
-      </c>
-      <c r="R579" s="82" t="s">
-        <v>2047</v>
-      </c>
-      <c r="S579" s="22"/>
-      <c r="T579" s="22"/>
-      <c r="U579" s="22"/>
-      <c r="V579" s="22"/>
-      <c r="W579" s="22" t="s">
+      <c r="R579" s="79" t="s">
+        <v>2046</v>
+      </c>
+      <c r="W579" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="X579" s="22">
+      <c r="X579" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y579" s="22">
+      <c r="Y579" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z579" s="22">
+      <c r="Z579" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH579" s="5">
@@ -52476,13 +52416,13 @@
         <v>1</v>
       </c>
       <c r="G580" s="6" t="s">
+        <v>2051</v>
+      </c>
+      <c r="I580" s="6" t="s">
         <v>2052</v>
       </c>
-      <c r="I580" s="6" t="s">
-        <v>2053</v>
-      </c>
       <c r="J580" s="6" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="L580" s="6">
         <v>-31</v>
@@ -52500,13 +52440,13 @@
         <v>1</v>
       </c>
       <c r="Q580" s="5" t="s">
+        <v>2053</v>
+      </c>
+      <c r="R580" s="81" t="s">
         <v>2054</v>
       </c>
-      <c r="R580" s="81" t="s">
+      <c r="W580" s="6" t="s">
         <v>2055</v>
-      </c>
-      <c r="W580" s="6" t="s">
-        <v>2056</v>
       </c>
       <c r="X580" s="6">
         <v>99999999</v>
@@ -52524,393 +52464,393 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:39" s="22" customFormat="1">
-      <c r="A581" s="22">
+    <row r="581" spans="1:39" s="5" customFormat="1">
+      <c r="A581" s="5">
         <v>580</v>
       </c>
-      <c r="B581" s="22">
+      <c r="B581" s="5">
         <v>10497</v>
       </c>
-      <c r="F581" s="22">
-        <v>1</v>
-      </c>
-      <c r="G581" s="22" t="s">
+      <c r="F581" s="5">
+        <v>0</v>
+      </c>
+      <c r="G581" s="5" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I581" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="J581" s="5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="L581" s="5">
+        <v>-31</v>
+      </c>
+      <c r="M581" s="5">
+        <v>0</v>
+      </c>
+      <c r="N581" s="5">
+        <v>0</v>
+      </c>
+      <c r="O581" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="P581" s="5">
+        <v>49800</v>
+      </c>
+      <c r="Q581" s="5" t="s">
+        <v>2075</v>
+      </c>
+      <c r="R581" s="70" t="s">
+        <v>2076</v>
+      </c>
+      <c r="W581" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="X581" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="Y581" s="5">
+        <v>1615852800</v>
+      </c>
+      <c r="Z581" s="5">
+        <v>1616428799</v>
+      </c>
+      <c r="AH581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM581" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:39" s="5" customFormat="1">
+      <c r="A582" s="5">
+        <v>581</v>
+      </c>
+      <c r="B582" s="5">
+        <v>10498</v>
+      </c>
+      <c r="F582" s="5">
+        <v>0</v>
+      </c>
+      <c r="G582" s="5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I582" s="5" t="s">
+        <v>2069</v>
+      </c>
+      <c r="J582" s="5" t="s">
         <v>2060</v>
       </c>
-      <c r="I581" s="22" t="s">
-        <v>2069</v>
-      </c>
-      <c r="J581" s="22" t="s">
+      <c r="L582" s="5">
+        <v>-31</v>
+      </c>
+      <c r="M582" s="5">
+        <v>0</v>
+      </c>
+      <c r="N582" s="5">
+        <v>0</v>
+      </c>
+      <c r="O582" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="P582" s="5">
+        <v>19800</v>
+      </c>
+      <c r="Q582" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="L581" s="22">
+      <c r="R582" s="70" t="s">
+        <v>2077</v>
+      </c>
+      <c r="W582" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="X582" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="Y582" s="5">
+        <v>1615852800</v>
+      </c>
+      <c r="Z582" s="5">
+        <v>1616428799</v>
+      </c>
+      <c r="AH582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM582" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:39" s="5" customFormat="1">
+      <c r="A583" s="5">
+        <v>582</v>
+      </c>
+      <c r="B583" s="5">
+        <v>10499</v>
+      </c>
+      <c r="F583" s="5">
+        <v>0</v>
+      </c>
+      <c r="G583" s="5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I583" s="5" t="s">
+        <v>2070</v>
+      </c>
+      <c r="J583" s="5" t="s">
+        <v>2061</v>
+      </c>
+      <c r="L583" s="5">
         <v>-31</v>
       </c>
-      <c r="M581" s="22">
-        <v>0</v>
-      </c>
-      <c r="N581" s="22">
-        <v>0</v>
-      </c>
-      <c r="O581" s="22" t="s">
+      <c r="M583" s="5">
+        <v>0</v>
+      </c>
+      <c r="N583" s="5">
+        <v>0</v>
+      </c>
+      <c r="O583" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P581" s="22">
-        <v>49800</v>
-      </c>
-      <c r="Q581" s="22" t="s">
-        <v>2076</v>
-      </c>
-      <c r="R581" s="71" t="s">
-        <v>2077</v>
-      </c>
-      <c r="W581" s="22" t="s">
-        <v>2067</v>
-      </c>
-      <c r="X581" s="22">
+      <c r="P583" s="5">
+        <v>9800</v>
+      </c>
+      <c r="Q583" s="5" t="s">
+        <v>2075</v>
+      </c>
+      <c r="R583" s="70" t="s">
+        <v>2078</v>
+      </c>
+      <c r="W583" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="X583" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y581" s="22">
+      <c r="Y583" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z581" s="22">
+      <c r="Z583" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH581" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI581" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL581" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM581" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="582" spans="1:39" s="22" customFormat="1">
-      <c r="A582" s="22">
-        <v>581</v>
-      </c>
-      <c r="B582" s="22">
-        <v>10498</v>
-      </c>
-      <c r="F582" s="22">
-        <v>1</v>
-      </c>
-      <c r="G582" s="22" t="s">
-        <v>2059</v>
-      </c>
-      <c r="I582" s="22" t="s">
-        <v>2070</v>
-      </c>
-      <c r="J582" s="22" t="s">
-        <v>2061</v>
-      </c>
-      <c r="L582" s="22">
+      <c r="AH583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM583" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:39" s="5" customFormat="1">
+      <c r="A584" s="5">
+        <v>583</v>
+      </c>
+      <c r="B584" s="5">
+        <v>10500</v>
+      </c>
+      <c r="F584" s="5">
+        <v>0</v>
+      </c>
+      <c r="G584" s="5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I584" s="5" t="s">
+        <v>2071</v>
+      </c>
+      <c r="J584" s="5" t="s">
+        <v>2062</v>
+      </c>
+      <c r="L584" s="5">
         <v>-31</v>
       </c>
-      <c r="M582" s="22">
-        <v>0</v>
-      </c>
-      <c r="N582" s="22">
-        <v>0</v>
-      </c>
-      <c r="O582" s="22" t="s">
+      <c r="M584" s="5">
+        <v>0</v>
+      </c>
+      <c r="N584" s="5">
+        <v>0</v>
+      </c>
+      <c r="O584" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P582" s="22">
-        <v>19800</v>
-      </c>
-      <c r="Q582" s="22" t="s">
-        <v>2076</v>
-      </c>
-      <c r="R582" s="71" t="s">
-        <v>2078</v>
-      </c>
-      <c r="W582" s="22" t="s">
-        <v>2067</v>
-      </c>
-      <c r="X582" s="22">
+      <c r="P584" s="5">
+        <v>4800</v>
+      </c>
+      <c r="Q584" s="5" t="s">
+        <v>2075</v>
+      </c>
+      <c r="R584" s="70" t="s">
+        <v>2079</v>
+      </c>
+      <c r="W584" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="X584" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y582" s="22">
+      <c r="Y584" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z582" s="22">
+      <c r="Z584" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH582" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI582" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL582" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM582" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="583" spans="1:39" s="22" customFormat="1">
-      <c r="A583" s="22">
-        <v>582</v>
-      </c>
-      <c r="B583" s="22">
-        <v>10499</v>
-      </c>
-      <c r="F583" s="22">
-        <v>1</v>
-      </c>
-      <c r="G583" s="22" t="s">
-        <v>2059</v>
-      </c>
-      <c r="I583" s="22" t="s">
-        <v>2071</v>
-      </c>
-      <c r="J583" s="22" t="s">
-        <v>2062</v>
-      </c>
-      <c r="L583" s="22">
+      <c r="AH584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM584" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:39" s="5" customFormat="1">
+      <c r="A585" s="5">
+        <v>584</v>
+      </c>
+      <c r="B585" s="5">
+        <v>10501</v>
+      </c>
+      <c r="F585" s="5">
+        <v>0</v>
+      </c>
+      <c r="G585" s="5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I585" s="5" t="s">
+        <v>2072</v>
+      </c>
+      <c r="J585" s="5" t="s">
+        <v>2063</v>
+      </c>
+      <c r="L585" s="5">
         <v>-31</v>
       </c>
-      <c r="M583" s="22">
-        <v>0</v>
-      </c>
-      <c r="N583" s="22">
-        <v>0</v>
-      </c>
-      <c r="O583" s="22" t="s">
+      <c r="M585" s="5">
+        <v>0</v>
+      </c>
+      <c r="N585" s="5">
+        <v>0</v>
+      </c>
+      <c r="O585" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P583" s="22">
-        <v>9800</v>
-      </c>
-      <c r="Q583" s="22" t="s">
-        <v>2076</v>
-      </c>
-      <c r="R583" s="71" t="s">
-        <v>2079</v>
-      </c>
-      <c r="W583" s="22" t="s">
-        <v>2067</v>
-      </c>
-      <c r="X583" s="22">
+      <c r="P585" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q585" s="5" t="s">
+        <v>2075</v>
+      </c>
+      <c r="R585" s="70" t="s">
+        <v>2080</v>
+      </c>
+      <c r="W585" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="X585" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y583" s="22">
+      <c r="Y585" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z583" s="22">
+      <c r="Z585" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH583" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI583" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL583" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM583" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="584" spans="1:39" s="22" customFormat="1">
-      <c r="A584" s="22">
-        <v>583</v>
-      </c>
-      <c r="B584" s="22">
-        <v>10500</v>
-      </c>
-      <c r="F584" s="22">
-        <v>1</v>
-      </c>
-      <c r="G584" s="22" t="s">
-        <v>2059</v>
-      </c>
-      <c r="I584" s="22" t="s">
-        <v>2072</v>
-      </c>
-      <c r="J584" s="22" t="s">
-        <v>2063</v>
-      </c>
-      <c r="L584" s="22">
+      <c r="AH585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM585" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:39" s="5" customFormat="1">
+      <c r="A586" s="5">
+        <v>585</v>
+      </c>
+      <c r="B586" s="5">
+        <v>10502</v>
+      </c>
+      <c r="F586" s="5">
+        <v>0</v>
+      </c>
+      <c r="G586" s="5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I586" s="5" t="s">
+        <v>2073</v>
+      </c>
+      <c r="J586" s="5" t="s">
+        <v>2064</v>
+      </c>
+      <c r="L586" s="5">
         <v>-31</v>
       </c>
-      <c r="M584" s="22">
-        <v>0</v>
-      </c>
-      <c r="N584" s="22">
-        <v>0</v>
-      </c>
-      <c r="O584" s="22" t="s">
+      <c r="M586" s="5">
+        <v>0</v>
+      </c>
+      <c r="N586" s="5">
+        <v>0</v>
+      </c>
+      <c r="O586" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P584" s="22">
-        <v>4800</v>
-      </c>
-      <c r="Q584" s="22" t="s">
-        <v>2076</v>
-      </c>
-      <c r="R584" s="71" t="s">
-        <v>2080</v>
-      </c>
-      <c r="W584" s="22" t="s">
-        <v>2067</v>
-      </c>
-      <c r="X584" s="22">
+      <c r="P586" s="5">
+        <v>600</v>
+      </c>
+      <c r="Q586" s="5" t="s">
+        <v>2075</v>
+      </c>
+      <c r="R586" s="70" t="s">
+        <v>2081</v>
+      </c>
+      <c r="W586" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="X586" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y584" s="22">
+      <c r="Y586" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z584" s="22">
+      <c r="Z586" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH584" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI584" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL584" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM584" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="585" spans="1:39" s="22" customFormat="1">
-      <c r="A585" s="22">
-        <v>584</v>
-      </c>
-      <c r="B585" s="22">
-        <v>10501</v>
-      </c>
-      <c r="F585" s="22">
-        <v>1</v>
-      </c>
-      <c r="G585" s="22" t="s">
-        <v>2059</v>
-      </c>
-      <c r="I585" s="22" t="s">
-        <v>2073</v>
-      </c>
-      <c r="J585" s="22" t="s">
-        <v>2064</v>
-      </c>
-      <c r="L585" s="22">
-        <v>-31</v>
-      </c>
-      <c r="M585" s="22">
-        <v>0</v>
-      </c>
-      <c r="N585" s="22">
-        <v>0</v>
-      </c>
-      <c r="O585" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="P585" s="22">
-        <v>2000</v>
-      </c>
-      <c r="Q585" s="22" t="s">
-        <v>2076</v>
-      </c>
-      <c r="R585" s="71" t="s">
-        <v>2081</v>
-      </c>
-      <c r="W585" s="22" t="s">
-        <v>2067</v>
-      </c>
-      <c r="X585" s="22">
-        <v>99999999</v>
-      </c>
-      <c r="Y585" s="22">
-        <v>1615852800</v>
-      </c>
-      <c r="Z585" s="22">
-        <v>1616428799</v>
-      </c>
-      <c r="AH585" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI585" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL585" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM585" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="586" spans="1:39" s="22" customFormat="1">
-      <c r="A586" s="22">
-        <v>585</v>
-      </c>
-      <c r="B586" s="22">
-        <v>10502</v>
-      </c>
-      <c r="F586" s="22">
-        <v>1</v>
-      </c>
-      <c r="G586" s="22" t="s">
-        <v>2059</v>
-      </c>
-      <c r="I586" s="22" t="s">
-        <v>2074</v>
-      </c>
-      <c r="J586" s="22" t="s">
-        <v>2065</v>
-      </c>
-      <c r="L586" s="22">
-        <v>-31</v>
-      </c>
-      <c r="M586" s="22">
-        <v>0</v>
-      </c>
-      <c r="N586" s="22">
-        <v>0</v>
-      </c>
-      <c r="O586" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="P586" s="22">
-        <v>600</v>
-      </c>
-      <c r="Q586" s="22" t="s">
-        <v>2076</v>
-      </c>
-      <c r="R586" s="71" t="s">
-        <v>2082</v>
-      </c>
-      <c r="W586" s="22" t="s">
-        <v>2067</v>
-      </c>
-      <c r="X586" s="22">
-        <v>99999999</v>
-      </c>
-      <c r="Y586" s="22">
-        <v>1615852800</v>
-      </c>
-      <c r="Z586" s="22">
-        <v>1616428799</v>
-      </c>
-      <c r="AH586" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI586" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL586" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM586" s="22">
+      <c r="AH586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM586" s="5">
         <v>1</v>
       </c>
     </row>
@@ -53579,7 +53519,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -53943,7 +53883,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="65" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C71" s="64">
         <v>1</v>
@@ -53957,7 +53897,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="65" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C72" s="64">
         <v>1</v>
@@ -53971,7 +53911,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="65" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C73" s="64">
         <v>1</v>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4720" uniqueCount="2083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4808" uniqueCount="2117">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8868,6 +8868,142 @@
   </si>
   <si>
     <t>幸运福袋</t>
+  </si>
+  <si>
+    <t>龙腾祈福·龙腾礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费小额，新玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","10万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","20万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","30万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","7万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","12万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","18万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","38万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","80万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","180万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-v3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,200000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,100000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,300000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,70000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,120000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,180000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,380000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "buy_gift_shop_nor" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "buy_gift_shop_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "buy_gift_shop_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "buy_gift_shop_v8" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8945,7 +9081,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9030,6 +9166,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9073,7 +9215,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9322,6 +9464,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15215,13 +15363,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN586"/>
+  <dimension ref="A1:AN598"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W530" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H584" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA545" sqref="AA545"/>
+      <selection pane="bottomRight" activeCell="A587" sqref="A587:XFD598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -52854,6 +53002,822 @@
         <v>1</v>
       </c>
     </row>
+    <row r="587" spans="1:39" s="83" customFormat="1">
+      <c r="A587" s="83">
+        <v>586</v>
+      </c>
+      <c r="B587" s="83">
+        <v>10503</v>
+      </c>
+      <c r="F587" s="83">
+        <v>1</v>
+      </c>
+      <c r="G587" s="83" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I587" s="83" t="s">
+        <v>2084</v>
+      </c>
+      <c r="J587" s="83" t="s">
+        <v>2085</v>
+      </c>
+      <c r="L587" s="83">
+        <v>-31</v>
+      </c>
+      <c r="M587" s="83">
+        <v>0</v>
+      </c>
+      <c r="N587" s="83">
+        <v>0</v>
+      </c>
+      <c r="O587" s="83" t="s">
+        <v>2097</v>
+      </c>
+      <c r="P587" s="83">
+        <v>600</v>
+      </c>
+      <c r="Q587" s="83" t="s">
+        <v>2101</v>
+      </c>
+      <c r="R587" s="84" t="s">
+        <v>2103</v>
+      </c>
+      <c r="W587" s="83" t="s">
+        <v>2112</v>
+      </c>
+      <c r="X587" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Y587" s="83">
+        <v>1617667200</v>
+      </c>
+      <c r="Z587" s="83">
+        <v>1618243199</v>
+      </c>
+      <c r="AA587" s="83">
+        <v>76</v>
+      </c>
+      <c r="AH587" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI587" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL587" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM587" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:39" s="83" customFormat="1">
+      <c r="A588" s="83">
+        <v>587</v>
+      </c>
+      <c r="B588" s="83">
+        <v>10504</v>
+      </c>
+      <c r="F588" s="83">
+        <v>1</v>
+      </c>
+      <c r="G588" s="83" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I588" s="83" t="s">
+        <v>2084</v>
+      </c>
+      <c r="J588" s="83" t="s">
+        <v>2086</v>
+      </c>
+      <c r="L588" s="83">
+        <v>-31</v>
+      </c>
+      <c r="M588" s="83">
+        <v>0</v>
+      </c>
+      <c r="N588" s="83">
+        <v>0</v>
+      </c>
+      <c r="O588" s="83" t="s">
+        <v>2098</v>
+      </c>
+      <c r="P588" s="83">
+        <v>1000</v>
+      </c>
+      <c r="Q588" s="83" t="s">
+        <v>2101</v>
+      </c>
+      <c r="R588" s="84" t="s">
+        <v>2102</v>
+      </c>
+      <c r="W588" s="83" t="s">
+        <v>2112</v>
+      </c>
+      <c r="X588" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Y588" s="83">
+        <v>1617667200</v>
+      </c>
+      <c r="Z588" s="83">
+        <v>1618243199</v>
+      </c>
+      <c r="AA588" s="83">
+        <v>76</v>
+      </c>
+      <c r="AH588" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI588" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL588" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM588" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:39" s="83" customFormat="1">
+      <c r="A589" s="83">
+        <v>588</v>
+      </c>
+      <c r="B589" s="83">
+        <v>10505</v>
+      </c>
+      <c r="F589" s="83">
+        <v>1</v>
+      </c>
+      <c r="G589" s="83" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I589" s="83" t="s">
+        <v>2084</v>
+      </c>
+      <c r="J589" s="83" t="s">
+        <v>2087</v>
+      </c>
+      <c r="L589" s="83">
+        <v>-31</v>
+      </c>
+      <c r="M589" s="83">
+        <v>0</v>
+      </c>
+      <c r="N589" s="83">
+        <v>0</v>
+      </c>
+      <c r="O589" s="83" t="s">
+        <v>494</v>
+      </c>
+      <c r="P589" s="83">
+        <v>1800</v>
+      </c>
+      <c r="Q589" s="83" t="s">
+        <v>2101</v>
+      </c>
+      <c r="R589" s="84" t="s">
+        <v>2104</v>
+      </c>
+      <c r="W589" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="X589" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Y589" s="83">
+        <v>1617667200</v>
+      </c>
+      <c r="Z589" s="83">
+        <v>1618243199</v>
+      </c>
+      <c r="AA589" s="83">
+        <v>76</v>
+      </c>
+      <c r="AH589" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI589" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL589" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM589" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:39" s="83" customFormat="1">
+      <c r="A590" s="83">
+        <v>589</v>
+      </c>
+      <c r="B590" s="83">
+        <v>10506</v>
+      </c>
+      <c r="F590" s="83">
+        <v>1</v>
+      </c>
+      <c r="G590" s="83" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I590" s="83" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J590" s="83" t="s">
+        <v>2088</v>
+      </c>
+      <c r="L590" s="83">
+        <v>-31</v>
+      </c>
+      <c r="M590" s="83">
+        <v>0</v>
+      </c>
+      <c r="N590" s="83">
+        <v>0</v>
+      </c>
+      <c r="O590" s="83" t="s">
+        <v>2099</v>
+      </c>
+      <c r="P590" s="83">
+        <v>1800</v>
+      </c>
+      <c r="Q590" s="83" t="s">
+        <v>2101</v>
+      </c>
+      <c r="R590" s="84" t="s">
+        <v>2105</v>
+      </c>
+      <c r="W590" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="X590" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Y590" s="83">
+        <v>1617667200</v>
+      </c>
+      <c r="Z590" s="83">
+        <v>1618243199</v>
+      </c>
+      <c r="AA590" s="83">
+        <v>77</v>
+      </c>
+      <c r="AH590" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI590" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL590" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM590" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:39" s="83" customFormat="1">
+      <c r="A591" s="83">
+        <v>590</v>
+      </c>
+      <c r="B591" s="83">
+        <v>10507</v>
+      </c>
+      <c r="F591" s="83">
+        <v>1</v>
+      </c>
+      <c r="G591" s="83" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I591" s="83" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J591" s="83" t="s">
+        <v>2089</v>
+      </c>
+      <c r="L591" s="83">
+        <v>-31</v>
+      </c>
+      <c r="M591" s="83">
+        <v>0</v>
+      </c>
+      <c r="N591" s="83">
+        <v>0</v>
+      </c>
+      <c r="O591" s="83" t="s">
+        <v>494</v>
+      </c>
+      <c r="P591" s="83">
+        <v>3000</v>
+      </c>
+      <c r="Q591" s="83" t="s">
+        <v>2101</v>
+      </c>
+      <c r="R591" s="84" t="s">
+        <v>2106</v>
+      </c>
+      <c r="W591" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="X591" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Y591" s="83">
+        <v>1617667200</v>
+      </c>
+      <c r="Z591" s="83">
+        <v>1618243199</v>
+      </c>
+      <c r="AA591" s="83">
+        <v>77</v>
+      </c>
+      <c r="AH591" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI591" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL591" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM591" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:39" s="83" customFormat="1">
+      <c r="A592" s="83">
+        <v>591</v>
+      </c>
+      <c r="B592" s="83">
+        <v>10508</v>
+      </c>
+      <c r="F592" s="83">
+        <v>1</v>
+      </c>
+      <c r="G592" s="83" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I592" s="83" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J592" s="83" t="s">
+        <v>2090</v>
+      </c>
+      <c r="L592" s="83">
+        <v>-31</v>
+      </c>
+      <c r="M592" s="83">
+        <v>0</v>
+      </c>
+      <c r="N592" s="83">
+        <v>0</v>
+      </c>
+      <c r="O592" s="83" t="s">
+        <v>494</v>
+      </c>
+      <c r="P592" s="83">
+        <v>4800</v>
+      </c>
+      <c r="Q592" s="83" t="s">
+        <v>2101</v>
+      </c>
+      <c r="R592" s="84" t="s">
+        <v>2107</v>
+      </c>
+      <c r="W592" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="X592" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Y592" s="83">
+        <v>1617667200</v>
+      </c>
+      <c r="Z592" s="83">
+        <v>1618243199</v>
+      </c>
+      <c r="AA592" s="83">
+        <v>77</v>
+      </c>
+      <c r="AH592" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI592" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL592" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM592" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:39" s="83" customFormat="1">
+      <c r="A593" s="83">
+        <v>592</v>
+      </c>
+      <c r="B593" s="83">
+        <v>10509</v>
+      </c>
+      <c r="F593" s="83">
+        <v>1</v>
+      </c>
+      <c r="G593" s="83" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I593" s="83" t="s">
+        <v>2095</v>
+      </c>
+      <c r="J593" s="83" t="s">
+        <v>2090</v>
+      </c>
+      <c r="L593" s="83">
+        <v>-31</v>
+      </c>
+      <c r="M593" s="83">
+        <v>0</v>
+      </c>
+      <c r="N593" s="83">
+        <v>0</v>
+      </c>
+      <c r="O593" s="83" t="s">
+        <v>2100</v>
+      </c>
+      <c r="P593" s="83">
+        <v>4800</v>
+      </c>
+      <c r="Q593" s="83" t="s">
+        <v>2101</v>
+      </c>
+      <c r="R593" s="84" t="s">
+        <v>2107</v>
+      </c>
+      <c r="W593" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="X593" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Y593" s="83">
+        <v>1617667200</v>
+      </c>
+      <c r="Z593" s="83">
+        <v>1618243199</v>
+      </c>
+      <c r="AA593" s="83">
+        <v>78</v>
+      </c>
+      <c r="AH593" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI593" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL593" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM593" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:39" s="83" customFormat="1">
+      <c r="A594" s="83">
+        <v>593</v>
+      </c>
+      <c r="B594" s="83">
+        <v>10510</v>
+      </c>
+      <c r="F594" s="83">
+        <v>1</v>
+      </c>
+      <c r="G594" s="83" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I594" s="83" t="s">
+        <v>2095</v>
+      </c>
+      <c r="J594" s="83" t="s">
+        <v>2091</v>
+      </c>
+      <c r="L594" s="83">
+        <v>-31</v>
+      </c>
+      <c r="M594" s="83">
+        <v>0</v>
+      </c>
+      <c r="N594" s="83">
+        <v>0</v>
+      </c>
+      <c r="O594" s="83" t="s">
+        <v>494</v>
+      </c>
+      <c r="P594" s="83">
+        <v>9800</v>
+      </c>
+      <c r="Q594" s="83" t="s">
+        <v>2101</v>
+      </c>
+      <c r="R594" s="84" t="s">
+        <v>2108</v>
+      </c>
+      <c r="W594" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="X594" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Y594" s="83">
+        <v>1617667200</v>
+      </c>
+      <c r="Z594" s="83">
+        <v>1618243199</v>
+      </c>
+      <c r="AA594" s="83">
+        <v>78</v>
+      </c>
+      <c r="AH594" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI594" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL594" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM594" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:39" s="83" customFormat="1">
+      <c r="A595" s="83">
+        <v>594</v>
+      </c>
+      <c r="B595" s="83">
+        <v>10511</v>
+      </c>
+      <c r="F595" s="83">
+        <v>1</v>
+      </c>
+      <c r="G595" s="83" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I595" s="83" t="s">
+        <v>2095</v>
+      </c>
+      <c r="J595" s="83" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L595" s="83">
+        <v>-31</v>
+      </c>
+      <c r="M595" s="83">
+        <v>0</v>
+      </c>
+      <c r="N595" s="83">
+        <v>0</v>
+      </c>
+      <c r="O595" s="83" t="s">
+        <v>494</v>
+      </c>
+      <c r="P595" s="83">
+        <v>19800</v>
+      </c>
+      <c r="Q595" s="83" t="s">
+        <v>2101</v>
+      </c>
+      <c r="R595" s="84" t="s">
+        <v>2109</v>
+      </c>
+      <c r="W595" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="X595" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Y595" s="83">
+        <v>1617667200</v>
+      </c>
+      <c r="Z595" s="83">
+        <v>1618243199</v>
+      </c>
+      <c r="AA595" s="83">
+        <v>78</v>
+      </c>
+      <c r="AH595" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI595" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL595" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM595" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:39" s="83" customFormat="1">
+      <c r="A596" s="83">
+        <v>595</v>
+      </c>
+      <c r="B596" s="83">
+        <v>10512</v>
+      </c>
+      <c r="F596" s="83">
+        <v>1</v>
+      </c>
+      <c r="G596" s="83" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I596" s="83" t="s">
+        <v>2096</v>
+      </c>
+      <c r="J596" s="83" t="s">
+        <v>2091</v>
+      </c>
+      <c r="L596" s="83">
+        <v>-31</v>
+      </c>
+      <c r="M596" s="83">
+        <v>0</v>
+      </c>
+      <c r="N596" s="83">
+        <v>0</v>
+      </c>
+      <c r="O596" s="83" t="s">
+        <v>494</v>
+      </c>
+      <c r="P596" s="83">
+        <v>9800</v>
+      </c>
+      <c r="Q596" s="83" t="s">
+        <v>2101</v>
+      </c>
+      <c r="R596" s="84" t="s">
+        <v>2108</v>
+      </c>
+      <c r="W596" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="X596" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Y596" s="83">
+        <v>1617667200</v>
+      </c>
+      <c r="Z596" s="83">
+        <v>1618243199</v>
+      </c>
+      <c r="AA596" s="83">
+        <v>79</v>
+      </c>
+      <c r="AH596" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI596" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL596" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM596" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:39" s="83" customFormat="1">
+      <c r="A597" s="83">
+        <v>596</v>
+      </c>
+      <c r="B597" s="83">
+        <v>10513</v>
+      </c>
+      <c r="F597" s="83">
+        <v>1</v>
+      </c>
+      <c r="G597" s="83" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I597" s="83" t="s">
+        <v>2096</v>
+      </c>
+      <c r="J597" s="83" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L597" s="83">
+        <v>-31</v>
+      </c>
+      <c r="M597" s="83">
+        <v>0</v>
+      </c>
+      <c r="N597" s="83">
+        <v>0</v>
+      </c>
+      <c r="O597" s="83" t="s">
+        <v>494</v>
+      </c>
+      <c r="P597" s="83">
+        <v>19800</v>
+      </c>
+      <c r="Q597" s="83" t="s">
+        <v>2101</v>
+      </c>
+      <c r="R597" s="84" t="s">
+        <v>2110</v>
+      </c>
+      <c r="W597" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="X597" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Y597" s="83">
+        <v>1617667200</v>
+      </c>
+      <c r="Z597" s="83">
+        <v>1618243199</v>
+      </c>
+      <c r="AA597" s="83">
+        <v>79</v>
+      </c>
+      <c r="AH597" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI597" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL597" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM597" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:39" s="83" customFormat="1">
+      <c r="A598" s="83">
+        <v>597</v>
+      </c>
+      <c r="B598" s="83">
+        <v>10514</v>
+      </c>
+      <c r="F598" s="83">
+        <v>1</v>
+      </c>
+      <c r="G598" s="83" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I598" s="83" t="s">
+        <v>2096</v>
+      </c>
+      <c r="J598" s="83" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L598" s="83">
+        <v>-31</v>
+      </c>
+      <c r="M598" s="83">
+        <v>0</v>
+      </c>
+      <c r="N598" s="83">
+        <v>0</v>
+      </c>
+      <c r="O598" s="83" t="s">
+        <v>494</v>
+      </c>
+      <c r="P598" s="83">
+        <v>49800</v>
+      </c>
+      <c r="Q598" s="83" t="s">
+        <v>2101</v>
+      </c>
+      <c r="R598" s="84" t="s">
+        <v>2111</v>
+      </c>
+      <c r="W598" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="X598" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Y598" s="83">
+        <v>1617667200</v>
+      </c>
+      <c r="Z598" s="83">
+        <v>1618243199</v>
+      </c>
+      <c r="AA598" s="83">
+        <v>79</v>
+      </c>
+      <c r="AH598" s="83">
+        <v>1</v>
+      </c>
+      <c r="AI598" s="83">
+        <v>1</v>
+      </c>
+      <c r="AL598" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM598" s="83">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A542:AN548">
     <sortCondition descending="1" ref="A542"/>
@@ -52867,10 +53831,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -53959,6 +54923,62 @@
         <v>1</v>
       </c>
       <c r="D76" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="12">
+        <v>76</v>
+      </c>
+      <c r="B77" s="65" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C77" s="64">
+        <v>1</v>
+      </c>
+      <c r="D77" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="12">
+        <v>77</v>
+      </c>
+      <c r="B78" s="65" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C78" s="64">
+        <v>1</v>
+      </c>
+      <c r="D78" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="12">
+        <v>78</v>
+      </c>
+      <c r="B79" s="65" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C79" s="64">
+        <v>1</v>
+      </c>
+      <c r="D79" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="12">
+        <v>79</v>
+      </c>
+      <c r="B80" s="65" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C80" s="64">
+        <v>1</v>
+      </c>
+      <c r="D80" s="64">
         <v>0</v>
       </c>
     </row>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4945" uniqueCount="1783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5008" uniqueCount="1803">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5679,6 +5679,66 @@
   </si>
   <si>
     <t>秒杀礼包</t>
+  </si>
+  <si>
+    <t>欢乐敲金蛋</t>
+  </si>
+  <si>
+    <t>免费小额，新玩家,v1-v3</t>
+  </si>
+  <si>
+    <t>"180万金币","铜锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_1"</t>
+  </si>
+  <si>
+    <t>"300万金币","银锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_1"</t>
+  </si>
+  <si>
+    <t>"480万金币","金锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_1"</t>
+  </si>
+  <si>
+    <t>"480万金币","铜锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_2"</t>
+  </si>
+  <si>
+    <t>"980万金币","银锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_2"</t>
+  </si>
+  <si>
+    <t>"1980万金币","金锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_2"</t>
+  </si>
+  <si>
+    <t>"980万金币","铜锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_3"</t>
+  </si>
+  <si>
+    <t>"1980万金币","银锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_3"</t>
+  </si>
+  <si>
+    <t>"4980万金币","金锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_3"</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6556,9 +6616,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -6599,6 +6659,129 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -6614,130 +6797,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6853,7 +6913,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6865,13 +7033,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6883,127 +7063,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7044,6 +7104,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -7054,30 +7129,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7099,10 +7150,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7117,26 +7166,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7148,10 +7208,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7160,133 +7220,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13477,14 +13537,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN618"/>
+  <dimension ref="A1:AN627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W596" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W606" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y624" sqref="Y624"/>
+      <selection pane="bottomRight" activeCell="AA629" sqref="AA629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -53250,6 +53310,618 @@
         <v>1</v>
       </c>
     </row>
+    <row r="619" spans="1:39">
+      <c r="A619" s="21">
+        <v>618</v>
+      </c>
+      <c r="B619" s="34">
+        <v>10535</v>
+      </c>
+      <c r="F619" s="34">
+        <v>1</v>
+      </c>
+      <c r="G619" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I619" s="33" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J619" s="34" t="s">
+        <v>1588</v>
+      </c>
+      <c r="L619" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M619" s="33">
+        <v>0</v>
+      </c>
+      <c r="N619" s="33">
+        <v>0</v>
+      </c>
+      <c r="O619" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P619" s="34">
+        <v>1800</v>
+      </c>
+      <c r="Q619" s="34" t="s">
+        <v>1589</v>
+      </c>
+      <c r="R619" s="35" t="s">
+        <v>1071</v>
+      </c>
+      <c r="W619" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X619" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y619" s="34">
+        <v>1620691200</v>
+      </c>
+      <c r="Z619" s="34">
+        <v>1621267199</v>
+      </c>
+      <c r="AA619" s="34">
+        <v>44</v>
+      </c>
+      <c r="AH619" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI619" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL619" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM619" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:39">
+      <c r="A620" s="21">
+        <v>619</v>
+      </c>
+      <c r="B620" s="34">
+        <v>10536</v>
+      </c>
+      <c r="F620" s="34">
+        <v>1</v>
+      </c>
+      <c r="G620" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I620" s="33" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J620" s="34" t="s">
+        <v>1590</v>
+      </c>
+      <c r="L620" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M620" s="33">
+        <v>0</v>
+      </c>
+      <c r="N620" s="33">
+        <v>0</v>
+      </c>
+      <c r="O620" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P620" s="34">
+        <v>3000</v>
+      </c>
+      <c r="Q620" s="34" t="s">
+        <v>1591</v>
+      </c>
+      <c r="R620" s="35" t="s">
+        <v>1075</v>
+      </c>
+      <c r="W620" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X620" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y620" s="34">
+        <v>1620691200</v>
+      </c>
+      <c r="Z620" s="34">
+        <v>1621267199</v>
+      </c>
+      <c r="AA620" s="34">
+        <v>44</v>
+      </c>
+      <c r="AH620" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI620" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL620" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM620" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:39">
+      <c r="A621" s="21">
+        <v>620</v>
+      </c>
+      <c r="B621" s="34">
+        <v>10537</v>
+      </c>
+      <c r="F621" s="34">
+        <v>1</v>
+      </c>
+      <c r="G621" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I621" s="33" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J621" s="34" t="s">
+        <v>1592</v>
+      </c>
+      <c r="L621" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M621" s="33">
+        <v>0</v>
+      </c>
+      <c r="N621" s="33">
+        <v>0</v>
+      </c>
+      <c r="O621" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P621" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q621" s="34" t="s">
+        <v>1593</v>
+      </c>
+      <c r="R621" s="35" t="s">
+        <v>1079</v>
+      </c>
+      <c r="W621" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X621" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y621" s="34">
+        <v>1620691200</v>
+      </c>
+      <c r="Z621" s="34">
+        <v>1621267199</v>
+      </c>
+      <c r="AA621" s="34">
+        <v>44</v>
+      </c>
+      <c r="AH621" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI621" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL621" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM621" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:39">
+      <c r="A622" s="21">
+        <v>621</v>
+      </c>
+      <c r="B622" s="34">
+        <v>10538</v>
+      </c>
+      <c r="F622" s="34">
+        <v>1</v>
+      </c>
+      <c r="G622" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I622" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J622" s="34" t="s">
+        <v>1594</v>
+      </c>
+      <c r="L622" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M622" s="33">
+        <v>0</v>
+      </c>
+      <c r="N622" s="33">
+        <v>0</v>
+      </c>
+      <c r="O622" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P622" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q622" s="34" t="s">
+        <v>1595</v>
+      </c>
+      <c r="R622" s="35" t="s">
+        <v>1079</v>
+      </c>
+      <c r="W622" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X622" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y622" s="34">
+        <v>1620691200</v>
+      </c>
+      <c r="Z622" s="34">
+        <v>1621267199</v>
+      </c>
+      <c r="AA622" s="34">
+        <v>45</v>
+      </c>
+      <c r="AH622" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI622" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL622" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM622" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:39">
+      <c r="A623" s="21">
+        <v>622</v>
+      </c>
+      <c r="B623" s="34">
+        <v>10539</v>
+      </c>
+      <c r="F623" s="34">
+        <v>1</v>
+      </c>
+      <c r="G623" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I623" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J623" s="34" t="s">
+        <v>1596</v>
+      </c>
+      <c r="L623" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M623" s="33">
+        <v>0</v>
+      </c>
+      <c r="N623" s="33">
+        <v>0</v>
+      </c>
+      <c r="O623" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P623" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q623" s="34" t="s">
+        <v>1597</v>
+      </c>
+      <c r="R623" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="W623" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X623" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y623" s="34">
+        <v>1620691200</v>
+      </c>
+      <c r="Z623" s="34">
+        <v>1621267199</v>
+      </c>
+      <c r="AA623" s="34">
+        <v>45</v>
+      </c>
+      <c r="AH623" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI623" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL623" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM623" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:39">
+      <c r="A624" s="21">
+        <v>623</v>
+      </c>
+      <c r="B624" s="34">
+        <v>10540</v>
+      </c>
+      <c r="F624" s="34">
+        <v>1</v>
+      </c>
+      <c r="G624" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I624" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J624" s="34" t="s">
+        <v>1598</v>
+      </c>
+      <c r="L624" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M624" s="33">
+        <v>0</v>
+      </c>
+      <c r="N624" s="33">
+        <v>0</v>
+      </c>
+      <c r="O624" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P624" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q624" s="34" t="s">
+        <v>1599</v>
+      </c>
+      <c r="R624" s="35" t="s">
+        <v>1087</v>
+      </c>
+      <c r="W624" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X624" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y624" s="34">
+        <v>1620691200</v>
+      </c>
+      <c r="Z624" s="34">
+        <v>1621267199</v>
+      </c>
+      <c r="AA624" s="34">
+        <v>45</v>
+      </c>
+      <c r="AH624" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI624" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL624" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM624" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:39">
+      <c r="A625" s="21">
+        <v>624</v>
+      </c>
+      <c r="B625" s="34">
+        <v>10541</v>
+      </c>
+      <c r="F625" s="34">
+        <v>1</v>
+      </c>
+      <c r="G625" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I625" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J625" s="34" t="s">
+        <v>1600</v>
+      </c>
+      <c r="L625" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M625" s="33">
+        <v>0</v>
+      </c>
+      <c r="N625" s="33">
+        <v>0</v>
+      </c>
+      <c r="O625" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P625" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q625" s="34" t="s">
+        <v>1601</v>
+      </c>
+      <c r="R625" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="W625" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X625" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y625" s="34">
+        <v>1620691200</v>
+      </c>
+      <c r="Z625" s="34">
+        <v>1621267199</v>
+      </c>
+      <c r="AA625" s="34">
+        <v>46</v>
+      </c>
+      <c r="AH625" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI625" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL625" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM625" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:39">
+      <c r="A626" s="21">
+        <v>625</v>
+      </c>
+      <c r="B626" s="34">
+        <v>10542</v>
+      </c>
+      <c r="F626" s="34">
+        <v>1</v>
+      </c>
+      <c r="G626" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I626" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J626" s="34" t="s">
+        <v>1602</v>
+      </c>
+      <c r="L626" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M626" s="33">
+        <v>0</v>
+      </c>
+      <c r="N626" s="33">
+        <v>0</v>
+      </c>
+      <c r="O626" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P626" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q626" s="34" t="s">
+        <v>1603</v>
+      </c>
+      <c r="R626" s="35" t="s">
+        <v>1087</v>
+      </c>
+      <c r="W626" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X626" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y626" s="34">
+        <v>1620691200</v>
+      </c>
+      <c r="Z626" s="34">
+        <v>1621267199</v>
+      </c>
+      <c r="AA626" s="34">
+        <v>46</v>
+      </c>
+      <c r="AH626" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI626" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL626" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM626" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:39">
+      <c r="A627" s="21">
+        <v>626</v>
+      </c>
+      <c r="B627" s="34">
+        <v>10543</v>
+      </c>
+      <c r="F627" s="34">
+        <v>1</v>
+      </c>
+      <c r="G627" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I627" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J627" s="34" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L627" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M627" s="33">
+        <v>0</v>
+      </c>
+      <c r="N627" s="33">
+        <v>0</v>
+      </c>
+      <c r="O627" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P627" s="34">
+        <v>49800</v>
+      </c>
+      <c r="Q627" s="34" t="s">
+        <v>1605</v>
+      </c>
+      <c r="R627" s="35" t="s">
+        <v>1094</v>
+      </c>
+      <c r="W627" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X627" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y627" s="34">
+        <v>1620691200</v>
+      </c>
+      <c r="Z627" s="34">
+        <v>1621267199</v>
+      </c>
+      <c r="AA627" s="34">
+        <v>46</v>
+      </c>
+      <c r="AH627" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI627" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL627" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM627" s="34">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A542:AN548">
     <sortCondition ref="A542" descending="1"/>
@@ -53266,8 +53938,8 @@
   <sheetPr/>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:D85"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -53279,19 +53951,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1586</v>
+        <v>1606</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1587</v>
+        <v>1607</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1588</v>
+        <v>1608</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1589</v>
+        <v>1609</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1590</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -53299,7 +53971,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1591</v>
+        <v>1611</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -53308,7 +53980,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1592</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -53316,7 +53988,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1593</v>
+        <v>1613</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -53330,7 +54002,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1594</v>
+        <v>1614</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -53344,7 +54016,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1595</v>
+        <v>1615</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -53358,7 +54030,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1596</v>
+        <v>1616</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -53372,7 +54044,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1597</v>
+        <v>1617</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -53386,7 +54058,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1598</v>
+        <v>1618</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -53400,7 +54072,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1599</v>
+        <v>1619</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -53414,7 +54086,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1600</v>
+        <v>1620</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -53428,7 +54100,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1601</v>
+        <v>1621</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -53442,7 +54114,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1596</v>
+        <v>1616</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -53456,7 +54128,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1597</v>
+        <v>1617</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -53470,7 +54142,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1602</v>
+        <v>1622</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -53484,7 +54156,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1603</v>
+        <v>1623</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -53498,7 +54170,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1604</v>
+        <v>1624</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -53512,7 +54184,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1605</v>
+        <v>1625</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -53526,7 +54198,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1606</v>
+        <v>1626</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -53540,7 +54212,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1607</v>
+        <v>1627</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -53554,7 +54226,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1608</v>
+        <v>1628</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -53568,7 +54240,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1609</v>
+        <v>1629</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -53582,7 +54254,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1610</v>
+        <v>1630</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -53596,7 +54268,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1611</v>
+        <v>1631</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -53610,7 +54282,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1612</v>
+        <v>1632</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -53624,7 +54296,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1613</v>
+        <v>1633</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -53638,7 +54310,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1614</v>
+        <v>1634</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -53652,7 +54324,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1615</v>
+        <v>1635</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -53667,7 +54339,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1616</v>
+        <v>1636</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -53682,7 +54354,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1617</v>
+        <v>1637</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -53697,7 +54369,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1618</v>
+        <v>1638</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -53712,7 +54384,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1619</v>
+        <v>1639</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -53727,7 +54399,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1620</v>
+        <v>1640</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -53742,7 +54414,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1621</v>
+        <v>1641</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -53757,7 +54429,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1622</v>
+        <v>1642</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -53772,7 +54444,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1623</v>
+        <v>1643</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -53787,7 +54459,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1624</v>
+        <v>1644</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -53802,7 +54474,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1625</v>
+        <v>1645</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -53817,7 +54489,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1626</v>
+        <v>1646</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -53832,7 +54504,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1627</v>
+        <v>1647</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -53846,7 +54518,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1628</v>
+        <v>1648</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -53860,7 +54532,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1629</v>
+        <v>1649</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -53874,7 +54546,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1630</v>
+        <v>1650</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -53888,7 +54560,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1631</v>
+        <v>1651</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -53902,7 +54574,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1632</v>
+        <v>1652</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -53916,7 +54588,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>1633</v>
+        <v>1653</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -53930,7 +54602,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1634</v>
+        <v>1654</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -53944,7 +54616,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>1635</v>
+        <v>1655</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -53958,7 +54630,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1636</v>
+        <v>1656</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -53972,7 +54644,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1637</v>
+        <v>1657</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -53986,7 +54658,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>1638</v>
+        <v>1658</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -54000,7 +54672,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>1639</v>
+        <v>1659</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -54014,7 +54686,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>1640</v>
+        <v>1660</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -54028,7 +54700,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1641</v>
+        <v>1661</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -54042,7 +54714,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1642</v>
+        <v>1662</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -54056,7 +54728,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1643</v>
+        <v>1663</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -54070,7 +54742,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1644</v>
+        <v>1664</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -54084,7 +54756,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1645</v>
+        <v>1665</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -54098,7 +54770,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1646</v>
+        <v>1666</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -54112,7 +54784,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -54126,7 +54798,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1648</v>
+        <v>1668</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -54140,7 +54812,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -54154,7 +54826,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -54168,7 +54840,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1651</v>
+        <v>1671</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -54182,7 +54854,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -54196,7 +54868,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1653</v>
+        <v>1673</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -54210,7 +54882,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1654</v>
+        <v>1674</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -54224,7 +54896,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1655</v>
+        <v>1675</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -54238,7 +54910,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1656</v>
+        <v>1676</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -54252,7 +54924,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1657</v>
+        <v>1677</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -54266,7 +54938,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1658</v>
+        <v>1678</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -54280,7 +54952,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1659</v>
+        <v>1679</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -54294,7 +54966,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -54308,7 +54980,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1661</v>
+        <v>1681</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -54322,7 +54994,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1662</v>
+        <v>1682</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -54336,7 +55008,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1663</v>
+        <v>1683</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -54350,7 +55022,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1664</v>
+        <v>1684</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -54364,7 +55036,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1665</v>
+        <v>1685</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -54378,7 +55050,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -54392,7 +55064,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1667</v>
+        <v>1687</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -54406,7 +55078,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1668</v>
+        <v>1688</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -54420,7 +55092,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>1669</v>
+        <v>1689</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -54434,7 +55106,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>1670</v>
+        <v>1690</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -54448,7 +55120,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>1671</v>
+        <v>1691</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -54462,7 +55134,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1672</v>
+        <v>1692</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -54476,7 +55148,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>1673</v>
+        <v>1693</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -54530,7 +55202,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1674</v>
+        <v>1694</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -54545,19 +55217,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1676</v>
+        <v>1696</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1677</v>
+        <v>1697</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1678</v>
+        <v>1698</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1679</v>
+        <v>1699</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -54572,7 +55244,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1680</v>
+        <v>1700</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -54617,7 +55289,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1681</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -54637,7 +55309,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -54667,19 +55339,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1683</v>
+        <v>1703</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -54708,7 +55380,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -54735,22 +55407,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>1687</v>
+        <v>1707</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>1688</v>
+        <v>1708</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1689</v>
+        <v>1709</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -54779,7 +55451,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -54806,22 +55478,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1691</v>
+        <v>1711</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1692</v>
+        <v>1712</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -54850,7 +55522,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -54877,22 +55549,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -54921,7 +55593,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -54948,22 +55620,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1696</v>
+        <v>1716</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1697</v>
+        <v>1717</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1698</v>
+        <v>1718</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -54992,7 +55664,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -55019,22 +55691,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1699</v>
+        <v>1719</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1700</v>
+        <v>1720</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1701</v>
+        <v>1721</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -55058,7 +55730,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -55085,22 +55757,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1702</v>
+        <v>1722</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1703</v>
+        <v>1723</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -55124,7 +55796,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -55151,19 +55823,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -55172,7 +55844,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1705</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -55190,7 +55862,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -55220,16 +55892,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1706</v>
+        <v>1726</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1689</v>
+        <v>1709</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -55238,7 +55910,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1707</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -55256,7 +55928,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -55283,22 +55955,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>1687</v>
+        <v>1707</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1688</v>
+        <v>1708</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1689</v>
+        <v>1709</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -55327,7 +55999,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -55354,22 +56026,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1708</v>
+        <v>1728</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1709</v>
+        <v>1729</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1710</v>
+        <v>1730</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -55398,7 +56070,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -55425,22 +56097,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1710</v>
+        <v>1730</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -55469,7 +56141,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -55496,22 +56168,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1717</v>
+        <v>1737</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1718</v>
+        <v>1738</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -55535,7 +56207,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -55565,20 +56237,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1702</v>
+        <v>1722</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1703</v>
+        <v>1723</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -55587,7 +56259,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1719</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -55610,7 +56282,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -55637,22 +56309,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1721</v>
+        <v>1741</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -55676,7 +56348,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -55703,22 +56375,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1722</v>
+        <v>1742</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1692</v>
+        <v>1712</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -55742,7 +56414,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -55769,22 +56441,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1698</v>
+        <v>1718</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -55808,7 +56480,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -55835,22 +56507,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1726</v>
+        <v>1746</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1727</v>
+        <v>1747</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -55874,7 +56546,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -55901,22 +56573,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1729</v>
+        <v>1749</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1730</v>
+        <v>1750</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -55940,7 +56612,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -55967,22 +56639,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1702</v>
+        <v>1722</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1703</v>
+        <v>1723</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -56006,7 +56678,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -56033,20 +56705,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -56070,7 +56742,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -56100,17 +56772,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1706</v>
+        <v>1726</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -56127,14 +56799,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1731</v>
+        <v>1751</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -56164,20 +56836,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1702</v>
+        <v>1722</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1703</v>
+        <v>1723</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -56186,7 +56858,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1719</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -56209,7 +56881,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -56236,22 +56908,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -56321,13 +56993,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1676</v>
+        <v>1696</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1677</v>
+        <v>1697</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -56339,16 +57011,16 @@
         <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1735</v>
+        <v>1755</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1736</v>
+        <v>1756</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1737</v>
+        <v>1757</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1738</v>
+        <v>1758</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -56389,7 +57061,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -56401,7 +57073,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1740</v>
+        <v>1760</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -56410,7 +57082,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1741</v>
+        <v>1761</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -56419,22 +57091,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1743</v>
+        <v>1763</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1745</v>
+        <v>1765</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -56445,7 +57117,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -56457,7 +57129,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1740</v>
+        <v>1760</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -56466,7 +57138,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -56475,22 +57147,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1747</v>
+        <v>1767</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1745</v>
+        <v>1765</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -56504,7 +57176,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1748</v>
+        <v>1768</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -56529,19 +57201,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1749</v>
+        <v>1769</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1750</v>
+        <v>1770</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1751</v>
+        <v>1771</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -56552,7 +57224,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1752</v>
+        <v>1772</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -56579,10 +57251,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1753</v>
+        <v>1773</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -56593,7 +57265,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1754</v>
+        <v>1774</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -56620,10 +57292,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1753</v>
+        <v>1773</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -56634,7 +57306,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -56646,7 +57318,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1755</v>
+        <v>1775</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -56655,7 +57327,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -56664,22 +57336,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1756</v>
+        <v>1776</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1747</v>
+        <v>1767</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1757</v>
+        <v>1777</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -56693,10 +57365,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1758</v>
+        <v>1778</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -56708,7 +57380,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1759</v>
+        <v>1779</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -56723,22 +57395,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1760</v>
+        <v>1780</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1761</v>
+        <v>1781</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1762</v>
+        <v>1782</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -56749,10 +57421,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1763</v>
+        <v>1783</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -56767,16 +57439,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1764</v>
+        <v>1784</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1765</v>
+        <v>1785</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -56787,10 +57459,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1763</v>
+        <v>1783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -56805,16 +57477,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1766</v>
+        <v>1786</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1765</v>
+        <v>1785</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -56825,10 +57497,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1763</v>
+        <v>1783</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -56843,16 +57515,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1767</v>
+        <v>1787</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1765</v>
+        <v>1785</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -56863,10 +57535,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1763</v>
+        <v>1783</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -56881,16 +57553,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1768</v>
+        <v>1788</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1765</v>
+        <v>1785</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -56901,7 +57573,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1769</v>
+        <v>1789</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -56925,16 +57597,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1770</v>
+        <v>1790</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -56948,7 +57620,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1769</v>
+        <v>1789</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -56972,16 +57644,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1772</v>
+        <v>1792</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -56995,10 +57667,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1769</v>
+        <v>1789</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -57019,16 +57691,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1773</v>
+        <v>1793</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -57042,10 +57714,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -57061,13 +57733,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1775</v>
+        <v>1795</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -57078,10 +57750,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -57097,13 +57769,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1776</v>
+        <v>1796</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -57114,7 +57786,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -57133,13 +57805,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1775</v>
+        <v>1795</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -57150,7 +57822,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -57169,13 +57841,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1776</v>
+        <v>1796</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -57186,7 +57858,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1777</v>
+        <v>1797</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -57204,16 +57876,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1778</v>
+        <v>1798</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1779</v>
+        <v>1799</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -57224,7 +57896,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1780</v>
+        <v>1800</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -57242,16 +57914,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1781</v>
+        <v>1801</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1782</v>
+        <v>1802</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5008" uniqueCount="1803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5050" uniqueCount="1813">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5739,6 +5739,36 @@
   </si>
   <si>
     <t>"jing_bi","prop_gold_hammer_3"</t>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3"</t>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2"</t>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2"</t>
+  </si>
+  <si>
+    <t>"1980万金币","60万小游戏币","阳光*8"</t>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5"</t>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1"</t>
+  </si>
+  <si>
+    <t>"180万金币","10万小游戏币","水滴*5"</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6617,8 +6647,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -6659,6 +6689,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -6668,7 +6705,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6683,14 +6734,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6698,52 +6742,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6759,23 +6757,24 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6790,25 +6789,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6913,7 +6943,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6925,43 +6973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6985,13 +6997,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7009,7 +7045,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7021,19 +7075,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7045,25 +7087,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7104,21 +7134,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -7129,6 +7144,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7148,20 +7181,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7189,17 +7230,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7208,10 +7238,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7220,133 +7250,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13537,14 +13567,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN627"/>
+  <dimension ref="A1:AN634"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W606" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W619" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA629" sqref="AA629"/>
+      <selection pane="bottomRight" activeCell="Z640" sqref="Z640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -53922,6 +53952,440 @@
         <v>1</v>
       </c>
     </row>
+    <row r="628" spans="1:39">
+      <c r="A628" s="21">
+        <v>627</v>
+      </c>
+      <c r="B628" s="34">
+        <v>10544</v>
+      </c>
+      <c r="F628" s="34">
+        <v>1</v>
+      </c>
+      <c r="G628" s="34" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J628" s="34" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L628" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M628" s="33">
+        <v>0</v>
+      </c>
+      <c r="N628" s="33">
+        <v>0</v>
+      </c>
+      <c r="O628" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P628" s="34">
+        <v>99800</v>
+      </c>
+      <c r="Q628" s="34" t="s">
+        <v>1607</v>
+      </c>
+      <c r="R628" s="35" t="s">
+        <v>1135</v>
+      </c>
+      <c r="W628" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X628" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y628" s="34">
+        <v>1621296000</v>
+      </c>
+      <c r="Z628" s="34">
+        <v>1621871999</v>
+      </c>
+      <c r="AH628" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI628" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL628" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM628" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:39">
+      <c r="A629" s="21">
+        <v>628</v>
+      </c>
+      <c r="B629" s="34">
+        <v>10545</v>
+      </c>
+      <c r="F629" s="34">
+        <v>1</v>
+      </c>
+      <c r="G629" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J629" s="34" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L629" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M629" s="33">
+        <v>0</v>
+      </c>
+      <c r="N629" s="33">
+        <v>0</v>
+      </c>
+      <c r="O629" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P629" s="34">
+        <v>49800</v>
+      </c>
+      <c r="Q629" s="34" t="s">
+        <v>1607</v>
+      </c>
+      <c r="R629" s="35" t="s">
+        <v>1132</v>
+      </c>
+      <c r="W629" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X629" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y629" s="34">
+        <v>1621296000</v>
+      </c>
+      <c r="Z629" s="34">
+        <v>1621871999</v>
+      </c>
+      <c r="AH629" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI629" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL629" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM629" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:39">
+      <c r="A630" s="21">
+        <v>629</v>
+      </c>
+      <c r="B630" s="34">
+        <v>10546</v>
+      </c>
+      <c r="F630" s="34">
+        <v>1</v>
+      </c>
+      <c r="G630" s="34" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J630" s="34" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L630" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M630" s="33">
+        <v>0</v>
+      </c>
+      <c r="N630" s="33">
+        <v>0</v>
+      </c>
+      <c r="O630" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P630" s="34">
+        <v>29800</v>
+      </c>
+      <c r="Q630" s="34" t="s">
+        <v>1610</v>
+      </c>
+      <c r="R630" s="35" t="s">
+        <v>1128</v>
+      </c>
+      <c r="W630" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X630" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y630" s="34">
+        <v>1621296000</v>
+      </c>
+      <c r="Z630" s="34">
+        <v>1621871999</v>
+      </c>
+      <c r="AH630" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI630" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL630" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM630" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:39">
+      <c r="A631" s="21">
+        <v>630</v>
+      </c>
+      <c r="B631" s="34">
+        <v>10547</v>
+      </c>
+      <c r="F631" s="34">
+        <v>1</v>
+      </c>
+      <c r="G631" s="34" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J631" s="34" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L631" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M631" s="33">
+        <v>0</v>
+      </c>
+      <c r="N631" s="33">
+        <v>0</v>
+      </c>
+      <c r="O631" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P631" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q631" s="34" t="s">
+        <v>1610</v>
+      </c>
+      <c r="R631" s="35" t="s">
+        <v>1125</v>
+      </c>
+      <c r="W631" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X631" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y631" s="34">
+        <v>1621296000</v>
+      </c>
+      <c r="Z631" s="34">
+        <v>1621871999</v>
+      </c>
+      <c r="AH631" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI631" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL631" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM631" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:39">
+      <c r="A632" s="21">
+        <v>631</v>
+      </c>
+      <c r="B632" s="34">
+        <v>10548</v>
+      </c>
+      <c r="F632" s="34">
+        <v>1</v>
+      </c>
+      <c r="G632" s="34" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J632" s="34" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L632" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M632" s="33">
+        <v>0</v>
+      </c>
+      <c r="N632" s="33">
+        <v>0</v>
+      </c>
+      <c r="O632" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P632" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q632" s="34" t="s">
+        <v>1610</v>
+      </c>
+      <c r="R632" s="35" t="s">
+        <v>1122</v>
+      </c>
+      <c r="W632" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X632" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y632" s="34">
+        <v>1621296000</v>
+      </c>
+      <c r="Z632" s="34">
+        <v>1621871999</v>
+      </c>
+      <c r="AH632" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI632" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL632" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM632" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:39">
+      <c r="A633" s="21">
+        <v>632</v>
+      </c>
+      <c r="B633" s="34">
+        <v>10549</v>
+      </c>
+      <c r="F633" s="34">
+        <v>1</v>
+      </c>
+      <c r="G633" s="34" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J633" s="34" t="s">
+        <v>1613</v>
+      </c>
+      <c r="L633" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M633" s="33">
+        <v>0</v>
+      </c>
+      <c r="N633" s="33">
+        <v>0</v>
+      </c>
+      <c r="O633" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P633" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q633" s="34" t="s">
+        <v>1614</v>
+      </c>
+      <c r="R633" s="35" t="s">
+        <v>1118</v>
+      </c>
+      <c r="W633" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X633" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y633" s="34">
+        <v>1621296000</v>
+      </c>
+      <c r="Z633" s="34">
+        <v>1621871999</v>
+      </c>
+      <c r="AH633" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI633" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL633" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM633" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:39">
+      <c r="A634" s="21">
+        <v>633</v>
+      </c>
+      <c r="B634" s="34">
+        <v>10550</v>
+      </c>
+      <c r="F634" s="34">
+        <v>1</v>
+      </c>
+      <c r="G634" s="34" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J634" s="34" t="s">
+        <v>1615</v>
+      </c>
+      <c r="L634" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M634" s="33">
+        <v>0</v>
+      </c>
+      <c r="N634" s="33">
+        <v>0</v>
+      </c>
+      <c r="O634" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P634" s="34">
+        <v>1800</v>
+      </c>
+      <c r="Q634" s="34" t="s">
+        <v>1614</v>
+      </c>
+      <c r="R634" s="35" t="s">
+        <v>1115</v>
+      </c>
+      <c r="W634" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X634" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y634" s="34">
+        <v>1621296000</v>
+      </c>
+      <c r="Z634" s="34">
+        <v>1621871999</v>
+      </c>
+      <c r="AH634" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI634" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL634" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM634" s="34">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A542:AN548">
     <sortCondition ref="A542" descending="1"/>
@@ -53951,19 +54415,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1606</v>
+        <v>1616</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1607</v>
+        <v>1617</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1608</v>
+        <v>1618</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1609</v>
+        <v>1619</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1610</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -53971,7 +54435,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1611</v>
+        <v>1621</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -53980,7 +54444,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1612</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -53988,7 +54452,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1613</v>
+        <v>1623</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -54002,7 +54466,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1614</v>
+        <v>1624</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -54016,7 +54480,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1615</v>
+        <v>1625</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -54030,7 +54494,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1616</v>
+        <v>1626</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -54044,7 +54508,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1617</v>
+        <v>1627</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -54058,7 +54522,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1618</v>
+        <v>1628</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -54072,7 +54536,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1619</v>
+        <v>1629</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -54086,7 +54550,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1620</v>
+        <v>1630</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -54100,7 +54564,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1621</v>
+        <v>1631</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -54114,7 +54578,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1616</v>
+        <v>1626</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -54128,7 +54592,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1617</v>
+        <v>1627</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -54142,7 +54606,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1622</v>
+        <v>1632</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -54156,7 +54620,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1623</v>
+        <v>1633</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -54170,7 +54634,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1624</v>
+        <v>1634</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -54184,7 +54648,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1625</v>
+        <v>1635</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -54198,7 +54662,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1626</v>
+        <v>1636</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -54212,7 +54676,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1627</v>
+        <v>1637</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -54226,7 +54690,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1628</v>
+        <v>1638</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -54240,7 +54704,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1629</v>
+        <v>1639</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -54254,7 +54718,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1630</v>
+        <v>1640</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -54268,7 +54732,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1631</v>
+        <v>1641</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -54282,7 +54746,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1632</v>
+        <v>1642</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -54296,7 +54760,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1633</v>
+        <v>1643</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -54310,7 +54774,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1634</v>
+        <v>1644</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -54324,7 +54788,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1635</v>
+        <v>1645</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -54339,7 +54803,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1636</v>
+        <v>1646</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -54354,7 +54818,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1637</v>
+        <v>1647</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -54369,7 +54833,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1638</v>
+        <v>1648</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -54384,7 +54848,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1639</v>
+        <v>1649</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -54399,7 +54863,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1640</v>
+        <v>1650</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -54414,7 +54878,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1641</v>
+        <v>1651</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -54429,7 +54893,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1642</v>
+        <v>1652</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -54444,7 +54908,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1643</v>
+        <v>1653</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -54459,7 +54923,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1644</v>
+        <v>1654</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -54474,7 +54938,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1645</v>
+        <v>1655</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -54489,7 +54953,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1646</v>
+        <v>1656</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -54504,7 +54968,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1647</v>
+        <v>1657</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -54518,7 +54982,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1648</v>
+        <v>1658</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -54532,7 +54996,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1649</v>
+        <v>1659</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -54546,7 +55010,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -54560,7 +55024,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1651</v>
+        <v>1661</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -54574,7 +55038,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1652</v>
+        <v>1662</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -54588,7 +55052,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>1653</v>
+        <v>1663</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -54602,7 +55066,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1654</v>
+        <v>1664</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -54616,7 +55080,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>1655</v>
+        <v>1665</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -54630,7 +55094,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1656</v>
+        <v>1666</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -54644,7 +55108,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -54658,7 +55122,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -54672,7 +55136,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>1659</v>
+        <v>1669</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -54686,7 +55150,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>1660</v>
+        <v>1670</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -54700,7 +55164,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1661</v>
+        <v>1671</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -54714,7 +55178,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1662</v>
+        <v>1672</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -54728,7 +55192,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1663</v>
+        <v>1673</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -54742,7 +55206,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1664</v>
+        <v>1674</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -54756,7 +55220,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1665</v>
+        <v>1675</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -54770,7 +55234,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1666</v>
+        <v>1676</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -54784,7 +55248,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1667</v>
+        <v>1677</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -54798,7 +55262,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1668</v>
+        <v>1678</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -54812,7 +55276,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1669</v>
+        <v>1679</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -54826,7 +55290,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1670</v>
+        <v>1680</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -54840,7 +55304,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1671</v>
+        <v>1681</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -54854,7 +55318,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1672</v>
+        <v>1682</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -54868,7 +55332,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1673</v>
+        <v>1683</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -54882,7 +55346,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1674</v>
+        <v>1684</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -54896,7 +55360,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1675</v>
+        <v>1685</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -54910,7 +55374,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1676</v>
+        <v>1686</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -54924,7 +55388,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1677</v>
+        <v>1687</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -54938,7 +55402,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1678</v>
+        <v>1688</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -54952,7 +55416,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1679</v>
+        <v>1689</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -54966,7 +55430,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -54980,7 +55444,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1681</v>
+        <v>1691</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -54994,7 +55458,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1682</v>
+        <v>1692</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -55008,7 +55472,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1683</v>
+        <v>1693</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -55022,7 +55486,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1684</v>
+        <v>1694</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -55036,7 +55500,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1685</v>
+        <v>1695</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -55050,7 +55514,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1686</v>
+        <v>1696</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -55064,7 +55528,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1687</v>
+        <v>1697</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -55078,7 +55542,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1688</v>
+        <v>1698</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -55092,7 +55556,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>1689</v>
+        <v>1699</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -55106,7 +55570,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>1690</v>
+        <v>1700</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -55120,7 +55584,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>1691</v>
+        <v>1701</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -55134,7 +55598,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1692</v>
+        <v>1702</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -55148,7 +55612,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -55202,7 +55666,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1694</v>
+        <v>1704</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -55217,19 +55681,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1695</v>
+        <v>1705</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1696</v>
+        <v>1706</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1697</v>
+        <v>1707</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1698</v>
+        <v>1708</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1699</v>
+        <v>1709</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -55244,7 +55708,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1700</v>
+        <v>1710</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -55289,7 +55753,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -55309,7 +55773,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -55339,19 +55803,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -55380,7 +55844,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -55407,22 +55871,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>1707</v>
+        <v>1717</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>1708</v>
+        <v>1718</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1709</v>
+        <v>1719</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -55451,7 +55915,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -55478,22 +55942,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1711</v>
+        <v>1721</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1712</v>
+        <v>1722</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -55522,7 +55986,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -55549,22 +56013,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="R5" s="17" t="s">
+        <v>1724</v>
+      </c>
+      <c r="T5" s="17" t="s">
         <v>1714</v>
-      </c>
-      <c r="T5" s="17" t="s">
-        <v>1704</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -55593,7 +56057,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -55620,22 +56084,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1716</v>
+        <v>1726</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1717</v>
+        <v>1727</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1718</v>
+        <v>1728</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -55664,7 +56128,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -55691,22 +56155,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1719</v>
+        <v>1729</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1720</v>
+        <v>1730</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -55730,7 +56194,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -55757,22 +56221,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -55796,7 +56260,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1724</v>
+        <v>1734</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -55823,19 +56287,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -55844,7 +56308,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1725</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -55862,7 +56326,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1724</v>
+        <v>1734</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -55892,16 +56356,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1726</v>
+        <v>1736</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1709</v>
+        <v>1719</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -55910,7 +56374,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1727</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -55928,7 +56392,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -55955,22 +56419,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>1707</v>
+        <v>1717</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1708</v>
+        <v>1718</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1709</v>
+        <v>1719</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -55999,7 +56463,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -56026,22 +56490,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1728</v>
+        <v>1738</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1729</v>
+        <v>1739</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1730</v>
+        <v>1740</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -56070,7 +56534,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -56097,22 +56561,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>1731</v>
+        <v>1741</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1733</v>
+        <v>1743</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1730</v>
+        <v>1740</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -56141,7 +56605,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -56168,22 +56632,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1734</v>
+        <v>1744</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1735</v>
+        <v>1745</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1736</v>
+        <v>1746</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1738</v>
+        <v>1748</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -56207,7 +56671,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1724</v>
+        <v>1734</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -56237,20 +56701,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -56259,7 +56723,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1739</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -56282,7 +56746,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -56309,22 +56773,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1740</v>
+        <v>1750</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1741</v>
+        <v>1751</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -56348,7 +56812,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -56375,22 +56839,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1742</v>
+        <v>1752</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1743</v>
+        <v>1753</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1712</v>
+        <v>1722</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -56414,7 +56878,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -56441,22 +56905,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1744</v>
+        <v>1754</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1745</v>
+        <v>1755</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1718</v>
+        <v>1728</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -56480,7 +56944,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -56507,22 +56971,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1746</v>
+        <v>1756</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1747</v>
+        <v>1757</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1748</v>
+        <v>1758</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -56546,7 +57010,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -56573,22 +57037,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1749</v>
+        <v>1759</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1750</v>
+        <v>1760</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1748</v>
+        <v>1758</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -56612,7 +57076,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -56639,22 +57103,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -56678,7 +57142,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1724</v>
+        <v>1734</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -56705,20 +57169,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -56742,7 +57206,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1724</v>
+        <v>1734</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -56772,17 +57236,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1726</v>
+        <v>1736</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -56799,14 +57263,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1751</v>
+        <v>1761</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1724</v>
+        <v>1734</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -56836,20 +57300,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -56858,7 +57322,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1739</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -56881,7 +57345,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -56908,22 +57372,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1752</v>
+        <v>1762</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1753</v>
+        <v>1763</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1748</v>
+        <v>1758</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -56993,13 +57457,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1696</v>
+        <v>1706</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1697</v>
+        <v>1707</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -57011,16 +57475,16 @@
         <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1755</v>
+        <v>1765</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1756</v>
+        <v>1766</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1757</v>
+        <v>1767</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1758</v>
+        <v>1768</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -57061,7 +57525,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1759</v>
+        <v>1769</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -57073,7 +57537,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1760</v>
+        <v>1770</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -57082,7 +57546,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1761</v>
+        <v>1771</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -57091,22 +57555,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1762</v>
+        <v>1772</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1763</v>
+        <v>1773</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1764</v>
+        <v>1774</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1765</v>
+        <v>1775</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -57117,7 +57581,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1759</v>
+        <v>1769</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -57129,7 +57593,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1760</v>
+        <v>1770</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -57138,7 +57602,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1766</v>
+        <v>1776</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -57147,22 +57611,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1762</v>
+        <v>1772</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1767</v>
+        <v>1777</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1764</v>
+        <v>1774</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1765</v>
+        <v>1775</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -57176,7 +57640,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1768</v>
+        <v>1778</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -57201,19 +57665,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1769</v>
+        <v>1779</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1770</v>
+        <v>1780</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1771</v>
+        <v>1781</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -57224,7 +57688,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1772</v>
+        <v>1782</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -57251,10 +57715,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1773</v>
+        <v>1783</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -57265,7 +57729,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1774</v>
+        <v>1784</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -57292,10 +57756,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1773</v>
+        <v>1783</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -57306,7 +57770,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1759</v>
+        <v>1769</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -57318,7 +57782,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1775</v>
+        <v>1785</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -57327,7 +57791,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1766</v>
+        <v>1776</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -57336,22 +57800,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1776</v>
+        <v>1786</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1767</v>
+        <v>1777</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1764</v>
+        <v>1774</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1777</v>
+        <v>1787</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -57365,10 +57829,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1778</v>
+        <v>1788</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -57380,7 +57844,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1779</v>
+        <v>1789</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -57395,22 +57859,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1780</v>
+        <v>1790</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1781</v>
+        <v>1791</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1764</v>
+        <v>1774</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1782</v>
+        <v>1792</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -57421,10 +57885,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1783</v>
+        <v>1793</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -57439,16 +57903,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1784</v>
+        <v>1794</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1785</v>
+        <v>1795</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -57459,10 +57923,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1783</v>
+        <v>1793</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -57477,16 +57941,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1786</v>
+        <v>1796</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1785</v>
+        <v>1795</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -57497,10 +57961,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1783</v>
+        <v>1793</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -57515,16 +57979,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1787</v>
+        <v>1797</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1785</v>
+        <v>1795</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -57535,10 +57999,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1783</v>
+        <v>1793</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -57553,16 +58017,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1785</v>
+        <v>1795</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -57573,7 +58037,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1789</v>
+        <v>1799</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -57597,16 +58061,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1791</v>
+        <v>1801</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -57620,7 +58084,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1789</v>
+        <v>1799</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -57644,16 +58108,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1792</v>
+        <v>1802</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1791</v>
+        <v>1801</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -57667,10 +58131,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1789</v>
+        <v>1799</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1724</v>
+        <v>1734</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -57691,16 +58155,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1793</v>
+        <v>1803</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1791</v>
+        <v>1801</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -57714,10 +58178,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1794</v>
+        <v>1804</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1724</v>
+        <v>1734</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -57733,13 +58197,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1795</v>
+        <v>1805</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -57750,10 +58214,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1794</v>
+        <v>1804</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1724</v>
+        <v>1734</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -57769,13 +58233,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1796</v>
+        <v>1806</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -57786,7 +58250,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1794</v>
+        <v>1804</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -57805,13 +58269,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1795</v>
+        <v>1805</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -57822,7 +58286,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1794</v>
+        <v>1804</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -57841,13 +58305,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1796</v>
+        <v>1806</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -57858,7 +58322,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1797</v>
+        <v>1807</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -57876,16 +58340,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1798</v>
+        <v>1808</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1799</v>
+        <v>1809</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -57896,7 +58360,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -57914,16 +58378,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1801</v>
+        <v>1811</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1802</v>
+        <v>1812</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5050" uniqueCount="1813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="1833">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5769,6 +5769,66 @@
   </si>
   <si>
     <t>"180万金币","10万小游戏币","水滴*5"</t>
+  </si>
+  <si>
+    <t>话费礼包</t>
+  </si>
+  <si>
+    <t>"60万金币","28话费碎片"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei"</t>
+  </si>
+  <si>
+    <t>600000,28,</t>
+  </si>
+  <si>
+    <t>"100万金币","48话费碎片"</t>
+  </si>
+  <si>
+    <t>1000000,48,</t>
+  </si>
+  <si>
+    <t>"180万金币","98话费碎片"</t>
+  </si>
+  <si>
+    <t>1800000,98,</t>
+  </si>
+  <si>
+    <t>"180万金币","58话费碎片"</t>
+  </si>
+  <si>
+    <t>1800000,58,</t>
+  </si>
+  <si>
+    <t>"300万金币","98话费碎片"</t>
+  </si>
+  <si>
+    <t>3000000,98,</t>
+  </si>
+  <si>
+    <t>"480万金币","168话费碎片"</t>
+  </si>
+  <si>
+    <t>4800000,168,</t>
+  </si>
+  <si>
+    <t>"980万金币","338话费碎片"</t>
+  </si>
+  <si>
+    <t>9800000,338,</t>
+  </si>
+  <si>
+    <t>"1980万金币","688话费碎片"</t>
+  </si>
+  <si>
+    <t>19800000,688,</t>
+  </si>
+  <si>
+    <t>"4980万金币","1688话费碎片"</t>
+  </si>
+  <si>
+    <t>49800000,1688,</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6646,9 +6706,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -6690,44 +6750,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6742,47 +6842,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6803,22 +6863,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -6826,8 +6870,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6943,7 +7003,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6955,7 +7057,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6967,121 +7135,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7133,26 +7193,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7181,28 +7243,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7225,8 +7285,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7238,10 +7298,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7250,133 +7310,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13567,14 +13627,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN634"/>
+  <dimension ref="A1:AN646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W619" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H631" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z640" sqref="Z640"/>
+      <selection pane="bottomRight" activeCell="H656" sqref="H656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -52029,8 +52089,8 @@
       <c r="B599" s="33">
         <v>10515</v>
       </c>
-      <c r="F599" s="33">
-        <v>1</v>
+      <c r="F599" s="21">
+        <v>0</v>
       </c>
       <c r="G599" s="33" t="s">
         <v>1386</v>
@@ -52097,8 +52157,8 @@
       <c r="B600" s="33">
         <v>10516</v>
       </c>
-      <c r="F600" s="33">
-        <v>1</v>
+      <c r="F600" s="21">
+        <v>0</v>
       </c>
       <c r="G600" s="33" t="s">
         <v>1386</v>
@@ -52165,8 +52225,8 @@
       <c r="B601" s="33">
         <v>10517</v>
       </c>
-      <c r="F601" s="33">
-        <v>1</v>
+      <c r="F601" s="21">
+        <v>0</v>
       </c>
       <c r="G601" s="33" t="s">
         <v>1386</v>
@@ -52233,8 +52293,8 @@
       <c r="B602" s="33">
         <v>10518</v>
       </c>
-      <c r="F602" s="33">
-        <v>1</v>
+      <c r="F602" s="21">
+        <v>0</v>
       </c>
       <c r="G602" s="33" t="s">
         <v>1386</v>
@@ -52301,8 +52361,8 @@
       <c r="B603" s="33">
         <v>10519</v>
       </c>
-      <c r="F603" s="33">
-        <v>1</v>
+      <c r="F603" s="21">
+        <v>0</v>
       </c>
       <c r="G603" s="33" t="s">
         <v>1386</v>
@@ -52369,8 +52429,8 @@
       <c r="B604" s="33">
         <v>10520</v>
       </c>
-      <c r="F604" s="33">
-        <v>1</v>
+      <c r="F604" s="21">
+        <v>0</v>
       </c>
       <c r="G604" s="33" t="s">
         <v>1386</v>
@@ -52437,8 +52497,8 @@
       <c r="B605" s="33">
         <v>10521</v>
       </c>
-      <c r="F605" s="33">
-        <v>1</v>
+      <c r="F605" s="21">
+        <v>0</v>
       </c>
       <c r="G605" s="33" t="s">
         <v>1386</v>
@@ -52505,8 +52565,8 @@
       <c r="B606" s="33">
         <v>10522</v>
       </c>
-      <c r="F606" s="33">
-        <v>1</v>
+      <c r="F606" s="21">
+        <v>0</v>
       </c>
       <c r="G606" s="33" t="s">
         <v>1386</v>
@@ -52573,8 +52633,8 @@
       <c r="B607" s="33">
         <v>10523</v>
       </c>
-      <c r="F607" s="33">
-        <v>1</v>
+      <c r="F607" s="21">
+        <v>0</v>
       </c>
       <c r="G607" s="33" t="s">
         <v>1386</v>
@@ -52641,8 +52701,8 @@
       <c r="B608" s="33">
         <v>10524</v>
       </c>
-      <c r="F608" s="33">
-        <v>1</v>
+      <c r="F608" s="21">
+        <v>0</v>
       </c>
       <c r="G608" s="33" t="s">
         <v>1386</v>
@@ -52709,8 +52769,8 @@
       <c r="B609" s="33">
         <v>10525</v>
       </c>
-      <c r="F609" s="33">
-        <v>1</v>
+      <c r="F609" s="21">
+        <v>0</v>
       </c>
       <c r="G609" s="33" t="s">
         <v>1386</v>
@@ -52777,8 +52837,8 @@
       <c r="B610" s="33">
         <v>10526</v>
       </c>
-      <c r="F610" s="33">
-        <v>1</v>
+      <c r="F610" s="21">
+        <v>0</v>
       </c>
       <c r="G610" s="33" t="s">
         <v>1386</v>
@@ -52845,8 +52905,8 @@
       <c r="B611" s="34">
         <v>10527</v>
       </c>
-      <c r="F611" s="34">
-        <v>1</v>
+      <c r="F611" s="21">
+        <v>0</v>
       </c>
       <c r="G611" s="34" t="s">
         <v>1571</v>
@@ -52907,8 +52967,8 @@
       <c r="B612" s="34">
         <v>10528</v>
       </c>
-      <c r="F612" s="34">
-        <v>1</v>
+      <c r="F612" s="21">
+        <v>0</v>
       </c>
       <c r="G612" s="34" t="s">
         <v>1571</v>
@@ -52969,8 +53029,8 @@
       <c r="B613" s="34">
         <v>10529</v>
       </c>
-      <c r="F613" s="34">
-        <v>1</v>
+      <c r="F613" s="21">
+        <v>0</v>
       </c>
       <c r="G613" s="34" t="s">
         <v>1571</v>
@@ -53031,8 +53091,8 @@
       <c r="B614" s="34">
         <v>10530</v>
       </c>
-      <c r="F614" s="34">
-        <v>1</v>
+      <c r="F614" s="21">
+        <v>0</v>
       </c>
       <c r="G614" s="34" t="s">
         <v>1571</v>
@@ -53093,8 +53153,8 @@
       <c r="B615" s="34">
         <v>10531</v>
       </c>
-      <c r="F615" s="34">
-        <v>1</v>
+      <c r="F615" s="21">
+        <v>0</v>
       </c>
       <c r="G615" s="34" t="s">
         <v>1571</v>
@@ -53155,8 +53215,8 @@
       <c r="B616" s="34">
         <v>10532</v>
       </c>
-      <c r="F616" s="34">
-        <v>1</v>
+      <c r="F616" s="21">
+        <v>0</v>
       </c>
       <c r="G616" s="34" t="s">
         <v>1571</v>
@@ -53217,8 +53277,8 @@
       <c r="B617" s="34">
         <v>10533</v>
       </c>
-      <c r="F617" s="34">
-        <v>1</v>
+      <c r="F617" s="21">
+        <v>0</v>
       </c>
       <c r="G617" s="34" t="s">
         <v>1585</v>
@@ -53282,8 +53342,8 @@
       <c r="B618" s="34">
         <v>10534</v>
       </c>
-      <c r="F618" s="34">
-        <v>1</v>
+      <c r="F618" s="21">
+        <v>0</v>
       </c>
       <c r="G618" s="34" t="s">
         <v>1585</v>
@@ -53347,8 +53407,8 @@
       <c r="B619" s="34">
         <v>10535</v>
       </c>
-      <c r="F619" s="34">
-        <v>1</v>
+      <c r="F619" s="21">
+        <v>0</v>
       </c>
       <c r="G619" s="34" t="s">
         <v>1586</v>
@@ -53415,8 +53475,8 @@
       <c r="B620" s="34">
         <v>10536</v>
       </c>
-      <c r="F620" s="34">
-        <v>1</v>
+      <c r="F620" s="21">
+        <v>0</v>
       </c>
       <c r="G620" s="34" t="s">
         <v>1586</v>
@@ -53483,8 +53543,8 @@
       <c r="B621" s="34">
         <v>10537</v>
       </c>
-      <c r="F621" s="34">
-        <v>1</v>
+      <c r="F621" s="21">
+        <v>0</v>
       </c>
       <c r="G621" s="34" t="s">
         <v>1586</v>
@@ -53551,8 +53611,8 @@
       <c r="B622" s="34">
         <v>10538</v>
       </c>
-      <c r="F622" s="34">
-        <v>1</v>
+      <c r="F622" s="21">
+        <v>0</v>
       </c>
       <c r="G622" s="34" t="s">
         <v>1586</v>
@@ -53619,8 +53679,8 @@
       <c r="B623" s="34">
         <v>10539</v>
       </c>
-      <c r="F623" s="34">
-        <v>1</v>
+      <c r="F623" s="21">
+        <v>0</v>
       </c>
       <c r="G623" s="34" t="s">
         <v>1586</v>
@@ -53687,8 +53747,8 @@
       <c r="B624" s="34">
         <v>10540</v>
       </c>
-      <c r="F624" s="34">
-        <v>1</v>
+      <c r="F624" s="21">
+        <v>0</v>
       </c>
       <c r="G624" s="34" t="s">
         <v>1586</v>
@@ -53755,8 +53815,8 @@
       <c r="B625" s="34">
         <v>10541</v>
       </c>
-      <c r="F625" s="34">
-        <v>1</v>
+      <c r="F625" s="21">
+        <v>0</v>
       </c>
       <c r="G625" s="34" t="s">
         <v>1586</v>
@@ -53823,8 +53883,8 @@
       <c r="B626" s="34">
         <v>10542</v>
       </c>
-      <c r="F626" s="34">
-        <v>1</v>
+      <c r="F626" s="21">
+        <v>0</v>
       </c>
       <c r="G626" s="34" t="s">
         <v>1586</v>
@@ -53891,8 +53951,8 @@
       <c r="B627" s="34">
         <v>10543</v>
       </c>
-      <c r="F627" s="34">
-        <v>1</v>
+      <c r="F627" s="21">
+        <v>0</v>
       </c>
       <c r="G627" s="34" t="s">
         <v>1586</v>
@@ -53959,8 +54019,8 @@
       <c r="B628" s="34">
         <v>10544</v>
       </c>
-      <c r="F628" s="34">
-        <v>1</v>
+      <c r="F628" s="21">
+        <v>0</v>
       </c>
       <c r="G628" s="34" t="s">
         <v>1112</v>
@@ -54021,8 +54081,8 @@
       <c r="B629" s="34">
         <v>10545</v>
       </c>
-      <c r="F629" s="34">
-        <v>1</v>
+      <c r="F629" s="21">
+        <v>0</v>
       </c>
       <c r="G629" s="34" t="s">
         <v>1116</v>
@@ -54083,8 +54143,8 @@
       <c r="B630" s="34">
         <v>10546</v>
       </c>
-      <c r="F630" s="34">
-        <v>1</v>
+      <c r="F630" s="21">
+        <v>0</v>
       </c>
       <c r="G630" s="34" t="s">
         <v>1119</v>
@@ -54145,8 +54205,8 @@
       <c r="B631" s="34">
         <v>10547</v>
       </c>
-      <c r="F631" s="34">
-        <v>1</v>
+      <c r="F631" s="21">
+        <v>0</v>
       </c>
       <c r="G631" s="34" t="s">
         <v>1123</v>
@@ -54207,8 +54267,8 @@
       <c r="B632" s="34">
         <v>10548</v>
       </c>
-      <c r="F632" s="34">
-        <v>1</v>
+      <c r="F632" s="21">
+        <v>0</v>
       </c>
       <c r="G632" s="34" t="s">
         <v>1126</v>
@@ -54269,8 +54329,8 @@
       <c r="B633" s="34">
         <v>10549</v>
       </c>
-      <c r="F633" s="34">
-        <v>1</v>
+      <c r="F633" s="21">
+        <v>0</v>
       </c>
       <c r="G633" s="34" t="s">
         <v>1129</v>
@@ -54331,8 +54391,8 @@
       <c r="B634" s="34">
         <v>10550</v>
       </c>
-      <c r="F634" s="34">
-        <v>1</v>
+      <c r="F634" s="21">
+        <v>0</v>
       </c>
       <c r="G634" s="34" t="s">
         <v>1133</v>
@@ -54383,6 +54443,822 @@
         <v>1</v>
       </c>
       <c r="AM634" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:39">
+      <c r="A635" s="21">
+        <v>634</v>
+      </c>
+      <c r="B635" s="34">
+        <v>10551</v>
+      </c>
+      <c r="F635" s="34">
+        <v>1</v>
+      </c>
+      <c r="G635" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I635" s="33" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J635" s="34" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L635" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M635" s="33">
+        <v>0</v>
+      </c>
+      <c r="N635" s="33">
+        <v>0</v>
+      </c>
+      <c r="O635" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P635" s="34">
+        <v>600</v>
+      </c>
+      <c r="Q635" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R635" s="35" t="s">
+        <v>1619</v>
+      </c>
+      <c r="W635" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X635" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y635" s="34">
+        <v>1621900800</v>
+      </c>
+      <c r="Z635" s="34">
+        <v>1622476799</v>
+      </c>
+      <c r="AA635" s="34">
+        <v>80</v>
+      </c>
+      <c r="AH635" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI635" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL635" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM635" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:39">
+      <c r="A636" s="21">
+        <v>635</v>
+      </c>
+      <c r="B636" s="34">
+        <v>10552</v>
+      </c>
+      <c r="F636" s="34">
+        <v>1</v>
+      </c>
+      <c r="G636" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I636" s="33" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J636" s="34" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L636" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M636" s="33">
+        <v>0</v>
+      </c>
+      <c r="N636" s="33">
+        <v>0</v>
+      </c>
+      <c r="O636" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P636" s="34">
+        <v>1000</v>
+      </c>
+      <c r="Q636" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R636" s="35" t="s">
+        <v>1621</v>
+      </c>
+      <c r="W636" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X636" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y636" s="34">
+        <v>1621900800</v>
+      </c>
+      <c r="Z636" s="34">
+        <v>1622476799</v>
+      </c>
+      <c r="AA636" s="34">
+        <v>80</v>
+      </c>
+      <c r="AH636" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI636" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL636" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM636" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:39">
+      <c r="A637" s="21">
+        <v>636</v>
+      </c>
+      <c r="B637" s="34">
+        <v>10553</v>
+      </c>
+      <c r="F637" s="34">
+        <v>1</v>
+      </c>
+      <c r="G637" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I637" s="33" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J637" s="34" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L637" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M637" s="33">
+        <v>0</v>
+      </c>
+      <c r="N637" s="33">
+        <v>0</v>
+      </c>
+      <c r="O637" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P637" s="34">
+        <v>1800</v>
+      </c>
+      <c r="Q637" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R637" s="35" t="s">
+        <v>1623</v>
+      </c>
+      <c r="W637" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X637" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y637" s="34">
+        <v>1621900800</v>
+      </c>
+      <c r="Z637" s="34">
+        <v>1622476799</v>
+      </c>
+      <c r="AA637" s="34">
+        <v>80</v>
+      </c>
+      <c r="AH637" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI637" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL637" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM637" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:39">
+      <c r="A638" s="21">
+        <v>637</v>
+      </c>
+      <c r="B638" s="34">
+        <v>10554</v>
+      </c>
+      <c r="F638" s="34">
+        <v>1</v>
+      </c>
+      <c r="G638" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I638" s="33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J638" s="34" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L638" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M638" s="33">
+        <v>0</v>
+      </c>
+      <c r="N638" s="33">
+        <v>0</v>
+      </c>
+      <c r="O638" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P638" s="34">
+        <v>1800</v>
+      </c>
+      <c r="Q638" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R638" s="35" t="s">
+        <v>1625</v>
+      </c>
+      <c r="W638" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X638" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y638" s="34">
+        <v>1621900800</v>
+      </c>
+      <c r="Z638" s="34">
+        <v>1622476799</v>
+      </c>
+      <c r="AA638" s="34">
+        <v>81</v>
+      </c>
+      <c r="AH638" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI638" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL638" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM638" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:39">
+      <c r="A639" s="21">
+        <v>638</v>
+      </c>
+      <c r="B639" s="34">
+        <v>10555</v>
+      </c>
+      <c r="F639" s="34">
+        <v>1</v>
+      </c>
+      <c r="G639" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I639" s="33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J639" s="34" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L639" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M639" s="33">
+        <v>0</v>
+      </c>
+      <c r="N639" s="33">
+        <v>0</v>
+      </c>
+      <c r="O639" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P639" s="34">
+        <v>3000</v>
+      </c>
+      <c r="Q639" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R639" s="35" t="s">
+        <v>1627</v>
+      </c>
+      <c r="W639" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X639" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y639" s="34">
+        <v>1621900800</v>
+      </c>
+      <c r="Z639" s="34">
+        <v>1622476799</v>
+      </c>
+      <c r="AA639" s="34">
+        <v>81</v>
+      </c>
+      <c r="AH639" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI639" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL639" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM639" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:39">
+      <c r="A640" s="21">
+        <v>639</v>
+      </c>
+      <c r="B640" s="34">
+        <v>10556</v>
+      </c>
+      <c r="F640" s="34">
+        <v>1</v>
+      </c>
+      <c r="G640" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I640" s="33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J640" s="34" t="s">
+        <v>1628</v>
+      </c>
+      <c r="L640" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M640" s="33">
+        <v>0</v>
+      </c>
+      <c r="N640" s="33">
+        <v>0</v>
+      </c>
+      <c r="O640" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P640" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q640" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R640" s="35" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W640" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X640" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y640" s="34">
+        <v>1621900800</v>
+      </c>
+      <c r="Z640" s="34">
+        <v>1622476799</v>
+      </c>
+      <c r="AA640" s="34">
+        <v>81</v>
+      </c>
+      <c r="AH640" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI640" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL640" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM640" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:39">
+      <c r="A641" s="21">
+        <v>640</v>
+      </c>
+      <c r="B641" s="34">
+        <v>10557</v>
+      </c>
+      <c r="F641" s="34">
+        <v>1</v>
+      </c>
+      <c r="G641" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I641" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J641" s="34" t="s">
+        <v>1628</v>
+      </c>
+      <c r="L641" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M641" s="33">
+        <v>0</v>
+      </c>
+      <c r="N641" s="33">
+        <v>0</v>
+      </c>
+      <c r="O641" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P641" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q641" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R641" s="35" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W641" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X641" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y641" s="34">
+        <v>1621900800</v>
+      </c>
+      <c r="Z641" s="34">
+        <v>1622476799</v>
+      </c>
+      <c r="AA641" s="34">
+        <v>82</v>
+      </c>
+      <c r="AH641" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI641" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL641" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM641" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:39">
+      <c r="A642" s="21">
+        <v>641</v>
+      </c>
+      <c r="B642" s="34">
+        <v>10558</v>
+      </c>
+      <c r="F642" s="34">
+        <v>1</v>
+      </c>
+      <c r="G642" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I642" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J642" s="34" t="s">
+        <v>1630</v>
+      </c>
+      <c r="L642" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M642" s="33">
+        <v>0</v>
+      </c>
+      <c r="N642" s="33">
+        <v>0</v>
+      </c>
+      <c r="O642" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P642" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q642" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R642" s="35" t="s">
+        <v>1631</v>
+      </c>
+      <c r="W642" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X642" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y642" s="34">
+        <v>1621900800</v>
+      </c>
+      <c r="Z642" s="34">
+        <v>1622476799</v>
+      </c>
+      <c r="AA642" s="34">
+        <v>82</v>
+      </c>
+      <c r="AH642" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI642" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL642" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM642" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:39">
+      <c r="A643" s="21">
+        <v>642</v>
+      </c>
+      <c r="B643" s="34">
+        <v>10559</v>
+      </c>
+      <c r="F643" s="34">
+        <v>1</v>
+      </c>
+      <c r="G643" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I643" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J643" s="34" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L643" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M643" s="33">
+        <v>0</v>
+      </c>
+      <c r="N643" s="33">
+        <v>0</v>
+      </c>
+      <c r="O643" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P643" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q643" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R643" s="35" t="s">
+        <v>1633</v>
+      </c>
+      <c r="W643" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X643" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y643" s="34">
+        <v>1621900800</v>
+      </c>
+      <c r="Z643" s="34">
+        <v>1622476799</v>
+      </c>
+      <c r="AA643" s="34">
+        <v>82</v>
+      </c>
+      <c r="AH643" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI643" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL643" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM643" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:39">
+      <c r="A644" s="21">
+        <v>643</v>
+      </c>
+      <c r="B644" s="34">
+        <v>10560</v>
+      </c>
+      <c r="F644" s="34">
+        <v>1</v>
+      </c>
+      <c r="G644" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I644" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J644" s="34" t="s">
+        <v>1630</v>
+      </c>
+      <c r="L644" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M644" s="33">
+        <v>0</v>
+      </c>
+      <c r="N644" s="33">
+        <v>0</v>
+      </c>
+      <c r="O644" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P644" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q644" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R644" s="35" t="s">
+        <v>1631</v>
+      </c>
+      <c r="W644" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X644" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y644" s="34">
+        <v>1621900800</v>
+      </c>
+      <c r="Z644" s="34">
+        <v>1622476799</v>
+      </c>
+      <c r="AA644" s="34">
+        <v>83</v>
+      </c>
+      <c r="AH644" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI644" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL644" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM644" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:39">
+      <c r="A645" s="21">
+        <v>644</v>
+      </c>
+      <c r="B645" s="34">
+        <v>10561</v>
+      </c>
+      <c r="F645" s="34">
+        <v>1</v>
+      </c>
+      <c r="G645" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I645" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J645" s="34" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L645" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M645" s="33">
+        <v>0</v>
+      </c>
+      <c r="N645" s="33">
+        <v>0</v>
+      </c>
+      <c r="O645" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P645" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q645" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R645" s="35" t="s">
+        <v>1633</v>
+      </c>
+      <c r="W645" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X645" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y645" s="34">
+        <v>1621900800</v>
+      </c>
+      <c r="Z645" s="34">
+        <v>1622476799</v>
+      </c>
+      <c r="AA645" s="34">
+        <v>83</v>
+      </c>
+      <c r="AH645" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI645" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL645" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM645" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:39">
+      <c r="A646" s="21">
+        <v>645</v>
+      </c>
+      <c r="B646" s="34">
+        <v>10562</v>
+      </c>
+      <c r="F646" s="34">
+        <v>1</v>
+      </c>
+      <c r="G646" s="34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I646" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J646" s="34" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L646" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M646" s="33">
+        <v>0</v>
+      </c>
+      <c r="N646" s="33">
+        <v>0</v>
+      </c>
+      <c r="O646" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P646" s="34">
+        <v>49800</v>
+      </c>
+      <c r="Q646" s="34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R646" s="35" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W646" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X646" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y646" s="34">
+        <v>1621900800</v>
+      </c>
+      <c r="Z646" s="34">
+        <v>1622476799</v>
+      </c>
+      <c r="AA646" s="34">
+        <v>83</v>
+      </c>
+      <c r="AH646" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI646" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL646" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM646" s="34">
         <v>1</v>
       </c>
     </row>
@@ -54415,19 +55291,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1616</v>
+        <v>1636</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1617</v>
+        <v>1637</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1618</v>
+        <v>1638</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1619</v>
+        <v>1639</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1620</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -54435,7 +55311,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1621</v>
+        <v>1641</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -54444,7 +55320,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1622</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -54452,7 +55328,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1623</v>
+        <v>1643</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -54466,7 +55342,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1624</v>
+        <v>1644</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -54480,7 +55356,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1625</v>
+        <v>1645</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -54494,7 +55370,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1626</v>
+        <v>1646</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -54508,7 +55384,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1627</v>
+        <v>1647</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -54522,7 +55398,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1628</v>
+        <v>1648</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -54536,7 +55412,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1629</v>
+        <v>1649</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -54550,7 +55426,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1630</v>
+        <v>1650</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -54564,7 +55440,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1631</v>
+        <v>1651</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -54578,7 +55454,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1626</v>
+        <v>1646</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -54592,7 +55468,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1627</v>
+        <v>1647</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -54606,7 +55482,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1632</v>
+        <v>1652</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -54620,7 +55496,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1633</v>
+        <v>1653</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -54634,7 +55510,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1634</v>
+        <v>1654</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -54648,7 +55524,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1635</v>
+        <v>1655</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -54662,7 +55538,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1636</v>
+        <v>1656</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -54676,7 +55552,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1637</v>
+        <v>1657</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -54690,7 +55566,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1638</v>
+        <v>1658</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -54704,7 +55580,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1639</v>
+        <v>1659</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -54718,7 +55594,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1640</v>
+        <v>1660</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -54732,7 +55608,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1641</v>
+        <v>1661</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -54746,7 +55622,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1642</v>
+        <v>1662</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -54760,7 +55636,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1643</v>
+        <v>1663</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -54774,7 +55650,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1644</v>
+        <v>1664</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -54788,7 +55664,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1645</v>
+        <v>1665</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -54803,7 +55679,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1646</v>
+        <v>1666</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -54818,7 +55694,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -54833,7 +55709,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1648</v>
+        <v>1668</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -54848,7 +55724,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -54863,7 +55739,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -54878,7 +55754,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1651</v>
+        <v>1671</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -54893,7 +55769,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -54908,7 +55784,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1653</v>
+        <v>1673</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -54923,7 +55799,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1654</v>
+        <v>1674</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -54938,7 +55814,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1655</v>
+        <v>1675</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -54953,7 +55829,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1656</v>
+        <v>1676</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -54968,7 +55844,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1657</v>
+        <v>1677</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -54982,7 +55858,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1658</v>
+        <v>1678</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -54996,7 +55872,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1659</v>
+        <v>1679</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -55010,7 +55886,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -55024,7 +55900,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1661</v>
+        <v>1681</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -55038,7 +55914,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1662</v>
+        <v>1682</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -55052,7 +55928,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>1663</v>
+        <v>1683</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -55066,7 +55942,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1664</v>
+        <v>1684</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -55080,7 +55956,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>1665</v>
+        <v>1685</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -55094,7 +55970,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -55108,7 +55984,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1667</v>
+        <v>1687</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -55122,7 +55998,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>1668</v>
+        <v>1688</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -55136,7 +56012,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>1669</v>
+        <v>1689</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -55150,7 +56026,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>1670</v>
+        <v>1690</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -55164,7 +56040,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1671</v>
+        <v>1691</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -55178,7 +56054,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1672</v>
+        <v>1692</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -55192,7 +56068,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1673</v>
+        <v>1693</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -55206,7 +56082,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1674</v>
+        <v>1694</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -55220,7 +56096,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -55234,7 +56110,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1676</v>
+        <v>1696</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -55248,7 +56124,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1677</v>
+        <v>1697</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -55262,7 +56138,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1678</v>
+        <v>1698</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -55276,7 +56152,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1679</v>
+        <v>1699</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -55290,7 +56166,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1680</v>
+        <v>1700</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -55304,7 +56180,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1681</v>
+        <v>1701</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -55318,7 +56194,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -55332,7 +56208,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1683</v>
+        <v>1703</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -55346,7 +56222,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -55360,7 +56236,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -55374,7 +56250,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -55388,7 +56264,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1687</v>
+        <v>1707</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -55402,7 +56278,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1688</v>
+        <v>1708</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -55416,7 +56292,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1689</v>
+        <v>1709</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -55430,7 +56306,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -55444,7 +56320,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1691</v>
+        <v>1711</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -55458,7 +56334,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1692</v>
+        <v>1712</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -55472,7 +56348,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -55486,7 +56362,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -55500,7 +56376,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -55514,7 +56390,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1696</v>
+        <v>1716</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -55528,7 +56404,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1697</v>
+        <v>1717</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -55542,7 +56418,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1698</v>
+        <v>1718</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -55556,7 +56432,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>1699</v>
+        <v>1719</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -55570,7 +56446,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>1700</v>
+        <v>1720</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -55584,7 +56460,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>1701</v>
+        <v>1721</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -55598,7 +56474,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1702</v>
+        <v>1722</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -55612,7 +56488,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>1703</v>
+        <v>1723</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -55666,7 +56542,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -55681,19 +56557,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1705</v>
+        <v>1725</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1706</v>
+        <v>1726</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1707</v>
+        <v>1727</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1708</v>
+        <v>1728</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1709</v>
+        <v>1729</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -55708,7 +56584,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1710</v>
+        <v>1730</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -55753,7 +56629,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -55773,7 +56649,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -55803,19 +56679,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -55844,7 +56720,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -55871,22 +56747,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>1717</v>
+        <v>1737</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>1718</v>
+        <v>1738</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1719</v>
+        <v>1739</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -55915,7 +56791,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -55942,22 +56818,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1721</v>
+        <v>1741</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1722</v>
+        <v>1742</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -55986,7 +56862,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -56013,22 +56889,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -56057,7 +56933,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -56084,22 +56960,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1726</v>
+        <v>1746</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1727</v>
+        <v>1747</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -56128,7 +57004,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -56155,22 +57031,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1729</v>
+        <v>1749</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1730</v>
+        <v>1750</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1731</v>
+        <v>1751</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -56194,7 +57070,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -56221,22 +57097,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -56260,7 +57136,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -56287,19 +57163,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -56308,7 +57184,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1735</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -56326,7 +57202,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -56356,16 +57232,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1736</v>
+        <v>1756</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1719</v>
+        <v>1739</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -56374,7 +57250,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1737</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -56392,7 +57268,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -56419,22 +57295,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>1717</v>
+        <v>1737</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1718</v>
+        <v>1738</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1719</v>
+        <v>1739</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -56463,7 +57339,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -56490,22 +57366,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1738</v>
+        <v>1758</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1740</v>
+        <v>1760</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -56534,7 +57410,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -56561,22 +57437,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>1741</v>
+        <v>1761</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1743</v>
+        <v>1763</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1740</v>
+        <v>1760</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -56605,7 +57481,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -56632,22 +57508,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1745</v>
+        <v>1765</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1747</v>
+        <v>1767</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1748</v>
+        <v>1768</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -56671,7 +57547,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -56701,20 +57577,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -56723,7 +57599,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1749</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -56746,7 +57622,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -56773,22 +57649,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1750</v>
+        <v>1770</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1751</v>
+        <v>1771</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -56812,7 +57688,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -56839,22 +57715,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1752</v>
+        <v>1772</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1753</v>
+        <v>1773</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1722</v>
+        <v>1742</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -56878,7 +57754,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -56905,22 +57781,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1754</v>
+        <v>1774</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1755</v>
+        <v>1775</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -56944,7 +57820,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -56971,22 +57847,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1756</v>
+        <v>1776</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1757</v>
+        <v>1777</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1758</v>
+        <v>1778</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -57010,7 +57886,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -57037,22 +57913,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1759</v>
+        <v>1779</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1760</v>
+        <v>1780</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1758</v>
+        <v>1778</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -57076,7 +57952,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -57103,22 +57979,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -57142,7 +58018,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -57169,20 +58045,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -57206,7 +58082,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -57236,17 +58112,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1736</v>
+        <v>1756</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -57263,14 +58139,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1761</v>
+        <v>1781</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -57300,20 +58176,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -57322,7 +58198,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1749</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -57345,7 +58221,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -57372,22 +58248,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1762</v>
+        <v>1782</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1763</v>
+        <v>1783</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1758</v>
+        <v>1778</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -57457,13 +58333,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1706</v>
+        <v>1726</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1707</v>
+        <v>1727</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1764</v>
+        <v>1784</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -57475,16 +58351,16 @@
         <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1765</v>
+        <v>1785</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1766</v>
+        <v>1786</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1767</v>
+        <v>1787</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1768</v>
+        <v>1788</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -57525,7 +58401,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1769</v>
+        <v>1789</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -57537,7 +58413,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1770</v>
+        <v>1790</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -57546,7 +58422,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -57555,22 +58431,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1772</v>
+        <v>1792</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1773</v>
+        <v>1793</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1775</v>
+        <v>1795</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -57581,7 +58457,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1769</v>
+        <v>1789</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -57593,7 +58469,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1770</v>
+        <v>1790</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -57602,7 +58478,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1776</v>
+        <v>1796</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -57611,22 +58487,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1772</v>
+        <v>1792</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1777</v>
+        <v>1797</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1775</v>
+        <v>1795</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -57640,7 +58516,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1778</v>
+        <v>1798</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -57665,19 +58541,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1779</v>
+        <v>1799</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1780</v>
+        <v>1800</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1781</v>
+        <v>1801</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -57688,7 +58564,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1782</v>
+        <v>1802</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -57715,10 +58591,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1783</v>
+        <v>1803</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -57729,7 +58605,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -57756,10 +58632,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1783</v>
+        <v>1803</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -57770,7 +58646,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1769</v>
+        <v>1789</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -57782,7 +58658,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1785</v>
+        <v>1805</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -57791,7 +58667,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1776</v>
+        <v>1796</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -57800,22 +58676,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1786</v>
+        <v>1806</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1777</v>
+        <v>1797</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1787</v>
+        <v>1807</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -57829,10 +58705,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1788</v>
+        <v>1808</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -57844,7 +58720,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -57859,22 +58735,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1790</v>
+        <v>1810</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1791</v>
+        <v>1811</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1792</v>
+        <v>1812</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -57885,10 +58761,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1793</v>
+        <v>1813</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -57903,16 +58779,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1794</v>
+        <v>1814</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1795</v>
+        <v>1815</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -57923,10 +58799,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1793</v>
+        <v>1813</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -57941,16 +58817,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1796</v>
+        <v>1816</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1795</v>
+        <v>1815</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -57961,10 +58837,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1793</v>
+        <v>1813</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -57979,16 +58855,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1797</v>
+        <v>1817</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1795</v>
+        <v>1815</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -57999,10 +58875,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1793</v>
+        <v>1813</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -58017,16 +58893,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1798</v>
+        <v>1818</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1795</v>
+        <v>1815</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -58037,7 +58913,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1799</v>
+        <v>1819</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -58061,16 +58937,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1801</v>
+        <v>1821</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -58084,7 +58960,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1799</v>
+        <v>1819</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -58108,16 +58984,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1802</v>
+        <v>1822</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1801</v>
+        <v>1821</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -58131,10 +59007,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1799</v>
+        <v>1819</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -58155,16 +59031,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1803</v>
+        <v>1823</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1801</v>
+        <v>1821</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -58178,10 +59054,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1804</v>
+        <v>1824</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -58197,13 +59073,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1805</v>
+        <v>1825</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -58214,10 +59090,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1804</v>
+        <v>1824</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -58233,13 +59109,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1806</v>
+        <v>1826</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -58250,7 +59126,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1804</v>
+        <v>1824</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -58269,13 +59145,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1805</v>
+        <v>1825</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -58286,7 +59162,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1804</v>
+        <v>1824</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -58305,13 +59181,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1806</v>
+        <v>1826</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -58322,7 +59198,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1807</v>
+        <v>1827</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -58340,16 +59216,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1808</v>
+        <v>1828</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1809</v>
+        <v>1829</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -58360,7 +59236,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -58378,16 +59254,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1811</v>
+        <v>1831</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1812</v>
+        <v>1832</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="1833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5182" uniqueCount="1841">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5829,6 +5829,30 @@
   </si>
   <si>
     <t>49800000,1688,</t>
+  </si>
+  <si>
+    <t>海王礼包</t>
+  </si>
+  <si>
+    <t>"500万金币","海王炮台(30天)"</t>
+  </si>
+  <si>
+    <t>"jing_bi","gun_barrel_13",</t>
+  </si>
+  <si>
+    <t>5000000,2592000</t>
+  </si>
+  <si>
+    <t>2505600,1,0</t>
+  </si>
+  <si>
+    <t>海王礼包至尊版</t>
+  </si>
+  <si>
+    <t>"980万金币","海王炮台(30天)"</t>
+  </si>
+  <si>
+    <t>9800000,2592000</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6706,10 +6730,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6750,15 +6774,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6772,31 +6826,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6810,53 +6841,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6872,9 +6858,25 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6887,7 +6889,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7003,7 +7027,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7015,13 +7057,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7033,25 +7087,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7069,13 +7105,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7087,73 +7177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7195,11 +7219,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7215,15 +7267,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7246,38 +7289,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7285,8 +7298,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7298,10 +7322,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7310,133 +7334,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13627,14 +13651,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN646"/>
+  <dimension ref="A1:AN654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H631" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H641" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H656" sqref="H656"/>
+      <selection pane="bottomRight" activeCell="A649" sqref="$A649:$XFD654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -55262,6 +55286,502 @@
         <v>1</v>
       </c>
     </row>
+    <row r="647" s="28" customFormat="1" spans="1:39">
+      <c r="A647" s="28">
+        <v>646</v>
+      </c>
+      <c r="B647" s="34">
+        <v>10563</v>
+      </c>
+      <c r="F647" s="28">
+        <v>1</v>
+      </c>
+      <c r="G647" s="28" t="s">
+        <v>1636</v>
+      </c>
+      <c r="J647" s="28" t="s">
+        <v>1637</v>
+      </c>
+      <c r="L647" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M647" s="28">
+        <v>0</v>
+      </c>
+      <c r="N647" s="28">
+        <v>0</v>
+      </c>
+      <c r="O647" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P647" s="28">
+        <v>19800</v>
+      </c>
+      <c r="Q647" s="28" t="s">
+        <v>1638</v>
+      </c>
+      <c r="R647" s="45" t="s">
+        <v>1639</v>
+      </c>
+      <c r="W647" s="28" t="s">
+        <v>1640</v>
+      </c>
+      <c r="X647" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y647" s="28">
+        <v>1620576000</v>
+      </c>
+      <c r="Z647" s="28">
+        <v>2552233600</v>
+      </c>
+      <c r="AH647" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI647" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL647" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM647" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" s="28" customFormat="1" spans="1:39">
+      <c r="A648" s="28">
+        <v>647</v>
+      </c>
+      <c r="B648" s="34">
+        <v>10564</v>
+      </c>
+      <c r="F648" s="28">
+        <v>1</v>
+      </c>
+      <c r="G648" s="28" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J648" s="28" t="s">
+        <v>1642</v>
+      </c>
+      <c r="L648" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M648" s="28">
+        <v>0</v>
+      </c>
+      <c r="N648" s="28">
+        <v>0</v>
+      </c>
+      <c r="O648" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P648" s="28">
+        <v>69800</v>
+      </c>
+      <c r="Q648" s="28" t="s">
+        <v>1638</v>
+      </c>
+      <c r="R648" s="45" t="s">
+        <v>1643</v>
+      </c>
+      <c r="W648" s="28" t="s">
+        <v>1640</v>
+      </c>
+      <c r="X648" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y648" s="28">
+        <v>1620576000</v>
+      </c>
+      <c r="Z648" s="28">
+        <v>2552233600</v>
+      </c>
+      <c r="AH648" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI648" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL648" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM648" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:39">
+      <c r="A649" s="21">
+        <v>648</v>
+      </c>
+      <c r="B649" s="34">
+        <v>10565</v>
+      </c>
+      <c r="F649" s="34">
+        <v>1</v>
+      </c>
+      <c r="G649" s="34" t="s">
+        <v>1386</v>
+      </c>
+      <c r="J649" s="33" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L649" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M649" s="33">
+        <v>0</v>
+      </c>
+      <c r="N649" s="33">
+        <v>0</v>
+      </c>
+      <c r="O649" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P649" s="34">
+        <v>49800</v>
+      </c>
+      <c r="Q649" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R649" s="35" t="s">
+        <v>1574</v>
+      </c>
+      <c r="W649" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X649" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y649" s="34">
+        <v>1622505600</v>
+      </c>
+      <c r="Z649" s="34">
+        <v>1623081599</v>
+      </c>
+      <c r="AH649" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI649" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL649" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM649" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:39">
+      <c r="A650" s="21">
+        <v>649</v>
+      </c>
+      <c r="B650" s="34">
+        <v>10566</v>
+      </c>
+      <c r="F650" s="34">
+        <v>1</v>
+      </c>
+      <c r="G650" s="34" t="s">
+        <v>1386</v>
+      </c>
+      <c r="J650" s="33" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L650" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M650" s="33">
+        <v>0</v>
+      </c>
+      <c r="N650" s="33">
+        <v>0</v>
+      </c>
+      <c r="O650" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P650" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q650" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R650" s="35" t="s">
+        <v>1576</v>
+      </c>
+      <c r="W650" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X650" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y650" s="34">
+        <v>1622505600</v>
+      </c>
+      <c r="Z650" s="34">
+        <v>1623081599</v>
+      </c>
+      <c r="AH650" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI650" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL650" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM650" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:39">
+      <c r="A651" s="21">
+        <v>650</v>
+      </c>
+      <c r="B651" s="34">
+        <v>10567</v>
+      </c>
+      <c r="F651" s="34">
+        <v>1</v>
+      </c>
+      <c r="G651" s="34" t="s">
+        <v>1386</v>
+      </c>
+      <c r="J651" s="33" t="s">
+        <v>1577</v>
+      </c>
+      <c r="L651" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M651" s="33">
+        <v>0</v>
+      </c>
+      <c r="N651" s="33">
+        <v>0</v>
+      </c>
+      <c r="O651" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P651" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q651" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R651" s="35" t="s">
+        <v>1578</v>
+      </c>
+      <c r="W651" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X651" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y651" s="34">
+        <v>1622505600</v>
+      </c>
+      <c r="Z651" s="34">
+        <v>1623081599</v>
+      </c>
+      <c r="AH651" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI651" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL651" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM651" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:39">
+      <c r="A652" s="21">
+        <v>651</v>
+      </c>
+      <c r="B652" s="34">
+        <v>10568</v>
+      </c>
+      <c r="F652" s="34">
+        <v>1</v>
+      </c>
+      <c r="G652" s="34" t="s">
+        <v>1386</v>
+      </c>
+      <c r="J652" s="33" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L652" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M652" s="33">
+        <v>0</v>
+      </c>
+      <c r="N652" s="33">
+        <v>0</v>
+      </c>
+      <c r="O652" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P652" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q652" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R652" s="35" t="s">
+        <v>1580</v>
+      </c>
+      <c r="W652" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X652" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y652" s="34">
+        <v>1622505600</v>
+      </c>
+      <c r="Z652" s="34">
+        <v>1623081599</v>
+      </c>
+      <c r="AH652" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI652" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL652" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM652" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:39">
+      <c r="A653" s="21">
+        <v>652</v>
+      </c>
+      <c r="B653" s="34">
+        <v>10569</v>
+      </c>
+      <c r="F653" s="34">
+        <v>1</v>
+      </c>
+      <c r="G653" s="34" t="s">
+        <v>1386</v>
+      </c>
+      <c r="J653" s="33" t="s">
+        <v>1581</v>
+      </c>
+      <c r="L653" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M653" s="33">
+        <v>0</v>
+      </c>
+      <c r="N653" s="33">
+        <v>0</v>
+      </c>
+      <c r="O653" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P653" s="34">
+        <v>2000</v>
+      </c>
+      <c r="Q653" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R653" s="35" t="s">
+        <v>1582</v>
+      </c>
+      <c r="W653" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X653" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y653" s="34">
+        <v>1622505600</v>
+      </c>
+      <c r="Z653" s="34">
+        <v>1623081599</v>
+      </c>
+      <c r="AH653" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI653" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL653" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM653" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:39">
+      <c r="A654" s="21">
+        <v>653</v>
+      </c>
+      <c r="B654" s="34">
+        <v>10570</v>
+      </c>
+      <c r="F654" s="34">
+        <v>1</v>
+      </c>
+      <c r="G654" s="34" t="s">
+        <v>1386</v>
+      </c>
+      <c r="J654" s="33" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L654" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M654" s="33">
+        <v>0</v>
+      </c>
+      <c r="N654" s="33">
+        <v>0</v>
+      </c>
+      <c r="O654" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P654" s="34">
+        <v>600</v>
+      </c>
+      <c r="Q654" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R654" s="35" t="s">
+        <v>1584</v>
+      </c>
+      <c r="W654" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X654" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y654" s="34">
+        <v>1622505600</v>
+      </c>
+      <c r="Z654" s="34">
+        <v>1623081599</v>
+      </c>
+      <c r="AH654" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI654" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL654" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM654" s="34">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A542:AN548">
     <sortCondition ref="A542" descending="1"/>
@@ -55291,19 +55811,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1636</v>
+        <v>1644</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1637</v>
+        <v>1645</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1638</v>
+        <v>1646</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1640</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -55311,7 +55831,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -55320,7 +55840,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1642</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -55328,7 +55848,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -55342,7 +55862,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1644</v>
+        <v>1652</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -55356,7 +55876,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1645</v>
+        <v>1653</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -55370,7 +55890,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1646</v>
+        <v>1654</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -55384,7 +55904,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1647</v>
+        <v>1655</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -55398,7 +55918,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1648</v>
+        <v>1656</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -55412,7 +55932,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1649</v>
+        <v>1657</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -55426,7 +55946,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1650</v>
+        <v>1658</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -55440,7 +55960,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1651</v>
+        <v>1659</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -55454,7 +55974,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1646</v>
+        <v>1654</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -55468,7 +55988,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1647</v>
+        <v>1655</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -55482,7 +56002,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1652</v>
+        <v>1660</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -55496,7 +56016,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1653</v>
+        <v>1661</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -55510,7 +56030,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1654</v>
+        <v>1662</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -55524,7 +56044,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -55538,7 +56058,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1656</v>
+        <v>1664</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -55552,7 +56072,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -55566,7 +56086,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1658</v>
+        <v>1666</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -55580,7 +56100,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1659</v>
+        <v>1667</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -55594,7 +56114,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1660</v>
+        <v>1668</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -55608,7 +56128,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1661</v>
+        <v>1669</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -55622,7 +56142,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1662</v>
+        <v>1670</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -55636,7 +56156,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1663</v>
+        <v>1671</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -55650,7 +56170,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1664</v>
+        <v>1672</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -55664,7 +56184,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1665</v>
+        <v>1673</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -55679,7 +56199,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -55694,7 +56214,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1667</v>
+        <v>1675</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -55709,7 +56229,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1668</v>
+        <v>1676</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -55724,7 +56244,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -55739,7 +56259,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1670</v>
+        <v>1678</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -55754,7 +56274,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1671</v>
+        <v>1679</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -55769,7 +56289,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1672</v>
+        <v>1680</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -55784,7 +56304,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1673</v>
+        <v>1681</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -55799,7 +56319,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1674</v>
+        <v>1682</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -55814,7 +56334,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1675</v>
+        <v>1683</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -55829,7 +56349,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1676</v>
+        <v>1684</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -55844,7 +56364,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1677</v>
+        <v>1685</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -55858,7 +56378,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1678</v>
+        <v>1686</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -55872,7 +56392,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1679</v>
+        <v>1687</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -55886,7 +56406,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -55900,7 +56420,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -55914,7 +56434,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -55928,7 +56448,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -55942,7 +56462,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -55956,7 +56476,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -55970,7 +56490,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1686</v>
+        <v>1694</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -55984,7 +56504,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -55998,7 +56518,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>1688</v>
+        <v>1696</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -56012,7 +56532,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>1689</v>
+        <v>1697</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -56026,7 +56546,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -56040,7 +56560,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -56054,7 +56574,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -56068,7 +56588,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1693</v>
+        <v>1701</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -56082,7 +56602,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -56096,7 +56616,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -56110,7 +56630,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -56124,7 +56644,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -56138,7 +56658,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -56152,7 +56672,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -56166,7 +56686,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -56180,7 +56700,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1701</v>
+        <v>1709</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -56194,7 +56714,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1702</v>
+        <v>1710</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -56208,7 +56728,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -56222,7 +56742,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -56236,7 +56756,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -56250,7 +56770,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -56264,7 +56784,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1707</v>
+        <v>1715</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -56278,7 +56798,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -56292,7 +56812,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1709</v>
+        <v>1717</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -56306,7 +56826,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1710</v>
+        <v>1718</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -56320,7 +56840,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1711</v>
+        <v>1719</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -56334,7 +56854,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1712</v>
+        <v>1720</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -56348,7 +56868,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1713</v>
+        <v>1721</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -56362,7 +56882,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1714</v>
+        <v>1722</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -56376,7 +56896,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1715</v>
+        <v>1723</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -56390,7 +56910,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -56404,7 +56924,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1717</v>
+        <v>1725</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -56418,7 +56938,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1718</v>
+        <v>1726</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -56432,7 +56952,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>1719</v>
+        <v>1727</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -56446,7 +56966,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>1720</v>
+        <v>1728</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -56460,7 +56980,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>1721</v>
+        <v>1729</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -56474,7 +56994,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1722</v>
+        <v>1730</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -56488,7 +57008,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>1723</v>
+        <v>1731</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -56542,7 +57062,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -56557,19 +57077,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1727</v>
+        <v>1735</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1728</v>
+        <v>1736</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1729</v>
+        <v>1737</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -56584,7 +57104,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1730</v>
+        <v>1738</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -56629,7 +57149,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1731</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -56649,7 +57169,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -56679,19 +57199,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1733</v>
+        <v>1741</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -56720,7 +57240,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -56747,22 +57267,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>1737</v>
+        <v>1745</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -56791,7 +57311,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -56818,22 +57338,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1741</v>
+        <v>1749</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1742</v>
+        <v>1750</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -56862,7 +57382,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -56889,22 +57409,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -56933,7 +57453,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -56960,22 +57480,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -57004,7 +57524,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -57031,22 +57551,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -57070,7 +57590,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -57097,22 +57617,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -57136,7 +57656,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -57163,19 +57683,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -57184,7 +57704,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -57202,7 +57722,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -57232,16 +57752,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -57250,7 +57770,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1757</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -57268,7 +57788,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -57295,22 +57815,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>1737</v>
+        <v>1745</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -57339,7 +57859,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -57366,22 +57886,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1759</v>
+        <v>1767</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -57410,7 +57930,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -57437,22 +57957,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -57481,7 +58001,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -57508,22 +58028,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1768</v>
+        <v>1776</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -57547,7 +58067,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -57577,20 +58097,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -57599,7 +58119,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -57622,7 +58142,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -57649,22 +58169,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1770</v>
+        <v>1778</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -57688,7 +58208,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -57715,22 +58235,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1772</v>
+        <v>1780</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1742</v>
+        <v>1750</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -57754,7 +58274,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -57781,22 +58301,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1775</v>
+        <v>1783</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -57820,7 +58340,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -57847,22 +58367,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1776</v>
+        <v>1784</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -57886,7 +58406,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -57913,22 +58433,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1779</v>
+        <v>1787</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -57952,7 +58472,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -57979,22 +58499,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -58018,7 +58538,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -58045,20 +58565,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -58082,7 +58602,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -58112,17 +58632,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -58139,14 +58659,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1781</v>
+        <v>1789</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -58176,20 +58696,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -58198,7 +58718,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -58221,7 +58741,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -58248,22 +58768,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -58333,13 +58853,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1727</v>
+        <v>1735</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -58351,16 +58871,16 @@
         <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1786</v>
+        <v>1794</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1787</v>
+        <v>1795</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1788</v>
+        <v>1796</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -58401,7 +58921,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -58413,7 +58933,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -58422,7 +58942,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -58431,22 +58951,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1793</v>
+        <v>1801</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1795</v>
+        <v>1803</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -58457,7 +58977,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -58469,7 +58989,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -58478,7 +58998,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1796</v>
+        <v>1804</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -58487,22 +59007,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1795</v>
+        <v>1803</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -58516,7 +59036,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1798</v>
+        <v>1806</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -58541,19 +59061,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -58564,7 +59084,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -58591,10 +59111,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -58605,7 +59125,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -58632,10 +59152,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -58646,7 +59166,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -58658,7 +59178,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -58667,7 +59187,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1796</v>
+        <v>1804</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -58676,22 +59196,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -58705,10 +59225,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1808</v>
+        <v>1816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -58720,7 +59240,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -58735,22 +59255,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1810</v>
+        <v>1818</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -58761,10 +59281,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -58779,16 +59299,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -58799,10 +59319,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -58817,16 +59337,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -58837,10 +59357,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -58855,16 +59375,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1817</v>
+        <v>1825</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -58875,10 +59395,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -58893,16 +59413,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -58913,7 +59433,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -58937,16 +59457,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -58960,7 +59480,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -58984,16 +59504,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -59007,10 +59527,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -59031,16 +59551,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -59054,10 +59574,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -59073,13 +59593,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -59090,10 +59610,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -59109,13 +59629,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -59126,7 +59646,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -59145,13 +59665,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -59162,7 +59682,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -59181,13 +59701,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -59198,7 +59718,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -59216,16 +59736,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -59236,7 +59756,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -59254,16 +59774,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5182" uniqueCount="1841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5224" uniqueCount="1841">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6731,8 +6731,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -6780,6 +6780,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -6787,8 +6816,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6803,16 +6863,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6827,69 +6904,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6897,21 +6912,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7033,25 +7033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7069,7 +7051,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7087,19 +7111,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7111,25 +7153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7141,13 +7165,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7159,25 +7177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7217,15 +7217,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7257,21 +7248,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -7288,9 +7264,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7306,11 +7284,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7325,7 +7325,7 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7334,97 +7334,97 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7433,10 +7433,10 @@
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7445,22 +7445,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13651,14 +13651,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN654"/>
+  <dimension ref="A1:AN661"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H641" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A649" sqref="$A649:$XFD654"/>
+      <selection pane="bottomRight" activeCell="H669" sqref="H669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -54477,8 +54477,8 @@
       <c r="B635" s="34">
         <v>10551</v>
       </c>
-      <c r="F635" s="34">
-        <v>1</v>
+      <c r="F635" s="21">
+        <v>0</v>
       </c>
       <c r="G635" s="34" t="s">
         <v>1616</v>
@@ -54545,8 +54545,8 @@
       <c r="B636" s="34">
         <v>10552</v>
       </c>
-      <c r="F636" s="34">
-        <v>1</v>
+      <c r="F636" s="21">
+        <v>0</v>
       </c>
       <c r="G636" s="34" t="s">
         <v>1616</v>
@@ -54613,8 +54613,8 @@
       <c r="B637" s="34">
         <v>10553</v>
       </c>
-      <c r="F637" s="34">
-        <v>1</v>
+      <c r="F637" s="21">
+        <v>0</v>
       </c>
       <c r="G637" s="34" t="s">
         <v>1616</v>
@@ -54681,8 +54681,8 @@
       <c r="B638" s="34">
         <v>10554</v>
       </c>
-      <c r="F638" s="34">
-        <v>1</v>
+      <c r="F638" s="21">
+        <v>0</v>
       </c>
       <c r="G638" s="34" t="s">
         <v>1616</v>
@@ -54749,8 +54749,8 @@
       <c r="B639" s="34">
         <v>10555</v>
       </c>
-      <c r="F639" s="34">
-        <v>1</v>
+      <c r="F639" s="21">
+        <v>0</v>
       </c>
       <c r="G639" s="34" t="s">
         <v>1616</v>
@@ -54817,8 +54817,8 @@
       <c r="B640" s="34">
         <v>10556</v>
       </c>
-      <c r="F640" s="34">
-        <v>1</v>
+      <c r="F640" s="21">
+        <v>0</v>
       </c>
       <c r="G640" s="34" t="s">
         <v>1616</v>
@@ -54885,8 +54885,8 @@
       <c r="B641" s="34">
         <v>10557</v>
       </c>
-      <c r="F641" s="34">
-        <v>1</v>
+      <c r="F641" s="21">
+        <v>0</v>
       </c>
       <c r="G641" s="34" t="s">
         <v>1616</v>
@@ -54953,8 +54953,8 @@
       <c r="B642" s="34">
         <v>10558</v>
       </c>
-      <c r="F642" s="34">
-        <v>1</v>
+      <c r="F642" s="21">
+        <v>0</v>
       </c>
       <c r="G642" s="34" t="s">
         <v>1616</v>
@@ -55021,8 +55021,8 @@
       <c r="B643" s="34">
         <v>10559</v>
       </c>
-      <c r="F643" s="34">
-        <v>1</v>
+      <c r="F643" s="21">
+        <v>0</v>
       </c>
       <c r="G643" s="34" t="s">
         <v>1616</v>
@@ -55089,8 +55089,8 @@
       <c r="B644" s="34">
         <v>10560</v>
       </c>
-      <c r="F644" s="34">
-        <v>1</v>
+      <c r="F644" s="21">
+        <v>0</v>
       </c>
       <c r="G644" s="34" t="s">
         <v>1616</v>
@@ -55157,8 +55157,8 @@
       <c r="B645" s="34">
         <v>10561</v>
       </c>
-      <c r="F645" s="34">
-        <v>1</v>
+      <c r="F645" s="21">
+        <v>0</v>
       </c>
       <c r="G645" s="34" t="s">
         <v>1616</v>
@@ -55225,8 +55225,8 @@
       <c r="B646" s="34">
         <v>10562</v>
       </c>
-      <c r="F646" s="34">
-        <v>1</v>
+      <c r="F646" s="21">
+        <v>0</v>
       </c>
       <c r="G646" s="34" t="s">
         <v>1616</v>
@@ -55418,7 +55418,7 @@
         <v>10565</v>
       </c>
       <c r="F649" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G649" s="34" t="s">
         <v>1386</v>
@@ -55480,7 +55480,7 @@
         <v>10566</v>
       </c>
       <c r="F650" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G650" s="34" t="s">
         <v>1386</v>
@@ -55542,7 +55542,7 @@
         <v>10567</v>
       </c>
       <c r="F651" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G651" s="34" t="s">
         <v>1386</v>
@@ -55604,7 +55604,7 @@
         <v>10568</v>
       </c>
       <c r="F652" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G652" s="34" t="s">
         <v>1386</v>
@@ -55666,7 +55666,7 @@
         <v>10569</v>
       </c>
       <c r="F653" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G653" s="34" t="s">
         <v>1386</v>
@@ -55728,7 +55728,7 @@
         <v>10570</v>
       </c>
       <c r="F654" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G654" s="34" t="s">
         <v>1386</v>
@@ -55779,6 +55779,440 @@
         <v>1</v>
       </c>
       <c r="AM654" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:39">
+      <c r="A655" s="21">
+        <v>654</v>
+      </c>
+      <c r="B655" s="34">
+        <v>10571</v>
+      </c>
+      <c r="F655" s="34">
+        <v>1</v>
+      </c>
+      <c r="G655" s="34" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J655" s="34" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L655" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M655" s="33">
+        <v>0</v>
+      </c>
+      <c r="N655" s="33">
+        <v>0</v>
+      </c>
+      <c r="O655" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P655" s="34">
+        <v>99800</v>
+      </c>
+      <c r="Q655" s="34" t="s">
+        <v>1607</v>
+      </c>
+      <c r="R655" s="35" t="s">
+        <v>1135</v>
+      </c>
+      <c r="W655" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X655" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y655" s="34">
+        <v>1623110400</v>
+      </c>
+      <c r="Z655" s="34">
+        <v>1623686399</v>
+      </c>
+      <c r="AH655" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI655" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL655" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM655" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:39">
+      <c r="A656" s="21">
+        <v>655</v>
+      </c>
+      <c r="B656" s="34">
+        <v>10572</v>
+      </c>
+      <c r="F656" s="34">
+        <v>1</v>
+      </c>
+      <c r="G656" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J656" s="34" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L656" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M656" s="33">
+        <v>0</v>
+      </c>
+      <c r="N656" s="33">
+        <v>0</v>
+      </c>
+      <c r="O656" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P656" s="34">
+        <v>49800</v>
+      </c>
+      <c r="Q656" s="34" t="s">
+        <v>1607</v>
+      </c>
+      <c r="R656" s="35" t="s">
+        <v>1132</v>
+      </c>
+      <c r="W656" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X656" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y656" s="34">
+        <v>1623110400</v>
+      </c>
+      <c r="Z656" s="34">
+        <v>1623686399</v>
+      </c>
+      <c r="AH656" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI656" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL656" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM656" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:39">
+      <c r="A657" s="21">
+        <v>656</v>
+      </c>
+      <c r="B657" s="34">
+        <v>10573</v>
+      </c>
+      <c r="F657" s="34">
+        <v>1</v>
+      </c>
+      <c r="G657" s="34" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J657" s="34" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L657" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M657" s="33">
+        <v>0</v>
+      </c>
+      <c r="N657" s="33">
+        <v>0</v>
+      </c>
+      <c r="O657" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P657" s="34">
+        <v>29800</v>
+      </c>
+      <c r="Q657" s="34" t="s">
+        <v>1610</v>
+      </c>
+      <c r="R657" s="35" t="s">
+        <v>1128</v>
+      </c>
+      <c r="W657" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X657" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y657" s="34">
+        <v>1623110400</v>
+      </c>
+      <c r="Z657" s="34">
+        <v>1623686399</v>
+      </c>
+      <c r="AH657" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI657" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL657" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM657" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:39">
+      <c r="A658" s="21">
+        <v>657</v>
+      </c>
+      <c r="B658" s="34">
+        <v>10574</v>
+      </c>
+      <c r="F658" s="34">
+        <v>1</v>
+      </c>
+      <c r="G658" s="34" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J658" s="34" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L658" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M658" s="33">
+        <v>0</v>
+      </c>
+      <c r="N658" s="33">
+        <v>0</v>
+      </c>
+      <c r="O658" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P658" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q658" s="34" t="s">
+        <v>1610</v>
+      </c>
+      <c r="R658" s="35" t="s">
+        <v>1125</v>
+      </c>
+      <c r="W658" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X658" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y658" s="34">
+        <v>1623110400</v>
+      </c>
+      <c r="Z658" s="34">
+        <v>1623686399</v>
+      </c>
+      <c r="AH658" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI658" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL658" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM658" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:39">
+      <c r="A659" s="21">
+        <v>658</v>
+      </c>
+      <c r="B659" s="34">
+        <v>10575</v>
+      </c>
+      <c r="F659" s="34">
+        <v>1</v>
+      </c>
+      <c r="G659" s="34" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J659" s="34" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L659" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M659" s="33">
+        <v>0</v>
+      </c>
+      <c r="N659" s="33">
+        <v>0</v>
+      </c>
+      <c r="O659" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P659" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q659" s="34" t="s">
+        <v>1610</v>
+      </c>
+      <c r="R659" s="35" t="s">
+        <v>1122</v>
+      </c>
+      <c r="W659" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X659" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y659" s="34">
+        <v>1623110400</v>
+      </c>
+      <c r="Z659" s="34">
+        <v>1623686399</v>
+      </c>
+      <c r="AH659" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI659" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL659" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM659" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:39">
+      <c r="A660" s="21">
+        <v>659</v>
+      </c>
+      <c r="B660" s="34">
+        <v>10576</v>
+      </c>
+      <c r="F660" s="34">
+        <v>1</v>
+      </c>
+      <c r="G660" s="34" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J660" s="34" t="s">
+        <v>1613</v>
+      </c>
+      <c r="L660" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M660" s="33">
+        <v>0</v>
+      </c>
+      <c r="N660" s="33">
+        <v>0</v>
+      </c>
+      <c r="O660" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P660" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q660" s="34" t="s">
+        <v>1614</v>
+      </c>
+      <c r="R660" s="35" t="s">
+        <v>1118</v>
+      </c>
+      <c r="W660" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X660" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y660" s="34">
+        <v>1623110400</v>
+      </c>
+      <c r="Z660" s="34">
+        <v>1623686399</v>
+      </c>
+      <c r="AH660" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI660" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL660" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM660" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:39">
+      <c r="A661" s="21">
+        <v>660</v>
+      </c>
+      <c r="B661" s="34">
+        <v>10577</v>
+      </c>
+      <c r="F661" s="34">
+        <v>1</v>
+      </c>
+      <c r="G661" s="34" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J661" s="34" t="s">
+        <v>1615</v>
+      </c>
+      <c r="L661" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M661" s="33">
+        <v>0</v>
+      </c>
+      <c r="N661" s="33">
+        <v>0</v>
+      </c>
+      <c r="O661" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P661" s="34">
+        <v>1800</v>
+      </c>
+      <c r="Q661" s="34" t="s">
+        <v>1614</v>
+      </c>
+      <c r="R661" s="35" t="s">
+        <v>1115</v>
+      </c>
+      <c r="W661" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X661" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y661" s="34">
+        <v>1623110400</v>
+      </c>
+      <c r="Z661" s="34">
+        <v>1623686399</v>
+      </c>
+      <c r="AH661" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI661" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL661" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM661" s="34">
         <v>1</v>
       </c>
     </row>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5224" uniqueCount="1841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="1841">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6774,7 +6774,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6782,7 +6790,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6796,31 +6825,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6840,8 +6855,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6849,14 +6865,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6884,14 +6892,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7027,7 +7027,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7039,25 +7117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7069,67 +7129,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7147,7 +7159,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7165,19 +7177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7217,17 +7217,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7247,17 +7247,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7273,11 +7267,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7287,15 +7296,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7322,10 +7322,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7334,133 +7334,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13651,14 +13651,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN661"/>
+  <dimension ref="A1:AN670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H641" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H644" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H669" sqref="H669"/>
+      <selection pane="bottomRight" activeCell="G675" sqref="G675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -55790,7 +55790,7 @@
         <v>10571</v>
       </c>
       <c r="F655" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G655" s="34" t="s">
         <v>1112</v>
@@ -55852,7 +55852,7 @@
         <v>10572</v>
       </c>
       <c r="F656" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G656" s="34" t="s">
         <v>1116</v>
@@ -55914,7 +55914,7 @@
         <v>10573</v>
       </c>
       <c r="F657" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G657" s="34" t="s">
         <v>1119</v>
@@ -55976,7 +55976,7 @@
         <v>10574</v>
       </c>
       <c r="F658" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G658" s="34" t="s">
         <v>1123</v>
@@ -56038,7 +56038,7 @@
         <v>10575</v>
       </c>
       <c r="F659" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G659" s="34" t="s">
         <v>1126</v>
@@ -56100,7 +56100,7 @@
         <v>10576</v>
       </c>
       <c r="F660" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G660" s="34" t="s">
         <v>1129</v>
@@ -56162,7 +56162,7 @@
         <v>10577</v>
       </c>
       <c r="F661" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G661" s="34" t="s">
         <v>1133</v>
@@ -56213,6 +56213,618 @@
         <v>1</v>
       </c>
       <c r="AM661" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:39">
+      <c r="A662" s="21">
+        <v>661</v>
+      </c>
+      <c r="B662" s="34">
+        <v>10578</v>
+      </c>
+      <c r="F662" s="34">
+        <v>1</v>
+      </c>
+      <c r="G662" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I662" s="33" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J662" s="34" t="s">
+        <v>1588</v>
+      </c>
+      <c r="L662" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M662" s="33">
+        <v>0</v>
+      </c>
+      <c r="N662" s="33">
+        <v>0</v>
+      </c>
+      <c r="O662" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P662" s="34">
+        <v>1800</v>
+      </c>
+      <c r="Q662" s="34" t="s">
+        <v>1589</v>
+      </c>
+      <c r="R662" s="35" t="s">
+        <v>1071</v>
+      </c>
+      <c r="W662" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X662" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y662" s="34">
+        <v>1623715200</v>
+      </c>
+      <c r="Z662" s="34">
+        <v>1624291199</v>
+      </c>
+      <c r="AA662" s="34">
+        <v>44</v>
+      </c>
+      <c r="AH662" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI662" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL662" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM662" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:39">
+      <c r="A663" s="21">
+        <v>662</v>
+      </c>
+      <c r="B663" s="34">
+        <v>10579</v>
+      </c>
+      <c r="F663" s="34">
+        <v>1</v>
+      </c>
+      <c r="G663" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I663" s="33" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J663" s="34" t="s">
+        <v>1590</v>
+      </c>
+      <c r="L663" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M663" s="33">
+        <v>0</v>
+      </c>
+      <c r="N663" s="33">
+        <v>0</v>
+      </c>
+      <c r="O663" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P663" s="34">
+        <v>3000</v>
+      </c>
+      <c r="Q663" s="34" t="s">
+        <v>1591</v>
+      </c>
+      <c r="R663" s="35" t="s">
+        <v>1075</v>
+      </c>
+      <c r="W663" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X663" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y663" s="34">
+        <v>1623715200</v>
+      </c>
+      <c r="Z663" s="34">
+        <v>1624291199</v>
+      </c>
+      <c r="AA663" s="34">
+        <v>44</v>
+      </c>
+      <c r="AH663" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI663" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL663" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM663" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:39">
+      <c r="A664" s="21">
+        <v>663</v>
+      </c>
+      <c r="B664" s="34">
+        <v>10580</v>
+      </c>
+      <c r="F664" s="34">
+        <v>1</v>
+      </c>
+      <c r="G664" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I664" s="33" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J664" s="34" t="s">
+        <v>1592</v>
+      </c>
+      <c r="L664" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M664" s="33">
+        <v>0</v>
+      </c>
+      <c r="N664" s="33">
+        <v>0</v>
+      </c>
+      <c r="O664" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P664" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q664" s="34" t="s">
+        <v>1593</v>
+      </c>
+      <c r="R664" s="35" t="s">
+        <v>1079</v>
+      </c>
+      <c r="W664" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X664" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y664" s="34">
+        <v>1623715200</v>
+      </c>
+      <c r="Z664" s="34">
+        <v>1624291199</v>
+      </c>
+      <c r="AA664" s="34">
+        <v>44</v>
+      </c>
+      <c r="AH664" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI664" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL664" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM664" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:39">
+      <c r="A665" s="21">
+        <v>664</v>
+      </c>
+      <c r="B665" s="34">
+        <v>10581</v>
+      </c>
+      <c r="F665" s="34">
+        <v>1</v>
+      </c>
+      <c r="G665" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I665" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J665" s="34" t="s">
+        <v>1594</v>
+      </c>
+      <c r="L665" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M665" s="33">
+        <v>0</v>
+      </c>
+      <c r="N665" s="33">
+        <v>0</v>
+      </c>
+      <c r="O665" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P665" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q665" s="34" t="s">
+        <v>1595</v>
+      </c>
+      <c r="R665" s="35" t="s">
+        <v>1079</v>
+      </c>
+      <c r="W665" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X665" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y665" s="34">
+        <v>1623715200</v>
+      </c>
+      <c r="Z665" s="34">
+        <v>1624291199</v>
+      </c>
+      <c r="AA665" s="34">
+        <v>45</v>
+      </c>
+      <c r="AH665" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI665" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL665" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM665" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:39">
+      <c r="A666" s="21">
+        <v>665</v>
+      </c>
+      <c r="B666" s="34">
+        <v>10582</v>
+      </c>
+      <c r="F666" s="34">
+        <v>1</v>
+      </c>
+      <c r="G666" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I666" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J666" s="34" t="s">
+        <v>1596</v>
+      </c>
+      <c r="L666" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M666" s="33">
+        <v>0</v>
+      </c>
+      <c r="N666" s="33">
+        <v>0</v>
+      </c>
+      <c r="O666" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P666" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q666" s="34" t="s">
+        <v>1597</v>
+      </c>
+      <c r="R666" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="W666" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X666" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y666" s="34">
+        <v>1623715200</v>
+      </c>
+      <c r="Z666" s="34">
+        <v>1624291199</v>
+      </c>
+      <c r="AA666" s="34">
+        <v>45</v>
+      </c>
+      <c r="AH666" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI666" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL666" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM666" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:39">
+      <c r="A667" s="21">
+        <v>666</v>
+      </c>
+      <c r="B667" s="34">
+        <v>10583</v>
+      </c>
+      <c r="F667" s="34">
+        <v>1</v>
+      </c>
+      <c r="G667" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I667" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J667" s="34" t="s">
+        <v>1598</v>
+      </c>
+      <c r="L667" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M667" s="33">
+        <v>0</v>
+      </c>
+      <c r="N667" s="33">
+        <v>0</v>
+      </c>
+      <c r="O667" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P667" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q667" s="34" t="s">
+        <v>1599</v>
+      </c>
+      <c r="R667" s="35" t="s">
+        <v>1087</v>
+      </c>
+      <c r="W667" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X667" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y667" s="34">
+        <v>1623715200</v>
+      </c>
+      <c r="Z667" s="34">
+        <v>1624291199</v>
+      </c>
+      <c r="AA667" s="34">
+        <v>45</v>
+      </c>
+      <c r="AH667" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI667" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL667" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM667" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:39">
+      <c r="A668" s="21">
+        <v>667</v>
+      </c>
+      <c r="B668" s="34">
+        <v>10584</v>
+      </c>
+      <c r="F668" s="34">
+        <v>1</v>
+      </c>
+      <c r="G668" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I668" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J668" s="34" t="s">
+        <v>1600</v>
+      </c>
+      <c r="L668" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M668" s="33">
+        <v>0</v>
+      </c>
+      <c r="N668" s="33">
+        <v>0</v>
+      </c>
+      <c r="O668" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P668" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q668" s="34" t="s">
+        <v>1601</v>
+      </c>
+      <c r="R668" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="W668" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X668" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y668" s="34">
+        <v>1623715200</v>
+      </c>
+      <c r="Z668" s="34">
+        <v>1624291199</v>
+      </c>
+      <c r="AA668" s="34">
+        <v>46</v>
+      </c>
+      <c r="AH668" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI668" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL668" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM668" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:39">
+      <c r="A669" s="21">
+        <v>668</v>
+      </c>
+      <c r="B669" s="34">
+        <v>10585</v>
+      </c>
+      <c r="F669" s="34">
+        <v>1</v>
+      </c>
+      <c r="G669" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I669" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J669" s="34" t="s">
+        <v>1602</v>
+      </c>
+      <c r="L669" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M669" s="33">
+        <v>0</v>
+      </c>
+      <c r="N669" s="33">
+        <v>0</v>
+      </c>
+      <c r="O669" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P669" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q669" s="34" t="s">
+        <v>1603</v>
+      </c>
+      <c r="R669" s="35" t="s">
+        <v>1087</v>
+      </c>
+      <c r="W669" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X669" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y669" s="34">
+        <v>1623715200</v>
+      </c>
+      <c r="Z669" s="34">
+        <v>1624291199</v>
+      </c>
+      <c r="AA669" s="34">
+        <v>46</v>
+      </c>
+      <c r="AH669" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI669" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL669" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM669" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:39">
+      <c r="A670" s="21">
+        <v>669</v>
+      </c>
+      <c r="B670" s="34">
+        <v>10586</v>
+      </c>
+      <c r="F670" s="34">
+        <v>1</v>
+      </c>
+      <c r="G670" s="34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I670" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J670" s="34" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L670" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M670" s="33">
+        <v>0</v>
+      </c>
+      <c r="N670" s="33">
+        <v>0</v>
+      </c>
+      <c r="O670" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P670" s="34">
+        <v>49800</v>
+      </c>
+      <c r="Q670" s="34" t="s">
+        <v>1605</v>
+      </c>
+      <c r="R670" s="35" t="s">
+        <v>1094</v>
+      </c>
+      <c r="W670" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="X670" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y670" s="34">
+        <v>1623715200</v>
+      </c>
+      <c r="Z670" s="34">
+        <v>1624291199</v>
+      </c>
+      <c r="AA670" s="34">
+        <v>46</v>
+      </c>
+      <c r="AH670" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI670" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL670" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM670" s="34">
         <v>1</v>
       </c>
     </row>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -6730,10 +6730,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6774,7 +6774,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6783,28 +6798,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6825,17 +6818,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6847,9 +6832,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6864,7 +6871,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6888,23 +6895,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7027,7 +7027,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7039,49 +7111,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7099,7 +7135,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7111,73 +7177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7214,6 +7214,17 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7258,10 +7269,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7291,15 +7300,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7322,10 +7322,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7334,133 +7334,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13654,11 +13654,11 @@
   <dimension ref="A1:AN670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H644" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X626" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G675" sqref="G675"/>
+      <selection pane="bottomRight" activeCell="Y635" sqref="Y635:Z646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -54478,7 +54478,7 @@
         <v>10551</v>
       </c>
       <c r="F635" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G635" s="34" t="s">
         <v>1616</v>
@@ -54517,10 +54517,10 @@
         <v>99999999</v>
       </c>
       <c r="Y635" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z635" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA635" s="34">
         <v>80</v>
@@ -54546,7 +54546,7 @@
         <v>10552</v>
       </c>
       <c r="F636" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G636" s="34" t="s">
         <v>1616</v>
@@ -54585,10 +54585,10 @@
         <v>99999999</v>
       </c>
       <c r="Y636" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z636" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA636" s="34">
         <v>80</v>
@@ -54614,7 +54614,7 @@
         <v>10553</v>
       </c>
       <c r="F637" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G637" s="34" t="s">
         <v>1616</v>
@@ -54653,10 +54653,10 @@
         <v>99999999</v>
       </c>
       <c r="Y637" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z637" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA637" s="34">
         <v>80</v>
@@ -54682,7 +54682,7 @@
         <v>10554</v>
       </c>
       <c r="F638" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G638" s="34" t="s">
         <v>1616</v>
@@ -54721,10 +54721,10 @@
         <v>99999999</v>
       </c>
       <c r="Y638" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z638" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA638" s="34">
         <v>81</v>
@@ -54750,7 +54750,7 @@
         <v>10555</v>
       </c>
       <c r="F639" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G639" s="34" t="s">
         <v>1616</v>
@@ -54789,10 +54789,10 @@
         <v>99999999</v>
       </c>
       <c r="Y639" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z639" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA639" s="34">
         <v>81</v>
@@ -54818,7 +54818,7 @@
         <v>10556</v>
       </c>
       <c r="F640" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G640" s="34" t="s">
         <v>1616</v>
@@ -54857,10 +54857,10 @@
         <v>99999999</v>
       </c>
       <c r="Y640" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z640" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA640" s="34">
         <v>81</v>
@@ -54886,7 +54886,7 @@
         <v>10557</v>
       </c>
       <c r="F641" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G641" s="34" t="s">
         <v>1616</v>
@@ -54925,10 +54925,10 @@
         <v>99999999</v>
       </c>
       <c r="Y641" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z641" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA641" s="34">
         <v>82</v>
@@ -54954,7 +54954,7 @@
         <v>10558</v>
       </c>
       <c r="F642" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G642" s="34" t="s">
         <v>1616</v>
@@ -54993,10 +54993,10 @@
         <v>99999999</v>
       </c>
       <c r="Y642" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z642" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA642" s="34">
         <v>82</v>
@@ -55022,7 +55022,7 @@
         <v>10559</v>
       </c>
       <c r="F643" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G643" s="34" t="s">
         <v>1616</v>
@@ -55061,10 +55061,10 @@
         <v>99999999</v>
       </c>
       <c r="Y643" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z643" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA643" s="34">
         <v>82</v>
@@ -55090,7 +55090,7 @@
         <v>10560</v>
       </c>
       <c r="F644" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G644" s="34" t="s">
         <v>1616</v>
@@ -55129,10 +55129,10 @@
         <v>99999999</v>
       </c>
       <c r="Y644" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z644" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA644" s="34">
         <v>83</v>
@@ -55158,7 +55158,7 @@
         <v>10561</v>
       </c>
       <c r="F645" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G645" s="34" t="s">
         <v>1616</v>
@@ -55197,10 +55197,10 @@
         <v>99999999</v>
       </c>
       <c r="Y645" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z645" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA645" s="34">
         <v>83</v>
@@ -55226,7 +55226,7 @@
         <v>10562</v>
       </c>
       <c r="F646" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G646" s="34" t="s">
         <v>1616</v>
@@ -55265,10 +55265,10 @@
         <v>99999999</v>
       </c>
       <c r="Y646" s="34">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z646" s="34">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA646" s="34">
         <v>83</v>
@@ -56224,7 +56224,7 @@
         <v>10578</v>
       </c>
       <c r="F662" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G662" s="34" t="s">
         <v>1586</v>
@@ -56292,7 +56292,7 @@
         <v>10579</v>
       </c>
       <c r="F663" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G663" s="34" t="s">
         <v>1586</v>
@@ -56360,7 +56360,7 @@
         <v>10580</v>
       </c>
       <c r="F664" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G664" s="34" t="s">
         <v>1586</v>
@@ -56428,7 +56428,7 @@
         <v>10581</v>
       </c>
       <c r="F665" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G665" s="34" t="s">
         <v>1586</v>
@@ -56496,7 +56496,7 @@
         <v>10582</v>
       </c>
       <c r="F666" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G666" s="34" t="s">
         <v>1586</v>
@@ -56564,7 +56564,7 @@
         <v>10583</v>
       </c>
       <c r="F667" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G667" s="34" t="s">
         <v>1586</v>
@@ -56632,7 +56632,7 @@
         <v>10584</v>
       </c>
       <c r="F668" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G668" s="34" t="s">
         <v>1586</v>
@@ -56700,7 +56700,7 @@
         <v>10585</v>
       </c>
       <c r="F669" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G669" s="34" t="s">
         <v>1586</v>
@@ -56768,7 +56768,7 @@
         <v>10586</v>
       </c>
       <c r="F670" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G670" s="34" t="s">
         <v>1586</v>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="1841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="1844">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5853,6 +5853,15 @@
   </si>
   <si>
     <t>9800000,2592000</t>
+  </si>
+  <si>
+    <t>盛夏礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin"</t>
+  </si>
+  <si>
+    <t>消暑礼包</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6730,8 +6739,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -6773,15 +6782,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6795,9 +6805,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6817,8 +6841,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6832,18 +6857,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6863,40 +6897,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6904,7 +6913,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7027,25 +7036,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7057,49 +7048,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7111,25 +7060,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7147,7 +7078,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7159,25 +7162,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7228,17 +7237,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7258,11 +7261,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7272,6 +7281,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7290,30 +7323,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7322,10 +7331,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7334,37 +7343,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7373,94 +7376,100 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13651,14 +13660,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN670"/>
+  <dimension ref="A1:AN688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X626" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V665" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y635" sqref="Y635:Z646"/>
+      <selection pane="bottomRight" activeCell="A683" sqref="$A683:$XFD688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -54478,7 +54487,7 @@
         <v>10551</v>
       </c>
       <c r="F635" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G635" s="34" t="s">
         <v>1616</v>
@@ -54546,7 +54555,7 @@
         <v>10552</v>
       </c>
       <c r="F636" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G636" s="34" t="s">
         <v>1616</v>
@@ -54614,7 +54623,7 @@
         <v>10553</v>
       </c>
       <c r="F637" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G637" s="34" t="s">
         <v>1616</v>
@@ -54682,7 +54691,7 @@
         <v>10554</v>
       </c>
       <c r="F638" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G638" s="34" t="s">
         <v>1616</v>
@@ -54750,7 +54759,7 @@
         <v>10555</v>
       </c>
       <c r="F639" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G639" s="34" t="s">
         <v>1616</v>
@@ -54818,7 +54827,7 @@
         <v>10556</v>
       </c>
       <c r="F640" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G640" s="34" t="s">
         <v>1616</v>
@@ -54886,7 +54895,7 @@
         <v>10557</v>
       </c>
       <c r="F641" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G641" s="34" t="s">
         <v>1616</v>
@@ -54954,7 +54963,7 @@
         <v>10558</v>
       </c>
       <c r="F642" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G642" s="34" t="s">
         <v>1616</v>
@@ -55022,7 +55031,7 @@
         <v>10559</v>
       </c>
       <c r="F643" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G643" s="34" t="s">
         <v>1616</v>
@@ -55090,7 +55099,7 @@
         <v>10560</v>
       </c>
       <c r="F644" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G644" s="34" t="s">
         <v>1616</v>
@@ -55158,7 +55167,7 @@
         <v>10561</v>
       </c>
       <c r="F645" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G645" s="34" t="s">
         <v>1616</v>
@@ -55226,7 +55235,7 @@
         <v>10562</v>
       </c>
       <c r="F646" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G646" s="34" t="s">
         <v>1616</v>
@@ -56825,6 +56834,1212 @@
         <v>1</v>
       </c>
       <c r="AM670" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:39">
+      <c r="A671" s="21">
+        <v>670</v>
+      </c>
+      <c r="B671" s="34">
+        <v>10587</v>
+      </c>
+      <c r="F671" s="21">
+        <v>1</v>
+      </c>
+      <c r="G671" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I671" s="33" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J671" s="33" t="s">
+        <v>1559</v>
+      </c>
+      <c r="L671" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M671" s="33">
+        <v>0</v>
+      </c>
+      <c r="N671" s="33">
+        <v>0</v>
+      </c>
+      <c r="O671" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P671" s="34">
+        <v>600</v>
+      </c>
+      <c r="Q671" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R671" s="35" t="s">
+        <v>1560</v>
+      </c>
+      <c r="W671" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X671" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y671" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z671" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA671" s="33">
+        <v>80</v>
+      </c>
+      <c r="AH671" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI671" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL671" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM671" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:39">
+      <c r="A672" s="21">
+        <v>671</v>
+      </c>
+      <c r="B672" s="34">
+        <v>10588</v>
+      </c>
+      <c r="F672" s="21">
+        <v>1</v>
+      </c>
+      <c r="G672" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I672" s="33" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J672" s="33" t="s">
+        <v>1561</v>
+      </c>
+      <c r="L672" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M672" s="33">
+        <v>0</v>
+      </c>
+      <c r="N672" s="33">
+        <v>0</v>
+      </c>
+      <c r="O672" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P672" s="34">
+        <v>1000</v>
+      </c>
+      <c r="Q672" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R672" s="35" t="s">
+        <v>1562</v>
+      </c>
+      <c r="W672" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X672" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y672" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z672" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA672" s="33">
+        <v>80</v>
+      </c>
+      <c r="AH672" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI672" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL672" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM672" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:39">
+      <c r="A673" s="21">
+        <v>672</v>
+      </c>
+      <c r="B673" s="34">
+        <v>10589</v>
+      </c>
+      <c r="F673" s="21">
+        <v>1</v>
+      </c>
+      <c r="G673" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I673" s="33" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J673" s="33" t="s">
+        <v>1563</v>
+      </c>
+      <c r="L673" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M673" s="33">
+        <v>0</v>
+      </c>
+      <c r="N673" s="33">
+        <v>0</v>
+      </c>
+      <c r="O673" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P673" s="34">
+        <v>1800</v>
+      </c>
+      <c r="Q673" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R673" s="35" t="s">
+        <v>1564</v>
+      </c>
+      <c r="W673" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X673" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y673" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z673" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA673" s="33">
+        <v>80</v>
+      </c>
+      <c r="AH673" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI673" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL673" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM673" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:39">
+      <c r="A674" s="21">
+        <v>673</v>
+      </c>
+      <c r="B674" s="34">
+        <v>10590</v>
+      </c>
+      <c r="F674" s="21">
+        <v>1</v>
+      </c>
+      <c r="G674" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I674" s="33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J674" s="33" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L674" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M674" s="33">
+        <v>0</v>
+      </c>
+      <c r="N674" s="33">
+        <v>0</v>
+      </c>
+      <c r="O674" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P674" s="34">
+        <v>1800</v>
+      </c>
+      <c r="Q674" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R674" s="35" t="s">
+        <v>1547</v>
+      </c>
+      <c r="W674" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X674" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y674" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z674" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA674" s="33">
+        <v>81</v>
+      </c>
+      <c r="AH674" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI674" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL674" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM674" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:39">
+      <c r="A675" s="21">
+        <v>674</v>
+      </c>
+      <c r="B675" s="34">
+        <v>10591</v>
+      </c>
+      <c r="F675" s="21">
+        <v>1</v>
+      </c>
+      <c r="G675" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I675" s="33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J675" s="33" t="s">
+        <v>1566</v>
+      </c>
+      <c r="L675" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M675" s="33">
+        <v>0</v>
+      </c>
+      <c r="N675" s="33">
+        <v>0</v>
+      </c>
+      <c r="O675" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P675" s="34">
+        <v>3000</v>
+      </c>
+      <c r="Q675" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R675" s="35" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W675" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X675" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y675" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z675" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA675" s="33">
+        <v>81</v>
+      </c>
+      <c r="AH675" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI675" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL675" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM675" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:39">
+      <c r="A676" s="21">
+        <v>675</v>
+      </c>
+      <c r="B676" s="34">
+        <v>10592</v>
+      </c>
+      <c r="F676" s="21">
+        <v>1</v>
+      </c>
+      <c r="G676" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I676" s="33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J676" s="33" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L676" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M676" s="33">
+        <v>0</v>
+      </c>
+      <c r="N676" s="33">
+        <v>0</v>
+      </c>
+      <c r="O676" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P676" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q676" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R676" s="35" t="s">
+        <v>1551</v>
+      </c>
+      <c r="W676" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X676" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y676" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z676" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA676" s="33">
+        <v>81</v>
+      </c>
+      <c r="AH676" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI676" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL676" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM676" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:39">
+      <c r="A677" s="21">
+        <v>676</v>
+      </c>
+      <c r="B677" s="34">
+        <v>10593</v>
+      </c>
+      <c r="F677" s="21">
+        <v>1</v>
+      </c>
+      <c r="G677" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I677" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J677" s="33" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L677" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M677" s="33">
+        <v>0</v>
+      </c>
+      <c r="N677" s="33">
+        <v>0</v>
+      </c>
+      <c r="O677" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P677" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q677" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R677" s="35" t="s">
+        <v>1551</v>
+      </c>
+      <c r="W677" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X677" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y677" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z677" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA677" s="33">
+        <v>82</v>
+      </c>
+      <c r="AH677" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI677" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL677" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM677" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:39">
+      <c r="A678" s="21">
+        <v>677</v>
+      </c>
+      <c r="B678" s="34">
+        <v>10594</v>
+      </c>
+      <c r="F678" s="21">
+        <v>1</v>
+      </c>
+      <c r="G678" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I678" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J678" s="33" t="s">
+        <v>1568</v>
+      </c>
+      <c r="L678" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M678" s="33">
+        <v>0</v>
+      </c>
+      <c r="N678" s="33">
+        <v>0</v>
+      </c>
+      <c r="O678" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P678" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q678" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R678" s="35" t="s">
+        <v>1554</v>
+      </c>
+      <c r="W678" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X678" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y678" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z678" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA678" s="33">
+        <v>82</v>
+      </c>
+      <c r="AH678" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI678" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL678" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM678" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:39">
+      <c r="A679" s="21">
+        <v>678</v>
+      </c>
+      <c r="B679" s="34">
+        <v>10595</v>
+      </c>
+      <c r="F679" s="21">
+        <v>1</v>
+      </c>
+      <c r="G679" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I679" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J679" s="33" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L679" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M679" s="33">
+        <v>0</v>
+      </c>
+      <c r="N679" s="33">
+        <v>0</v>
+      </c>
+      <c r="O679" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P679" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q679" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R679" s="35" t="s">
+        <v>1556</v>
+      </c>
+      <c r="W679" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X679" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y679" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z679" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA679" s="33">
+        <v>82</v>
+      </c>
+      <c r="AH679" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI679" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL679" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM679" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:39">
+      <c r="A680" s="21">
+        <v>679</v>
+      </c>
+      <c r="B680" s="34">
+        <v>10596</v>
+      </c>
+      <c r="F680" s="21">
+        <v>1</v>
+      </c>
+      <c r="G680" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I680" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J680" s="33" t="s">
+        <v>1568</v>
+      </c>
+      <c r="L680" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M680" s="33">
+        <v>0</v>
+      </c>
+      <c r="N680" s="33">
+        <v>0</v>
+      </c>
+      <c r="O680" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P680" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q680" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R680" s="35" t="s">
+        <v>1554</v>
+      </c>
+      <c r="W680" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X680" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y680" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z680" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA680" s="33">
+        <v>83</v>
+      </c>
+      <c r="AH680" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI680" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL680" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM680" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:39">
+      <c r="A681" s="21">
+        <v>680</v>
+      </c>
+      <c r="B681" s="34">
+        <v>10597</v>
+      </c>
+      <c r="F681" s="21">
+        <v>1</v>
+      </c>
+      <c r="G681" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I681" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J681" s="33" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L681" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M681" s="33">
+        <v>0</v>
+      </c>
+      <c r="N681" s="33">
+        <v>0</v>
+      </c>
+      <c r="O681" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P681" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q681" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R681" s="35" t="s">
+        <v>1556</v>
+      </c>
+      <c r="W681" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X681" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y681" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z681" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA681" s="33">
+        <v>83</v>
+      </c>
+      <c r="AH681" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI681" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL681" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM681" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:39">
+      <c r="A682" s="21">
+        <v>681</v>
+      </c>
+      <c r="B682" s="34">
+        <v>10598</v>
+      </c>
+      <c r="F682" s="21">
+        <v>1</v>
+      </c>
+      <c r="G682" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I682" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J682" s="33" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L682" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M682" s="33">
+        <v>0</v>
+      </c>
+      <c r="N682" s="33">
+        <v>0</v>
+      </c>
+      <c r="O682" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P682" s="34">
+        <v>49800</v>
+      </c>
+      <c r="Q682" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R682" s="35" t="s">
+        <v>1558</v>
+      </c>
+      <c r="W682" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X682" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y682" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z682" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA682" s="33">
+        <v>83</v>
+      </c>
+      <c r="AH682" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI682" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL682" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM682" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:39">
+      <c r="A683" s="21">
+        <v>682</v>
+      </c>
+      <c r="B683" s="34">
+        <v>10599</v>
+      </c>
+      <c r="F683" s="21">
+        <v>1</v>
+      </c>
+      <c r="G683" s="34" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J683" s="33" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L683" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M683" s="33">
+        <v>0</v>
+      </c>
+      <c r="N683" s="33">
+        <v>0</v>
+      </c>
+      <c r="O683" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P683" s="34">
+        <v>49800</v>
+      </c>
+      <c r="Q683" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R683" s="35" t="s">
+        <v>1574</v>
+      </c>
+      <c r="W683" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X683" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y683" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z683" s="34">
+        <v>1627315199</v>
+      </c>
+      <c r="AA683" s="34">
+        <v>69</v>
+      </c>
+      <c r="AH683" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI683" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL683" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM683" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:39">
+      <c r="A684" s="21">
+        <v>683</v>
+      </c>
+      <c r="B684" s="34">
+        <v>10600</v>
+      </c>
+      <c r="F684" s="21">
+        <v>1</v>
+      </c>
+      <c r="G684" s="34" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J684" s="33" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L684" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M684" s="33">
+        <v>0</v>
+      </c>
+      <c r="N684" s="33">
+        <v>0</v>
+      </c>
+      <c r="O684" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P684" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q684" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R684" s="35" t="s">
+        <v>1576</v>
+      </c>
+      <c r="W684" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X684" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y684" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z684" s="34">
+        <v>1627315199</v>
+      </c>
+      <c r="AA684" s="34">
+        <v>69</v>
+      </c>
+      <c r="AH684" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI684" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL684" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM684" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:39">
+      <c r="A685" s="21">
+        <v>684</v>
+      </c>
+      <c r="B685" s="34">
+        <v>10601</v>
+      </c>
+      <c r="F685" s="21">
+        <v>1</v>
+      </c>
+      <c r="G685" s="34" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J685" s="33" t="s">
+        <v>1577</v>
+      </c>
+      <c r="L685" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M685" s="33">
+        <v>0</v>
+      </c>
+      <c r="N685" s="33">
+        <v>0</v>
+      </c>
+      <c r="O685" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P685" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q685" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R685" s="35" t="s">
+        <v>1578</v>
+      </c>
+      <c r="W685" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X685" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y685" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z685" s="34">
+        <v>1627315199</v>
+      </c>
+      <c r="AA685" s="34">
+        <v>69</v>
+      </c>
+      <c r="AH685" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI685" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL685" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM685" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:39">
+      <c r="A686" s="21">
+        <v>685</v>
+      </c>
+      <c r="B686" s="34">
+        <v>10602</v>
+      </c>
+      <c r="F686" s="21">
+        <v>1</v>
+      </c>
+      <c r="G686" s="34" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J686" s="33" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L686" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M686" s="33">
+        <v>0</v>
+      </c>
+      <c r="N686" s="33">
+        <v>0</v>
+      </c>
+      <c r="O686" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P686" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q686" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R686" s="35" t="s">
+        <v>1580</v>
+      </c>
+      <c r="W686" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X686" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y686" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z686" s="34">
+        <v>1627315199</v>
+      </c>
+      <c r="AA686" s="34">
+        <v>69</v>
+      </c>
+      <c r="AH686" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI686" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL686" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM686" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:39">
+      <c r="A687" s="21">
+        <v>686</v>
+      </c>
+      <c r="B687" s="34">
+        <v>10603</v>
+      </c>
+      <c r="F687" s="21">
+        <v>1</v>
+      </c>
+      <c r="G687" s="34" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J687" s="33" t="s">
+        <v>1581</v>
+      </c>
+      <c r="L687" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M687" s="33">
+        <v>0</v>
+      </c>
+      <c r="N687" s="33">
+        <v>0</v>
+      </c>
+      <c r="O687" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P687" s="34">
+        <v>2000</v>
+      </c>
+      <c r="Q687" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R687" s="35" t="s">
+        <v>1582</v>
+      </c>
+      <c r="W687" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X687" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y687" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z687" s="34">
+        <v>1627315199</v>
+      </c>
+      <c r="AA687" s="34">
+        <v>69</v>
+      </c>
+      <c r="AH687" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI687" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL687" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM687" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:39">
+      <c r="A688" s="21">
+        <v>687</v>
+      </c>
+      <c r="B688" s="34">
+        <v>10604</v>
+      </c>
+      <c r="F688" s="21">
+        <v>1</v>
+      </c>
+      <c r="G688" s="34" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J688" s="33" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L688" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M688" s="33">
+        <v>0</v>
+      </c>
+      <c r="N688" s="33">
+        <v>0</v>
+      </c>
+      <c r="O688" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P688" s="34">
+        <v>600</v>
+      </c>
+      <c r="Q688" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R688" s="35" t="s">
+        <v>1584</v>
+      </c>
+      <c r="W688" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X688" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y688" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z688" s="34">
+        <v>1627315199</v>
+      </c>
+      <c r="AA688" s="34">
+        <v>69</v>
+      </c>
+      <c r="AH688" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI688" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL688" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM688" s="34">
         <v>1</v>
       </c>
     </row>
@@ -56844,8 +58059,8 @@
   <sheetPr/>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -56857,19 +58072,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -56877,7 +58092,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -56886,7 +58101,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -56894,7 +58109,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -56908,7 +58123,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -56922,7 +58137,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -56936,7 +58151,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -56950,7 +58165,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -56964,7 +58179,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -56978,7 +58193,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -56992,7 +58207,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -57006,7 +58221,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -57020,7 +58235,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -57034,7 +58249,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -57048,7 +58263,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -57062,7 +58277,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -57076,7 +58291,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -57090,7 +58305,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -57104,7 +58319,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -57118,7 +58333,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -57132,7 +58347,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -57146,7 +58361,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -57160,7 +58375,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -57174,7 +58389,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -57188,7 +58403,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -57202,7 +58417,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -57216,7 +58431,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -57230,7 +58445,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -57245,7 +58460,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -57260,7 +58475,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -57275,7 +58490,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -57290,7 +58505,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -57305,7 +58520,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -57320,7 +58535,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -57335,7 +58550,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -57350,7 +58565,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -57365,7 +58580,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -57380,7 +58595,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -57395,7 +58610,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -57410,7 +58625,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -57424,7 +58639,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -57438,7 +58653,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -57452,7 +58667,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -57466,7 +58681,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -57480,7 +58695,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -57494,7 +58709,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -57508,7 +58723,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -57522,7 +58737,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -57536,7 +58751,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -57550,7 +58765,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -57564,7 +58779,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -57578,7 +58793,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -57592,7 +58807,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -57606,7 +58821,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -57620,7 +58835,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -57634,7 +58849,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -57648,7 +58863,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -57662,7 +58877,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -57676,7 +58891,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -57690,7 +58905,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -57704,7 +58919,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -57718,7 +58933,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -57732,7 +58947,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -57746,7 +58961,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -57760,7 +58975,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -57774,7 +58989,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -57788,7 +59003,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -57802,7 +59017,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -57816,7 +59031,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -57830,7 +59045,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -57844,7 +59059,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -57858,7 +59073,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -57872,7 +59087,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -57886,7 +59101,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -57900,7 +59115,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -57914,7 +59129,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -57928,7 +59143,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -57942,7 +59157,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -57956,7 +59171,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -57970,7 +59185,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -57984,7 +59199,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -57998,7 +59213,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -58012,7 +59227,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -58026,7 +59241,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -58040,7 +59255,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -58054,7 +59269,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -58108,7 +59323,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -58123,19 +59338,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -58150,7 +59365,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -58195,7 +59410,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -58215,7 +59430,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -58245,19 +59460,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -58286,7 +59501,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -58313,22 +59528,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
+        <v>1748</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>1749</v>
+      </c>
+      <c r="T3" s="17" t="s">
         <v>1745</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>1746</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>1742</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
+        <v>1750</v>
+      </c>
+      <c r="W3" s="12" t="s">
         <v>1747</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>1744</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -58357,7 +59572,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -58384,22 +59599,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -58428,7 +59643,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -58455,22 +59670,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -58499,7 +59714,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -58526,22 +59741,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -58570,7 +59785,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -58597,22 +59812,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -58636,7 +59851,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -58663,22 +59878,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -58702,7 +59917,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -58729,19 +59944,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -58750,7 +59965,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -58768,7 +59983,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -58798,17 +60013,17 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
+        <v>1750</v>
+      </c>
+      <c r="W10" s="12" t="s">
         <v>1747</v>
       </c>
-      <c r="W10" s="12" t="s">
-        <v>1744</v>
-      </c>
       <c r="Z10" s="12">
         <v>1</v>
       </c>
@@ -58816,7 +60031,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -58834,7 +60049,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -58861,22 +60076,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
+        <v>1748</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>1749</v>
+      </c>
+      <c r="T11" s="17" t="s">
         <v>1745</v>
-      </c>
-      <c r="R11" s="17" t="s">
-        <v>1746</v>
-      </c>
-      <c r="T11" s="17" t="s">
-        <v>1742</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
+        <v>1750</v>
+      </c>
+      <c r="W11" s="12" t="s">
         <v>1747</v>
-      </c>
-      <c r="W11" s="12" t="s">
-        <v>1744</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -58905,7 +60120,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -58932,22 +60147,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -58976,7 +60191,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -59003,22 +60218,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="U13" s="12" t="s">
+        <v>1774</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>1771</v>
       </c>
-      <c r="V13" s="12" t="s">
-        <v>1768</v>
-      </c>
       <c r="W13" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -59047,7 +60262,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -59074,22 +60289,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -59113,7 +60328,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -59143,20 +60358,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -59165,7 +60380,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -59188,7 +60403,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -59215,22 +60430,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -59254,7 +60469,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -59281,22 +60496,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -59320,7 +60535,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -59347,22 +60562,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -59386,7 +60601,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -59413,22 +60628,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -59452,7 +60667,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -59479,22 +60694,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -59518,7 +60733,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -59545,22 +60760,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -59584,7 +60799,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -59611,20 +60826,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -59648,7 +60863,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -59678,17 +60893,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -59705,14 +60920,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -59742,20 +60957,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -59764,7 +60979,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -59787,7 +61002,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -59814,22 +61029,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -59899,13 +61114,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -59917,16 +61132,16 @@
         <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -59967,7 +61182,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -59979,7 +61194,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -59988,7 +61203,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -59997,22 +61212,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -60023,7 +61238,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -60035,7 +61250,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -60044,7 +61259,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -60053,22 +61268,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>1805</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>1802</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -60082,7 +61297,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -60107,19 +61322,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -60130,7 +61345,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -60157,10 +61372,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -60171,7 +61386,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -60198,10 +61413,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -60212,7 +61427,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -60224,7 +61439,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -60233,7 +61448,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -60242,22 +61457,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="R7" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>1805</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>1802</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -60271,10 +61486,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -60286,7 +61501,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -60301,22 +61516,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -60327,10 +61542,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -60345,16 +61560,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -60365,10 +61580,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -60383,16 +61598,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -60403,10 +61618,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -60421,16 +61636,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -60441,10 +61656,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -60459,16 +61674,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -60479,7 +61694,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -60503,16 +61718,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -60526,7 +61741,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -60550,16 +61765,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -60573,10 +61788,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -60597,16 +61812,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -60620,10 +61835,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -60639,13 +61854,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -60656,10 +61871,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -60675,13 +61890,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -60692,7 +61907,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -60711,13 +61926,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -60728,7 +61943,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -60747,13 +61962,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -60764,7 +61979,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -60782,16 +61997,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -60802,7 +62017,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -60820,16 +62035,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="1844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5443" uniqueCount="1852">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5862,6 +5862,30 @@
   </si>
   <si>
     <t>消暑礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_qdlb_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>抽奖礼包</t>
+  </si>
+  <si>
+    <t>"5000万金币","100万小游戏币","啤酒盖*50",</t>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","啤酒盖*30",</t>
+  </si>
+  <si>
+    <t>"980万金币","18万小游戏币","啤酒盖*15",</t>
+  </si>
+  <si>
+    <t>"480万金币","8万小游戏币","啤酒盖*8",</t>
+  </si>
+  <si>
+    <t>"200万金币","2万小游戏币","啤酒盖*4",</t>
+  </si>
+  <si>
+    <t>"60万金币","5000小游戏币","啤酒盖*1",</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6740,9 +6764,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6782,11 +6806,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6797,14 +6820,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -6821,21 +6851,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6849,9 +6888,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6865,52 +6920,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -6921,6 +6930,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7036,7 +7060,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7048,7 +7078,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7066,25 +7108,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7096,55 +7138,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7162,7 +7168,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7174,19 +7192,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7228,17 +7252,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -7261,26 +7274,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7304,7 +7302,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7323,6 +7336,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7331,10 +7355,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7343,109 +7367,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7454,22 +7478,22 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13660,14 +13684,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN688"/>
+  <dimension ref="A1:AN694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V665" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V669" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A683" sqref="$A683:$XFD688"/>
+      <selection pane="bottomRight" activeCell="V688" sqref="V688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -57685,7 +57709,7 @@
         <v>49800</v>
       </c>
       <c r="Q683" s="33" t="s">
-        <v>1573</v>
+        <v>1647</v>
       </c>
       <c r="R683" s="35" t="s">
         <v>1574</v>
@@ -57750,7 +57774,7 @@
         <v>19800</v>
       </c>
       <c r="Q684" s="33" t="s">
-        <v>1573</v>
+        <v>1647</v>
       </c>
       <c r="R684" s="35" t="s">
         <v>1576</v>
@@ -57815,7 +57839,7 @@
         <v>9800</v>
       </c>
       <c r="Q685" s="33" t="s">
-        <v>1573</v>
+        <v>1647</v>
       </c>
       <c r="R685" s="35" t="s">
         <v>1578</v>
@@ -57880,7 +57904,7 @@
         <v>4800</v>
       </c>
       <c r="Q686" s="33" t="s">
-        <v>1573</v>
+        <v>1647</v>
       </c>
       <c r="R686" s="35" t="s">
         <v>1580</v>
@@ -57945,7 +57969,7 @@
         <v>2000</v>
       </c>
       <c r="Q687" s="33" t="s">
-        <v>1573</v>
+        <v>1647</v>
       </c>
       <c r="R687" s="35" t="s">
         <v>1582</v>
@@ -58010,7 +58034,7 @@
         <v>600</v>
       </c>
       <c r="Q688" s="33" t="s">
-        <v>1573</v>
+        <v>1647</v>
       </c>
       <c r="R688" s="35" t="s">
         <v>1584</v>
@@ -58040,6 +58064,396 @@
         <v>1</v>
       </c>
       <c r="AM688" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:39">
+      <c r="A689" s="21">
+        <v>688</v>
+      </c>
+      <c r="B689" s="34">
+        <v>10605</v>
+      </c>
+      <c r="F689" s="21">
+        <v>1</v>
+      </c>
+      <c r="G689" s="34" t="s">
+        <v>1648</v>
+      </c>
+      <c r="J689" s="33" t="s">
+        <v>1649</v>
+      </c>
+      <c r="L689" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M689" s="33">
+        <v>0</v>
+      </c>
+      <c r="N689" s="33">
+        <v>0</v>
+      </c>
+      <c r="O689" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P689" s="34">
+        <v>49800</v>
+      </c>
+      <c r="Q689" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R689" s="35" t="s">
+        <v>1574</v>
+      </c>
+      <c r="W689" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X689" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y689" s="34">
+        <v>1625529600</v>
+      </c>
+      <c r="Z689" s="34">
+        <v>1626105599</v>
+      </c>
+      <c r="AA689" s="34">
+        <v>68</v>
+      </c>
+      <c r="AH689" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI689" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL689" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM689" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:39">
+      <c r="A690" s="21">
+        <v>689</v>
+      </c>
+      <c r="B690" s="34">
+        <v>10606</v>
+      </c>
+      <c r="F690" s="21">
+        <v>1</v>
+      </c>
+      <c r="G690" s="34" t="s">
+        <v>1648</v>
+      </c>
+      <c r="J690" s="33" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L690" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M690" s="33">
+        <v>0</v>
+      </c>
+      <c r="N690" s="33">
+        <v>0</v>
+      </c>
+      <c r="O690" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P690" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q690" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R690" s="35" t="s">
+        <v>1576</v>
+      </c>
+      <c r="W690" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X690" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y690" s="34">
+        <v>1625529600</v>
+      </c>
+      <c r="Z690" s="34">
+        <v>1626105599</v>
+      </c>
+      <c r="AA690" s="34">
+        <v>68</v>
+      </c>
+      <c r="AH690" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI690" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL690" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM690" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:39">
+      <c r="A691" s="21">
+        <v>690</v>
+      </c>
+      <c r="B691" s="34">
+        <v>10607</v>
+      </c>
+      <c r="F691" s="21">
+        <v>1</v>
+      </c>
+      <c r="G691" s="34" t="s">
+        <v>1648</v>
+      </c>
+      <c r="J691" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="L691" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M691" s="33">
+        <v>0</v>
+      </c>
+      <c r="N691" s="33">
+        <v>0</v>
+      </c>
+      <c r="O691" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P691" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q691" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R691" s="35" t="s">
+        <v>1578</v>
+      </c>
+      <c r="W691" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X691" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y691" s="34">
+        <v>1625529600</v>
+      </c>
+      <c r="Z691" s="34">
+        <v>1626105599</v>
+      </c>
+      <c r="AA691" s="34">
+        <v>68</v>
+      </c>
+      <c r="AH691" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI691" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL691" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM691" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:39">
+      <c r="A692" s="21">
+        <v>691</v>
+      </c>
+      <c r="B692" s="34">
+        <v>10608</v>
+      </c>
+      <c r="F692" s="21">
+        <v>1</v>
+      </c>
+      <c r="G692" s="34" t="s">
+        <v>1648</v>
+      </c>
+      <c r="J692" s="33" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L692" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M692" s="33">
+        <v>0</v>
+      </c>
+      <c r="N692" s="33">
+        <v>0</v>
+      </c>
+      <c r="O692" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P692" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q692" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R692" s="35" t="s">
+        <v>1580</v>
+      </c>
+      <c r="W692" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X692" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y692" s="34">
+        <v>1625529600</v>
+      </c>
+      <c r="Z692" s="34">
+        <v>1626105599</v>
+      </c>
+      <c r="AA692" s="34">
+        <v>68</v>
+      </c>
+      <c r="AH692" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI692" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL692" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM692" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:39">
+      <c r="A693" s="21">
+        <v>692</v>
+      </c>
+      <c r="B693" s="34">
+        <v>10609</v>
+      </c>
+      <c r="F693" s="21">
+        <v>1</v>
+      </c>
+      <c r="G693" s="34" t="s">
+        <v>1648</v>
+      </c>
+      <c r="J693" s="33" t="s">
+        <v>1653</v>
+      </c>
+      <c r="L693" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M693" s="33">
+        <v>0</v>
+      </c>
+      <c r="N693" s="33">
+        <v>0</v>
+      </c>
+      <c r="O693" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P693" s="34">
+        <v>2000</v>
+      </c>
+      <c r="Q693" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R693" s="35" t="s">
+        <v>1582</v>
+      </c>
+      <c r="W693" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X693" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y693" s="34">
+        <v>1625529600</v>
+      </c>
+      <c r="Z693" s="34">
+        <v>1626105599</v>
+      </c>
+      <c r="AA693" s="34">
+        <v>68</v>
+      </c>
+      <c r="AH693" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI693" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL693" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM693" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:39">
+      <c r="A694" s="21">
+        <v>693</v>
+      </c>
+      <c r="B694" s="34">
+        <v>10610</v>
+      </c>
+      <c r="F694" s="21">
+        <v>1</v>
+      </c>
+      <c r="G694" s="34" t="s">
+        <v>1648</v>
+      </c>
+      <c r="J694" s="33" t="s">
+        <v>1654</v>
+      </c>
+      <c r="L694" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M694" s="33">
+        <v>0</v>
+      </c>
+      <c r="N694" s="33">
+        <v>0</v>
+      </c>
+      <c r="O694" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P694" s="34">
+        <v>600</v>
+      </c>
+      <c r="Q694" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R694" s="35" t="s">
+        <v>1584</v>
+      </c>
+      <c r="W694" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X694" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y694" s="34">
+        <v>1625529600</v>
+      </c>
+      <c r="Z694" s="34">
+        <v>1626105599</v>
+      </c>
+      <c r="AA694" s="34">
+        <v>68</v>
+      </c>
+      <c r="AH694" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI694" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL694" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM694" s="34">
         <v>1</v>
       </c>
     </row>
@@ -58060,7 +58474,7 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -58072,19 +58486,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1647</v>
+        <v>1655</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1648</v>
+        <v>1656</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1649</v>
+        <v>1657</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1650</v>
+        <v>1658</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1651</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -58092,7 +58506,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1652</v>
+        <v>1660</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -58101,7 +58515,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1653</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -58109,7 +58523,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1654</v>
+        <v>1662</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -58123,7 +58537,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -58137,7 +58551,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1656</v>
+        <v>1664</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -58151,7 +58565,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -58165,7 +58579,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1658</v>
+        <v>1666</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -58179,7 +58593,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1659</v>
+        <v>1667</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -58193,7 +58607,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1660</v>
+        <v>1668</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -58207,7 +58621,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1661</v>
+        <v>1669</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -58221,7 +58635,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1662</v>
+        <v>1670</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -58235,7 +58649,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -58249,7 +58663,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1658</v>
+        <v>1666</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -58263,7 +58677,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1663</v>
+        <v>1671</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -58277,7 +58691,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1664</v>
+        <v>1672</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -58291,7 +58705,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1665</v>
+        <v>1673</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -58305,7 +58719,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -58319,7 +58733,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1667</v>
+        <v>1675</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -58333,7 +58747,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1668</v>
+        <v>1676</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -58347,7 +58761,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -58361,7 +58775,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1670</v>
+        <v>1678</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -58375,7 +58789,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1671</v>
+        <v>1679</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -58389,7 +58803,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1672</v>
+        <v>1680</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -58403,7 +58817,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1673</v>
+        <v>1681</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -58417,7 +58831,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1674</v>
+        <v>1682</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -58431,7 +58845,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1675</v>
+        <v>1683</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -58445,7 +58859,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1676</v>
+        <v>1684</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -58460,7 +58874,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1677</v>
+        <v>1685</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -58475,7 +58889,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1678</v>
+        <v>1686</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -58490,7 +58904,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1679</v>
+        <v>1687</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -58505,7 +58919,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -58520,7 +58934,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -58535,7 +58949,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -58550,7 +58964,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -58565,7 +58979,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -58580,7 +58994,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -58595,7 +59009,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1686</v>
+        <v>1694</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -58610,7 +59024,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -58625,7 +59039,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1688</v>
+        <v>1696</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -58639,7 +59053,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1689</v>
+        <v>1697</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -58653,7 +59067,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -58667,7 +59081,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -58681,7 +59095,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -58695,7 +59109,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1693</v>
+        <v>1701</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -58709,7 +59123,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -58723,7 +59137,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -58737,7 +59151,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -58751,7 +59165,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -58765,7 +59179,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -58779,7 +59193,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -58793,7 +59207,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -58807,7 +59221,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>1701</v>
+        <v>1709</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -58821,7 +59235,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1702</v>
+        <v>1710</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -58835,7 +59249,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -58849,7 +59263,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -58863,7 +59277,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -58877,7 +59291,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -58891,7 +59305,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1707</v>
+        <v>1715</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -58905,7 +59319,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -58919,7 +59333,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1709</v>
+        <v>1717</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -58933,7 +59347,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1710</v>
+        <v>1718</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -58947,7 +59361,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1711</v>
+        <v>1719</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -58961,7 +59375,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1712</v>
+        <v>1720</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -58975,7 +59389,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1713</v>
+        <v>1721</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -58989,7 +59403,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1714</v>
+        <v>1722</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -59003,7 +59417,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1715</v>
+        <v>1723</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -59017,7 +59431,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -59031,7 +59445,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1717</v>
+        <v>1725</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -59045,7 +59459,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1718</v>
+        <v>1726</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -59059,7 +59473,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1719</v>
+        <v>1727</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -59073,7 +59487,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1720</v>
+        <v>1728</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -59087,7 +59501,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1721</v>
+        <v>1729</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -59101,7 +59515,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1722</v>
+        <v>1730</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -59115,7 +59529,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1723</v>
+        <v>1731</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -59129,7 +59543,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -59143,7 +59557,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -59157,7 +59571,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -59171,7 +59585,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1727</v>
+        <v>1735</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -59185,7 +59599,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1728</v>
+        <v>1736</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -59199,7 +59613,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1729</v>
+        <v>1737</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -59213,7 +59627,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>1730</v>
+        <v>1738</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -59227,7 +59641,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>1731</v>
+        <v>1739</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -59241,7 +59655,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -59255,7 +59669,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1733</v>
+        <v>1741</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -59269,7 +59683,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -59323,7 +59737,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -59338,19 +59752,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1737</v>
+        <v>1745</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -59365,7 +59779,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1741</v>
+        <v>1749</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -59410,7 +59824,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1742</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -59430,7 +59844,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -59460,19 +59874,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -59501,7 +59915,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -59528,22 +59942,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -59572,7 +59986,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -59599,22 +60013,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -59643,7 +60057,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -59670,22 +60084,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -59714,7 +60128,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -59741,22 +60155,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1757</v>
+        <v>1765</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1759</v>
+        <v>1767</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -59785,7 +60199,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -59812,22 +60226,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -59851,7 +60265,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -59878,22 +60292,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -59917,7 +60331,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -59944,19 +60358,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -59965,7 +60379,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -59983,7 +60397,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -60013,16 +60427,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -60031,7 +60445,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1768</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -60049,7 +60463,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -60076,22 +60490,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -60120,7 +60534,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -60147,22 +60561,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1770</v>
+        <v>1778</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -60191,7 +60605,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -60218,22 +60632,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>1772</v>
+        <v>1780</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -60262,7 +60676,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -60289,22 +60703,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1775</v>
+        <v>1783</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1776</v>
+        <v>1784</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1779</v>
+        <v>1787</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -60328,7 +60742,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -60358,20 +60772,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -60380,7 +60794,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -60403,7 +60817,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -60430,22 +60844,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1781</v>
+        <v>1789</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -60469,7 +60883,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -60496,22 +60910,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -60535,7 +60949,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -60562,22 +60976,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1786</v>
+        <v>1794</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1759</v>
+        <v>1767</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -60601,7 +61015,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -60628,22 +61042,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1787</v>
+        <v>1795</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1788</v>
+        <v>1796</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -60667,7 +61081,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -60694,22 +61108,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -60733,7 +61147,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -60760,22 +61174,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -60799,7 +61213,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -60826,20 +61240,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -60863,7 +61277,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -60893,17 +61307,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -60920,14 +61334,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -60957,20 +61371,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -60979,7 +61393,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -61002,7 +61416,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -61029,22 +61443,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1793</v>
+        <v>1801</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -61114,13 +61528,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1737</v>
+        <v>1745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1795</v>
+        <v>1803</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -61132,16 +61546,16 @@
         <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1796</v>
+        <v>1804</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1798</v>
+        <v>1806</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -61182,7 +61596,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -61194,7 +61608,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -61203,7 +61617,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -61212,22 +61626,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -61238,7 +61652,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -61250,7 +61664,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -61259,7 +61673,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -61268,22 +61682,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1808</v>
+        <v>1816</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -61297,7 +61711,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -61322,19 +61736,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1810</v>
+        <v>1818</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -61345,7 +61759,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -61372,10 +61786,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -61386,7 +61800,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -61413,10 +61827,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -61427,7 +61841,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -61439,7 +61853,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -61448,7 +61862,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -61457,22 +61871,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1817</v>
+        <v>1825</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1808</v>
+        <v>1816</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -61486,10 +61900,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -61501,7 +61915,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -61516,22 +61930,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -61542,10 +61956,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -61560,16 +61974,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -61580,10 +61994,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -61598,16 +62012,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -61618,10 +62032,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -61636,16 +62050,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -61656,10 +62070,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -61674,16 +62088,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -61694,7 +62108,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -61718,16 +62132,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -61741,7 +62155,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -61765,16 +62179,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1833</v>
+        <v>1841</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -61788,10 +62202,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -61812,16 +62226,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -61835,10 +62249,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -61854,13 +62268,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -61871,10 +62285,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -61890,13 +62304,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1837</v>
+        <v>1845</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -61907,7 +62321,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -61926,13 +62340,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -61943,7 +62357,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -61962,13 +62376,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1837</v>
+        <v>1845</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -61979,7 +62393,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -61997,16 +62411,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1840</v>
+        <v>1848</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -62017,7 +62431,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -62035,16 +62449,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1842</v>
+        <v>1850</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config.xlsx
+++ b/config_Release/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5496" uniqueCount="1881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5499" uniqueCount="1891">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6260,9 +6260,6 @@
     <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
-  </si>
-  <si>
     <t>{type="permission_class",class_value = "fclb_free_002" }</t>
   </si>
   <si>
@@ -6992,6 +6989,50 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "first_deposit_gift" }</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖礼包冲金鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖礼包非冲金鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>十全十美</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>百年好合</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>花好月圆</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>比翼双飞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海枯石烂</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>两情相悦</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>一见钟情</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>福袋礼包模板</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -7077,7 +7118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7186,6 +7227,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7229,7 +7276,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7501,6 +7548,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13398,10 +13466,10 @@
   <dimension ref="A1:AO698"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W633" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H651" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA635" sqref="AA635:AA646"/>
+      <selection pane="bottomRight" activeCell="H655" sqref="G655:H661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -13413,7 +13481,7 @@
     <col min="5" max="5" width="4.125" style="21" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="36" customWidth="1"/>
     <col min="7" max="7" width="29" style="36" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="36" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="36" customWidth="1"/>
     <col min="9" max="9" width="29" style="36" customWidth="1"/>
     <col min="10" max="10" width="27.75" style="36" customWidth="1"/>
     <col min="11" max="11" width="63.125" style="36" customWidth="1"/>
@@ -17915,7 +17983,7 @@
         <v>351</v>
       </c>
       <c r="K77" s="85" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="M77" s="28">
         <v>-20</v>
@@ -17939,7 +18007,7 @@
         <v>353</v>
       </c>
       <c r="X77" s="85" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="Y77" s="81" t="s">
         <v>182</v>
@@ -55618,437 +55686,467 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:40">
-      <c r="A655" s="21">
+    <row r="655" spans="1:40" s="94" customFormat="1">
+      <c r="A655" s="94">
         <v>654</v>
       </c>
-      <c r="B655" s="36">
+      <c r="B655" s="94">
         <v>10571</v>
       </c>
-      <c r="F655" s="36">
-        <v>0</v>
-      </c>
-      <c r="G655" s="36" t="s">
-        <v>1112</v>
-      </c>
-      <c r="K655" s="36" t="s">
+      <c r="F655" s="94">
+        <v>1</v>
+      </c>
+      <c r="G655" s="94" t="s">
+        <v>1882</v>
+      </c>
+      <c r="H655" s="95" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K655" s="94" t="s">
         <v>1606</v>
       </c>
-      <c r="M655" s="33">
+      <c r="M655" s="94">
         <v>-31</v>
       </c>
-      <c r="N655" s="33">
-        <v>0</v>
-      </c>
-      <c r="O655" s="33">
-        <v>0</v>
-      </c>
-      <c r="P655" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q655" s="36">
+      <c r="N655" s="94">
+        <v>0</v>
+      </c>
+      <c r="O655" s="94">
+        <v>0</v>
+      </c>
+      <c r="P655" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q655" s="94">
         <v>99800</v>
       </c>
-      <c r="R655" s="36" t="s">
+      <c r="R655" s="94" t="s">
         <v>1607</v>
       </c>
-      <c r="S655" s="37" t="s">
+      <c r="S655" s="92" t="s">
         <v>1135</v>
       </c>
-      <c r="X655" s="33" t="s">
+      <c r="X655" s="94" t="s">
         <v>478</v>
       </c>
-      <c r="Y655" s="33">
+      <c r="Y655" s="94">
         <v>99999999</v>
       </c>
-      <c r="Z655" s="36">
-        <v>1623110400</v>
-      </c>
-      <c r="AA655" s="36">
-        <v>1623686399</v>
-      </c>
-      <c r="AI655" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ655" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM655" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN655" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="656" spans="1:40">
-      <c r="A656" s="21">
+      <c r="Z655" s="94">
+        <v>1627948800</v>
+      </c>
+      <c r="AA655" s="94">
+        <v>1630339199</v>
+      </c>
+      <c r="AB655" s="94">
+        <v>69</v>
+      </c>
+      <c r="AI655" s="94">
+        <v>1</v>
+      </c>
+      <c r="AJ655" s="94">
+        <v>1</v>
+      </c>
+      <c r="AM655" s="94">
+        <v>1</v>
+      </c>
+      <c r="AN655" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:40" s="94" customFormat="1">
+      <c r="A656" s="94">
         <v>655</v>
       </c>
-      <c r="B656" s="36">
+      <c r="B656" s="94">
         <v>10572</v>
       </c>
-      <c r="F656" s="36">
-        <v>0</v>
-      </c>
-      <c r="G656" s="36" t="s">
-        <v>1116</v>
-      </c>
-      <c r="K656" s="36" t="s">
+      <c r="F656" s="94">
+        <v>1</v>
+      </c>
+      <c r="G656" s="93" t="s">
+        <v>1883</v>
+      </c>
+      <c r="H656" s="96"/>
+      <c r="K656" s="94" t="s">
         <v>1608</v>
       </c>
-      <c r="M656" s="33">
+      <c r="M656" s="94">
         <v>-31</v>
       </c>
-      <c r="N656" s="33">
-        <v>0</v>
-      </c>
-      <c r="O656" s="33">
-        <v>0</v>
-      </c>
-      <c r="P656" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q656" s="36">
+      <c r="N656" s="94">
+        <v>0</v>
+      </c>
+      <c r="O656" s="94">
+        <v>0</v>
+      </c>
+      <c r="P656" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q656" s="94">
         <v>49800</v>
       </c>
-      <c r="R656" s="36" t="s">
+      <c r="R656" s="94" t="s">
         <v>1607</v>
       </c>
-      <c r="S656" s="37" t="s">
+      <c r="S656" s="92" t="s">
         <v>1132</v>
       </c>
-      <c r="X656" s="33" t="s">
+      <c r="X656" s="94" t="s">
         <v>478</v>
       </c>
-      <c r="Y656" s="33">
+      <c r="Y656" s="94">
         <v>99999999</v>
       </c>
-      <c r="Z656" s="36">
-        <v>1623110400</v>
-      </c>
-      <c r="AA656" s="36">
-        <v>1623686399</v>
-      </c>
-      <c r="AI656" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ656" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM656" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN656" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="657" spans="1:40">
-      <c r="A657" s="21">
+      <c r="Z656" s="94">
+        <v>1627948800</v>
+      </c>
+      <c r="AA656" s="94">
+        <v>1630339199</v>
+      </c>
+      <c r="AB656" s="94">
+        <v>69</v>
+      </c>
+      <c r="AI656" s="94">
+        <v>1</v>
+      </c>
+      <c r="AJ656" s="94">
+        <v>1</v>
+      </c>
+      <c r="AM656" s="94">
+        <v>1</v>
+      </c>
+      <c r="AN656" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:40" s="94" customFormat="1">
+      <c r="A657" s="94">
         <v>656</v>
       </c>
-      <c r="B657" s="36">
+      <c r="B657" s="94">
         <v>10573</v>
       </c>
-      <c r="F657" s="36">
-        <v>0</v>
-      </c>
-      <c r="G657" s="36" t="s">
-        <v>1119</v>
-      </c>
-      <c r="K657" s="36" t="s">
+      <c r="F657" s="94">
+        <v>1</v>
+      </c>
+      <c r="G657" s="93" t="s">
+        <v>1884</v>
+      </c>
+      <c r="H657" s="96"/>
+      <c r="K657" s="94" t="s">
         <v>1609</v>
       </c>
-      <c r="M657" s="33">
+      <c r="M657" s="94">
         <v>-31</v>
       </c>
-      <c r="N657" s="33">
-        <v>0</v>
-      </c>
-      <c r="O657" s="33">
-        <v>0</v>
-      </c>
-      <c r="P657" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q657" s="36">
+      <c r="N657" s="94">
+        <v>0</v>
+      </c>
+      <c r="O657" s="94">
+        <v>0</v>
+      </c>
+      <c r="P657" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q657" s="94">
         <v>29800</v>
       </c>
-      <c r="R657" s="36" t="s">
+      <c r="R657" s="94" t="s">
         <v>1610</v>
       </c>
-      <c r="S657" s="37" t="s">
+      <c r="S657" s="92" t="s">
         <v>1128</v>
       </c>
-      <c r="X657" s="33" t="s">
+      <c r="X657" s="94" t="s">
         <v>478</v>
       </c>
-      <c r="Y657" s="33">
+      <c r="Y657" s="94">
         <v>99999999</v>
       </c>
-      <c r="Z657" s="36">
-        <v>1623110400</v>
-      </c>
-      <c r="AA657" s="36">
-        <v>1623686399</v>
-      </c>
-      <c r="AI657" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ657" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM657" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN657" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="658" spans="1:40">
-      <c r="A658" s="21">
+      <c r="Z657" s="94">
+        <v>1627948800</v>
+      </c>
+      <c r="AA657" s="94">
+        <v>1630339199</v>
+      </c>
+      <c r="AB657" s="94">
+        <v>69</v>
+      </c>
+      <c r="AI657" s="94">
+        <v>1</v>
+      </c>
+      <c r="AJ657" s="94">
+        <v>1</v>
+      </c>
+      <c r="AM657" s="94">
+        <v>1</v>
+      </c>
+      <c r="AN657" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:40" s="94" customFormat="1">
+      <c r="A658" s="94">
         <v>657</v>
       </c>
-      <c r="B658" s="36">
+      <c r="B658" s="94">
         <v>10574</v>
       </c>
-      <c r="F658" s="36">
-        <v>0</v>
-      </c>
-      <c r="G658" s="36" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K658" s="36" t="s">
+      <c r="F658" s="94">
+        <v>1</v>
+      </c>
+      <c r="G658" s="93" t="s">
+        <v>1885</v>
+      </c>
+      <c r="H658" s="96"/>
+      <c r="K658" s="94" t="s">
         <v>1611</v>
       </c>
-      <c r="M658" s="33">
+      <c r="M658" s="94">
         <v>-31</v>
       </c>
-      <c r="N658" s="33">
-        <v>0</v>
-      </c>
-      <c r="O658" s="33">
-        <v>0</v>
-      </c>
-      <c r="P658" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q658" s="36">
+      <c r="N658" s="94">
+        <v>0</v>
+      </c>
+      <c r="O658" s="94">
+        <v>0</v>
+      </c>
+      <c r="P658" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q658" s="94">
         <v>19800</v>
       </c>
-      <c r="R658" s="36" t="s">
+      <c r="R658" s="94" t="s">
         <v>1610</v>
       </c>
-      <c r="S658" s="37" t="s">
+      <c r="S658" s="92" t="s">
         <v>1125</v>
       </c>
-      <c r="X658" s="33" t="s">
+      <c r="X658" s="94" t="s">
         <v>478</v>
       </c>
-      <c r="Y658" s="33">
+      <c r="Y658" s="94">
         <v>99999999</v>
       </c>
-      <c r="Z658" s="36">
-        <v>1623110400</v>
-      </c>
-      <c r="AA658" s="36">
-        <v>1623686399</v>
-      </c>
-      <c r="AI658" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ658" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM658" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN658" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="659" spans="1:40">
-      <c r="A659" s="21">
+      <c r="Z658" s="94">
+        <v>1627948800</v>
+      </c>
+      <c r="AA658" s="94">
+        <v>1630339199</v>
+      </c>
+      <c r="AB658" s="94">
+        <v>69</v>
+      </c>
+      <c r="AI658" s="94">
+        <v>1</v>
+      </c>
+      <c r="AJ658" s="94">
+        <v>1</v>
+      </c>
+      <c r="AM658" s="94">
+        <v>1</v>
+      </c>
+      <c r="AN658" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:40" s="94" customFormat="1">
+      <c r="A659" s="94">
         <v>658</v>
       </c>
-      <c r="B659" s="36">
+      <c r="B659" s="94">
         <v>10575</v>
       </c>
-      <c r="F659" s="36">
-        <v>0</v>
-      </c>
-      <c r="G659" s="36" t="s">
-        <v>1126</v>
-      </c>
-      <c r="K659" s="36" t="s">
+      <c r="F659" s="94">
+        <v>1</v>
+      </c>
+      <c r="G659" s="93" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H659" s="96"/>
+      <c r="K659" s="94" t="s">
         <v>1612</v>
       </c>
-      <c r="M659" s="33">
+      <c r="M659" s="94">
         <v>-31</v>
       </c>
-      <c r="N659" s="33">
-        <v>0</v>
-      </c>
-      <c r="O659" s="33">
-        <v>0</v>
-      </c>
-      <c r="P659" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q659" s="36">
+      <c r="N659" s="94">
+        <v>0</v>
+      </c>
+      <c r="O659" s="94">
+        <v>0</v>
+      </c>
+      <c r="P659" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q659" s="94">
         <v>9800</v>
       </c>
-      <c r="R659" s="36" t="s">
+      <c r="R659" s="94" t="s">
         <v>1610</v>
       </c>
-      <c r="S659" s="37" t="s">
+      <c r="S659" s="92" t="s">
         <v>1122</v>
       </c>
-      <c r="X659" s="33" t="s">
+      <c r="X659" s="94" t="s">
         <v>478</v>
       </c>
-      <c r="Y659" s="33">
+      <c r="Y659" s="94">
         <v>99999999</v>
       </c>
-      <c r="Z659" s="36">
-        <v>1623110400</v>
-      </c>
-      <c r="AA659" s="36">
-        <v>1623686399</v>
-      </c>
-      <c r="AI659" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ659" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM659" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN659" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="660" spans="1:40">
-      <c r="A660" s="21">
+      <c r="Z659" s="94">
+        <v>1627948800</v>
+      </c>
+      <c r="AA659" s="94">
+        <v>1630339199</v>
+      </c>
+      <c r="AB659" s="94">
+        <v>69</v>
+      </c>
+      <c r="AI659" s="94">
+        <v>1</v>
+      </c>
+      <c r="AJ659" s="94">
+        <v>1</v>
+      </c>
+      <c r="AM659" s="94">
+        <v>1</v>
+      </c>
+      <c r="AN659" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:40" s="94" customFormat="1">
+      <c r="A660" s="94">
         <v>659</v>
       </c>
-      <c r="B660" s="36">
+      <c r="B660" s="94">
         <v>10576</v>
       </c>
-      <c r="F660" s="36">
-        <v>0</v>
-      </c>
-      <c r="G660" s="36" t="s">
-        <v>1129</v>
-      </c>
-      <c r="K660" s="36" t="s">
+      <c r="F660" s="94">
+        <v>1</v>
+      </c>
+      <c r="G660" s="93" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H660" s="96"/>
+      <c r="K660" s="94" t="s">
         <v>1613</v>
       </c>
-      <c r="M660" s="33">
+      <c r="M660" s="94">
         <v>-31</v>
       </c>
-      <c r="N660" s="33">
-        <v>0</v>
-      </c>
-      <c r="O660" s="33">
-        <v>0</v>
-      </c>
-      <c r="P660" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q660" s="36">
+      <c r="N660" s="94">
+        <v>0</v>
+      </c>
+      <c r="O660" s="94">
+        <v>0</v>
+      </c>
+      <c r="P660" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q660" s="94">
         <v>4800</v>
       </c>
-      <c r="R660" s="36" t="s">
+      <c r="R660" s="94" t="s">
         <v>1614</v>
       </c>
-      <c r="S660" s="37" t="s">
+      <c r="S660" s="92" t="s">
         <v>1118</v>
       </c>
-      <c r="X660" s="33" t="s">
+      <c r="X660" s="94" t="s">
         <v>478</v>
       </c>
-      <c r="Y660" s="33">
+      <c r="Y660" s="94">
         <v>99999999</v>
       </c>
-      <c r="Z660" s="36">
-        <v>1623110400</v>
-      </c>
-      <c r="AA660" s="36">
-        <v>1623686399</v>
-      </c>
-      <c r="AI660" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ660" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM660" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN660" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="661" spans="1:40">
-      <c r="A661" s="21">
+      <c r="Z660" s="94">
+        <v>1627948800</v>
+      </c>
+      <c r="AA660" s="94">
+        <v>1630339199</v>
+      </c>
+      <c r="AB660" s="94">
+        <v>69</v>
+      </c>
+      <c r="AI660" s="94">
+        <v>1</v>
+      </c>
+      <c r="AJ660" s="94">
+        <v>1</v>
+      </c>
+      <c r="AM660" s="94">
+        <v>1</v>
+      </c>
+      <c r="AN660" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:40" s="94" customFormat="1">
+      <c r="A661" s="94">
         <v>660</v>
       </c>
-      <c r="B661" s="36">
+      <c r="B661" s="94">
         <v>10577</v>
       </c>
-      <c r="F661" s="36">
-        <v>0</v>
-      </c>
-      <c r="G661" s="36" t="s">
-        <v>1133</v>
-      </c>
-      <c r="K661" s="36" t="s">
+      <c r="F661" s="94">
+        <v>1</v>
+      </c>
+      <c r="G661" s="93" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H661" s="96"/>
+      <c r="K661" s="94" t="s">
         <v>1615</v>
       </c>
-      <c r="M661" s="33">
+      <c r="M661" s="94">
         <v>-31</v>
       </c>
-      <c r="N661" s="33">
-        <v>0</v>
-      </c>
-      <c r="O661" s="33">
-        <v>0</v>
-      </c>
-      <c r="P661" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q661" s="36">
+      <c r="N661" s="94">
+        <v>0</v>
+      </c>
+      <c r="O661" s="94">
+        <v>0</v>
+      </c>
+      <c r="P661" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q661" s="94">
         <v>1800</v>
       </c>
-      <c r="R661" s="36" t="s">
+      <c r="R661" s="94" t="s">
         <v>1614</v>
       </c>
-      <c r="S661" s="37" t="s">
+      <c r="S661" s="92" t="s">
         <v>1115</v>
       </c>
-      <c r="X661" s="33" t="s">
+      <c r="X661" s="94" t="s">
         <v>478</v>
       </c>
-      <c r="Y661" s="33">
+      <c r="Y661" s="94">
         <v>99999999</v>
       </c>
-      <c r="Z661" s="36">
-        <v>1623110400</v>
-      </c>
-      <c r="AA661" s="36">
-        <v>1623686399</v>
-      </c>
-      <c r="AI661" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ661" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM661" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN661" s="36">
+      <c r="Z661" s="94">
+        <v>1627948800</v>
+      </c>
+      <c r="AA661" s="94">
+        <v>1630339199</v>
+      </c>
+      <c r="AB661" s="94">
+        <v>69</v>
+      </c>
+      <c r="AI661" s="94">
+        <v>1</v>
+      </c>
+      <c r="AJ661" s="94">
+        <v>1</v>
+      </c>
+      <c r="AM661" s="94">
+        <v>1</v>
+      </c>
+      <c r="AN661" s="94">
         <v>1</v>
       </c>
     </row>
@@ -57543,783 +57641,799 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:40">
-      <c r="A683" s="21">
+    <row r="683" spans="1:40" s="91" customFormat="1">
+      <c r="A683" s="91">
         <v>682</v>
       </c>
-      <c r="B683" s="36">
+      <c r="B683" s="91">
         <v>10599</v>
       </c>
-      <c r="F683" s="36">
-        <v>0</v>
-      </c>
-      <c r="G683" s="36" t="s">
+      <c r="F683" s="91">
+        <v>0</v>
+      </c>
+      <c r="G683" s="91" t="s">
         <v>1648</v>
       </c>
-      <c r="K683" s="33" t="s">
+      <c r="H683" s="95" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K683" s="91" t="s">
         <v>1572</v>
       </c>
-      <c r="M683" s="33">
+      <c r="M683" s="91">
         <v>-31</v>
       </c>
-      <c r="N683" s="33">
-        <v>0</v>
-      </c>
-      <c r="O683" s="33">
-        <v>0</v>
-      </c>
-      <c r="P683" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q683" s="36">
+      <c r="N683" s="91">
+        <v>0</v>
+      </c>
+      <c r="O683" s="91">
+        <v>0</v>
+      </c>
+      <c r="P683" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q683" s="91">
         <v>49800</v>
       </c>
-      <c r="R683" s="33" t="s">
+      <c r="R683" s="91" t="s">
         <v>1649</v>
       </c>
-      <c r="S683" s="37" t="s">
+      <c r="S683" s="92" t="s">
         <v>1574</v>
       </c>
-      <c r="X683" s="21" t="s">
+      <c r="X683" s="91" t="s">
         <v>1302</v>
       </c>
-      <c r="Y683" s="33">
+      <c r="Y683" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z683" s="36">
+      <c r="Z683" s="91">
         <v>1624924800</v>
       </c>
-      <c r="AA683" s="36">
+      <c r="AA683" s="91">
         <v>1627315199</v>
       </c>
-      <c r="AB683" s="36">
+      <c r="AB683" s="91">
         <v>69</v>
       </c>
-      <c r="AI683" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ683" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM683" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN683" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="684" spans="1:40">
-      <c r="A684" s="21">
+      <c r="AI683" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ683" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM683" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN683" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:40" s="91" customFormat="1">
+      <c r="A684" s="91">
         <v>683</v>
       </c>
-      <c r="B684" s="36">
+      <c r="B684" s="91">
         <v>10600</v>
       </c>
-      <c r="F684" s="36">
-        <v>0</v>
-      </c>
-      <c r="G684" s="36" t="s">
+      <c r="F684" s="91">
+        <v>0</v>
+      </c>
+      <c r="G684" s="91" t="s">
         <v>1648</v>
       </c>
-      <c r="K684" s="33" t="s">
+      <c r="H684" s="95"/>
+      <c r="K684" s="91" t="s">
         <v>1575</v>
       </c>
-      <c r="M684" s="33">
+      <c r="M684" s="91">
         <v>-31</v>
       </c>
-      <c r="N684" s="33">
-        <v>0</v>
-      </c>
-      <c r="O684" s="33">
-        <v>0</v>
-      </c>
-      <c r="P684" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q684" s="36">
+      <c r="N684" s="91">
+        <v>0</v>
+      </c>
+      <c r="O684" s="91">
+        <v>0</v>
+      </c>
+      <c r="P684" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q684" s="91">
         <v>19800</v>
       </c>
-      <c r="R684" s="33" t="s">
+      <c r="R684" s="91" t="s">
         <v>1649</v>
       </c>
-      <c r="S684" s="37" t="s">
+      <c r="S684" s="92" t="s">
         <v>1576</v>
       </c>
-      <c r="X684" s="21" t="s">
+      <c r="X684" s="91" t="s">
         <v>1302</v>
       </c>
-      <c r="Y684" s="33">
+      <c r="Y684" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z684" s="36">
+      <c r="Z684" s="91">
         <v>1624924800</v>
       </c>
-      <c r="AA684" s="36">
+      <c r="AA684" s="91">
         <v>1627315199</v>
       </c>
-      <c r="AB684" s="36">
+      <c r="AB684" s="91">
         <v>69</v>
       </c>
-      <c r="AI684" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ684" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM684" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN684" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="685" spans="1:40">
-      <c r="A685" s="21">
+      <c r="AI684" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ684" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM684" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN684" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:40" s="91" customFormat="1">
+      <c r="A685" s="91">
         <v>684</v>
       </c>
-      <c r="B685" s="36">
+      <c r="B685" s="91">
         <v>10601</v>
       </c>
-      <c r="F685" s="36">
-        <v>0</v>
-      </c>
-      <c r="G685" s="36" t="s">
+      <c r="F685" s="91">
+        <v>0</v>
+      </c>
+      <c r="G685" s="91" t="s">
         <v>1648</v>
       </c>
-      <c r="K685" s="33" t="s">
+      <c r="H685" s="95"/>
+      <c r="K685" s="91" t="s">
         <v>1577</v>
       </c>
-      <c r="M685" s="33">
+      <c r="M685" s="91">
         <v>-31</v>
       </c>
-      <c r="N685" s="33">
-        <v>0</v>
-      </c>
-      <c r="O685" s="33">
-        <v>0</v>
-      </c>
-      <c r="P685" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q685" s="36">
+      <c r="N685" s="91">
+        <v>0</v>
+      </c>
+      <c r="O685" s="91">
+        <v>0</v>
+      </c>
+      <c r="P685" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q685" s="91">
         <v>9800</v>
       </c>
-      <c r="R685" s="33" t="s">
+      <c r="R685" s="91" t="s">
         <v>1649</v>
       </c>
-      <c r="S685" s="37" t="s">
+      <c r="S685" s="92" t="s">
         <v>1578</v>
       </c>
-      <c r="X685" s="21" t="s">
+      <c r="X685" s="91" t="s">
         <v>1302</v>
       </c>
-      <c r="Y685" s="33">
+      <c r="Y685" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z685" s="36">
+      <c r="Z685" s="91">
         <v>1624924800</v>
       </c>
-      <c r="AA685" s="36">
+      <c r="AA685" s="91">
         <v>1627315199</v>
       </c>
-      <c r="AB685" s="36">
+      <c r="AB685" s="91">
         <v>69</v>
       </c>
-      <c r="AI685" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ685" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM685" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN685" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="686" spans="1:40">
-      <c r="A686" s="21">
+      <c r="AI685" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ685" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM685" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN685" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:40" s="91" customFormat="1">
+      <c r="A686" s="91">
         <v>685</v>
       </c>
-      <c r="B686" s="36">
+      <c r="B686" s="91">
         <v>10602</v>
       </c>
-      <c r="F686" s="36">
-        <v>0</v>
-      </c>
-      <c r="G686" s="36" t="s">
+      <c r="F686" s="91">
+        <v>0</v>
+      </c>
+      <c r="G686" s="91" t="s">
         <v>1648</v>
       </c>
-      <c r="K686" s="33" t="s">
+      <c r="H686" s="95"/>
+      <c r="K686" s="91" t="s">
         <v>1579</v>
       </c>
-      <c r="M686" s="33">
+      <c r="M686" s="91">
         <v>-31</v>
       </c>
-      <c r="N686" s="33">
-        <v>0</v>
-      </c>
-      <c r="O686" s="33">
-        <v>0</v>
-      </c>
-      <c r="P686" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q686" s="36">
+      <c r="N686" s="91">
+        <v>0</v>
+      </c>
+      <c r="O686" s="91">
+        <v>0</v>
+      </c>
+      <c r="P686" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q686" s="91">
         <v>4800</v>
       </c>
-      <c r="R686" s="33" t="s">
+      <c r="R686" s="91" t="s">
         <v>1649</v>
       </c>
-      <c r="S686" s="37" t="s">
+      <c r="S686" s="92" t="s">
         <v>1580</v>
       </c>
-      <c r="X686" s="21" t="s">
+      <c r="X686" s="91" t="s">
         <v>1302</v>
       </c>
-      <c r="Y686" s="33">
+      <c r="Y686" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z686" s="36">
+      <c r="Z686" s="91">
         <v>1624924800</v>
       </c>
-      <c r="AA686" s="36">
+      <c r="AA686" s="91">
         <v>1627315199</v>
       </c>
-      <c r="AB686" s="36">
+      <c r="AB686" s="91">
         <v>69</v>
       </c>
-      <c r="AI686" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ686" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM686" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN686" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="687" spans="1:40">
-      <c r="A687" s="21">
+      <c r="AI686" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ686" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM686" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN686" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:40" s="91" customFormat="1">
+      <c r="A687" s="91">
         <v>686</v>
       </c>
-      <c r="B687" s="36">
+      <c r="B687" s="91">
         <v>10603</v>
       </c>
-      <c r="F687" s="36">
-        <v>0</v>
-      </c>
-      <c r="G687" s="36" t="s">
+      <c r="F687" s="91">
+        <v>0</v>
+      </c>
+      <c r="G687" s="91" t="s">
         <v>1648</v>
       </c>
-      <c r="K687" s="33" t="s">
+      <c r="H687" s="95"/>
+      <c r="K687" s="91" t="s">
         <v>1581</v>
       </c>
-      <c r="M687" s="33">
+      <c r="M687" s="91">
         <v>-31</v>
       </c>
-      <c r="N687" s="33">
-        <v>0</v>
-      </c>
-      <c r="O687" s="33">
-        <v>0</v>
-      </c>
-      <c r="P687" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q687" s="36">
+      <c r="N687" s="91">
+        <v>0</v>
+      </c>
+      <c r="O687" s="91">
+        <v>0</v>
+      </c>
+      <c r="P687" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q687" s="91">
         <v>2000</v>
       </c>
-      <c r="R687" s="33" t="s">
+      <c r="R687" s="91" t="s">
         <v>1649</v>
       </c>
-      <c r="S687" s="37" t="s">
+      <c r="S687" s="92" t="s">
         <v>1582</v>
       </c>
-      <c r="X687" s="21" t="s">
+      <c r="X687" s="91" t="s">
         <v>1302</v>
       </c>
-      <c r="Y687" s="33">
+      <c r="Y687" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z687" s="36">
+      <c r="Z687" s="91">
         <v>1624924800</v>
       </c>
-      <c r="AA687" s="36">
+      <c r="AA687" s="91">
         <v>1627315199</v>
       </c>
-      <c r="AB687" s="36">
+      <c r="AB687" s="91">
         <v>69</v>
       </c>
-      <c r="AI687" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ687" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM687" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN687" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="688" spans="1:40">
-      <c r="A688" s="21">
+      <c r="AI687" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ687" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM687" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN687" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:40" s="91" customFormat="1">
+      <c r="A688" s="91">
         <v>687</v>
       </c>
-      <c r="B688" s="36">
+      <c r="B688" s="91">
         <v>10604</v>
       </c>
-      <c r="F688" s="36">
-        <v>0</v>
-      </c>
-      <c r="G688" s="36" t="s">
+      <c r="F688" s="91">
+        <v>0</v>
+      </c>
+      <c r="G688" s="91" t="s">
         <v>1648</v>
       </c>
-      <c r="K688" s="33" t="s">
+      <c r="H688" s="95"/>
+      <c r="K688" s="91" t="s">
         <v>1583</v>
       </c>
-      <c r="M688" s="33">
+      <c r="M688" s="91">
         <v>-31</v>
       </c>
-      <c r="N688" s="33">
-        <v>0</v>
-      </c>
-      <c r="O688" s="33">
-        <v>0</v>
-      </c>
-      <c r="P688" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q688" s="36">
+      <c r="N688" s="91">
+        <v>0</v>
+      </c>
+      <c r="O688" s="91">
+        <v>0</v>
+      </c>
+      <c r="P688" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q688" s="91">
         <v>600</v>
       </c>
-      <c r="R688" s="33" t="s">
+      <c r="R688" s="91" t="s">
         <v>1649</v>
       </c>
-      <c r="S688" s="37" t="s">
+      <c r="S688" s="92" t="s">
         <v>1584</v>
       </c>
-      <c r="X688" s="21" t="s">
+      <c r="X688" s="91" t="s">
         <v>1302</v>
       </c>
-      <c r="Y688" s="33">
+      <c r="Y688" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z688" s="36">
+      <c r="Z688" s="91">
         <v>1624924800</v>
       </c>
-      <c r="AA688" s="36">
+      <c r="AA688" s="91">
         <v>1627315199</v>
       </c>
-      <c r="AB688" s="36">
+      <c r="AB688" s="91">
         <v>69</v>
       </c>
-      <c r="AI688" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ688" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM688" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN688" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="689" spans="1:40">
-      <c r="A689" s="21">
+      <c r="AI688" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ688" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM688" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN688" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:40" s="91" customFormat="1">
+      <c r="A689" s="91">
         <v>688</v>
       </c>
-      <c r="B689" s="36">
+      <c r="B689" s="91">
         <v>10605</v>
       </c>
-      <c r="F689" s="36">
-        <v>0</v>
-      </c>
-      <c r="G689" s="36" t="s">
+      <c r="F689" s="91">
+        <v>1</v>
+      </c>
+      <c r="G689" s="91" t="s">
         <v>1650</v>
       </c>
-      <c r="K689" s="33" t="s">
+      <c r="H689" s="95" t="s">
+        <v>1881</v>
+      </c>
+      <c r="K689" s="91" t="s">
         <v>1651</v>
       </c>
-      <c r="M689" s="33">
+      <c r="M689" s="91">
         <v>-31</v>
       </c>
-      <c r="N689" s="33">
-        <v>0</v>
-      </c>
-      <c r="O689" s="33">
-        <v>0</v>
-      </c>
-      <c r="P689" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q689" s="36">
+      <c r="N689" s="91">
+        <v>0</v>
+      </c>
+      <c r="O689" s="91">
+        <v>0</v>
+      </c>
+      <c r="P689" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q689" s="91">
         <v>49800</v>
       </c>
-      <c r="R689" s="33" t="s">
+      <c r="R689" s="91" t="s">
         <v>1573</v>
       </c>
-      <c r="S689" s="37" t="s">
+      <c r="S689" s="92" t="s">
         <v>1574</v>
       </c>
-      <c r="X689" s="21" t="s">
+      <c r="X689" s="91" t="s">
         <v>1302</v>
       </c>
-      <c r="Y689" s="33">
+      <c r="Y689" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z689" s="36">
-        <v>1625529600</v>
-      </c>
-      <c r="AA689" s="36">
-        <v>1626105599</v>
-      </c>
-      <c r="AB689" s="36">
+      <c r="Z689" s="91">
+        <v>1627948800</v>
+      </c>
+      <c r="AA689" s="91">
+        <v>1628524799</v>
+      </c>
+      <c r="AB689" s="91">
         <v>68</v>
       </c>
-      <c r="AI689" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ689" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM689" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN689" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="690" spans="1:40">
-      <c r="A690" s="21">
+      <c r="AI689" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ689" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM689" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN689" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:40" s="91" customFormat="1">
+      <c r="A690" s="91">
         <v>689</v>
       </c>
-      <c r="B690" s="36">
+      <c r="B690" s="91">
         <v>10606</v>
       </c>
-      <c r="F690" s="36">
-        <v>0</v>
-      </c>
-      <c r="G690" s="36" t="s">
+      <c r="F690" s="91">
+        <v>1</v>
+      </c>
+      <c r="G690" s="91" t="s">
         <v>1650</v>
       </c>
-      <c r="K690" s="33" t="s">
+      <c r="H690" s="96"/>
+      <c r="K690" s="91" t="s">
         <v>1652</v>
       </c>
-      <c r="M690" s="33">
+      <c r="M690" s="91">
         <v>-31</v>
       </c>
-      <c r="N690" s="33">
-        <v>0</v>
-      </c>
-      <c r="O690" s="33">
-        <v>0</v>
-      </c>
-      <c r="P690" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q690" s="36">
+      <c r="N690" s="91">
+        <v>0</v>
+      </c>
+      <c r="O690" s="91">
+        <v>0</v>
+      </c>
+      <c r="P690" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q690" s="91">
         <v>19800</v>
       </c>
-      <c r="R690" s="33" t="s">
+      <c r="R690" s="91" t="s">
         <v>1573</v>
       </c>
-      <c r="S690" s="37" t="s">
+      <c r="S690" s="92" t="s">
         <v>1576</v>
       </c>
-      <c r="X690" s="21" t="s">
+      <c r="X690" s="91" t="s">
         <v>1302</v>
       </c>
-      <c r="Y690" s="33">
+      <c r="Y690" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z690" s="36">
-        <v>1625529600</v>
-      </c>
-      <c r="AA690" s="36">
-        <v>1626105599</v>
-      </c>
-      <c r="AB690" s="36">
+      <c r="Z690" s="91">
+        <v>1627948800</v>
+      </c>
+      <c r="AA690" s="91">
+        <v>1628524799</v>
+      </c>
+      <c r="AB690" s="91">
         <v>68</v>
       </c>
-      <c r="AI690" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ690" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM690" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN690" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="691" spans="1:40">
-      <c r="A691" s="21">
+      <c r="AI690" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ690" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM690" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN690" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:40" s="91" customFormat="1">
+      <c r="A691" s="91">
         <v>690</v>
       </c>
-      <c r="B691" s="36">
+      <c r="B691" s="91">
         <v>10607</v>
       </c>
-      <c r="F691" s="36">
-        <v>0</v>
-      </c>
-      <c r="G691" s="36" t="s">
+      <c r="F691" s="91">
+        <v>1</v>
+      </c>
+      <c r="G691" s="91" t="s">
         <v>1650</v>
       </c>
-      <c r="K691" s="33" t="s">
+      <c r="H691" s="96"/>
+      <c r="K691" s="91" t="s">
         <v>1653</v>
       </c>
-      <c r="M691" s="33">
+      <c r="M691" s="91">
         <v>-31</v>
       </c>
-      <c r="N691" s="33">
-        <v>0</v>
-      </c>
-      <c r="O691" s="33">
-        <v>0</v>
-      </c>
-      <c r="P691" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q691" s="36">
+      <c r="N691" s="91">
+        <v>0</v>
+      </c>
+      <c r="O691" s="91">
+        <v>0</v>
+      </c>
+      <c r="P691" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q691" s="91">
         <v>9800</v>
       </c>
-      <c r="R691" s="33" t="s">
+      <c r="R691" s="91" t="s">
         <v>1573</v>
       </c>
-      <c r="S691" s="37" t="s">
+      <c r="S691" s="92" t="s">
         <v>1578</v>
       </c>
-      <c r="X691" s="21" t="s">
+      <c r="X691" s="91" t="s">
         <v>1302</v>
       </c>
-      <c r="Y691" s="33">
+      <c r="Y691" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z691" s="36">
-        <v>1625529600</v>
-      </c>
-      <c r="AA691" s="36">
-        <v>1626105599</v>
-      </c>
-      <c r="AB691" s="36">
+      <c r="Z691" s="91">
+        <v>1627948800</v>
+      </c>
+      <c r="AA691" s="91">
+        <v>1628524799</v>
+      </c>
+      <c r="AB691" s="91">
         <v>68</v>
       </c>
-      <c r="AI691" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ691" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM691" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN691" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="692" spans="1:40">
-      <c r="A692" s="21">
+      <c r="AI691" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ691" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM691" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN691" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:40" s="91" customFormat="1">
+      <c r="A692" s="91">
         <v>691</v>
       </c>
-      <c r="B692" s="36">
+      <c r="B692" s="91">
         <v>10608</v>
       </c>
-      <c r="F692" s="36">
-        <v>0</v>
-      </c>
-      <c r="G692" s="36" t="s">
+      <c r="F692" s="91">
+        <v>1</v>
+      </c>
+      <c r="G692" s="91" t="s">
         <v>1650</v>
       </c>
-      <c r="K692" s="33" t="s">
+      <c r="H692" s="96"/>
+      <c r="K692" s="91" t="s">
         <v>1654</v>
       </c>
-      <c r="M692" s="33">
+      <c r="M692" s="91">
         <v>-31</v>
       </c>
-      <c r="N692" s="33">
-        <v>0</v>
-      </c>
-      <c r="O692" s="33">
-        <v>0</v>
-      </c>
-      <c r="P692" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q692" s="36">
+      <c r="N692" s="91">
+        <v>0</v>
+      </c>
+      <c r="O692" s="91">
+        <v>0</v>
+      </c>
+      <c r="P692" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q692" s="91">
         <v>4800</v>
       </c>
-      <c r="R692" s="33" t="s">
+      <c r="R692" s="91" t="s">
         <v>1573</v>
       </c>
-      <c r="S692" s="37" t="s">
+      <c r="S692" s="92" t="s">
         <v>1580</v>
       </c>
-      <c r="X692" s="21" t="s">
+      <c r="X692" s="91" t="s">
         <v>1302</v>
       </c>
-      <c r="Y692" s="33">
+      <c r="Y692" s="91">
         <v>99999999</v>
       </c>
-      <c r="Z692" s="36">
-        <v>1625529600</v>
-      </c>
-      <c r="AA692" s="36">
-        <v>1626105599</v>
-      </c>
-      <c r="AB692" s="36">
+      <c r="Z692" s="91">
+        <v>1627948800</v>
+      </c>
+      <c r="AA692" s="91">
+        <v>1628524799</v>
+      </c>
+      <c r="AB692" s="91">
         <v>68</v>
       </c>
-      <c r="AI692" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ692" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM692" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN692" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="693" spans="1:40">
-      <c r="A693" s="21">
+      <c r="AI692" s="91">
+        <v>1</v>
+      </c>
+      <c r="AJ692" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM692" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN692" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:40" s="91" customFormat="1">
+      <c r="A693" s="91">
         <v>692</v>
       </c>
-      <c r="B693" s="36">
+      <c r="B693" s="91">
         <v>10609</v>
       </c>
-      <c r="F693" s="36">
-        <v>0</v>
-      </c>
-      <c r="G693" s="36" t="s">
+      <c r="F693" s="91">
+        <v>1</v>
+      </c>
+      <c r="G693" s="91" t="s">
         <v>1650</v>
       </c>
-      <c r="K693" s="33" t="s">
+      <c r="H693" s="96"/>
+      <c r="K693" s="91" t="s">
         <v>1655</v>
       </c>
-      <c r="M693" s="33">
+      <c r="M693" s="91">
         <v>-31</v>
       </c>
-      <c r="N693" s="33">
-        <v>0</v>
-      </c>
-      <c r="O693" s="33">
-        <v>0</v>
-      </c>
-      <c r="P693" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q693" s="36">
+      <c r="N693" s="91">
+        <v>0</v>
+      </c>
+      <c r="O693" s="91">
+        <v>0</v>
+      </c>
+      <c r="P693" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q693" s="91">
         <v>2000</v>
       </c>
-      <c r="R693" s="33" t="s">
+      <c r="R693" s="91" t="s">
         <v>1573</v>
       </c>
-      <c r="S693" s="37" t="s">
+      <c r="S69